--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="1927">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46143746376038</t>
+    <t xml:space="preserve">2.46143770217896</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50832200050354</t>
+    <t xml:space="preserve">2.50832176208496</t>
   </si>
   <si>
     <t xml:space="preserve">2.44580912590027</t>
@@ -53,106 +53,106 @@
     <t xml:space="preserve">2.45622825622559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43669271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43929719924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236685752869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883250236511</t>
+    <t xml:space="preserve">2.43669295310974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43929743766785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236709594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883297920227</t>
   </si>
   <si>
     <t xml:space="preserve">2.4340877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38980793952942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34683108329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37418055534363</t>
+    <t xml:space="preserve">2.38980865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34683084487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37418007850647</t>
   </si>
   <si>
     <t xml:space="preserve">2.30255103111267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37678456306458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42757630348206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41455268859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44841408729553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47836828231812</t>
+    <t xml:space="preserve">2.37678503990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42757654190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41455316543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44841361045837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47836780548096</t>
   </si>
   <si>
     <t xml:space="preserve">2.39111065864563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45362329483032</t>
+    <t xml:space="preserve">2.4536235332489</t>
   </si>
   <si>
     <t xml:space="preserve">2.4471116065979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41064643859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3624587059021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30906295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27780652046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27520179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29603910446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21268916130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30385327339172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3819944858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36636662483215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.372878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35724949836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36897087097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30515551567078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39892435073853</t>
+    <t xml:space="preserve">2.41064596176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36245918273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30906319618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27780628204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27520203590393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29603958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21268892288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30385303497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38199424743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.366366147995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37287735939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35724973678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3689706325531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30515599250793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39892506599426</t>
   </si>
   <si>
     <t xml:space="preserve">2.41194844245911</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43539023399353</t>
+    <t xml:space="preserve">2.43539047241211</t>
   </si>
   <si>
     <t xml:space="preserve">2.41845989227295</t>
@@ -161,61 +161,61 @@
     <t xml:space="preserve">2.38459897041321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39371562004089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46664690971375</t>
+    <t xml:space="preserve">2.39371538162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46664714813232</t>
   </si>
   <si>
     <t xml:space="preserve">2.47967052459717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54739260673523</t>
+    <t xml:space="preserve">2.54739284515381</t>
   </si>
   <si>
     <t xml:space="preserve">2.5395781993866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53306674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53697395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55911350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999685287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5526020526886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348564147949</t>
+    <t xml:space="preserve">2.53306698799133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53697347640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5591139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999756813049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55260181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348516464233</t>
   </si>
   <si>
     <t xml:space="preserve">2.53176403045654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54609036445618</t>
+    <t xml:space="preserve">2.54608964920044</t>
   </si>
   <si>
     <t xml:space="preserve">2.58646273612976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60469555854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53827619552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5252525806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50181031227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887854576111</t>
+    <t xml:space="preserve">2.60469603538513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53827595710754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52525305747986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5018105506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887902259827</t>
   </si>
   <si>
     <t xml:space="preserve">2.38329672813416</t>
@@ -224,103 +224,103 @@
     <t xml:space="preserve">2.44971656799316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46013522148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44190192222595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48878693580627</t>
+    <t xml:space="preserve">2.46013498306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44190216064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48878717422485</t>
   </si>
   <si>
     <t xml:space="preserve">2.49920582771301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55650949478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52655506134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427690505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63985896110535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57734632492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57604384422302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56302070617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54088068008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860252380371</t>
+    <t xml:space="preserve">2.55650877952576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52655482292175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427714347839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63985919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57734656333923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57604432106018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5630202293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54088091850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516049385071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860276222229</t>
   </si>
   <si>
     <t xml:space="preserve">2.61511421203613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57213687896729</t>
+    <t xml:space="preserve">2.57213735580444</t>
   </si>
   <si>
     <t xml:space="preserve">2.58906722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56562566757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59818410873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57474184036255</t>
+    <t xml:space="preserve">2.56562495231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59818387031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57474160194397</t>
   </si>
   <si>
     <t xml:space="preserve">2.64506816864014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65288233757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67372012138367</t>
+    <t xml:space="preserve">2.65288257598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67371988296509</t>
   </si>
   <si>
     <t xml:space="preserve">2.6685106754303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68153476715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62944078445435</t>
+    <t xml:space="preserve">2.68153405189514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62944030761719</t>
   </si>
   <si>
     <t xml:space="preserve">2.63855695724487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61641669273376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67893004417419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68674349784851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68413925170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5929753780365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55129981040955</t>
+    <t xml:space="preserve">2.61641693115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67892909049988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68674373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68413901329041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59297466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55129933357239</t>
   </si>
   <si>
     <t xml:space="preserve">2.50701975822449</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">2.68282341957092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68960475921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64891457557678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401858329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4413959980011</t>
+    <t xml:space="preserve">2.68960452079773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64891481399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401882171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44139623641968</t>
   </si>
   <si>
     <t xml:space="preserve">2.43190169334412</t>
@@ -353,127 +353,127 @@
     <t xml:space="preserve">2.64484596252441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69909977912903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69638657569885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70045566558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63263869285583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61500644683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66519141197205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68417930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70588111877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70723724365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70994973182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69231724739075</t>
+    <t xml:space="preserve">2.69909930229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69638633728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7004554271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63263893127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61500668525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66519093513489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68417954444885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70588040351868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70723700523376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70994997024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69231748580933</t>
   </si>
   <si>
     <t xml:space="preserve">2.72893857955933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73165082931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72486925125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72080016136169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79268598556519</t>
+    <t xml:space="preserve">2.73165106773376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7248694896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72080063819885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79268574714661</t>
   </si>
   <si>
     <t xml:space="preserve">2.77912282943726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74250149726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73029470443726</t>
+    <t xml:space="preserve">2.74250221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73029446601868</t>
   </si>
   <si>
     <t xml:space="preserve">2.74114513397217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77640962600708</t>
+    <t xml:space="preserve">2.77640986442566</t>
   </si>
   <si>
     <t xml:space="preserve">2.76284646987915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7547082901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74928307533264</t>
+    <t xml:space="preserve">2.75470876693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74928331375122</t>
   </si>
   <si>
     <t xml:space="preserve">2.78726053237915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78319144248962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71808791160583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66790366172791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67061614990234</t>
+    <t xml:space="preserve">2.7831916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71808743476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66790342330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67061638832092</t>
   </si>
   <si>
     <t xml:space="preserve">2.63806438446045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64348912239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197251319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67332863807678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68011021614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6977424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65569639205933</t>
+    <t xml:space="preserve">2.64348936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197227478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67332887649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68011045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69774270057678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65569663047791</t>
   </si>
   <si>
     <t xml:space="preserve">2.67604184150696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73707628250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978900909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72622537612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80082392692566</t>
+    <t xml:space="preserve">2.7370765209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978924751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72622585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80082368850708</t>
   </si>
   <si>
     <t xml:space="preserve">2.78454780578613</t>
@@ -482,46 +482,46 @@
     <t xml:space="preserve">2.7465705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69096088409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65298414230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65705275535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63128280639648</t>
+    <t xml:space="preserve">2.6909613609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65298390388489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65705299377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63128256797791</t>
   </si>
   <si>
     <t xml:space="preserve">2.66247844696045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65162754058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69367361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65976548194885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66383457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69503045082092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65434002876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61093759536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59601807594299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55804085731506</t>
+    <t xml:space="preserve">2.6516273021698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69367337226868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65976524353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66383409500122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69503021240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6543402671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61093783378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59601783752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55804061889648</t>
   </si>
   <si>
     <t xml:space="preserve">2.59737420082092</t>
@@ -530,70 +530,70 @@
     <t xml:space="preserve">2.5729603767395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55261540412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144281387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59059238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68146681785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65027117729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67468476295471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65840935707092</t>
+    <t xml:space="preserve">2.55261564254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59059262275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68146657943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65027141571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67468523979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65840888023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.60822463035583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60008645057678</t>
+    <t xml:space="preserve">2.60008716583252</t>
   </si>
   <si>
     <t xml:space="preserve">2.58923673629761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60415554046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62314486503601</t>
+    <t xml:space="preserve">2.60415601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62314462661743</t>
   </si>
   <si>
     <t xml:space="preserve">2.56075358390808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47259163856506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852278709412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44682145118713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47666025161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51192569732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45224690437317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47394800186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55125904083252</t>
+    <t xml:space="preserve">2.47259187698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852254867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44682168960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47530436515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47666120529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51192545890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45224642753601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47394824028015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5512592792511</t>
   </si>
   <si>
     <t xml:space="preserve">2.53905177116394</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">2.52820134162903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53362655639648</t>
+    <t xml:space="preserve">2.53362679481506</t>
   </si>
   <si>
     <t xml:space="preserve">2.57024765014648</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">2.77234101295471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76555919647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72758173942566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75063943862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404187202454</t>
+    <t xml:space="preserve">2.76555943489075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72758197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75063991546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404234886169</t>
   </si>
   <si>
     <t xml:space="preserve">2.82252502441406</t>
@@ -635,64 +635,64 @@
     <t xml:space="preserve">2.80489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81981253623962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84015774726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86321544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659435272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066320419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83473229408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81574368476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79539847373962</t>
+    <t xml:space="preserve">2.8198127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84015703201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86321520805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659482955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066272735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473205566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81574296951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7953987121582</t>
   </si>
   <si>
     <t xml:space="preserve">2.80218029022217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82388138771057</t>
+    <t xml:space="preserve">2.82388162612915</t>
   </si>
   <si>
     <t xml:space="preserve">2.81031823158264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81303095817566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80760550498962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8311755657196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82562971115112</t>
+    <t xml:space="preserve">2.81303119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80760526657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83117580413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8256299495697</t>
   </si>
   <si>
     <t xml:space="preserve">2.78126263618469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7604660987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72718977928162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66895818710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67866373062134</t>
+    <t xml:space="preserve">2.76046562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72719025611877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66895866394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67866349220276</t>
   </si>
   <si>
     <t xml:space="preserve">2.68005013465881</t>
@@ -701,73 +701,73 @@
     <t xml:space="preserve">2.69391489028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71471190452576</t>
+    <t xml:space="preserve">2.71471166610718</t>
   </si>
   <si>
     <t xml:space="preserve">2.66202592849731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68559575080872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79928660392761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80621933937073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79512763023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78680801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74382734298706</t>
+    <t xml:space="preserve">2.68559622764587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79928708076477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80621862411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79512739181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78680849075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7438280582428</t>
   </si>
   <si>
     <t xml:space="preserve">2.7854220867157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80067348480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77433013916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77987623214722</t>
+    <t xml:space="preserve">2.80067324638367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77433037757874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77987670898438</t>
   </si>
   <si>
     <t xml:space="preserve">2.75491976737976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77294373512268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.814537525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80899214744568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83672189712524</t>
+    <t xml:space="preserve">2.77294397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81453824043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80899167060852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83672142028809</t>
   </si>
   <si>
     <t xml:space="preserve">2.86029148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86445116996765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86999702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89079356193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90327191352844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89772605895996</t>
+    <t xml:space="preserve">2.86445093154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86999654769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89079403877258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90327215194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89772629737854</t>
   </si>
   <si>
     <t xml:space="preserve">2.89911270141602</t>
@@ -776,58 +776,58 @@
     <t xml:space="preserve">2.88247489929199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94625234603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91852307319641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90465879440308</t>
+    <t xml:space="preserve">2.94625306129456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91852331161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9046585559845</t>
   </si>
   <si>
     <t xml:space="preserve">2.92545557022095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98230075836182</t>
+    <t xml:space="preserve">2.98230123519897</t>
   </si>
   <si>
     <t xml:space="preserve">2.97259569168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9878466129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00864434242249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0169632434845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02805471420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994391441345</t>
+    <t xml:space="preserve">2.98784685134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00864362716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01696300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02805399894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994319915771</t>
   </si>
   <si>
     <t xml:space="preserve">3.0585572719574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05301141738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03914666175842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05023837089539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01834917068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03637361526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498721122742</t>
+    <t xml:space="preserve">3.05301070213318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03914618492126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05023860931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01834940910339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03637313842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498697280884</t>
   </si>
   <si>
     <t xml:space="preserve">3.00032520294189</t>
@@ -836,118 +836,118 @@
     <t xml:space="preserve">2.9407069683075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98091506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0862865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07103538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05578422546387</t>
+    <t xml:space="preserve">2.98091459274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08628702163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07103514671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05578398704529</t>
   </si>
   <si>
     <t xml:space="preserve">3.04885172843933</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02528095245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06687521934509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380795478821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14313149452209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363429069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16670179367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15422391891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16808867454529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16254234313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1653151512146</t>
+    <t xml:space="preserve">3.02528142929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06687641143799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380843162537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14313197135925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363405227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16670203208923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15422368049622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16808819770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16254186630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16531467437744</t>
   </si>
   <si>
     <t xml:space="preserve">3.16947484016418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24573040008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829558372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522855758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711728096008</t>
+    <t xml:space="preserve">3.24573111534119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522831916809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2471170425415</t>
   </si>
   <si>
     <t xml:space="preserve">3.27900576591492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31782674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30673551559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307862281799</t>
+    <t xml:space="preserve">3.31782793998718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593802452087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3067352771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307838439941</t>
   </si>
   <si>
     <t xml:space="preserve">3.25820875167847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27761936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29841709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31505441665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26791453361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3136682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32475924491882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42597126960754</t>
+    <t xml:space="preserve">3.27762007713318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29841637611389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31505465507507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26791477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31366848945618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32475900650024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4259717464447</t>
   </si>
   <si>
     <t xml:space="preserve">3.39546966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35803508758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3621940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496734619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37189865112305</t>
+    <t xml:space="preserve">3.35803461074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36219429969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496782302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37189936637878</t>
   </si>
   <si>
     <t xml:space="preserve">3.41072082519531</t>
@@ -956,109 +956,109 @@
     <t xml:space="preserve">3.41903948783875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39131021499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45231461524963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4148805141449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43151760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32753348350525</t>
+    <t xml:space="preserve">3.39131045341492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45231485366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41488027572632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43151807785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32753324508667</t>
   </si>
   <si>
     <t xml:space="preserve">3.3552622795105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28732514381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404930114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29980278015137</t>
+    <t xml:space="preserve">3.28732490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404906272888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2998034954071</t>
   </si>
   <si>
     <t xml:space="preserve">3.2887110710144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25127696990967</t>
+    <t xml:space="preserve">3.25127625465393</t>
   </si>
   <si>
     <t xml:space="preserve">3.27207326889038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32614612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32060027122498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37744569778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44676923751831</t>
+    <t xml:space="preserve">3.32614636421204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3206000328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.377445936203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44676899909973</t>
   </si>
   <si>
     <t xml:space="preserve">3.44538259506226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41210675239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4384503364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44261026382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40378856658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43203520774841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38825249671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43062305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45322036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955139160156</t>
+    <t xml:space="preserve">3.41210770606995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43845081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4426097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40378880500793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43203616142273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38825178146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43062329292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45322132110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955163002014</t>
   </si>
   <si>
     <t xml:space="preserve">3.40661287307739</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45180916786194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44615936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48853087425232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960206031799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51819014549255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.512540102005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47723126411438</t>
+    <t xml:space="preserve">3.45180821418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44615912437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48852920532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51818990707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53796315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51253986358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47723150253296</t>
   </si>
   <si>
     <t xml:space="preserve">3.552086353302</t>
@@ -1073,136 +1073,136 @@
     <t xml:space="preserve">3.55914831161499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51677680015564</t>
+    <t xml:space="preserve">3.51677703857422</t>
   </si>
   <si>
     <t xml:space="preserve">3.58739542961121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59798789024353</t>
+    <t xml:space="preserve">3.59798836708069</t>
   </si>
   <si>
     <t xml:space="preserve">3.59092617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62976551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60858106613159</t>
+    <t xml:space="preserve">3.62976574897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60858058929443</t>
   </si>
   <si>
     <t xml:space="preserve">3.61211156845093</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63329696655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6650755405426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6544828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391488075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860604286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388966560364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60504937171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63682794570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61564207077026</t>
+    <t xml:space="preserve">3.63329672813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66507530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65448212623596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6686053276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388918876648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60504984855652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63682770729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61564183235168</t>
   </si>
   <si>
     <t xml:space="preserve">3.61917328834534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60151839256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56620979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50689148902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56267952919006</t>
+    <t xml:space="preserve">3.60151934623718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5662100315094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50689077377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56267881393433</t>
   </si>
   <si>
     <t xml:space="preserve">3.58386373519897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64742112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095138549805</t>
+    <t xml:space="preserve">3.64742040634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095090866089</t>
   </si>
   <si>
     <t xml:space="preserve">3.66154408454895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64035964012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801358222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68625974655151</t>
+    <t xml:space="preserve">3.64035868644714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6580126285553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68625998497009</t>
   </si>
   <si>
     <t xml:space="preserve">3.73569250106812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73216199874878</t>
+    <t xml:space="preserve">3.7321617603302</t>
   </si>
   <si>
     <t xml:space="preserve">3.75687861442566</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76040887832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80278086662292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78865647315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7957181930542</t>
+    <t xml:space="preserve">3.76040935516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80277967453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78865623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79571747779846</t>
   </si>
   <si>
     <t xml:space="preserve">3.80631136894226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80984210968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512620925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747107505798</t>
+    <t xml:space="preserve">3.8098418712616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7851254940033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747155189514</t>
   </si>
   <si>
     <t xml:space="preserve">3.72510075569153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71097731590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71803855895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73922395706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6827290058136</t>
+    <t xml:space="preserve">3.71097707748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803832054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73922419548035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68272948265076</t>
   </si>
   <si>
     <t xml:space="preserve">3.68979144096375</t>
@@ -1211,91 +1211,91 @@
     <t xml:space="preserve">3.74981641769409</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7815957069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690430641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633658409119</t>
+    <t xml:space="preserve">3.78159499168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690454483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633586883545</t>
   </si>
   <si>
     <t xml:space="preserve">3.85221314430237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79218769073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86280584335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90164494514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9193000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94048643112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89105248451233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8310272693634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574412345886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334763526917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70038461685181</t>
+    <t xml:space="preserve">3.79218697547913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86280512809753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90164589881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91929984092712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94048523902893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89105343818665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83102798461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75334811210632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70038414001465</t>
   </si>
   <si>
     <t xml:space="preserve">3.62270426750183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77100205421448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275469779968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79190683364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390241622925</t>
+    <t xml:space="preserve">3.77100253105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275517463684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7919065952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390193939209</t>
   </si>
   <si>
     <t xml:space="preserve">3.73068928718567</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71628499031067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69035696983337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65002536773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027472496033</t>
+    <t xml:space="preserve">3.71628475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69035744667053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65002584457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027400970459</t>
   </si>
   <si>
     <t xml:space="preserve">3.64858484268188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57944464683533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53551197052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43468284606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030421257019</t>
+    <t xml:space="preserve">3.57944488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53551244735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468236923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030492782593</t>
   </si>
   <si>
     <t xml:space="preserve">3.40083289146423</t>
@@ -1304,25 +1304,25 @@
     <t xml:space="preserve">3.33745431900024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37634563446045</t>
+    <t xml:space="preserve">3.37634587287903</t>
   </si>
   <si>
     <t xml:space="preserve">3.35185837745667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.451247215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022125244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43540287017822</t>
+    <t xml:space="preserve">3.44260478019714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45124697685242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022196769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116425514221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4354031085968</t>
   </si>
   <si>
     <t xml:space="preserve">3.3849880695343</t>
@@ -1331,43 +1331,43 @@
     <t xml:space="preserve">3.48221611976624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4757354259491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365688323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188451766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401940345764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3857090473175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40587425231934</t>
+    <t xml:space="preserve">3.47573447227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365664482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44188475608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964053153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38570857048035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40587449073792</t>
   </si>
   <si>
     <t xml:space="preserve">3.44044470787048</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48581790924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4829375743866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742363929749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49301910400391</t>
+    <t xml:space="preserve">3.48581767082214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48293709754944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077607154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742435455322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49302005767822</t>
   </si>
   <si>
     <t xml:space="preserve">3.51750659942627</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">3.55063676834106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51174521446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45412802696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49373984336853</t>
+    <t xml:space="preserve">3.51174545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45412826538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49373936653137</t>
   </si>
   <si>
     <t xml:space="preserve">3.44692587852478</t>
@@ -1391,148 +1391,148 @@
     <t xml:space="preserve">3.45484852790833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58304524421692</t>
+    <t xml:space="preserve">3.58304595947266</t>
   </si>
   <si>
     <t xml:space="preserve">3.56864190101624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57440304756165</t>
+    <t xml:space="preserve">3.5744035243988</t>
   </si>
   <si>
     <t xml:space="preserve">3.63706159591675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63418102264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65578746795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64570426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6817147731781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315482139587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221253395081</t>
+    <t xml:space="preserve">3.63418078422546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154885292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65578722953796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64570379257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68171405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221277236938</t>
   </si>
   <si>
     <t xml:space="preserve">3.73933124542236</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72348690032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74653387069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73357009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830671310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110432624817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79406809806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592270851135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151841163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049244880676</t>
+    <t xml:space="preserve">3.72348737716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74653363227844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73357081413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830647468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110384941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406690597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592294692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88049292564392</t>
   </si>
   <si>
     <t xml:space="preserve">3.78398466110229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65434670448303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65146589279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67883348464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7004406452179</t>
+    <t xml:space="preserve">3.65434694290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65146613121033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6788341999054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70043992996216</t>
   </si>
   <si>
     <t xml:space="preserve">3.56288027763367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58880758285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52758979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52831077575684</t>
+    <t xml:space="preserve">3.58880710601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52758955955505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5283100605011</t>
   </si>
   <si>
     <t xml:space="preserve">3.5160665512085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51246547698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49950218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955876350403</t>
+    <t xml:space="preserve">3.51246523857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49950194358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955828666687</t>
   </si>
   <si>
     <t xml:space="preserve">3.39363050460815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31080627441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42243933677673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38714909553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40947532653809</t>
+    <t xml:space="preserve">3.31080603599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.422438621521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38714838027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40947508811951</t>
   </si>
   <si>
     <t xml:space="preserve">3.4476466178894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38426852226257</t>
+    <t xml:space="preserve">3.38426756858826</t>
   </si>
   <si>
     <t xml:space="preserve">3.37130451202393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30864548683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4282009601593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44332504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50958490371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50886464118958</t>
+    <t xml:space="preserve">3.30864596366882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42820048332214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44332528114319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50958466529846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.508864402771</t>
   </si>
   <si>
     <t xml:space="preserve">3.48149657249451</t>
@@ -1541,55 +1541,55 @@
     <t xml:space="preserve">3.47933554649353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47429394721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39435052871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41811776161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37202429771423</t>
+    <t xml:space="preserve">3.47429370880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39435076713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41811800003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37202477455139</t>
   </si>
   <si>
     <t xml:space="preserve">3.39795160293579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.436842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41451692581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42603969573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41667699813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47213435173035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45988988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590039253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51822733879089</t>
+    <t xml:space="preserve">3.43684339523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41451668739319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42603993415833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41667771339417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47213339805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45989012718201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590063095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51822686195374</t>
   </si>
   <si>
     <t xml:space="preserve">3.49518013000488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49013924598694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46493172645569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310182571411</t>
+    <t xml:space="preserve">3.49013876914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46493124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310277938843</t>
   </si>
   <si>
     <t xml:space="preserve">3.49085927009583</t>
@@ -1604,40 +1604,40 @@
     <t xml:space="preserve">3.53119087219238</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53335118293762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49856615066528</t>
+    <t xml:space="preserve">3.5333514213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49856543540955</t>
   </si>
   <si>
     <t xml:space="preserve">3.47192120552063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45119786262512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46229934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49042463302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48080253601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5303909778595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346766471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32685685157776</t>
+    <t xml:space="preserve">3.45119738578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46229982376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49042439460754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48080277442932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53039121627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32685732841492</t>
   </si>
   <si>
     <t xml:space="preserve">3.34980082511902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35054063796997</t>
+    <t xml:space="preserve">3.35054087638855</t>
   </si>
   <si>
     <t xml:space="preserve">3.39420819282532</t>
@@ -1649,46 +1649,46 @@
     <t xml:space="preserve">3.37718558311462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30761384963989</t>
+    <t xml:space="preserve">3.30761337280273</t>
   </si>
   <si>
     <t xml:space="preserve">3.29059076309204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31427478790283</t>
+    <t xml:space="preserve">3.31427502632141</t>
   </si>
   <si>
     <t xml:space="preserve">3.27948904037476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27504849433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2639467716217</t>
+    <t xml:space="preserve">3.27504777908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26394629478455</t>
   </si>
   <si>
     <t xml:space="preserve">3.29873204231262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28467011451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24692344665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024580001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24766373634338</t>
+    <t xml:space="preserve">3.28466987609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24692368507385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024603843689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2476634979248</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397994995117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23508143424988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18919372558594</t>
+    <t xml:space="preserve">3.2350811958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18919444084167</t>
   </si>
   <si>
     <t xml:space="preserve">3.1529278755188</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">3.14034581184387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17587184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17513155937195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24026250839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2580258846283</t>
+    <t xml:space="preserve">3.17587161064148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17513108253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24026226997375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25802516937256</t>
   </si>
   <si>
     <t xml:space="preserve">3.37496495246887</t>
@@ -1715,70 +1715,70 @@
     <t xml:space="preserve">3.37348484992981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34387969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37422513961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682343482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34091901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608338356018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42899394035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236689567566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40382981300354</t>
+    <t xml:space="preserve">3.34388017654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37422466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34091949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608362197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42899346351624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236618041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40382933616638</t>
   </si>
   <si>
     <t xml:space="preserve">3.41271114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38976764678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542711257935</t>
+    <t xml:space="preserve">3.38976740837097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542687416077</t>
   </si>
   <si>
     <t xml:space="preserve">3.24322319030762</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26320624351501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3461000919342</t>
+    <t xml:space="preserve">3.26320576667786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34609985351562</t>
   </si>
   <si>
     <t xml:space="preserve">3.30095291137695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27356791496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878192901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2165789604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17365097999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29651188850403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26690697669983</t>
+    <t xml:space="preserve">3.27356767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952174186707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878240585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21657872200012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17365145683289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29651212692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26690673828125</t>
   </si>
   <si>
     <t xml:space="preserve">3.22916030883789</t>
@@ -1787,49 +1787,49 @@
     <t xml:space="preserve">3.27874898910522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28392958641052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26468658447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2417426109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2565450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20769691467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24100279808044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172566413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986718177795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30835366249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797528266907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32611632347107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29503154754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33055758476257</t>
+    <t xml:space="preserve">3.28392934799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2646861076355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24174308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25654530525208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20769739151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24100303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172614097595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986765861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30835390090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797575950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32611680030823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29503178596497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33055734634399</t>
   </si>
   <si>
     <t xml:space="preserve">3.37644505500793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40308976173401</t>
+    <t xml:space="preserve">3.40308952331543</t>
   </si>
   <si>
     <t xml:space="preserve">3.44823718070984</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">3.48228311538696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51928877830505</t>
+    <t xml:space="preserve">3.51928901672363</t>
   </si>
   <si>
     <t xml:space="preserve">3.52595019340515</t>
@@ -1850,172 +1850,172 @@
     <t xml:space="preserve">3.53779220581055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52151012420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54519391059875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56295657157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.551114320755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57479882240295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51336789131165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410841941833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966763496399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55777549743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64955115318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542191505432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.713942527771</t>
+    <t xml:space="preserve">3.52150917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54519295692444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5629563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55111408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5747983455658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5133683681488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410794258118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5577757358551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6495509147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71542167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394181251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.7109808921814</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70950150489807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7923948764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81015777587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83828186988831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73614597320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73318529129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7627899646759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76427030563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81607937812805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83088135719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8219997882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88565111160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84864449501038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85604524612427</t>
+    <t xml:space="preserve">3.70950126647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239439964294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81015753746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83828258514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73614501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7331850528717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76279067993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76427054405212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81607818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459832191467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83088207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82200026512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88565039634705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85604596138</t>
   </si>
   <si>
     <t xml:space="preserve">3.86344623565674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86196637153625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87824940681458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9285774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94226026535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9331386089325</t>
+    <t xml:space="preserve">3.86196660995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.878249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92857766151428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94226050376892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93313813209534</t>
   </si>
   <si>
     <t xml:space="preserve">3.90273141860962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93770027160645</t>
+    <t xml:space="preserve">3.93770003318787</t>
   </si>
   <si>
     <t xml:space="preserve">3.94682145118713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.925537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97874975204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00307512283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93009829521179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94074058532715</t>
+    <t xml:space="preserve">3.92553687095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483061790466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97874903678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00307416915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93009781837463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94074034690857</t>
   </si>
   <si>
     <t xml:space="preserve">3.90121126174927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87840628623962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90729260444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95138359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96506643295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96202516555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98026919364929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635125160217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266745567322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722840309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9878716468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01219654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0380425453186</t>
+    <t xml:space="preserve">3.87840604782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90729308128357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9513828754425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9650661945343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96202492713928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98026967048645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635077476501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722935676575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98787093162537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01219606399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03804159164429</t>
   </si>
   <si>
     <t xml:space="preserve">4.02892017364502</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">4.04412412643433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03956270217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03196096420288</t>
+    <t xml:space="preserve">4.0395622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0319619178772</t>
   </si>
   <si>
     <t xml:space="preserve">4.05020523071289</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">4.10341739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18247556686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16879320144653</t>
+    <t xml:space="preserve">4.18247509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16879272460938</t>
   </si>
   <si>
     <t xml:space="preserve">4.15054845809937</t>
@@ -2048,28 +2048,28 @@
     <t xml:space="preserve">4.17943525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17031335830688</t>
+    <t xml:space="preserve">4.17031288146973</t>
   </si>
   <si>
     <t xml:space="preserve">4.17183351516724</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1581506729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19615888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21440267562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24176931381226</t>
+    <t xml:space="preserve">4.15815019607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19615936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21440410614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2417688369751</t>
   </si>
   <si>
     <t xml:space="preserve">4.28281831741333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27217674255371</t>
+    <t xml:space="preserve">4.27217578887939</t>
   </si>
   <si>
     <t xml:space="preserve">4.3345103263855</t>
@@ -2078,25 +2078,25 @@
     <t xml:space="preserve">4.34363222122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32234811782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33603191375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3010630607605</t>
+    <t xml:space="preserve">4.32234764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33603048324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30106210708618</t>
   </si>
   <si>
     <t xml:space="preserve">4.30334281921387</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33907127380371</t>
+    <t xml:space="preserve">4.33907222747803</t>
   </si>
   <si>
     <t xml:space="preserve">4.32918930053711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32842922210693</t>
+    <t xml:space="preserve">4.32842874526978</t>
   </si>
   <si>
     <t xml:space="preserve">4.31474542617798</t>
@@ -2105,28 +2105,28 @@
     <t xml:space="preserve">4.30258321762085</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28965997695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26457500457764</t>
+    <t xml:space="preserve">4.28966045379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26457405090332</t>
   </si>
   <si>
     <t xml:space="preserve">4.24252939224243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16347122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19691944122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19996023178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19539880752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18399572372437</t>
+    <t xml:space="preserve">4.16347169876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19691848754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19995975494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19539833068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18399667739868</t>
   </si>
   <si>
     <t xml:space="preserve">4.20984220504761</t>
@@ -2138,34 +2138,34 @@
     <t xml:space="preserve">4.22124433517456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28661918640137</t>
+    <t xml:space="preserve">4.28661966323853</t>
   </si>
   <si>
     <t xml:space="preserve">4.23948907852173</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25317239761353</t>
+    <t xml:space="preserve">4.25317192077637</t>
   </si>
   <si>
     <t xml:space="preserve">4.22732591629028</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25849294662476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23872852325439</t>
+    <t xml:space="preserve">4.25849342346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23872900009155</t>
   </si>
   <si>
     <t xml:space="preserve">4.21972417831421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18627643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23796796798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23720741271973</t>
+    <t xml:space="preserve">4.18627548217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23796844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23720788955688</t>
   </si>
   <si>
     <t xml:space="preserve">4.24937105178833</t>
@@ -2174,25 +2174,25 @@
     <t xml:space="preserve">4.27901792526245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32538843154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38696241378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3801212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.317786693573</t>
+    <t xml:space="preserve">4.32538747787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38696193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38012027740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31778621673584</t>
   </si>
   <si>
     <t xml:space="preserve">4.40064525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22428560256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23416709899902</t>
+    <t xml:space="preserve">4.22428464889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23416805267334</t>
   </si>
   <si>
     <t xml:space="preserve">4.26761484146118</t>
@@ -2201,49 +2201,49 @@
     <t xml:space="preserve">4.33983182907104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35275411605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4135684967041</t>
+    <t xml:space="preserve">4.35275459289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41356897354126</t>
   </si>
   <si>
     <t xml:space="preserve">4.47818279266357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43029260635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44549512863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47742366790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55420112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61425447463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62185573577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74120330810547</t>
+    <t xml:space="preserve">4.4302921295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44549608230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4774227142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55420064926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61425495147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62185621261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74120378494263</t>
   </si>
   <si>
     <t xml:space="preserve">4.69027185440063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70547580718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73740243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71383762359619</t>
+    <t xml:space="preserve">4.70547485351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73740291595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208093643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71383714675903</t>
   </si>
   <si>
     <t xml:space="preserve">4.61805534362793</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">4.62489700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6674656867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65682411193848</t>
+    <t xml:space="preserve">4.66746616363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65682315826416</t>
   </si>
   <si>
     <t xml:space="preserve">4.75868797302246</t>
@@ -2267,55 +2267,55 @@
     <t xml:space="preserve">4.90083980560303</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86511135101318</t>
+    <t xml:space="preserve">4.86511182785034</t>
   </si>
   <si>
     <t xml:space="preserve">4.87271308898926</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8719539642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8848762512207</t>
+    <t xml:space="preserve">4.87195348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88487672805786</t>
   </si>
   <si>
     <t xml:space="preserve">4.94873142242432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90388059616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93504762649536</t>
+    <t xml:space="preserve">4.90388154983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93504810333252</t>
   </si>
   <si>
     <t xml:space="preserve">4.95101118087769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9859790802002</t>
+    <t xml:space="preserve">4.98597955703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.77997207641602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87715816497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87793588638306</t>
+    <t xml:space="preserve">4.87715721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8779354095459</t>
   </si>
   <si>
     <t xml:space="preserve">4.92147493362427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85694360733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82817602157593</t>
+    <t xml:space="preserve">4.85694408416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82817649841309</t>
   </si>
   <si>
     <t xml:space="preserve">4.85616588592529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79629945755005</t>
+    <t xml:space="preserve">4.79629993438721</t>
   </si>
   <si>
     <t xml:space="preserve">4.81962394714355</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">4.81884622573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76131343841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908731460571</t>
+    <t xml:space="preserve">4.76131248474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908826828003</t>
   </si>
   <si>
     <t xml:space="preserve">4.77375173568726</t>
@@ -2339,31 +2339,31 @@
     <t xml:space="preserve">4.69289398193359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7146635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7255482673645</t>
+    <t xml:space="preserve">4.71466398239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72554779052734</t>
   </si>
   <si>
     <t xml:space="preserve">4.67190170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88648700714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94402122497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84839105606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91214418411255</t>
+    <t xml:space="preserve">4.88648748397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94402170181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84839057922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">4.8857102394104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83828449249268</t>
+    <t xml:space="preserve">4.83828401565552</t>
   </si>
   <si>
     <t xml:space="preserve">5.05286931991577</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">5.12672996520996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19359397888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19437217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23868846893311</t>
+    <t xml:space="preserve">5.19359350204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19437170028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23868799209595</t>
   </si>
   <si>
     <t xml:space="preserve">5.18193197250366</t>
@@ -2393,28 +2393,28 @@
     <t xml:space="preserve">5.14694499969482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08863306045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04587173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00855207443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14150190353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12517499923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03965187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06686449050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17026901245117</t>
+    <t xml:space="preserve">5.08863353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0458722114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00855255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14150238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12517547607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0396523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06686401367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17026853561401</t>
   </si>
   <si>
     <t xml:space="preserve">5.14305686950684</t>
@@ -2426,16 +2426,16 @@
     <t xml:space="preserve">5.18659687042236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26201248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23246765136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31177139282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2760066986084</t>
+    <t xml:space="preserve">5.26201295852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23246812820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31177186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27600717544556</t>
   </si>
   <si>
     <t xml:space="preserve">5.3265438079834</t>
@@ -2444,43 +2444,43 @@
     <t xml:space="preserve">5.30010843276978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18504095077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16171741485596</t>
+    <t xml:space="preserve">5.18504190444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1617169380188</t>
   </si>
   <si>
     <t xml:space="preserve">5.25112771987915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32187843322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26512241363525</t>
+    <t xml:space="preserve">5.3218789100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26512289047241</t>
   </si>
   <si>
     <t xml:space="preserve">5.29855442047119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26123523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2868914604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27056455612183</t>
+    <t xml:space="preserve">5.26123571395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28689193725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27056550979614</t>
   </si>
   <si>
     <t xml:space="preserve">5.31643629074097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29077959060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2635669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30866241455078</t>
+    <t xml:space="preserve">5.29077911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356744766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30866193771362</t>
   </si>
   <si>
     <t xml:space="preserve">5.24413013458252</t>
@@ -2489,61 +2489,61 @@
     <t xml:space="preserve">5.3280987739563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34909105300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33665084838867</t>
+    <t xml:space="preserve">5.34909057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33665037155151</t>
   </si>
   <si>
     <t xml:space="preserve">5.34287118911743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36697244644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39573907852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874197006226</t>
+    <t xml:space="preserve">5.36697292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39573955535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874244689941</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37241506576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36386251449585</t>
+    <t xml:space="preserve">5.37241458892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36386299133301</t>
   </si>
   <si>
     <t xml:space="preserve">5.24957275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33820629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33354139328003</t>
+    <t xml:space="preserve">5.33820581436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33354091644287</t>
   </si>
   <si>
     <t xml:space="preserve">5.42917156219482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38796424865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34520292282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33509635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36308526992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31021690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29000186920166</t>
+    <t xml:space="preserve">5.38796472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3452033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33509588241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36308479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31021595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2900013923645</t>
   </si>
   <si>
     <t xml:space="preserve">5.26745510101318</t>
@@ -2552,16 +2552,16 @@
     <t xml:space="preserve">5.24801778793335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31799077987671</t>
+    <t xml:space="preserve">5.31799173355103</t>
   </si>
   <si>
     <t xml:space="preserve">5.34209299087524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33043098449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528299331665</t>
+    <t xml:space="preserve">5.33043146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528251647949</t>
   </si>
   <si>
     <t xml:space="preserve">5.19126129150391</t>
@@ -2570,46 +2570,46 @@
     <t xml:space="preserve">5.22702550888062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23324537277222</t>
+    <t xml:space="preserve">5.23324489593506</t>
   </si>
   <si>
     <t xml:space="preserve">5.32265663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38407707214355</t>
+    <t xml:space="preserve">5.38407754898071</t>
   </si>
   <si>
     <t xml:space="preserve">5.45016431808472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42839384078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6025505065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57844829559326</t>
+    <t xml:space="preserve">5.42839431762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44316625595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60254955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57844924926758</t>
   </si>
   <si>
     <t xml:space="preserve">5.54968166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49836826324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60721492767334</t>
+    <t xml:space="preserve">5.49836778640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60721588134766</t>
   </si>
   <si>
     <t xml:space="preserve">5.60643768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6181001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62121057510376</t>
+    <t xml:space="preserve">5.61809968948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
     <t xml:space="preserve">5.65230989456177</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">5.76659965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75338268280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76970911026001</t>
+    <t xml:space="preserve">5.75338220596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76970958709717</t>
   </si>
   <si>
     <t xml:space="preserve">5.91743135452271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00606393814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05687618255615</t>
+    <t xml:space="preserve">6.00606441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05687665939331</t>
   </si>
   <si>
     <t xml:space="preserve">6.0417914390564</t>
@@ -2642,31 +2642,31 @@
     <t xml:space="preserve">5.99098014831543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04973030090332</t>
+    <t xml:space="preserve">6.04973077774048</t>
   </si>
   <si>
     <t xml:space="preserve">6.20772218704224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09260225296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27123641967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35856771469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42128944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23630332946777</t>
+    <t xml:space="preserve">6.09260272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27123689651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35856866836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42128896713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23630428314209</t>
   </si>
   <si>
     <t xml:space="preserve">6.32442998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35142278671265</t>
+    <t xml:space="preserve">6.35142374038696</t>
   </si>
   <si>
     <t xml:space="preserve">6.40699815750122</t>
@@ -2675,31 +2675,31 @@
     <t xml:space="preserve">6.45463418960571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4919490814209</t>
+    <t xml:space="preserve">6.49194860458374</t>
   </si>
   <si>
     <t xml:space="preserve">6.51020860671997</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50465059280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45622205734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51576614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5713415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.664231300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72218799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80078649520874</t>
+    <t xml:space="preserve">6.50465106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45622253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51576566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66423082351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72218704223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8007869720459</t>
   </si>
   <si>
     <t xml:space="preserve">6.69519376754761</t>
@@ -2708,25 +2708,25 @@
     <t xml:space="preserve">6.70392751693726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37524127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19660711288452</t>
+    <t xml:space="preserve">6.37524080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19660758972168</t>
   </si>
   <si>
     <t xml:space="preserve">6.31569623947144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28473329544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01479768753052</t>
+    <t xml:space="preserve">6.28473377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01479864120483</t>
   </si>
   <si>
     <t xml:space="preserve">6.06560945510864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18708038330078</t>
+    <t xml:space="preserve">6.18707990646362</t>
   </si>
   <si>
     <t xml:space="preserve">6.54196643829346</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">6.46654367446899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26488542556763</t>
+    <t xml:space="preserve">6.26488494873047</t>
   </si>
   <si>
     <t xml:space="preserve">5.64165163040161</t>
@@ -2747,31 +2747,31 @@
     <t xml:space="preserve">5.17641019821167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14906692504883</t>
+    <t xml:space="preserve">4.14906740188599</t>
   </si>
   <si>
     <t xml:space="preserve">4.46108102798462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3554892539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54126739501953</t>
+    <t xml:space="preserve">4.35548877716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54126787185669</t>
   </si>
   <si>
     <t xml:space="preserve">4.67623519897461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62859964370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6754412651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74133729934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01047897338867</t>
+    <t xml:space="preserve">4.62860012054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67544078826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74133777618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01047849655151</t>
   </si>
   <si>
     <t xml:space="preserve">5.00174617767334</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">4.87868738174438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834888458252</t>
+    <t xml:space="preserve">4.8183479309082</t>
   </si>
   <si>
     <t xml:space="preserve">4.87471675872803</t>
@@ -2804,214 +2804,214 @@
     <t xml:space="preserve">5.06129026412964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98983669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12321710586548</t>
+    <t xml:space="preserve">4.9898362159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12321758270264</t>
   </si>
   <si>
     <t xml:space="preserve">5.11845302581787</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92791032791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96125555038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92949819564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91600179672241</t>
+    <t xml:space="preserve">4.92790985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96125602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92949867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91600227355957</t>
   </si>
   <si>
     <t xml:space="preserve">4.76753711700439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75165843963623</t>
+    <t xml:space="preserve">4.75165891647339</t>
   </si>
   <si>
     <t xml:space="preserve">4.70481729507446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68417453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81914281845093</t>
+    <t xml:space="preserve">4.68417406082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81914234161377</t>
   </si>
   <si>
     <t xml:space="preserve">4.88265609741211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97792863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95093488693237</t>
+    <t xml:space="preserve">4.97792768478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95093441009521</t>
   </si>
   <si>
     <t xml:space="preserve">4.76912498474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8334321975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81676054000854</t>
+    <t xml:space="preserve">4.83343315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81676006317139</t>
   </si>
   <si>
     <t xml:space="preserve">4.91282606124878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92235279083252</t>
+    <t xml:space="preserve">4.92235231399536</t>
   </si>
   <si>
     <t xml:space="preserve">4.82708168029785</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7873854637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67147207260132</t>
+    <t xml:space="preserve">4.78738594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67147254943848</t>
   </si>
   <si>
     <t xml:space="preserve">4.57381868362427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73498582839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79294300079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96363687515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02556419372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08907794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1684718132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323446273804</t>
+    <t xml:space="preserve">4.73498630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7929425239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9636378288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02556371688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08907842636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16847133636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17323398590088</t>
   </si>
   <si>
     <t xml:space="preserve">5.22880935668945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39235782623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4788966178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55590772628784</t>
+    <t xml:space="preserve">5.39235830307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47889709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.555908203125</t>
   </si>
   <si>
     <t xml:space="preserve">5.70754766464233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9576358795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94255113601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01638603210449</t>
+    <t xml:space="preserve">5.95763540267944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94255065917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01638555526733</t>
   </si>
   <si>
     <t xml:space="preserve">6.01559209823608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98780488967896</t>
+    <t xml:space="preserve">5.9878044128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.96398639678955</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81710958480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83140087127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84489679336548</t>
+    <t xml:space="preserve">5.81711006164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8314003944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84489727020264</t>
   </si>
   <si>
     <t xml:space="preserve">6.00685834884644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95842885971069</t>
+    <t xml:space="preserve">5.95842933654785</t>
   </si>
   <si>
     <t xml:space="preserve">5.93302345275879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03385210037231</t>
+    <t xml:space="preserve">6.03385162353516</t>
   </si>
   <si>
     <t xml:space="preserve">6.20137071609497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05290651321411</t>
+    <t xml:space="preserve">6.05290699005127</t>
   </si>
   <si>
     <t xml:space="preserve">6.08386993408203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06481599807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13229942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09577894210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30934524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25138854980469</t>
+    <t xml:space="preserve">6.06481504440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13229894638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.095778465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483335494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30934476852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25138902664185</t>
   </si>
   <si>
     <t xml:space="preserve">6.28314542770386</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33157539367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41970205307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.300612449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44828271865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36253786087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48559713363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55228662490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6904296875</t>
+    <t xml:space="preserve">6.3315749168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41970109939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30061197280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44828224182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36253833770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48559665679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55228710174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69043064117432</t>
   </si>
   <si>
     <t xml:space="preserve">6.74146509170532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74794673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63777589797974</t>
+    <t xml:space="preserve">6.74794578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63777542114258</t>
   </si>
   <si>
     <t xml:space="preserve">6.58917045593262</t>
@@ -3020,31 +3020,31 @@
     <t xml:space="preserve">6.4352560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41662454605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39961290359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46036863327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26757001876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26108980178833</t>
+    <t xml:space="preserve">6.41662406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39961242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46036815643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26756954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26108884811401</t>
   </si>
   <si>
     <t xml:space="preserve">6.36396932601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3745002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34533786773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2618989944458</t>
+    <t xml:space="preserve">6.37450075149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34533739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26189947128296</t>
   </si>
   <si>
     <t xml:space="preserve">6.33075571060181</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">6.37126016616821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45145702362061</t>
+    <t xml:space="preserve">6.45145797729492</t>
   </si>
   <si>
     <t xml:space="preserve">6.5697283744812</t>
@@ -3062,13 +3062,13 @@
     <t xml:space="preserve">6.48710155487061</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38746118545532</t>
+    <t xml:space="preserve">6.38746166229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.32508516311646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30888414382935</t>
+    <t xml:space="preserve">6.30888366699219</t>
   </si>
   <si>
     <t xml:space="preserve">6.282151222229</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">6.37206983566284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32184553146362</t>
+    <t xml:space="preserve">6.32184505462646</t>
   </si>
   <si>
     <t xml:space="preserve">6.3169846534729</t>
@@ -3089,31 +3089,31 @@
     <t xml:space="preserve">6.17036104202271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18899250030518</t>
+    <t xml:space="preserve">6.18899297714233</t>
   </si>
   <si>
     <t xml:space="preserve">6.1476788520813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07882261276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19547319412231</t>
+    <t xml:space="preserve">6.07882213592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.195472240448</t>
   </si>
   <si>
     <t xml:space="preserve">6.14038753509521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00429487228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15091943740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05370950698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19790363311768</t>
+    <t xml:space="preserve">6.00429534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15091848373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05370903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19790315628052</t>
   </si>
   <si>
     <t xml:space="preserve">6.15982961654663</t>
@@ -3122,46 +3122,46 @@
     <t xml:space="preserve">6.20519351959229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12499618530273</t>
+    <t xml:space="preserve">6.12499666213989</t>
   </si>
   <si>
     <t xml:space="preserve">6.18008184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13633680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97837209701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01077556610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035249710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93057775497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04317855834961</t>
+    <t xml:space="preserve">6.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97837257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01077508926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93057823181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04317903518677</t>
   </si>
   <si>
     <t xml:space="preserve">5.97027111053467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94191932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345775604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07558250427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00915575027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04965877532959</t>
+    <t xml:space="preserve">5.94191884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345823287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07558155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0091552734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04965925216675</t>
   </si>
   <si>
     <t xml:space="preserve">5.98971366882324</t>
@@ -3173,46 +3173,46 @@
     <t xml:space="preserve">6.15334939956665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11365556716919</t>
+    <t xml:space="preserve">6.11365509033203</t>
   </si>
   <si>
     <t xml:space="preserve">6.0950231552124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22706604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24731779098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04560804367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09745359420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05046939849854</t>
+    <t xml:space="preserve">6.22706651687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24731826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04560899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09745407104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05046892166138</t>
   </si>
   <si>
     <t xml:space="preserve">6.14200782775879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08773279190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03507804870605</t>
+    <t xml:space="preserve">6.08773326873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0350775718689</t>
   </si>
   <si>
     <t xml:space="preserve">6.13147687911987</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99052333831787</t>
+    <t xml:space="preserve">5.99052381515503</t>
   </si>
   <si>
     <t xml:space="preserve">5.63003921508789</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61950731277466</t>
+    <t xml:space="preserve">5.61950778961182</t>
   </si>
   <si>
     <t xml:space="preserve">5.53606986999512</t>
@@ -3221,10 +3221,10 @@
     <t xml:space="preserve">5.65920162200928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84632968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865177154541</t>
+    <t xml:space="preserve">5.84632921218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865129470825</t>
   </si>
   <si>
     <t xml:space="preserve">6.16550016403198</t>
@@ -3236,7 +3236,7 @@
     <t xml:space="preserve">6.5186939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65235710144043</t>
+    <t xml:space="preserve">6.65235614776611</t>
   </si>
   <si>
     <t xml:space="preserve">6.54542636871338</t>
@@ -3248,22 +3248,22 @@
     <t xml:space="preserve">6.5527172088623</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57134914398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57945013046265</t>
+    <t xml:space="preserve">6.57134962081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57944917678833</t>
   </si>
   <si>
     <t xml:space="preserve">6.6134729385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66936874389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923341751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87512874603271</t>
+    <t xml:space="preserve">6.66936826705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87512922286987</t>
   </si>
   <si>
     <t xml:space="preserve">6.86135768890381</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">6.88727903366089</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78034925460815</t>
+    <t xml:space="preserve">6.780348777771</t>
   </si>
   <si>
     <t xml:space="preserve">6.73984527587891</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">6.64992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64749670028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6272439956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61023283004761</t>
+    <t xml:space="preserve">6.64749622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62724447250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61023235321045</t>
   </si>
   <si>
     <t xml:space="preserve">6.57782983779907</t>
@@ -3299,16 +3299,16 @@
     <t xml:space="preserve">6.6507363319397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52031373977661</t>
+    <t xml:space="preserve">6.52031421661377</t>
   </si>
   <si>
     <t xml:space="preserve">6.51707410812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61185264587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62076473236084</t>
+    <t xml:space="preserve">6.61185312271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62076425552368</t>
   </si>
   <si>
     <t xml:space="preserve">6.53813600540161</t>
@@ -3317,49 +3317,49 @@
     <t xml:space="preserve">6.70015144348145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76009750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70420217514038</t>
+    <t xml:space="preserve">6.76009702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70420169830322</t>
   </si>
   <si>
     <t xml:space="preserve">6.85082578659058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80060052871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23318195343018</t>
+    <t xml:space="preserve">6.80060148239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23318290710449</t>
   </si>
   <si>
     <t xml:space="preserve">7.11005067825317</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24047374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24857473373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994184494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15541505813599</t>
+    <t xml:space="preserve">7.2404727935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24857378005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111257553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22994136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15541410446167</t>
   </si>
   <si>
     <t xml:space="preserve">7.17647743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09466314315796</t>
+    <t xml:space="preserve">7.09466361999512</t>
   </si>
   <si>
     <t xml:space="preserve">7.08557319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0888786315918</t>
+    <t xml:space="preserve">7.08887767791748</t>
   </si>
   <si>
     <t xml:space="preserve">6.99053621292114</t>
@@ -3368,34 +3368,34 @@
     <t xml:space="preserve">6.89632654190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88806295394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94177865982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81038045883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76906108856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79385232925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77649831771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06739234924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07069683074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98061895370483</t>
+    <t xml:space="preserve">6.88806247711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94177913665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81038188934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7690601348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79385328292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77649784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06739139556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07069730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98061990737915</t>
   </si>
   <si>
     <t xml:space="preserve">7.02441930770874</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">6.84591627120972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87401342391968</t>
+    <t xml:space="preserve">6.87401390075684</t>
   </si>
   <si>
     <t xml:space="preserve">6.99301528930664</t>
@@ -3413,31 +3413,31 @@
     <t xml:space="preserve">6.99797439575195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99549531936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86161804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.773193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67485094070435</t>
+    <t xml:space="preserve">6.9954948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86161851882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77319383621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67485046386719</t>
   </si>
   <si>
     <t xml:space="preserve">6.59221076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54510641098022</t>
+    <t xml:space="preserve">6.54510593414307</t>
   </si>
   <si>
     <t xml:space="preserve">6.47899341583252</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48229932785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56741905212402</t>
+    <t xml:space="preserve">6.48229885101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56741809844971</t>
   </si>
   <si>
     <t xml:space="preserve">6.44759035110474</t>
@@ -3446,19 +3446,19 @@
     <t xml:space="preserve">6.30214357376099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48147296905518</t>
+    <t xml:space="preserve">6.48147344589233</t>
   </si>
   <si>
     <t xml:space="preserve">6.50626516342163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68063592910767</t>
+    <t xml:space="preserve">6.68063545227051</t>
   </si>
   <si>
     <t xml:space="preserve">6.69633722305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78889465332031</t>
+    <t xml:space="preserve">6.788893699646</t>
   </si>
   <si>
     <t xml:space="preserve">6.88062524795532</t>
@@ -3467,28 +3467,28 @@
     <t xml:space="preserve">6.82195043563843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76079654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80790233612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74509525299072</t>
+    <t xml:space="preserve">6.76079702377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80790138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74509477615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.66410779953003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86409759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87897253036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96326446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97648811340332</t>
+    <t xml:space="preserve">6.86409616470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87897205352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96326541900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97648763656616</t>
   </si>
   <si>
     <t xml:space="preserve">6.96409177780151</t>
@@ -3497,10 +3497,10 @@
     <t xml:space="preserve">7.0302038192749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96904993057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01863431930542</t>
+    <t xml:space="preserve">6.96904945373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01863479614258</t>
   </si>
   <si>
     <t xml:space="preserve">6.970703125</t>
@@ -3509,10 +3509,10 @@
     <t xml:space="preserve">7.06904458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09548997879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14920568466187</t>
+    <t xml:space="preserve">7.0954909324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14920473098755</t>
   </si>
   <si>
     <t xml:space="preserve">7.10210084915161</t>
@@ -3521,40 +3521,40 @@
     <t xml:space="preserve">7.09053134918213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12441444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03185606002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135818481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15581703186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15829610824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06987142562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01367616653442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20457601547241</t>
+    <t xml:space="preserve">7.12441396713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03185653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135770797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15581798553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15829563140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0698709487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01367664337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20457458496094</t>
   </si>
   <si>
     <t xml:space="preserve">7.21862363815308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14011573791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98144626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89054203033447</t>
+    <t xml:space="preserve">7.14011526107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98144674301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89054250717163</t>
   </si>
   <si>
     <t xml:space="preserve">6.83186769485474</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">6.78145742416382</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85004758834839</t>
+    <t xml:space="preserve">6.85004806518555</t>
   </si>
   <si>
     <t xml:space="preserve">6.83269357681274</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">6.68724679946899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77980470657349</t>
+    <t xml:space="preserve">6.77980422973633</t>
   </si>
   <si>
     <t xml:space="preserve">6.74096250534058</t>
@@ -3596,16 +3596,16 @@
     <t xml:space="preserve">6.67237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76658058166504</t>
+    <t xml:space="preserve">6.7665810585022</t>
   </si>
   <si>
     <t xml:space="preserve">6.74261617660522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74922657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73269891738892</t>
+    <t xml:space="preserve">6.74922704696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73269939422607</t>
   </si>
   <si>
     <t xml:space="preserve">6.72939348220825</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">6.55419635772705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61369705200195</t>
+    <t xml:space="preserve">6.61369752883911</t>
   </si>
   <si>
     <t xml:space="preserve">6.62113523483276</t>
@@ -3635,13 +3635,13 @@
     <t xml:space="preserve">6.57898855209351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62939929962158</t>
+    <t xml:space="preserve">6.62939882278442</t>
   </si>
   <si>
     <t xml:space="preserve">6.69551134109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67733001708984</t>
+    <t xml:space="preserve">6.67732954025269</t>
   </si>
   <si>
     <t xml:space="preserve">6.78724193572998</t>
@@ -3653,37 +3653,37 @@
     <t xml:space="preserve">6.65584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71038579940796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70046949386597</t>
+    <t xml:space="preserve">6.71038627624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70046901702881</t>
   </si>
   <si>
     <t xml:space="preserve">6.58725214004517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63931560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61865568161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58973169326782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64262104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47238206863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48643159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4880838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53353643417358</t>
+    <t xml:space="preserve">6.63931608200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61865520477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58973217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6426215171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47238159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48643112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48808336257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53353691101074</t>
   </si>
   <si>
     <t xml:space="preserve">6.56246042251587</t>
@@ -3692,22 +3692,22 @@
     <t xml:space="preserve">6.51452875137329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54841136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66245555877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65914869308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6310510635376</t>
+    <t xml:space="preserve">6.54841041564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6624550819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65914916992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63105201721191</t>
   </si>
   <si>
     <t xml:space="preserve">6.55502271652222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61948251724243</t>
+    <t xml:space="preserve">6.61948204040527</t>
   </si>
   <si>
     <t xml:space="preserve">6.43088579177856</t>
@@ -3716,31 +3716,31 @@
     <t xml:space="preserve">6.4384970664978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60510444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942590713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8080792427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83429670333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73365497589111</t>
+    <t xml:space="preserve">6.60510540008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942638397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80807876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83429622650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73365545272827</t>
   </si>
   <si>
     <t xml:space="preserve">6.81230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77847862243652</t>
+    <t xml:space="preserve">6.77847909927368</t>
   </si>
   <si>
     <t xml:space="preserve">6.57973289489746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54505825042725</t>
+    <t xml:space="preserve">6.5450587272644</t>
   </si>
   <si>
     <t xml:space="preserve">6.50700092315674</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">6.56197261810303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5949559211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58649873733521</t>
+    <t xml:space="preserve">6.59495639801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58649921417236</t>
   </si>
   <si>
     <t xml:space="preserve">6.62455701828003</t>
@@ -3770,16 +3770,16 @@
     <t xml:space="preserve">6.67191696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63639688491821</t>
+    <t xml:space="preserve">6.63639640808105</t>
   </si>
   <si>
     <t xml:space="preserve">6.57719564437866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64316177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69982576370239</t>
+    <t xml:space="preserve">6.64316272735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69982528686523</t>
   </si>
   <si>
     <t xml:space="preserve">6.76663827896118</t>
@@ -3794,25 +3794,25 @@
     <t xml:space="preserve">6.49346923828125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49431467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55267000198364</t>
+    <t xml:space="preserve">6.4943151473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5526704788208</t>
   </si>
   <si>
     <t xml:space="preserve">6.52645254135132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.53068113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52476119995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41904592514038</t>
+    <t xml:space="preserve">6.52476072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41904544830322</t>
   </si>
   <si>
     <t xml:space="preserve">6.35815334320068</t>
@@ -3821,40 +3821,40 @@
     <t xml:space="preserve">6.36830234527588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2372145652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34208488464355</t>
+    <t xml:space="preserve">6.23721504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3420844078064</t>
   </si>
   <si>
     <t xml:space="preserve">6.2879581451416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94121122360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92091369628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88539361953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.784752368927</t>
+    <t xml:space="preserve">5.94121170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92091417312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88539409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78475284576416</t>
   </si>
   <si>
     <t xml:space="preserve">5.83465051651001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86932516098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9868803024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93529176712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87524557113647</t>
+    <t xml:space="preserve">5.86932468414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688077926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9352912902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87524509429932</t>
   </si>
   <si>
     <t xml:space="preserve">5.7822151184082</t>
@@ -3875,13 +3875,13 @@
     <t xml:space="preserve">5.6900315284729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83803272247314</t>
+    <t xml:space="preserve">5.8380331993103</t>
   </si>
   <si>
     <t xml:space="preserve">5.85156488418579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70694637298584</t>
+    <t xml:space="preserve">5.70694589614868</t>
   </si>
   <si>
     <t xml:space="preserve">5.72132349014282</t>
@@ -3893,67 +3893,67 @@
     <t xml:space="preserve">5.8405704498291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9885721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0976710319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06637811660767</t>
+    <t xml:space="preserve">5.98857164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09767007827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06637859344482</t>
   </si>
   <si>
     <t xml:space="preserve">6.02747488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97165775299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04269790649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10274457931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14841365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11965894699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16109991073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11543083190918</t>
+    <t xml:space="preserve">5.97165727615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0426983833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10274410247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14841413497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11965942382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16109943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11543035507202</t>
   </si>
   <si>
     <t xml:space="preserve">6.13657331466675</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13319110870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16871118545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08498477935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99956655502319</t>
+    <t xml:space="preserve">6.13319063186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16871166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08498430252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99956607818604</t>
   </si>
   <si>
     <t xml:space="preserve">6.05538368225098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00379514694214</t>
+    <t xml:space="preserve">6.00379467010498</t>
   </si>
   <si>
     <t xml:space="preserve">6.04692697525024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99364614486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97757768630981</t>
+    <t xml:space="preserve">5.9936466217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97757720947266</t>
   </si>
   <si>
     <t xml:space="preserve">5.95558834075928</t>
@@ -3962,43 +3962,43 @@
     <t xml:space="preserve">5.87778186798096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87947416305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84141635894775</t>
+    <t xml:space="preserve">5.8794732093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8414158821106</t>
   </si>
   <si>
     <t xml:space="preserve">5.95812606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04608201980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76445531845093</t>
+    <t xml:space="preserve">6.04608058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76445484161377</t>
   </si>
   <si>
     <t xml:space="preserve">5.7416205406189</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67227125167847</t>
+    <t xml:space="preserve">5.67227077484131</t>
   </si>
   <si>
     <t xml:space="preserve">5.71286630630493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5733208656311</t>
+    <t xml:space="preserve">5.57332181930542</t>
   </si>
   <si>
     <t xml:space="preserve">5.51919507980347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6858024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76022672653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66719722747803</t>
+    <t xml:space="preserve">5.68580293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76022624969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66719675064087</t>
   </si>
   <si>
     <t xml:space="preserve">5.66804265975952</t>
@@ -4007,22 +4007,22 @@
     <t xml:space="preserve">5.65789413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5851616859436</t>
+    <t xml:space="preserve">5.58516120910645</t>
   </si>
   <si>
     <t xml:space="preserve">5.60376739501953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66381454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62237310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70525360107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6266016960144</t>
+    <t xml:space="preserve">5.66381359100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62237358093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70525407791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62660217285156</t>
   </si>
   <si>
     <t xml:space="preserve">5.7805233001709</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">5.85917615890503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95051431655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92852544784546</t>
+    <t xml:space="preserve">5.95051383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92852592468262</t>
   </si>
   <si>
     <t xml:space="preserve">5.95897150039673</t>
@@ -4049,16 +4049,16 @@
     <t xml:space="preserve">6.06553268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02155494689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8769359588623</t>
+    <t xml:space="preserve">6.02155542373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87693643569946</t>
   </si>
   <si>
     <t xml:space="preserve">5.84310722351074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86086702346802</t>
+    <t xml:space="preserve">5.86086750030518</t>
   </si>
   <si>
     <t xml:space="preserve">5.86171388626099</t>
@@ -4067,19 +4067,19 @@
     <t xml:space="preserve">5.85410165786743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8870849609375</t>
+    <t xml:space="preserve">5.88708448410034</t>
   </si>
   <si>
     <t xml:space="preserve">5.75684356689453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80420446395874</t>
+    <t xml:space="preserve">5.80420398712158</t>
   </si>
   <si>
     <t xml:space="preserve">5.92260551452637</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83972501754761</t>
+    <t xml:space="preserve">5.83972454071045</t>
   </si>
   <si>
     <t xml:space="preserve">5.79624176025391</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">5.89712190628052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060705184937</t>
+    <t xml:space="preserve">5.96060657501221</t>
   </si>
   <si>
     <t xml:space="preserve">5.95625829696655</t>
@@ -4106,22 +4106,22 @@
     <t xml:space="preserve">5.89538240432739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77363109588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59274291992188</t>
+    <t xml:space="preserve">5.77363061904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59274339675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.50577735900879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63274717330933</t>
+    <t xml:space="preserve">5.63274765014648</t>
   </si>
   <si>
     <t xml:space="preserve">5.59361267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56056594848633</t>
+    <t xml:space="preserve">5.56056547164917</t>
   </si>
   <si>
     <t xml:space="preserve">5.49621152877808</t>
@@ -4130,46 +4130,46 @@
     <t xml:space="preserve">5.59100341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66144561767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63709497451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59622192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47533988952637</t>
+    <t xml:space="preserve">5.66144609451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63709592819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59622144699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47533941268921</t>
   </si>
   <si>
     <t xml:space="preserve">5.51708316802979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49099349975586</t>
+    <t xml:space="preserve">5.49099397659302</t>
   </si>
   <si>
     <t xml:space="preserve">5.38489580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69536209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.738844871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36924171447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36576366424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17878770828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8361439704895</t>
+    <t xml:space="preserve">5.69536161422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73884439468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3692421913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36576318740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17878818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93093633651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83614444732666</t>
   </si>
   <si>
     <t xml:space="preserve">4.976158618927</t>
@@ -4181,16 +4181,16 @@
     <t xml:space="preserve">4.99094247817993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98137664794922</t>
+    <t xml:space="preserve">4.98137712478638</t>
   </si>
   <si>
     <t xml:space="preserve">5.0605149269104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06660223007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0648627281189</t>
+    <t xml:space="preserve">5.06660270690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06486320495605</t>
   </si>
   <si>
     <t xml:space="preserve">4.97441864013672</t>
@@ -4199,13 +4199,13 @@
     <t xml:space="preserve">5.00920581817627</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06399393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96485280990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01790142059326</t>
+    <t xml:space="preserve">5.06399345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96485328674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01790237426758</t>
   </si>
   <si>
     <t xml:space="preserve">5.11182403564453</t>
@@ -4217,28 +4217,28 @@
     <t xml:space="preserve">5.30227899551392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27705860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3083667755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31358432769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41968154907227</t>
+    <t xml:space="preserve">5.27705907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30836629867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3135838508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41968202590942</t>
   </si>
   <si>
     <t xml:space="preserve">5.39881038665771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36402368545532</t>
+    <t xml:space="preserve">5.36402416229248</t>
   </si>
   <si>
     <t xml:space="preserve">5.48751497268677</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46751260757446</t>
+    <t xml:space="preserve">5.46751308441162</t>
   </si>
   <si>
     <t xml:space="preserve">5.43359661102295</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">5.39011383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39359188079834</t>
+    <t xml:space="preserve">5.39359283447266</t>
   </si>
   <si>
     <t xml:space="preserve">5.37532997131348</t>
@@ -4256,10 +4256,10 @@
     <t xml:space="preserve">5.36141538619995</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22922801971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30749702453613</t>
+    <t xml:space="preserve">5.2292275428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30749654769897</t>
   </si>
   <si>
     <t xml:space="preserve">5.29879999160767</t>
@@ -4271,22 +4271,22 @@
     <t xml:space="preserve">5.40924596786499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40750646591187</t>
+    <t xml:space="preserve">5.40750694274902</t>
   </si>
   <si>
     <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43446588516235</t>
+    <t xml:space="preserve">5.43446636199951</t>
   </si>
   <si>
     <t xml:space="preserve">5.38663482666016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26575326919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2248797416687</t>
+    <t xml:space="preserve">5.2657527923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22487926483154</t>
   </si>
   <si>
     <t xml:space="preserve">5.10747623443604</t>
@@ -4295,7 +4295,7 @@
     <t xml:space="preserve">5.08051681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2005295753479</t>
+    <t xml:space="preserve">5.20052909851074</t>
   </si>
   <si>
     <t xml:space="preserve">5.0770378112793</t>
@@ -4316,7 +4316,7 @@
     <t xml:space="preserve">5.16226434707642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32488965988159</t>
+    <t xml:space="preserve">5.32489013671875</t>
   </si>
   <si>
     <t xml:space="preserve">5.3335862159729</t>
@@ -4331,37 +4331,37 @@
     <t xml:space="preserve">5.37967729568481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35880613327026</t>
+    <t xml:space="preserve">5.35880661010742</t>
   </si>
   <si>
     <t xml:space="preserve">5.25618696212769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15182876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17791795730591</t>
+    <t xml:space="preserve">5.15182828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17791843414307</t>
   </si>
   <si>
     <t xml:space="preserve">5.13530492782593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24314165115356</t>
+    <t xml:space="preserve">5.24314212799072</t>
   </si>
   <si>
     <t xml:space="preserve">5.20748615264893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08399534225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98224592208862</t>
+    <t xml:space="preserve">5.0839958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98224639892578</t>
   </si>
   <si>
     <t xml:space="preserve">4.76657199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68569421768188</t>
+    <t xml:space="preserve">4.68569374084473</t>
   </si>
   <si>
     <t xml:space="preserve">4.63786315917969</t>
@@ -4370,10 +4370,10 @@
     <t xml:space="preserve">4.83179616928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69613027572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73265552520752</t>
+    <t xml:space="preserve">4.69612979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73265504837036</t>
   </si>
   <si>
     <t xml:space="preserve">4.77352905273438</t>
@@ -4382,13 +4382,13 @@
     <t xml:space="preserve">4.75265789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65351629257202</t>
+    <t xml:space="preserve">4.65351724624634</t>
   </si>
   <si>
     <t xml:space="preserve">4.7152624130249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79440069198608</t>
+    <t xml:space="preserve">4.79440021514893</t>
   </si>
   <si>
     <t xml:space="preserve">4.70395708084106</t>
@@ -4397,10 +4397,10 @@
     <t xml:space="preserve">4.76222372055054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69786930084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53959226608276</t>
+    <t xml:space="preserve">4.69786882400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53959178924561</t>
   </si>
   <si>
     <t xml:space="preserve">4.62047052383423</t>
@@ -4409,7 +4409,7 @@
     <t xml:space="preserve">4.59264135360718</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41523170471191</t>
+    <t xml:space="preserve">4.41523218154907</t>
   </si>
   <si>
     <t xml:space="preserve">4.50132751464844</t>
@@ -4418,10 +4418,10 @@
     <t xml:space="preserve">4.57698774337769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56742095947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55872535705566</t>
+    <t xml:space="preserve">4.5674204826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55872488021851</t>
   </si>
   <si>
     <t xml:space="preserve">4.5030665397644</t>
@@ -4430,16 +4430,16 @@
     <t xml:space="preserve">4.45871448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34826803207397</t>
+    <t xml:space="preserve">4.20477628707886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34826850891113</t>
   </si>
   <si>
     <t xml:space="preserve">4.43776512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49607372283936</t>
+    <t xml:space="preserve">4.49607276916504</t>
   </si>
   <si>
     <t xml:space="preserve">4.35550022125244</t>
@@ -4448,58 +4448,58 @@
     <t xml:space="preserve">4.29222059249878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27052354812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29402780532837</t>
+    <t xml:space="preserve">4.27052450180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29402828216553</t>
   </si>
   <si>
     <t xml:space="preserve">4.28092002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27685165405273</t>
+    <t xml:space="preserve">4.27685213088989</t>
   </si>
   <si>
     <t xml:space="preserve">4.33335208892822</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47754192352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39708518981934</t>
+    <t xml:space="preserve">4.47754144668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39708471298218</t>
   </si>
   <si>
     <t xml:space="preserve">4.40702867507935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44138145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47573328018188</t>
+    <t xml:space="preserve">4.44138097763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47573375701904</t>
   </si>
   <si>
     <t xml:space="preserve">4.54895782470703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52726173400879</t>
+    <t xml:space="preserve">4.52726125717163</t>
   </si>
   <si>
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002906799316</t>
+    <t xml:space="preserve">4.52002954483032</t>
   </si>
   <si>
     <t xml:space="preserve">4.55166959762573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61223793029785</t>
+    <t xml:space="preserve">4.61223840713501</t>
   </si>
   <si>
     <t xml:space="preserve">4.6077184677124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60319852828979</t>
+    <t xml:space="preserve">4.60319805145264</t>
   </si>
   <si>
     <t xml:space="preserve">4.52274131774902</t>
@@ -4508,13 +4508,13 @@
     <t xml:space="preserve">4.46126937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46578979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47030878067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47121334075928</t>
+    <t xml:space="preserve">4.46578931808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47030925750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47121381759644</t>
   </si>
   <si>
     <t xml:space="preserve">4.36860847473145</t>
@@ -4523,13 +4523,13 @@
     <t xml:space="preserve">4.34239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35143184661865</t>
+    <t xml:space="preserve">4.35143232345581</t>
   </si>
   <si>
     <t xml:space="preserve">4.24475955963135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19684791564941</t>
+    <t xml:space="preserve">4.19684743881226</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4553,37 +4553,37 @@
     <t xml:space="preserve">4.51234579086304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47392559051514</t>
+    <t xml:space="preserve">4.47392511367798</t>
   </si>
   <si>
     <t xml:space="preserve">4.44770908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42691707611084</t>
+    <t xml:space="preserve">4.42691659927368</t>
   </si>
   <si>
     <t xml:space="preserve">4.44725704193115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45720100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37584018707275</t>
+    <t xml:space="preserve">4.45720148086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37584066390991</t>
   </si>
   <si>
     <t xml:space="preserve">4.38397693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37041616439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19820356369019</t>
+    <t xml:space="preserve">4.37041664123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19820308685303</t>
   </si>
   <si>
     <t xml:space="preserve">4.11096715927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8890335559845</t>
+    <t xml:space="preserve">3.88903331756592</t>
   </si>
   <si>
     <t xml:space="preserve">3.90440154075623</t>
@@ -4592,28 +4592,28 @@
     <t xml:space="preserve">3.84021735191345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81852078437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93875360488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03503084182739</t>
+    <t xml:space="preserve">3.81852102279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93875336647034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03503036499023</t>
   </si>
   <si>
     <t xml:space="preserve">3.90666127204895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76970481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72586059570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78688073158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68472814559937</t>
+    <t xml:space="preserve">3.76970458030701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72586035728455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78688097000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68472838401794</t>
   </si>
   <si>
     <t xml:space="preserve">3.61873555183411</t>
@@ -4622,7 +4622,7 @@
     <t xml:space="preserve">3.68111205101013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71817636489868</t>
+    <t xml:space="preserve">3.7181761264801</t>
   </si>
   <si>
     <t xml:space="preserve">3.81038498878479</t>
@@ -4631,46 +4631,46 @@
     <t xml:space="preserve">3.84925699234009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87230920791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83388900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79185271263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88134956359863</t>
+    <t xml:space="preserve">3.87230968475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83388924598694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79185247421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88134932518005</t>
   </si>
   <si>
     <t xml:space="preserve">3.95864200592041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96406602859497</t>
+    <t xml:space="preserve">3.96406626701355</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04271459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08520317077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10373544692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15164709091187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13492345809937</t>
+    <t xml:space="preserve">4.04271507263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08520269393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10373497009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15164756774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13492250442505</t>
   </si>
   <si>
     <t xml:space="preserve">4.23029565811157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28272771835327</t>
+    <t xml:space="preserve">4.28272819519043</t>
   </si>
   <si>
     <t xml:space="preserve">4.32476425170898</t>
@@ -4682,16 +4682,16 @@
     <t xml:space="preserve">4.5290699005127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56342124938965</t>
+    <t xml:space="preserve">4.56342172622681</t>
   </si>
   <si>
     <t xml:space="preserve">4.59144592285156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61947011947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64568662643433</t>
+    <t xml:space="preserve">4.61947059631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64568614959717</t>
   </si>
   <si>
     <t xml:space="preserve">4.66195869445801</t>
@@ -4718,7 +4718,7 @@
     <t xml:space="preserve">4.64116621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74603128433228</t>
+    <t xml:space="preserve">4.74603080749512</t>
   </si>
   <si>
     <t xml:space="preserve">4.761399269104</t>
@@ -4730,13 +4730,13 @@
     <t xml:space="preserve">4.70625448226929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72252702713013</t>
+    <t xml:space="preserve">4.72252750396729</t>
   </si>
   <si>
     <t xml:space="preserve">4.67732667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72071886062622</t>
+    <t xml:space="preserve">4.72071933746338</t>
   </si>
   <si>
     <t xml:space="preserve">4.69902276992798</t>
@@ -4748,25 +4748,25 @@
     <t xml:space="preserve">4.74783897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56974983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56523036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56161403656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56251764297485</t>
+    <t xml:space="preserve">4.56974935531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56522989273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5616135597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56251811981201</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58692598342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61133432388306</t>
+    <t xml:space="preserve">4.5869255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6113338470459</t>
   </si>
   <si>
     <t xml:space="preserve">4.59054231643677</t>
@@ -4775,7 +4775,7 @@
     <t xml:space="preserve">4.56432580947876</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54714965820312</t>
+    <t xml:space="preserve">4.54715013504028</t>
   </si>
   <si>
     <t xml:space="preserve">4.67461442947388</t>
@@ -4787,16 +4787,16 @@
     <t xml:space="preserve">4.960280418396</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95214462280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0633373260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0615291595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00457620620728</t>
+    <t xml:space="preserve">4.95214414596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06333684921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06152868270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00457668304443</t>
   </si>
   <si>
     <t xml:space="preserve">5.08955335617065</t>
@@ -4814,7 +4814,7 @@
     <t xml:space="preserve">5.2070746421814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21069002151489</t>
+    <t xml:space="preserve">5.21069049835205</t>
   </si>
   <si>
     <t xml:space="preserve">5.11396169662476</t>
@@ -5790,6 +5790,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.73600006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81300020217896</t>
   </si>
 </sst>
 </file>
@@ -61849,7 +61852,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6525347222</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>19606076</v>
@@ -61870,6 +61873,32 @@
         <v>1925</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6495717593</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>36665760</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>6.88800001144409</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>6.76000022888184</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>6.76000022888184</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>6.81300020217896</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -38,220 +38,220 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46143770217896</t>
+    <t xml:space="preserve">2.4614372253418</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50832176208496</t>
+    <t xml:space="preserve">2.50832200050354</t>
   </si>
   <si>
     <t xml:space="preserve">2.44580912590027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45622825622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43669295310974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43929743766785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236709594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883297920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4340877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38980865478516</t>
+    <t xml:space="preserve">2.45622801780701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43669247627258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43929767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236685752869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883226394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43408823013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38980841636658</t>
   </si>
   <si>
     <t xml:space="preserve">2.34683084487915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37418007850647</t>
+    <t xml:space="preserve">2.37418031692505</t>
   </si>
   <si>
     <t xml:space="preserve">2.30255103111267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37678503990173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42757654190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41455316543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44841361045837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47836780548096</t>
+    <t xml:space="preserve">2.37678480148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42757678031921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41455340385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44841384887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47836828231812</t>
   </si>
   <si>
     <t xml:space="preserve">2.39111065864563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4536235332489</t>
+    <t xml:space="preserve">2.45362305641174</t>
   </si>
   <si>
     <t xml:space="preserve">2.4471116065979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41064596176147</t>
+    <t xml:space="preserve">2.4106457233429</t>
   </si>
   <si>
     <t xml:space="preserve">2.36245918273926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30906319618225</t>
+    <t xml:space="preserve">2.30906271934509</t>
   </si>
   <si>
     <t xml:space="preserve">2.27780628204346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27520203590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29603958129883</t>
+    <t xml:space="preserve">2.27520179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29603934288025</t>
   </si>
   <si>
     <t xml:space="preserve">2.21268892288208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30385303497314</t>
+    <t xml:space="preserve">2.3038535118103</t>
   </si>
   <si>
     <t xml:space="preserve">2.38199424743652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.366366147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37287735939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35724973678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3689706325531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30515599250793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39892506599426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41194844245911</t>
+    <t xml:space="preserve">2.36636638641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37287783622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35724949836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36897087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30515551567078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3989245891571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41194796562195</t>
   </si>
   <si>
     <t xml:space="preserve">2.43539047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41845989227295</t>
+    <t xml:space="preserve">2.41845965385437</t>
   </si>
   <si>
     <t xml:space="preserve">2.38459897041321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39371538162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46664714813232</t>
+    <t xml:space="preserve">2.39371562004089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46664690971375</t>
   </si>
   <si>
     <t xml:space="preserve">2.47967052459717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54739284515381</t>
+    <t xml:space="preserve">2.54739212989807</t>
   </si>
   <si>
     <t xml:space="preserve">2.5395781993866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53306698799133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53697347640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5591139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999756813049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55260181427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348516464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53176403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54608964920044</t>
+    <t xml:space="preserve">2.53306651115417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53697371482849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55911374092102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999709129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5526020526886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348540306091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53176426887512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5460901260376</t>
   </si>
   <si>
     <t xml:space="preserve">2.58646273612976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60469603538513</t>
+    <t xml:space="preserve">2.60469579696655</t>
   </si>
   <si>
     <t xml:space="preserve">2.53827595710754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52525305747986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5018105506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887902259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38329672813416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44971656799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46013498306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44190216064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48878717422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49920582771301</t>
+    <t xml:space="preserve">2.5252525806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50181031227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887926101685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38329648971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44971609115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46013522148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44190263748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48878693580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49920558929443</t>
   </si>
   <si>
     <t xml:space="preserve">2.55650877952576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52655482292175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427714347839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63985919952393</t>
+    <t xml:space="preserve">2.52655458450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427666664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63985896110535</t>
   </si>
   <si>
     <t xml:space="preserve">2.57734656333923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57604432106018</t>
+    <t xml:space="preserve">2.5760440826416</t>
   </si>
   <si>
     <t xml:space="preserve">2.5630202293396</t>
@@ -263,52 +263,52 @@
     <t xml:space="preserve">2.58516049385071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60860276222229</t>
+    <t xml:space="preserve">2.60860252380371</t>
   </si>
   <si>
     <t xml:space="preserve">2.61511421203613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57213735580444</t>
+    <t xml:space="preserve">2.57213687896729</t>
   </si>
   <si>
     <t xml:space="preserve">2.58906722068787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56562495231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59818387031555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57474160194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64506816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65288257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67371988296509</t>
+    <t xml:space="preserve">2.56562542915344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59818410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57474184036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64506864547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65288281440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67372012138367</t>
   </si>
   <si>
     <t xml:space="preserve">2.6685106754303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68153405189514</t>
+    <t xml:space="preserve">2.68153429031372</t>
   </si>
   <si>
     <t xml:space="preserve">2.62944030761719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63855695724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641693115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67892909049988</t>
+    <t xml:space="preserve">2.63855648040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641669273376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67892980575562</t>
   </si>
   <si>
     <t xml:space="preserve">2.68674373626709</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">2.68413901329041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59297466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55129933357239</t>
+    <t xml:space="preserve">2.59297490119934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55129957199097</t>
   </si>
   <si>
     <t xml:space="preserve">2.50701975822449</t>
@@ -332,22 +332,22 @@
     <t xml:space="preserve">2.68282341957092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68960452079773</t>
+    <t xml:space="preserve">2.68960499763489</t>
   </si>
   <si>
     <t xml:space="preserve">2.64891481399536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71401882171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44139623641968</t>
+    <t xml:space="preserve">2.71401906013489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4413959980011</t>
   </si>
   <si>
     <t xml:space="preserve">2.43190169334412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53769564628601</t>
+    <t xml:space="preserve">2.53769588470459</t>
   </si>
   <si>
     <t xml:space="preserve">2.64484596252441</t>
@@ -359,31 +359,31 @@
     <t xml:space="preserve">2.69638633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7004554271698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63263893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61500668525696</t>
+    <t xml:space="preserve">2.70045518875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63263916969299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6150062084198</t>
   </si>
   <si>
     <t xml:space="preserve">2.66519093513489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68417954444885</t>
+    <t xml:space="preserve">2.68417930603027</t>
   </si>
   <si>
     <t xml:space="preserve">2.70588040351868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70723700523376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70994997024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69231748580933</t>
+    <t xml:space="preserve">2.70723724365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70994973182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69231772422791</t>
   </si>
   <si>
     <t xml:space="preserve">2.72893857955933</t>
@@ -392,40 +392,40 @@
     <t xml:space="preserve">2.73165106773376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7248694896698</t>
+    <t xml:space="preserve">2.72486925125122</t>
   </si>
   <si>
     <t xml:space="preserve">2.72080063819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79268574714661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77912282943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74250221252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73029446601868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74114513397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77640986442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76284646987915</t>
+    <t xml:space="preserve">2.79268622398376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77912211418152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74250173568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73029470443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74114537239075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7764093875885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76284670829773</t>
   </si>
   <si>
     <t xml:space="preserve">2.75470876693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74928331375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78726053237915</t>
+    <t xml:space="preserve">2.74928307533264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78726124763489</t>
   </si>
   <si>
     <t xml:space="preserve">2.7831916809082</t>
@@ -437,37 +437,37 @@
     <t xml:space="preserve">2.66790342330933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67061638832092</t>
+    <t xml:space="preserve">2.67061614990234</t>
   </si>
   <si>
     <t xml:space="preserve">2.63806438446045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64348936080933</t>
+    <t xml:space="preserve">2.64348959922791</t>
   </si>
   <si>
     <t xml:space="preserve">2.67197227478027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67332887649536</t>
+    <t xml:space="preserve">2.67332863807678</t>
   </si>
   <si>
     <t xml:space="preserve">2.68011045455933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69774270057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65569663047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67604184150696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7370765209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978924751282</t>
+    <t xml:space="preserve">2.69774317741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65569639205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67604160308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73707604408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978900909424</t>
   </si>
   <si>
     <t xml:space="preserve">2.72622585296631</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">2.80082368850708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78454780578613</t>
+    <t xml:space="preserve">2.78454828262329</t>
   </si>
   <si>
     <t xml:space="preserve">2.7465705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6909613609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65298390388489</t>
+    <t xml:space="preserve">2.69096040725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65298366546631</t>
   </si>
   <si>
     <t xml:space="preserve">2.65705299377441</t>
@@ -494,28 +494,28 @@
     <t xml:space="preserve">2.63128256797791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66247844696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6516273021698</t>
+    <t xml:space="preserve">2.66247820854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65162777900696</t>
   </si>
   <si>
     <t xml:space="preserve">2.69367337226868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65976524353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66383409500122</t>
+    <t xml:space="preserve">2.65976572036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6638343334198</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503021240234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6543402671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61093783378601</t>
+    <t xml:space="preserve">2.65434002876282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61093759536743</t>
   </si>
   <si>
     <t xml:space="preserve">2.59601783752441</t>
@@ -524,151 +524,151 @@
     <t xml:space="preserve">2.55804061889648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59737420082092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5729603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261564254761</t>
+    <t xml:space="preserve">2.59737396240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57296013832092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261540412903</t>
   </si>
   <si>
     <t xml:space="preserve">2.60144329071045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59059262275696</t>
+    <t xml:space="preserve">2.59059309959412</t>
   </si>
   <si>
     <t xml:space="preserve">2.68146657943726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65027141571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67468523979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65840888023376</t>
+    <t xml:space="preserve">2.65027117729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67468500137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65840911865234</t>
   </si>
   <si>
     <t xml:space="preserve">2.60822463035583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60008716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58923673629761</t>
+    <t xml:space="preserve">2.60008692741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58923625946045</t>
   </si>
   <si>
     <t xml:space="preserve">2.60415601730347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314462661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56075358390808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47259187698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852254867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44682168960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47530436515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47666120529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51192545890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45224642753601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47394824028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5512592792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53905177116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52820134162903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53362679481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57024765014648</t>
+    <t xml:space="preserve">2.62314486503601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56075310707092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47259211540222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852278709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44682145118713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4753041267395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47666025161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5119252204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45224690437317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47394800186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55125904083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53905200958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52820110321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53362631797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57024741172791</t>
   </si>
   <si>
     <t xml:space="preserve">2.58652353286743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56753468513489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77234101295471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76555943489075</t>
+    <t xml:space="preserve">2.56753516197205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77234053611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76555895805359</t>
   </si>
   <si>
     <t xml:space="preserve">2.72758197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75063991546631</t>
+    <t xml:space="preserve">2.75063967704773</t>
   </si>
   <si>
     <t xml:space="preserve">2.79404234886169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82252502441406</t>
+    <t xml:space="preserve">2.82252550125122</t>
   </si>
   <si>
     <t xml:space="preserve">2.80489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8198127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84015703201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86321520805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659482955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066272735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83473205566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81574296951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7953987121582</t>
+    <t xml:space="preserve">2.81981229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84015822410583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86321544647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659459114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066320419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8157434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79539847373962</t>
   </si>
   <si>
     <t xml:space="preserve">2.80218029022217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82388162612915</t>
+    <t xml:space="preserve">2.82388210296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.81031823158264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81303119659424</t>
+    <t xml:space="preserve">2.8130304813385</t>
   </si>
   <si>
     <t xml:space="preserve">2.80760526657104</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">2.83117580413818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8256299495697</t>
+    <t xml:space="preserve">2.82562971115112</t>
   </si>
   <si>
     <t xml:space="preserve">2.78126263618469</t>
@@ -689,31 +689,31 @@
     <t xml:space="preserve">2.72719025611877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66895866394043</t>
+    <t xml:space="preserve">2.66895842552185</t>
   </si>
   <si>
     <t xml:space="preserve">2.67866349220276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68005013465881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69391489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71471166610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66202592849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68559622764587</t>
+    <t xml:space="preserve">2.68005037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69391512870789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71471190452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66202569007874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68559575080872</t>
   </si>
   <si>
     <t xml:space="preserve">2.79928708076477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80621862411499</t>
+    <t xml:space="preserve">2.80621910095215</t>
   </si>
   <si>
     <t xml:space="preserve">2.79512739181519</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">2.78680849075317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7438280582428</t>
+    <t xml:space="preserve">2.74382781982422</t>
   </si>
   <si>
     <t xml:space="preserve">2.7854220867157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80067324638367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77433037757874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77987670898438</t>
+    <t xml:space="preserve">2.80067372322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77432990074158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77987623214722</t>
   </si>
   <si>
     <t xml:space="preserve">2.75491976737976</t>
@@ -743,31 +743,31 @@
     <t xml:space="preserve">2.77294397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81453824043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80899167060852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83672142028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86029148101807</t>
+    <t xml:space="preserve">2.81453800201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8089919090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83672165870667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86029171943665</t>
   </si>
   <si>
     <t xml:space="preserve">2.86445093154907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86999654769897</t>
+    <t xml:space="preserve">2.86999678611755</t>
   </si>
   <si>
     <t xml:space="preserve">2.89079403877258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90327215194702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89772629737854</t>
+    <t xml:space="preserve">2.9032723903656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89772605895996</t>
   </si>
   <si>
     <t xml:space="preserve">2.89911270141602</t>
@@ -776,220 +776,220 @@
     <t xml:space="preserve">2.88247489929199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94625306129456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91852331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9046585559845</t>
+    <t xml:space="preserve">2.94625282287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91852355003357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90465903282166</t>
   </si>
   <si>
     <t xml:space="preserve">2.92545557022095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98230123519897</t>
+    <t xml:space="preserve">2.9823009967804</t>
   </si>
   <si>
     <t xml:space="preserve">2.97259569168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98784685134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00864362716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01696300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02805399894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994319915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0585572719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05301070213318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03914618492126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05023860931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01834940910339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03637313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498697280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032520294189</t>
+    <t xml:space="preserve">2.98784708976746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00864386558533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01696276664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02805471420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994391441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05855679512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05301094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03914570808411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05023837089539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01834964752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03637337684631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498721122742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032496452332</t>
   </si>
   <si>
     <t xml:space="preserve">2.9407069683075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98091459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08628702163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07103514671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05578398704529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04885172843933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02528142929077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06687641143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380843162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14313197135925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363405227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16670203208923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15422368049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16808819770813</t>
+    <t xml:space="preserve">2.98091435432434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0862865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07103490829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05578422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04885125160217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02528166770935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06687545776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380819320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14313173294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16670179367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15422415733337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16808843612671</t>
   </si>
   <si>
     <t xml:space="preserve">3.16254186630249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16531467437744</t>
+    <t xml:space="preserve">3.16531538963318</t>
   </si>
   <si>
     <t xml:space="preserve">3.16947484016418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24573111534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522831916809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2471170425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27900576591492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782793998718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593802452087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3067352771759</t>
+    <t xml:space="preserve">3.24573063850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829606056213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522855758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24711728096008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900624275208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593873977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30673503875732</t>
   </si>
   <si>
     <t xml:space="preserve">3.33307838439941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25820875167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27762007713318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29841637611389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31505465507507</t>
+    <t xml:space="preserve">3.25820851325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27761936187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29841685295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31505393981934</t>
   </si>
   <si>
     <t xml:space="preserve">3.26791477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31366848945618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32475900650024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4259717464447</t>
+    <t xml:space="preserve">3.3136682510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32475972175598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42597150802612</t>
   </si>
   <si>
     <t xml:space="preserve">3.39546966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35803461074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36219429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496782302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37189936637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41903948783875</t>
+    <t xml:space="preserve">3.35803484916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3621940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496758460999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37190008163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072130203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41904044151306</t>
   </si>
   <si>
     <t xml:space="preserve">3.39131045341492</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45231485366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41488027572632</t>
+    <t xml:space="preserve">3.45231461524963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41488003730774</t>
   </si>
   <si>
     <t xml:space="preserve">3.43151807785034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32753324508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3552622795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28732490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404906272888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2998034954071</t>
+    <t xml:space="preserve">3.32753300666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35526204109192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28732514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404930114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29980301856995</t>
   </si>
   <si>
     <t xml:space="preserve">3.2887110710144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25127625465393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27207326889038</t>
+    <t xml:space="preserve">3.25127696990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27207350730896</t>
   </si>
   <si>
     <t xml:space="preserve">3.32614636421204</t>
@@ -998,133 +998,133 @@
     <t xml:space="preserve">3.3206000328064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.377445936203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44676899909973</t>
+    <t xml:space="preserve">3.37744545936584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44676947593689</t>
   </si>
   <si>
     <t xml:space="preserve">3.44538259506226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41210770606995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43845081329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4426097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40378880500793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43203616142273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38825178146362</t>
+    <t xml:space="preserve">3.41210722923279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4384503364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260954856873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40378832817078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43203568458557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38825297355652</t>
   </si>
   <si>
     <t xml:space="preserve">3.43062329292297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45322132110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955163002014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40661287307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45180821418762</t>
+    <t xml:space="preserve">3.45322060585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40661311149597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4518084526062</t>
   </si>
   <si>
     <t xml:space="preserve">3.44615912437439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48852920532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960229873657</t>
+    <t xml:space="preserve">3.48853063583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960134506226</t>
   </si>
   <si>
     <t xml:space="preserve">3.51818990707397</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53796315193176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51253986358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47723150253296</t>
+    <t xml:space="preserve">3.53796291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.512540102005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47723126411438</t>
   </si>
   <si>
     <t xml:space="preserve">3.552086353302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57680225372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58033347129822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55914831161499</t>
+    <t xml:space="preserve">3.57680249214172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58033394813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55914783477783</t>
   </si>
   <si>
     <t xml:space="preserve">3.51677703857422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58739542961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798836708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092617034912</t>
+    <t xml:space="preserve">3.58739519119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798789024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59092569351196</t>
   </si>
   <si>
     <t xml:space="preserve">3.62976574897766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60858058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211156845093</t>
+    <t xml:space="preserve">3.60858082771301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211180686951</t>
   </si>
   <si>
     <t xml:space="preserve">3.63329672813416</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66507530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65448212623596</t>
+    <t xml:space="preserve">3.66507482528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65448188781738</t>
   </si>
   <si>
     <t xml:space="preserve">3.70391511917114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6686053276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388918876648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60504984855652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63682770729065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61564183235168</t>
+    <t xml:space="preserve">3.66860604286194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64389038085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60504961013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63682746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.615642786026</t>
   </si>
   <si>
     <t xml:space="preserve">3.61917328834534</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60151934623718</t>
+    <t xml:space="preserve">3.60151886940002</t>
   </si>
   <si>
     <t xml:space="preserve">3.5662100315094</t>
@@ -1133,355 +1133,355 @@
     <t xml:space="preserve">3.50689077377319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56267881393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58386373519897</t>
+    <t xml:space="preserve">3.56267833709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58386445045471</t>
   </si>
   <si>
     <t xml:space="preserve">3.64742040634155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65095090866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154408454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64035868644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6580126285553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68625998497009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73569250106812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7321617603302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75687861442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76040935516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80277967453003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78865623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79571747779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80631136894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8098418712616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7851254940033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747155189514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72510075569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71097707748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71803832054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73922419548035</t>
+    <t xml:space="preserve">3.65095138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6403591632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626046180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73569369316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73216271400452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75687885284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.760409116745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80277991294861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78865671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79571866989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80631065368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80984282493591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512525558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7674708366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72510004043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71097636222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803903579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73922371864319</t>
   </si>
   <si>
     <t xml:space="preserve">3.68272948265076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68979144096375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981641769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78159499168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690454483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221314430237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218697547913</t>
+    <t xml:space="preserve">3.68979167938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981713294983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7815945148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633634567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221362113953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218792915344</t>
   </si>
   <si>
     <t xml:space="preserve">3.86280512809753</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90164589881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91929984092712</t>
+    <t xml:space="preserve">3.90164542198181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91929936408997</t>
   </si>
   <si>
     <t xml:space="preserve">3.94048523902893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89105343818665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83102798461914</t>
+    <t xml:space="preserve">3.89105248451233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83102679252625</t>
   </si>
   <si>
     <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75334811210632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70038414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62270426750183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77100253105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275517463684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7919065952301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390193939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068928718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71628475189209</t>
+    <t xml:space="preserve">3.75334763526917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70038366317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62270402908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77100157737732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275493621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79190754890442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390146255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068976402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71628546714783</t>
   </si>
   <si>
     <t xml:space="preserve">3.69035744667053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65002584457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027400970459</t>
+    <t xml:space="preserve">3.65002536773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027496337891</t>
   </si>
   <si>
     <t xml:space="preserve">3.64858484268188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57944488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53551244735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43468236923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030492782593</t>
+    <t xml:space="preserve">3.57944464683533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53551197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468284606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030516624451</t>
   </si>
   <si>
     <t xml:space="preserve">3.40083289146423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33745431900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37634587287903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35185837745667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44260478019714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45124697685242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022196769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116425514221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4354031085968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3849880695343</t>
+    <t xml:space="preserve">3.33745384216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37634611129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185861587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.451247215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022172927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43540191650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38498759269714</t>
   </si>
   <si>
     <t xml:space="preserve">3.48221611976624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47573447227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365664482117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188475608826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964053153992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401916503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38570857048035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40587449073792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44044470787048</t>
+    <t xml:space="preserve">3.47573471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365688323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44188451766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401964187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38570833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40587425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4404444694519</t>
   </si>
   <si>
     <t xml:space="preserve">3.48581767082214</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48293709754944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077607154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742435455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49302005767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51750659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55063676834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51174545288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45412826538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49373936653137</t>
+    <t xml:space="preserve">3.48293662071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077654838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742340087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49301958084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51750707626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55063629150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5117449760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45412802696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49373984336853</t>
   </si>
   <si>
     <t xml:space="preserve">3.44692587852478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45484852790833</t>
+    <t xml:space="preserve">3.4548487663269</t>
   </si>
   <si>
     <t xml:space="preserve">3.58304595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56864190101624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5744035243988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63706159591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418078422546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154885292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65578722953796</t>
+    <t xml:space="preserve">3.56864142417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440328598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63706207275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418126106262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65578699111938</t>
   </si>
   <si>
     <t xml:space="preserve">3.64570379257202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68171405792236</t>
+    <t xml:space="preserve">3.68171501159668</t>
   </si>
   <si>
     <t xml:space="preserve">3.68315505981445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74221277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933124542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348737716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74653363227844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73357081413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830647468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110384941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79406690597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592294692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049292564392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78398466110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65434694290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65146613121033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6788341999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70043992996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56288027763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58880710601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52758955955505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5283100605011</t>
+    <t xml:space="preserve">3.74221253395081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933100700378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348761558533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74653434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73356986045837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110289573669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406714439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151841163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905240058899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8804931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78398489952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65434646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65146660804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67883372306824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70044088363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56288075447083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58880734443665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5275890827179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52830982208252</t>
   </si>
   <si>
     <t xml:space="preserve">3.5160665512085</t>
@@ -1490,40 +1490,40 @@
     <t xml:space="preserve">3.51246523857117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49950194358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955828666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39363050460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31080603599548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.422438621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38714838027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40947508811951</t>
+    <t xml:space="preserve">3.49950122833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955852508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39363026618958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31080627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42243885993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3871488571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40947532653809</t>
   </si>
   <si>
     <t xml:space="preserve">3.4476466178894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38426756858826</t>
+    <t xml:space="preserve">3.38426733016968</t>
   </si>
   <si>
     <t xml:space="preserve">3.37130451202393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30864596366882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42820048332214</t>
+    <t xml:space="preserve">3.30864572525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4282009601593</t>
   </si>
   <si>
     <t xml:space="preserve">3.44332528114319</t>
@@ -1532,109 +1532,109 @@
     <t xml:space="preserve">3.50958466529846</t>
   </si>
   <si>
-    <t xml:space="preserve">3.508864402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48149657249451</t>
+    <t xml:space="preserve">3.50886464118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48149633407593</t>
   </si>
   <si>
     <t xml:space="preserve">3.47933554649353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47429370880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39435076713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41811800003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37202477455139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39795160293579</t>
+    <t xml:space="preserve">3.47429394721985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39435124397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41811776161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37202405929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39795136451721</t>
   </si>
   <si>
     <t xml:space="preserve">3.43684339523315</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41451668739319</t>
+    <t xml:space="preserve">3.4145176410675</t>
   </si>
   <si>
     <t xml:space="preserve">3.42603993415833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41667771339417</t>
+    <t xml:space="preserve">3.41667747497559</t>
   </si>
   <si>
     <t xml:space="preserve">3.47213339805603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45989012718201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590063095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51822686195374</t>
+    <t xml:space="preserve">3.45988988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590086936951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51822710037231</t>
   </si>
   <si>
     <t xml:space="preserve">3.49518013000488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49013876914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46493124961853</t>
+    <t xml:space="preserve">3.49013924598694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46493172645569</t>
   </si>
   <si>
     <t xml:space="preserve">3.50310277938843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49085927009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51462626457214</t>
+    <t xml:space="preserve">3.49085974693298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51462602615356</t>
   </si>
   <si>
     <t xml:space="preserve">3.53263139724731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53119087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5333514213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49856543540955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47192120552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45119738578796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46229982376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49042439460754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48080277442932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53039121627808</t>
+    <t xml:space="preserve">3.5311906337738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53335165977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4985659122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47192144393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45119833946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46229958534241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49042463302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48080229759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53039073944092</t>
   </si>
   <si>
     <t xml:space="preserve">3.39346790313721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32685732841492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34980082511902</t>
+    <t xml:space="preserve">3.3268575668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34980058670044</t>
   </si>
   <si>
     <t xml:space="preserve">3.35054087638855</t>
@@ -1643,34 +1643,34 @@
     <t xml:space="preserve">3.39420819282532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39272809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37718558311462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761337280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29059076309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31427502632141</t>
+    <t xml:space="preserve">3.3927276134491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37718534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761408805847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2905912399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31427478790283</t>
   </si>
   <si>
     <t xml:space="preserve">3.27948904037476</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27504777908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26394629478455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29873204231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28466987609863</t>
+    <t xml:space="preserve">3.27504849433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26394581794739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2987322807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28466963768005</t>
   </si>
   <si>
     <t xml:space="preserve">3.24692368507385</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">3.22397994995117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2350811958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18919444084167</t>
+    <t xml:space="preserve">3.23508143424988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18919372558594</t>
   </si>
   <si>
     <t xml:space="preserve">3.1529278755188</t>
@@ -1703,340 +1703,340 @@
     <t xml:space="preserve">3.17513108253479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24026226997375</t>
+    <t xml:space="preserve">3.24026274681091</t>
   </si>
   <si>
     <t xml:space="preserve">3.25802516937256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37496495246887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37348484992981</t>
+    <t xml:space="preserve">3.37496519088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37348461151123</t>
   </si>
   <si>
     <t xml:space="preserve">3.34388017654419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37422466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682319641113</t>
+    <t xml:space="preserve">3.37422490119934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682367324829</t>
   </si>
   <si>
     <t xml:space="preserve">3.34091949462891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36608362197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42899346351624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236618041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40382933616638</t>
+    <t xml:space="preserve">3.36608386039734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42899370193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236594200134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40383005142212</t>
   </si>
   <si>
     <t xml:space="preserve">3.41271114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38976740837097</t>
+    <t xml:space="preserve">3.38976693153381</t>
   </si>
   <si>
     <t xml:space="preserve">3.26542687416077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24322319030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26320576667786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34609985351562</t>
+    <t xml:space="preserve">3.24322295188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26320600509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3461000919342</t>
   </si>
   <si>
     <t xml:space="preserve">3.30095291137695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27356767654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952174186707</t>
+    <t xml:space="preserve">3.27356791496277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952198028564</t>
   </si>
   <si>
     <t xml:space="preserve">3.23878240585327</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21657872200012</t>
+    <t xml:space="preserve">3.2165789604187</t>
   </si>
   <si>
     <t xml:space="preserve">3.17365145683289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29651212692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26690673828125</t>
+    <t xml:space="preserve">3.29651165008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26690721511841</t>
   </si>
   <si>
     <t xml:space="preserve">3.22916030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27874898910522</t>
+    <t xml:space="preserve">3.27874875068665</t>
   </si>
   <si>
     <t xml:space="preserve">3.28392934799194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2646861076355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24174308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25654530525208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20769739151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24100303649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172614097595</t>
+    <t xml:space="preserve">3.26468634605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24174284934998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2565450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20769715309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24100279808044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172566413879</t>
   </si>
   <si>
     <t xml:space="preserve">3.26986765861511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30835390090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797575950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32611680030823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29503178596497</t>
+    <t xml:space="preserve">3.30835366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797552108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32611703872681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29503130912781</t>
   </si>
   <si>
     <t xml:space="preserve">3.33055734634399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37644505500793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40308952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44823718070984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44675707817078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48228311538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51928901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52595019340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53779220581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52150917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54519295692444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5629563331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55111408233643</t>
+    <t xml:space="preserve">3.37644529342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40308928489685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823694229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44675731658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48228287696838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51928925514221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52594995498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53779244422913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52150940895081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5451934337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56295728683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.551114320755</t>
   </si>
   <si>
     <t xml:space="preserve">3.5747983455658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5133683681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410794258118</t>
+    <t xml:space="preserve">3.51336860656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410865783691</t>
   </si>
   <si>
     <t xml:space="preserve">3.50966787338257</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5577757358551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6495509147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542167663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71394181251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7109808921814</t>
+    <t xml:space="preserve">3.55777597427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64955115318298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7154221534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394205093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71098160743713</t>
   </si>
   <si>
     <t xml:space="preserve">3.70950126647949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79239439964294</t>
+    <t xml:space="preserve">3.79239463806152</t>
   </si>
   <si>
     <t xml:space="preserve">3.81015753746033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83828258514404</t>
+    <t xml:space="preserve">3.83828330039978</t>
   </si>
   <si>
     <t xml:space="preserve">3.73614501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7331850528717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76279067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76427054405212</t>
+    <t xml:space="preserve">3.73318457603455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76279020309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76426959037781</t>
   </si>
   <si>
     <t xml:space="preserve">3.81607818603516</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81459832191467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83088207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82200026512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88565039634705</t>
+    <t xml:space="preserve">3.81459903717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83088111877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82199931144714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88564991950989</t>
   </si>
   <si>
     <t xml:space="preserve">3.8486442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85604596138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86344623565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86196660995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.878249168396</t>
+    <t xml:space="preserve">3.85604619979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86344695091248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86196637153625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87824892997742</t>
   </si>
   <si>
     <t xml:space="preserve">3.92857766151428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94226050376892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93313813209534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90273141860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93770003318787</t>
+    <t xml:space="preserve">3.9422607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9331386089325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90273189544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93770027160645</t>
   </si>
   <si>
     <t xml:space="preserve">3.94682145118713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92553687095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483061790466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97874903678894</t>
+    <t xml:space="preserve">3.92553663253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483037948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97874927520752</t>
   </si>
   <si>
     <t xml:space="preserve">4.00307416915894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93009781837463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94074034690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121126174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87840604782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90729308128357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9513828754425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9650661945343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96202492713928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98026967048645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635077476501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266697883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722935676575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98787093162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01219606399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03804159164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02892017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04412412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0395622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0319619178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05020523071289</t>
+    <t xml:space="preserve">3.93009829521179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94074058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121221542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8784065246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90729260444641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95138239860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96506595611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96202516555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98026990890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635053634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266745567322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98787045478821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01219701766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0380425453186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02892065048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04412508010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03956317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03196096420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05020570755005</t>
   </si>
   <si>
     <t xml:space="preserve">4.10341739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18247509002686</t>
+    <t xml:space="preserve">4.18247604370117</t>
   </si>
   <si>
     <t xml:space="preserve">4.16879272460938</t>
@@ -2048,58 +2048,58 @@
     <t xml:space="preserve">4.17943525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17031288146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17183351516724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15815019607544</t>
+    <t xml:space="preserve">4.17031335830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17183303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15814924240112</t>
   </si>
   <si>
     <t xml:space="preserve">4.19615936279297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21440410614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2417688369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28281831741333</t>
+    <t xml:space="preserve">4.21440315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24176931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28281879425049</t>
   </si>
   <si>
     <t xml:space="preserve">4.27217578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3345103263855</t>
+    <t xml:space="preserve">4.33451080322266</t>
   </si>
   <si>
     <t xml:space="preserve">4.34363222122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32234764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33603048324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30106210708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30334281921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33907222747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32918930053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32842874526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31474542617798</t>
+    <t xml:space="preserve">4.32234716415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33603096008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30106258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30334329605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33907127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32918834686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32842826843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31474637985229</t>
   </si>
   <si>
     <t xml:space="preserve">4.30258321762085</t>
@@ -2111,34 +2111,34 @@
     <t xml:space="preserve">4.26457405090332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24252939224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16347169876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19691848754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19995975494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19539833068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18399667739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20984220504761</t>
+    <t xml:space="preserve">4.24253034591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16347122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19691896438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19996023178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19539880752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18399620056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20984172821045</t>
   </si>
   <si>
     <t xml:space="preserve">4.24557018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22124433517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28661966323853</t>
+    <t xml:space="preserve">4.22124528884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28661918640137</t>
   </si>
   <si>
     <t xml:space="preserve">4.23948907852173</t>
@@ -2156,31 +2156,31 @@
     <t xml:space="preserve">4.23872900009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21972417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18627548217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23796844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23720788955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24937105178833</t>
+    <t xml:space="preserve">4.21972465515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18627691268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23796892166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23720836639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24937152862549</t>
   </si>
   <si>
     <t xml:space="preserve">4.27901792526245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32538747787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38696193695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38012027740479</t>
+    <t xml:space="preserve">4.32538843154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38012075424194</t>
   </si>
   <si>
     <t xml:space="preserve">4.31778621673584</t>
@@ -2189,19 +2189,19 @@
     <t xml:space="preserve">4.40064525604248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22428464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23416805267334</t>
+    <t xml:space="preserve">4.22428512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23416757583618</t>
   </si>
   <si>
     <t xml:space="preserve">4.26761484146118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33983182907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35275459289551</t>
+    <t xml:space="preserve">4.3398323059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35275411605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.41356897354126</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">4.55420064926147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61425495147705</t>
+    <t xml:space="preserve">4.61425447463989</t>
   </si>
   <si>
     <t xml:space="preserve">4.62185621261597</t>
@@ -2231,22 +2231,22 @@
     <t xml:space="preserve">4.74120378494263</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69027185440063</t>
+    <t xml:space="preserve">4.69027137756348</t>
   </si>
   <si>
     <t xml:space="preserve">4.70547485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73740291595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208093643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71383714675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61805534362793</t>
+    <t xml:space="preserve">4.73740243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71383666992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61805486679077</t>
   </si>
   <si>
     <t xml:space="preserve">4.62489700317383</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">4.66746616363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65682315826416</t>
+    <t xml:space="preserve">4.65682363510132</t>
   </si>
   <si>
     <t xml:space="preserve">4.75868797302246</t>
@@ -2264,19 +2264,19 @@
     <t xml:space="preserve">4.87119245529175</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90083980560303</t>
+    <t xml:space="preserve">4.90083932876587</t>
   </si>
   <si>
     <t xml:space="preserve">4.86511182785034</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87271308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87195348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88487672805786</t>
+    <t xml:space="preserve">4.87271356582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87195301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8848762512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.94873142242432</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">4.93504810333252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95101118087769</t>
+    <t xml:space="preserve">4.95101165771484</t>
   </si>
   <si>
     <t xml:space="preserve">4.98597955703735</t>
@@ -2297,16 +2297,16 @@
     <t xml:space="preserve">4.77997207641602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87715721130371</t>
+    <t xml:space="preserve">4.87715816497803</t>
   </si>
   <si>
     <t xml:space="preserve">4.8779354095459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92147493362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85694408416748</t>
+    <t xml:space="preserve">4.92147445678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85694360733032</t>
   </si>
   <si>
     <t xml:space="preserve">4.82817649841309</t>
@@ -2321,34 +2321,34 @@
     <t xml:space="preserve">4.81962394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85150098800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81884622573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76131248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908826828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77375173568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69289398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71466398239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72554779052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67190170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88648748397827</t>
+    <t xml:space="preserve">4.85150003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81884670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76131296157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908683776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77375221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69289445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7146635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72554874420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67190217971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88648700714111</t>
   </si>
   <si>
     <t xml:space="preserve">4.94402170181274</t>
@@ -2363,31 +2363,31 @@
     <t xml:space="preserve">4.8857102394104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83828401565552</t>
+    <t xml:space="preserve">4.83828353881836</t>
   </si>
   <si>
     <t xml:space="preserve">5.05286931991577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05442476272583</t>
+    <t xml:space="preserve">5.05442428588867</t>
   </si>
   <si>
     <t xml:space="preserve">5.15627479553223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12672996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19359350204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19437170028687</t>
+    <t xml:space="preserve">5.12673091888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19359302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19437074661255</t>
   </si>
   <si>
     <t xml:space="preserve">5.23868799209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18193197250366</t>
+    <t xml:space="preserve">5.18193101882935</t>
   </si>
   <si>
     <t xml:space="preserve">5.14694499969482</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">5.08863353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0458722114563</t>
+    <t xml:space="preserve">5.04587173461914</t>
   </si>
   <si>
     <t xml:space="preserve">5.00855255126953</t>
@@ -2405,34 +2405,34 @@
     <t xml:space="preserve">5.14150238037109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12517547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0396523475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06686401367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17026853561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14305686950684</t>
+    <t xml:space="preserve">5.12517595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03965187072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06686449050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17026948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14305734634399</t>
   </si>
   <si>
     <t xml:space="preserve">5.11273574829102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18659687042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26201295852661</t>
+    <t xml:space="preserve">5.18659639358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26201248168945</t>
   </si>
   <si>
     <t xml:space="preserve">5.23246812820435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31177186965942</t>
+    <t xml:space="preserve">5.31177139282227</t>
   </si>
   <si>
     <t xml:space="preserve">5.27600717544556</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">5.3265438079834</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30010843276978</t>
+    <t xml:space="preserve">5.30010890960693</t>
   </si>
   <si>
     <t xml:space="preserve">5.18504190444946</t>
@@ -2450,85 +2450,85 @@
     <t xml:space="preserve">5.1617169380188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25112771987915</t>
+    <t xml:space="preserve">5.25112819671631</t>
   </si>
   <si>
     <t xml:space="preserve">5.3218789100647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26512289047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29855442047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26123571395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28689193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27056550979614</t>
+    <t xml:space="preserve">5.26512241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29855489730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26123523712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28689241409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27056503295898</t>
   </si>
   <si>
     <t xml:space="preserve">5.31643629074097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29077911376953</t>
+    <t xml:space="preserve">5.29077959060669</t>
   </si>
   <si>
     <t xml:space="preserve">5.26356744766235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30866193771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24413013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3280987739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909057617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33665037155151</t>
+    <t xml:space="preserve">5.30866241455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24413061141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32809925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909105300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33665132522583</t>
   </si>
   <si>
     <t xml:space="preserve">5.34287118911743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36697292327881</t>
+    <t xml:space="preserve">5.36697340011597</t>
   </si>
   <si>
     <t xml:space="preserve">5.39573955535889</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38874244689941</t>
+    <t xml:space="preserve">5.38874197006226</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37241458892822</t>
+    <t xml:space="preserve">5.37241506576538</t>
   </si>
   <si>
     <t xml:space="preserve">5.36386299133301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24957275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33820581436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33354091644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42917156219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38796472549438</t>
+    <t xml:space="preserve">5.24957227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33820629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33354139328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42917108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38796424865723</t>
   </si>
   <si>
     <t xml:space="preserve">5.3452033996582</t>
@@ -2537,49 +2537,49 @@
     <t xml:space="preserve">5.33509588241577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36308479309082</t>
+    <t xml:space="preserve">5.36308574676514</t>
   </si>
   <si>
     <t xml:space="preserve">5.31021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2900013923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26745510101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24801778793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31799173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34209299087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33043146133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19126129150391</t>
+    <t xml:space="preserve">5.29000186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26745462417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24801826477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31799125671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3420934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33043098449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528299331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19126081466675</t>
   </si>
   <si>
     <t xml:space="preserve">5.22702550888062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23324489593506</t>
+    <t xml:space="preserve">5.23324537277222</t>
   </si>
   <si>
     <t xml:space="preserve">5.32265663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38407754898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45016431808472</t>
+    <t xml:space="preserve">5.38407850265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45016384124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.42839431762695</t>
@@ -2588,19 +2588,19 @@
     <t xml:space="preserve">5.44316625595093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60254955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57844924926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54968166351318</t>
+    <t xml:space="preserve">5.60255002975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5784478187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54968214035034</t>
   </si>
   <si>
     <t xml:space="preserve">5.49836778640747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60721588134766</t>
+    <t xml:space="preserve">5.6072154045105</t>
   </si>
   <si>
     <t xml:space="preserve">5.60643768310547</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65230989456177</t>
+    <t xml:space="preserve">5.65230894088745</t>
   </si>
   <si>
     <t xml:space="preserve">5.67952156066895</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">5.76659965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75338220596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76970958709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91743135452271</t>
+    <t xml:space="preserve">5.75338268280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76971006393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91743230819702</t>
   </si>
   <si>
     <t xml:space="preserve">6.00606441497803</t>
@@ -2636,10 +2636,10 @@
     <t xml:space="preserve">6.05687665939331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0417914390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99098014831543</t>
+    <t xml:space="preserve">6.04179191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99097967147827</t>
   </si>
   <si>
     <t xml:space="preserve">6.04973077774048</t>
@@ -2648,25 +2648,25 @@
     <t xml:space="preserve">6.20772218704224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09260272979736</t>
+    <t xml:space="preserve">6.09260368347168</t>
   </si>
   <si>
     <t xml:space="preserve">6.27123689651489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35856866836548</t>
+    <t xml:space="preserve">6.35856819152832</t>
   </si>
   <si>
     <t xml:space="preserve">6.42128896713257</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23630428314209</t>
+    <t xml:space="preserve">6.23630332946777</t>
   </si>
   <si>
     <t xml:space="preserve">6.32442998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35142374038696</t>
+    <t xml:space="preserve">6.3514232635498</t>
   </si>
   <si>
     <t xml:space="preserve">6.40699815750122</t>
@@ -2675,157 +2675,157 @@
     <t xml:space="preserve">6.45463418960571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49194860458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51020860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50465106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45622253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51576566696167</t>
+    <t xml:space="preserve">6.4919490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51020908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50465202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45622158050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51576662063599</t>
   </si>
   <si>
     <t xml:space="preserve">6.57134103775024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66423082351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72218704223633</t>
+    <t xml:space="preserve">6.664231300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72218799591064</t>
   </si>
   <si>
     <t xml:space="preserve">6.8007869720459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69519376754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70392751693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37524080276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19660758972168</t>
+    <t xml:space="preserve">6.69519424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7039270401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37524032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19660806655884</t>
   </si>
   <si>
     <t xml:space="preserve">6.31569623947144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28473377227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01479864120483</t>
+    <t xml:space="preserve">6.28473329544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01479721069336</t>
   </si>
   <si>
     <t xml:space="preserve">6.06560945510864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18707990646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54196643829346</t>
+    <t xml:space="preserve">6.18708038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54196500778198</t>
   </si>
   <si>
     <t xml:space="preserve">6.46654367446899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26488494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64165163040161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32249307632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17641019821167</t>
+    <t xml:space="preserve">6.26488542556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64165115356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3224925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17640972137451</t>
   </si>
   <si>
     <t xml:space="preserve">4.14906740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46108102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35548877716064</t>
+    <t xml:space="preserve">4.46108055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3554892539978</t>
   </si>
   <si>
     <t xml:space="preserve">4.54126787185669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67623519897461</t>
+    <t xml:space="preserve">4.67623567581177</t>
   </si>
   <si>
     <t xml:space="preserve">4.62860012054443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67544078826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74133777618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01047849655151</t>
+    <t xml:space="preserve">4.6754412651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74133729934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01047897338867</t>
   </si>
   <si>
     <t xml:space="preserve">5.00174617767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98507308959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88662672042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002401351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03270959854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81755495071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87868738174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8183479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87471675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06129026412964</t>
+    <t xml:space="preserve">4.98507356643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88662624359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002353668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0327091217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81755399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87868690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81834888458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87471723556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06129121780396</t>
   </si>
   <si>
     <t xml:space="preserve">4.9898362159729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12321758270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11845302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92790985107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96125602722168</t>
+    <t xml:space="preserve">5.12321662902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11845350265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92791032791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96125555038452</t>
   </si>
   <si>
     <t xml:space="preserve">4.92949867248535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91600227355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76753711700439</t>
+    <t xml:space="preserve">4.91600131988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76753759384155</t>
   </si>
   <si>
     <t xml:space="preserve">4.75165891647339</t>
@@ -2834,13 +2834,13 @@
     <t xml:space="preserve">4.70481729507446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68417406082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81914234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88265609741211</t>
+    <t xml:space="preserve">4.68417453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81914281845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88265657424927</t>
   </si>
   <si>
     <t xml:space="preserve">4.97792768478394</t>
@@ -2849,19 +2849,19 @@
     <t xml:space="preserve">4.95093441009521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76912498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83343315124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81676006317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91282606124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92235231399536</t>
+    <t xml:space="preserve">4.76912450790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83343267440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81676054000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91282558441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92235326766968</t>
   </si>
   <si>
     <t xml:space="preserve">4.82708168029785</t>
@@ -2870,43 +2870,43 @@
     <t xml:space="preserve">4.78738594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67147254943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57381868362427</t>
+    <t xml:space="preserve">4.67147159576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57381916046143</t>
   </si>
   <si>
     <t xml:space="preserve">4.73498630523682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7929425239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9636378288269</t>
+    <t xml:space="preserve">4.79294300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96363687515259</t>
   </si>
   <si>
     <t xml:space="preserve">5.02556371688843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08907842636108</t>
+    <t xml:space="preserve">5.08907794952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.16847133636475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17323398590088</t>
+    <t xml:space="preserve">5.17323446273804</t>
   </si>
   <si>
     <t xml:space="preserve">5.22880935668945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39235830307007</t>
+    <t xml:space="preserve">5.39235877990723</t>
   </si>
   <si>
     <t xml:space="preserve">5.47889709472656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.555908203125</t>
+    <t xml:space="preserve">5.55590724945068</t>
   </si>
   <si>
     <t xml:space="preserve">5.70754766464233</t>
@@ -2918,19 +2918,19 @@
     <t xml:space="preserve">5.94255065917969</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01638555526733</t>
+    <t xml:space="preserve">6.01638650894165</t>
   </si>
   <si>
     <t xml:space="preserve">6.01559209823608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9878044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96398639678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81711006164551</t>
+    <t xml:space="preserve">5.98780393600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96398687362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81711053848267</t>
   </si>
   <si>
     <t xml:space="preserve">5.8314003944397</t>
@@ -2939,28 +2939,28 @@
     <t xml:space="preserve">5.84489727020264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00685834884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95842933654785</t>
+    <t xml:space="preserve">6.00685882568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95842838287354</t>
   </si>
   <si>
     <t xml:space="preserve">5.93302345275879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03385162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137071609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05290699005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08386993408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06481504440308</t>
+    <t xml:space="preserve">6.03385210037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137119293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05290651321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08386945724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06481552124023</t>
   </si>
   <si>
     <t xml:space="preserve">6.13229894638062</t>
@@ -2969,16 +2969,16 @@
     <t xml:space="preserve">6.095778465271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11483335494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30934476852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25138902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28314542770386</t>
+    <t xml:space="preserve">6.11483287811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30934524536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25138854980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2831449508667</t>
   </si>
   <si>
     <t xml:space="preserve">6.3315749168396</t>
@@ -2987,22 +2987,22 @@
     <t xml:space="preserve">6.41970109939575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30061197280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44828224182129</t>
+    <t xml:space="preserve">6.30061149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44828271865845</t>
   </si>
   <si>
     <t xml:space="preserve">6.36253833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48559665679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55228710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69043064117432</t>
+    <t xml:space="preserve">6.48559713363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55228757858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69043111801147</t>
   </si>
   <si>
     <t xml:space="preserve">6.74146509170532</t>
@@ -3011,16 +3011,16 @@
     <t xml:space="preserve">6.74794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63777542114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58917045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4352560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662406921387</t>
+    <t xml:space="preserve">6.63777589797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58917093276978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43525648117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41662454605103</t>
   </si>
   <si>
     <t xml:space="preserve">6.39961242675781</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">6.46036815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26756954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26108884811401</t>
+    <t xml:space="preserve">6.26757001876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26108932495117</t>
   </si>
   <si>
     <t xml:space="preserve">6.36396932601929</t>
@@ -3041,43 +3041,43 @@
     <t xml:space="preserve">6.37450075149536</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34533739089966</t>
+    <t xml:space="preserve">6.34533786773682</t>
   </si>
   <si>
     <t xml:space="preserve">6.26189947128296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33075571060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37126016616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45145797729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5697283744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48710155487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38746166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32508516311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30888366699219</t>
+    <t xml:space="preserve">6.33075666427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37125968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45145750045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56972885131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48710107803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3874626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32508563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30888414382935</t>
   </si>
   <si>
     <t xml:space="preserve">6.282151222229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26270961761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37206983566284</t>
+    <t xml:space="preserve">6.26270914077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3720703125</t>
   </si>
   <si>
     <t xml:space="preserve">6.32184505462646</t>
@@ -3092,34 +3092,34 @@
     <t xml:space="preserve">6.18899297714233</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1476788520813</t>
+    <t xml:space="preserve">6.14767837524414</t>
   </si>
   <si>
     <t xml:space="preserve">6.07882213592529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.195472240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14038753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00429534912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15091848373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05370903015137</t>
+    <t xml:space="preserve">6.19547367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14038801193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00429487228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15091943740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05370950698853</t>
   </si>
   <si>
     <t xml:space="preserve">6.19790315628052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15982961654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20519351959229</t>
+    <t xml:space="preserve">6.15983009338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2051944732666</t>
   </si>
   <si>
     <t xml:space="preserve">6.12499666213989</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">6.18008184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13633728027344</t>
+    <t xml:space="preserve">6.13633680343628</t>
   </si>
   <si>
     <t xml:space="preserve">5.97837257385254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01077508926392</t>
+    <t xml:space="preserve">6.01077556610107</t>
   </si>
   <si>
     <t xml:space="preserve">5.88035297393799</t>
@@ -3143,31 +3143,31 @@
     <t xml:space="preserve">5.93057823181152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04317903518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97027111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94191884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345823287964</t>
+    <t xml:space="preserve">6.04317808151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97027158737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94191932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345775604248</t>
   </si>
   <si>
     <t xml:space="preserve">6.07558155059814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0091552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04965925216675</t>
+    <t xml:space="preserve">6.00915575027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04965877532959</t>
   </si>
   <si>
     <t xml:space="preserve">5.98971366882324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96541118621826</t>
+    <t xml:space="preserve">5.9654107093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.15334939956665</t>
@@ -3176,19 +3176,19 @@
     <t xml:space="preserve">6.11365509033203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0950231552124</t>
+    <t xml:space="preserve">6.09502363204956</t>
   </si>
   <si>
     <t xml:space="preserve">6.22706651687622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24731826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04560899734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09745407104492</t>
+    <t xml:space="preserve">6.24731779098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04560804367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">6.05046892166138</t>
@@ -3197,10 +3197,10 @@
     <t xml:space="preserve">6.14200782775879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08773326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0350775718689</t>
+    <t xml:space="preserve">6.08773231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03507709503174</t>
   </si>
   <si>
     <t xml:space="preserve">6.13147687911987</t>
@@ -3209,22 +3209,22 @@
     <t xml:space="preserve">5.99052381515503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63003921508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61950778961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53606986999512</t>
+    <t xml:space="preserve">5.63003873825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61950731277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53607034683228</t>
   </si>
   <si>
     <t xml:space="preserve">5.65920162200928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84632921218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865129470825</t>
+    <t xml:space="preserve">5.84633016586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865177154541</t>
   </si>
   <si>
     <t xml:space="preserve">6.16550016403198</t>
@@ -3236,46 +3236,46 @@
     <t xml:space="preserve">6.5186939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65235614776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54542636871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49682235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5527172088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134962081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57944917678833</t>
+    <t xml:space="preserve">6.65235710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54542684555054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49682188034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55271673202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134914398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57945013046265</t>
   </si>
   <si>
     <t xml:space="preserve">6.6134729385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66936826705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923294067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87512922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86135768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88727903366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.780348777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984527587891</t>
+    <t xml:space="preserve">6.66936779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923246383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87512874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86135673522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88727855682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78034925460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984479904175</t>
   </si>
   <si>
     <t xml:space="preserve">6.70906162261963</t>
@@ -3284,19 +3284,19 @@
     <t xml:space="preserve">6.64992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64749622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62724447250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61023235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57782983779907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6507363319397</t>
+    <t xml:space="preserve">6.64749670028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6272439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61023283004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57782936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65073728561401</t>
   </si>
   <si>
     <t xml:space="preserve">6.52031421661377</t>
@@ -3308,100 +3308,100 @@
     <t xml:space="preserve">6.61185312271118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62076425552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53813600540161</t>
+    <t xml:space="preserve">6.62076377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53813552856445</t>
   </si>
   <si>
     <t xml:space="preserve">6.70015144348145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76009702682495</t>
+    <t xml:space="preserve">6.76009750366211</t>
   </si>
   <si>
     <t xml:space="preserve">6.70420169830322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85082578659058</t>
+    <t xml:space="preserve">6.85082530975342</t>
   </si>
   <si>
     <t xml:space="preserve">6.80060148239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23318290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005067825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2404727935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24857378005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111257553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994136810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15541410446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17647743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09466361999512</t>
+    <t xml:space="preserve">7.23318195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24047327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24857425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111305236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2299427986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17647647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09466314315796</t>
   </si>
   <si>
     <t xml:space="preserve">7.08557319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08887767791748</t>
+    <t xml:space="preserve">7.0888786315918</t>
   </si>
   <si>
     <t xml:space="preserve">6.99053621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89632654190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88806247711182</t>
+    <t xml:space="preserve">6.89632701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88806343078613</t>
   </si>
   <si>
     <t xml:space="preserve">6.94177913665771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81038188934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94260549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79385328292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77649784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06739139556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07069730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98061990737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02441930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84591627120972</t>
+    <t xml:space="preserve">6.8103814125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76906061172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79385232925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77649879455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06739234924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07069778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98061943054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02441883087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84591674804688</t>
   </si>
   <si>
     <t xml:space="preserve">6.87401390075684</t>
@@ -3410,61 +3410,61 @@
     <t xml:space="preserve">6.99301528930664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99797439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9954948425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86161851882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77319383621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67485046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59221076965332</t>
+    <t xml:space="preserve">6.99797487258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99549531936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86161804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77319288253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67485094070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59221124649048</t>
   </si>
   <si>
     <t xml:space="preserve">6.54510593414307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47899341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48229885101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56741809844971</t>
+    <t xml:space="preserve">6.47899436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48229932785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56741905212402</t>
   </si>
   <si>
     <t xml:space="preserve">6.44759035110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30214357376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48147344589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50626516342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68063545227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69633722305298</t>
+    <t xml:space="preserve">6.30214405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48147296905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50626468658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68063592910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69633769989014</t>
   </si>
   <si>
     <t xml:space="preserve">6.788893699646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88062524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82195043563843</t>
+    <t xml:space="preserve">6.88062477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82195091247559</t>
   </si>
   <si>
     <t xml:space="preserve">6.76079702377319</t>
@@ -3473,76 +3473,76 @@
     <t xml:space="preserve">6.80790138244629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74509477615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410779953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86409616470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87897205352783</t>
+    <t xml:space="preserve">6.74509429931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410732269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86409711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87897253036499</t>
   </si>
   <si>
     <t xml:space="preserve">6.96326541900635</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97648763656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96409177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0302038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96904945373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01863479614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.970703125</t>
+    <t xml:space="preserve">6.97648811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96409225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03020429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96905040740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01863384246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97070360183716</t>
   </si>
   <si>
     <t xml:space="preserve">7.06904458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0954909324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14920473098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10210084915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09053134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12441396713257</t>
+    <t xml:space="preserve">7.09548997879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14920520782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10210132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09053087234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12441444396973</t>
   </si>
   <si>
     <t xml:space="preserve">7.03185653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09135770797729</t>
+    <t xml:space="preserve">7.09135818481445</t>
   </si>
   <si>
     <t xml:space="preserve">7.15581798553467</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15829563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0698709487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01367664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20457458496094</t>
+    <t xml:space="preserve">7.15829610824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06987142562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01367616653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2045750617981</t>
   </si>
   <si>
     <t xml:space="preserve">7.21862363815308</t>
@@ -3551,22 +3551,22 @@
     <t xml:space="preserve">7.14011526107788</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98144674301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89054250717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83186769485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90541744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78145742416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85004806518555</t>
+    <t xml:space="preserve">6.98144626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89054155349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83186721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90541696548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78145694732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85004758834839</t>
   </si>
   <si>
     <t xml:space="preserve">6.83269357681274</t>
@@ -3575,43 +3575,43 @@
     <t xml:space="preserve">6.8376522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60460662841797</t>
+    <t xml:space="preserve">6.60460710525513</t>
   </si>
   <si>
     <t xml:space="preserve">6.68724679946899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77980422973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74096250534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7169976234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58312034606934</t>
+    <t xml:space="preserve">6.77980470657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74096298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71699810028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58312082290649</t>
   </si>
   <si>
     <t xml:space="preserve">6.67237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7665810585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74261617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74922704696655</t>
+    <t xml:space="preserve">6.76658153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74261665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74922657012939</t>
   </si>
   <si>
     <t xml:space="preserve">6.73269939422607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72939348220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65749645233154</t>
+    <t xml:space="preserve">6.72939300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65749597549438</t>
   </si>
   <si>
     <t xml:space="preserve">6.59551620483398</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">6.52196645736694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55419635772705</t>
+    <t xml:space="preserve">6.55419683456421</t>
   </si>
   <si>
     <t xml:space="preserve">6.61369752883911</t>
@@ -3635,10 +3635,10 @@
     <t xml:space="preserve">6.57898855209351</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62939882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69551134109497</t>
+    <t xml:space="preserve">6.62939929962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69551086425781</t>
   </si>
   <si>
     <t xml:space="preserve">6.67732954025269</t>
@@ -3659,49 +3659,49 @@
     <t xml:space="preserve">6.70046901702881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58725214004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63931608200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61865520477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58973217010498</t>
+    <t xml:space="preserve">6.58725261688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63931560516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61865568161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58973121643066</t>
   </si>
   <si>
     <t xml:space="preserve">6.6426215171814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47238159179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48643112182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48808336257935</t>
+    <t xml:space="preserve">6.47238206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48643064498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48808431625366</t>
   </si>
   <si>
     <t xml:space="preserve">6.53353691101074</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56246042251587</t>
+    <t xml:space="preserve">6.56245994567871</t>
   </si>
   <si>
     <t xml:space="preserve">6.51452875137329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54841041564941</t>
+    <t xml:space="preserve">6.54841136932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.6624550819397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65914916992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63105201721191</t>
+    <t xml:space="preserve">6.65914869308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63105154037476</t>
   </si>
   <si>
     <t xml:space="preserve">6.55502271652222</t>
@@ -3716,37 +3716,37 @@
     <t xml:space="preserve">6.4384970664978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60510540008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942638397217</t>
+    <t xml:space="preserve">6.60510444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83429622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73365545272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81230735778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77847909927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57973289489746</t>
+    <t xml:space="preserve">6.83429670333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73365449905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81230783462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77847862243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57973337173462</t>
   </si>
   <si>
     <t xml:space="preserve">6.5450587272644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50700092315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51461267471313</t>
+    <t xml:space="preserve">6.50700044631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51461219787598</t>
   </si>
   <si>
     <t xml:space="preserve">6.55605268478394</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">6.56197261810303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59495639801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58649921417236</t>
+    <t xml:space="preserve">6.5949559211731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58649873733521</t>
   </si>
   <si>
     <t xml:space="preserve">6.62455701828003</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">6.67191696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63639640808105</t>
+    <t xml:space="preserve">6.63639688491821</t>
   </si>
   <si>
     <t xml:space="preserve">6.57719564437866</t>
@@ -3779,10 +3779,10 @@
     <t xml:space="preserve">6.64316272735596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69982528686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76663827896118</t>
+    <t xml:space="preserve">6.69982624053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76663875579834</t>
   </si>
   <si>
     <t xml:space="preserve">6.62371063232422</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">6.4943151473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5526704788208</t>
+    <t xml:space="preserve">6.55267000198364</t>
   </si>
   <si>
     <t xml:space="preserve">6.52645254135132</t>
@@ -3812,25 +3812,25 @@
     <t xml:space="preserve">6.52476072311401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41904544830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35815334320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36830234527588</t>
+    <t xml:space="preserve">6.41904640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35815286636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36830186843872</t>
   </si>
   <si>
     <t xml:space="preserve">6.23721504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3420844078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2879581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94121170043945</t>
+    <t xml:space="preserve">6.34208488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28795862197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94121122360229</t>
   </si>
   <si>
     <t xml:space="preserve">5.92091417312622</t>
@@ -3839,10 +3839,10 @@
     <t xml:space="preserve">5.88539409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78475284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83465051651001</t>
+    <t xml:space="preserve">5.784752368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83465003967285</t>
   </si>
   <si>
     <t xml:space="preserve">5.86932468414307</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">5.87524509429932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7822151184082</t>
+    <t xml:space="preserve">5.78221559524536</t>
   </si>
   <si>
     <t xml:space="preserve">5.74500370025635</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">5.62491035461426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69087743759155</t>
+    <t xml:space="preserve">5.69087696075439</t>
   </si>
   <si>
     <t xml:space="preserve">5.69848871231079</t>
@@ -3875,67 +3875,67 @@
     <t xml:space="preserve">5.6900315284729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8380331993103</t>
+    <t xml:space="preserve">5.83803272247314</t>
   </si>
   <si>
     <t xml:space="preserve">5.85156488418579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70694589614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132349014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77629518508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8405704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98857164382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09767007827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06637859344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02747488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97165727615356</t>
+    <t xml:space="preserve">5.70694637298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77629470825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84057092666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9885721206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09767055511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06637811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02747535705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97165775299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.0426983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10274410247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14841413497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11965942382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16109943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11543035507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13657331466675</t>
+    <t xml:space="preserve">6.10274505615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14841365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11965894699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16109991073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11543083190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13657379150391</t>
   </si>
   <si>
     <t xml:space="preserve">6.13319063186646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16871166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08498430252075</t>
+    <t xml:space="preserve">6.16871070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08498477935791</t>
   </si>
   <si>
     <t xml:space="preserve">5.99956607818604</t>
@@ -3950,55 +3950,55 @@
     <t xml:space="preserve">6.04692697525024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9936466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97757720947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95558834075928</t>
+    <t xml:space="preserve">5.99364614486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97757768630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95558881759644</t>
   </si>
   <si>
     <t xml:space="preserve">5.87778186798096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8794732093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8414158821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95812606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04608058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76445484161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7416205406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67227077484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71286630630493</t>
+    <t xml:space="preserve">5.87947368621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84141635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95812559127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04608106613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76445531845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74162149429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67227125167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71286582946777</t>
   </si>
   <si>
     <t xml:space="preserve">5.57332181930542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51919507980347</t>
+    <t xml:space="preserve">5.51919555664062</t>
   </si>
   <si>
     <t xml:space="preserve">5.68580293655396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76022624969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66719675064087</t>
+    <t xml:space="preserve">5.76022672653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66719722747803</t>
   </si>
   <si>
     <t xml:space="preserve">5.66804265975952</t>
@@ -4007,34 +4007,34 @@
     <t xml:space="preserve">5.65789413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58516120910645</t>
+    <t xml:space="preserve">5.5851616859436</t>
   </si>
   <si>
     <t xml:space="preserve">5.60376739501953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66381359100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62237358093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70525407791138</t>
+    <t xml:space="preserve">5.66381406784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62237310409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70525360107422</t>
   </si>
   <si>
     <t xml:space="preserve">5.62660217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7805233001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81519842147827</t>
+    <t xml:space="preserve">5.78052377700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81519889831543</t>
   </si>
   <si>
     <t xml:space="preserve">5.84902763366699</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85917615890503</t>
+    <t xml:space="preserve">5.85917663574219</t>
   </si>
   <si>
     <t xml:space="preserve">5.95051383972168</t>
@@ -4046,19 +4046,19 @@
     <t xml:space="preserve">5.95897150039673</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06553268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02155542373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87693643569946</t>
+    <t xml:space="preserve">6.06553316116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02155447006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8769359588623</t>
   </si>
   <si>
     <t xml:space="preserve">5.84310722351074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86086750030518</t>
+    <t xml:space="preserve">5.86086702346802</t>
   </si>
   <si>
     <t xml:space="preserve">5.86171388626099</t>
@@ -4067,19 +4067,19 @@
     <t xml:space="preserve">5.85410165786743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88708448410034</t>
+    <t xml:space="preserve">5.8870849609375</t>
   </si>
   <si>
     <t xml:space="preserve">5.75684356689453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80420398712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92260551452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83972454071045</t>
+    <t xml:space="preserve">5.80420446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92260503768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83972501754761</t>
   </si>
   <si>
     <t xml:space="preserve">5.79624176025391</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">5.89712190628052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060657501221</t>
+    <t xml:space="preserve">5.96060705184937</t>
   </si>
   <si>
     <t xml:space="preserve">5.95625829696655</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">5.77363061904907</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59274339675903</t>
+    <t xml:space="preserve">5.59274291992188</t>
   </si>
   <si>
     <t xml:space="preserve">5.50577735900879</t>
@@ -4118,40 +4118,40 @@
     <t xml:space="preserve">5.63274765014648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59361267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56056547164917</t>
+    <t xml:space="preserve">5.5936131477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56056594848633</t>
   </si>
   <si>
     <t xml:space="preserve">5.49621152877808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59100341796875</t>
+    <t xml:space="preserve">5.59100389480591</t>
   </si>
   <si>
     <t xml:space="preserve">5.66144609451294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63709592819214</t>
+    <t xml:space="preserve">5.63709497451782</t>
   </si>
   <si>
     <t xml:space="preserve">5.59622144699097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47533941268921</t>
+    <t xml:space="preserve">5.47533988952637</t>
   </si>
   <si>
     <t xml:space="preserve">5.51708316802979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49099397659302</t>
+    <t xml:space="preserve">5.49099349975586</t>
   </si>
   <si>
     <t xml:space="preserve">5.38489580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69536161422729</t>
+    <t xml:space="preserve">5.69536209106445</t>
   </si>
   <si>
     <t xml:space="preserve">5.73884439468384</t>
@@ -4160,28 +4160,28 @@
     <t xml:space="preserve">5.3692421913147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36576318740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17878818511963</t>
+    <t xml:space="preserve">5.36576366424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17878770828247</t>
   </si>
   <si>
     <t xml:space="preserve">4.93093633651733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83614444732666</t>
+    <t xml:space="preserve">4.8361439704895</t>
   </si>
   <si>
     <t xml:space="preserve">4.976158618927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25183868408203</t>
+    <t xml:space="preserve">5.25183916091919</t>
   </si>
   <si>
     <t xml:space="preserve">4.99094247817993</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98137712478638</t>
+    <t xml:space="preserve">4.98137664794922</t>
   </si>
   <si>
     <t xml:space="preserve">5.0605149269104</t>
@@ -4193,34 +4193,34 @@
     <t xml:space="preserve">5.06486320495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97441864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00920581817627</t>
+    <t xml:space="preserve">4.97441911697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00920534133911</t>
   </si>
   <si>
     <t xml:space="preserve">5.06399345397949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96485328674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01790237426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11182403564453</t>
+    <t xml:space="preserve">4.96485280990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01790189743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11182451248169</t>
   </si>
   <si>
     <t xml:space="preserve">5.2848858833313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30227899551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27705907821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30836629867554</t>
+    <t xml:space="preserve">5.30227851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27705860137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3083667755127</t>
   </si>
   <si>
     <t xml:space="preserve">5.3135838508606</t>
@@ -4232,10 +4232,10 @@
     <t xml:space="preserve">5.39881038665771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36402416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48751497268677</t>
+    <t xml:space="preserve">5.36402368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48751449584961</t>
   </si>
   <si>
     <t xml:space="preserve">5.46751308441162</t>
@@ -4247,16 +4247,16 @@
     <t xml:space="preserve">5.39011383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39359283447266</t>
+    <t xml:space="preserve">5.3935923576355</t>
   </si>
   <si>
     <t xml:space="preserve">5.37532997131348</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36141538619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2292275428772</t>
+    <t xml:space="preserve">5.36141490936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22922801971436</t>
   </si>
   <si>
     <t xml:space="preserve">5.30749654769897</t>
@@ -4271,13 +4271,13 @@
     <t xml:space="preserve">5.40924596786499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40750694274902</t>
+    <t xml:space="preserve">5.40750646591187</t>
   </si>
   <si>
     <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43446636199951</t>
+    <t xml:space="preserve">5.4344654083252</t>
   </si>
   <si>
     <t xml:space="preserve">5.38663482666016</t>
@@ -4292,46 +4292,46 @@
     <t xml:space="preserve">5.10747623443604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08051681518555</t>
+    <t xml:space="preserve">5.08051729202271</t>
   </si>
   <si>
     <t xml:space="preserve">5.20052909851074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0770378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16313409805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20661687850952</t>
+    <t xml:space="preserve">5.07703876495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16313362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20661640167236</t>
   </si>
   <si>
     <t xml:space="preserve">5.22661924362183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1640043258667</t>
+    <t xml:space="preserve">5.16400337219238</t>
   </si>
   <si>
     <t xml:space="preserve">5.16226434707642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32489013671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3335862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33271646499634</t>
+    <t xml:space="preserve">5.32488965988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33358669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33271598815918</t>
   </si>
   <si>
     <t xml:space="preserve">5.37793827056885</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37967729568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35880661010742</t>
+    <t xml:space="preserve">5.37967777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35880613327026</t>
   </si>
   <si>
     <t xml:space="preserve">5.25618696212769</t>
@@ -4343,37 +4343,37 @@
     <t xml:space="preserve">5.17791843414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13530492782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24314212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20748615264893</t>
+    <t xml:space="preserve">5.13530540466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24314165115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20748662948608</t>
   </si>
   <si>
     <t xml:space="preserve">5.0839958190918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98224639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76657199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68569374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63786315917969</t>
+    <t xml:space="preserve">4.98224592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76657247543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68569421768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63786363601685</t>
   </si>
   <si>
     <t xml:space="preserve">4.83179616928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69612979888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73265504837036</t>
+    <t xml:space="preserve">4.69613027572632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73265552520752</t>
   </si>
   <si>
     <t xml:space="preserve">4.77352905273438</t>
@@ -4382,13 +4382,13 @@
     <t xml:space="preserve">4.75265789031982</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65351724624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7152624130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79440021514893</t>
+    <t xml:space="preserve">4.65351676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71526193618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79440069198608</t>
   </si>
   <si>
     <t xml:space="preserve">4.70395708084106</t>
@@ -4397,16 +4397,16 @@
     <t xml:space="preserve">4.76222372055054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53959178924561</t>
+    <t xml:space="preserve">4.69786930084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53959226608276</t>
   </si>
   <si>
     <t xml:space="preserve">4.62047052383423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59264135360718</t>
+    <t xml:space="preserve">4.59264183044434</t>
   </si>
   <si>
     <t xml:space="preserve">4.41523218154907</t>
@@ -4415,10 +4415,10 @@
     <t xml:space="preserve">4.50132751464844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57698774337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5674204826355</t>
+    <t xml:space="preserve">4.57698726654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56742143630981</t>
   </si>
   <si>
     <t xml:space="preserve">4.55872488021851</t>
@@ -4427,28 +4427,28 @@
     <t xml:space="preserve">4.5030665397644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45871448516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20477628707886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34826850891113</t>
+    <t xml:space="preserve">4.4587140083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2047758102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34826803207397</t>
   </si>
   <si>
     <t xml:space="preserve">4.43776512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49607276916504</t>
+    <t xml:space="preserve">4.4960732460022</t>
   </si>
   <si>
     <t xml:space="preserve">4.35550022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29222059249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27052450180054</t>
+    <t xml:space="preserve">4.29222011566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27052354812622</t>
   </si>
   <si>
     <t xml:space="preserve">4.29402828216553</t>
@@ -4460,10 +4460,10 @@
     <t xml:space="preserve">4.27685213088989</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33335208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47754144668579</t>
+    <t xml:space="preserve">4.33335256576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47754192352295</t>
   </si>
   <si>
     <t xml:space="preserve">4.39708471298218</t>
@@ -4475,25 +4475,25 @@
     <t xml:space="preserve">4.44138097763062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47573375701904</t>
+    <t xml:space="preserve">4.47573328018188</t>
   </si>
   <si>
     <t xml:space="preserve">4.54895782470703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52726125717163</t>
+    <t xml:space="preserve">4.52726173400879</t>
   </si>
   <si>
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002954483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166959762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61223840713501</t>
+    <t xml:space="preserve">4.52002906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55166912078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61223793029785</t>
   </si>
   <si>
     <t xml:space="preserve">4.6077184677124</t>
@@ -4502,7 +4502,7 @@
     <t xml:space="preserve">4.60319805145264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52274131774902</t>
+    <t xml:space="preserve">4.52274179458618</t>
   </si>
   <si>
     <t xml:space="preserve">4.46126937866211</t>
@@ -4514,10 +4514,10 @@
     <t xml:space="preserve">4.47030925750732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47121381759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36860847473145</t>
+    <t xml:space="preserve">4.47121334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3686089515686</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
@@ -4526,10 +4526,10 @@
     <t xml:space="preserve">4.35143232345581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24475955963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19684743881226</t>
+    <t xml:space="preserve">4.24476003646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19684791564941</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">4.22848749160767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29312419891357</t>
+    <t xml:space="preserve">4.29312467575073</t>
   </si>
   <si>
     <t xml:space="preserve">4.34465265274048</t>
@@ -4550,16 +4550,16 @@
     <t xml:space="preserve">4.38894891738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51234579086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47392511367798</t>
+    <t xml:space="preserve">4.51234531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47392559051514</t>
   </si>
   <si>
     <t xml:space="preserve">4.44770908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42691659927368</t>
+    <t xml:space="preserve">4.42691707611084</t>
   </si>
   <si>
     <t xml:space="preserve">4.44725704193115</t>
@@ -4568,37 +4568,37 @@
     <t xml:space="preserve">4.45720148086548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37584066390991</t>
+    <t xml:space="preserve">4.37584018707275</t>
   </si>
   <si>
     <t xml:space="preserve">4.38397693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37041664123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19820308685303</t>
+    <t xml:space="preserve">4.37041616439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19820356369019</t>
   </si>
   <si>
     <t xml:space="preserve">4.11096715927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88903331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90440154075623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84021735191345</t>
+    <t xml:space="preserve">3.8890335559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90440130233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84021759033203</t>
   </si>
   <si>
     <t xml:space="preserve">3.81852102279663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93875336647034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03503036499023</t>
+    <t xml:space="preserve">3.93875360488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03503084182739</t>
   </si>
   <si>
     <t xml:space="preserve">3.90666127204895</t>
@@ -4610,7 +4610,7 @@
     <t xml:space="preserve">3.72586035728455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78688097000122</t>
+    <t xml:space="preserve">3.78688073158264</t>
   </si>
   <si>
     <t xml:space="preserve">3.68472838401794</t>
@@ -4622,7 +4622,7 @@
     <t xml:space="preserve">3.68111205101013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7181761264801</t>
+    <t xml:space="preserve">3.71817636489868</t>
   </si>
   <si>
     <t xml:space="preserve">3.81038498878479</t>
@@ -4631,28 +4631,28 @@
     <t xml:space="preserve">3.84925699234009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87230968475342</t>
+    <t xml:space="preserve">3.87230944633484</t>
   </si>
   <si>
     <t xml:space="preserve">3.83388924598694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79185247421265</t>
+    <t xml:space="preserve">3.79185271263123</t>
   </si>
   <si>
     <t xml:space="preserve">3.88134932518005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95864200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406626701355</t>
+    <t xml:space="preserve">3.95864224433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406579017639</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04271507263184</t>
+    <t xml:space="preserve">4.04271459579468</t>
   </si>
   <si>
     <t xml:space="preserve">4.08520269393921</t>
@@ -4661,10 +4661,10 @@
     <t xml:space="preserve">4.10373497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15164756774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13492250442505</t>
+    <t xml:space="preserve">4.15164709091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13492298126221</t>
   </si>
   <si>
     <t xml:space="preserve">4.23029565811157</t>
@@ -4679,28 +4679,28 @@
     <t xml:space="preserve">4.35640430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5290699005127</t>
+    <t xml:space="preserve">4.52906942367554</t>
   </si>
   <si>
     <t xml:space="preserve">4.56342172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59144592285156</t>
+    <t xml:space="preserve">4.59144639968872</t>
   </si>
   <si>
     <t xml:space="preserve">4.61947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64568614959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66195869445801</t>
+    <t xml:space="preserve">4.64568662643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66195917129517</t>
   </si>
   <si>
     <t xml:space="preserve">4.59686994552612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57698249816895</t>
+    <t xml:space="preserve">4.57698202133179</t>
   </si>
   <si>
     <t xml:space="preserve">4.6583423614502</t>
@@ -4718,7 +4718,7 @@
     <t xml:space="preserve">4.64116621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74603080749512</t>
+    <t xml:space="preserve">4.74603128433228</t>
   </si>
   <si>
     <t xml:space="preserve">4.761399269104</t>
@@ -4727,16 +4727,16 @@
     <t xml:space="preserve">4.77134323120117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70625448226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72252750396729</t>
+    <t xml:space="preserve">4.70625495910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72252702713013</t>
   </si>
   <si>
     <t xml:space="preserve">4.67732667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72071933746338</t>
+    <t xml:space="preserve">4.72071886062622</t>
   </si>
   <si>
     <t xml:space="preserve">4.69902276992798</t>
@@ -4748,34 +4748,34 @@
     <t xml:space="preserve">4.74783897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56974935531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56522989273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5616135597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56251811981201</t>
+    <t xml:space="preserve">4.56975030899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56523036956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56161403656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56251764297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5869255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6113338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59054231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56432580947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54715013504028</t>
+    <t xml:space="preserve">4.58692598342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61133432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59054183959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5643253326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54714965820312</t>
   </si>
   <si>
     <t xml:space="preserve">4.67461442947388</t>
@@ -4784,16 +4784,16 @@
     <t xml:space="preserve">4.79123163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.960280418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95214414596558</t>
+    <t xml:space="preserve">4.96028089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95214462280273</t>
   </si>
   <si>
     <t xml:space="preserve">5.06333684921265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06152868270874</t>
+    <t xml:space="preserve">5.0615291595459</t>
   </si>
   <si>
     <t xml:space="preserve">5.00457668304443</t>
@@ -4820,13 +4820,13 @@
     <t xml:space="preserve">5.11396169662476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10763359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12262868881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074396133423</t>
+    <t xml:space="preserve">5.10763311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1226282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074348449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.13387441635132</t>
@@ -4841,7 +4841,7 @@
     <t xml:space="preserve">5.09170150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05234003067017</t>
+    <t xml:space="preserve">5.05233955383301</t>
   </si>
   <si>
     <t xml:space="preserve">4.94175243377686</t>
@@ -4850,16 +4850,16 @@
     <t xml:space="preserve">5.04390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0251612663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04109382629395</t>
+    <t xml:space="preserve">5.02516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0410943031311</t>
   </si>
   <si>
     <t xml:space="preserve">5.0223503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01016664505005</t>
+    <t xml:space="preserve">5.01016712188721</t>
   </si>
   <si>
     <t xml:space="preserve">5.00454378128052</t>
@@ -4871,7 +4871,7 @@
     <t xml:space="preserve">5.06358575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04203128814697</t>
+    <t xml:space="preserve">5.04203081130981</t>
   </si>
   <si>
     <t xml:space="preserve">5.04859113693237</t>
@@ -4883,10 +4883,10 @@
     <t xml:space="preserve">5.01672697067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01391553878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111438751221</t>
+    <t xml:space="preserve">5.01391506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.90988826751709</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">4.92956972122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90520286560059</t>
+    <t xml:space="preserve">4.90520238876343</t>
   </si>
   <si>
     <t xml:space="preserve">4.97267961502075</t>
@@ -4913,7 +4913,7 @@
     <t xml:space="preserve">4.96799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99892091751099</t>
+    <t xml:space="preserve">4.99892044067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.96237087249756</t>
@@ -4922,10 +4922,10 @@
     <t xml:space="preserve">4.98580026626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98486280441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9914231300354</t>
+    <t xml:space="preserve">4.98486232757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99142360687256</t>
   </si>
   <si>
     <t xml:space="preserve">4.89864253997803</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">4.91644859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96330738067627</t>
+    <t xml:space="preserve">4.96330785751343</t>
   </si>
   <si>
     <t xml:space="preserve">4.95487308502197</t>
@@ -4949,19 +4949,19 @@
     <t xml:space="preserve">5.13574886322021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15824127197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327701568604</t>
+    <t xml:space="preserve">5.15824174880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327749252319</t>
   </si>
   <si>
     <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198968887329</t>
+    <t xml:space="preserve">5.16199016571045</t>
   </si>
   <si>
     <t xml:space="preserve">5.25758218765259</t>
@@ -4979,22 +4979,22 @@
     <t xml:space="preserve">5.30631589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48156833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53311347961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6155858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.395348072052</t>
+    <t xml:space="preserve">5.48156881332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5331130027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61558532714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39534759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.34942626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36067199707031</t>
+    <t xml:space="preserve">5.36067247390747</t>
   </si>
   <si>
     <t xml:space="preserve">5.39722204208374</t>
@@ -5009,13 +5009,13 @@
     <t xml:space="preserve">5.55841779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64932346343994</t>
+    <t xml:space="preserve">5.6493239402771</t>
   </si>
   <si>
     <t xml:space="preserve">5.67556524276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70742893218994</t>
+    <t xml:space="preserve">5.7074294090271</t>
   </si>
   <si>
     <t xml:space="preserve">5.77771759033203</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">5.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71492671966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71586322784424</t>
+    <t xml:space="preserve">5.71492624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7158637046814</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461750030518</t>
@@ -5045,25 +5045,25 @@
     <t xml:space="preserve">5.71024084091187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66431856155396</t>
+    <t xml:space="preserve">5.66431903839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.67743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995170593262</t>
+    <t xml:space="preserve">5.63995218276978</t>
   </si>
   <si>
     <t xml:space="preserve">5.64182615280151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60246467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53030204772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63151693344116</t>
+    <t xml:space="preserve">5.60246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53030157089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63151741027832</t>
   </si>
   <si>
     <t xml:space="preserve">5.65963268280029</t>
@@ -5081,7 +5081,7 @@
     <t xml:space="preserve">5.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5827841758728</t>
+    <t xml:space="preserve">5.58278369903564</t>
   </si>
   <si>
     <t xml:space="preserve">5.63432931900024</t>
@@ -5090,25 +5090,25 @@
     <t xml:space="preserve">5.49000310897827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58372116088867</t>
+    <t xml:space="preserve">5.58372163772583</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619300842285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62027168273926</t>
+    <t xml:space="preserve">5.6202712059021</t>
   </si>
   <si>
     <t xml:space="preserve">5.66994190216064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69243383407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69149732589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72710990905762</t>
+    <t xml:space="preserve">5.69243431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69149684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72710943222046</t>
   </si>
   <si>
     <t xml:space="preserve">5.68868541717529</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">5.75147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76178550720215</t>
+    <t xml:space="preserve">5.76178503036499</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052949905396</t>
@@ -5138,7 +5138,7 @@
     <t xml:space="preserve">5.84800577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94078731536865</t>
+    <t xml:space="preserve">5.94078683853149</t>
   </si>
   <si>
     <t xml:space="preserve">5.81989049911499</t>
@@ -5159,7 +5159,7 @@
     <t xml:space="preserve">5.83863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9323525428772</t>
+    <t xml:space="preserve">5.93235206604004</t>
   </si>
   <si>
     <t xml:space="preserve">5.84613180160522</t>
@@ -5168,13 +5168,13 @@
     <t xml:space="preserve">5.88268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88080787658691</t>
+    <t xml:space="preserve">5.88080739974976</t>
   </si>
   <si>
     <t xml:space="preserve">5.89861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93797492980957</t>
+    <t xml:space="preserve">5.93797540664673</t>
   </si>
   <si>
     <t xml:space="preserve">5.99507141113281</t>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1928">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4614372253418</t>
+    <t xml:space="preserve">2.46143746376038</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">2.50832200050354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44580912590027</t>
+    <t xml:space="preserve">2.44580960273743</t>
   </si>
   <si>
     <t xml:space="preserve">2.45622801780701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43669247627258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43929767608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236685752869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883226394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43408823013306</t>
+    <t xml:space="preserve">2.43669295310974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.439297914505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236709594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883274078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43408870697021</t>
   </si>
   <si>
     <t xml:space="preserve">2.38980841636658</t>
@@ -74,40 +74,40 @@
     <t xml:space="preserve">2.34683084487915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37418031692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30255103111267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37678480148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42757678031921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41455340385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44841384887695</t>
+    <t xml:space="preserve">2.37417960166931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30255126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37678503990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42757630348206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41455292701721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44841408729553</t>
   </si>
   <si>
     <t xml:space="preserve">2.47836828231812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39111065864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45362305641174</t>
+    <t xml:space="preserve">2.39111089706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45362329483032</t>
   </si>
   <si>
     <t xml:space="preserve">2.4471116065979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4106457233429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36245918273926</t>
+    <t xml:space="preserve">2.41064596176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3624587059021</t>
   </si>
   <si>
     <t xml:space="preserve">2.30906271934509</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">2.27780628204346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27520179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29603934288025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21268892288208</t>
+    <t xml:space="preserve">2.27520227432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29603910446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21268916130066</t>
   </si>
   <si>
     <t xml:space="preserve">2.3038535118103</t>
@@ -131,55 +131,55 @@
     <t xml:space="preserve">2.38199424743652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36636638641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37287783622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35724949836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36897087097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30515551567078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3989245891571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41194796562195</t>
+    <t xml:space="preserve">2.36636662483215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37287759780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35724902153015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3689706325531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30515575408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39892506599426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41194844245911</t>
   </si>
   <si>
     <t xml:space="preserve">2.43539047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41845965385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38459897041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39371562004089</t>
+    <t xml:space="preserve">2.41846013069153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38459849357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39371538162231</t>
   </si>
   <si>
     <t xml:space="preserve">2.46664690971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47967052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54739212989807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5395781993866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53306651115417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53697371482849</t>
+    <t xml:space="preserve">2.47967028617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54739236831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53957843780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53306698799133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53697323799133</t>
   </si>
   <si>
     <t xml:space="preserve">2.55911374092102</t>
@@ -188,22 +188,22 @@
     <t xml:space="preserve">2.54999709129333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5526020526886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348540306091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53176426887512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5460901260376</t>
+    <t xml:space="preserve">2.55260229110718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348516464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53176403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54609036445618</t>
   </si>
   <si>
     <t xml:space="preserve">2.58646273612976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60469579696655</t>
+    <t xml:space="preserve">2.60469555854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.53827595710754</t>
@@ -212,58 +212,58 @@
     <t xml:space="preserve">2.5252525806427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50181031227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887926101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38329648971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44971609115601</t>
+    <t xml:space="preserve">2.50180983543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887902259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38329672813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44971632957458</t>
   </si>
   <si>
     <t xml:space="preserve">2.46013522148132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44190263748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48878693580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49920558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55650877952576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52655458450317</t>
+    <t xml:space="preserve">2.44190216064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4887866973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49920535087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55650901794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52655506134033</t>
   </si>
   <si>
     <t xml:space="preserve">2.59427666664124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63985896110535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57734656333923</t>
+    <t xml:space="preserve">2.63985919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57734680175781</t>
   </si>
   <si>
     <t xml:space="preserve">2.5760440826416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5630202293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54088091850281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516049385071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860252380371</t>
+    <t xml:space="preserve">2.56302070617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54088068008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860276222229</t>
   </si>
   <si>
     <t xml:space="preserve">2.61511421203613</t>
@@ -272,124 +272,124 @@
     <t xml:space="preserve">2.57213687896729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58906722068787</t>
+    <t xml:space="preserve">2.58906745910645</t>
   </si>
   <si>
     <t xml:space="preserve">2.56562542915344</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59818410873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57474184036255</t>
+    <t xml:space="preserve">2.59818387031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57474136352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.64506864547729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65288281440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67372012138367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6685106754303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68153429031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62944030761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63855648040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641669273376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67892980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68674373626709</t>
+    <t xml:space="preserve">2.65288233757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67372035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66851091384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68153405189514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62943983078003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63855695724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641716957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67892956733704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68674349784851</t>
   </si>
   <si>
     <t xml:space="preserve">2.68413901329041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59297490119934</t>
+    <t xml:space="preserve">2.59297442436218</t>
   </si>
   <si>
     <t xml:space="preserve">2.55129957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50701975822449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6177191734314</t>
+    <t xml:space="preserve">2.50701928138733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61771893501282</t>
   </si>
   <si>
     <t xml:space="preserve">2.68282341957092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68960499763489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64891481399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401906013489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4413959980011</t>
+    <t xml:space="preserve">2.68960452079773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64891457557678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401858329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44139623641968</t>
   </si>
   <si>
     <t xml:space="preserve">2.43190169334412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53769588470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64484596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69909930229187</t>
+    <t xml:space="preserve">2.53769540786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64484620094299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69909906387329</t>
   </si>
   <si>
     <t xml:space="preserve">2.69638633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70045518875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63263916969299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6150062084198</t>
+    <t xml:space="preserve">2.7004554271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63263869285583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61500668525696</t>
   </si>
   <si>
     <t xml:space="preserve">2.66519093513489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68417930603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70588040351868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70723724365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70994973182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69231772422791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72893857955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73165106773376</t>
+    <t xml:space="preserve">2.68417954444885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70588064193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70723676681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7099494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69231748580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72893881797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73165059089661</t>
   </si>
   <si>
     <t xml:space="preserve">2.72486925125122</t>
@@ -401,94 +401,94 @@
     <t xml:space="preserve">2.79268622398376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77912211418152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74250173568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73029470443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74114537239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7764093875885</t>
+    <t xml:space="preserve">2.77912259101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74250221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73029494285583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74114465713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77640986442566</t>
   </si>
   <si>
     <t xml:space="preserve">2.76284670829773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75470876693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74928307533264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78726124763489</t>
+    <t xml:space="preserve">2.75470805168152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7492835521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78726077079773</t>
   </si>
   <si>
     <t xml:space="preserve">2.7831916809082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71808743476868</t>
+    <t xml:space="preserve">2.71808767318726</t>
   </si>
   <si>
     <t xml:space="preserve">2.66790342330933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67061614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63806438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64348959922791</t>
+    <t xml:space="preserve">2.67061638832092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63806414604187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64348936080933</t>
   </si>
   <si>
     <t xml:space="preserve">2.67197227478027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67332863807678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68011045455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69774317741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65569639205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67604160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73707604408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978900909424</t>
+    <t xml:space="preserve">2.67332887649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68011021614075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69774270057678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65569663047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6760413646698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7370765209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978877067566</t>
   </si>
   <si>
     <t xml:space="preserve">2.72622585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80082368850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78454828262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7465705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69096040725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65298366546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65705299377441</t>
+    <t xml:space="preserve">2.80082440376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78454780578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74657082557678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69096088409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65298342704773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65705323219299</t>
   </si>
   <si>
     <t xml:space="preserve">2.63128256797791</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">2.66247820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65162777900696</t>
+    <t xml:space="preserve">2.65162754058838</t>
   </si>
   <si>
     <t xml:space="preserve">2.69367337226868</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">2.65976572036743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6638343334198</t>
+    <t xml:space="preserve">2.66383457183838</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503021240234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65434002876282</t>
+    <t xml:space="preserve">2.65434050559998</t>
   </si>
   <si>
     <t xml:space="preserve">2.61093759536743</t>
@@ -524,109 +524,109 @@
     <t xml:space="preserve">2.55804061889648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59737396240234</t>
+    <t xml:space="preserve">2.59737420082092</t>
   </si>
   <si>
     <t xml:space="preserve">2.57296013832092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55261540412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59059309959412</t>
+    <t xml:space="preserve">2.55261516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144305229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59059286117554</t>
   </si>
   <si>
     <t xml:space="preserve">2.68146657943726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65027117729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67468500137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65840911865234</t>
+    <t xml:space="preserve">2.65027141571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67468476295471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65840935707092</t>
   </si>
   <si>
     <t xml:space="preserve">2.60822463035583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60008692741394</t>
+    <t xml:space="preserve">2.60008716583252</t>
   </si>
   <si>
     <t xml:space="preserve">2.58923625946045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60415601730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62314486503601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56075310707092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47259211540222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852278709412</t>
+    <t xml:space="preserve">2.60415577888489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62314438819885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56075382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47259140014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4685230255127</t>
   </si>
   <si>
     <t xml:space="preserve">2.44682145118713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4753041267395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47666025161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5119252204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45224690437317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47394800186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55125904083252</t>
+    <t xml:space="preserve">2.47530460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47666049003601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51192498207092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45224666595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47394776344299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55125880241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.53905200958252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52820110321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53362631797791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57024741172791</t>
+    <t xml:space="preserve">2.52820134162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53362679481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57024765014648</t>
   </si>
   <si>
     <t xml:space="preserve">2.58652353286743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56753516197205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77234053611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76555895805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72758197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75063967704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404234886169</t>
+    <t xml:space="preserve">2.56753540039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77234077453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76555943489075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72758150100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75063991546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404211044312</t>
   </si>
   <si>
     <t xml:space="preserve">2.82252550125122</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">2.80489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81981229782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84015822410583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86321544647217</t>
+    <t xml:space="preserve">2.8198127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84015774726868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86321496963501</t>
   </si>
   <si>
     <t xml:space="preserve">2.82659459114075</t>
@@ -650,142 +650,142 @@
     <t xml:space="preserve">2.83066320419312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83473181724548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8157434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79539847373962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80218029022217</t>
+    <t xml:space="preserve">2.8347315788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81574368476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79539895057678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80218052864075</t>
   </si>
   <si>
     <t xml:space="preserve">2.82388210296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81031823158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8130304813385</t>
+    <t xml:space="preserve">2.81031847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81303071975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.80760526657104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83117580413818</t>
+    <t xml:space="preserve">2.8311755657196</t>
   </si>
   <si>
     <t xml:space="preserve">2.82562971115112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78126263618469</t>
+    <t xml:space="preserve">2.78126239776611</t>
   </si>
   <si>
     <t xml:space="preserve">2.76046562194824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72719025611877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66895842552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67866349220276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68005037307739</t>
+    <t xml:space="preserve">2.72719049453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66895818710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67866373062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68004965782166</t>
   </si>
   <si>
     <t xml:space="preserve">2.69391512870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71471190452576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66202569007874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68559575080872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79928708076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80621910095215</t>
+    <t xml:space="preserve">2.71471214294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66202616691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68559598922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79928684234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80621886253357</t>
   </si>
   <si>
     <t xml:space="preserve">2.79512739181519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78680849075317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74382781982422</t>
+    <t xml:space="preserve">2.78680872917175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7438280582428</t>
   </si>
   <si>
     <t xml:space="preserve">2.7854220867157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80067372322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77432990074158</t>
+    <t xml:space="preserve">2.80067300796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77433061599731</t>
   </si>
   <si>
     <t xml:space="preserve">2.77987623214722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75491976737976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77294397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81453800201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8089919090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83672165870667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86029171943665</t>
+    <t xml:space="preserve">2.7549192905426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7729434967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.814537525177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80899214744568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83672189712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86029195785522</t>
   </si>
   <si>
     <t xml:space="preserve">2.86445093154907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86999678611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89079403877258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9032723903656</t>
+    <t xml:space="preserve">2.86999654769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.890793800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90327215194702</t>
   </si>
   <si>
     <t xml:space="preserve">2.89772605895996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89911270141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88247489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94625282287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91852355003357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90465903282166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92545557022095</t>
+    <t xml:space="preserve">2.89911246299744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88247513771057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94625234603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91852307319641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9046585559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92545509338379</t>
   </si>
   <si>
     <t xml:space="preserve">2.9823009967804</t>
@@ -794,55 +794,55 @@
     <t xml:space="preserve">2.97259569168091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98784708976746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00864386558533</t>
+    <t xml:space="preserve">2.98784756660461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00864434242249</t>
   </si>
   <si>
     <t xml:space="preserve">3.01696276664734</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02805471420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994391441345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05855679512024</t>
+    <t xml:space="preserve">3.0280544757843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994367599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0585572719574</t>
   </si>
   <si>
     <t xml:space="preserve">3.05301094055176</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03914570808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05023837089539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01834964752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03637337684631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498721122742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032496452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9407069683075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091435432434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0862865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07103490829468</t>
+    <t xml:space="preserve">3.039146900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05023813247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01834917068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03637361526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498673439026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032567977905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94070720672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9809148311615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08628630638123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07103538513184</t>
   </si>
   <si>
     <t xml:space="preserve">3.05578422546387</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">3.04885125160217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02528166770935</t>
+    <t xml:space="preserve">3.02528142929077</t>
   </si>
   <si>
     <t xml:space="preserve">3.06687545776367</t>
@@ -863,58 +863,58 @@
     <t xml:space="preserve">3.14313173294067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17363452911377</t>
+    <t xml:space="preserve">3.17363476753235</t>
   </si>
   <si>
     <t xml:space="preserve">3.16670179367065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15422415733337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16808843612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16254186630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16531538963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16947484016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24573063850403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829606056213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522855758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711728096008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27900624275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593873977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30673503875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25820851325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27761936187744</t>
+    <t xml:space="preserve">3.15422391891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16808819770813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16254234313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1653151512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16947460174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24573135375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522808074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24711751937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900576591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593802452087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3067352771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307790756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25820875167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27762031555176</t>
   </si>
   <si>
     <t xml:space="preserve">3.29841685295105</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">3.31505393981934</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26791477203369</t>
+    <t xml:space="preserve">3.26791405677795</t>
   </si>
   <si>
     <t xml:space="preserve">3.3136682510376</t>
@@ -932,208 +932,208 @@
     <t xml:space="preserve">3.32475972175598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42597150802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39546966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35803484916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3621940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496758460999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37190008163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41904044151306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39131045341492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45231461524963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41488003730774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43151807785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32753300666809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35526204109192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28732514381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404930114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29980301856995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2887110710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25127696990967</t>
+    <t xml:space="preserve">3.42597222328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39546990394592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35803508758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36219429969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496734619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37189912796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072058677673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41903972625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39131021499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45231533050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4148805141449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4315173625946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32753205299377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3552622795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28732490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404953956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29980325698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28871130943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25127673149109</t>
   </si>
   <si>
     <t xml:space="preserve">3.27207350730896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32614636421204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3206000328064</t>
+    <t xml:space="preserve">3.32614588737488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32060098648071</t>
   </si>
   <si>
     <t xml:space="preserve">3.37744545936584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44676947593689</t>
+    <t xml:space="preserve">3.44676923751831</t>
   </si>
   <si>
     <t xml:space="preserve">3.44538259506226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41210722923279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4384503364563</t>
+    <t xml:space="preserve">3.41210699081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43845009803772</t>
   </si>
   <si>
     <t xml:space="preserve">3.44260954856873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40378832817078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43203568458557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38825297355652</t>
+    <t xml:space="preserve">3.40378761291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43203592300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38825225830078</t>
   </si>
   <si>
     <t xml:space="preserve">3.43062329292297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45322060585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955139160156</t>
+    <t xml:space="preserve">3.4532208442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955163002014</t>
   </si>
   <si>
     <t xml:space="preserve">3.40661311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4518084526062</t>
+    <t xml:space="preserve">3.45180892944336</t>
   </si>
   <si>
     <t xml:space="preserve">3.44615912437439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48853063583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960134506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51818990707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.512540102005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47723126411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.552086353302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57680249214172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58033394813538</t>
+    <t xml:space="preserve">3.48853015899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5181896686554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5379626750946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51254034042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4772310256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55208587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5768027305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58033442497253</t>
   </si>
   <si>
     <t xml:space="preserve">3.55914783477783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51677703857422</t>
+    <t xml:space="preserve">3.51677751541138</t>
   </si>
   <si>
     <t xml:space="preserve">3.58739519119263</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59798789024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62976574897766</t>
+    <t xml:space="preserve">3.59798765182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59092545509338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62976551055908</t>
   </si>
   <si>
     <t xml:space="preserve">3.60858082771301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61211180686951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63329672813416</t>
+    <t xml:space="preserve">3.61211133003235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.633296251297</t>
   </si>
   <si>
     <t xml:space="preserve">3.66507482528687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65448188781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860604286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64389038085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60504961013794</t>
+    <t xml:space="preserve">3.6544828414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66860628128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388966560364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60504984855652</t>
   </si>
   <si>
     <t xml:space="preserve">3.63682746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">3.615642786026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61917328834534</t>
+    <t xml:space="preserve">3.61564207077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61917352676392</t>
   </si>
   <si>
     <t xml:space="preserve">3.60151886940002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5662100315094</t>
+    <t xml:space="preserve">3.56620955467224</t>
   </si>
   <si>
     <t xml:space="preserve">3.50689077377319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56267833709717</t>
+    <t xml:space="preserve">3.56267952919006</t>
   </si>
   <si>
     <t xml:space="preserve">3.58386445045471</t>
@@ -1142,88 +1142,88 @@
     <t xml:space="preserve">3.64742040634155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65095138549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154432296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6403591632843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68626046180725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73569369316101</t>
+    <t xml:space="preserve">3.65095186233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154408454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64035868644714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801310539246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626093864441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73569321632385</t>
   </si>
   <si>
     <t xml:space="preserve">3.73216271400452</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75687885284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.760409116745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80277991294861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78865671157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79571866989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80631065368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80984282493591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512525558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7674708366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72510004043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71097636222839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71803903579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73922371864319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272948265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979167938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981713294983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7815945148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633634567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221362113953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218792915344</t>
+    <t xml:space="preserve">3.75687837600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76040959358215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80278015136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78865623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7957181930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80631136894226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80984258651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512573242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72510051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71097707748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803879737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7392246723175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68272972106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68979096412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981641769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78159403800964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690430641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633658409119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221314430237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218769073486</t>
   </si>
   <si>
     <t xml:space="preserve">3.86280512809753</t>
@@ -1232,22 +1232,22 @@
     <t xml:space="preserve">3.90164542198181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91929936408997</t>
+    <t xml:space="preserve">3.91929960250854</t>
   </si>
   <si>
     <t xml:space="preserve">3.94048523902893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89105248451233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83102679252625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574388504028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334763526917</t>
+    <t xml:space="preserve">3.89105272293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8310272693634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75334811210632</t>
   </si>
   <si>
     <t xml:space="preserve">3.70038366317749</t>
@@ -1256,31 +1256,31 @@
     <t xml:space="preserve">3.62270402908325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77100157737732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275493621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79190754890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390146255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068976402283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71628546714783</t>
+    <t xml:space="preserve">3.77100253105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275517463684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79190707206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390122413635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068857192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71628403663635</t>
   </si>
   <si>
     <t xml:space="preserve">3.69035744667053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65002536773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027496337891</t>
+    <t xml:space="preserve">3.6500256061554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027424812317</t>
   </si>
   <si>
     <t xml:space="preserve">3.64858484268188</t>
@@ -1292,118 +1292,118 @@
     <t xml:space="preserve">3.53551197052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43468284606934</t>
+    <t xml:space="preserve">3.43468260765076</t>
   </si>
   <si>
     <t xml:space="preserve">3.51030516624451</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40083289146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33745384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37634611129761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35185861587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44260549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.451247215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022172927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43540191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38498759269714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48221611976624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47573471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365688323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188451766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964124679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401964187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38570833206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40587425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4404444694519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581767082214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48293662071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077654838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742340087891</t>
+    <t xml:space="preserve">3.40083336830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33745408058167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37634563446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185885429382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45124745368958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022196769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116473197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43540334701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3849880695343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48221683502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47573447227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365664482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44188475608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964100837708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401916503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38570880889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40587449073792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44044470787048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581743240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4829363822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077630996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742363929749</t>
   </si>
   <si>
     <t xml:space="preserve">3.49301958084106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51750707626343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55063629150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5117449760437</t>
+    <t xml:space="preserve">3.51750588417053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55063605308533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51174545288086</t>
   </si>
   <si>
     <t xml:space="preserve">3.45412802696228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49373984336853</t>
+    <t xml:space="preserve">3.49374079704285</t>
   </si>
   <si>
     <t xml:space="preserve">3.44692587852478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4548487663269</t>
+    <t xml:space="preserve">3.45484852790833</t>
   </si>
   <si>
     <t xml:space="preserve">3.58304595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56864142417908</t>
+    <t xml:space="preserve">3.56864166259766</t>
   </si>
   <si>
     <t xml:space="preserve">3.57440328598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63706207275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418126106262</t>
+    <t xml:space="preserve">3.63706159591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418054580688</t>
   </si>
   <si>
     <t xml:space="preserve">3.66154861450195</t>
@@ -1415,49 +1415,49 @@
     <t xml:space="preserve">3.64570379257202</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68171501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221253395081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933100700378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348761558533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74653434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73356986045837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830623626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110289573669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79406714439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592247009277</t>
+    <t xml:space="preserve">3.68171548843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315482139587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221277236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933172225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348737716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7465341091156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73357033729553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830671310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406762123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592342376709</t>
   </si>
   <si>
     <t xml:space="preserve">3.83151841163635</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87905240058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8804931640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78398489952087</t>
+    <t xml:space="preserve">3.87905263900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88049268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78398466110229</t>
   </si>
   <si>
     <t xml:space="preserve">3.65434646606445</t>
@@ -1466,40 +1466,40 @@
     <t xml:space="preserve">3.65146660804749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67883372306824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70044088363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56288075447083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58880734443665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5275890827179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52830982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5160665512085</t>
+    <t xml:space="preserve">3.6788341999054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70044040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56288027763367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58880686759949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52758932113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5283100605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51606607437134</t>
   </si>
   <si>
     <t xml:space="preserve">3.51246523857117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49950122833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955852508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39363026618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31080627441406</t>
+    <t xml:space="preserve">3.49950170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39363074302673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3108069896698</t>
   </si>
   <si>
     <t xml:space="preserve">3.42243885993958</t>
@@ -1514,85 +1514,85 @@
     <t xml:space="preserve">3.4476466178894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38426733016968</t>
+    <t xml:space="preserve">3.38426852226257</t>
   </si>
   <si>
     <t xml:space="preserve">3.37130451202393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30864572525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4282009601593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44332528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50958466529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50886464118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48149633407593</t>
+    <t xml:space="preserve">3.30864524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42820119857788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44332480430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5095841884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.508864402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48149609565735</t>
   </si>
   <si>
     <t xml:space="preserve">3.47933554649353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47429394721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39435124397278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41811776161194</t>
+    <t xml:space="preserve">3.47429490089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39435076713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41811752319336</t>
   </si>
   <si>
     <t xml:space="preserve">3.37202405929565</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39795136451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43684339523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4145176410675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42603993415833</t>
+    <t xml:space="preserve">3.39795231819153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.436842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41451692581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42603969573975</t>
   </si>
   <si>
     <t xml:space="preserve">3.41667747497559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47213339805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45988988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590086936951</t>
+    <t xml:space="preserve">3.47213363647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45989012718201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590039253235</t>
   </si>
   <si>
     <t xml:space="preserve">3.51822710037231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49518013000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49013924598694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46493172645569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49085974693298</t>
+    <t xml:space="preserve">3.49518060684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49013876914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46493101119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310230255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49085879325867</t>
   </si>
   <si>
     <t xml:space="preserve">3.51462602615356</t>
@@ -1601,82 +1601,82 @@
     <t xml:space="preserve">3.53263139724731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5311906337738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53335165977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4985659122467</t>
+    <t xml:space="preserve">3.53119087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53335213661194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49856567382812</t>
   </si>
   <si>
     <t xml:space="preserve">3.47192144393921</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45119833946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46229958534241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49042463302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48080229759216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53039073944092</t>
+    <t xml:space="preserve">3.45119786262512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46229982376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49042415618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48080277442932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53039145469666</t>
   </si>
   <si>
     <t xml:space="preserve">3.39346790313721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3268575668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34980058670044</t>
+    <t xml:space="preserve">3.32685708999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3498010635376</t>
   </si>
   <si>
     <t xml:space="preserve">3.35054087638855</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39420819282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3927276134491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37718534469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761408805847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2905912399292</t>
+    <t xml:space="preserve">3.39420771598816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39272809028625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37718558311462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761361122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29059100151062</t>
   </si>
   <si>
     <t xml:space="preserve">3.31427478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27948904037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27504849433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26394581794739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2987322807312</t>
+    <t xml:space="preserve">3.27948927879333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27504825592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26394605636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29873204231262</t>
   </si>
   <si>
     <t xml:space="preserve">3.28466963768005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24692368507385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024603843689</t>
+    <t xml:space="preserve">3.24692392349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024580001831</t>
   </si>
   <si>
     <t xml:space="preserve">3.2476634979248</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">3.22397994995117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23508143424988</t>
+    <t xml:space="preserve">3.23508167266846</t>
   </si>
   <si>
     <t xml:space="preserve">3.18919372558594</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">3.17513108253479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24026274681091</t>
+    <t xml:space="preserve">3.24026226997375</t>
   </si>
   <si>
     <t xml:space="preserve">3.25802516937256</t>
@@ -1712,82 +1712,82 @@
     <t xml:space="preserve">3.37496519088745</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37348461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34388017654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37422490119934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682367324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34091949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608386039734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42899370193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236594200134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40383005142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41271114349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38976693153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542687416077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24322295188904</t>
+    <t xml:space="preserve">3.37348484992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34387969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37422513961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682295799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34091925621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3660831451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42899394035339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236665725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40382981300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41271138191223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38976740837097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24322247505188</t>
   </si>
   <si>
     <t xml:space="preserve">3.26320600509644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3461000919342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30095291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27356791496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952198028564</t>
+    <t xml:space="preserve">3.34609985351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30095267295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27356767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952174186707</t>
   </si>
   <si>
     <t xml:space="preserve">3.23878240585327</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2165789604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17365145683289</t>
+    <t xml:space="preserve">3.21657848358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17365121841431</t>
   </si>
   <si>
     <t xml:space="preserve">3.29651165008545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26690721511841</t>
+    <t xml:space="preserve">3.26690697669983</t>
   </si>
   <si>
     <t xml:space="preserve">3.22916030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27874875068665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28392934799194</t>
+    <t xml:space="preserve">3.27874898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28392958641052</t>
   </si>
   <si>
     <t xml:space="preserve">3.26468634605408</t>
@@ -1799,148 +1799,148 @@
     <t xml:space="preserve">3.2565450668335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20769715309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24100279808044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172566413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986765861511</t>
+    <t xml:space="preserve">3.20769691467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24100255966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172590255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986718177795</t>
   </si>
   <si>
     <t xml:space="preserve">3.30835366249084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31797552108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32611703872681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29503130912781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33055734634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37644529342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40308928489685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44823694229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44675731658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48228287696838</t>
+    <t xml:space="preserve">3.31797528266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32611656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29503107070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33055782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37644505500793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40309000015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823670387268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44675707817078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4822826385498</t>
   </si>
   <si>
     <t xml:space="preserve">3.51928925514221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52594995498657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53779244422913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52150940895081</t>
+    <t xml:space="preserve">3.52595043182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53779196739197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52150893211365</t>
   </si>
   <si>
     <t xml:space="preserve">3.5451934337616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56295728683472</t>
+    <t xml:space="preserve">3.56295680999756</t>
   </si>
   <si>
     <t xml:space="preserve">3.551114320755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5747983455658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51336860656738</t>
+    <t xml:space="preserve">3.57479882240295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5133683681488</t>
   </si>
   <si>
     <t xml:space="preserve">3.51410865783691</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50966787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55777597427368</t>
+    <t xml:space="preserve">3.50966739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55777549743652</t>
   </si>
   <si>
     <t xml:space="preserve">3.64955115318298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7154221534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71394205093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71098160743713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70950126647949</t>
+    <t xml:space="preserve">3.71542191505432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394228935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7109808921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70950102806091</t>
   </si>
   <si>
     <t xml:space="preserve">3.79239463806152</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81015753746033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83828330039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73614501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73318457603455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76279020309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76426959037781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81607818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459903717041</t>
+    <t xml:space="preserve">3.81015729904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83828210830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73614525794983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73318529129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76278924942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76427054405212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81607913970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459879875183</t>
   </si>
   <si>
     <t xml:space="preserve">3.83088111877441</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82199931144714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88564991950989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8486442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85604619979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86344695091248</t>
+    <t xml:space="preserve">3.8219997882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88565015792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84864354133606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85604596138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86344623565674</t>
   </si>
   <si>
     <t xml:space="preserve">3.86196637153625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87824892997742</t>
+    <t xml:space="preserve">3.878249168396</t>
   </si>
   <si>
     <t xml:space="preserve">3.92857766151428</t>
@@ -1952,22 +1952,22 @@
     <t xml:space="preserve">3.9331386089325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90273189544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93770027160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94682145118713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92553663253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483037948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97874927520752</t>
+    <t xml:space="preserve">3.90273118019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93769931793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682192802429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92553687095642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98482966423035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9787495136261</t>
   </si>
   <si>
     <t xml:space="preserve">4.00307416915894</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">3.93009829521179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94074058532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121221542358</t>
+    <t xml:space="preserve">3.94074034690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121102333069</t>
   </si>
   <si>
     <t xml:space="preserve">3.8784065246582</t>
@@ -1988,46 +1988,46 @@
     <t xml:space="preserve">3.90729260444641</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95138239860535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96506595611572</t>
+    <t xml:space="preserve">3.95138263702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96506571769714</t>
   </si>
   <si>
     <t xml:space="preserve">3.96202516555786</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98026990890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635053634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266745567322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722911834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98787045478821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01219701766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0380425453186</t>
+    <t xml:space="preserve">3.98026943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266721725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98787117004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01219654083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03804302215576</t>
   </si>
   <si>
     <t xml:space="preserve">4.02892065048218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04412508010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03956317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03196096420288</t>
+    <t xml:space="preserve">4.04412412643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03956365585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03196144104004</t>
   </si>
   <si>
     <t xml:space="preserve">4.05020570755005</t>
@@ -2036,13 +2036,13 @@
     <t xml:space="preserve">4.10341739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18247604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15054845809937</t>
+    <t xml:space="preserve">4.18247556686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16879320144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15054893493652</t>
   </si>
   <si>
     <t xml:space="preserve">4.17943525314331</t>
@@ -2051,31 +2051,31 @@
     <t xml:space="preserve">4.17031335830688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17183303833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15814924240112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19615936279297</t>
+    <t xml:space="preserve">4.17183256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15815019607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19615888595581</t>
   </si>
   <si>
     <t xml:space="preserve">4.21440315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24176931381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28281879425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27217578887939</t>
+    <t xml:space="preserve">4.2417688369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28281784057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27217626571655</t>
   </si>
   <si>
     <t xml:space="preserve">4.33451080322266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34363222122192</t>
+    <t xml:space="preserve">4.34363269805908</t>
   </si>
   <si>
     <t xml:space="preserve">4.32234716415405</t>
@@ -2084,34 +2084,34 @@
     <t xml:space="preserve">4.33603096008301</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30106258392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30334329605103</t>
+    <t xml:space="preserve">4.3010630607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30334281921387</t>
   </si>
   <si>
     <t xml:space="preserve">4.33907127380371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32918834686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32842826843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31474637985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30258321762085</t>
+    <t xml:space="preserve">4.32918882369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32842874526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31474590301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30258274078369</t>
   </si>
   <si>
     <t xml:space="preserve">4.28966045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26457405090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24253034591675</t>
+    <t xml:space="preserve">4.26457452774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24252939224243</t>
   </si>
   <si>
     <t xml:space="preserve">4.16347122192383</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">4.19691896438599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19996023178101</t>
+    <t xml:space="preserve">4.19995975494385</t>
   </si>
   <si>
     <t xml:space="preserve">4.19539880752563</t>
@@ -2129,25 +2129,25 @@
     <t xml:space="preserve">4.18399620056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20984172821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24557018280029</t>
+    <t xml:space="preserve">4.20984220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24556970596313</t>
   </si>
   <si>
     <t xml:space="preserve">4.22124528884888</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28661918640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23948907852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25317192077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22732591629028</t>
+    <t xml:space="preserve">4.28661966323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23948812484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25317144393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22732543945312</t>
   </si>
   <si>
     <t xml:space="preserve">4.25849342346191</t>
@@ -2156,28 +2156,28 @@
     <t xml:space="preserve">4.23872900009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21972465515137</t>
+    <t xml:space="preserve">4.21972417831421</t>
   </si>
   <si>
     <t xml:space="preserve">4.18627691268921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23796892166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23720836639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24937152862549</t>
+    <t xml:space="preserve">4.23796844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23720788955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24937105178833</t>
   </si>
   <si>
     <t xml:space="preserve">4.27901792526245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32538843154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.386962890625</t>
+    <t xml:space="preserve">4.32538747787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38696146011353</t>
   </si>
   <si>
     <t xml:space="preserve">4.38012075424194</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">4.31778621673584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40064525604248</t>
+    <t xml:space="preserve">4.40064573287964</t>
   </si>
   <si>
     <t xml:space="preserve">4.22428512573242</t>
@@ -2195,16 +2195,16 @@
     <t xml:space="preserve">4.23416757583618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761484146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3398323059082</t>
+    <t xml:space="preserve">4.26761436462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33983182907104</t>
   </si>
   <si>
     <t xml:space="preserve">4.35275411605835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41356897354126</t>
+    <t xml:space="preserve">4.4135684967041</t>
   </si>
   <si>
     <t xml:space="preserve">4.47818279266357</t>
@@ -2228,19 +2228,19 @@
     <t xml:space="preserve">4.62185621261597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74120378494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69027137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70547485351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73740243911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208141326904</t>
+    <t xml:space="preserve">4.74120330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69027185440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70547533035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73740291595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208093643188</t>
   </si>
   <si>
     <t xml:space="preserve">4.71383666992188</t>
@@ -2249,13 +2249,13 @@
     <t xml:space="preserve">4.61805486679077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62489700317383</t>
+    <t xml:space="preserve">4.62489652633667</t>
   </si>
   <si>
     <t xml:space="preserve">4.66746616363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65682363510132</t>
+    <t xml:space="preserve">4.65682411193848</t>
   </si>
   <si>
     <t xml:space="preserve">4.75868797302246</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">4.87119245529175</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90083932876587</t>
+    <t xml:space="preserve">4.90084028244019</t>
   </si>
   <si>
     <t xml:space="preserve">4.86511182785034</t>
@@ -2273,22 +2273,22 @@
     <t xml:space="preserve">4.87271356582642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87195301055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8848762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94873142242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90388154983521</t>
+    <t xml:space="preserve">4.87195348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88487672805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94873094558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90388011932373</t>
   </si>
   <si>
     <t xml:space="preserve">4.93504810333252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95101165771484</t>
+    <t xml:space="preserve">4.95101070404053</t>
   </si>
   <si>
     <t xml:space="preserve">4.98597955703735</t>
@@ -2300,43 +2300,43 @@
     <t xml:space="preserve">4.87715816497803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8779354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92147445678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85694360733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82817649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85616588592529</t>
+    <t xml:space="preserve">4.87793493270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92147397994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85694313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82817602157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85616540908813</t>
   </si>
   <si>
     <t xml:space="preserve">4.79629993438721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81962394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85150003433228</t>
+    <t xml:space="preserve">4.81962442398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85150051116943</t>
   </si>
   <si>
     <t xml:space="preserve">4.81884670257568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76131296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908683776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77375221252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69289445877075</t>
+    <t xml:space="preserve">4.76131200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77375173568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69289398193359</t>
   </si>
   <si>
     <t xml:space="preserve">4.7146635055542</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">4.67190217971802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88648700714111</t>
+    <t xml:space="preserve">4.88648748397827</t>
   </si>
   <si>
     <t xml:space="preserve">4.94402170181274</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">4.84839057922363</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91214466094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8857102394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83828353881836</t>
+    <t xml:space="preserve">4.91214418411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88570976257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83828401565552</t>
   </si>
   <si>
     <t xml:space="preserve">5.05286931991577</t>
@@ -2372,34 +2372,34 @@
     <t xml:space="preserve">5.05442428588867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15627479553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12673091888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19359302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19437074661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23868799209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18193101882935</t>
+    <t xml:space="preserve">5.15627431869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12672996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19359350204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19437122344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23868751525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1819314956665</t>
   </si>
   <si>
     <t xml:space="preserve">5.14694499969482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08863353729248</t>
+    <t xml:space="preserve">5.08863401412964</t>
   </si>
   <si>
     <t xml:space="preserve">5.04587173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00855255126953</t>
+    <t xml:space="preserve">5.00855302810669</t>
   </si>
   <si>
     <t xml:space="preserve">5.14150238037109</t>
@@ -2408,10 +2408,10 @@
     <t xml:space="preserve">5.12517595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03965187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06686449050903</t>
+    <t xml:space="preserve">5.03965139389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06686401367188</t>
   </si>
   <si>
     <t xml:space="preserve">5.17026948928833</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">5.14305734634399</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11273574829102</t>
+    <t xml:space="preserve">5.11273622512817</t>
   </si>
   <si>
     <t xml:space="preserve">5.18659639358521</t>
@@ -2432,16 +2432,16 @@
     <t xml:space="preserve">5.23246812820435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31177139282227</t>
+    <t xml:space="preserve">5.31177043914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.27600717544556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3265438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30010890960693</t>
+    <t xml:space="preserve">5.32654333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30010938644409</t>
   </si>
   <si>
     <t xml:space="preserve">5.18504190444946</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">5.25112819671631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3218789100647</t>
+    <t xml:space="preserve">5.32187843322754</t>
   </si>
   <si>
     <t xml:space="preserve">5.26512241363525</t>
@@ -2471,52 +2471,52 @@
     <t xml:space="preserve">5.27056503295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31643629074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29077959060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26356744766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30866241455078</t>
+    <t xml:space="preserve">5.31643676757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29078006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356792449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30866146087646</t>
   </si>
   <si>
     <t xml:space="preserve">5.24413061141968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32809925079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909105300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33665132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34287118911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36697340011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39573955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874197006226</t>
+    <t xml:space="preserve">5.3280987739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909152984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33665084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34287071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36697244644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39574003219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874292373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37241506576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36386299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24957227706909</t>
+    <t xml:space="preserve">5.3724160194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36386346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24957275390625</t>
   </si>
   <si>
     <t xml:space="preserve">5.33820629119873</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">5.33354139328003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42917108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38796424865723</t>
+    <t xml:space="preserve">5.42917156219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38796472549438</t>
   </si>
   <si>
     <t xml:space="preserve">5.3452033996582</t>
@@ -2537,25 +2537,25 @@
     <t xml:space="preserve">5.33509588241577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36308574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31021595001221</t>
+    <t xml:space="preserve">5.36308431625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31021642684937</t>
   </si>
   <si>
     <t xml:space="preserve">5.29000186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26745462417603</t>
+    <t xml:space="preserve">5.26745510101318</t>
   </si>
   <si>
     <t xml:space="preserve">5.24801826477051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31799125671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3420934677124</t>
+    <t xml:space="preserve">5.31799173355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34209394454956</t>
   </si>
   <si>
     <t xml:space="preserve">5.33043098449707</t>
@@ -2564,19 +2564,19 @@
     <t xml:space="preserve">5.13528299331665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19126081466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22702550888062</t>
+    <t xml:space="preserve">5.19126176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22702598571777</t>
   </si>
   <si>
     <t xml:space="preserve">5.23324537277222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32265663146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38407850265503</t>
+    <t xml:space="preserve">5.32265615463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38407754898071</t>
   </si>
   <si>
     <t xml:space="preserve">5.45016384124756</t>
@@ -2588,22 +2588,22 @@
     <t xml:space="preserve">5.44316625595093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60255002975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5784478187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54968214035034</t>
+    <t xml:space="preserve">5.6025505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57844829559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54968166351318</t>
   </si>
   <si>
     <t xml:space="preserve">5.49836778640747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6072154045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60643768310547</t>
+    <t xml:space="preserve">5.60721492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60643815994263</t>
   </si>
   <si>
     <t xml:space="preserve">5.61809968948364</t>
@@ -2612,85 +2612,85 @@
     <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65230894088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67952156066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76659965515137</t>
+    <t xml:space="preserve">5.65230989456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6795220375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76659917831421</t>
   </si>
   <si>
     <t xml:space="preserve">5.75338268280029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76971006393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91743230819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00606441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05687665939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04179191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99097967147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04973077774048</t>
+    <t xml:space="preserve">5.76971054077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91743135452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00606489181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05687618255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0417914390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99097919464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04973030090332</t>
   </si>
   <si>
     <t xml:space="preserve">6.20772218704224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09260368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27123689651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35856819152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42128896713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23630332946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32442998886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3514232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40699815750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45463418960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4919490814209</t>
+    <t xml:space="preserve">6.09260272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27123641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35856866836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42128992080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23630380630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32443046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35142278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40699768066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45463371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49194765090942</t>
   </si>
   <si>
     <t xml:space="preserve">6.51020908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50465202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45622158050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51576662063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134103775024</t>
+    <t xml:space="preserve">6.50465154647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45622205734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51576566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134199142456</t>
   </si>
   <si>
     <t xml:space="preserve">6.664231300354</t>
@@ -2702,25 +2702,25 @@
     <t xml:space="preserve">6.8007869720459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69519424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7039270401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37524032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19660806655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31569623947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28473329544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01479721069336</t>
+    <t xml:space="preserve">6.69519376754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70392799377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37524080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19660758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31569719314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28473377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01479768753052</t>
   </si>
   <si>
     <t xml:space="preserve">6.06560945510864</t>
@@ -2729,103 +2729,103 @@
     <t xml:space="preserve">6.18708038330078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54196500778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46654367446899</t>
+    <t xml:space="preserve">6.54196548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46654319763184</t>
   </si>
   <si>
     <t xml:space="preserve">6.26488542556763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64165115356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3224925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17640972137451</t>
+    <t xml:space="preserve">5.64165163040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32249307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">4.14906740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46108055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3554892539978</t>
+    <t xml:space="preserve">4.46108150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35548877716064</t>
   </si>
   <si>
     <t xml:space="preserve">4.54126787185669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67623567581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62860012054443</t>
+    <t xml:space="preserve">4.67623519897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62859916687012</t>
   </si>
   <si>
     <t xml:space="preserve">4.6754412651062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74133729934692</t>
+    <t xml:space="preserve">4.74133777618408</t>
   </si>
   <si>
     <t xml:space="preserve">5.01047897338867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00174617767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98507356643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88662624359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002353668213</t>
+    <t xml:space="preserve">5.00174570083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98507308959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88662672042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002401351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.0327091217041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81755399703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87868690490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81834888458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87471723556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06129121780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9898362159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12321662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11845350265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92791032791138</t>
+    <t xml:space="preserve">4.81755447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87868642807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81834840774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87471675872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06128978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98983669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12321710586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11845302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92791128158569</t>
   </si>
   <si>
     <t xml:space="preserve">4.96125555038452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92949867248535</t>
+    <t xml:space="preserve">4.92949914932251</t>
   </si>
   <si>
     <t xml:space="preserve">4.91600131988525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76753759384155</t>
+    <t xml:space="preserve">4.76753711700439</t>
   </si>
   <si>
     <t xml:space="preserve">4.75165891647339</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">4.70481729507446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68417453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81914281845093</t>
+    <t xml:space="preserve">4.68417549133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81914234161377</t>
   </si>
   <si>
     <t xml:space="preserve">4.88265657424927</t>
@@ -2846,10 +2846,10 @@
     <t xml:space="preserve">4.97792768478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95093441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76912450790405</t>
+    <t xml:space="preserve">4.95093393325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76912546157837</t>
   </si>
   <si>
     <t xml:space="preserve">4.83343267440796</t>
@@ -2858,13 +2858,13 @@
     <t xml:space="preserve">4.81676054000854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91282558441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92235326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82708168029785</t>
+    <t xml:space="preserve">4.91282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92235279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82708120346069</t>
   </si>
   <si>
     <t xml:space="preserve">4.78738594055176</t>
@@ -2873,22 +2873,22 @@
     <t xml:space="preserve">4.67147159576416</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57381916046143</t>
+    <t xml:space="preserve">4.57381868362427</t>
   </si>
   <si>
     <t xml:space="preserve">4.73498630523682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79294300079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96363687515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02556371688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08907794952393</t>
+    <t xml:space="preserve">4.79294347763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96363735198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02556324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08907842636108</t>
   </si>
   <si>
     <t xml:space="preserve">5.16847133636475</t>
@@ -2897,40 +2897,40 @@
     <t xml:space="preserve">5.17323446273804</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22880935668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39235877990723</t>
+    <t xml:space="preserve">5.22880887985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39235830307007</t>
   </si>
   <si>
     <t xml:space="preserve">5.47889709472656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70754766464233</t>
+    <t xml:space="preserve">5.55590772628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70754861831665</t>
   </si>
   <si>
     <t xml:space="preserve">5.95763540267944</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94255065917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01638650894165</t>
+    <t xml:space="preserve">5.94255113601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01638603210449</t>
   </si>
   <si>
     <t xml:space="preserve">6.01559209823608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98780393600464</t>
+    <t xml:space="preserve">5.9878044128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.96398687362671</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81711053848267</t>
+    <t xml:space="preserve">5.81710958480835</t>
   </si>
   <si>
     <t xml:space="preserve">5.8314003944397</t>
@@ -2945,13 +2945,13 @@
     <t xml:space="preserve">5.95842838287354</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93302345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03385210037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137119293213</t>
+    <t xml:space="preserve">5.93302297592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03385162353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137071609497</t>
   </si>
   <si>
     <t xml:space="preserve">6.05290651321411</t>
@@ -2960,37 +2960,37 @@
     <t xml:space="preserve">6.08386945724487</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06481552124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13229894638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.095778465271</t>
+    <t xml:space="preserve">6.06481456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13229942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09577894210815</t>
   </si>
   <si>
     <t xml:space="preserve">6.11483287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30934524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25138854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2831449508667</t>
+    <t xml:space="preserve">6.30934476852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25138807296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28314542770386</t>
   </si>
   <si>
     <t xml:space="preserve">6.3315749168396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41970109939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30061149597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44828271865845</t>
+    <t xml:space="preserve">6.41970205307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30061197280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44828224182129</t>
   </si>
   <si>
     <t xml:space="preserve">6.36253833770752</t>
@@ -2999,34 +2999,34 @@
     <t xml:space="preserve">6.48559713363647</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55228757858276</t>
+    <t xml:space="preserve">6.55228805541992</t>
   </si>
   <si>
     <t xml:space="preserve">6.69043111801147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74146509170532</t>
+    <t xml:space="preserve">6.74146413803101</t>
   </si>
   <si>
     <t xml:space="preserve">6.74794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63777589797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58917093276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43525648117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662454605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39961242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46036815643311</t>
+    <t xml:space="preserve">6.63777542114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58916997909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4352560043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41662406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39961290359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46036863327026</t>
   </si>
   <si>
     <t xml:space="preserve">6.26757001876831</t>
@@ -3041,16 +3041,16 @@
     <t xml:space="preserve">6.37450075149536</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34533786773682</t>
+    <t xml:space="preserve">6.3453369140625</t>
   </si>
   <si>
     <t xml:space="preserve">6.26189947128296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33075666427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37125968933105</t>
+    <t xml:space="preserve">6.33075571060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37126016616821</t>
   </si>
   <si>
     <t xml:space="preserve">6.45145750045776</t>
@@ -3062,97 +3062,97 @@
     <t xml:space="preserve">6.48710107803345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3874626159668</t>
+    <t xml:space="preserve">6.38746166229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.32508563995361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30888414382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.282151222229</t>
+    <t xml:space="preserve">6.30888366699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28215169906616</t>
   </si>
   <si>
     <t xml:space="preserve">6.26270914077759</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3720703125</t>
+    <t xml:space="preserve">6.37206983566284</t>
   </si>
   <si>
     <t xml:space="preserve">6.32184505462646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3169846534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17036104202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18899297714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14767837524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07882213592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19547367095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14038801193237</t>
+    <t xml:space="preserve">6.31698513031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17036008834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18899250030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14767789840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07882165908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19547271728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14038705825806</t>
   </si>
   <si>
     <t xml:space="preserve">6.00429487228394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15091943740845</t>
+    <t xml:space="preserve">6.15091896057129</t>
   </si>
   <si>
     <t xml:space="preserve">6.05370950698853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19790315628052</t>
+    <t xml:space="preserve">6.19790363311768</t>
   </si>
   <si>
     <t xml:space="preserve">6.15983009338379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2051944732666</t>
+    <t xml:space="preserve">6.20519399642944</t>
   </si>
   <si>
     <t xml:space="preserve">6.12499666213989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18008184432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13633680343628</t>
+    <t xml:space="preserve">6.18008136749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1363377571106</t>
   </si>
   <si>
     <t xml:space="preserve">5.97837257385254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01077556610107</t>
+    <t xml:space="preserve">6.01077508926392</t>
   </si>
   <si>
     <t xml:space="preserve">5.88035297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93057823181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04317808151245</t>
+    <t xml:space="preserve">5.93057727813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04317855834961</t>
   </si>
   <si>
     <t xml:space="preserve">5.97027158737183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94191932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345775604248</t>
+    <t xml:space="preserve">5.94191884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345727920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.07558155059814</t>
@@ -3167,19 +3167,19 @@
     <t xml:space="preserve">5.98971366882324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9654107093811</t>
+    <t xml:space="preserve">5.96541118621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.15334939956665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11365509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09502363204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22706651687622</t>
+    <t xml:space="preserve">6.11365556716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0950231552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">6.24731779098511</t>
@@ -3188,61 +3188,61 @@
     <t xml:space="preserve">6.04560804367065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09745311737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05046892166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14200782775879</t>
+    <t xml:space="preserve">6.09745359420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05046844482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14200830459595</t>
   </si>
   <si>
     <t xml:space="preserve">6.08773231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03507709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13147687911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99052381515503</t>
+    <t xml:space="preserve">6.0350775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13147640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99052333831787</t>
   </si>
   <si>
     <t xml:space="preserve">5.63003873825073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61950731277466</t>
+    <t xml:space="preserve">5.61950778961182</t>
   </si>
   <si>
     <t xml:space="preserve">5.53607034683228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65920162200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84633016586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16550016403198</t>
+    <t xml:space="preserve">5.65920257568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84632921218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865129470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16549968719482</t>
   </si>
   <si>
     <t xml:space="preserve">6.52193403244019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5186939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65235710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54542684555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49682188034058</t>
+    <t xml:space="preserve">6.51869440078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65235662460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54542636871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49682235717773</t>
   </si>
   <si>
     <t xml:space="preserve">6.55271673202515</t>
@@ -3251,19 +3251,19 @@
     <t xml:space="preserve">6.57134914398193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57945013046265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6134729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66936779022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87512874603271</t>
+    <t xml:space="preserve">6.57944965362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61347246170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66936826705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87512969970703</t>
   </si>
   <si>
     <t xml:space="preserve">6.86135673522949</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">6.88727855682373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78034925460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984479904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70906162261963</t>
+    <t xml:space="preserve">6.780348777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984527587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70906209945679</t>
   </si>
   <si>
     <t xml:space="preserve">6.64992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64749670028687</t>
+    <t xml:space="preserve">6.64749717712402</t>
   </si>
   <si>
     <t xml:space="preserve">6.6272439956665</t>
@@ -3296,64 +3296,64 @@
     <t xml:space="preserve">6.57782936096191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65073728561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52031421661377</t>
+    <t xml:space="preserve">6.65073680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52031326293945</t>
   </si>
   <si>
     <t xml:space="preserve">6.51707410812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61185312271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62076377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53813552856445</t>
+    <t xml:space="preserve">6.61185264587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62076425552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53813600540161</t>
   </si>
   <si>
     <t xml:space="preserve">6.70015144348145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76009750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70420169830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85082530975342</t>
+    <t xml:space="preserve">6.76009798049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70420217514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85082626342773</t>
   </si>
   <si>
     <t xml:space="preserve">6.80060148239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23318195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005115509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24047327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24857425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2299427986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15541458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17647647857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09466314315796</t>
+    <t xml:space="preserve">7.23318243026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24047231674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24857378005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111209869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22994232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1554160118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17647695541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09466361999512</t>
   </si>
   <si>
     <t xml:space="preserve">7.08557319641113</t>
@@ -3365,16 +3365,16 @@
     <t xml:space="preserve">6.99053621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89632701873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88806343078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94177913665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8103814125061</t>
+    <t xml:space="preserve">6.89632749557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88806247711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9417781829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81038045883179</t>
   </si>
   <si>
     <t xml:space="preserve">6.94260501861572</t>
@@ -3383,19 +3383,19 @@
     <t xml:space="preserve">6.76906061172485</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79385232925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77649879455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06739234924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07069778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98061943054199</t>
+    <t xml:space="preserve">6.79385280609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77649831771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06739187240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07069730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98061990737915</t>
   </si>
   <si>
     <t xml:space="preserve">7.02441883087158</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">6.84591674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87401390075684</t>
+    <t xml:space="preserve">6.87401437759399</t>
   </si>
   <si>
     <t xml:space="preserve">6.99301528930664</t>
@@ -3413,13 +3413,13 @@
     <t xml:space="preserve">6.99797487258911</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99549531936646</t>
+    <t xml:space="preserve">6.99549579620361</t>
   </si>
   <si>
     <t xml:space="preserve">6.86161804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77319288253784</t>
+    <t xml:space="preserve">6.77319240570068</t>
   </si>
   <si>
     <t xml:space="preserve">6.67485094070435</t>
@@ -3431,115 +3431,115 @@
     <t xml:space="preserve">6.54510593414307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47899436950684</t>
+    <t xml:space="preserve">6.47899341583252</t>
   </si>
   <si>
     <t xml:space="preserve">6.48229932785034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56741905212402</t>
+    <t xml:space="preserve">6.56741857528687</t>
   </si>
   <si>
     <t xml:space="preserve">6.44759035110474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30214405059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48147296905518</t>
+    <t xml:space="preserve">6.30214357376099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48147249221802</t>
   </si>
   <si>
     <t xml:space="preserve">6.50626468658447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68063592910767</t>
+    <t xml:space="preserve">6.68063497543335</t>
   </si>
   <si>
     <t xml:space="preserve">6.69633769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.788893699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88062477111816</t>
+    <t xml:space="preserve">6.78889465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88062524795532</t>
   </si>
   <si>
     <t xml:space="preserve">6.82195091247559</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76079702377319</t>
+    <t xml:space="preserve">6.76079654693604</t>
   </si>
   <si>
     <t xml:space="preserve">6.80790138244629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74509429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86409711837769</t>
+    <t xml:space="preserve">6.74509477615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410779953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86409759521484</t>
   </si>
   <si>
     <t xml:space="preserve">6.87897253036499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96326541900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97648811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96409225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03020429611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96905040740967</t>
+    <t xml:space="preserve">6.96326494216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97648763656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96409177780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0302038192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96904993057251</t>
   </si>
   <si>
     <t xml:space="preserve">7.01863384246826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97070360183716</t>
+    <t xml:space="preserve">6.970703125</t>
   </si>
   <si>
     <t xml:space="preserve">7.06904458999634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09548997879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14920520782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10210132598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09053087234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12441444396973</t>
+    <t xml:space="preserve">7.09549045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14920568466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10210037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09053134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12441492080688</t>
   </si>
   <si>
     <t xml:space="preserve">7.03185653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09135818481445</t>
+    <t xml:space="preserve">7.09135675430298</t>
   </si>
   <si>
     <t xml:space="preserve">7.15581798553467</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15829610824585</t>
+    <t xml:space="preserve">7.15829563140869</t>
   </si>
   <si>
     <t xml:space="preserve">7.06987142562866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01367616653442</t>
+    <t xml:space="preserve">7.01367664337158</t>
   </si>
   <si>
     <t xml:space="preserve">7.2045750617981</t>
@@ -3548,19 +3548,19 @@
     <t xml:space="preserve">7.21862363815308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14011526107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98144626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89054155349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83186721801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90541696548462</t>
+    <t xml:space="preserve">7.1401162147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98144674301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89054298400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83186769485474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90541744232178</t>
   </si>
   <si>
     <t xml:space="preserve">6.78145694732666</t>
@@ -3569,10 +3569,10 @@
     <t xml:space="preserve">6.85004758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83269357681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8376522064209</t>
+    <t xml:space="preserve">6.83269309997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83765268325806</t>
   </si>
   <si>
     <t xml:space="preserve">6.60460710525513</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">6.68724679946899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77980470657349</t>
+    <t xml:space="preserve">6.77980422973633</t>
   </si>
   <si>
     <t xml:space="preserve">6.74096298217773</t>
@@ -3596,13 +3596,13 @@
     <t xml:space="preserve">6.67237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76658153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74922657012939</t>
+    <t xml:space="preserve">6.76658201217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74261617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74922704696655</t>
   </si>
   <si>
     <t xml:space="preserve">6.73269939422607</t>
@@ -3617,10 +3617,10 @@
     <t xml:space="preserve">6.59551620483398</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52196645736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55419683456421</t>
+    <t xml:space="preserve">6.5219669342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55419635772705</t>
   </si>
   <si>
     <t xml:space="preserve">6.61369752883911</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">6.78724193572998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67650413513184</t>
+    <t xml:space="preserve">6.67650365829468</t>
   </si>
   <si>
     <t xml:space="preserve">6.65584373474121</t>
@@ -3665,25 +3665,25 @@
     <t xml:space="preserve">6.63931560516357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61865568161011</t>
+    <t xml:space="preserve">6.61865520477295</t>
   </si>
   <si>
     <t xml:space="preserve">6.58973121643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6426215171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47238206863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48643064498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48808431625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53353691101074</t>
+    <t xml:space="preserve">6.64262104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47238159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48643112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4880838394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53353595733643</t>
   </si>
   <si>
     <t xml:space="preserve">6.56245994567871</t>
@@ -3695,16 +3695,16 @@
     <t xml:space="preserve">6.54841136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6624550819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65914869308472</t>
+    <t xml:space="preserve">6.66245555877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65914916992188</t>
   </si>
   <si>
     <t xml:space="preserve">6.63105154037476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55502271652222</t>
+    <t xml:space="preserve">6.55502223968506</t>
   </si>
   <si>
     <t xml:space="preserve">6.61948204040527</t>
@@ -3713,64 +3713,64 @@
     <t xml:space="preserve">6.43088579177856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4384970664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60510444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942590713501</t>
+    <t xml:space="preserve">6.43849754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60510492324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942686080933</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83429670333862</t>
+    <t xml:space="preserve">6.83429622650146</t>
   </si>
   <si>
     <t xml:space="preserve">6.73365449905396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81230783462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77847862243652</t>
+    <t xml:space="preserve">6.81230735778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77847814559937</t>
   </si>
   <si>
     <t xml:space="preserve">6.57973337173462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5450587272644</t>
+    <t xml:space="preserve">6.54505825042725</t>
   </si>
   <si>
     <t xml:space="preserve">6.50700044631958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51461219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55605268478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56197261810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5949559211731</t>
+    <t xml:space="preserve">6.51461267471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55605316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56197214126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59495639801025</t>
   </si>
   <si>
     <t xml:space="preserve">6.58649873733521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62455701828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63385963439941</t>
+    <t xml:space="preserve">6.62455654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63385915756226</t>
   </si>
   <si>
     <t xml:space="preserve">6.67191696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63639688491821</t>
+    <t xml:space="preserve">6.63639640808105</t>
   </si>
   <si>
     <t xml:space="preserve">6.57719564437866</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">6.69982624053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76663875579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62371063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56366443634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49346923828125</t>
+    <t xml:space="preserve">6.76663827896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62371015548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56366395950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49346971511841</t>
   </si>
   <si>
     <t xml:space="preserve">6.4943151473999</t>
@@ -3809,25 +3809,25 @@
     <t xml:space="preserve">6.53068113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52476072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41904640197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35815286636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36830186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23721504211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34208488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28795862197876</t>
+    <t xml:space="preserve">6.52476119995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41904544830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35815334320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36830234527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2372145652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3420844078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2879581451416</t>
   </si>
   <si>
     <t xml:space="preserve">5.94121122360229</t>
@@ -3836,19 +3836,19 @@
     <t xml:space="preserve">5.92091417312622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88539409637451</t>
+    <t xml:space="preserve">5.88539361953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.784752368927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83465003967285</t>
+    <t xml:space="preserve">5.83465099334717</t>
   </si>
   <si>
     <t xml:space="preserve">5.86932468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98688077926636</t>
+    <t xml:space="preserve">5.9868803024292</t>
   </si>
   <si>
     <t xml:space="preserve">5.9352912902832</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">5.87524509429932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78221559524536</t>
+    <t xml:space="preserve">5.7822151184082</t>
   </si>
   <si>
     <t xml:space="preserve">5.74500370025635</t>
@@ -3866,10 +3866,10 @@
     <t xml:space="preserve">5.62491035461426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69087696075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69848871231079</t>
+    <t xml:space="preserve">5.69087743759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69848823547363</t>
   </si>
   <si>
     <t xml:space="preserve">5.6900315284729</t>
@@ -3878,25 +3878,25 @@
     <t xml:space="preserve">5.83803272247314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85156488418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70694637298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132301330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77629470825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84057092666626</t>
+    <t xml:space="preserve">5.85156440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70694589614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132349014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77629518508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8405704498291</t>
   </si>
   <si>
     <t xml:space="preserve">5.9885721206665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09767055511475</t>
+    <t xml:space="preserve">6.09767007827759</t>
   </si>
   <si>
     <t xml:space="preserve">6.06637811660767</t>
@@ -3905,43 +3905,43 @@
     <t xml:space="preserve">6.02747535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97165775299072</t>
+    <t xml:space="preserve">5.97165727615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.0426983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10274505615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14841365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11965894699097</t>
+    <t xml:space="preserve">6.10274457931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14841413497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11965942382812</t>
   </si>
   <si>
     <t xml:space="preserve">6.16109991073608</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11543083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13657379150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13319063186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16871070861816</t>
+    <t xml:space="preserve">6.11543035507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13657331466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13319110870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16871166229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.08498477935791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99956607818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05538368225098</t>
+    <t xml:space="preserve">5.99956655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05538415908813</t>
   </si>
   <si>
     <t xml:space="preserve">6.00379467010498</t>
@@ -3962,28 +3962,28 @@
     <t xml:space="preserve">5.87778186798096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87947368621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84141635894775</t>
+    <t xml:space="preserve">5.8794732093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8414158821106</t>
   </si>
   <si>
     <t xml:space="preserve">5.95812559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04608106613159</t>
+    <t xml:space="preserve">6.04608154296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.76445531845093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74162149429321</t>
+    <t xml:space="preserve">5.7416205406189</t>
   </si>
   <si>
     <t xml:space="preserve">5.67227125167847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71286582946777</t>
+    <t xml:space="preserve">5.71286630630493</t>
   </si>
   <si>
     <t xml:space="preserve">5.57332181930542</t>
@@ -3995,16 +3995,16 @@
     <t xml:space="preserve">5.68580293655396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76022672653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66719722747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66804265975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65789413452148</t>
+    <t xml:space="preserve">5.76022624969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66719675064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66804218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65789365768433</t>
   </si>
   <si>
     <t xml:space="preserve">5.5851616859436</t>
@@ -4013,28 +4013,28 @@
     <t xml:space="preserve">5.60376739501953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66381406784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62237310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70525360107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62660217285156</t>
+    <t xml:space="preserve">5.66381454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62237358093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70525407791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6266016960144</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052377700806</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81519889831543</t>
+    <t xml:space="preserve">5.81519842147827</t>
   </si>
   <si>
     <t xml:space="preserve">5.84902763366699</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85917663574219</t>
+    <t xml:space="preserve">5.85917615890503</t>
   </si>
   <si>
     <t xml:space="preserve">5.95051383972168</t>
@@ -4043,22 +4043,22 @@
     <t xml:space="preserve">5.92852592468262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95897150039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06553316116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02155447006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8769359588623</t>
+    <t xml:space="preserve">5.95897197723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06553268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02155494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87693643569946</t>
   </si>
   <si>
     <t xml:space="preserve">5.84310722351074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86086702346802</t>
+    <t xml:space="preserve">5.86086750030518</t>
   </si>
   <si>
     <t xml:space="preserve">5.86171388626099</t>
@@ -4073,16 +4073,16 @@
     <t xml:space="preserve">5.75684356689453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80420446395874</t>
+    <t xml:space="preserve">5.80420398712158</t>
   </si>
   <si>
     <t xml:space="preserve">5.92260503768921</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83972501754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79624176025391</t>
+    <t xml:space="preserve">5.83972454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79624128341675</t>
   </si>
   <si>
     <t xml:space="preserve">5.79711151123047</t>
@@ -4091,34 +4091,34 @@
     <t xml:space="preserve">5.95886707305908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.871901512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89712190628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96060705184937</t>
+    <t xml:space="preserve">5.87190198898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89712142944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96060657501221</t>
   </si>
   <si>
     <t xml:space="preserve">5.95625829696655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89538240432739</t>
+    <t xml:space="preserve">5.89538288116455</t>
   </si>
   <si>
     <t xml:space="preserve">5.77363061904907</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59274291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50577735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63274765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5936131477356</t>
+    <t xml:space="preserve">5.59274339675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50577688217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63274717330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59361219406128</t>
   </si>
   <si>
     <t xml:space="preserve">5.56056594848633</t>
@@ -4127,16 +4127,16 @@
     <t xml:space="preserve">5.49621152877808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59100389480591</t>
+    <t xml:space="preserve">5.59100341796875</t>
   </si>
   <si>
     <t xml:space="preserve">5.66144609451294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63709497451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59622144699097</t>
+    <t xml:space="preserve">5.63709545135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59622192382812</t>
   </si>
   <si>
     <t xml:space="preserve">5.47533988952637</t>
@@ -4145,13 +4145,13 @@
     <t xml:space="preserve">5.51708316802979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49099349975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38489580154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69536209106445</t>
+    <t xml:space="preserve">5.49099397659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38489532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69536161422729</t>
   </si>
   <si>
     <t xml:space="preserve">5.73884439468384</t>
@@ -4160,7 +4160,7 @@
     <t xml:space="preserve">5.3692421913147</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36576366424561</t>
+    <t xml:space="preserve">5.36576318740845</t>
   </si>
   <si>
     <t xml:space="preserve">5.17878770828247</t>
@@ -4175,19 +4175,19 @@
     <t xml:space="preserve">4.976158618927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25183916091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99094247817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98137664794922</t>
+    <t xml:space="preserve">5.25183868408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99094295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98137617111206</t>
   </si>
   <si>
     <t xml:space="preserve">5.0605149269104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06660270690918</t>
+    <t xml:space="preserve">5.06660223007202</t>
   </si>
   <si>
     <t xml:space="preserve">5.06486320495605</t>
@@ -4196,19 +4196,19 @@
     <t xml:space="preserve">4.97441911697388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00920534133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06399345397949</t>
+    <t xml:space="preserve">5.00920581817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06399393081665</t>
   </si>
   <si>
     <t xml:space="preserve">4.96485280990601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01790189743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11182451248169</t>
+    <t xml:space="preserve">5.01790237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11182403564453</t>
   </si>
   <si>
     <t xml:space="preserve">5.2848858833313</t>
@@ -4220,22 +4220,22 @@
     <t xml:space="preserve">5.27705860137939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3083667755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3135838508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41968202590942</t>
+    <t xml:space="preserve">5.30836629867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31358432769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41968154907227</t>
   </si>
   <si>
     <t xml:space="preserve">5.39881038665771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36402368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48751449584961</t>
+    <t xml:space="preserve">5.36402463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48751497268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.46751308441162</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">5.39011383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3935923576355</t>
+    <t xml:space="preserve">5.39359283447266</t>
   </si>
   <si>
     <t xml:space="preserve">5.37532997131348</t>
@@ -4256,16 +4256,16 @@
     <t xml:space="preserve">5.36141490936279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22922801971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30749654769897</t>
+    <t xml:space="preserve">5.2292275428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30749702453613</t>
   </si>
   <si>
     <t xml:space="preserve">5.29879999160767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28140687942505</t>
+    <t xml:space="preserve">5.28140735626221</t>
   </si>
   <si>
     <t xml:space="preserve">5.40924596786499</t>
@@ -4277,13 +4277,13 @@
     <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4344654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38663482666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2657527923584</t>
+    <t xml:space="preserve">5.43446636199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663530349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26575326919556</t>
   </si>
   <si>
     <t xml:space="preserve">5.22487926483154</t>
@@ -4295,37 +4295,37 @@
     <t xml:space="preserve">5.08051729202271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20052909851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07703876495361</t>
+    <t xml:space="preserve">5.2005295753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0770378112793</t>
   </si>
   <si>
     <t xml:space="preserve">5.16313362121582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20661640167236</t>
+    <t xml:space="preserve">5.20661687850952</t>
   </si>
   <si>
     <t xml:space="preserve">5.22661924362183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16400337219238</t>
+    <t xml:space="preserve">5.16400384902954</t>
   </si>
   <si>
     <t xml:space="preserve">5.16226434707642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32488965988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33358669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33271598815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37793827056885</t>
+    <t xml:space="preserve">5.32489013671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3335862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3327169418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37793874740601</t>
   </si>
   <si>
     <t xml:space="preserve">5.37967777252197</t>
@@ -4340,25 +4340,25 @@
     <t xml:space="preserve">5.15182828903198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17791843414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13530540466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24314165115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20748662948608</t>
+    <t xml:space="preserve">5.17791795730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13530492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24314212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20748615264893</t>
   </si>
   <si>
     <t xml:space="preserve">5.0839958190918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98224592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76657247543335</t>
+    <t xml:space="preserve">4.98224639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76657199859619</t>
   </si>
   <si>
     <t xml:space="preserve">4.68569421768188</t>
@@ -4367,22 +4367,22 @@
     <t xml:space="preserve">4.63786363601685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83179616928101</t>
+    <t xml:space="preserve">4.83179664611816</t>
   </si>
   <si>
     <t xml:space="preserve">4.69613027572632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73265552520752</t>
+    <t xml:space="preserve">4.73265504837036</t>
   </si>
   <si>
     <t xml:space="preserve">4.77352905273438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75265789031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65351676940918</t>
+    <t xml:space="preserve">4.75265741348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65351724624634</t>
   </si>
   <si>
     <t xml:space="preserve">4.71526193618774</t>
@@ -4397,7 +4397,7 @@
     <t xml:space="preserve">4.76222372055054</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69786930084229</t>
+    <t xml:space="preserve">4.69786882400513</t>
   </si>
   <si>
     <t xml:space="preserve">4.53959226608276</t>
@@ -4406,19 +4406,19 @@
     <t xml:space="preserve">4.62047052383423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59264183044434</t>
+    <t xml:space="preserve">4.59264087677002</t>
   </si>
   <si>
     <t xml:space="preserve">4.41523218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50132751464844</t>
+    <t xml:space="preserve">4.5013279914856</t>
   </si>
   <si>
     <t xml:space="preserve">4.57698726654053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56742143630981</t>
+    <t xml:space="preserve">4.56742095947266</t>
   </si>
   <si>
     <t xml:space="preserve">4.55872488021851</t>
@@ -4427,13 +4427,13 @@
     <t xml:space="preserve">4.5030665397644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4587140083313</t>
+    <t xml:space="preserve">4.45871496200562</t>
   </si>
   <si>
     <t xml:space="preserve">4.2047758102417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34826803207397</t>
+    <t xml:space="preserve">4.34826850891113</t>
   </si>
   <si>
     <t xml:space="preserve">4.43776512145996</t>
@@ -4445,25 +4445,25 @@
     <t xml:space="preserve">4.35550022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29222011566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27052354812622</t>
+    <t xml:space="preserve">4.29222059249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27052402496338</t>
   </si>
   <si>
     <t xml:space="preserve">4.29402828216553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28092002868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27685213088989</t>
+    <t xml:space="preserve">4.28091955184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27685165405273</t>
   </si>
   <si>
     <t xml:space="preserve">4.33335256576538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47754192352295</t>
+    <t xml:space="preserve">4.47754144668579</t>
   </si>
   <si>
     <t xml:space="preserve">4.39708471298218</t>
@@ -4472,37 +4472,37 @@
     <t xml:space="preserve">4.40702867507935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44138097763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47573328018188</t>
+    <t xml:space="preserve">4.44138145446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47573375701904</t>
   </si>
   <si>
     <t xml:space="preserve">4.54895782470703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52726173400879</t>
+    <t xml:space="preserve">4.52726125717163</t>
   </si>
   <si>
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166912078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61223793029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6077184677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60319805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52274179458618</t>
+    <t xml:space="preserve">4.52002954483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55166959762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61223840713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60771799087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60319852828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52274084091187</t>
   </si>
   <si>
     <t xml:space="preserve">4.46126937866211</t>
@@ -4517,7 +4517,7 @@
     <t xml:space="preserve">4.47121334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3686089515686</t>
+    <t xml:space="preserve">4.36860847473145</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
@@ -4526,10 +4526,10 @@
     <t xml:space="preserve">4.35143232345581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24476003646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19684791564941</t>
+    <t xml:space="preserve">4.24475955963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19684743881226</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">4.22848749160767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29312467575073</t>
+    <t xml:space="preserve">4.29312419891357</t>
   </si>
   <si>
     <t xml:space="preserve">4.34465265274048</t>
@@ -4550,31 +4550,31 @@
     <t xml:space="preserve">4.38894891738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51234531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47392559051514</t>
+    <t xml:space="preserve">4.51234579086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47392511367798</t>
   </si>
   <si>
     <t xml:space="preserve">4.44770908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42691707611084</t>
+    <t xml:space="preserve">4.42691659927368</t>
   </si>
   <si>
     <t xml:space="preserve">4.44725704193115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45720148086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37584018707275</t>
+    <t xml:space="preserve">4.45720100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37584066390991</t>
   </si>
   <si>
     <t xml:space="preserve">4.38397693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37041616439819</t>
+    <t xml:space="preserve">4.37041664123535</t>
   </si>
   <si>
     <t xml:space="preserve">4.19820356369019</t>
@@ -4586,19 +4586,19 @@
     <t xml:space="preserve">3.8890335559845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90440130233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84021759033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81852102279663</t>
+    <t xml:space="preserve">3.90440154075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84021735191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81852126121521</t>
   </si>
   <si>
     <t xml:space="preserve">3.93875360488892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03503084182739</t>
+    <t xml:space="preserve">4.03503036499023</t>
   </si>
   <si>
     <t xml:space="preserve">3.90666127204895</t>
@@ -4607,10 +4607,10 @@
     <t xml:space="preserve">3.76970458030701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72586035728455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78688073158264</t>
+    <t xml:space="preserve">3.72586059570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7868812084198</t>
   </si>
   <si>
     <t xml:space="preserve">3.68472838401794</t>
@@ -4628,25 +4628,25 @@
     <t xml:space="preserve">3.81038498878479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84925699234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87230944633484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83388924598694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79185271263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88134932518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95864224433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406579017639</t>
+    <t xml:space="preserve">3.84925723075867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87230968475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83388900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79185247421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88134956359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95864200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406650543213</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791446685791</t>
@@ -4661,46 +4661,46 @@
     <t xml:space="preserve">4.10373497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15164709091187</t>
+    <t xml:space="preserve">4.15164756774902</t>
   </si>
   <si>
     <t xml:space="preserve">4.13492298126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23029565811157</t>
+    <t xml:space="preserve">4.23029518127441</t>
   </si>
   <si>
     <t xml:space="preserve">4.28272819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32476425170898</t>
+    <t xml:space="preserve">4.32476472854614</t>
   </si>
   <si>
     <t xml:space="preserve">4.35640430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52906942367554</t>
+    <t xml:space="preserve">4.5290699005127</t>
   </si>
   <si>
     <t xml:space="preserve">4.56342172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59144639968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61947059631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64568662643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66195917129517</t>
+    <t xml:space="preserve">4.5914454460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61947011947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64568614959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66195869445801</t>
   </si>
   <si>
     <t xml:space="preserve">4.59686994552612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57698202133179</t>
+    <t xml:space="preserve">4.57698249816895</t>
   </si>
   <si>
     <t xml:space="preserve">4.6583423614502</t>
@@ -4712,13 +4712,13 @@
     <t xml:space="preserve">4.5833101272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61585426330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64116621017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74603128433228</t>
+    <t xml:space="preserve">4.61585378646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6411657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74603080749512</t>
   </si>
   <si>
     <t xml:space="preserve">4.761399269104</t>
@@ -4727,7 +4727,7 @@
     <t xml:space="preserve">4.77134323120117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70625495910645</t>
+    <t xml:space="preserve">4.70625448226929</t>
   </si>
   <si>
     <t xml:space="preserve">4.72252702713013</t>
@@ -4742,22 +4742,22 @@
     <t xml:space="preserve">4.69902276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74422311782837</t>
+    <t xml:space="preserve">4.74422359466553</t>
   </si>
   <si>
     <t xml:space="preserve">4.74783897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56975030899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56523036956787</t>
+    <t xml:space="preserve">4.56974983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56522989273071</t>
   </si>
   <si>
     <t xml:space="preserve">4.56161403656006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56251764297485</t>
+    <t xml:space="preserve">4.56251811981201</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
@@ -4769,7 +4769,7 @@
     <t xml:space="preserve">4.61133432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59054183959961</t>
+    <t xml:space="preserve">4.59054231643677</t>
   </si>
   <si>
     <t xml:space="preserve">4.5643253326416</t>
@@ -4784,13 +4784,13 @@
     <t xml:space="preserve">4.79123163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96028089523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95214462280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06333684921265</t>
+    <t xml:space="preserve">4.960280418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95214414596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0633373260498</t>
   </si>
   <si>
     <t xml:space="preserve">5.0615291595459</t>
@@ -4814,19 +4814,19 @@
     <t xml:space="preserve">5.2070746421814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21069049835205</t>
+    <t xml:space="preserve">5.21069002151489</t>
   </si>
   <si>
     <t xml:space="preserve">5.11396169662476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10763311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074348449707</t>
+    <t xml:space="preserve">5.10763359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12262868881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074396133423</t>
   </si>
   <si>
     <t xml:space="preserve">5.13387441635132</t>
@@ -4841,7 +4841,7 @@
     <t xml:space="preserve">5.09170150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05233955383301</t>
+    <t xml:space="preserve">5.05234003067017</t>
   </si>
   <si>
     <t xml:space="preserve">4.94175243377686</t>
@@ -4850,16 +4850,16 @@
     <t xml:space="preserve">5.04390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02516174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0410943031311</t>
+    <t xml:space="preserve">5.0251612663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04109382629395</t>
   </si>
   <si>
     <t xml:space="preserve">5.0223503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01016712188721</t>
+    <t xml:space="preserve">5.01016664505005</t>
   </si>
   <si>
     <t xml:space="preserve">5.00454378128052</t>
@@ -4871,7 +4871,7 @@
     <t xml:space="preserve">5.06358575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04203081130981</t>
+    <t xml:space="preserve">5.04203128814697</t>
   </si>
   <si>
     <t xml:space="preserve">5.04859113693237</t>
@@ -4883,10 +4883,10 @@
     <t xml:space="preserve">5.01672697067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01391506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111391067505</t>
+    <t xml:space="preserve">5.01391553878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111438751221</t>
   </si>
   <si>
     <t xml:space="preserve">4.90988826751709</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">4.92956972122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90520238876343</t>
+    <t xml:space="preserve">4.90520286560059</t>
   </si>
   <si>
     <t xml:space="preserve">4.97267961502075</t>
@@ -4913,7 +4913,7 @@
     <t xml:space="preserve">4.96799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99892044067383</t>
+    <t xml:space="preserve">4.99892091751099</t>
   </si>
   <si>
     <t xml:space="preserve">4.96237087249756</t>
@@ -4922,10 +4922,10 @@
     <t xml:space="preserve">4.98580026626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98486232757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99142360687256</t>
+    <t xml:space="preserve">4.98486280441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9914231300354</t>
   </si>
   <si>
     <t xml:space="preserve">4.89864253997803</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">4.91644859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96330785751343</t>
+    <t xml:space="preserve">4.96330738067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.95487308502197</t>
@@ -4949,19 +4949,19 @@
     <t xml:space="preserve">5.13574886322021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15824174880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327749252319</t>
+    <t xml:space="preserve">5.15824127197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327701568604</t>
   </si>
   <si>
     <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16199016571045</t>
+    <t xml:space="preserve">5.16198968887329</t>
   </si>
   <si>
     <t xml:space="preserve">5.25758218765259</t>
@@ -4979,22 +4979,22 @@
     <t xml:space="preserve">5.30631589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48156881332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5331130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61558532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39534759521484</t>
+    <t xml:space="preserve">5.48156833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53311347961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6155858039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.395348072052</t>
   </si>
   <si>
     <t xml:space="preserve">5.34942626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36067247390747</t>
+    <t xml:space="preserve">5.36067199707031</t>
   </si>
   <si>
     <t xml:space="preserve">5.39722204208374</t>
@@ -5009,13 +5009,13 @@
     <t xml:space="preserve">5.55841779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6493239402771</t>
+    <t xml:space="preserve">5.64932346343994</t>
   </si>
   <si>
     <t xml:space="preserve">5.67556524276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7074294090271</t>
+    <t xml:space="preserve">5.70742893218994</t>
   </si>
   <si>
     <t xml:space="preserve">5.77771759033203</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">5.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71492624282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7158637046814</t>
+    <t xml:space="preserve">5.71492671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71586322784424</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461750030518</t>
@@ -5045,25 +5045,25 @@
     <t xml:space="preserve">5.71024084091187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66431903839111</t>
+    <t xml:space="preserve">5.66431856155396</t>
   </si>
   <si>
     <t xml:space="preserve">5.67743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995218276978</t>
+    <t xml:space="preserve">5.63995170593262</t>
   </si>
   <si>
     <t xml:space="preserve">5.64182615280151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60246515274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53030157089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63151741027832</t>
+    <t xml:space="preserve">5.60246467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53030204772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63151693344116</t>
   </si>
   <si>
     <t xml:space="preserve">5.65963268280029</t>
@@ -5081,7 +5081,7 @@
     <t xml:space="preserve">5.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58278369903564</t>
+    <t xml:space="preserve">5.5827841758728</t>
   </si>
   <si>
     <t xml:space="preserve">5.63432931900024</t>
@@ -5090,25 +5090,25 @@
     <t xml:space="preserve">5.49000310897827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58372163772583</t>
+    <t xml:space="preserve">5.58372116088867</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619300842285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6202712059021</t>
+    <t xml:space="preserve">5.62027168273926</t>
   </si>
   <si>
     <t xml:space="preserve">5.66994190216064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69243431091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69149684906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72710943222046</t>
+    <t xml:space="preserve">5.69243383407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69149732589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72710990905762</t>
   </si>
   <si>
     <t xml:space="preserve">5.68868541717529</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">5.75147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76178503036499</t>
+    <t xml:space="preserve">5.76178550720215</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052949905396</t>
@@ -5138,7 +5138,7 @@
     <t xml:space="preserve">5.84800577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94078683853149</t>
+    <t xml:space="preserve">5.94078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">5.81989049911499</t>
@@ -5159,7 +5159,7 @@
     <t xml:space="preserve">5.83863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93235206604004</t>
+    <t xml:space="preserve">5.9323525428772</t>
   </si>
   <si>
     <t xml:space="preserve">5.84613180160522</t>
@@ -5168,13 +5168,13 @@
     <t xml:space="preserve">5.88268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88080739974976</t>
+    <t xml:space="preserve">5.88080787658691</t>
   </si>
   <si>
     <t xml:space="preserve">5.89861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93797540664673</t>
+    <t xml:space="preserve">5.93797492980957</t>
   </si>
   <si>
     <t xml:space="preserve">5.99507141113281</t>
@@ -5793,6 +5793,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.81300020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7979998588562</t>
   </si>
 </sst>
 </file>
@@ -61878,7 +61881,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6495717593</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>36665760</v>
@@ -61899,6 +61902,32 @@
         <v>1926</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494791667</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>22269197</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>6.86800003051758</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>6.71999979019165</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>6.82999992370605</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>6.7979998588562</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1929">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">2.50832200050354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44580960273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45622801780701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43669295310974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.439297914505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236709594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883274078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43408870697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38980841636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34683084487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37417960166931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30255126953125</t>
+    <t xml:space="preserve">2.44580912590027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45622849464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43669271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43929767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236685752869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883297920227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43408823013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.389808177948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34683108329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37418007850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30255079269409</t>
   </si>
   <si>
     <t xml:space="preserve">2.37678503990173</t>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">2.47836828231812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39111089706421</t>
+    <t xml:space="preserve">2.39111065864563</t>
   </si>
   <si>
     <t xml:space="preserve">2.45362329483032</t>
@@ -107,40 +107,40 @@
     <t xml:space="preserve">2.41064596176147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3624587059021</t>
+    <t xml:space="preserve">2.36245918273926</t>
   </si>
   <si>
     <t xml:space="preserve">2.30906271934509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27780628204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27520227432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29603910446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21268916130066</t>
+    <t xml:space="preserve">2.27780675888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27520155906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29603958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2126886844635</t>
   </si>
   <si>
     <t xml:space="preserve">2.3038535118103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38199424743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36636662483215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37287759780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35724902153015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3689706325531</t>
+    <t xml:space="preserve">2.3819944858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.366366147995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37287735939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35724949836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36897087097168</t>
   </si>
   <si>
     <t xml:space="preserve">2.30515575408936</t>
@@ -149,16 +149,16 @@
     <t xml:space="preserve">2.39892506599426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41194844245911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43539047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41846013069153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38459849357605</t>
+    <t xml:space="preserve">2.41194796562195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43539071083069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41845989227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38459873199463</t>
   </si>
   <si>
     <t xml:space="preserve">2.39371538162231</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">2.54739236831665</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53957843780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53306698799133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53697323799133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55911374092102</t>
+    <t xml:space="preserve">2.5395781993866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53306651115417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53697347640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55911350250244</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999709129333</t>
@@ -191,91 +191,91 @@
     <t xml:space="preserve">2.55260229110718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54348516464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53176403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54609036445618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58646273612976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60469555854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53827595710754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5252525806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50180983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887902259827</t>
+    <t xml:space="preserve">2.54348540306091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5317645072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5460901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58646249771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60469579696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53827571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52525234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50181007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887878417969</t>
   </si>
   <si>
     <t xml:space="preserve">2.38329672813416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44971632957458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46013522148132</t>
+    <t xml:space="preserve">2.44971656799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46013474464417</t>
   </si>
   <si>
     <t xml:space="preserve">2.44190216064453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4887866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49920535087585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55650901794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52655506134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427666664124</t>
+    <t xml:space="preserve">2.48878693580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49920558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55650877952576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52655482292175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427690505981</t>
   </si>
   <si>
     <t xml:space="preserve">2.63985919952393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57734680175781</t>
+    <t xml:space="preserve">2.57734632492065</t>
   </si>
   <si>
     <t xml:space="preserve">2.5760440826416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56302070617676</t>
+    <t xml:space="preserve">2.5630202293396</t>
   </si>
   <si>
     <t xml:space="preserve">2.54088068008423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58516025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860276222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61511421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57213687896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58906745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56562542915344</t>
+    <t xml:space="preserve">2.58516049385071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860323905945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61511468887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57213711738586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58906769752502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56562566757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.59818387031555</t>
@@ -287,19 +287,19 @@
     <t xml:space="preserve">2.64506864547729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65288233757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67372035980225</t>
+    <t xml:space="preserve">2.65288281440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67371964454651</t>
   </si>
   <si>
     <t xml:space="preserve">2.66851091384888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68153405189514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62943983078003</t>
+    <t xml:space="preserve">2.6815345287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62944054603577</t>
   </si>
   <si>
     <t xml:space="preserve">2.63855695724487</t>
@@ -311,34 +311,34 @@
     <t xml:space="preserve">2.67892956733704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68674349784851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68413901329041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59297442436218</t>
+    <t xml:space="preserve">2.68674373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68413853645325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59297490119934</t>
   </si>
   <si>
     <t xml:space="preserve">2.55129957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50701928138733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61771893501282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68282341957092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68960452079773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64891457557678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401858329773</t>
+    <t xml:space="preserve">2.50701999664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61771941184998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68282318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68960499763489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64891481399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401882171631</t>
   </si>
   <si>
     <t xml:space="preserve">2.44139623641968</t>
@@ -347,79 +347,79 @@
     <t xml:space="preserve">2.43190169334412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53769540786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64484620094299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69909906387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69638633728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7004554271698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63263869285583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61500668525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66519093513489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68417954444885</t>
+    <t xml:space="preserve">2.53769564628601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64484572410583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69909930229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69638657569885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70045566558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63263893127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61500644683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66519069671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68417930603027</t>
   </si>
   <si>
     <t xml:space="preserve">2.70588064193726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70723676681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7099494934082</t>
+    <t xml:space="preserve">2.70723700523376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70994997024536</t>
   </si>
   <si>
     <t xml:space="preserve">2.69231748580933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72893881797791</t>
+    <t xml:space="preserve">2.72893834114075</t>
   </si>
   <si>
     <t xml:space="preserve">2.73165059089661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72486925125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72080063819885</t>
+    <t xml:space="preserve">2.72486972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72079992294312</t>
   </si>
   <si>
     <t xml:space="preserve">2.79268622398376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77912259101868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74250221252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73029494285583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74114465713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77640986442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76284670829773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75470805168152</t>
+    <t xml:space="preserve">2.77912282943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74250149726868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73029470443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74114537239075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77640962600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76284694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75470876693726</t>
   </si>
   <si>
     <t xml:space="preserve">2.7492835521698</t>
@@ -431,13 +431,13 @@
     <t xml:space="preserve">2.7831916809082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71808767318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66790342330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67061638832092</t>
+    <t xml:space="preserve">2.7180871963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66790294647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67061591148376</t>
   </si>
   <si>
     <t xml:space="preserve">2.63806414604187</t>
@@ -446,55 +446,55 @@
     <t xml:space="preserve">2.64348936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67197227478027</t>
+    <t xml:space="preserve">2.67197275161743</t>
   </si>
   <si>
     <t xml:space="preserve">2.67332887649536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68011021614075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69774270057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65569663047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6760413646698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7370765209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978877067566</t>
+    <t xml:space="preserve">2.68011045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69774293899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65569639205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67604160308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73707628250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978924751282</t>
   </si>
   <si>
     <t xml:space="preserve">2.72622585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80082440376282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78454780578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74657082557678</t>
+    <t xml:space="preserve">2.80082392692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78454732894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7465705871582</t>
   </si>
   <si>
     <t xml:space="preserve">2.69096088409424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65298342704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65705323219299</t>
+    <t xml:space="preserve">2.65298366546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65705299377441</t>
   </si>
   <si>
     <t xml:space="preserve">2.63128256797791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66247820854187</t>
+    <t xml:space="preserve">2.66247797012329</t>
   </si>
   <si>
     <t xml:space="preserve">2.65162754058838</t>
@@ -506,28 +506,28 @@
     <t xml:space="preserve">2.65976572036743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383457183838</t>
+    <t xml:space="preserve">2.66383481025696</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503021240234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65434050559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61093759536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59601783752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55804061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59737420082092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57296013832092</t>
+    <t xml:space="preserve">2.65434002876282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61093783378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59601807594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55804109573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5973744392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5729603767395</t>
   </si>
   <si>
     <t xml:space="preserve">2.55261516571045</t>
@@ -536,64 +536,64 @@
     <t xml:space="preserve">2.60144305229187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59059286117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68146657943726</t>
+    <t xml:space="preserve">2.59059262275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68146634101868</t>
   </si>
   <si>
     <t xml:space="preserve">2.65027141571045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67468476295471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65840935707092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60822463035583</t>
+    <t xml:space="preserve">2.67468523979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6584095954895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60822486877441</t>
   </si>
   <si>
     <t xml:space="preserve">2.60008716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58923625946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60415577888489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62314438819885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56075382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47259140014648</t>
+    <t xml:space="preserve">2.58923649787903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60415554046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62314414978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56075358390808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47259163856506</t>
   </si>
   <si>
     <t xml:space="preserve">2.4685230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44682145118713</t>
+    <t xml:space="preserve">2.44682121276855</t>
   </si>
   <si>
     <t xml:space="preserve">2.47530460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47666049003601</t>
+    <t xml:space="preserve">2.47666096687317</t>
   </si>
   <si>
     <t xml:space="preserve">2.51192498207092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45224666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47394776344299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55125880241394</t>
+    <t xml:space="preserve">2.45224690437317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47394800186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5512592792511</t>
   </si>
   <si>
     <t xml:space="preserve">2.53905200958252</t>
@@ -602,151 +602,151 @@
     <t xml:space="preserve">2.52820134162903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53362679481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57024765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58652353286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56753540039062</t>
+    <t xml:space="preserve">2.53362703323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57024741172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58652377128601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56753492355347</t>
   </si>
   <si>
     <t xml:space="preserve">2.77234077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76555943489075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72758150100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75063991546631</t>
+    <t xml:space="preserve">2.76555967330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72758197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75063967704773</t>
   </si>
   <si>
     <t xml:space="preserve">2.79404211044312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82252550125122</t>
+    <t xml:space="preserve">2.82252526283264</t>
   </si>
   <si>
     <t xml:space="preserve">2.80489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8198127746582</t>
+    <t xml:space="preserve">2.81981229782104</t>
   </si>
   <si>
     <t xml:space="preserve">2.84015774726868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86321496963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659459114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066320419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8347315788269</t>
+    <t xml:space="preserve">2.86321520805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659435272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066344261169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473134040833</t>
   </si>
   <si>
     <t xml:space="preserve">2.81574368476868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79539895057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80218052864075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82388210296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81031847000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81303071975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80760526657104</t>
+    <t xml:space="preserve">2.79539823532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80218029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82388138771057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81031775474548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81303095817566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80760550498962</t>
   </si>
   <si>
     <t xml:space="preserve">2.8311755657196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82562971115112</t>
+    <t xml:space="preserve">2.82563042640686</t>
   </si>
   <si>
     <t xml:space="preserve">2.78126239776611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76046562194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72719049453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66895818710327</t>
+    <t xml:space="preserve">2.76046538352966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72719025611877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66895842552185</t>
   </si>
   <si>
     <t xml:space="preserve">2.67866373062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68004965782166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69391512870789</t>
+    <t xml:space="preserve">2.68005013465881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69391489028931</t>
   </si>
   <si>
     <t xml:space="preserve">2.71471214294434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66202616691589</t>
+    <t xml:space="preserve">2.66202545166016</t>
   </si>
   <si>
     <t xml:space="preserve">2.68559598922729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79928684234619</t>
+    <t xml:space="preserve">2.79928708076477</t>
   </si>
   <si>
     <t xml:space="preserve">2.80621886253357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79512739181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78680872917175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7438280582428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7854220867157</t>
+    <t xml:space="preserve">2.79512715339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78680849075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74382781982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78542256355286</t>
   </si>
   <si>
     <t xml:space="preserve">2.80067300796509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77433061599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77987623214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7549192905426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7729434967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.814537525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80899214744568</t>
+    <t xml:space="preserve">2.77433037757874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77987694740295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75492000579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77294373512268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81453776359558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80899238586426</t>
   </si>
   <si>
     <t xml:space="preserve">2.83672189712524</t>
@@ -755,208 +755,208 @@
     <t xml:space="preserve">2.86029195785522</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86445093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86999654769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.890793800354</t>
+    <t xml:space="preserve">2.86445069313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86999678611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89079332351685</t>
   </si>
   <si>
     <t xml:space="preserve">2.90327215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89772605895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89911246299744</t>
+    <t xml:space="preserve">2.89772582054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89911270141602</t>
   </si>
   <si>
     <t xml:space="preserve">2.88247513771057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94625234603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91852307319641</t>
+    <t xml:space="preserve">2.9462525844574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91852331161499</t>
   </si>
   <si>
     <t xml:space="preserve">2.9046585559845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92545509338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9823009967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97259569168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98784756660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00864434242249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01696276664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0280544757843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994367599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0585572719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05301094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.039146900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05023813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01834917068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03637361526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498673439026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032567977905</t>
+    <t xml:space="preserve">2.92545580863953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98230051994324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97259521484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98784708976746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00864386558533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01696300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02805471420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994343757629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05855703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05301070213318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03914570808411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05023837089539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01834964752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03637313842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032520294189</t>
   </si>
   <si>
     <t xml:space="preserve">2.94070720672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9809148311615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08628630638123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07103538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05578422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04885125160217</t>
+    <t xml:space="preserve">2.98091506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08628678321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07103514671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05578398704529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04885149002075</t>
   </si>
   <si>
     <t xml:space="preserve">3.02528142929077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06687545776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380819320679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14313173294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363476753235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16670179367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15422391891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16808819770813</t>
+    <t xml:space="preserve">3.06687569618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380795478821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14313197135925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363429069519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16670227050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15422320365906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16808843612671</t>
   </si>
   <si>
     <t xml:space="preserve">3.16254234313965</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1653151512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16947460174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24573135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522808074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711751937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27900576591492</t>
+    <t xml:space="preserve">3.16531491279602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16947507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24573111534119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829558372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522831916809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24711728096008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900624275208</t>
   </si>
   <si>
     <t xml:space="preserve">3.31782674789429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28593802452087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3067352771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307790756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25820875167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27762031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29841685295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31505393981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26791405677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3136682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32475972175598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42597222328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39546990394592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35803508758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36219429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496734619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37189912796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072058677673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41903972625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39131021499634</t>
+    <t xml:space="preserve">3.28593826293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30673551559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25820851325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27761936187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29841613769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31505489349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26791381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31366848945618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32475924491882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42597198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3954701423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35803484916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36219477653503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496782302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37189960479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41904020309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39131045341492</t>
   </si>
   <si>
     <t xml:space="preserve">3.45231533050537</t>
@@ -965,61 +965,61 @@
     <t xml:space="preserve">3.4148805141449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4315173625946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32753205299377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3552622795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28732490539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404953956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29980325698853</t>
+    <t xml:space="preserve">3.43151783943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32753252983093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35526275634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28732514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404930114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29980301856995</t>
   </si>
   <si>
     <t xml:space="preserve">3.28871130943298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25127673149109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27207350730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32614588737488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32060098648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37744545936584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44676923751831</t>
+    <t xml:space="preserve">3.25127625465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27207374572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32614612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32060027122498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37744617462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44676899909973</t>
   </si>
   <si>
     <t xml:space="preserve">3.44538259506226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41210699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43845009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44260954856873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40378761291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43203592300415</t>
+    <t xml:space="preserve">3.41210794448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43845057487488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44261002540588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4037880897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43203520774841</t>
   </si>
   <si>
     <t xml:space="preserve">3.38825225830078</t>
@@ -1031,43 +1031,43 @@
     <t xml:space="preserve">3.4532208442688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39955163002014</t>
+    <t xml:space="preserve">3.39955139160156</t>
   </si>
   <si>
     <t xml:space="preserve">3.40661311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45180892944336</t>
+    <t xml:space="preserve">3.45180869102478</t>
   </si>
   <si>
     <t xml:space="preserve">3.44615912437439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48853015899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5181896686554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5379626750946</t>
+    <t xml:space="preserve">3.48853087425232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960206031799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51818919181824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53796339035034</t>
   </si>
   <si>
     <t xml:space="preserve">3.51254034042358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4772310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55208587646484</t>
+    <t xml:space="preserve">3.47723078727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55208611488342</t>
   </si>
   <si>
     <t xml:space="preserve">3.5768027305603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58033442497253</t>
+    <t xml:space="preserve">3.5803337097168</t>
   </si>
   <si>
     <t xml:space="preserve">3.55914783477783</t>
@@ -1076,178 +1076,178 @@
     <t xml:space="preserve">3.51677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58739519119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798765182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092545509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62976551055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60858082771301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211133003235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.633296251297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66507482528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6544828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860628128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388966560364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60504984855652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63682746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61564207077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61917352676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60151886940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56620955467224</t>
+    <t xml:space="preserve">3.58739495277405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59092593193054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62976622581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60858035087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211037635803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63329696655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66507577896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65448236465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66860699653625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388942718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60505032539368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63682842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.615642786026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61917304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60151863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56620979309082</t>
   </si>
   <si>
     <t xml:space="preserve">3.50689077377319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56267952919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58386445045471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64742040634155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154408454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64035868644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801310539246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68626093864441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73569321632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73216271400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75687837600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76040959358215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80278015136719</t>
+    <t xml:space="preserve">3.56267881393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58386468887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64742088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095162391663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64035892486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801382064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73569273948669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73216199874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7568781375885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76040887832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80278038978577</t>
   </si>
   <si>
     <t xml:space="preserve">3.78865623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7957181930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80631136894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80984258651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512573242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72510051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71097707748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71803879737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7392246723175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272972106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979096412659</t>
+    <t xml:space="preserve">3.79571866989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80631113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80984234809875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512644767761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747107505798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72510099411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71097660064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803832054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73922324180603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68272995948792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68979215621948</t>
   </si>
   <si>
     <t xml:space="preserve">3.74981641769409</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78159403800964</t>
+    <t xml:space="preserve">3.78159523010254</t>
   </si>
   <si>
     <t xml:space="preserve">3.81690430641174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86633658409119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221314430237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218769073486</t>
+    <t xml:space="preserve">3.86633634567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221242904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218792915344</t>
   </si>
   <si>
     <t xml:space="preserve">3.86280512809753</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90164542198181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91929960250854</t>
+    <t xml:space="preserve">3.90164566040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91930031776428</t>
   </si>
   <si>
     <t xml:space="preserve">3.94048523902893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89105272293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8310272693634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334811210632</t>
+    <t xml:space="preserve">3.89105296134949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8310284614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574316978455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75334763526917</t>
   </si>
   <si>
     <t xml:space="preserve">3.70038366317749</t>
@@ -1256,37 +1256,37 @@
     <t xml:space="preserve">3.62270402908325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77100253105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275517463684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79190707206726</t>
+    <t xml:space="preserve">3.7710018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275493621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79190683364868</t>
   </si>
   <si>
     <t xml:space="preserve">3.77390122413635</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73068857192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71628403663635</t>
+    <t xml:space="preserve">3.73068952560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71628475189209</t>
   </si>
   <si>
     <t xml:space="preserve">3.69035744667053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6500256061554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027424812317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64858484268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57944464683533</t>
+    <t xml:space="preserve">3.65002584457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64858508110046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57944488525391</t>
   </si>
   <si>
     <t xml:space="preserve">3.53551197052002</t>
@@ -1295,55 +1295,55 @@
     <t xml:space="preserve">3.43468260765076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51030516624451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40083336830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33745408058167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37634563446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35185885429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44260501861572</t>
+    <t xml:space="preserve">3.51030468940735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40083289146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33745431900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37634587287903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185861587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4426052570343</t>
   </si>
   <si>
     <t xml:space="preserve">3.45124745368958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50022196769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116473197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43540334701538</t>
+    <t xml:space="preserve">3.50022149085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116425514221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43540287017822</t>
   </si>
   <si>
     <t xml:space="preserve">3.3849880695343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48221683502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47573447227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365664482117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188475608826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964100837708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401916503906</t>
+    <t xml:space="preserve">3.48221659660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47573494911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365688323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44188523292542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4296407699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401940345764</t>
   </si>
   <si>
     <t xml:space="preserve">3.38570880889893</t>
@@ -1352,439 +1352,439 @@
     <t xml:space="preserve">3.40587449073792</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44044470787048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581743240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4829363822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077630996704</t>
+    <t xml:space="preserve">3.44044375419617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581838607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48293662071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077583312988</t>
   </si>
   <si>
     <t xml:space="preserve">3.50742363929749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49301958084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51750588417053</t>
+    <t xml:space="preserve">3.4930202960968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51750731468201</t>
   </si>
   <si>
     <t xml:space="preserve">3.55063605308533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51174545288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45412802696228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49374079704285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44692587852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45484852790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58304595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56864166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57440328598022</t>
+    <t xml:space="preserve">3.5117449760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4541277885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49373984336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44692611694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45484900474548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58304572105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56864190101624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440304756165</t>
   </si>
   <si>
     <t xml:space="preserve">3.63706159591675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63418054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65578699111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64570379257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68171548843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315482139587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933172225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348737716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7465341091156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73357033729553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830671310425</t>
+    <t xml:space="preserve">3.63418126106262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65578746795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64570426940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6817147731781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933148384094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348713874817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74653339385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73356962203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830528259277</t>
   </si>
   <si>
     <t xml:space="preserve">3.78110361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79406762123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592342376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151841163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049268722534</t>
+    <t xml:space="preserve">3.7940673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151817321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905240058899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88049244880676</t>
   </si>
   <si>
     <t xml:space="preserve">3.78398466110229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65434646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65146660804749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6788341999054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70044040679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56288027763367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58880686759949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52758932113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5283100605011</t>
+    <t xml:space="preserve">3.65434670448303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65146613121033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67883396148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70044016838074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56288051605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5888078212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52758979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52831029891968</t>
   </si>
   <si>
     <t xml:space="preserve">3.51606607437134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51246523857117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49950170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955828666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39363074302673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3108069896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42243885993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3871488571167</t>
+    <t xml:space="preserve">3.51246476173401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49950194358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955780982971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39363121986389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31080651283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42243933677673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38714861869812</t>
   </si>
   <si>
     <t xml:space="preserve">3.40947532653809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4476466178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38426852226257</t>
+    <t xml:space="preserve">3.44764685630798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38426733016968</t>
   </si>
   <si>
     <t xml:space="preserve">3.37130451202393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30864524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42820119857788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44332480430603</t>
+    <t xml:space="preserve">3.30864548683167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42820048332214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44332504272461</t>
   </si>
   <si>
     <t xml:space="preserve">3.5095841884613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.508864402771</t>
+    <t xml:space="preserve">3.50886487960815</t>
   </si>
   <si>
     <t xml:space="preserve">3.48149609565735</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47933554649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47429490089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39435076713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41811752319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37202405929565</t>
+    <t xml:space="preserve">3.47933602333069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47429394721985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39435029029846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41811800003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37202501296997</t>
   </si>
   <si>
     <t xml:space="preserve">3.39795231819153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.436842918396</t>
+    <t xml:space="preserve">3.43684315681458</t>
   </si>
   <si>
     <t xml:space="preserve">3.41451692581177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42603969573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41667747497559</t>
+    <t xml:space="preserve">3.42603993415833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41667699813843</t>
   </si>
   <si>
     <t xml:space="preserve">3.47213363647461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45989012718201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590039253235</t>
+    <t xml:space="preserve">3.45989036560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590110778809</t>
   </si>
   <si>
     <t xml:space="preserve">3.51822710037231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49518060684204</t>
+    <t xml:space="preserve">3.49518036842346</t>
   </si>
   <si>
     <t xml:space="preserve">3.49013876914978</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46493101119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49085879325867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51462602615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53263139724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53119087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53335213661194</t>
+    <t xml:space="preserve">3.46493172645569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310254096985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49085903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51462578773499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53263068199158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5311906337738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5333514213562</t>
   </si>
   <si>
     <t xml:space="preserve">3.49856567382812</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47192144393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45119786262512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46229982376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49042415618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48080277442932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53039145469666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346790313721</t>
+    <t xml:space="preserve">3.47192120552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45119762420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46230006217957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49042439460754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48080253601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5303909778595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346814155579</t>
   </si>
   <si>
     <t xml:space="preserve">3.32685708999634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3498010635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35054087638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420771598816</t>
+    <t xml:space="preserve">3.34980034828186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35054111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39420819282532</t>
   </si>
   <si>
     <t xml:space="preserve">3.39272809028625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37718558311462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761361122131</t>
+    <t xml:space="preserve">3.3771858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761337280273</t>
   </si>
   <si>
     <t xml:space="preserve">3.29059100151062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31427478790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27948927879333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27504825592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26394605636597</t>
+    <t xml:space="preserve">3.31427502632141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27948904037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27504801750183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26394653320312</t>
   </si>
   <si>
     <t xml:space="preserve">3.29873204231262</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28466963768005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24692392349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024580001831</t>
+    <t xml:space="preserve">3.28467011451721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24692368507385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024627685547</t>
   </si>
   <si>
     <t xml:space="preserve">3.2476634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22397994995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23508167266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18919372558594</t>
+    <t xml:space="preserve">3.22397947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23508143424988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1891942024231</t>
   </si>
   <si>
     <t xml:space="preserve">3.1529278755188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14034581184387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17587161064148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17513108253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24026226997375</t>
+    <t xml:space="preserve">3.14034628868103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1758713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17513179779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24026250839233</t>
   </si>
   <si>
     <t xml:space="preserve">3.25802516937256</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37496519088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37348484992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34387969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37422513961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682295799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34091925621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3660831451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42899394035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236665725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40382981300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41271138191223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38976740837097</t>
+    <t xml:space="preserve">3.37496471405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37348461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34387993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37422490119934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682343482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34091949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608409881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42899465560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3823664188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4038302898407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41271114349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38976788520813</t>
   </si>
   <si>
     <t xml:space="preserve">3.26542663574219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24322247505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26320600509644</t>
+    <t xml:space="preserve">3.24322295188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26320672035217</t>
   </si>
   <si>
     <t xml:space="preserve">3.34609985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30095267295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27356767654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952174186707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878240585327</t>
+    <t xml:space="preserve">3.30095243453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27356791496277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952221870422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878192901611</t>
   </si>
   <si>
     <t xml:space="preserve">3.21657848358154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17365121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29651165008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26690697669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22916030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27874898910522</t>
+    <t xml:space="preserve">3.17365097999573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29651188850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26690721511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22916007041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27874875068665</t>
   </si>
   <si>
     <t xml:space="preserve">3.28392958641052</t>
@@ -1793,85 +1793,85 @@
     <t xml:space="preserve">3.26468634605408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24174284934998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2565450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20769691467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24100255966187</t>
+    <t xml:space="preserve">3.2417426109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25654530525208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20769739151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24100303649902</t>
   </si>
   <si>
     <t xml:space="preserve">3.26172590255737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26986718177795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30835366249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797528266907</t>
+    <t xml:space="preserve">3.26986765861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30835342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797552108765</t>
   </si>
   <si>
     <t xml:space="preserve">3.32611656188965</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29503107070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33055782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37644505500793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40309000015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44823670387268</t>
+    <t xml:space="preserve">3.29503130912781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33055758476257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37644529342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40308952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823694229126</t>
   </si>
   <si>
     <t xml:space="preserve">3.44675707817078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4822826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51928925514221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52595043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53779196739197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52150893211365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5451934337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56295680999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.551114320755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57479882240295</t>
+    <t xml:space="preserve">3.48228311538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51928901672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52594995498657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53779220581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52150964736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54519319534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56295657157898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55111408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57479810714722</t>
   </si>
   <si>
     <t xml:space="preserve">3.5133683681488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51410865783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966739654541</t>
+    <t xml:space="preserve">3.51410794258118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966811180115</t>
   </si>
   <si>
     <t xml:space="preserve">3.55777549743652</t>
@@ -1883,13 +1883,13 @@
     <t xml:space="preserve">3.71542191505432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71394228935242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7109808921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70950102806091</t>
+    <t xml:space="preserve">3.7139413356781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71098160743713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70950126647949</t>
   </si>
   <si>
     <t xml:space="preserve">3.79239463806152</t>
@@ -1898,31 +1898,31 @@
     <t xml:space="preserve">3.81015729904175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83828210830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73614525794983</t>
+    <t xml:space="preserve">3.83828234672546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73614549636841</t>
   </si>
   <si>
     <t xml:space="preserve">3.73318529129028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76278924942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76427054405212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81607913970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459879875183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83088111877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8219997882843</t>
+    <t xml:space="preserve">3.76279020309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76426982879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81607937812805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459856033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83088135719299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82200002670288</t>
   </si>
   <si>
     <t xml:space="preserve">3.88565015792847</t>
@@ -1931,100 +1931,100 @@
     <t xml:space="preserve">3.84864354133606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85604596138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86344623565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86196637153625</t>
+    <t xml:space="preserve">3.85604500770569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86344647407532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86196660995483</t>
   </si>
   <si>
     <t xml:space="preserve">3.878249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92857766151428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9422607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9331386089325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90273118019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93769931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94682192802429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92553687095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98482966423035</t>
+    <t xml:space="preserve">3.9285774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94226098060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93313789367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90273141860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93769860267639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682145118713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92553615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483085632324</t>
   </si>
   <si>
     <t xml:space="preserve">3.9787495136261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00307416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93009829521179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94074034690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121102333069</t>
+    <t xml:space="preserve">4.00307512283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93009805679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94073987007141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121126174927</t>
   </si>
   <si>
     <t xml:space="preserve">3.8784065246582</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90729260444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95138263702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96506571769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96202516555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98026943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266721725464</t>
+    <t xml:space="preserve">3.90729284286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95138359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9650661945343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9620246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98026990890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635053634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266745567322</t>
   </si>
   <si>
     <t xml:space="preserve">3.97722864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98787117004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01219654083252</t>
+    <t xml:space="preserve">3.9878716468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01219701766968</t>
   </si>
   <si>
     <t xml:space="preserve">4.03804302215576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02892065048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04412412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03956365585327</t>
+    <t xml:space="preserve">4.02892112731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04412460327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03956270217896</t>
   </si>
   <si>
     <t xml:space="preserve">4.03196144104004</t>
@@ -2036,37 +2036,37 @@
     <t xml:space="preserve">4.10341739654541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18247556686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16879320144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15054893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17943525314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17031335830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17183256149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15815019607544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19615888595581</t>
+    <t xml:space="preserve">4.18247604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15054798126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17031288146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17183303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15814924240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19615936279297</t>
   </si>
   <si>
     <t xml:space="preserve">4.21440315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2417688369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28281784057617</t>
+    <t xml:space="preserve">4.24176931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28281879425049</t>
   </si>
   <si>
     <t xml:space="preserve">4.27217626571655</t>
@@ -2075,22 +2075,22 @@
     <t xml:space="preserve">4.33451080322266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34363269805908</t>
+    <t xml:space="preserve">4.34363317489624</t>
   </si>
   <si>
     <t xml:space="preserve">4.32234716415405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33603096008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3010630607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30334281921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33907127380371</t>
+    <t xml:space="preserve">4.33603191375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30106258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30334329605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33907175064087</t>
   </si>
   <si>
     <t xml:space="preserve">4.32918882369995</t>
@@ -2102,19 +2102,19 @@
     <t xml:space="preserve">4.31474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30258274078369</t>
+    <t xml:space="preserve">4.30258321762085</t>
   </si>
   <si>
     <t xml:space="preserve">4.28966045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26457452774048</t>
+    <t xml:space="preserve">4.26457405090332</t>
   </si>
   <si>
     <t xml:space="preserve">4.24252939224243</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16347122192383</t>
+    <t xml:space="preserve">4.16347217559814</t>
   </si>
   <si>
     <t xml:space="preserve">4.19691896438599</t>
@@ -2126,40 +2126,40 @@
     <t xml:space="preserve">4.19539880752563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18399620056152</t>
+    <t xml:space="preserve">4.18399572372437</t>
   </si>
   <si>
     <t xml:space="preserve">4.20984220504761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24556970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22124528884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28661966323853</t>
+    <t xml:space="preserve">4.24557018280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22124481201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28662014007568</t>
   </si>
   <si>
     <t xml:space="preserve">4.23948812484741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25317144393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22732543945312</t>
+    <t xml:space="preserve">4.25317192077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22732591629028</t>
   </si>
   <si>
     <t xml:space="preserve">4.25849342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23872900009155</t>
+    <t xml:space="preserve">4.23872852325439</t>
   </si>
   <si>
     <t xml:space="preserve">4.21972417831421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18627691268921</t>
+    <t xml:space="preserve">4.18627643585205</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796844482422</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">4.24937105178833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27901792526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32538747787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38696146011353</t>
+    <t xml:space="preserve">4.27901840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32538890838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.386962890625</t>
   </si>
   <si>
     <t xml:space="preserve">4.38012075424194</t>
@@ -2189,13 +2189,13 @@
     <t xml:space="preserve">4.40064573287964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22428512573242</t>
+    <t xml:space="preserve">4.22428464889526</t>
   </si>
   <si>
     <t xml:space="preserve">4.23416757583618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761436462402</t>
+    <t xml:space="preserve">4.26761484146118</t>
   </si>
   <si>
     <t xml:space="preserve">4.33983182907104</t>
@@ -2207,19 +2207,19 @@
     <t xml:space="preserve">4.4135684967041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47818279266357</t>
+    <t xml:space="preserve">4.47818422317505</t>
   </si>
   <si>
     <t xml:space="preserve">4.4302921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44549608230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4774227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55420064926147</t>
+    <t xml:space="preserve">4.44549560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47742223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55420112609863</t>
   </si>
   <si>
     <t xml:space="preserve">4.61425447463989</t>
@@ -2237,124 +2237,124 @@
     <t xml:space="preserve">4.70547533035278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73740291595459</t>
+    <t xml:space="preserve">4.73740243911743</t>
   </si>
   <si>
     <t xml:space="preserve">4.73208093643188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71383666992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61805486679077</t>
+    <t xml:space="preserve">4.71383762359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61805534362793</t>
   </si>
   <si>
     <t xml:space="preserve">4.62489652633667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66746616363525</t>
+    <t xml:space="preserve">4.66746664047241</t>
   </si>
   <si>
     <t xml:space="preserve">4.65682411193848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75868797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87119245529175</t>
+    <t xml:space="preserve">4.75868844985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87119388580322</t>
   </si>
   <si>
     <t xml:space="preserve">4.90084028244019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86511182785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87271356582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87195348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88487672805786</t>
+    <t xml:space="preserve">4.86511135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87271308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87195301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88487577438354</t>
   </si>
   <si>
     <t xml:space="preserve">4.94873094558716</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90388011932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95101070404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597955703735</t>
+    <t xml:space="preserve">4.90388059616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93504667282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95101165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9859790802002</t>
   </si>
   <si>
     <t xml:space="preserve">4.77997207641602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87715816497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87793493270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92147397994995</t>
+    <t xml:space="preserve">4.87715768814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8779354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92147445678711</t>
   </si>
   <si>
     <t xml:space="preserve">4.85694313049316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82817602157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85616540908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79629993438721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81962442398071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85150051116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81884670257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76131200790405</t>
+    <t xml:space="preserve">4.82817649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85616588592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79629945755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81962394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85150098800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81884622573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76131248474121</t>
   </si>
   <si>
     <t xml:space="preserve">4.76908779144287</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77375173568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69289398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7146635055542</t>
+    <t xml:space="preserve">4.77375268936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69289350509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71466398239136</t>
   </si>
   <si>
     <t xml:space="preserve">4.72554874420166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67190217971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88648748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94402170181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84839057922363</t>
+    <t xml:space="preserve">4.67190170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88648843765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94402122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84839105606079</t>
   </si>
   <si>
     <t xml:space="preserve">4.91214418411255</t>
@@ -2363,25 +2363,25 @@
     <t xml:space="preserve">4.88570976257324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83828401565552</t>
+    <t xml:space="preserve">4.83828353881836</t>
   </si>
   <si>
     <t xml:space="preserve">5.05286931991577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05442428588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15627431869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12672996520996</t>
+    <t xml:space="preserve">5.05442380905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15627479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1267294883728</t>
   </si>
   <si>
     <t xml:space="preserve">5.19359350204468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19437122344971</t>
+    <t xml:space="preserve">5.19437170028687</t>
   </si>
   <si>
     <t xml:space="preserve">5.23868751525879</t>
@@ -2390,52 +2390,52 @@
     <t xml:space="preserve">5.1819314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14694499969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08863401412964</t>
+    <t xml:space="preserve">5.14694452285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08863353729248</t>
   </si>
   <si>
     <t xml:space="preserve">5.04587173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00855302810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14150238037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12517595291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03965139389038</t>
+    <t xml:space="preserve">5.00855255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14150285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12517547607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0396523475647</t>
   </si>
   <si>
     <t xml:space="preserve">5.06686401367188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17026948928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14305734634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11273622512817</t>
+    <t xml:space="preserve">5.17027044296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14305686950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11273527145386</t>
   </si>
   <si>
     <t xml:space="preserve">5.18659639358521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26201248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23246812820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31177043914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27600717544556</t>
+    <t xml:space="preserve">5.26201295852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23246765136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31177139282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2760066986084</t>
   </si>
   <si>
     <t xml:space="preserve">5.32654333114624</t>
@@ -2456,34 +2456,34 @@
     <t xml:space="preserve">5.32187843322754</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26512241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29855489730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26123523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28689241409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27056503295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31643676757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29078006744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26356792449951</t>
+    <t xml:space="preserve">5.26512289047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29855442047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26123476028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28689193725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27056455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31643581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29077959060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356744766235</t>
   </si>
   <si>
     <t xml:space="preserve">5.30866146087646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24413061141968</t>
+    <t xml:space="preserve">5.24413013458252</t>
   </si>
   <si>
     <t xml:space="preserve">5.3280987739563</t>
@@ -2492,28 +2492,28 @@
     <t xml:space="preserve">5.34909152984619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33665084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34287071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36697244644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39574003219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41750907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3724160194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36386346817017</t>
+    <t xml:space="preserve">5.33665037155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34287023544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36697196960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3957405090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41750860214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37241554260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36386299133301</t>
   </si>
   <si>
     <t xml:space="preserve">5.24957275390625</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">5.33354139328003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42917156219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38796472549438</t>
+    <t xml:space="preserve">5.42917203903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38796520233154</t>
   </si>
   <si>
     <t xml:space="preserve">5.3452033996582</t>
@@ -2537,49 +2537,49 @@
     <t xml:space="preserve">5.33509588241577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36308431625366</t>
+    <t xml:space="preserve">5.36308574676514</t>
   </si>
   <si>
     <t xml:space="preserve">5.31021642684937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29000186920166</t>
+    <t xml:space="preserve">5.29000234603882</t>
   </si>
   <si>
     <t xml:space="preserve">5.26745510101318</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24801826477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31799173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34209394454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33043098449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528299331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19126176834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22702598571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23324537277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32265615463257</t>
+    <t xml:space="preserve">5.24801731109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31799125671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34209299087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33043146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19126129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22702550888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23324632644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32265663146973</t>
   </si>
   <si>
     <t xml:space="preserve">5.38407754898071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45016384124756</t>
+    <t xml:space="preserve">5.4501633644104</t>
   </si>
   <si>
     <t xml:space="preserve">5.42839431762695</t>
@@ -2603,37 +2603,37 @@
     <t xml:space="preserve">5.60721492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60643815994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61809968948364</t>
+    <t xml:space="preserve">5.60643768310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6181001663208</t>
   </si>
   <si>
     <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65230989456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6795220375061</t>
+    <t xml:space="preserve">5.65230941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67952156066895</t>
   </si>
   <si>
     <t xml:space="preserve">5.76659917831421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75338268280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76971054077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91743135452271</t>
+    <t xml:space="preserve">5.75338220596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76970958709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91743183135986</t>
   </si>
   <si>
     <t xml:space="preserve">6.00606489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05687618255615</t>
+    <t xml:space="preserve">6.05687665939331</t>
   </si>
   <si>
     <t xml:space="preserve">6.0417914390564</t>
@@ -2645,85 +2645,85 @@
     <t xml:space="preserve">6.04973030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20772218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09260272979736</t>
+    <t xml:space="preserve">6.20772171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09260320663452</t>
   </si>
   <si>
     <t xml:space="preserve">6.27123641967773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35856866836548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42128992080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23630380630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32443046569824</t>
+    <t xml:space="preserve">6.35856819152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42128944396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23630428314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32442998886108</t>
   </si>
   <si>
     <t xml:space="preserve">6.35142278671265</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40699768066406</t>
+    <t xml:space="preserve">6.40699815750122</t>
   </si>
   <si>
     <t xml:space="preserve">6.45463371276855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49194765090942</t>
+    <t xml:space="preserve">6.49194860458374</t>
   </si>
   <si>
     <t xml:space="preserve">6.51020908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50465154647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45622205734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51576566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134199142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.664231300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72218799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8007869720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69519376754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70392799377441</t>
+    <t xml:space="preserve">6.50465202331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45622158050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51576614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5713415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66423082351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72218656539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80078649520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69519424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70392751693726</t>
   </si>
   <si>
     <t xml:space="preserve">6.37524080276489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19660758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31569719314575</t>
+    <t xml:space="preserve">6.19660711288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31569671630859</t>
   </si>
   <si>
     <t xml:space="preserve">6.28473377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01479768753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06560945510864</t>
+    <t xml:space="preserve">6.01479816436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06560897827148</t>
   </si>
   <si>
     <t xml:space="preserve">6.18708038330078</t>
@@ -2732,13 +2732,13 @@
     <t xml:space="preserve">6.54196548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46654319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26488542556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64165163040161</t>
+    <t xml:space="preserve">6.46654367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26488494873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64165210723877</t>
   </si>
   <si>
     <t xml:space="preserve">5.32249307632446</t>
@@ -2759,10 +2759,10 @@
     <t xml:space="preserve">4.54126787185669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67623519897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62859916687012</t>
+    <t xml:space="preserve">4.67623472213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62860012054443</t>
   </si>
   <si>
     <t xml:space="preserve">4.6754412651062</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">4.98507308959961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88662672042847</t>
+    <t xml:space="preserve">4.88662719726562</t>
   </si>
   <si>
     <t xml:space="preserve">5.07002401351929</t>
@@ -2789,37 +2789,37 @@
     <t xml:space="preserve">5.0327091217041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81755447387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87868642807007</t>
+    <t xml:space="preserve">4.81755399703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87868595123291</t>
   </si>
   <si>
     <t xml:space="preserve">4.81834840774536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87471675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06128978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98983669281006</t>
+    <t xml:space="preserve">4.87471771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06129026412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98983716964722</t>
   </si>
   <si>
     <t xml:space="preserve">5.12321710586548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11845302581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92791128158569</t>
+    <t xml:space="preserve">5.11845350265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92791080474854</t>
   </si>
   <si>
     <t xml:space="preserve">4.96125555038452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92949914932251</t>
+    <t xml:space="preserve">4.92949819564819</t>
   </si>
   <si>
     <t xml:space="preserve">4.91600131988525</t>
@@ -2834,22 +2834,22 @@
     <t xml:space="preserve">4.70481729507446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68417549133301</t>
+    <t xml:space="preserve">4.68417501449585</t>
   </si>
   <si>
     <t xml:space="preserve">4.81914234161377</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88265657424927</t>
+    <t xml:space="preserve">4.88265609741211</t>
   </si>
   <si>
     <t xml:space="preserve">4.97792768478394</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95093393325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76912546157837</t>
+    <t xml:space="preserve">4.95093441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76912498474121</t>
   </si>
   <si>
     <t xml:space="preserve">4.83343267440796</t>
@@ -2861,40 +2861,40 @@
     <t xml:space="preserve">4.91282606124878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92235279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82708120346069</t>
+    <t xml:space="preserve">4.92235326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82708168029785</t>
   </si>
   <si>
     <t xml:space="preserve">4.78738594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67147159576416</t>
+    <t xml:space="preserve">4.67147254943848</t>
   </si>
   <si>
     <t xml:space="preserve">4.57381868362427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73498630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79294347763062</t>
+    <t xml:space="preserve">4.73498582839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79294300079346</t>
   </si>
   <si>
     <t xml:space="preserve">4.96363735198975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02556324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08907842636108</t>
+    <t xml:space="preserve">5.02556371688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08907794952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.16847133636475</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17323446273804</t>
+    <t xml:space="preserve">5.17323398590088</t>
   </si>
   <si>
     <t xml:space="preserve">5.22880887985229</t>
@@ -2903,19 +2903,19 @@
     <t xml:space="preserve">5.39235830307007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47889709472656</t>
+    <t xml:space="preserve">5.4788966178894</t>
   </si>
   <si>
     <t xml:space="preserve">5.55590772628784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70754861831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95763540267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94255113601685</t>
+    <t xml:space="preserve">5.70754718780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9576358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94255018234253</t>
   </si>
   <si>
     <t xml:space="preserve">6.01638603210449</t>
@@ -2924,55 +2924,55 @@
     <t xml:space="preserve">6.01559209823608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9878044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96398687362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81710958480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8314003944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84489727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00685882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95842838287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93302297592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03385162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137071609497</t>
+    <t xml:space="preserve">5.98780345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96398639678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81711006164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83139991760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84489774703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00685787200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95842885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93302345275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03385210037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137119293213</t>
   </si>
   <si>
     <t xml:space="preserve">6.05290651321411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08386945724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06481456756592</t>
+    <t xml:space="preserve">6.08386898040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06481552124023</t>
   </si>
   <si>
     <t xml:space="preserve">6.13229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09577894210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30934476852417</t>
+    <t xml:space="preserve">6.095778465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483240127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30934524536133</t>
   </si>
   <si>
     <t xml:space="preserve">6.25138807296753</t>
@@ -2984,10 +2984,10 @@
     <t xml:space="preserve">6.3315749168396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41970205307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30061197280884</t>
+    <t xml:space="preserve">6.41970157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30061149597168</t>
   </si>
   <si>
     <t xml:space="preserve">6.44828224182129</t>
@@ -2999,22 +2999,22 @@
     <t xml:space="preserve">6.48559713363647</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55228805541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69043111801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74146413803101</t>
+    <t xml:space="preserve">6.55228853225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69043064117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74146461486816</t>
   </si>
   <si>
     <t xml:space="preserve">6.74794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63777542114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58916997909546</t>
+    <t xml:space="preserve">6.63777589797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58917045593262</t>
   </si>
   <si>
     <t xml:space="preserve">6.4352560043335</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">6.39961290359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46036863327026</t>
+    <t xml:space="preserve">6.46036815643311</t>
   </si>
   <si>
     <t xml:space="preserve">6.26757001876831</t>
@@ -3038,40 +3038,40 @@
     <t xml:space="preserve">6.36396932601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37450075149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3453369140625</t>
+    <t xml:space="preserve">6.3745002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34533786773682</t>
   </si>
   <si>
     <t xml:space="preserve">6.26189947128296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33075571060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37126016616821</t>
+    <t xml:space="preserve">6.33075618743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37125968933105</t>
   </si>
   <si>
     <t xml:space="preserve">6.45145750045776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56972885131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48710107803345</t>
+    <t xml:space="preserve">6.5697283744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48710155487061</t>
   </si>
   <si>
     <t xml:space="preserve">6.38746166229248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32508563995361</t>
+    <t xml:space="preserve">6.32508516311646</t>
   </si>
   <si>
     <t xml:space="preserve">6.30888366699219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28215169906616</t>
+    <t xml:space="preserve">6.282151222229</t>
   </si>
   <si>
     <t xml:space="preserve">6.26270914077759</t>
@@ -3080,31 +3080,31 @@
     <t xml:space="preserve">6.37206983566284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32184505462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31698513031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17036008834839</t>
+    <t xml:space="preserve">6.32184553146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3169846534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17036056518555</t>
   </si>
   <si>
     <t xml:space="preserve">6.18899250030518</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14767789840698</t>
+    <t xml:space="preserve">6.1476788520813</t>
   </si>
   <si>
     <t xml:space="preserve">6.07882165908813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19547271728516</t>
+    <t xml:space="preserve">6.195472240448</t>
   </si>
   <si>
     <t xml:space="preserve">6.14038705825806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00429487228394</t>
+    <t xml:space="preserve">6.00429439544678</t>
   </si>
   <si>
     <t xml:space="preserve">6.15091896057129</t>
@@ -3122,16 +3122,16 @@
     <t xml:space="preserve">6.20519399642944</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12499666213989</t>
+    <t xml:space="preserve">6.12499618530273</t>
   </si>
   <si>
     <t xml:space="preserve">6.18008136749268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1363377571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97837257385254</t>
+    <t xml:space="preserve">6.13633680343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9783730506897</t>
   </si>
   <si>
     <t xml:space="preserve">6.01077508926392</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">5.93057727813721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04317855834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97027158737183</t>
+    <t xml:space="preserve">6.04317903518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97027206420898</t>
   </si>
   <si>
     <t xml:space="preserve">5.94191884994507</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">6.04965877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98971366882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96541118621826</t>
+    <t xml:space="preserve">5.98971319198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9654107093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.15334939956665</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">6.11365556716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0950231552124</t>
+    <t xml:space="preserve">6.09502363204956</t>
   </si>
   <si>
     <t xml:space="preserve">6.22706604003906</t>
@@ -3185,16 +3185,16 @@
     <t xml:space="preserve">6.24731779098511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04560804367065</t>
+    <t xml:space="preserve">6.04560899734497</t>
   </si>
   <si>
     <t xml:space="preserve">6.09745359420776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05046844482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14200830459595</t>
+    <t xml:space="preserve">6.05046892166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14200782775879</t>
   </si>
   <si>
     <t xml:space="preserve">6.08773231506348</t>
@@ -3203,40 +3203,40 @@
     <t xml:space="preserve">6.0350775718689</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13147640228271</t>
+    <t xml:space="preserve">6.13147735595703</t>
   </si>
   <si>
     <t xml:space="preserve">5.99052333831787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63003873825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61950778961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53607034683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65920257568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84632921218872</t>
+    <t xml:space="preserve">5.63003921508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61950731277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53606986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65920209884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84633016586304</t>
   </si>
   <si>
     <t xml:space="preserve">5.96865129470825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16549968719482</t>
+    <t xml:space="preserve">6.16550016403198</t>
   </si>
   <si>
     <t xml:space="preserve">6.52193403244019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51869440078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65235662460327</t>
+    <t xml:space="preserve">6.5186939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65235710144043</t>
   </si>
   <si>
     <t xml:space="preserve">6.54542636871338</t>
@@ -3248,28 +3248,28 @@
     <t xml:space="preserve">6.55271673202515</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57134914398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57944965362549</t>
+    <t xml:space="preserve">6.57135009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5794506072998</t>
   </si>
   <si>
     <t xml:space="preserve">6.61347246170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66936826705933</t>
+    <t xml:space="preserve">6.66936874389648</t>
   </si>
   <si>
     <t xml:space="preserve">6.81923294067383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87512969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86135673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88727855682373</t>
+    <t xml:space="preserve">6.87512922286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86135768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88727903366089</t>
   </si>
   <si>
     <t xml:space="preserve">6.780348777771</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">6.70906209945679</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64992618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64749717712402</t>
+    <t xml:space="preserve">6.64992570877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64749670028687</t>
   </si>
   <si>
     <t xml:space="preserve">6.6272439956665</t>
@@ -3296,13 +3296,13 @@
     <t xml:space="preserve">6.57782936096191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65073680877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52031326293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51707410812378</t>
+    <t xml:space="preserve">6.6507363319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52031373977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51707363128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.61185264587402</t>
@@ -3314,67 +3314,67 @@
     <t xml:space="preserve">6.53813600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70015144348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76009798049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70420217514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85082626342773</t>
+    <t xml:space="preserve">6.70015096664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76009750366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70420169830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85082578659058</t>
   </si>
   <si>
     <t xml:space="preserve">6.80060148239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23318243026733</t>
+    <t xml:space="preserve">7.23318195343018</t>
   </si>
   <si>
     <t xml:space="preserve">7.11005163192749</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24047231674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24857378005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111209869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1554160118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17647695541382</t>
+    <t xml:space="preserve">7.2404727935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24857330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22994327545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17647743225098</t>
   </si>
   <si>
     <t xml:space="preserve">7.09466361999512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08557319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0888786315918</t>
+    <t xml:space="preserve">7.08557271957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08887910842896</t>
   </si>
   <si>
     <t xml:space="preserve">6.99053621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89632749557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88806247711182</t>
+    <t xml:space="preserve">6.89632701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88806295394897</t>
   </si>
   <si>
     <t xml:space="preserve">6.9417781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81038045883179</t>
+    <t xml:space="preserve">6.81038093566895</t>
   </si>
   <si>
     <t xml:space="preserve">6.94260501861572</t>
@@ -3389,37 +3389,37 @@
     <t xml:space="preserve">6.77649831771851</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06739187240601</t>
+    <t xml:space="preserve">7.06739282608032</t>
   </si>
   <si>
     <t xml:space="preserve">7.07069730758667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98061990737915</t>
+    <t xml:space="preserve">6.98061895370483</t>
   </si>
   <si>
     <t xml:space="preserve">7.02441883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84591674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401437759399</t>
+    <t xml:space="preserve">6.84591627120972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87401294708252</t>
   </si>
   <si>
     <t xml:space="preserve">6.99301528930664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99797487258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99549579620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86161804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77319240570068</t>
+    <t xml:space="preserve">6.99797391891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99549531936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86161851882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.773193359375</t>
   </si>
   <si>
     <t xml:space="preserve">6.67485094070435</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">6.59221124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54510593414307</t>
+    <t xml:space="preserve">6.54510545730591</t>
   </si>
   <si>
     <t xml:space="preserve">6.47899341583252</t>
@@ -3440,22 +3440,22 @@
     <t xml:space="preserve">6.56741857528687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44759035110474</t>
+    <t xml:space="preserve">6.44759082794189</t>
   </si>
   <si>
     <t xml:space="preserve">6.30214357376099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48147249221802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50626468658447</t>
+    <t xml:space="preserve">6.48147296905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50626516342163</t>
   </si>
   <si>
     <t xml:space="preserve">6.68063497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69633769989014</t>
+    <t xml:space="preserve">6.69633722305298</t>
   </si>
   <si>
     <t xml:space="preserve">6.78889465332031</t>
@@ -3470,10 +3470,10 @@
     <t xml:space="preserve">6.76079654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80790138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74509477615356</t>
+    <t xml:space="preserve">6.80790233612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74509525299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.66410779953003</t>
@@ -3488,28 +3488,28 @@
     <t xml:space="preserve">6.96326494216919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97648763656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96409177780151</t>
+    <t xml:space="preserve">6.976487159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96409130096436</t>
   </si>
   <si>
     <t xml:space="preserve">7.0302038192749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96904993057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01863384246826</t>
+    <t xml:space="preserve">6.96904945373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01863431930542</t>
   </si>
   <si>
     <t xml:space="preserve">6.970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06904458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09549045562744</t>
+    <t xml:space="preserve">7.06904411315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09548997879028</t>
   </si>
   <si>
     <t xml:space="preserve">7.14920568466187</t>
@@ -3518,25 +3518,25 @@
     <t xml:space="preserve">7.10210037231445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09053134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12441492080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03185653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135675430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15581798553467</t>
+    <t xml:space="preserve">7.09053182601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12441444396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03185606002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15581703186035</t>
   </si>
   <si>
     <t xml:space="preserve">7.15829563140869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06987142562866</t>
+    <t xml:space="preserve">7.0698709487915</t>
   </si>
   <si>
     <t xml:space="preserve">7.01367664337158</t>
@@ -3545,16 +3545,16 @@
     <t xml:space="preserve">7.2045750617981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21862363815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1401162147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98144674301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89054298400879</t>
+    <t xml:space="preserve">7.21862411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14011573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98144578933716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89054155349731</t>
   </si>
   <si>
     <t xml:space="preserve">6.83186769485474</t>
@@ -3569,40 +3569,40 @@
     <t xml:space="preserve">6.85004758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83269309997559</t>
+    <t xml:space="preserve">6.83269357681274</t>
   </si>
   <si>
     <t xml:space="preserve">6.83765268325806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60460710525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68724679946899</t>
+    <t xml:space="preserve">6.60460662841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">6.77980422973633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74096298217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71699810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58312082290649</t>
+    <t xml:space="preserve">6.74096250534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7169976234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58312034606934</t>
   </si>
   <si>
     <t xml:space="preserve">6.67237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76658201217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74261617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74922704696655</t>
+    <t xml:space="preserve">6.7665810585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74261665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74922657012939</t>
   </si>
   <si>
     <t xml:space="preserve">6.73269939422607</t>
@@ -3617,64 +3617,64 @@
     <t xml:space="preserve">6.59551620483398</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5219669342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55419635772705</t>
+    <t xml:space="preserve">6.52196645736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55419683456421</t>
   </si>
   <si>
     <t xml:space="preserve">6.61369752883911</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62113523483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62196063995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57898855209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62939929962158</t>
+    <t xml:space="preserve">6.62113475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62196111679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57898902893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62939882278442</t>
   </si>
   <si>
     <t xml:space="preserve">6.69551086425781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67732954025269</t>
+    <t xml:space="preserve">6.67733001708984</t>
   </si>
   <si>
     <t xml:space="preserve">6.78724193572998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67650365829468</t>
+    <t xml:space="preserve">6.67650413513184</t>
   </si>
   <si>
     <t xml:space="preserve">6.65584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71038627624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70046901702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58725261688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63931560516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61865520477295</t>
+    <t xml:space="preserve">6.71038579940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70046949386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58725166320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63931608200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61865568161011</t>
   </si>
   <si>
     <t xml:space="preserve">6.58973121643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64262104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47238159179688</t>
+    <t xml:space="preserve">6.6426215171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47238302230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.48643112182617</t>
@@ -3683,91 +3683,91 @@
     <t xml:space="preserve">6.4880838394165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53353595733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56245994567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51452875137329</t>
+    <t xml:space="preserve">6.53353643417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56246042251587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51452922821045</t>
   </si>
   <si>
     <t xml:space="preserve">6.54841136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66245555877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65914916992188</t>
+    <t xml:space="preserve">6.6624550819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65914869308472</t>
   </si>
   <si>
     <t xml:space="preserve">6.63105154037476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55502223968506</t>
+    <t xml:space="preserve">6.55502319335938</t>
   </si>
   <si>
     <t xml:space="preserve">6.61948204040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43088579177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43849754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60510492324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942686080933</t>
+    <t xml:space="preserve">6.43088626861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43849658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60510444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83429622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73365449905396</t>
+    <t xml:space="preserve">6.83429670333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73365497589111</t>
   </si>
   <si>
     <t xml:space="preserve">6.81230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77847814559937</t>
+    <t xml:space="preserve">6.77847862243652</t>
   </si>
   <si>
     <t xml:space="preserve">6.57973337173462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54505825042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50700044631958</t>
+    <t xml:space="preserve">6.5450587272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50700092315674</t>
   </si>
   <si>
     <t xml:space="preserve">6.51461267471313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55605316162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56197214126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59495639801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58649873733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62455654144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63385915756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67191696166992</t>
+    <t xml:space="preserve">6.55605220794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56197261810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5949559211731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58649921417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62455701828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63385963439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67191743850708</t>
   </si>
   <si>
     <t xml:space="preserve">6.63639640808105</t>
@@ -3776,34 +3776,34 @@
     <t xml:space="preserve">6.57719564437866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64316272735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69982624053955</t>
+    <t xml:space="preserve">6.6431622505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69982576370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.76663827896118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62371015548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56366395950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49346971511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4943151473999</t>
+    <t xml:space="preserve">6.62371063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56366443634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49346923828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">6.55267000198364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52645254135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60003042221069</t>
+    <t xml:space="preserve">6.52645301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002994537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.53068113327026</t>
@@ -3821,28 +3821,28 @@
     <t xml:space="preserve">6.36830234527588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2372145652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3420844078064</t>
+    <t xml:space="preserve">6.23721504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34208488464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.2879581451416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94121122360229</t>
+    <t xml:space="preserve">5.94121074676514</t>
   </si>
   <si>
     <t xml:space="preserve">5.92091417312622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88539361953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.784752368927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83465099334717</t>
+    <t xml:space="preserve">5.88539409637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78475284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83465051651001</t>
   </si>
   <si>
     <t xml:space="preserve">5.86932468414307</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">5.9352912902832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87524509429932</t>
+    <t xml:space="preserve">5.87524557113647</t>
   </si>
   <si>
     <t xml:space="preserve">5.7822151184082</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">5.69087743759155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69848823547363</t>
+    <t xml:space="preserve">5.69848871231079</t>
   </si>
   <si>
     <t xml:space="preserve">5.6900315284729</t>
@@ -3881,13 +3881,13 @@
     <t xml:space="preserve">5.85156440734863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70694589614868</t>
+    <t xml:space="preserve">5.70694637298584</t>
   </si>
   <si>
     <t xml:space="preserve">5.72132349014282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77629518508911</t>
+    <t xml:space="preserve">5.77629566192627</t>
   </si>
   <si>
     <t xml:space="preserve">5.8405704498291</t>
@@ -3896,46 +3896,46 @@
     <t xml:space="preserve">5.9885721206665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09767007827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06637811660767</t>
+    <t xml:space="preserve">6.09767055511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06637859344482</t>
   </si>
   <si>
     <t xml:space="preserve">6.02747535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97165727615356</t>
+    <t xml:space="preserve">5.97165775299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.0426983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10274457931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14841413497925</t>
+    <t xml:space="preserve">6.10274505615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14841365814209</t>
   </si>
   <si>
     <t xml:space="preserve">6.11965942382812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16109991073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11543035507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13657331466675</t>
+    <t xml:space="preserve">6.16109943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11543083190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13657379150391</t>
   </si>
   <si>
     <t xml:space="preserve">6.13319110870361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16871166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08498477935791</t>
+    <t xml:space="preserve">6.16871118545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08498430252075</t>
   </si>
   <si>
     <t xml:space="preserve">5.99956655502319</t>
@@ -3953,25 +3953,25 @@
     <t xml:space="preserve">5.99364614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97757768630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95558881759644</t>
+    <t xml:space="preserve">5.97757720947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95558834075928</t>
   </si>
   <si>
     <t xml:space="preserve">5.87778186798096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8794732093811</t>
+    <t xml:space="preserve">5.87947368621826</t>
   </si>
   <si>
     <t xml:space="preserve">5.8414158821106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95812559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04608154296875</t>
+    <t xml:space="preserve">5.95812606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04608201980591</t>
   </si>
   <si>
     <t xml:space="preserve">5.76445531845093</t>
@@ -3986,10 +3986,10 @@
     <t xml:space="preserve">5.71286630630493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57332181930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51919555664062</t>
+    <t xml:space="preserve">5.57332134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51919507980347</t>
   </si>
   <si>
     <t xml:space="preserve">5.68580293655396</t>
@@ -3998,13 +3998,13 @@
     <t xml:space="preserve">5.76022624969482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66719675064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66804218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65789365768433</t>
+    <t xml:space="preserve">5.66719722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66804265975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65789413452148</t>
   </si>
   <si>
     <t xml:space="preserve">5.5851616859436</t>
@@ -4019,19 +4019,19 @@
     <t xml:space="preserve">5.62237358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70525407791138</t>
+    <t xml:space="preserve">5.70525455474854</t>
   </si>
   <si>
     <t xml:space="preserve">5.6266016960144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78052377700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81519842147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84902763366699</t>
+    <t xml:space="preserve">5.7805233001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81519794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84902811050415</t>
   </si>
   <si>
     <t xml:space="preserve">5.85917615890503</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">5.92852592468262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95897197723389</t>
+    <t xml:space="preserve">5.95897102355957</t>
   </si>
   <si>
     <t xml:space="preserve">6.06553268432617</t>
@@ -4052,7 +4052,7 @@
     <t xml:space="preserve">6.02155494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87693643569946</t>
+    <t xml:space="preserve">5.87693691253662</t>
   </si>
   <si>
     <t xml:space="preserve">5.84310722351074</t>
@@ -4070,16 +4070,16 @@
     <t xml:space="preserve">5.8870849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75684356689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80420398712158</t>
+    <t xml:space="preserve">5.75684404373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8042049407959</t>
   </si>
   <si>
     <t xml:space="preserve">5.92260503768921</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83972454071045</t>
+    <t xml:space="preserve">5.83972501754761</t>
   </si>
   <si>
     <t xml:space="preserve">5.79624128341675</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">5.89712142944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060657501221</t>
+    <t xml:space="preserve">5.96060609817505</t>
   </si>
   <si>
     <t xml:space="preserve">5.95625829696655</t>
@@ -4106,22 +4106,22 @@
     <t xml:space="preserve">5.89538288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77363061904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59274339675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50577688217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63274717330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59361219406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56056594848633</t>
+    <t xml:space="preserve">5.77363109588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59274291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50577735900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63274765014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59361267089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56056547164917</t>
   </si>
   <si>
     <t xml:space="preserve">5.49621152877808</t>
@@ -4130,34 +4130,34 @@
     <t xml:space="preserve">5.59100341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66144609451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63709545135498</t>
+    <t xml:space="preserve">5.66144561767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63709497451782</t>
   </si>
   <si>
     <t xml:space="preserve">5.59622192382812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47533988952637</t>
+    <t xml:space="preserve">5.47533941268921</t>
   </si>
   <si>
     <t xml:space="preserve">5.51708316802979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49099397659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38489532470703</t>
+    <t xml:space="preserve">5.49099349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38489580154419</t>
   </si>
   <si>
     <t xml:space="preserve">5.69536161422729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73884439468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3692421913147</t>
+    <t xml:space="preserve">5.738844871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36924171447754</t>
   </si>
   <si>
     <t xml:space="preserve">5.36576318740845</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">5.17878770828247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93093633651733</t>
+    <t xml:space="preserve">4.93093681335449</t>
   </si>
   <si>
     <t xml:space="preserve">4.8361439704895</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">5.25183868408203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99094295501709</t>
+    <t xml:space="preserve">4.99094247817993</t>
   </si>
   <si>
     <t xml:space="preserve">4.98137617111206</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">5.06660223007202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06486320495605</t>
+    <t xml:space="preserve">5.0648627281189</t>
   </si>
   <si>
     <t xml:space="preserve">4.97441911697388</t>
@@ -4205,7 +4205,7 @@
     <t xml:space="preserve">4.96485280990601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01790237426758</t>
+    <t xml:space="preserve">5.01790189743042</t>
   </si>
   <si>
     <t xml:space="preserve">5.11182403564453</t>
@@ -4217,10 +4217,10 @@
     <t xml:space="preserve">5.30227851867676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27705860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30836629867554</t>
+    <t xml:space="preserve">5.27705812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3083667755127</t>
   </si>
   <si>
     <t xml:space="preserve">5.31358432769775</t>
@@ -4229,25 +4229,25 @@
     <t xml:space="preserve">5.41968154907227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39881038665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36402463912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48751497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46751308441162</t>
+    <t xml:space="preserve">5.39880990982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36402416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48751449584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46751260757446</t>
   </si>
   <si>
     <t xml:space="preserve">5.43359661102295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39011383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39359283447266</t>
+    <t xml:space="preserve">5.39011335372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3935923576355</t>
   </si>
   <si>
     <t xml:space="preserve">5.37532997131348</t>
@@ -4256,22 +4256,22 @@
     <t xml:space="preserve">5.36141490936279</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2292275428772</t>
+    <t xml:space="preserve">5.22922801971436</t>
   </si>
   <si>
     <t xml:space="preserve">5.30749702453613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29879999160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28140735626221</t>
+    <t xml:space="preserve">5.29879951477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28140687942505</t>
   </si>
   <si>
     <t xml:space="preserve">5.40924596786499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40750646591187</t>
+    <t xml:space="preserve">5.40750694274902</t>
   </si>
   <si>
     <t xml:space="preserve">5.36837196350098</t>
@@ -4280,7 +4280,7 @@
     <t xml:space="preserve">5.43446636199951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38663530349731</t>
+    <t xml:space="preserve">5.386634349823</t>
   </si>
   <si>
     <t xml:space="preserve">5.26575326919556</t>
@@ -4295,13 +4295,13 @@
     <t xml:space="preserve">5.08051729202271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2005295753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0770378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16313362121582</t>
+    <t xml:space="preserve">5.20052909851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07703828811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16313409805298</t>
   </si>
   <si>
     <t xml:space="preserve">5.20661687850952</t>
@@ -4310,7 +4310,7 @@
     <t xml:space="preserve">5.22661924362183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16400384902954</t>
+    <t xml:space="preserve">5.1640043258667</t>
   </si>
   <si>
     <t xml:space="preserve">5.16226434707642</t>
@@ -4319,13 +4319,13 @@
     <t xml:space="preserve">5.32489013671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3335862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3327169418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37793874740601</t>
+    <t xml:space="preserve">5.33358669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33271646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37793827056885</t>
   </si>
   <si>
     <t xml:space="preserve">5.37967777252197</t>
@@ -4340,25 +4340,25 @@
     <t xml:space="preserve">5.15182828903198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17791795730591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13530492782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24314212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20748615264893</t>
+    <t xml:space="preserve">5.17791843414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13530540466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24314165115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20748662948608</t>
   </si>
   <si>
     <t xml:space="preserve">5.0839958190918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98224639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76657199859619</t>
+    <t xml:space="preserve">4.98224592208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76657152175903</t>
   </si>
   <si>
     <t xml:space="preserve">4.68569421768188</t>
@@ -4370,7 +4370,7 @@
     <t xml:space="preserve">4.83179664611816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69613027572632</t>
+    <t xml:space="preserve">4.69612979888916</t>
   </si>
   <si>
     <t xml:space="preserve">4.73265504837036</t>
@@ -4382,7 +4382,7 @@
     <t xml:space="preserve">4.75265741348267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65351724624634</t>
+    <t xml:space="preserve">4.65351676940918</t>
   </si>
   <si>
     <t xml:space="preserve">4.71526193618774</t>
@@ -4394,13 +4394,13 @@
     <t xml:space="preserve">4.70395708084106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76222372055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69786882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53959226608276</t>
+    <t xml:space="preserve">4.76222324371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69786930084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53959274291992</t>
   </si>
   <si>
     <t xml:space="preserve">4.62047052383423</t>
@@ -4409,7 +4409,7 @@
     <t xml:space="preserve">4.59264087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41523218154907</t>
+    <t xml:space="preserve">4.41523170471191</t>
   </si>
   <si>
     <t xml:space="preserve">4.5013279914856</t>
@@ -4424,16 +4424,16 @@
     <t xml:space="preserve">4.55872488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5030665397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45871496200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2047758102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34826850891113</t>
+    <t xml:space="preserve">4.50306701660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45871448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20477533340454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34826803207397</t>
   </si>
   <si>
     <t xml:space="preserve">4.43776512145996</t>
@@ -4445,25 +4445,25 @@
     <t xml:space="preserve">4.35550022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29222059249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27052402496338</t>
+    <t xml:space="preserve">4.29222011566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27052354812622</t>
   </si>
   <si>
     <t xml:space="preserve">4.29402828216553</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28091955184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27685165405273</t>
+    <t xml:space="preserve">4.28092002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27685213088989</t>
   </si>
   <si>
     <t xml:space="preserve">4.33335256576538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47754144668579</t>
+    <t xml:space="preserve">4.47754192352295</t>
   </si>
   <si>
     <t xml:space="preserve">4.39708471298218</t>
@@ -4472,37 +4472,37 @@
     <t xml:space="preserve">4.40702867507935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44138145446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47573375701904</t>
+    <t xml:space="preserve">4.44138097763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47573328018188</t>
   </si>
   <si>
     <t xml:space="preserve">4.54895782470703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52726125717163</t>
+    <t xml:space="preserve">4.52726173400879</t>
   </si>
   <si>
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002954483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166959762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61223840713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60771799087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60319852828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52274084091187</t>
+    <t xml:space="preserve">4.52002906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55166912078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61223793029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6077184677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60319805145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52274179458618</t>
   </si>
   <si>
     <t xml:space="preserve">4.46126937866211</t>
@@ -4517,7 +4517,7 @@
     <t xml:space="preserve">4.47121334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36860847473145</t>
+    <t xml:space="preserve">4.3686089515686</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
@@ -4526,10 +4526,10 @@
     <t xml:space="preserve">4.35143232345581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24475955963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19684743881226</t>
+    <t xml:space="preserve">4.24476003646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19684791564941</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">4.22848749160767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29312419891357</t>
+    <t xml:space="preserve">4.29312467575073</t>
   </si>
   <si>
     <t xml:space="preserve">4.34465265274048</t>
@@ -4550,31 +4550,31 @@
     <t xml:space="preserve">4.38894891738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51234579086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47392511367798</t>
+    <t xml:space="preserve">4.51234531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47392559051514</t>
   </si>
   <si>
     <t xml:space="preserve">4.44770908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42691659927368</t>
+    <t xml:space="preserve">4.42691707611084</t>
   </si>
   <si>
     <t xml:space="preserve">4.44725704193115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45720100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37584066390991</t>
+    <t xml:space="preserve">4.45720148086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37584018707275</t>
   </si>
   <si>
     <t xml:space="preserve">4.38397693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37041664123535</t>
+    <t xml:space="preserve">4.37041616439819</t>
   </si>
   <si>
     <t xml:space="preserve">4.19820356369019</t>
@@ -4586,19 +4586,19 @@
     <t xml:space="preserve">3.8890335559845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90440154075623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84021735191345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81852126121521</t>
+    <t xml:space="preserve">3.90440130233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84021759033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81852102279663</t>
   </si>
   <si>
     <t xml:space="preserve">3.93875360488892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03503036499023</t>
+    <t xml:space="preserve">4.03503084182739</t>
   </si>
   <si>
     <t xml:space="preserve">3.90666127204895</t>
@@ -4607,10 +4607,10 @@
     <t xml:space="preserve">3.76970458030701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72586059570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7868812084198</t>
+    <t xml:space="preserve">3.72586035728455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78688073158264</t>
   </si>
   <si>
     <t xml:space="preserve">3.68472838401794</t>
@@ -4628,25 +4628,25 @@
     <t xml:space="preserve">3.81038498878479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84925723075867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87230968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83388900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79185247421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88134956359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95864200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406650543213</t>
+    <t xml:space="preserve">3.84925699234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87230944633484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83388924598694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79185271263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88134932518005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95864224433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406579017639</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791446685791</t>
@@ -4661,46 +4661,46 @@
     <t xml:space="preserve">4.10373497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15164756774902</t>
+    <t xml:space="preserve">4.15164709091187</t>
   </si>
   <si>
     <t xml:space="preserve">4.13492298126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23029518127441</t>
+    <t xml:space="preserve">4.23029565811157</t>
   </si>
   <si>
     <t xml:space="preserve">4.28272819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32476472854614</t>
+    <t xml:space="preserve">4.32476425170898</t>
   </si>
   <si>
     <t xml:space="preserve">4.35640430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5290699005127</t>
+    <t xml:space="preserve">4.52906942367554</t>
   </si>
   <si>
     <t xml:space="preserve">4.56342172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5914454460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61947011947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64568614959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66195869445801</t>
+    <t xml:space="preserve">4.59144639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61947059631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64568662643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66195917129517</t>
   </si>
   <si>
     <t xml:space="preserve">4.59686994552612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57698249816895</t>
+    <t xml:space="preserve">4.57698202133179</t>
   </si>
   <si>
     <t xml:space="preserve">4.6583423614502</t>
@@ -4712,13 +4712,13 @@
     <t xml:space="preserve">4.5833101272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61585378646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6411657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74603080749512</t>
+    <t xml:space="preserve">4.61585426330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64116621017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74603128433228</t>
   </si>
   <si>
     <t xml:space="preserve">4.761399269104</t>
@@ -4727,7 +4727,7 @@
     <t xml:space="preserve">4.77134323120117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70625448226929</t>
+    <t xml:space="preserve">4.70625495910645</t>
   </si>
   <si>
     <t xml:space="preserve">4.72252702713013</t>
@@ -4742,22 +4742,22 @@
     <t xml:space="preserve">4.69902276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74422359466553</t>
+    <t xml:space="preserve">4.74422311782837</t>
   </si>
   <si>
     <t xml:space="preserve">4.74783897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56974983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56522989273071</t>
+    <t xml:space="preserve">4.56975030899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56523036956787</t>
   </si>
   <si>
     <t xml:space="preserve">4.56161403656006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56251811981201</t>
+    <t xml:space="preserve">4.56251764297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
@@ -4769,7 +4769,7 @@
     <t xml:space="preserve">4.61133432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59054231643677</t>
+    <t xml:space="preserve">4.59054183959961</t>
   </si>
   <si>
     <t xml:space="preserve">4.5643253326416</t>
@@ -4784,13 +4784,13 @@
     <t xml:space="preserve">4.79123163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.960280418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95214414596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0633373260498</t>
+    <t xml:space="preserve">4.96028089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95214462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06333684921265</t>
   </si>
   <si>
     <t xml:space="preserve">5.0615291595459</t>
@@ -4814,19 +4814,19 @@
     <t xml:space="preserve">5.2070746421814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21069002151489</t>
+    <t xml:space="preserve">5.21069049835205</t>
   </si>
   <si>
     <t xml:space="preserve">5.11396169662476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10763359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12262868881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074396133423</t>
+    <t xml:space="preserve">5.10763311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1226282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074348449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.13387441635132</t>
@@ -4841,7 +4841,7 @@
     <t xml:space="preserve">5.09170150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05234003067017</t>
+    <t xml:space="preserve">5.05233955383301</t>
   </si>
   <si>
     <t xml:space="preserve">4.94175243377686</t>
@@ -4850,16 +4850,16 @@
     <t xml:space="preserve">5.04390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0251612663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04109382629395</t>
+    <t xml:space="preserve">5.02516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0410943031311</t>
   </si>
   <si>
     <t xml:space="preserve">5.0223503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01016664505005</t>
+    <t xml:space="preserve">5.01016712188721</t>
   </si>
   <si>
     <t xml:space="preserve">5.00454378128052</t>
@@ -4871,7 +4871,7 @@
     <t xml:space="preserve">5.06358575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04203128814697</t>
+    <t xml:space="preserve">5.04203081130981</t>
   </si>
   <si>
     <t xml:space="preserve">5.04859113693237</t>
@@ -4883,10 +4883,10 @@
     <t xml:space="preserve">5.01672697067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01391553878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111438751221</t>
+    <t xml:space="preserve">5.01391506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.90988826751709</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">4.92956972122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90520286560059</t>
+    <t xml:space="preserve">4.90520238876343</t>
   </si>
   <si>
     <t xml:space="preserve">4.97267961502075</t>
@@ -4913,7 +4913,7 @@
     <t xml:space="preserve">4.96799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99892091751099</t>
+    <t xml:space="preserve">4.99892044067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.96237087249756</t>
@@ -4922,10 +4922,10 @@
     <t xml:space="preserve">4.98580026626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98486280441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9914231300354</t>
+    <t xml:space="preserve">4.98486232757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99142360687256</t>
   </si>
   <si>
     <t xml:space="preserve">4.89864253997803</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">4.91644859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96330738067627</t>
+    <t xml:space="preserve">4.96330785751343</t>
   </si>
   <si>
     <t xml:space="preserve">4.95487308502197</t>
@@ -4949,19 +4949,19 @@
     <t xml:space="preserve">5.13574886322021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15824127197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327701568604</t>
+    <t xml:space="preserve">5.15824174880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327749252319</t>
   </si>
   <si>
     <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198968887329</t>
+    <t xml:space="preserve">5.16199016571045</t>
   </si>
   <si>
     <t xml:space="preserve">5.25758218765259</t>
@@ -4979,22 +4979,22 @@
     <t xml:space="preserve">5.30631589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48156833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53311347961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6155858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.395348072052</t>
+    <t xml:space="preserve">5.48156881332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5331130027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61558532714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39534759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.34942626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36067199707031</t>
+    <t xml:space="preserve">5.36067247390747</t>
   </si>
   <si>
     <t xml:space="preserve">5.39722204208374</t>
@@ -5009,13 +5009,13 @@
     <t xml:space="preserve">5.55841779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64932346343994</t>
+    <t xml:space="preserve">5.6493239402771</t>
   </si>
   <si>
     <t xml:space="preserve">5.67556524276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70742893218994</t>
+    <t xml:space="preserve">5.7074294090271</t>
   </si>
   <si>
     <t xml:space="preserve">5.77771759033203</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">5.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71492671966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71586322784424</t>
+    <t xml:space="preserve">5.71492624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7158637046814</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461750030518</t>
@@ -5045,25 +5045,25 @@
     <t xml:space="preserve">5.71024084091187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66431856155396</t>
+    <t xml:space="preserve">5.66431903839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.67743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995170593262</t>
+    <t xml:space="preserve">5.63995218276978</t>
   </si>
   <si>
     <t xml:space="preserve">5.64182615280151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60246467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53030204772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63151693344116</t>
+    <t xml:space="preserve">5.60246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53030157089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63151741027832</t>
   </si>
   <si>
     <t xml:space="preserve">5.65963268280029</t>
@@ -5081,7 +5081,7 @@
     <t xml:space="preserve">5.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5827841758728</t>
+    <t xml:space="preserve">5.58278369903564</t>
   </si>
   <si>
     <t xml:space="preserve">5.63432931900024</t>
@@ -5090,25 +5090,25 @@
     <t xml:space="preserve">5.49000310897827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58372116088867</t>
+    <t xml:space="preserve">5.58372163772583</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619300842285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62027168273926</t>
+    <t xml:space="preserve">5.6202712059021</t>
   </si>
   <si>
     <t xml:space="preserve">5.66994190216064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69243383407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69149732589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72710990905762</t>
+    <t xml:space="preserve">5.69243431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69149684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72710943222046</t>
   </si>
   <si>
     <t xml:space="preserve">5.68868541717529</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">5.75147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76178550720215</t>
+    <t xml:space="preserve">5.76178503036499</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052949905396</t>
@@ -5138,7 +5138,7 @@
     <t xml:space="preserve">5.84800577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94078731536865</t>
+    <t xml:space="preserve">5.94078683853149</t>
   </si>
   <si>
     <t xml:space="preserve">5.81989049911499</t>
@@ -5159,7 +5159,7 @@
     <t xml:space="preserve">5.83863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9323525428772</t>
+    <t xml:space="preserve">5.93235206604004</t>
   </si>
   <si>
     <t xml:space="preserve">5.84613180160522</t>
@@ -5168,13 +5168,13 @@
     <t xml:space="preserve">5.88268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88080787658691</t>
+    <t xml:space="preserve">5.88080739974976</t>
   </si>
   <si>
     <t xml:space="preserve">5.89861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93797492980957</t>
+    <t xml:space="preserve">5.93797540664673</t>
   </si>
   <si>
     <t xml:space="preserve">5.99507141113281</t>
@@ -5796,6 +5796,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.7979998588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71000003814697</t>
   </si>
 </sst>
 </file>
@@ -61907,7 +61910,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6494791667</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>22269197</v>
@@ -61928,6 +61931,32 @@
         <v>1927</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6521527778</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>24813304</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>6.88000011444092</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>6.65700006484985</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>6.88000011444092</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>6.71000003814697</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1930">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46143746376038</t>
+    <t xml:space="preserve">2.4614372253418</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">2.50832200050354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44580912590027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45622849464417</t>
+    <t xml:space="preserve">2.44580936431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45622801780701</t>
   </si>
   <si>
     <t xml:space="preserve">2.43669271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43929767608643</t>
+    <t xml:space="preserve">2.43929719924927</t>
   </si>
   <si>
     <t xml:space="preserve">2.42236685752869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45883297920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43408823013306</t>
+    <t xml:space="preserve">2.45883250236511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43408846855164</t>
   </si>
   <si>
     <t xml:space="preserve">2.389808177948</t>
@@ -77,97 +77,97 @@
     <t xml:space="preserve">2.37418007850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30255079269409</t>
+    <t xml:space="preserve">2.30255126953125</t>
   </si>
   <si>
     <t xml:space="preserve">2.37678503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42757630348206</t>
+    <t xml:space="preserve">2.42757678031921</t>
   </si>
   <si>
     <t xml:space="preserve">2.41455292701721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44841408729553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47836828231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39111065864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45362329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4471116065979</t>
+    <t xml:space="preserve">2.44841361045837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47836756706238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39111018180847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45362305641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44711184501648</t>
   </si>
   <si>
     <t xml:space="preserve">2.41064596176147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36245918273926</t>
+    <t xml:space="preserve">2.3624587059021</t>
   </si>
   <si>
     <t xml:space="preserve">2.30906271934509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27780675888062</t>
+    <t xml:space="preserve">2.27780628204346</t>
   </si>
   <si>
     <t xml:space="preserve">2.27520155906677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29603958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2126886844635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3038535118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3819944858551</t>
+    <t xml:space="preserve">2.29603910446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21268892288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30385327339172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38199424743652</t>
   </si>
   <si>
     <t xml:space="preserve">2.366366147995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37287735939026</t>
+    <t xml:space="preserve">2.372878074646</t>
   </si>
   <si>
     <t xml:space="preserve">2.35724949836731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36897087097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30515575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39892506599426</t>
+    <t xml:space="preserve">2.3689706325531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30515551567078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3989245891571</t>
   </si>
   <si>
     <t xml:space="preserve">2.41194796562195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43539071083069</t>
+    <t xml:space="preserve">2.43539047241211</t>
   </si>
   <si>
     <t xml:space="preserve">2.41845989227295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38459873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39371538162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46664690971375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47967028617859</t>
+    <t xml:space="preserve">2.38459920883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39371562004089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46664714813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47967076301575</t>
   </si>
   <si>
     <t xml:space="preserve">2.54739236831665</t>
@@ -176,46 +176,46 @@
     <t xml:space="preserve">2.5395781993866</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53306651115417</t>
+    <t xml:space="preserve">2.53306674957275</t>
   </si>
   <si>
     <t xml:space="preserve">2.53697347640991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55911350250244</t>
+    <t xml:space="preserve">2.5591139793396</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999709129333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55260229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348540306091</t>
+    <t xml:space="preserve">2.55260157585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348516464233</t>
   </si>
   <si>
     <t xml:space="preserve">2.5317645072937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5460901260376</t>
+    <t xml:space="preserve">2.54609036445618</t>
   </si>
   <si>
     <t xml:space="preserve">2.58646249771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60469579696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53827571868896</t>
+    <t xml:space="preserve">2.60469603538513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53827595710754</t>
   </si>
   <si>
     <t xml:space="preserve">2.52525234222412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50181007385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887878417969</t>
+    <t xml:space="preserve">2.50180983543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887902259827</t>
   </si>
   <si>
     <t xml:space="preserve">2.38329672813416</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">2.44971656799316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46013474464417</t>
+    <t xml:space="preserve">2.4601354598999</t>
   </si>
   <si>
     <t xml:space="preserve">2.44190216064453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48878693580627</t>
+    <t xml:space="preserve">2.4887866973877</t>
   </si>
   <si>
     <t xml:space="preserve">2.49920558929443</t>
@@ -239,22 +239,22 @@
     <t xml:space="preserve">2.55650877952576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52655482292175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427690505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63985919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57734632492065</t>
+    <t xml:space="preserve">2.52655529975891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427666664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63985896110535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57734656333923</t>
   </si>
   <si>
     <t xml:space="preserve">2.5760440826416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5630202293396</t>
+    <t xml:space="preserve">2.56302046775818</t>
   </si>
   <si>
     <t xml:space="preserve">2.54088068008423</t>
@@ -263,49 +263,49 @@
     <t xml:space="preserve">2.58516049385071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60860323905945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61511468887329</t>
+    <t xml:space="preserve">2.60860276222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61511397361755</t>
   </si>
   <si>
     <t xml:space="preserve">2.57213711738586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58906769752502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56562566757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59818387031555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57474136352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64506864547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65288281440735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67371964454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66851091384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6815345287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62944054603577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63855695724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641716957092</t>
+    <t xml:space="preserve">2.58906745910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56562519073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59818410873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57474207878113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64506840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65288257598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67372035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6685106754303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68153405189514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62944030761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63855671882629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641693115234</t>
   </si>
   <si>
     <t xml:space="preserve">2.67892956733704</t>
@@ -314,154 +314,154 @@
     <t xml:space="preserve">2.68674373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68413853645325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59297490119934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55129957199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50701999664307</t>
+    <t xml:space="preserve">2.68413949012756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59297466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55129933357239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50701975822449</t>
   </si>
   <si>
     <t xml:space="preserve">2.61771941184998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68282318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68960499763489</t>
+    <t xml:space="preserve">2.68282294273376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68960475921631</t>
   </si>
   <si>
     <t xml:space="preserve">2.64891481399536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71401882171631</t>
+    <t xml:space="preserve">2.71401834487915</t>
   </si>
   <si>
     <t xml:space="preserve">2.44139623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43190169334412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53769564628601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64484572410583</t>
+    <t xml:space="preserve">2.4319019317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53769540786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64484596252441</t>
   </si>
   <si>
     <t xml:space="preserve">2.69909930229187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69638657569885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70045566558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63263893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61500644683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66519069671631</t>
+    <t xml:space="preserve">2.69638633728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7004554271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63263869285583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61500668525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66519117355347</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417930603027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70588064193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70723700523376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70994997024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69231748580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72893834114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73165059089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72486972808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72079992294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79268622398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77912282943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74250149726868</t>
+    <t xml:space="preserve">2.70588088035583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70723748207092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70994973182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69231700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72893905639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73165106773376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72486925125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72080063819885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79268574714661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77912259101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74250197410583</t>
   </si>
   <si>
     <t xml:space="preserve">2.73029470443726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74114537239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77640962600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76284694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75470876693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7492835521698</t>
+    <t xml:space="preserve">2.74114489555359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77640986442566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76284670829773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75470852851868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74928307533264</t>
   </si>
   <si>
     <t xml:space="preserve">2.78726077079773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7831916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7180871963501</t>
+    <t xml:space="preserve">2.78319191932678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71808791160583</t>
   </si>
   <si>
     <t xml:space="preserve">2.66790294647217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67061591148376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63806414604187</t>
+    <t xml:space="preserve">2.67061638832092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63806462287903</t>
   </si>
   <si>
     <t xml:space="preserve">2.64348936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67197275161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67332887649536</t>
+    <t xml:space="preserve">2.67197227478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67332911491394</t>
   </si>
   <si>
     <t xml:space="preserve">2.68011045455933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69774293899536</t>
+    <t xml:space="preserve">2.6977424621582</t>
   </si>
   <si>
     <t xml:space="preserve">2.65569639205933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67604160308838</t>
+    <t xml:space="preserve">2.67604112625122</t>
   </si>
   <si>
     <t xml:space="preserve">2.73707628250122</t>
@@ -473,40 +473,40 @@
     <t xml:space="preserve">2.72622585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80082392692566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78454732894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7465705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69096088409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65298366546631</t>
+    <t xml:space="preserve">2.80082368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78454780578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74657082557678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69096064567566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65298390388489</t>
   </si>
   <si>
     <t xml:space="preserve">2.65705299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63128256797791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66247797012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65162754058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69367337226868</t>
+    <t xml:space="preserve">2.63128304481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66247820854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65162777900696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69367361068726</t>
   </si>
   <si>
     <t xml:space="preserve">2.65976572036743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66383481025696</t>
+    <t xml:space="preserve">2.6638343334198</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503021240234</t>
@@ -515,58 +515,58 @@
     <t xml:space="preserve">2.65434002876282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61093783378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59601807594299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55804109573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5973744392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5729603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144305229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59059262275696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68146634101868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65027141571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67468523979187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6584095954895</t>
+    <t xml:space="preserve">2.61093759536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59601831436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55804061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59737420082092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57296061515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261540412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59059238433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68146681785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65027093887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67468476295471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65840888023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.60822486877441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60008716583252</t>
+    <t xml:space="preserve">2.60008668899536</t>
   </si>
   <si>
     <t xml:space="preserve">2.58923649787903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60415554046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62314414978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56075358390808</t>
+    <t xml:space="preserve">2.60415601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62314462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5607533454895</t>
   </si>
   <si>
     <t xml:space="preserve">2.47259163856506</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">2.4685230255127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44682121276855</t>
+    <t xml:space="preserve">2.44682192802429</t>
   </si>
   <si>
     <t xml:space="preserve">2.47530460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47666096687317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51192498207092</t>
+    <t xml:space="preserve">2.47666049003601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51192569732666</t>
   </si>
   <si>
     <t xml:space="preserve">2.45224690437317</t>
@@ -593,19 +593,19 @@
     <t xml:space="preserve">2.47394800186157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5512592792511</t>
+    <t xml:space="preserve">2.55125880241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.53905200958252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52820134162903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53362703323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57024741172791</t>
+    <t xml:space="preserve">2.52820181846619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53362679481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57024765014648</t>
   </si>
   <si>
     <t xml:space="preserve">2.58652377128601</t>
@@ -614,58 +614,58 @@
     <t xml:space="preserve">2.56753492355347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77234077453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76555967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72758197784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75063967704773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404211044312</t>
+    <t xml:space="preserve">2.77234101295471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76555919647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72758173942566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75064015388489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404187202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.82252526283264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80489301681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81981229782104</t>
+    <t xml:space="preserve">2.80489325523376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8198127746582</t>
   </si>
   <si>
     <t xml:space="preserve">2.84015774726868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86321520805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659435272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066344261169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83473134040833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81574368476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79539823532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80218029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82388138771057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81031775474548</t>
+    <t xml:space="preserve">2.86321544647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659411430359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066272735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81574392318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79539918899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80218005180359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82388162612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81031799316406</t>
   </si>
   <si>
     <t xml:space="preserve">2.81303095817566</t>
@@ -674,85 +674,85 @@
     <t xml:space="preserve">2.80760550498962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8311755657196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82563042640686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78126239776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76046538352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72719025611877</t>
+    <t xml:space="preserve">2.83117532730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82563018798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78126287460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76046562194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72718977928162</t>
   </si>
   <si>
     <t xml:space="preserve">2.66895842552185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67866373062134</t>
+    <t xml:space="preserve">2.67866349220276</t>
   </si>
   <si>
     <t xml:space="preserve">2.68005013465881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69391489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71471214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66202545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68559598922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79928708076477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80621886253357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79512715339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78680849075317</t>
+    <t xml:space="preserve">2.69391465187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71471190452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66202616691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68559575080872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79928660392761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80621910095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79512786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78680872917175</t>
   </si>
   <si>
     <t xml:space="preserve">2.74382781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78542256355286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80067300796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77433037757874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77987694740295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75492000579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77294373512268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81453776359558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80899238586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83672189712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86029195785522</t>
+    <t xml:space="preserve">2.78542184829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80067348480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77432990074158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77987599372864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75491976737976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77294421195984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81453824043274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80899214744568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83672142028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86029148101807</t>
   </si>
   <si>
     <t xml:space="preserve">2.86445069313049</t>
@@ -761,64 +761,64 @@
     <t xml:space="preserve">2.86999678611755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89079332351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90327215194702</t>
+    <t xml:space="preserve">2.890793800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9032723903656</t>
   </si>
   <si>
     <t xml:space="preserve">2.89772582054138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89911270141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88247513771057</t>
+    <t xml:space="preserve">2.89911246299744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88247537612915</t>
   </si>
   <si>
     <t xml:space="preserve">2.9462525844574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91852331161499</t>
+    <t xml:space="preserve">2.91852307319641</t>
   </si>
   <si>
     <t xml:space="preserve">2.9046585559845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92545580863953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98230051994324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97259521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98784708976746</t>
+    <t xml:space="preserve">2.92545557022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98230123519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97259593009949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9878466129303</t>
   </si>
   <si>
     <t xml:space="preserve">3.00864386558533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01696300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02805471420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994343757629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05855703353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05301070213318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03914570808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05023837089539</t>
+    <t xml:space="preserve">3.01696252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0280544757843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994367599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0585572719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05301117897034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03914618492126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05023789405823</t>
   </si>
   <si>
     <t xml:space="preserve">3.01834964752197</t>
@@ -827,163 +827,163 @@
     <t xml:space="preserve">3.03637313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03498697280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032520294189</t>
+    <t xml:space="preserve">3.03498673439026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032496452332</t>
   </si>
   <si>
     <t xml:space="preserve">2.94070720672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98091506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08628678321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07103514671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05578398704529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04885149002075</t>
+    <t xml:space="preserve">2.98091435432434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0862865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07103490829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05578422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04885196685791</t>
   </si>
   <si>
     <t xml:space="preserve">3.02528142929077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06687569618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380795478821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14313197135925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363429069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16670227050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15422320365906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16808843612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16254234313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16531491279602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16947507858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24573111534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829558372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522831916809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711728096008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27900624275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30673551559448</t>
+    <t xml:space="preserve">3.06687593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380771636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14313149452209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363405227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1667013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15422368049622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16808795928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16254186630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16531538963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16947531700134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24573063850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522808074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24711751937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900552749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593802452087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3067352771759</t>
   </si>
   <si>
     <t xml:space="preserve">3.33307838439941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25820851325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27761936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29841613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31505489349365</t>
+    <t xml:space="preserve">3.25820899009705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27761960029602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29841661453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31505465507507</t>
   </si>
   <si>
     <t xml:space="preserve">3.26791381835938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31366848945618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32475924491882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42597198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3954701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35803484916687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36219477653503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496782302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37189960479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41904020309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39131045341492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45231533050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4148805141449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43151783943176</t>
+    <t xml:space="preserve">3.31366801261902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32476019859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4259717464447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39546990394592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35803532600403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36219453811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496663093567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37189936637878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072106361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4190399646759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39131093025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45231485366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41487979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4315173625946</t>
   </si>
   <si>
     <t xml:space="preserve">3.32753252983093</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35526275634766</t>
+    <t xml:space="preserve">3.35526180267334</t>
   </si>
   <si>
     <t xml:space="preserve">3.28732514381409</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25404930114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29980301856995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28871130943298</t>
+    <t xml:space="preserve">3.2540500164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2998034954071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28871154785156</t>
   </si>
   <si>
     <t xml:space="preserve">3.25127625465393</t>
@@ -995,148 +995,148 @@
     <t xml:space="preserve">3.32614612579346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32060027122498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37744617462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44676899909973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44538259506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41210794448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43845057487488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44261002540588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4037880897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43203520774841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38825225830078</t>
+    <t xml:space="preserve">3.32060050964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.377445936203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44676947593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44538283348083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41210746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43844962120056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4426097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40378832817078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43203568458557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3882520198822</t>
   </si>
   <si>
     <t xml:space="preserve">3.43062329292297</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4532208442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955139160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40661311149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45180869102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44615912437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48853087425232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960206031799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51818919181824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796339035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51254034042358</t>
+    <t xml:space="preserve">3.45322132110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3995509147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40661287307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45180892944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44615936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48853063583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51818943023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53796291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51254057884216</t>
   </si>
   <si>
     <t xml:space="preserve">3.47723078727722</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55208611488342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5768027305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5803337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55914783477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51677751541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58739495277405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092593193054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62976622581482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60858035087585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211037635803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63329696655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66507577896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65448236465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860699653625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388942718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60505032539368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63682842254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.615642786026</t>
+    <t xml:space="preserve">3.552086353302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57680225372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58033394813538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55914831161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5167772769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58739519119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798765182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59092569351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62976598739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60858106613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211109161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63329672813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66507530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6544828414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391488075256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6686065196991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388966560364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60504913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63682866096497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61564183235168</t>
   </si>
   <si>
     <t xml:space="preserve">3.61917304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60151863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56620979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50689077377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56267881393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58386468887329</t>
+    <t xml:space="preserve">3.60151886940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56621026992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50689125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56267857551575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5838634967804</t>
   </si>
   <si>
     <t xml:space="preserve">3.64742088317871</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">3.65095162391663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66154432296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64035892486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801382064819</t>
+    <t xml:space="preserve">3.66154456138611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64035940170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801334381104</t>
   </si>
   <si>
     <t xml:space="preserve">3.68626070022583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73569273948669</t>
+    <t xml:space="preserve">3.73569345474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.73216199874878</t>
@@ -1166,31 +1166,31 @@
     <t xml:space="preserve">3.7568781375885</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76040887832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80278038978577</t>
+    <t xml:space="preserve">3.760409116745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80278062820435</t>
   </si>
   <si>
     <t xml:space="preserve">3.78865623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79571866989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80631113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80984234809875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512644767761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747107505798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72510099411011</t>
+    <t xml:space="preserve">3.79571795463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80631065368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80984139442444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512573242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747131347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72510123252869</t>
   </si>
   <si>
     <t xml:space="preserve">3.71097660064697</t>
@@ -1199,286 +1199,286 @@
     <t xml:space="preserve">3.71803832054138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73922324180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272995948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979215621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981641769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78159523010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690430641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633634567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221242904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218792915344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86280512809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90164566040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91930031776428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94048523902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89105296134949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8310284614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574316978455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334763526917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70038366317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62270402908325</t>
+    <t xml:space="preserve">3.73922443389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68272972106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6897919178009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981570243835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7815945148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690382957458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633610725403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221266746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218769073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86280608177185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90164637565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91929936408997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94048476219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89105319976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83102679252625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574436187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75334739685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70038390159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62270450592041</t>
   </si>
   <si>
     <t xml:space="preserve">3.7710018157959</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74275493621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79190683364868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390122413635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068952560425</t>
+    <t xml:space="preserve">3.74275469779968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7919065952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390170097351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068928718567</t>
   </si>
   <si>
     <t xml:space="preserve">3.71628475189209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69035744667053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65002584457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64858508110046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57944488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53551197052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43468260765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030468940735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40083289146423</t>
+    <t xml:space="preserve">3.69035792350769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65002489089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027448654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64858484268188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57944512367249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5355122089386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468236923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030445098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40083265304565</t>
   </si>
   <si>
     <t xml:space="preserve">3.33745431900024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37634587287903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35185861587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4426052570343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45124745368958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022149085999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116425514221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43540287017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3849880695343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48221659660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47573494911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365688323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188523292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4296407699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401940345764</t>
+    <t xml:space="preserve">3.37634563446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185885429382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45124769210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022220611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116473197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4354031085968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38498783111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48221611976624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47573447227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365712165833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44188475608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401916503906</t>
   </si>
   <si>
     <t xml:space="preserve">3.38570880889893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40587449073792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44044375419617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581838607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48293662071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742363929749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4930202960968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51750731468201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55063605308533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5117449760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4541277885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49373984336853</t>
+    <t xml:space="preserve">3.40587401390076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44044423103333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581719398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48293685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4807767868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742340087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49301934242249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51750612258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55063629150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51174569129944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45412826538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49374008178711</t>
   </si>
   <si>
     <t xml:space="preserve">3.44692611694336</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45484900474548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58304572105408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56864190101624</t>
+    <t xml:space="preserve">3.45484924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58304595947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56864237785339</t>
   </si>
   <si>
     <t xml:space="preserve">3.57440304756165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63706159591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418126106262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154909133911</t>
+    <t xml:space="preserve">3.63706231117249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418078422546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154861450195</t>
   </si>
   <si>
     <t xml:space="preserve">3.65578746795654</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64570426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6817147731781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221229553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933148384094</t>
+    <t xml:space="preserve">3.64570379257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68171501159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315482139587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221253395081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7393319606781</t>
   </si>
   <si>
     <t xml:space="preserve">3.72348713874817</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74653339385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73356962203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830528259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7940673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592247009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905240058899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049244880676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78398466110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65434670448303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65146613121033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67883396148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70044016838074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56288051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5888078212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52758979797363</t>
+    <t xml:space="preserve">3.74653315544128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73356986045837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406762123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592270851135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151841163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905287742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88049292564392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78398537635803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65434646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65146660804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67883372306824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70044040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56288003921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58880758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52758932113647</t>
   </si>
   <si>
     <t xml:space="preserve">3.52831029891968</t>
@@ -1487,37 +1487,37 @@
     <t xml:space="preserve">3.51606607437134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51246476173401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49950194358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955780982971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39363121986389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31080651283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42243933677673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38714861869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40947532653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44764685630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38426733016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37130451202393</t>
+    <t xml:space="preserve">3.51246547698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49950218200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955876350403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39363050460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31080603599548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42243909835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38714909553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40947556495667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44764637947083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38426804542542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3713047504425</t>
   </si>
   <si>
     <t xml:space="preserve">3.30864548683167</t>
@@ -1529,115 +1529,115 @@
     <t xml:space="preserve">3.44332504272461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5095841884613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50886487960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48149609565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47933602333069</t>
+    <t xml:space="preserve">3.50958442687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.508864402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48149657249451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47933554649353</t>
   </si>
   <si>
     <t xml:space="preserve">3.47429394721985</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39435029029846</t>
+    <t xml:space="preserve">3.39435076713562</t>
   </si>
   <si>
     <t xml:space="preserve">3.41811800003052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37202501296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39795231819153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43684315681458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41451692581177</t>
+    <t xml:space="preserve">3.37202453613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39795207977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.436842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41451668739319</t>
   </si>
   <si>
     <t xml:space="preserve">3.42603993415833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41667699813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47213363647461</t>
+    <t xml:space="preserve">3.41667771339417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47213411331177</t>
   </si>
   <si>
     <t xml:space="preserve">3.45989036560059</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49590110778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51822710037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49518036842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49013876914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46493172645569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310254096985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49085903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51462578773499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53263068199158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5311906337738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5333514213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49856567382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47192120552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45119762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46230006217957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49042439460754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48080253601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5303909778595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346814155579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32685708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34980034828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35054111480713</t>
+    <t xml:space="preserve">3.49590063095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51822757720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49518060684204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49013948440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46493124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310277938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49085974693298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51462650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53263139724731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53119039535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53335165977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4985659122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47192096710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45119833946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46229910850525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49042391777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4808030128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53039121627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32685661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34980058670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35054063796997</t>
   </si>
   <si>
     <t xml:space="preserve">3.39420819282532</t>
@@ -1646,28 +1646,28 @@
     <t xml:space="preserve">3.39272809028625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3771858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761337280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29059100151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31427502632141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27948904037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27504801750183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26394653320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29873204231262</t>
+    <t xml:space="preserve">3.37718510627747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761408805847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29059076309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31427454948425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2794885635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27504849433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26394557952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29873180389404</t>
   </si>
   <si>
     <t xml:space="preserve">3.28467011451721</t>
@@ -1676,28 +1676,28 @@
     <t xml:space="preserve">3.24692368507385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26024627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2476634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22397947311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23508143424988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1891942024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1529278755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14034628868103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1758713722229</t>
+    <t xml:space="preserve">3.26024651527405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24766397476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22397971153259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23508167266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18919372558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292859077454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14034581184387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17587161064148</t>
   </si>
   <si>
     <t xml:space="preserve">3.17513179779053</t>
@@ -1706,70 +1706,70 @@
     <t xml:space="preserve">3.24026250839233</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25802516937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37496471405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37348461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34387993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37422490119934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682343482971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34091949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608409881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42899465560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3823664188385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4038302898407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41271114349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38976788520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24322295188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26320672035217</t>
+    <t xml:space="preserve">3.25802493095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37496519088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37348484992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34388017654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37422466278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682367324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34091925621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608362197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42899394035339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236665725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40382981300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41271138191223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38976716995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542711257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24322271347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26320600509644</t>
   </si>
   <si>
     <t xml:space="preserve">3.34609985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30095243453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27356791496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952221870422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878192901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21657848358154</t>
+    <t xml:space="preserve">3.30095267295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27356767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952198028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878240585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21657872200012</t>
   </si>
   <si>
     <t xml:space="preserve">3.17365097999573</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">3.29651188850403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26690721511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22916007041931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27874875068665</t>
+    <t xml:space="preserve">3.26690745353699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22916102409363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27874851226807</t>
   </si>
   <si>
     <t xml:space="preserve">3.28392958641052</t>
@@ -1793,34 +1793,34 @@
     <t xml:space="preserve">3.26468634605408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2417426109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25654530525208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20769739151001</t>
+    <t xml:space="preserve">3.24174308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25654578208923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20769667625427</t>
   </si>
   <si>
     <t xml:space="preserve">3.24100303649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26172590255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986765861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30835342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797552108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32611656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29503130912781</t>
+    <t xml:space="preserve">3.26172614097595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986789703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30835318565369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797528266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32611727714539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29503178596497</t>
   </si>
   <si>
     <t xml:space="preserve">3.33055758476257</t>
@@ -1829,82 +1829,82 @@
     <t xml:space="preserve">3.37644529342651</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40308952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44823694229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44675707817078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48228311538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51928901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52594995498657</t>
+    <t xml:space="preserve">3.40309000015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823718070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4467568397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4822826385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51928949356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52595043182373</t>
   </si>
   <si>
     <t xml:space="preserve">3.53779220581055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52150964736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54519319534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56295657157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55111408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57479810714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5133683681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410794258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966811180115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55777549743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64955115318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542191505432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7139413356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71098160743713</t>
+    <t xml:space="preserve">3.52150917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5451934337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56295585632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.551114320755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57479882240295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51336765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410865783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55777597427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64955139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71542167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394181251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71098136901855</t>
   </si>
   <si>
     <t xml:space="preserve">3.70950126647949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79239463806152</t>
+    <t xml:space="preserve">3.7923948764801</t>
   </si>
   <si>
     <t xml:space="preserve">3.81015729904175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83828234672546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73614549636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73318529129028</t>
+    <t xml:space="preserve">3.8382830619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73614501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73318481445312</t>
   </si>
   <si>
     <t xml:space="preserve">3.76279020309448</t>
@@ -1913,73 +1913,73 @@
     <t xml:space="preserve">3.76426982879639</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81607937812805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459856033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83088135719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82200002670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88565015792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84864354133606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85604500770569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86344647407532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86196660995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.878249168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9285774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94226098060608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93313789367676</t>
+    <t xml:space="preserve">3.81607913970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459832191467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83088088035583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82199954986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88565063476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84864401817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85604548454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8634467124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86196613311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87824892997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92857813835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94226121902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93313884735107</t>
   </si>
   <si>
     <t xml:space="preserve">3.90273141860962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93769860267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94682145118713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92553615570068</t>
+    <t xml:space="preserve">3.93770003318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682216644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92553663253784</t>
   </si>
   <si>
     <t xml:space="preserve">3.98483085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9787495136261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00307512283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93009805679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94073987007141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121126174927</t>
+    <t xml:space="preserve">3.97874975204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00307559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93009781837463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94074034690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121150016785</t>
   </si>
   <si>
     <t xml:space="preserve">3.8784065246582</t>
@@ -1988,22 +1988,22 @@
     <t xml:space="preserve">3.90729284286499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95138359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9650661945343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9620246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98026990890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635053634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266745567322</t>
+    <t xml:space="preserve">3.9513828754425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96506690979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96202445030212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98027014732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266697883606</t>
   </si>
   <si>
     <t xml:space="preserve">3.97722864151001</t>
@@ -2012,52 +2012,52 @@
     <t xml:space="preserve">3.9878716468811</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01219701766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03804302215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02892112731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04412460327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03956270217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03196144104004</t>
+    <t xml:space="preserve">4.01219749450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0380425453186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02892017364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04412412643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03956317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03196096420288</t>
   </si>
   <si>
     <t xml:space="preserve">4.05020570755005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10341739654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18247604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16879272460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15054798126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17943477630615</t>
+    <t xml:space="preserve">4.10341787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18247556686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16879367828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15054845809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17943525314331</t>
   </si>
   <si>
     <t xml:space="preserve">4.17031288146973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17183303833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15814924240112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19615936279297</t>
+    <t xml:space="preserve">4.17183256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15815019607544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19615888595581</t>
   </si>
   <si>
     <t xml:space="preserve">4.21440315246582</t>
@@ -2072,19 +2072,19 @@
     <t xml:space="preserve">4.27217626571655</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33451080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34363317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32234716415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33603191375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30106258392334</t>
+    <t xml:space="preserve">4.3345103263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34363269805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32234764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33603096008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3010630607605</t>
   </si>
   <si>
     <t xml:space="preserve">4.30334329605103</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">4.33907175064087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32918882369995</t>
+    <t xml:space="preserve">4.32918977737427</t>
   </si>
   <si>
     <t xml:space="preserve">4.32842874526978</t>
@@ -2102,31 +2102,31 @@
     <t xml:space="preserve">4.31474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30258321762085</t>
+    <t xml:space="preserve">4.30258274078369</t>
   </si>
   <si>
     <t xml:space="preserve">4.28966045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26457405090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24252939224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16347217559814</t>
+    <t xml:space="preserve">4.26457452774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24252986907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16347169876099</t>
   </si>
   <si>
     <t xml:space="preserve">4.19691896438599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19995975494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19539880752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18399572372437</t>
+    <t xml:space="preserve">4.19996023178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19539833068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18399667739868</t>
   </si>
   <si>
     <t xml:space="preserve">4.20984220504761</t>
@@ -2138,16 +2138,16 @@
     <t xml:space="preserve">4.22124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28662014007568</t>
+    <t xml:space="preserve">4.28661918640137</t>
   </si>
   <si>
     <t xml:space="preserve">4.23948812484741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25317192077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22732591629028</t>
+    <t xml:space="preserve">4.25317144393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22732543945312</t>
   </si>
   <si>
     <t xml:space="preserve">4.25849342346191</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">4.23872852325439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21972417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18627643585205</t>
+    <t xml:space="preserve">4.21972513198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18627595901489</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796844482422</t>
@@ -2171,25 +2171,25 @@
     <t xml:space="preserve">4.24937105178833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27901840209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32538890838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.386962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38012075424194</t>
+    <t xml:space="preserve">4.27901697158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32538795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38696241378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3801212310791</t>
   </si>
   <si>
     <t xml:space="preserve">4.31778621673584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40064573287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22428464889526</t>
+    <t xml:space="preserve">4.40064668655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22428512573242</t>
   </si>
   <si>
     <t xml:space="preserve">4.23416757583618</t>
@@ -2198,46 +2198,46 @@
     <t xml:space="preserve">4.26761484146118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33983182907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35275411605835</t>
+    <t xml:space="preserve">4.3398323059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35275506973267</t>
   </si>
   <si>
     <t xml:space="preserve">4.4135684967041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47818422317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4302921295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44549560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47742223739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55420112609863</t>
+    <t xml:space="preserve">4.47818326950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43029260635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44549608230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4774227142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55420064926147</t>
   </si>
   <si>
     <t xml:space="preserve">4.61425447463989</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62185621261597</t>
+    <t xml:space="preserve">4.62185573577881</t>
   </si>
   <si>
     <t xml:space="preserve">4.74120330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69027185440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70547533035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73740243911743</t>
+    <t xml:space="preserve">4.69027090072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70547485351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73740196228027</t>
   </si>
   <si>
     <t xml:space="preserve">4.73208093643188</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">4.71383762359619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61805534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62489652633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66746664047241</t>
+    <t xml:space="preserve">4.61805486679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62489700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66746616363525</t>
   </si>
   <si>
     <t xml:space="preserve">4.65682411193848</t>
@@ -2261,22 +2261,22 @@
     <t xml:space="preserve">4.75868844985962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87119388580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90084028244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86511135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87271308898926</t>
+    <t xml:space="preserve">4.87119245529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90083980560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86511182785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87271356582642</t>
   </si>
   <si>
     <t xml:space="preserve">4.87195301055908</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88487577438354</t>
+    <t xml:space="preserve">4.8848762512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.94873094558716</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">4.90388059616089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93504667282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95101165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9859790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77997207641602</t>
+    <t xml:space="preserve">4.93504762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95101118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77997303009033</t>
   </si>
   <si>
     <t xml:space="preserve">4.87715768814087</t>
@@ -2312,55 +2312,55 @@
     <t xml:space="preserve">4.82817649841309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85616588592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79629945755005</t>
+    <t xml:space="preserve">4.85616540908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79629993438721</t>
   </si>
   <si>
     <t xml:space="preserve">4.81962394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85150098800659</t>
+    <t xml:space="preserve">4.85150051116943</t>
   </si>
   <si>
     <t xml:space="preserve">4.81884622573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76131248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77375268936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69289350509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71466398239136</t>
+    <t xml:space="preserve">4.76131296157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908731460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77375173568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69289398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7146635055542</t>
   </si>
   <si>
     <t xml:space="preserve">4.72554874420166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67190170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88648843765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94402122497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84839105606079</t>
+    <t xml:space="preserve">4.67190217971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88648748397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94402170181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84839010238647</t>
   </si>
   <si>
     <t xml:space="preserve">4.91214418411255</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88570976257324</t>
+    <t xml:space="preserve">4.8857102394104</t>
   </si>
   <si>
     <t xml:space="preserve">4.83828353881836</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">5.05286931991577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05442380905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15627479553223</t>
+    <t xml:space="preserve">5.05442428588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15627431869507</t>
   </si>
   <si>
     <t xml:space="preserve">5.1267294883728</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">5.19359350204468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19437170028687</t>
+    <t xml:space="preserve">5.19437217712402</t>
   </si>
   <si>
     <t xml:space="preserve">5.23868751525879</t>
@@ -2390,52 +2390,52 @@
     <t xml:space="preserve">5.1819314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14694452285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08863353729248</t>
+    <t xml:space="preserve">5.14694499969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08863401412964</t>
   </si>
   <si>
     <t xml:space="preserve">5.04587173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00855255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14150285720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12517547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0396523475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06686401367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17027044296265</t>
+    <t xml:space="preserve">5.00855302810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14150238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12517595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03965139389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06686449050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17026996612549</t>
   </si>
   <si>
     <t xml:space="preserve">5.14305686950684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11273527145386</t>
+    <t xml:space="preserve">5.11273574829102</t>
   </si>
   <si>
     <t xml:space="preserve">5.18659639358521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26201295852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23246765136719</t>
+    <t xml:space="preserve">5.26201248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2324686050415</t>
   </si>
   <si>
     <t xml:space="preserve">5.31177139282227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2760066986084</t>
+    <t xml:space="preserve">5.27600765228271</t>
   </si>
   <si>
     <t xml:space="preserve">5.32654333114624</t>
@@ -2444,73 +2444,73 @@
     <t xml:space="preserve">5.30010938644409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18504190444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25112819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32187843322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26512289047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29855442047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26123476028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28689193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27056455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31643581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29077959060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26356744766235</t>
+    <t xml:space="preserve">5.1850414276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16171741485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25112771987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3218789100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2651219367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29855394363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26123571395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28689241409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27056550979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31643724441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29077863693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356792449951</t>
   </si>
   <si>
     <t xml:space="preserve">5.30866146087646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24413013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3280987739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909152984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33665037155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34287023544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36697196960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3957405090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874244689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41750860214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37241554260254</t>
+    <t xml:space="preserve">5.24413061141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32809925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33665132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34287118911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36697292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39574003219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41750955581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37241506576538</t>
   </si>
   <si>
     <t xml:space="preserve">5.36386299133301</t>
@@ -2522,64 +2522,64 @@
     <t xml:space="preserve">5.33820629119873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33354139328003</t>
+    <t xml:space="preserve">5.33354187011719</t>
   </si>
   <si>
     <t xml:space="preserve">5.42917203903198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38796520233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3452033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33509588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36308574676514</t>
+    <t xml:space="preserve">5.38796472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34520435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33509540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36308479309082</t>
   </si>
   <si>
     <t xml:space="preserve">5.31021642684937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29000234603882</t>
+    <t xml:space="preserve">5.29000186920166</t>
   </si>
   <si>
     <t xml:space="preserve">5.26745510101318</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24801731109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31799125671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34209299087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33043146133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528347015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19126129150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22702550888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23324632644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32265663146973</t>
+    <t xml:space="preserve">5.24801683425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31799077987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3420934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33043098449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19126176834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22702503204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23324584960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32265567779541</t>
   </si>
   <si>
     <t xml:space="preserve">5.38407754898071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4501633644104</t>
+    <t xml:space="preserve">5.45016384124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.42839431762695</t>
@@ -2588,10 +2588,10 @@
     <t xml:space="preserve">5.44316625595093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6025505065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57844829559326</t>
+    <t xml:space="preserve">5.60254955291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57844924926758</t>
   </si>
   <si>
     <t xml:space="preserve">5.54968166351318</t>
@@ -2600,19 +2600,19 @@
     <t xml:space="preserve">5.49836778640747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60721492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60643768310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6181001663208</t>
+    <t xml:space="preserve">5.6072154045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60643863677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61809968948364</t>
   </si>
   <si>
     <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65230941772461</t>
+    <t xml:space="preserve">5.65230989456177</t>
   </si>
   <si>
     <t xml:space="preserve">5.67952156066895</t>
@@ -2633,79 +2633,79 @@
     <t xml:space="preserve">6.00606489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05687665939331</t>
+    <t xml:space="preserve">6.05687618255615</t>
   </si>
   <si>
     <t xml:space="preserve">6.0417914390564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99097919464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04973030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20772171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09260320663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27123641967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35856819152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42128944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23630428314209</t>
+    <t xml:space="preserve">5.99098014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04973077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20772218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09260272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27123689651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35856914520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42128896713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23630380630493</t>
   </si>
   <si>
     <t xml:space="preserve">6.32442998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35142278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40699815750122</t>
+    <t xml:space="preserve">6.3514232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40699768066406</t>
   </si>
   <si>
     <t xml:space="preserve">6.45463371276855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49194860458374</t>
+    <t xml:space="preserve">6.49194812774658</t>
   </si>
   <si>
     <t xml:space="preserve">6.51020908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50465202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45622158050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51576614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5713415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66423082351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72218656539917</t>
+    <t xml:space="preserve">6.50465154647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45622205734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51576566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.664231300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72218751907349</t>
   </si>
   <si>
     <t xml:space="preserve">6.80078649520874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69519424438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70392751693726</t>
+    <t xml:space="preserve">6.69519329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70392799377441</t>
   </si>
   <si>
     <t xml:space="preserve">6.37524080276489</t>
@@ -2714,34 +2714,34 @@
     <t xml:space="preserve">6.19660711288452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31569671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28473377227783</t>
+    <t xml:space="preserve">6.31569623947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28473329544067</t>
   </si>
   <si>
     <t xml:space="preserve">6.01479816436768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06560897827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18708038330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54196548461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46654367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26488494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64165210723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32249307632446</t>
+    <t xml:space="preserve">6.06560945510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18708086013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5419659614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46654319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26488542556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64165163040161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3224925994873</t>
   </si>
   <si>
     <t xml:space="preserve">5.17641019821167</t>
@@ -2750,64 +2750,64 @@
     <t xml:space="preserve">4.14906740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46108150482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35548877716064</t>
+    <t xml:space="preserve">4.46108102798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35548830032349</t>
   </si>
   <si>
     <t xml:space="preserve">4.54126787185669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67623472213745</t>
+    <t xml:space="preserve">4.67623519897461</t>
   </si>
   <si>
     <t xml:space="preserve">4.62860012054443</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6754412651062</t>
+    <t xml:space="preserve">4.67544174194336</t>
   </si>
   <si>
     <t xml:space="preserve">4.74133777618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01047897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00174570083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98507308959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88662719726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002401351929</t>
+    <t xml:space="preserve">5.01047992706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00174617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98507261276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88662624359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002353668213</t>
   </si>
   <si>
     <t xml:space="preserve">5.0327091217041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81755399703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87868595123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81834840774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87471771240234</t>
+    <t xml:space="preserve">4.81755447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87868785858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8183479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87471675872803</t>
   </si>
   <si>
     <t xml:space="preserve">5.06129026412964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98983716964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12321710586548</t>
+    <t xml:space="preserve">4.98983669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12321662902832</t>
   </si>
   <si>
     <t xml:space="preserve">5.11845350265503</t>
@@ -2819,34 +2819,34 @@
     <t xml:space="preserve">4.96125555038452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92949819564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91600131988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76753711700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75165891647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70481729507446</t>
+    <t xml:space="preserve">4.92949914932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91600179672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76753759384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75165939331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7048168182373</t>
   </si>
   <si>
     <t xml:space="preserve">4.68417501449585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81914234161377</t>
+    <t xml:space="preserve">4.81914281845093</t>
   </si>
   <si>
     <t xml:space="preserve">4.88265609741211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97792768478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95093441009521</t>
+    <t xml:space="preserve">4.97792816162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95093393325806</t>
   </si>
   <si>
     <t xml:space="preserve">4.76912498474121</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">4.81676054000854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91282606124878</t>
+    <t xml:space="preserve">4.91282653808594</t>
   </si>
   <si>
     <t xml:space="preserve">4.92235326766968</t>
@@ -2870,19 +2870,19 @@
     <t xml:space="preserve">4.78738594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67147254943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57381868362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73498582839966</t>
+    <t xml:space="preserve">4.67147159576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57381820678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73498630523682</t>
   </si>
   <si>
     <t xml:space="preserve">4.79294300079346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96363735198975</t>
+    <t xml:space="preserve">4.9636378288269</t>
   </si>
   <si>
     <t xml:space="preserve">5.02556371688843</t>
@@ -2897,10 +2897,10 @@
     <t xml:space="preserve">5.17323398590088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22880887985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39235830307007</t>
+    <t xml:space="preserve">5.22880935668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39235877990723</t>
   </si>
   <si>
     <t xml:space="preserve">5.4788966178894</t>
@@ -2909,10 +2909,10 @@
     <t xml:space="preserve">5.55590772628784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70754718780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9576358795166</t>
+    <t xml:space="preserve">5.70754814147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95763540267944</t>
   </si>
   <si>
     <t xml:space="preserve">5.94255018234253</t>
@@ -2921,28 +2921,28 @@
     <t xml:space="preserve">6.01638603210449</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01559209823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98780345916748</t>
+    <t xml:space="preserve">6.01559162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98780393600464</t>
   </si>
   <si>
     <t xml:space="preserve">5.96398639678955</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81711006164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83139991760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84489774703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00685787200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95842885971069</t>
+    <t xml:space="preserve">5.81710958480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8314003944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84489727020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00685834884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95842933654785</t>
   </si>
   <si>
     <t xml:space="preserve">5.93302345275879</t>
@@ -2951,55 +2951,55 @@
     <t xml:space="preserve">6.03385210037231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20137119293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05290651321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08386898040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06481552124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13229942321777</t>
+    <t xml:space="preserve">6.20137071609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05290699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08386945724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06481599807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13229990005493</t>
   </si>
   <si>
     <t xml:space="preserve">6.095778465271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11483240127563</t>
+    <t xml:space="preserve">6.11483287811279</t>
   </si>
   <si>
     <t xml:space="preserve">6.30934524536133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25138807296753</t>
+    <t xml:space="preserve">6.25138854980469</t>
   </si>
   <si>
     <t xml:space="preserve">6.28314542770386</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3315749168396</t>
+    <t xml:space="preserve">6.33157539367676</t>
   </si>
   <si>
     <t xml:space="preserve">6.41970157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30061149597168</t>
+    <t xml:space="preserve">6.30061197280884</t>
   </si>
   <si>
     <t xml:space="preserve">6.44828224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36253833770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48559713363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55228853225708</t>
+    <t xml:space="preserve">6.36253786087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48559665679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55228757858276</t>
   </si>
   <si>
     <t xml:space="preserve">6.69043064117432</t>
@@ -3026,10 +3026,10 @@
     <t xml:space="preserve">6.39961290359497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46036815643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26757001876831</t>
+    <t xml:space="preserve">6.46036863327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26756954193115</t>
   </si>
   <si>
     <t xml:space="preserve">6.26108932495117</t>
@@ -3038,31 +3038,31 @@
     <t xml:space="preserve">6.36396932601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3745002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34533786773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26189947128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33075618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37125968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45145750045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5697283744812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48710155487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38746166229248</t>
+    <t xml:space="preserve">6.37450075149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34533739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33075666427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37126016616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45145702362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56972885131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48710107803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38746118545532</t>
   </si>
   <si>
     <t xml:space="preserve">6.32508516311646</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">6.30888366699219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.282151222229</t>
+    <t xml:space="preserve">6.28215169906616</t>
   </si>
   <si>
     <t xml:space="preserve">6.26270914077759</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">6.37206983566284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32184553146362</t>
+    <t xml:space="preserve">6.32184505462646</t>
   </si>
   <si>
     <t xml:space="preserve">6.3169846534729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17036056518555</t>
+    <t xml:space="preserve">6.17036008834839</t>
   </si>
   <si>
     <t xml:space="preserve">6.18899250030518</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">6.1476788520813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07882165908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.195472240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14038705825806</t>
+    <t xml:space="preserve">6.07882213592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19547271728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14038753509521</t>
   </si>
   <si>
     <t xml:space="preserve">6.00429439544678</t>
@@ -3113,61 +3113,61 @@
     <t xml:space="preserve">6.05370950698853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19790363311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15983009338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20519399642944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12499618530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18008136749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13633680343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9783730506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01077508926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93057727813721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04317903518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97027206420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94191884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07558155059814</t>
+    <t xml:space="preserve">6.19790315628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15982961654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20519351959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12499666213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18008184432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97837257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01077556610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035249710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93057775497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04317855834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97027063369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94191932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345823287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0755820274353</t>
   </si>
   <si>
     <t xml:space="preserve">6.00915575027466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04965877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98971319198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9654107093811</t>
+    <t xml:space="preserve">6.04965925216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98971366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96541118621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.15334939956665</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">6.11365556716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09502363204956</t>
+    <t xml:space="preserve">6.0950231552124</t>
   </si>
   <si>
     <t xml:space="preserve">6.22706604003906</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">6.24731779098511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04560899734497</t>
+    <t xml:space="preserve">6.04560804367065</t>
   </si>
   <si>
     <t xml:space="preserve">6.09745359420776</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">6.05046892166138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14200782775879</t>
+    <t xml:space="preserve">6.14200830459595</t>
   </si>
   <si>
     <t xml:space="preserve">6.08773231506348</t>
@@ -3203,28 +3203,28 @@
     <t xml:space="preserve">6.0350775718689</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13147735595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99052333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63003921508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61950731277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53606986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65920209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84633016586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865129470825</t>
+    <t xml:space="preserve">6.13147687911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99052286148071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63003873825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61950778961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53607034683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65920257568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84632968902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865177154541</t>
   </si>
   <si>
     <t xml:space="preserve">6.16550016403198</t>
@@ -3233,13 +3233,13 @@
     <t xml:space="preserve">6.52193403244019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5186939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65235710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54542636871338</t>
+    <t xml:space="preserve">6.51869440078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65235662460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54542684555054</t>
   </si>
   <si>
     <t xml:space="preserve">6.49682235717773</t>
@@ -3248,28 +3248,28 @@
     <t xml:space="preserve">6.55271673202515</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57135009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5794506072998</t>
+    <t xml:space="preserve">6.57134962081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57944965362549</t>
   </si>
   <si>
     <t xml:space="preserve">6.61347246170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66936874389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923294067383</t>
+    <t xml:space="preserve">6.66936826705933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923246383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.87512922286987</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86135768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88727903366089</t>
+    <t xml:space="preserve">6.86135721206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88727998733521</t>
   </si>
   <si>
     <t xml:space="preserve">6.780348777771</t>
@@ -3278,25 +3278,25 @@
     <t xml:space="preserve">6.73984527587891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70906209945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64992570877075</t>
+    <t xml:space="preserve">6.70906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64992666244507</t>
   </si>
   <si>
     <t xml:space="preserve">6.64749670028687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6272439956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61023283004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57782936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6507363319397</t>
+    <t xml:space="preserve">6.62724351882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61023235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57782983779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65073680877686</t>
   </si>
   <si>
     <t xml:space="preserve">6.52031373977661</t>
@@ -3311,10 +3311,10 @@
     <t xml:space="preserve">6.62076425552368</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53813600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70015096664429</t>
+    <t xml:space="preserve">6.53813552856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70015144348145</t>
   </si>
   <si>
     <t xml:space="preserve">6.76009750366211</t>
@@ -3323,40 +3323,40 @@
     <t xml:space="preserve">6.70420169830322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85082578659058</t>
+    <t xml:space="preserve">6.85082530975342</t>
   </si>
   <si>
     <t xml:space="preserve">6.80060148239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23318195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2404727935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24857330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994327545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15541458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17647743225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09466361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08557271957397</t>
+    <t xml:space="preserve">7.23318290710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24047327041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24857378005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111209869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22994232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15541553497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17647695541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09466314315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08557319641113</t>
   </si>
   <si>
     <t xml:space="preserve">7.08887910842896</t>
@@ -3371,16 +3371,16 @@
     <t xml:space="preserve">6.88806295394897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9417781829834</t>
+    <t xml:space="preserve">6.94177865982056</t>
   </si>
   <si>
     <t xml:space="preserve">6.81038093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76906061172485</t>
+    <t xml:space="preserve">6.94260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76906108856201</t>
   </si>
   <si>
     <t xml:space="preserve">6.79385280609131</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">6.77649831771851</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06739282608032</t>
+    <t xml:space="preserve">7.06739187240601</t>
   </si>
   <si>
     <t xml:space="preserve">7.07069730758667</t>
@@ -3398,43 +3398,43 @@
     <t xml:space="preserve">6.98061895370483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02441883087158</t>
+    <t xml:space="preserve">7.02441930770874</t>
   </si>
   <si>
     <t xml:space="preserve">6.84591627120972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87401294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99301528930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99797391891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99549531936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86161851882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.773193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67485094070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59221124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54510545730591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47899341583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48229932785034</t>
+    <t xml:space="preserve">6.87401437759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99301624298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99797439575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9954948425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86161804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77319288253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67485046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59221076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54510593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47899389266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48229885101318</t>
   </si>
   <si>
     <t xml:space="preserve">6.56741857528687</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">6.50626516342163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68063497543335</t>
+    <t xml:space="preserve">6.68063545227051</t>
   </si>
   <si>
     <t xml:space="preserve">6.69633722305298</t>
@@ -3461,19 +3461,19 @@
     <t xml:space="preserve">6.78889465332031</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88062524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82195091247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76079654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80790233612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74509525299072</t>
+    <t xml:space="preserve">6.88062572479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82195043563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76079607009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80790138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74509477615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.66410779953003</t>
@@ -3482,40 +3482,40 @@
     <t xml:space="preserve">6.86409759521484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87897253036499</t>
+    <t xml:space="preserve">6.87897300720215</t>
   </si>
   <si>
     <t xml:space="preserve">6.96326494216919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.976487159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96409130096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0302038192749</t>
+    <t xml:space="preserve">6.97648859024048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96409225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03020334243774</t>
   </si>
   <si>
     <t xml:space="preserve">6.96904945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01863431930542</t>
+    <t xml:space="preserve">7.01863479614258</t>
   </si>
   <si>
     <t xml:space="preserve">6.970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06904411315918</t>
+    <t xml:space="preserve">7.0690450668335</t>
   </si>
   <si>
     <t xml:space="preserve">7.09548997879028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14920568466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10210037231445</t>
+    <t xml:space="preserve">7.14920520782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10210084915161</t>
   </si>
   <si>
     <t xml:space="preserve">7.09053182601929</t>
@@ -3524,64 +3524,64 @@
     <t xml:space="preserve">7.12441444396973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03185606002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135818481445</t>
+    <t xml:space="preserve">7.03185653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135770797729</t>
   </si>
   <si>
     <t xml:space="preserve">7.15581703186035</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15829563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0698709487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01367664337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2045750617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21862411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14011573791504</t>
+    <t xml:space="preserve">7.15829610824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06987190246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01367616653442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20457458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21862268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1401162147522</t>
   </si>
   <si>
     <t xml:space="preserve">6.98144578933716</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89054155349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83186769485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90541744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78145694732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85004758834839</t>
+    <t xml:space="preserve">6.89054203033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83186721801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90541696548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78145742416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85004806518555</t>
   </si>
   <si>
     <t xml:space="preserve">6.83269357681274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83765268325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60460662841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68724727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77980422973633</t>
+    <t xml:space="preserve">6.8376522064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60460710525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68724679946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77980470657349</t>
   </si>
   <si>
     <t xml:space="preserve">6.74096250534058</t>
@@ -3596,22 +3596,22 @@
     <t xml:space="preserve">6.67237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7665810585022</t>
+    <t xml:space="preserve">6.76658153533936</t>
   </si>
   <si>
     <t xml:space="preserve">6.74261665344238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74922657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73269939422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72939300537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65749597549438</t>
+    <t xml:space="preserve">6.74922704696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73269891738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72939348220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65749645233154</t>
   </si>
   <si>
     <t xml:space="preserve">6.59551620483398</t>
@@ -3620,64 +3620,64 @@
     <t xml:space="preserve">6.52196645736694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55419683456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61369752883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62113475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62196111679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57898902893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62939882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69551086425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67733001708984</t>
+    <t xml:space="preserve">6.55419588088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61369657516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62113523483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62196016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57898807525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62939929962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69551134109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67732954025269</t>
   </si>
   <si>
     <t xml:space="preserve">6.78724193572998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67650413513184</t>
+    <t xml:space="preserve">6.67650365829468</t>
   </si>
   <si>
     <t xml:space="preserve">6.65584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71038579940796</t>
+    <t xml:space="preserve">6.71038627624512</t>
   </si>
   <si>
     <t xml:space="preserve">6.70046949386597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58725166320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63931608200073</t>
+    <t xml:space="preserve">6.58725309371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63931560516357</t>
   </si>
   <si>
     <t xml:space="preserve">6.61865568161011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58973121643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6426215171814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47238302230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48643112182617</t>
+    <t xml:space="preserve">6.58973169326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64262104034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47238206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48643159866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.4880838394165</t>
@@ -3689,106 +3689,106 @@
     <t xml:space="preserve">6.56246042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51452922821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54841136932373</t>
+    <t xml:space="preserve">6.51452875137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54841184616089</t>
   </si>
   <si>
     <t xml:space="preserve">6.6624550819397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65914869308472</t>
+    <t xml:space="preserve">6.65914916992188</t>
   </si>
   <si>
     <t xml:space="preserve">6.63105154037476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55502319335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61948204040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43088626861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43849658966064</t>
+    <t xml:space="preserve">6.55502271652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61948251724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43088579177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4384970664978</t>
   </si>
   <si>
     <t xml:space="preserve">6.60510444641113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72942590713501</t>
+    <t xml:space="preserve">6.72942638397217</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83429670333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73365497589111</t>
+    <t xml:space="preserve">6.83429622650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73365449905396</t>
   </si>
   <si>
     <t xml:space="preserve">6.81230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77847862243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57973337173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5450587272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50700092315674</t>
+    <t xml:space="preserve">6.77847814559937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57973289489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54505825042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50700044631958</t>
   </si>
   <si>
     <t xml:space="preserve">6.51461267471313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55605220794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56197261810303</t>
+    <t xml:space="preserve">6.55605268478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56197214126587</t>
   </si>
   <si>
     <t xml:space="preserve">6.5949559211731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58649921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62455701828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63385963439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67191743850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63639640808105</t>
+    <t xml:space="preserve">6.58649873733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62455654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63385915756226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67191696166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63639688491821</t>
   </si>
   <si>
     <t xml:space="preserve">6.57719564437866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6431622505188</t>
+    <t xml:space="preserve">6.64316272735596</t>
   </si>
   <si>
     <t xml:space="preserve">6.69982576370239</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76663827896118</t>
+    <t xml:space="preserve">6.76663875579834</t>
   </si>
   <si>
     <t xml:space="preserve">6.62371063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56366443634033</t>
+    <t xml:space="preserve">6.56366395950317</t>
   </si>
   <si>
     <t xml:space="preserve">6.49346923828125</t>
@@ -3800,10 +3800,10 @@
     <t xml:space="preserve">6.55267000198364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52645301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.52645254135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.53068113327026</t>
@@ -3815,13 +3815,13 @@
     <t xml:space="preserve">6.41904544830322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35815334320068</t>
+    <t xml:space="preserve">6.35815382003784</t>
   </si>
   <si>
     <t xml:space="preserve">6.36830234527588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23721504211426</t>
+    <t xml:space="preserve">6.2372145652771</t>
   </si>
   <si>
     <t xml:space="preserve">6.34208488464355</t>
@@ -3830,16 +3830,16 @@
     <t xml:space="preserve">6.2879581451416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94121074676514</t>
+    <t xml:space="preserve">5.94121170043945</t>
   </si>
   <si>
     <t xml:space="preserve">5.92091417312622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88539409637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78475284576416</t>
+    <t xml:space="preserve">5.88539361953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.784752368927</t>
   </si>
   <si>
     <t xml:space="preserve">5.83465051651001</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">5.86932468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9868803024292</t>
+    <t xml:space="preserve">5.98688077926636</t>
   </si>
   <si>
     <t xml:space="preserve">5.9352912902832</t>
@@ -3866,13 +3866,13 @@
     <t xml:space="preserve">5.62491035461426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69087743759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69848871231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6900315284729</t>
+    <t xml:space="preserve">5.69087696075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69848823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69003200531006</t>
   </si>
   <si>
     <t xml:space="preserve">5.83803272247314</t>
@@ -3887,64 +3887,64 @@
     <t xml:space="preserve">5.72132349014282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77629566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8405704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9885721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09767055511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06637859344482</t>
+    <t xml:space="preserve">5.77629518508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84057092666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98857164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09767007827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06637811660767</t>
   </si>
   <si>
     <t xml:space="preserve">6.02747535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97165775299072</t>
+    <t xml:space="preserve">5.97165727615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.0426983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10274505615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14841365814209</t>
+    <t xml:space="preserve">6.10274457931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14841413497925</t>
   </si>
   <si>
     <t xml:space="preserve">6.11965942382812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16109943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11543083190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13657379150391</t>
+    <t xml:space="preserve">6.16109991073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11543035507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13657331466675</t>
   </si>
   <si>
     <t xml:space="preserve">6.13319110870361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16871118545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08498430252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99956655502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05538415908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00379467010498</t>
+    <t xml:space="preserve">6.16871166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08498477935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99956607818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05538463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00379514694214</t>
   </si>
   <si>
     <t xml:space="preserve">6.04692697525024</t>
@@ -3953,10 +3953,10 @@
     <t xml:space="preserve">5.99364614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97757720947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95558834075928</t>
+    <t xml:space="preserve">5.97757768630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95558881759644</t>
   </si>
   <si>
     <t xml:space="preserve">5.87778186798096</t>
@@ -3965,13 +3965,13 @@
     <t xml:space="preserve">5.87947368621826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8414158821106</t>
+    <t xml:space="preserve">5.84141540527344</t>
   </si>
   <si>
     <t xml:space="preserve">5.95812606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04608201980591</t>
+    <t xml:space="preserve">6.04608154296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.76445531845093</t>
@@ -3983,25 +3983,25 @@
     <t xml:space="preserve">5.67227125167847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71286630630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57332134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51919507980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68580293655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76022624969482</t>
+    <t xml:space="preserve">5.71286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57332181930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51919555664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6858024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76022672653198</t>
   </si>
   <si>
     <t xml:space="preserve">5.66719722747803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66804265975952</t>
+    <t xml:space="preserve">5.66804218292236</t>
   </si>
   <si>
     <t xml:space="preserve">5.65789413452148</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">5.5851616859436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60376739501953</t>
+    <t xml:space="preserve">5.60376787185669</t>
   </si>
   <si>
     <t xml:space="preserve">5.66381454467773</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">5.62237358093262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70525455474854</t>
+    <t xml:space="preserve">5.70525407791138</t>
   </si>
   <si>
     <t xml:space="preserve">5.6266016960144</t>
@@ -4028,31 +4028,31 @@
     <t xml:space="preserve">5.7805233001709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81519794464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85917615890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95051383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92852592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95897102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06553268432617</t>
+    <t xml:space="preserve">5.81519842147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84902763366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85917568206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95051431655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92852544784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95897197723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06553316116333</t>
   </si>
   <si>
     <t xml:space="preserve">6.02155494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87693691253662</t>
+    <t xml:space="preserve">5.87693643569946</t>
   </si>
   <si>
     <t xml:space="preserve">5.84310722351074</t>
@@ -4061,22 +4061,22 @@
     <t xml:space="preserve">5.86086750030518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86171388626099</t>
+    <t xml:space="preserve">5.86171340942383</t>
   </si>
   <si>
     <t xml:space="preserve">5.85410165786743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8870849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75684404373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8042049407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92260503768921</t>
+    <t xml:space="preserve">5.88708543777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75684356689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80420446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92260551452637</t>
   </si>
   <si>
     <t xml:space="preserve">5.83972501754761</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">5.89712142944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96060609817505</t>
+    <t xml:space="preserve">5.96060657501221</t>
   </si>
   <si>
     <t xml:space="preserve">5.95625829696655</t>
@@ -4115,13 +4115,13 @@
     <t xml:space="preserve">5.50577735900879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63274765014648</t>
+    <t xml:space="preserve">5.63274717330933</t>
   </si>
   <si>
     <t xml:space="preserve">5.59361267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56056547164917</t>
+    <t xml:space="preserve">5.56056594848633</t>
   </si>
   <si>
     <t xml:space="preserve">5.49621152877808</t>
@@ -4130,7 +4130,7 @@
     <t xml:space="preserve">5.59100341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66144561767578</t>
+    <t xml:space="preserve">5.66144609451294</t>
   </si>
   <si>
     <t xml:space="preserve">5.63709497451782</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">5.59622192382812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47533941268921</t>
+    <t xml:space="preserve">5.47533988952637</t>
   </si>
   <si>
     <t xml:space="preserve">5.51708316802979</t>
@@ -4151,7 +4151,7 @@
     <t xml:space="preserve">5.38489580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69536161422729</t>
+    <t xml:space="preserve">5.69536209106445</t>
   </si>
   <si>
     <t xml:space="preserve">5.738844871521</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">4.8361439704895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.976158618927</t>
+    <t xml:space="preserve">4.97615814208984</t>
   </si>
   <si>
     <t xml:space="preserve">5.25183868408203</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">5.30227851867676</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27705812454224</t>
+    <t xml:space="preserve">5.27705860137939</t>
   </si>
   <si>
     <t xml:space="preserve">5.3083667755127</t>
@@ -4226,25 +4226,25 @@
     <t xml:space="preserve">5.31358432769775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41968154907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39880990982056</t>
+    <t xml:space="preserve">5.41968107223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39881038665771</t>
   </si>
   <si>
     <t xml:space="preserve">5.36402416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48751449584961</t>
+    <t xml:space="preserve">5.48751497268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.46751260757446</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43359661102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39011335372925</t>
+    <t xml:space="preserve">5.43359708786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39011383056641</t>
   </si>
   <si>
     <t xml:space="preserve">5.3935923576355</t>
@@ -4271,16 +4271,16 @@
     <t xml:space="preserve">5.40924596786499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40750694274902</t>
+    <t xml:space="preserve">5.40750646591187</t>
   </si>
   <si>
     <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43446636199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.386634349823</t>
+    <t xml:space="preserve">5.43446588516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663482666016</t>
   </si>
   <si>
     <t xml:space="preserve">5.26575326919556</t>
@@ -4295,10 +4295,10 @@
     <t xml:space="preserve">5.08051729202271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20052909851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07703828811646</t>
+    <t xml:space="preserve">5.2005295753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0770378112793</t>
   </si>
   <si>
     <t xml:space="preserve">5.16313409805298</t>
@@ -4319,10 +4319,10 @@
     <t xml:space="preserve">5.32489013671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33358669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33271646499634</t>
+    <t xml:space="preserve">5.3335862159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3327169418335</t>
   </si>
   <si>
     <t xml:space="preserve">5.37793827056885</t>
@@ -4340,13 +4340,13 @@
     <t xml:space="preserve">5.15182828903198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17791843414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13530540466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24314165115356</t>
+    <t xml:space="preserve">5.17791795730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13530492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24314212799072</t>
   </si>
   <si>
     <t xml:space="preserve">5.20748662948608</t>
@@ -4370,7 +4370,7 @@
     <t xml:space="preserve">4.83179664611816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69612979888916</t>
+    <t xml:space="preserve">4.69613027572632</t>
   </si>
   <si>
     <t xml:space="preserve">4.73265504837036</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">4.65351676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71526193618774</t>
+    <t xml:space="preserve">4.7152624130249</t>
   </si>
   <si>
     <t xml:space="preserve">4.79440069198608</t>
@@ -4394,13 +4394,13 @@
     <t xml:space="preserve">4.70395708084106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76222324371338</t>
+    <t xml:space="preserve">4.76222372055054</t>
   </si>
   <si>
     <t xml:space="preserve">4.69786930084229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53959274291992</t>
+    <t xml:space="preserve">4.53959226608276</t>
   </si>
   <si>
     <t xml:space="preserve">4.62047052383423</t>
@@ -4409,28 +4409,28 @@
     <t xml:space="preserve">4.59264087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41523170471191</t>
+    <t xml:space="preserve">4.41523218154907</t>
   </si>
   <si>
     <t xml:space="preserve">4.5013279914856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57698726654053</t>
+    <t xml:space="preserve">4.57698774337769</t>
   </si>
   <si>
     <t xml:space="preserve">4.56742095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55872488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50306701660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45871448516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20477533340454</t>
+    <t xml:space="preserve">4.55872535705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5030665397644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45871496200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2047758102417</t>
   </si>
   <si>
     <t xml:space="preserve">4.34826803207397</t>
@@ -4439,40 +4439,40 @@
     <t xml:space="preserve">4.43776512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4960732460022</t>
+    <t xml:space="preserve">4.49607372283936</t>
   </si>
   <si>
     <t xml:space="preserve">4.35550022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29222011566162</t>
+    <t xml:space="preserve">4.29222059249878</t>
   </si>
   <si>
     <t xml:space="preserve">4.27052354812622</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29402828216553</t>
+    <t xml:space="preserve">4.29402780532837</t>
   </si>
   <si>
     <t xml:space="preserve">4.28092002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27685213088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33335256576538</t>
+    <t xml:space="preserve">4.27685165405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33335208892822</t>
   </si>
   <si>
     <t xml:space="preserve">4.47754192352295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39708471298218</t>
+    <t xml:space="preserve">4.39708518981934</t>
   </si>
   <si>
     <t xml:space="preserve">4.40702867507935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44138097763062</t>
+    <t xml:space="preserve">4.44138145446777</t>
   </si>
   <si>
     <t xml:space="preserve">4.47573328018188</t>
@@ -4490,7 +4490,7 @@
     <t xml:space="preserve">4.52002906799316</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55166912078857</t>
+    <t xml:space="preserve">4.55166959762573</t>
   </si>
   <si>
     <t xml:space="preserve">4.61223793029785</t>
@@ -4499,34 +4499,34 @@
     <t xml:space="preserve">4.6077184677124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60319805145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52274179458618</t>
+    <t xml:space="preserve">4.60319852828979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52274131774902</t>
   </si>
   <si>
     <t xml:space="preserve">4.46126937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46578931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47030925750732</t>
+    <t xml:space="preserve">4.46578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47030878067017</t>
   </si>
   <si>
     <t xml:space="preserve">4.47121334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3686089515686</t>
+    <t xml:space="preserve">4.36860847473145</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35143232345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24476003646851</t>
+    <t xml:space="preserve">4.35143184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24475955963135</t>
   </si>
   <si>
     <t xml:space="preserve">4.19684791564941</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">4.22848749160767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29312467575073</t>
+    <t xml:space="preserve">4.29312419891357</t>
   </si>
   <si>
     <t xml:space="preserve">4.34465265274048</t>
@@ -4550,7 +4550,7 @@
     <t xml:space="preserve">4.38894891738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51234531402588</t>
+    <t xml:space="preserve">4.51234579086304</t>
   </si>
   <si>
     <t xml:space="preserve">4.47392559051514</t>
@@ -4565,7 +4565,7 @@
     <t xml:space="preserve">4.44725704193115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45720148086548</t>
+    <t xml:space="preserve">4.45720100402832</t>
   </si>
   <si>
     <t xml:space="preserve">4.37584018707275</t>
@@ -4586,13 +4586,13 @@
     <t xml:space="preserve">3.8890335559845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90440130233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84021759033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81852102279663</t>
+    <t xml:space="preserve">3.90440154075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84021735191345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81852078437805</t>
   </si>
   <si>
     <t xml:space="preserve">3.93875360488892</t>
@@ -4604,16 +4604,16 @@
     <t xml:space="preserve">3.90666127204895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76970458030701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72586035728455</t>
+    <t xml:space="preserve">3.76970481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72586059570312</t>
   </si>
   <si>
     <t xml:space="preserve">3.78688073158264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68472838401794</t>
+    <t xml:space="preserve">3.68472814559937</t>
   </si>
   <si>
     <t xml:space="preserve">3.61873555183411</t>
@@ -4631,22 +4631,22 @@
     <t xml:space="preserve">3.84925699234009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87230944633484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83388924598694</t>
+    <t xml:space="preserve">3.87230920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83388900756836</t>
   </si>
   <si>
     <t xml:space="preserve">3.79185271263123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88134932518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95864224433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406579017639</t>
+    <t xml:space="preserve">3.88134956359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95864200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406602859497</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791446685791</t>
@@ -4655,22 +4655,22 @@
     <t xml:space="preserve">4.04271459579468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08520269393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10373497009277</t>
+    <t xml:space="preserve">4.08520317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10373544692993</t>
   </si>
   <si>
     <t xml:space="preserve">4.15164709091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13492298126221</t>
+    <t xml:space="preserve">4.13492345809937</t>
   </si>
   <si>
     <t xml:space="preserve">4.23029565811157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28272819519043</t>
+    <t xml:space="preserve">4.28272771835327</t>
   </si>
   <si>
     <t xml:space="preserve">4.32476425170898</t>
@@ -4679,28 +4679,28 @@
     <t xml:space="preserve">4.35640430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52906942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56342172622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59144639968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61947059631348</t>
+    <t xml:space="preserve">4.5290699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56342124938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59144592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61947011947632</t>
   </si>
   <si>
     <t xml:space="preserve">4.64568662643433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66195917129517</t>
+    <t xml:space="preserve">4.66195869445801</t>
   </si>
   <si>
     <t xml:space="preserve">4.59686994552612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57698202133179</t>
+    <t xml:space="preserve">4.57698249816895</t>
   </si>
   <si>
     <t xml:space="preserve">4.6583423614502</t>
@@ -4727,7 +4727,7 @@
     <t xml:space="preserve">4.77134323120117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70625495910645</t>
+    <t xml:space="preserve">4.70625448226929</t>
   </si>
   <si>
     <t xml:space="preserve">4.72252702713013</t>
@@ -4748,7 +4748,7 @@
     <t xml:space="preserve">4.74783897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56975030899048</t>
+    <t xml:space="preserve">4.56974983215332</t>
   </si>
   <si>
     <t xml:space="preserve">4.56523036956787</t>
@@ -4769,10 +4769,10 @@
     <t xml:space="preserve">4.61133432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59054183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5643253326416</t>
+    <t xml:space="preserve">4.59054231643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56432580947876</t>
   </si>
   <si>
     <t xml:space="preserve">4.54714965820312</t>
@@ -4784,19 +4784,19 @@
     <t xml:space="preserve">4.79123163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96028089523315</t>
+    <t xml:space="preserve">4.960280418396</t>
   </si>
   <si>
     <t xml:space="preserve">4.95214462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06333684921265</t>
+    <t xml:space="preserve">5.0633373260498</t>
   </si>
   <si>
     <t xml:space="preserve">5.0615291595459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00457668304443</t>
+    <t xml:space="preserve">5.00457620620728</t>
   </si>
   <si>
     <t xml:space="preserve">5.08955335617065</t>
@@ -4814,19 +4814,19 @@
     <t xml:space="preserve">5.2070746421814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21069049835205</t>
+    <t xml:space="preserve">5.21069002151489</t>
   </si>
   <si>
     <t xml:space="preserve">5.11396169662476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10763311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074348449707</t>
+    <t xml:space="preserve">5.10763359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12262868881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074396133423</t>
   </si>
   <si>
     <t xml:space="preserve">5.13387441635132</t>
@@ -4841,7 +4841,7 @@
     <t xml:space="preserve">5.09170150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05233955383301</t>
+    <t xml:space="preserve">5.05234003067017</t>
   </si>
   <si>
     <t xml:space="preserve">4.94175243377686</t>
@@ -4850,16 +4850,16 @@
     <t xml:space="preserve">5.04390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02516174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0410943031311</t>
+    <t xml:space="preserve">5.0251612663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04109382629395</t>
   </si>
   <si>
     <t xml:space="preserve">5.0223503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01016712188721</t>
+    <t xml:space="preserve">5.01016664505005</t>
   </si>
   <si>
     <t xml:space="preserve">5.00454378128052</t>
@@ -4871,7 +4871,7 @@
     <t xml:space="preserve">5.06358575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04203081130981</t>
+    <t xml:space="preserve">5.04203128814697</t>
   </si>
   <si>
     <t xml:space="preserve">5.04859113693237</t>
@@ -4883,10 +4883,10 @@
     <t xml:space="preserve">5.01672697067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01391506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111391067505</t>
+    <t xml:space="preserve">5.01391553878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111438751221</t>
   </si>
   <si>
     <t xml:space="preserve">4.90988826751709</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">4.92956972122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90520238876343</t>
+    <t xml:space="preserve">4.90520286560059</t>
   </si>
   <si>
     <t xml:space="preserve">4.97267961502075</t>
@@ -4913,7 +4913,7 @@
     <t xml:space="preserve">4.96799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99892044067383</t>
+    <t xml:space="preserve">4.99892091751099</t>
   </si>
   <si>
     <t xml:space="preserve">4.96237087249756</t>
@@ -4922,10 +4922,10 @@
     <t xml:space="preserve">4.98580026626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98486232757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99142360687256</t>
+    <t xml:space="preserve">4.98486280441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9914231300354</t>
   </si>
   <si>
     <t xml:space="preserve">4.89864253997803</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">4.91644859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96330785751343</t>
+    <t xml:space="preserve">4.96330738067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.95487308502197</t>
@@ -4949,19 +4949,19 @@
     <t xml:space="preserve">5.13574886322021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15824174880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327749252319</t>
+    <t xml:space="preserve">5.15824127197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327701568604</t>
   </si>
   <si>
     <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16199016571045</t>
+    <t xml:space="preserve">5.16198968887329</t>
   </si>
   <si>
     <t xml:space="preserve">5.25758218765259</t>
@@ -4979,22 +4979,22 @@
     <t xml:space="preserve">5.30631589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48156881332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5331130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61558532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39534759521484</t>
+    <t xml:space="preserve">5.48156833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53311347961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6155858039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.395348072052</t>
   </si>
   <si>
     <t xml:space="preserve">5.34942626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36067247390747</t>
+    <t xml:space="preserve">5.36067199707031</t>
   </si>
   <si>
     <t xml:space="preserve">5.39722204208374</t>
@@ -5009,13 +5009,13 @@
     <t xml:space="preserve">5.55841779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6493239402771</t>
+    <t xml:space="preserve">5.64932346343994</t>
   </si>
   <si>
     <t xml:space="preserve">5.67556524276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7074294090271</t>
+    <t xml:space="preserve">5.70742893218994</t>
   </si>
   <si>
     <t xml:space="preserve">5.77771759033203</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">5.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71492624282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7158637046814</t>
+    <t xml:space="preserve">5.71492671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71586322784424</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461750030518</t>
@@ -5045,25 +5045,25 @@
     <t xml:space="preserve">5.71024084091187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66431903839111</t>
+    <t xml:space="preserve">5.66431856155396</t>
   </si>
   <si>
     <t xml:space="preserve">5.67743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995218276978</t>
+    <t xml:space="preserve">5.63995170593262</t>
   </si>
   <si>
     <t xml:space="preserve">5.64182615280151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60246515274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53030157089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63151741027832</t>
+    <t xml:space="preserve">5.60246467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53030204772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63151693344116</t>
   </si>
   <si>
     <t xml:space="preserve">5.65963268280029</t>
@@ -5081,7 +5081,7 @@
     <t xml:space="preserve">5.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58278369903564</t>
+    <t xml:space="preserve">5.5827841758728</t>
   </si>
   <si>
     <t xml:space="preserve">5.63432931900024</t>
@@ -5090,25 +5090,25 @@
     <t xml:space="preserve">5.49000310897827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58372163772583</t>
+    <t xml:space="preserve">5.58372116088867</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619300842285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6202712059021</t>
+    <t xml:space="preserve">5.62027168273926</t>
   </si>
   <si>
     <t xml:space="preserve">5.66994190216064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69243431091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69149684906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72710943222046</t>
+    <t xml:space="preserve">5.69243383407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69149732589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72710990905762</t>
   </si>
   <si>
     <t xml:space="preserve">5.68868541717529</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">5.75147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76178503036499</t>
+    <t xml:space="preserve">5.76178550720215</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052949905396</t>
@@ -5138,7 +5138,7 @@
     <t xml:space="preserve">5.84800577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94078683853149</t>
+    <t xml:space="preserve">5.94078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">5.81989049911499</t>
@@ -5159,7 +5159,7 @@
     <t xml:space="preserve">5.83863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93235206604004</t>
+    <t xml:space="preserve">5.9323525428772</t>
   </si>
   <si>
     <t xml:space="preserve">5.84613180160522</t>
@@ -5168,13 +5168,13 @@
     <t xml:space="preserve">5.88268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88080739974976</t>
+    <t xml:space="preserve">5.88080787658691</t>
   </si>
   <si>
     <t xml:space="preserve">5.89861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93797540664673</t>
+    <t xml:space="preserve">5.93797492980957</t>
   </si>
   <si>
     <t xml:space="preserve">5.99507141113281</t>
@@ -5799,6 +5799,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.71000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67899990081787</t>
   </si>
 </sst>
 </file>
@@ -61936,7 +61939,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6521527778</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>24813304</v>
@@ -61957,6 +61960,32 @@
         <v>1928</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6495138889</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>17332817</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>6.68400001525879</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>6.6100001335144</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>6.63500022888184</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>6.67899990081787</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1931">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4614372253418</t>
+    <t xml:space="preserve">2.46143746376038</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
@@ -50,19 +50,19 @@
     <t xml:space="preserve">2.44580936431885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45622801780701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43669271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43929719924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236685752869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883250236511</t>
+    <t xml:space="preserve">2.45622825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43669319152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43929767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236638069153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883297920227</t>
   </si>
   <si>
     <t xml:space="preserve">2.43408846855164</t>
@@ -74,52 +74,52 @@
     <t xml:space="preserve">2.34683108329773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37418007850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30255126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37678503990173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42757678031921</t>
+    <t xml:space="preserve">2.37418031692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30255103111267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37678480148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42757654190063</t>
   </si>
   <si>
     <t xml:space="preserve">2.41455292701721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44841361045837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47836756706238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39111018180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45362305641174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44711184501648</t>
+    <t xml:space="preserve">2.44841432571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47836780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39111065864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45362329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44711136817932</t>
   </si>
   <si>
     <t xml:space="preserve">2.41064596176147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3624587059021</t>
+    <t xml:space="preserve">2.36245894432068</t>
   </si>
   <si>
     <t xml:space="preserve">2.30906271934509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27780628204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27520155906677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29603910446167</t>
+    <t xml:space="preserve">2.27780652046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27520179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29603958129883</t>
   </si>
   <si>
     <t xml:space="preserve">2.21268892288208</t>
@@ -131,91 +131,91 @@
     <t xml:space="preserve">2.38199424743652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.366366147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.372878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35724949836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3689706325531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30515551567078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3989245891571</t>
+    <t xml:space="preserve">2.36636567115784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37287783622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35724925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36897087097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30515575408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39892435073853</t>
   </si>
   <si>
     <t xml:space="preserve">2.41194796562195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43539047241211</t>
+    <t xml:space="preserve">2.43539023399353</t>
   </si>
   <si>
     <t xml:space="preserve">2.41845989227295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38459920883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39371562004089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46664714813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47967076301575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54739236831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5395781993866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53306674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53697347640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5591139793396</t>
+    <t xml:space="preserve">2.38459897041321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39371585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46664690971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47967052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54739189147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53957843780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53306651115417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53697323799133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55911350250244</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999709129333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55260157585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348516464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5317645072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54609036445618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58646249771118</t>
+    <t xml:space="preserve">2.55260181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348564147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53176403045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5460901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58646297454834</t>
   </si>
   <si>
     <t xml:space="preserve">2.60469603538513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53827595710754</t>
+    <t xml:space="preserve">2.53827571868896</t>
   </si>
   <si>
     <t xml:space="preserve">2.52525234222412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50180983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887902259827</t>
+    <t xml:space="preserve">2.50181031227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887854576111</t>
   </si>
   <si>
     <t xml:space="preserve">2.38329672813416</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">2.44190216064453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4887866973877</t>
+    <t xml:space="preserve">2.48878693580627</t>
   </si>
   <si>
     <t xml:space="preserve">2.49920558929443</t>
@@ -239,43 +239,43 @@
     <t xml:space="preserve">2.55650877952576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52655529975891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427666664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63985896110535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57734656333923</t>
+    <t xml:space="preserve">2.52655434608459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427690505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63985919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57734608650208</t>
   </si>
   <si>
     <t xml:space="preserve">2.5760440826416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56302046775818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54088068008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516049385071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860276222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61511397361755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57213711738586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58906745910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56562519073486</t>
+    <t xml:space="preserve">2.56302070617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54088091850281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516097068787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860300064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61511445045471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57213735580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58906698226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56562566757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.59818410873413</t>
@@ -284,226 +284,226 @@
     <t xml:space="preserve">2.57474207878113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64506840705872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65288257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67372035980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6685106754303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68153405189514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62944030761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63855671882629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641693115234</t>
+    <t xml:space="preserve">2.64506793022156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65288233757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67371988296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66851091384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6815345287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62944054603577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63855648040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641764640808</t>
   </si>
   <si>
     <t xml:space="preserve">2.67892956733704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68674373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68413949012756</t>
+    <t xml:space="preserve">2.68674349784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68413901329041</t>
   </si>
   <si>
     <t xml:space="preserve">2.59297466278076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55129933357239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50701975822449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61771941184998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68282294273376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68960475921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64891481399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401834487915</t>
+    <t xml:space="preserve">2.55129957199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50701928138733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6177191734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68282341957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68960499763489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64891505241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401858329773</t>
   </si>
   <si>
     <t xml:space="preserve">2.44139623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4319019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53769540786743</t>
+    <t xml:space="preserve">2.43190169334412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53769588470459</t>
   </si>
   <si>
     <t xml:space="preserve">2.64484596252441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69909930229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69638633728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7004554271698</t>
+    <t xml:space="preserve">2.69909858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69638586044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70045566558838</t>
   </si>
   <si>
     <t xml:space="preserve">2.63263869285583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61500668525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66519117355347</t>
+    <t xml:space="preserve">2.61500644683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66519069671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417930603027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70588088035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70723748207092</t>
+    <t xml:space="preserve">2.70588064193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70723700523376</t>
   </si>
   <si>
     <t xml:space="preserve">2.70994973182678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69231700897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72893905639648</t>
+    <t xml:space="preserve">2.69231772422791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72893857955933</t>
   </si>
   <si>
     <t xml:space="preserve">2.73165106773376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72486925125122</t>
+    <t xml:space="preserve">2.7248694896698</t>
   </si>
   <si>
     <t xml:space="preserve">2.72080063819885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79268574714661</t>
+    <t xml:space="preserve">2.79268646240234</t>
   </si>
   <si>
     <t xml:space="preserve">2.77912259101868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74250197410583</t>
+    <t xml:space="preserve">2.74250173568726</t>
   </si>
   <si>
     <t xml:space="preserve">2.73029470443726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74114489555359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77640986442566</t>
+    <t xml:space="preserve">2.74114537239075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7764093875885</t>
   </si>
   <si>
     <t xml:space="preserve">2.76284670829773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75470852851868</t>
+    <t xml:space="preserve">2.75470876693726</t>
   </si>
   <si>
     <t xml:space="preserve">2.74928307533264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78726077079773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78319191932678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71808791160583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66790294647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67061638832092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63806462287903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64348936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197227478027</t>
+    <t xml:space="preserve">2.78726053237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7831916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71808743476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66790318489075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67061591148376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63806414604187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64348983764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197251319885</t>
   </si>
   <si>
     <t xml:space="preserve">2.67332911491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68011045455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6977424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65569639205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67604112625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73707628250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978924751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72622585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80082368850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78454780578613</t>
+    <t xml:space="preserve">2.68011069297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69774270057678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65569615364075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67604184150696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73707604408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978900909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72622632980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80082416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78454804420471</t>
   </si>
   <si>
     <t xml:space="preserve">2.74657082557678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69096064567566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65298390388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65705299377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63128304481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66247820854187</t>
+    <t xml:space="preserve">2.69096112251282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65298366546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65705275535583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63128232955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66247773170471</t>
   </si>
   <si>
     <t xml:space="preserve">2.65162777900696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69367361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65976572036743</t>
+    <t xml:space="preserve">2.69367337226868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65976524353027</t>
   </si>
   <si>
     <t xml:space="preserve">2.6638343334198</t>
@@ -512,58 +512,58 @@
     <t xml:space="preserve">2.69503021240234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65434002876282</t>
+    <t xml:space="preserve">2.6543402671814</t>
   </si>
   <si>
     <t xml:space="preserve">2.61093759536743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59601831436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55804061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59737420082092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57296061515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261540412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144329071045</t>
+    <t xml:space="preserve">2.59601807594299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55804085731506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59737491607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5729603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144352912903</t>
   </si>
   <si>
     <t xml:space="preserve">2.59059238433838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68146681785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65027093887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67468476295471</t>
+    <t xml:space="preserve">2.68146657943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65027141571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67468547821045</t>
   </si>
   <si>
     <t xml:space="preserve">2.65840888023376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60822486877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60008668899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58923649787903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60415601730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62314462661743</t>
+    <t xml:space="preserve">2.60822510719299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60008692741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58923602104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60415577888489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62314414978027</t>
   </si>
   <si>
     <t xml:space="preserve">2.5607533454895</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">2.47259163856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4685230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44682192802429</t>
+    <t xml:space="preserve">2.46852231025696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44682168960571</t>
   </si>
   <si>
     <t xml:space="preserve">2.47530460357666</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">2.47666049003601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51192569732666</t>
+    <t xml:space="preserve">2.5119252204895</t>
   </si>
   <si>
     <t xml:space="preserve">2.45224690437317</t>
@@ -593,22 +593,22 @@
     <t xml:space="preserve">2.47394800186157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55125880241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53905200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52820181846619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53362679481506</t>
+    <t xml:space="preserve">2.55125904083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53905177116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52820134162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53362703323364</t>
   </si>
   <si>
     <t xml:space="preserve">2.57024765014648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58652377128601</t>
+    <t xml:space="preserve">2.58652329444885</t>
   </si>
   <si>
     <t xml:space="preserve">2.56753492355347</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">2.77234101295471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76555919647217</t>
+    <t xml:space="preserve">2.76555967330933</t>
   </si>
   <si>
     <t xml:space="preserve">2.72758173942566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75064015388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404187202454</t>
+    <t xml:space="preserve">2.75063967704773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404234886169</t>
   </si>
   <si>
     <t xml:space="preserve">2.82252526283264</t>
@@ -635,25 +635,25 @@
     <t xml:space="preserve">2.80489325523376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8198127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84015774726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86321544647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659411430359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066272735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83473181724548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81574392318726</t>
+    <t xml:space="preserve">2.81981229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84015727043152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86321520805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659435272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066320419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473205566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8157434463501</t>
   </si>
   <si>
     <t xml:space="preserve">2.79539918899536</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">2.80218005180359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82388162612915</t>
+    <t xml:space="preserve">2.82388186454773</t>
   </si>
   <si>
     <t xml:space="preserve">2.81031799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81303095817566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80760550498962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83117532730103</t>
+    <t xml:space="preserve">2.81303071975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80760598182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83117580413818</t>
   </si>
   <si>
     <t xml:space="preserve">2.82563018798828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78126287460327</t>
+    <t xml:space="preserve">2.78126263618469</t>
   </si>
   <si>
     <t xml:space="preserve">2.76046562194824</t>
@@ -689,34 +689,34 @@
     <t xml:space="preserve">2.72718977928162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66895842552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67866349220276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68005013465881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69391465187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71471190452576</t>
+    <t xml:space="preserve">2.66895866394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67866373062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68005037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69391489028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71471166610718</t>
   </si>
   <si>
     <t xml:space="preserve">2.66202616691589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68559575080872</t>
+    <t xml:space="preserve">2.68559598922729</t>
   </si>
   <si>
     <t xml:space="preserve">2.79928660392761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80621910095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79512786865234</t>
+    <t xml:space="preserve">2.80621886253357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79512739181519</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680872917175</t>
@@ -734,22 +734,22 @@
     <t xml:space="preserve">2.77432990074158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77987599372864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75491976737976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77294421195984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81453824043274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80899214744568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83672142028809</t>
+    <t xml:space="preserve">2.77987623214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75491952896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77294373512268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81453776359558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8089919090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83672165870667</t>
   </si>
   <si>
     <t xml:space="preserve">2.86029148101807</t>
@@ -761,85 +761,85 @@
     <t xml:space="preserve">2.86999678611755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.890793800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9032723903656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89772582054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89911246299744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88247537612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9462525844574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91852307319641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9046585559845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92545557022095</t>
+    <t xml:space="preserve">2.89079356193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90327191352844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89772629737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89911293983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88247489929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94625282287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91852331161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90465879440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92545533180237</t>
   </si>
   <si>
     <t xml:space="preserve">2.98230123519897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97259593009949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9878466129303</t>
+    <t xml:space="preserve">2.97259569168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98784756660461</t>
   </si>
   <si>
     <t xml:space="preserve">3.00864386558533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01696252822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0280544757843</t>
+    <t xml:space="preserve">3.01696348190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02805471420288</t>
   </si>
   <si>
     <t xml:space="preserve">3.05994367599487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0585572719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05301117897034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03914618492126</t>
+    <t xml:space="preserve">3.05855703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05301094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03914594650269</t>
   </si>
   <si>
     <t xml:space="preserve">3.05023789405823</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01834964752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03637313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498673439026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032496452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94070720672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091435432434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0862865447998</t>
+    <t xml:space="preserve">3.01834917068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03637361526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032520294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94070672988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98091459274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08628606796265</t>
   </si>
   <si>
     <t xml:space="preserve">3.07103490829468</t>
@@ -848,103 +848,103 @@
     <t xml:space="preserve">3.05578422546387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04885196685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02528142929077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06687593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380771636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14313149452209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363405227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1667013168335</t>
+    <t xml:space="preserve">3.04885149002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02528214454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06687569618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380867004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14313173294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363476753235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16670179367065</t>
   </si>
   <si>
     <t xml:space="preserve">3.15422368049622</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16808795928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16254186630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16531538963318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16947531700134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24573063850403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522808074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711751937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27900552749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593802452087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3067352771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307838439941</t>
+    <t xml:space="preserve">3.16808867454529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16254258155823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16531562805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16947460174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24573016166687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829606056213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522855758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24711656570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900624275208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782650947571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593778610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30673551559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307862281799</t>
   </si>
   <si>
     <t xml:space="preserve">3.25820899009705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27761960029602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29841661453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31505465507507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31366801261902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32476019859314</t>
+    <t xml:space="preserve">3.27761936187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29841637611389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31505441665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26791405677795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3136682510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32475972175598</t>
   </si>
   <si>
     <t xml:space="preserve">3.4259717464447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39546990394592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35803532600403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36219453811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496663093567</t>
+    <t xml:space="preserve">3.39546918869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35803461074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36219429969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496758460999</t>
   </si>
   <si>
     <t xml:space="preserve">3.37189936637878</t>
@@ -953,175 +953,175 @@
     <t xml:space="preserve">3.41072106361389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4190399646759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39131093025208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45231485366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41487979888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4315173625946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32753252983093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35526180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28732514381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2540500164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2998034954071</t>
+    <t xml:space="preserve">3.41904067993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39131045341492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45231509208679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41488027572632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43151783943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32753229141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35526275634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28732466697693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404930114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29980301856995</t>
   </si>
   <si>
     <t xml:space="preserve">3.28871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25127625465393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27207374572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32614612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32060050964355</t>
+    <t xml:space="preserve">3.25127649307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27207350730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32614588737488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32060027122498</t>
   </si>
   <si>
     <t xml:space="preserve">3.377445936203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44676947593689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44538283348083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41210746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43844962120056</t>
+    <t xml:space="preserve">3.44676923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44538164138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41210722923279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43845057487488</t>
   </si>
   <si>
     <t xml:space="preserve">3.4426097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40378832817078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43203568458557</t>
+    <t xml:space="preserve">3.4037880897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43203616142273</t>
   </si>
   <si>
     <t xml:space="preserve">3.3882520198822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43062329292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45322132110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3995509147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40661287307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45180892944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44615936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48853063583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51818943023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51254057884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47723078727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.552086353302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57680225372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58033394813538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55914831161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5167772769928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58739519119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798765182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62976598739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60858106613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211109161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63329672813416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66507530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6544828414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391488075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6686065196991</t>
+    <t xml:space="preserve">3.43062257766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45322108268738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955186843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40661239624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45180869102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44615912437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48853015899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960206031799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51819014549255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53796315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51254034042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4772310256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55208659172058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5768027305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58033347129822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55914807319641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51677703857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58739566802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5909264087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62976551055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60858058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211180686951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63329720497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66507506370544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65448212623596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66860604286194</t>
   </si>
   <si>
     <t xml:space="preserve">3.64388966560364</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60504913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63682866096497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61564183235168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61917304992676</t>
+    <t xml:space="preserve">3.60504961013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63682746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61564159393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6191737651825</t>
   </si>
   <si>
     <t xml:space="preserve">3.60151886940002</t>
@@ -1130,43 +1130,43 @@
     <t xml:space="preserve">3.56621026992798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50689125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56267857551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5838634967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64742088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095162391663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154456138611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64035940170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68626070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73569345474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73216199874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7568781375885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.760409116745</t>
+    <t xml:space="preserve">3.50689101219177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56267905235291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58386421203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64742064476013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095186233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154384613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6403591632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801286697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626046180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73569202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7321617603302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75687885284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76040935516357</t>
   </si>
   <si>
     <t xml:space="preserve">3.80278062820435</t>
@@ -1175,244 +1175,244 @@
     <t xml:space="preserve">3.78865623474121</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79571795463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80631065368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80984139442444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512573242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747131347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72510123252869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71097660064697</t>
+    <t xml:space="preserve">3.79571843147278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80631113052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8098418712616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512597084045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747155189514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72510004043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71097683906555</t>
   </si>
   <si>
     <t xml:space="preserve">3.71803832054138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73922443389893</t>
+    <t xml:space="preserve">3.73922348022461</t>
   </si>
   <si>
     <t xml:space="preserve">3.68272972106934</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6897919178009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981570243835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7815945148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690382957458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633610725403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221266746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218769073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86280608177185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90164637565613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91929936408997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94048476219177</t>
+    <t xml:space="preserve">3.68979120254517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981641769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78159546852112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690335273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633634567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221242904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218816757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86280560493469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90164494514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91929960250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94048500061035</t>
   </si>
   <si>
     <t xml:space="preserve">3.89105319976807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83102679252625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574436187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334739685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70038390159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62270450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7710018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275469779968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7919065952301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390170097351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068928718567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71628475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69035792350769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65002489089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027448654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64858484268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57944512367249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5355122089386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43468236923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030445098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40083265304565</t>
+    <t xml:space="preserve">3.83102774620056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75334763526917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70038366317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62270426750183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77100253105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275517463684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79190707206726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390146255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068857192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71628499031067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69035768508911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6500256061554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64858531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57944536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53551197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468284606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40083289146423</t>
   </si>
   <si>
     <t xml:space="preserve">3.33745431900024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37634563446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35185885429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45124769210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116473197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4354031085968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38498783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48221611976624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47573447227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365712165833</t>
+    <t xml:space="preserve">3.37634587287903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45124697685242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022172927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116497039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43540287017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38498830795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48221707344055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47573494911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365664482117</t>
   </si>
   <si>
     <t xml:space="preserve">3.44188475608826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42964172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401916503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38570880889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40587401390076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44044423103333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581719398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48293685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4807767868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742340087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49301934242249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51750612258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55063629150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51174569129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45412826538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49374008178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44692611694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45484924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58304595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56864237785339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57440304756165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63706231117249</t>
+    <t xml:space="preserve">3.42964100837708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401940345764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38570833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40587425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44044375419617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581790924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48293662071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077630996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742316246033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49301958084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51750636100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55063652992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51174545288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4541277885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49373960494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44692659378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45484805107117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5830454826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5686411857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440280914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63706183433533</t>
   </si>
   <si>
     <t xml:space="preserve">3.63418078422546</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66154861450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65578746795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64570379257202</t>
+    <t xml:space="preserve">3.66154909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65578722953796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64570498466492</t>
   </si>
   <si>
     <t xml:space="preserve">3.68171501159668</t>
@@ -1421,52 +1421,52 @@
     <t xml:space="preserve">3.68315482139587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74221253395081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7393319606781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348713874817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74653315544128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73356986045837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830623626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79406762123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592270851135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151841163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905287742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049292564392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78398537635803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65434646606445</t>
+    <t xml:space="preserve">3.74221205711365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933076858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348761558533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74653363227844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73357081413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830647468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110337257385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7940673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592318534851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151960372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8804931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78398466110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65434670448303</t>
   </si>
   <si>
     <t xml:space="preserve">3.65146660804749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67883372306824</t>
+    <t xml:space="preserve">3.67883396148682</t>
   </si>
   <si>
     <t xml:space="preserve">3.70044040679932</t>
@@ -1478,61 +1478,61 @@
     <t xml:space="preserve">3.58880758285522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52758932113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52831029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51606607437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51246547698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49950218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955876350403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39363050460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31080603599548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42243909835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38714909553528</t>
+    <t xml:space="preserve">3.52758979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52830958366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5160665512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51246500015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4995014667511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39363098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31080651283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42243838310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3871488571167</t>
   </si>
   <si>
     <t xml:space="preserve">3.40947556495667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44764637947083</t>
+    <t xml:space="preserve">3.4476466178894</t>
   </si>
   <si>
     <t xml:space="preserve">3.38426804542542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3713047504425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30864548683167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42820048332214</t>
+    <t xml:space="preserve">3.37130403518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30864596366882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42820072174072</t>
   </si>
   <si>
     <t xml:space="preserve">3.44332504272461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50958442687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.508864402771</t>
+    <t xml:space="preserve">3.50958490371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50886368751526</t>
   </si>
   <si>
     <t xml:space="preserve">3.48149657249451</t>
@@ -1541,181 +1541,181 @@
     <t xml:space="preserve">3.47933554649353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47429394721985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39435076713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41811800003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37202453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39795207977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.436842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41451668739319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42603993415833</t>
+    <t xml:space="preserve">3.47429418563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3943510055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41811776161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37202429771423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39795136451721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43684315681458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41451692581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42603945732117</t>
   </si>
   <si>
     <t xml:space="preserve">3.41667771339417</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47213411331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45989036560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590063095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51822757720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49518060684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49013948440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46493124961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49085974693298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51462650299072</t>
+    <t xml:space="preserve">3.47213339805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45989012718201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590134620667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51822781562805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4951798915863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49013876914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46493101119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310254096985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4908595085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51462602615356</t>
   </si>
   <si>
     <t xml:space="preserve">3.53263139724731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53119039535522</t>
+    <t xml:space="preserve">3.53119087219238</t>
   </si>
   <si>
     <t xml:space="preserve">3.53335165977478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4985659122467</t>
+    <t xml:space="preserve">3.49856543540955</t>
   </si>
   <si>
     <t xml:space="preserve">3.47192096710205</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45119833946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46229910850525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49042391777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4808030128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53039121627808</t>
+    <t xml:space="preserve">3.45119786262512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46229934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49042439460754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48080253601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53039073944092</t>
   </si>
   <si>
     <t xml:space="preserve">3.39346790313721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32685661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34980058670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35054063796997</t>
+    <t xml:space="preserve">3.32685685157776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34980082511902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35054087638855</t>
   </si>
   <si>
     <t xml:space="preserve">3.39420819282532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39272809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37718510627747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761408805847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29059076309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31427454948425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2794885635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27504849433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26394557952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29873180389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28467011451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24692368507385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024651527405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24766397476196</t>
+    <t xml:space="preserve">3.39272785186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37718558311462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761361122131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29059100151062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31427478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27948880195618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27504873275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26394653320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29873204231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28466963768005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24692392349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24766373634338</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397971153259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23508167266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18919372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15292859077454</t>
+    <t xml:space="preserve">3.23508143424988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18919348716736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292811393738</t>
   </si>
   <si>
     <t xml:space="preserve">3.14034581184387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17587161064148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17513179779053</t>
+    <t xml:space="preserve">3.1758713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17513155937195</t>
   </si>
   <si>
     <t xml:space="preserve">3.24026250839233</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25802493095398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37496519088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37348484992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34388017654419</t>
+    <t xml:space="preserve">3.25802540779114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37496471405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37348508834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34387969970703</t>
   </si>
   <si>
     <t xml:space="preserve">3.37422466278076</t>
@@ -1730,124 +1730,124 @@
     <t xml:space="preserve">3.36608362197876</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42899394035339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236665725708</t>
+    <t xml:space="preserve">3.42899370193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236618041992</t>
   </si>
   <si>
     <t xml:space="preserve">3.40382981300354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41271138191223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38976716995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542711257935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24322271347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26320600509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34609985351562</t>
+    <t xml:space="preserve">3.41271162033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38976693153381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542687416077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24322295188904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26320624351501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34609937667847</t>
   </si>
   <si>
     <t xml:space="preserve">3.30095267295837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27356767654419</t>
+    <t xml:space="preserve">3.27356791496277</t>
   </si>
   <si>
     <t xml:space="preserve">3.23952198028564</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23878240585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21657872200012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17365097999573</t>
+    <t xml:space="preserve">3.23878169059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21657848358154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17365121841431</t>
   </si>
   <si>
     <t xml:space="preserve">3.29651188850403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26690745353699</t>
+    <t xml:space="preserve">3.26690697669983</t>
   </si>
   <si>
     <t xml:space="preserve">3.22916102409363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27874851226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28392958641052</t>
+    <t xml:space="preserve">3.27874898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28392934799194</t>
   </si>
   <si>
     <t xml:space="preserve">3.26468634605408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24174308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25654578208923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20769667625427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24100303649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172614097595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986789703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30835318565369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797528266907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32611727714539</t>
+    <t xml:space="preserve">3.24174332618713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2565450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20769715309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24100279808044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172590255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986765861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30835366249084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797504425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32611680030823</t>
   </si>
   <si>
     <t xml:space="preserve">3.29503178596497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33055758476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37644529342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40309000015259</t>
+    <t xml:space="preserve">3.33055734634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37644481658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40308952331543</t>
   </si>
   <si>
     <t xml:space="preserve">3.44823718070984</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4467568397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4822826385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51928949356079</t>
+    <t xml:space="preserve">3.44675707817078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48228287696838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51928901672363</t>
   </si>
   <si>
     <t xml:space="preserve">3.52595043182373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53779220581055</t>
+    <t xml:space="preserve">3.53779244422913</t>
   </si>
   <si>
     <t xml:space="preserve">3.52150917053223</t>
@@ -1856,79 +1856,79 @@
     <t xml:space="preserve">3.5451934337616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56295585632324</t>
+    <t xml:space="preserve">3.56295609474182</t>
   </si>
   <si>
     <t xml:space="preserve">3.551114320755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57479882240295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51336765289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410865783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966739654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55777597427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64955139160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542167663574</t>
+    <t xml:space="preserve">3.5747983455658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5133683681488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410818099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55777549743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64955067634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71542239189148</t>
   </si>
   <si>
     <t xml:space="preserve">3.71394181251526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71098136901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70950126647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7923948764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81015729904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8382830619812</t>
+    <t xml:space="preserve">3.71098160743713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70950055122375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239511489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81015753746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83828282356262</t>
   </si>
   <si>
     <t xml:space="preserve">3.73614501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73318481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76279020309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76426982879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81607913970947</t>
+    <t xml:space="preserve">3.73318529129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7627899646759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76427054405212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81607961654663</t>
   </si>
   <si>
     <t xml:space="preserve">3.81459832191467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83088088035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82199954986572</t>
+    <t xml:space="preserve">3.83088135719299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8219997882843</t>
   </si>
   <si>
     <t xml:space="preserve">3.88565063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84864401817322</t>
+    <t xml:space="preserve">3.84864377975464</t>
   </si>
   <si>
     <t xml:space="preserve">3.85604548454285</t>
@@ -1940,13 +1940,13 @@
     <t xml:space="preserve">3.86196613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87824892997742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92857813835144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94226121902466</t>
+    <t xml:space="preserve">3.87824964523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9285786151886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94226098060608</t>
   </si>
   <si>
     <t xml:space="preserve">3.93313884735107</t>
@@ -1955,61 +1955,61 @@
     <t xml:space="preserve">3.90273141860962</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93770003318787</t>
+    <t xml:space="preserve">3.93769931793213</t>
   </si>
   <si>
     <t xml:space="preserve">3.94682216644287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92553663253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97874975204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00307559967041</t>
+    <t xml:space="preserve">3.925537109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9848301410675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97874903678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00307416915894</t>
   </si>
   <si>
     <t xml:space="preserve">3.93009781837463</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94074034690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121150016785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8784065246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90729284286499</t>
+    <t xml:space="preserve">3.94074058532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121102333069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87840604782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90729308128357</t>
   </si>
   <si>
     <t xml:space="preserve">3.9513828754425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96506690979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96202445030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98027014732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266697883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9878716468811</t>
+    <t xml:space="preserve">3.9650661945343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96202516555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98026895523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635125160217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9726676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722887992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98787117004395</t>
   </si>
   <si>
     <t xml:space="preserve">4.01219749450684</t>
@@ -2018,40 +2018,40 @@
     <t xml:space="preserve">4.0380425453186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02892017364502</t>
+    <t xml:space="preserve">4.02892112731934</t>
   </si>
   <si>
     <t xml:space="preserve">4.04412412643433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03956317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03196096420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05020570755005</t>
+    <t xml:space="preserve">4.03956413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03196144104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05020523071289</t>
   </si>
   <si>
     <t xml:space="preserve">4.10341787338257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18247556686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16879367828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15054845809937</t>
+    <t xml:space="preserve">4.18247604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16879272460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15054798126221</t>
   </si>
   <si>
     <t xml:space="preserve">4.17943525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17031288146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17183256149292</t>
+    <t xml:space="preserve">4.17031335830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17183303833008</t>
   </si>
   <si>
     <t xml:space="preserve">4.15815019607544</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.21440315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24176931381226</t>
+    <t xml:space="preserve">4.2417688369751</t>
   </si>
   <si>
     <t xml:space="preserve">4.28281879425049</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">4.27217626571655</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3345103263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34363269805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32234764099121</t>
+    <t xml:space="preserve">4.33451080322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34363222122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32234716415405</t>
   </si>
   <si>
     <t xml:space="preserve">4.33603096008301</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">4.3010630607605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30334329605103</t>
+    <t xml:space="preserve">4.30334281921387</t>
   </si>
   <si>
     <t xml:space="preserve">4.33907175064087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32918977737427</t>
+    <t xml:space="preserve">4.32918882369995</t>
   </si>
   <si>
     <t xml:space="preserve">4.32842874526978</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">4.31474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30258274078369</t>
+    <t xml:space="preserve">4.30258321762085</t>
   </si>
   <si>
     <t xml:space="preserve">4.28966045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26457452774048</t>
+    <t xml:space="preserve">4.26457500457764</t>
   </si>
   <si>
     <t xml:space="preserve">4.24252986907959</t>
@@ -2117,13 +2117,13 @@
     <t xml:space="preserve">4.16347169876099</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19691896438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19996023178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19539833068848</t>
+    <t xml:space="preserve">4.19691848754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19995975494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19539880752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.18399667739868</t>
@@ -2135,31 +2135,31 @@
     <t xml:space="preserve">4.24557018280029</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22124481201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28661918640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23948812484741</t>
+    <t xml:space="preserve">4.22124433517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28662014007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23948955535889</t>
   </si>
   <si>
     <t xml:space="preserve">4.25317144393921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22732543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25849342346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23872852325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21972513198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18627595901489</t>
+    <t xml:space="preserve">4.22732496261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25849437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23872900009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21972417831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18627691268921</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796844482422</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">4.24937105178833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27901697158813</t>
+    <t xml:space="preserve">4.27901840209961</t>
   </si>
   <si>
     <t xml:space="preserve">4.32538795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38696241378784</t>
+    <t xml:space="preserve">4.386962890625</t>
   </si>
   <si>
     <t xml:space="preserve">4.3801212310791</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">4.31778621673584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40064668655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22428512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23416757583618</t>
+    <t xml:space="preserve">4.40064573287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22428560256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23416709899902</t>
   </si>
   <si>
     <t xml:space="preserve">4.26761484146118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3398323059082</t>
+    <t xml:space="preserve">4.33983135223389</t>
   </si>
   <si>
     <t xml:space="preserve">4.35275506973267</t>
@@ -2216,31 +2216,31 @@
     <t xml:space="preserve">4.44549608230591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4774227142334</t>
+    <t xml:space="preserve">4.47742319107056</t>
   </si>
   <si>
     <t xml:space="preserve">4.55420064926147</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61425447463989</t>
+    <t xml:space="preserve">4.61425399780273</t>
   </si>
   <si>
     <t xml:space="preserve">4.62185573577881</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74120330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69027090072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70547485351562</t>
+    <t xml:space="preserve">4.74120283126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69027185440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70547533035278</t>
   </si>
   <si>
     <t xml:space="preserve">4.73740196228027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73208093643188</t>
+    <t xml:space="preserve">4.73208141326904</t>
   </si>
   <si>
     <t xml:space="preserve">4.71383762359619</t>
@@ -2255,31 +2255,31 @@
     <t xml:space="preserve">4.66746616363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75868844985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87119245529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90083980560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86511182785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87271356582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87195301055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8848762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94873094558716</t>
+    <t xml:space="preserve">4.65682363510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75868797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87119340896606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90084028244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8651123046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87271308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87195348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88487577438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94873142242432</t>
   </si>
   <si>
     <t xml:space="preserve">4.90388059616089</t>
@@ -2288,22 +2288,22 @@
     <t xml:space="preserve">4.93504762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95101118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77997303009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87715768814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8779354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92147445678711</t>
+    <t xml:space="preserve">4.95101070404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77997207641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87715721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87793588638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92147397994995</t>
   </si>
   <si>
     <t xml:space="preserve">4.85694313049316</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">4.82817649841309</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85616540908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79629993438721</t>
+    <t xml:space="preserve">4.85616588592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79629945755005</t>
   </si>
   <si>
     <t xml:space="preserve">4.81962394714355</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">4.81884622573853</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76131296157837</t>
+    <t xml:space="preserve">4.76131248474121</t>
   </si>
   <si>
     <t xml:space="preserve">4.76908731460571</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77375173568726</t>
+    <t xml:space="preserve">4.77375221252441</t>
   </si>
   <si>
     <t xml:space="preserve">4.69289398193359</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">4.7146635055542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72554874420166</t>
+    <t xml:space="preserve">4.7255482673645</t>
   </si>
   <si>
     <t xml:space="preserve">4.67190217971802</t>
@@ -2351,13 +2351,13 @@
     <t xml:space="preserve">4.88648748397827</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94402170181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84839010238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91214418411255</t>
+    <t xml:space="preserve">4.94402122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84839105606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91214466094971</t>
   </si>
   <si>
     <t xml:space="preserve">4.8857102394104</t>
@@ -2369,22 +2369,22 @@
     <t xml:space="preserve">5.05286931991577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05442428588867</t>
+    <t xml:space="preserve">5.05442380905151</t>
   </si>
   <si>
     <t xml:space="preserve">5.15627431869507</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1267294883728</t>
+    <t xml:space="preserve">5.12672996520996</t>
   </si>
   <si>
     <t xml:space="preserve">5.19359350204468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19437217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23868751525879</t>
+    <t xml:space="preserve">5.19437122344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23868799209595</t>
   </si>
   <si>
     <t xml:space="preserve">5.1819314956665</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">5.08863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04587173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00855302810669</t>
+    <t xml:space="preserve">5.0458722114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00855207443237</t>
   </si>
   <si>
     <t xml:space="preserve">5.14150238037109</t>
@@ -2411,49 +2411,49 @@
     <t xml:space="preserve">5.03965139389038</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06686449050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17026996612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14305686950684</t>
+    <t xml:space="preserve">5.06686353683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17026948928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14305782318115</t>
   </si>
   <si>
     <t xml:space="preserve">5.11273574829102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18659639358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26201248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2324686050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31177139282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27600765228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32654333114624</t>
+    <t xml:space="preserve">5.18659591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26201200485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23246765136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31177186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27600717544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3265438079834</t>
   </si>
   <si>
     <t xml:space="preserve">5.30010938644409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1850414276123</t>
+    <t xml:space="preserve">5.18504190444946</t>
   </si>
   <si>
     <t xml:space="preserve">5.16171741485596</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25112771987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3218789100647</t>
+    <t xml:space="preserve">5.25112819671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32187843322754</t>
   </si>
   <si>
     <t xml:space="preserve">5.2651219367981</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">5.29855394363403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26123571395874</t>
+    <t xml:space="preserve">5.26123428344727</t>
   </si>
   <si>
     <t xml:space="preserve">5.28689241409302</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">5.27056550979614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31643724441528</t>
+    <t xml:space="preserve">5.31643629074097</t>
   </si>
   <si>
     <t xml:space="preserve">5.29077863693237</t>
@@ -2480,16 +2480,16 @@
     <t xml:space="preserve">5.26356792449951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30866146087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24413061141968</t>
+    <t xml:space="preserve">5.30866193771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24413013458252</t>
   </si>
   <si>
     <t xml:space="preserve">5.32809925079346</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34909057617188</t>
+    <t xml:space="preserve">5.34909105300903</t>
   </si>
   <si>
     <t xml:space="preserve">5.33665132522583</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">5.39574003219604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38874292373657</t>
+    <t xml:space="preserve">5.38874244689941</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750955581665</t>
@@ -2516,64 +2516,64 @@
     <t xml:space="preserve">5.36386299133301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24957275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33820629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33354187011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42917203903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38796472549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34520435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33509540557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36308479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31021642684937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26745510101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24801683425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31799077987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3420934677124</t>
+    <t xml:space="preserve">5.24957227706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33820581436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33354139328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42917108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38796424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34520292282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33509635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36308574676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31021595001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29000234603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26745414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24801778793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31799125671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34209299087524</t>
   </si>
   <si>
     <t xml:space="preserve">5.33043098449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13528251647949</t>
+    <t xml:space="preserve">5.13528299331665</t>
   </si>
   <si>
     <t xml:space="preserve">5.19126176834106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22702503204346</t>
+    <t xml:space="preserve">5.22702598571777</t>
   </si>
   <si>
     <t xml:space="preserve">5.23324584960938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32265567779541</t>
+    <t xml:space="preserve">5.32265663146973</t>
   </si>
   <si>
     <t xml:space="preserve">5.38407754898071</t>
@@ -2588,25 +2588,25 @@
     <t xml:space="preserve">5.44316625595093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60254955291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57844924926758</t>
+    <t xml:space="preserve">5.6025505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57844829559326</t>
   </si>
   <si>
     <t xml:space="preserve">5.54968166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49836778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6072154045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60643863677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61809968948364</t>
+    <t xml:space="preserve">5.49836874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60721588134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60643815994263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6181001663208</t>
   </si>
   <si>
     <t xml:space="preserve">5.6212100982666</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">5.75338220596313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76970958709717</t>
+    <t xml:space="preserve">5.76971006393433</t>
   </si>
   <si>
     <t xml:space="preserve">5.91743183135986</t>
@@ -2633,52 +2633,52 @@
     <t xml:space="preserve">6.00606489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05687618255615</t>
+    <t xml:space="preserve">6.05687713623047</t>
   </si>
   <si>
     <t xml:space="preserve">6.0417914390564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99098014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04973077774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20772218704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09260272979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27123689651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35856914520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42128896713257</t>
+    <t xml:space="preserve">5.99097967147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04973125457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20772266387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09260225296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27123737335205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35856866836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42128944396973</t>
   </si>
   <si>
     <t xml:space="preserve">6.23630380630493</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32442998886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3514232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40699768066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45463371276855</t>
+    <t xml:space="preserve">6.32443046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35142421722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40699815750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45463418960571</t>
   </si>
   <si>
     <t xml:space="preserve">6.49194812774658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51020908355713</t>
+    <t xml:space="preserve">6.51020860671997</t>
   </si>
   <si>
     <t xml:space="preserve">6.50465154647827</t>
@@ -2687,34 +2687,34 @@
     <t xml:space="preserve">6.45622205734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51576566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134246826172</t>
+    <t xml:space="preserve">6.51576519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134103775024</t>
   </si>
   <si>
     <t xml:space="preserve">6.664231300354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72218751907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80078649520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69519329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70392799377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37524080276489</t>
+    <t xml:space="preserve">6.72218799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80078601837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69519424438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70392751693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37524127960205</t>
   </si>
   <si>
     <t xml:space="preserve">6.19660711288452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31569623947144</t>
+    <t xml:space="preserve">6.31569671630859</t>
   </si>
   <si>
     <t xml:space="preserve">6.28473329544067</t>
@@ -2723,31 +2723,31 @@
     <t xml:space="preserve">6.01479816436768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06560945510864</t>
+    <t xml:space="preserve">6.06560897827148</t>
   </si>
   <si>
     <t xml:space="preserve">6.18708086013794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5419659614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46654319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26488542556763</t>
+    <t xml:space="preserve">6.54196548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46654272079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26488590240479</t>
   </si>
   <si>
     <t xml:space="preserve">5.64165163040161</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3224925994873</t>
+    <t xml:space="preserve">5.32249212265015</t>
   </si>
   <si>
     <t xml:space="preserve">5.17641019821167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14906740188599</t>
+    <t xml:space="preserve">4.14906692504883</t>
   </si>
   <si>
     <t xml:space="preserve">4.46108102798462</t>
@@ -2756,13 +2756,13 @@
     <t xml:space="preserve">4.35548830032349</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54126787185669</t>
+    <t xml:space="preserve">4.54126739501953</t>
   </si>
   <si>
     <t xml:space="preserve">4.67623519897461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62860012054443</t>
+    <t xml:space="preserve">4.62859964370728</t>
   </si>
   <si>
     <t xml:space="preserve">4.67544174194336</t>
@@ -2771,19 +2771,19 @@
     <t xml:space="preserve">4.74133777618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01047992706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00174617767334</t>
+    <t xml:space="preserve">5.01047849655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00174570083618</t>
   </si>
   <si>
     <t xml:space="preserve">4.98507261276245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88662624359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002353668213</t>
+    <t xml:space="preserve">4.88662672042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002401351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.0327091217041</t>
@@ -2792,76 +2792,76 @@
     <t xml:space="preserve">4.81755447387695</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87868785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8183479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87471675872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06129026412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98983669281006</t>
+    <t xml:space="preserve">4.87868738174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81834840774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87471723556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06129121780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98983716964722</t>
   </si>
   <si>
     <t xml:space="preserve">5.12321662902832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11845350265503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92791080474854</t>
+    <t xml:space="preserve">5.11845397949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92790985107422</t>
   </si>
   <si>
     <t xml:space="preserve">4.96125555038452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92949914932251</t>
+    <t xml:space="preserve">4.92949819564819</t>
   </si>
   <si>
     <t xml:space="preserve">4.91600179672241</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76753759384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75165939331055</t>
+    <t xml:space="preserve">4.76753711700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75165891647339</t>
   </si>
   <si>
     <t xml:space="preserve">4.7048168182373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68417501449585</t>
+    <t xml:space="preserve">4.68417453765869</t>
   </si>
   <si>
     <t xml:space="preserve">4.81914281845093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88265609741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97792816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95093393325806</t>
+    <t xml:space="preserve">4.88265752792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97792720794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95093441009521</t>
   </si>
   <si>
     <t xml:space="preserve">4.76912498474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83343267440796</t>
+    <t xml:space="preserve">4.83343362808228</t>
   </si>
   <si>
     <t xml:space="preserve">4.81676054000854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91282653808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92235326766968</t>
+    <t xml:space="preserve">4.91282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92235231399536</t>
   </si>
   <si>
     <t xml:space="preserve">4.82708168029785</t>
@@ -2870,37 +2870,37 @@
     <t xml:space="preserve">4.78738594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67147159576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57381820678711</t>
+    <t xml:space="preserve">4.67147207260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57381868362427</t>
   </si>
   <si>
     <t xml:space="preserve">4.73498630523682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79294300079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9636378288269</t>
+    <t xml:space="preserve">4.7929425239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96363735198975</t>
   </si>
   <si>
     <t xml:space="preserve">5.02556371688843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08907794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16847133636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323398590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22880935668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39235877990723</t>
+    <t xml:space="preserve">5.08907747268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16847085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17323446273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22880983352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39235925674438</t>
   </si>
   <si>
     <t xml:space="preserve">5.4788966178894</t>
@@ -2912,16 +2912,16 @@
     <t xml:space="preserve">5.70754814147949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95763540267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94255018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01638603210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01559162139893</t>
+    <t xml:space="preserve">5.95763492584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94255065917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01638555526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01559209823608</t>
   </si>
   <si>
     <t xml:space="preserve">5.98780393600464</t>
@@ -2930,43 +2930,43 @@
     <t xml:space="preserve">5.96398639678955</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81710958480835</t>
+    <t xml:space="preserve">5.81711006164551</t>
   </si>
   <si>
     <t xml:space="preserve">5.8314003944397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84489727020264</t>
+    <t xml:space="preserve">5.84489774703979</t>
   </si>
   <si>
     <t xml:space="preserve">6.00685834884644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95842933654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93302345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03385210037231</t>
+    <t xml:space="preserve">5.95842885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93302297592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03385162353516</t>
   </si>
   <si>
     <t xml:space="preserve">6.20137071609497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05290699005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08386945724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06481599807739</t>
+    <t xml:space="preserve">6.05290746688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08386993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06481456756592</t>
   </si>
   <si>
     <t xml:space="preserve">6.13229990005493</t>
   </si>
   <si>
-    <t xml:space="preserve">6.095778465271</t>
+    <t xml:space="preserve">6.09577894210815</t>
   </si>
   <si>
     <t xml:space="preserve">6.11483287811279</t>
@@ -2975,37 +2975,37 @@
     <t xml:space="preserve">6.30934524536133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25138854980469</t>
+    <t xml:space="preserve">6.25138807296753</t>
   </si>
   <si>
     <t xml:space="preserve">6.28314542770386</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33157539367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41970157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30061197280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44828224182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36253786087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48559665679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55228757858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69043064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74146461486816</t>
+    <t xml:space="preserve">6.3315749168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41970205307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30061149597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44828271865845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36253833770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48559713363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55228710174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69043111801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74146509170532</t>
   </si>
   <si>
     <t xml:space="preserve">6.74794578552246</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">6.63777589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58917045593262</t>
+    <t xml:space="preserve">6.58916997909546</t>
   </si>
   <si>
     <t xml:space="preserve">6.4352560043335</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">6.41662406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39961290359497</t>
+    <t xml:space="preserve">6.39961338043213</t>
   </si>
   <si>
     <t xml:space="preserve">6.46036863327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26756954193115</t>
+    <t xml:space="preserve">6.26757001876831</t>
   </si>
   <si>
     <t xml:space="preserve">6.26108932495117</t>
@@ -3038,46 +3038,46 @@
     <t xml:space="preserve">6.36396932601929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37450075149536</t>
+    <t xml:space="preserve">6.3745002746582</t>
   </si>
   <si>
     <t xml:space="preserve">6.34533739089966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33075666427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37126016616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45145702362061</t>
+    <t xml:space="preserve">6.26189947128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33075618743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37125968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45145750045776</t>
   </si>
   <si>
     <t xml:space="preserve">6.56972885131836</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48710107803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38746118545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32508516311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30888366699219</t>
+    <t xml:space="preserve">6.48710155487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38746166229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32508563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30888319015503</t>
   </si>
   <si>
     <t xml:space="preserve">6.28215169906616</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26270914077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37206983566284</t>
+    <t xml:space="preserve">6.26270961761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37207078933716</t>
   </si>
   <si>
     <t xml:space="preserve">6.32184505462646</t>
@@ -3086,13 +3086,13 @@
     <t xml:space="preserve">6.3169846534729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17036008834839</t>
+    <t xml:space="preserve">6.17036056518555</t>
   </si>
   <si>
     <t xml:space="preserve">6.18899250030518</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1476788520813</t>
+    <t xml:space="preserve">6.14767837524414</t>
   </si>
   <si>
     <t xml:space="preserve">6.07882213592529</t>
@@ -3104,10 +3104,10 @@
     <t xml:space="preserve">6.14038753509521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00429439544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15091896057129</t>
+    <t xml:space="preserve">6.00429487228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15091848373413</t>
   </si>
   <si>
     <t xml:space="preserve">6.05370950698853</t>
@@ -3116,13 +3116,13 @@
     <t xml:space="preserve">6.19790315628052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15982961654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20519351959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12499666213989</t>
+    <t xml:space="preserve">6.15983009338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20519399642944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12499618530273</t>
   </si>
   <si>
     <t xml:space="preserve">6.18008184432983</t>
@@ -3131,28 +3131,28 @@
     <t xml:space="preserve">6.13633728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97837257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01077556610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035249710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93057775497437</t>
+    <t xml:space="preserve">5.97837209701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01077604293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93057823181152</t>
   </si>
   <si>
     <t xml:space="preserve">6.04317855834961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97027063369751</t>
+    <t xml:space="preserve">5.97027111053467</t>
   </si>
   <si>
     <t xml:space="preserve">5.94191932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03345823287964</t>
+    <t xml:space="preserve">6.03345727920532</t>
   </si>
   <si>
     <t xml:space="preserve">6.0755820274353</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">6.04965925216675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98971366882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96541118621826</t>
+    <t xml:space="preserve">5.98971319198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9654107093811</t>
   </si>
   <si>
     <t xml:space="preserve">6.15334939956665</t>
@@ -3176,34 +3176,34 @@
     <t xml:space="preserve">6.11365556716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0950231552124</t>
+    <t xml:space="preserve">6.09502363204956</t>
   </si>
   <si>
     <t xml:space="preserve">6.22706604003906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24731779098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04560804367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09745359420776</t>
+    <t xml:space="preserve">6.24731874465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04560852050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">6.05046892166138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14200830459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08773231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0350775718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13147687911987</t>
+    <t xml:space="preserve">6.14200782775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08773279190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03507852554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13147640228271</t>
   </si>
   <si>
     <t xml:space="preserve">5.99052286148071</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">5.63003873825073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61950778961182</t>
+    <t xml:space="preserve">5.61950731277466</t>
   </si>
   <si>
     <t xml:space="preserve">5.53607034683228</t>
@@ -3221,34 +3221,34 @@
     <t xml:space="preserve">5.65920257568359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84632968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865177154541</t>
+    <t xml:space="preserve">5.84632921218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865129470825</t>
   </si>
   <si>
     <t xml:space="preserve">6.16550016403198</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52193403244019</t>
+    <t xml:space="preserve">6.52193355560303</t>
   </si>
   <si>
     <t xml:space="preserve">6.51869440078735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65235662460327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54542684555054</t>
+    <t xml:space="preserve">6.65235710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54542636871338</t>
   </si>
   <si>
     <t xml:space="preserve">6.49682235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55271673202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134962081909</t>
+    <t xml:space="preserve">6.5527172088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57135009765625</t>
   </si>
   <si>
     <t xml:space="preserve">6.57944965362549</t>
@@ -3257,37 +3257,37 @@
     <t xml:space="preserve">6.61347246170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66936826705933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87512922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86135721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88727998733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.780348777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984527587891</t>
+    <t xml:space="preserve">6.66936922073364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923389434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87512826919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86135768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88727951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78034830093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984479904175</t>
   </si>
   <si>
     <t xml:space="preserve">6.70906162261963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64992666244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64749670028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62724351882935</t>
+    <t xml:space="preserve">6.64992618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64749622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62724447250366</t>
   </si>
   <si>
     <t xml:space="preserve">6.61023235321045</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">6.57782983779907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65073680877686</t>
+    <t xml:space="preserve">6.65073728561401</t>
   </si>
   <si>
     <t xml:space="preserve">6.52031373977661</t>
@@ -3305,40 +3305,40 @@
     <t xml:space="preserve">6.51707363128662</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61185264587402</t>
+    <t xml:space="preserve">6.61185359954834</t>
   </si>
   <si>
     <t xml:space="preserve">6.62076425552368</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53813552856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70015144348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76009750366211</t>
+    <t xml:space="preserve">6.53813648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7001519203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76009702682495</t>
   </si>
   <si>
     <t xml:space="preserve">6.70420169830322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85082530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80060148239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23318290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005115509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24047327041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24857378005981</t>
+    <t xml:space="preserve">6.85082626342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8006010055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23318195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005020141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24047231674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2485728263855</t>
   </si>
   <si>
     <t xml:space="preserve">7.13111209869385</t>
@@ -3359,16 +3359,16 @@
     <t xml:space="preserve">7.08557319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08887910842896</t>
+    <t xml:space="preserve">7.08887815475464</t>
   </si>
   <si>
     <t xml:space="preserve">6.99053621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89632701873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88806295394897</t>
+    <t xml:space="preserve">6.89632654190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88806343078613</t>
   </si>
   <si>
     <t xml:space="preserve">6.94177865982056</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">6.81038093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94260549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76906108856201</t>
+    <t xml:space="preserve">6.94260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7690601348877</t>
   </si>
   <si>
     <t xml:space="preserve">6.79385280609131</t>
@@ -3392,25 +3392,25 @@
     <t xml:space="preserve">7.06739187240601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07069730758667</t>
+    <t xml:space="preserve">7.07069778442383</t>
   </si>
   <si>
     <t xml:space="preserve">6.98061895370483</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02441930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84591627120972</t>
+    <t xml:space="preserve">7.02441883087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84591674804688</t>
   </si>
   <si>
     <t xml:space="preserve">6.87401437759399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99301624298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99797439575195</t>
+    <t xml:space="preserve">6.9930157661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99797487258911</t>
   </si>
   <si>
     <t xml:space="preserve">6.9954948425293</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">6.59221076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54510593414307</t>
+    <t xml:space="preserve">6.54510545730591</t>
   </si>
   <si>
     <t xml:space="preserve">6.47899389266968</t>
@@ -3443,46 +3443,46 @@
     <t xml:space="preserve">6.44759082794189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30214357376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48147296905518</t>
+    <t xml:space="preserve">6.30214309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48147249221802</t>
   </si>
   <si>
     <t xml:space="preserve">6.50626516342163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68063545227051</t>
+    <t xml:space="preserve">6.68063497543335</t>
   </si>
   <si>
     <t xml:space="preserve">6.69633722305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78889465332031</t>
+    <t xml:space="preserve">6.78889417648315</t>
   </si>
   <si>
     <t xml:space="preserve">6.88062572479248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82195043563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76079607009888</t>
+    <t xml:space="preserve">6.82195138931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76079654693604</t>
   </si>
   <si>
     <t xml:space="preserve">6.80790138244629</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74509477615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410779953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86409759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87897300720215</t>
+    <t xml:space="preserve">6.74509525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410827636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86409711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87897253036499</t>
   </si>
   <si>
     <t xml:space="preserve">6.96326494216919</t>
@@ -3497,16 +3497,16 @@
     <t xml:space="preserve">7.03020334243774</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96904945373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01863479614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0690450668335</t>
+    <t xml:space="preserve">6.96905040740967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01863431930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97070360183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06904458999634</t>
   </si>
   <si>
     <t xml:space="preserve">7.09548997879028</t>
@@ -3515,19 +3515,19 @@
     <t xml:space="preserve">7.14920520782471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10210084915161</t>
+    <t xml:space="preserve">7.10210037231445</t>
   </si>
   <si>
     <t xml:space="preserve">7.09053182601929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12441444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03185653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135770797729</t>
+    <t xml:space="preserve">7.12441396713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03185606002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135818481445</t>
   </si>
   <si>
     <t xml:space="preserve">7.15581703186035</t>
@@ -3536,40 +3536,40 @@
     <t xml:space="preserve">7.15829610824585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06987190246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01367616653442</t>
+    <t xml:space="preserve">7.0698709487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01367664337158</t>
   </si>
   <si>
     <t xml:space="preserve">7.20457458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21862268447876</t>
+    <t xml:space="preserve">7.21862316131592</t>
   </si>
   <si>
     <t xml:space="preserve">7.1401162147522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98144578933716</t>
+    <t xml:space="preserve">6.9814453125</t>
   </si>
   <si>
     <t xml:space="preserve">6.89054203033447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83186721801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90541696548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78145742416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85004806518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83269357681274</t>
+    <t xml:space="preserve">6.83186769485474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90541744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7814564704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85004758834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83269309997559</t>
   </si>
   <si>
     <t xml:space="preserve">6.8376522064209</t>
@@ -3587,13 +3587,13 @@
     <t xml:space="preserve">6.74096250534058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7169976234436</t>
+    <t xml:space="preserve">6.71699714660645</t>
   </si>
   <si>
     <t xml:space="preserve">6.58312034606934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67237186431885</t>
+    <t xml:space="preserve">6.67237138748169</t>
   </si>
   <si>
     <t xml:space="preserve">6.76658153533936</t>
@@ -3605,43 +3605,43 @@
     <t xml:space="preserve">6.74922704696655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73269891738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72939348220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65749645233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59551620483398</t>
+    <t xml:space="preserve">6.73269987106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72939300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65749597549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59551572799683</t>
   </si>
   <si>
     <t xml:space="preserve">6.52196645736694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55419588088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61369657516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62113523483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62196016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57898807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62939929962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69551134109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67732954025269</t>
+    <t xml:space="preserve">6.55419683456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61369752883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62113475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62196111679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57898855209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62939882278442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69551086425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67733001708984</t>
   </si>
   <si>
     <t xml:space="preserve">6.78724193572998</t>
@@ -3653,55 +3653,55 @@
     <t xml:space="preserve">6.65584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71038627624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70046949386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58725309371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63931560516357</t>
+    <t xml:space="preserve">6.71038675308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70046997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58725261688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63931608200073</t>
   </si>
   <si>
     <t xml:space="preserve">6.61865568161011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58973169326782</t>
+    <t xml:space="preserve">6.58973121643066</t>
   </si>
   <si>
     <t xml:space="preserve">6.64262104034424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47238206863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48643159866333</t>
+    <t xml:space="preserve">6.47238254547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48643112182617</t>
   </si>
   <si>
     <t xml:space="preserve">6.4880838394165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53353643417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56246042251587</t>
+    <t xml:space="preserve">6.53353595733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56245994567871</t>
   </si>
   <si>
     <t xml:space="preserve">6.51452875137329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54841184616089</t>
+    <t xml:space="preserve">6.54841136932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.6624550819397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65914916992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63105154037476</t>
+    <t xml:space="preserve">6.65914869308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63105201721191</t>
   </si>
   <si>
     <t xml:space="preserve">6.55502271652222</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">6.4384970664978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60510444641113</t>
+    <t xml:space="preserve">6.60510492324829</t>
   </si>
   <si>
     <t xml:space="preserve">6.72942638397217</t>
@@ -3728,13 +3728,13 @@
     <t xml:space="preserve">6.83429622650146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73365449905396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81230735778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77847814559937</t>
+    <t xml:space="preserve">6.73365497589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81230783462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77847862243652</t>
   </si>
   <si>
     <t xml:space="preserve">6.57973289489746</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">6.50700044631958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51461267471313</t>
+    <t xml:space="preserve">6.51461219787598</t>
   </si>
   <si>
     <t xml:space="preserve">6.55605268478394</t>
@@ -3767,16 +3767,16 @@
     <t xml:space="preserve">6.63385915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67191696166992</t>
+    <t xml:space="preserve">6.67191648483276</t>
   </si>
   <si>
     <t xml:space="preserve">6.63639688491821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57719564437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64316272735596</t>
+    <t xml:space="preserve">6.57719612121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6431622505188</t>
   </si>
   <si>
     <t xml:space="preserve">6.69982576370239</t>
@@ -3788,31 +3788,31 @@
     <t xml:space="preserve">6.62371063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56366395950317</t>
+    <t xml:space="preserve">6.56366491317749</t>
   </si>
   <si>
     <t xml:space="preserve">6.49346923828125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49431467056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55267000198364</t>
+    <t xml:space="preserve">6.4943151473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55266952514648</t>
   </si>
   <si>
     <t xml:space="preserve">6.52645254135132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60003042221069</t>
+    <t xml:space="preserve">6.60002994537354</t>
   </si>
   <si>
     <t xml:space="preserve">6.53068113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52476119995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41904544830322</t>
+    <t xml:space="preserve">6.52476072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41904592514038</t>
   </si>
   <si>
     <t xml:space="preserve">6.35815382003784</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">6.36830234527588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2372145652771</t>
+    <t xml:space="preserve">6.23721504211426</t>
   </si>
   <si>
     <t xml:space="preserve">6.34208488464355</t>
@@ -3839,22 +3839,22 @@
     <t xml:space="preserve">5.88539361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">5.784752368927</t>
+    <t xml:space="preserve">5.78475284576416</t>
   </si>
   <si>
     <t xml:space="preserve">5.83465051651001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86932468414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688077926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9352912902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87524557113647</t>
+    <t xml:space="preserve">5.86932516098022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688125610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93529176712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87524509429932</t>
   </si>
   <si>
     <t xml:space="preserve">5.7822151184082</t>
@@ -3866,31 +3866,31 @@
     <t xml:space="preserve">5.62491035461426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69087696075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69848823547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69003200531006</t>
+    <t xml:space="preserve">5.69087648391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69848871231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6900315284729</t>
   </si>
   <si>
     <t xml:space="preserve">5.83803272247314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85156440734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70694637298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132349014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77629518508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84057092666626</t>
+    <t xml:space="preserve">5.85156488418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70694589614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132301330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77629470825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8405704498291</t>
   </si>
   <si>
     <t xml:space="preserve">5.98857164382935</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">6.09767007827759</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06637811660767</t>
+    <t xml:space="preserve">6.06637859344482</t>
   </si>
   <si>
     <t xml:space="preserve">6.02747535705566</t>
@@ -3908,19 +3908,19 @@
     <t xml:space="preserve">5.97165727615356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0426983833313</t>
+    <t xml:space="preserve">6.04269790649414</t>
   </si>
   <si>
     <t xml:space="preserve">6.10274457931519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14841413497925</t>
+    <t xml:space="preserve">6.14841365814209</t>
   </si>
   <si>
     <t xml:space="preserve">6.11965942382812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16109991073608</t>
+    <t xml:space="preserve">6.16109943389893</t>
   </si>
   <si>
     <t xml:space="preserve">6.11543035507202</t>
@@ -3929,22 +3929,22 @@
     <t xml:space="preserve">6.13657331466675</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13319110870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16871166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08498477935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99956607818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05538463592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00379514694214</t>
+    <t xml:space="preserve">6.13319063186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16871118545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08498525619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99956655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05538415908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00379467010498</t>
   </si>
   <si>
     <t xml:space="preserve">6.04692697525024</t>
@@ -3953,10 +3953,10 @@
     <t xml:space="preserve">5.99364614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97757768630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95558881759644</t>
+    <t xml:space="preserve">5.97757720947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95558834075928</t>
   </si>
   <si>
     <t xml:space="preserve">5.87778186798096</t>
@@ -3989,22 +3989,22 @@
     <t xml:space="preserve">5.57332181930542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51919555664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6858024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76022672653198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66719722747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66804218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65789413452148</t>
+    <t xml:space="preserve">5.51919460296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68580293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76022624969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66719675064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66804313659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65789365768433</t>
   </si>
   <si>
     <t xml:space="preserve">5.5851616859436</t>
@@ -4013,22 +4013,22 @@
     <t xml:space="preserve">5.60376787185669</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66381454467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62237358093262</t>
+    <t xml:space="preserve">5.66381406784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62237310409546</t>
   </si>
   <si>
     <t xml:space="preserve">5.70525407791138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6266016960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7805233001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81519842147827</t>
+    <t xml:space="preserve">5.62660217285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78052377700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81519889831543</t>
   </si>
   <si>
     <t xml:space="preserve">5.84902763366699</t>
@@ -4037,16 +4037,16 @@
     <t xml:space="preserve">5.85917568206787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95051431655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92852544784546</t>
+    <t xml:space="preserve">5.95051383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92852592468262</t>
   </si>
   <si>
     <t xml:space="preserve">5.95897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06553316116333</t>
+    <t xml:space="preserve">6.06553268432617</t>
   </si>
   <si>
     <t xml:space="preserve">6.02155494689941</t>
@@ -4055,10 +4055,10 @@
     <t xml:space="preserve">5.87693643569946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84310722351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86086750030518</t>
+    <t xml:space="preserve">5.8431077003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86086702346802</t>
   </si>
   <si>
     <t xml:space="preserve">5.86171340942383</t>
@@ -4067,13 +4067,13 @@
     <t xml:space="preserve">5.85410165786743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88708543777466</t>
+    <t xml:space="preserve">5.8870849609375</t>
   </si>
   <si>
     <t xml:space="preserve">5.75684356689453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80420446395874</t>
+    <t xml:space="preserve">5.80420398712158</t>
   </si>
   <si>
     <t xml:space="preserve">5.92260551452637</t>
@@ -4082,28 +4082,28 @@
     <t xml:space="preserve">5.83972501754761</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79624128341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79711151123047</t>
+    <t xml:space="preserve">5.79624176025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79711103439331</t>
   </si>
   <si>
     <t xml:space="preserve">5.95886707305908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87190198898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89712142944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96060657501221</t>
+    <t xml:space="preserve">5.871901512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89712190628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96060705184937</t>
   </si>
   <si>
     <t xml:space="preserve">5.95625829696655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89538288116455</t>
+    <t xml:space="preserve">5.89538240432739</t>
   </si>
   <si>
     <t xml:space="preserve">5.77363109588623</t>
@@ -4124,22 +4124,22 @@
     <t xml:space="preserve">5.56056594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49621152877808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59100341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66144609451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63709497451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59622192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47533988952637</t>
+    <t xml:space="preserve">5.49621200561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59100389480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66144561767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63709449768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59622144699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47533941268921</t>
   </si>
   <si>
     <t xml:space="preserve">5.51708316802979</t>
@@ -4160,7 +4160,7 @@
     <t xml:space="preserve">5.36924171447754</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36576318740845</t>
+    <t xml:space="preserve">5.36576366424561</t>
   </si>
   <si>
     <t xml:space="preserve">5.17878770828247</t>
@@ -4172,22 +4172,22 @@
     <t xml:space="preserve">4.8361439704895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97615814208984</t>
+    <t xml:space="preserve">4.976158618927</t>
   </si>
   <si>
     <t xml:space="preserve">5.25183868408203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99094247817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98137617111206</t>
+    <t xml:space="preserve">4.99094200134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98137664794922</t>
   </si>
   <si>
     <t xml:space="preserve">5.0605149269104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06660223007202</t>
+    <t xml:space="preserve">5.06660270690918</t>
   </si>
   <si>
     <t xml:space="preserve">5.0648627281189</t>
@@ -4196,16 +4196,16 @@
     <t xml:space="preserve">4.97441911697388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00920581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06399393081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96485280990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01790189743042</t>
+    <t xml:space="preserve">5.00920534133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06399345397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96485328674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01790142059326</t>
   </si>
   <si>
     <t xml:space="preserve">5.11182403564453</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">5.2848858833313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30227851867676</t>
+    <t xml:space="preserve">5.30227899551392</t>
   </si>
   <si>
     <t xml:space="preserve">5.27705860137939</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">5.31358432769775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41968107223511</t>
+    <t xml:space="preserve">5.41968154907227</t>
   </si>
   <si>
     <t xml:space="preserve">5.39881038665771</t>
@@ -4241,19 +4241,19 @@
     <t xml:space="preserve">5.46751260757446</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43359708786011</t>
+    <t xml:space="preserve">5.43359613418579</t>
   </si>
   <si>
     <t xml:space="preserve">5.39011383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3935923576355</t>
+    <t xml:space="preserve">5.39359188079834</t>
   </si>
   <si>
     <t xml:space="preserve">5.37532997131348</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36141490936279</t>
+    <t xml:space="preserve">5.36141538619995</t>
   </si>
   <si>
     <t xml:space="preserve">5.22922801971436</t>
@@ -4262,7 +4262,7 @@
     <t xml:space="preserve">5.30749702453613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29879951477051</t>
+    <t xml:space="preserve">5.29879999160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.28140687942505</t>
@@ -4274,7 +4274,7 @@
     <t xml:space="preserve">5.40750646591187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36837196350098</t>
+    <t xml:space="preserve">5.36837244033813</t>
   </si>
   <si>
     <t xml:space="preserve">5.43446588516235</t>
@@ -4283,16 +4283,16 @@
     <t xml:space="preserve">5.38663482666016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26575326919556</t>
+    <t xml:space="preserve">5.2657527923584</t>
   </si>
   <si>
     <t xml:space="preserve">5.22487926483154</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10747623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08051729202271</t>
+    <t xml:space="preserve">5.10747671127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08051681518555</t>
   </si>
   <si>
     <t xml:space="preserve">5.2005295753479</t>
@@ -4307,34 +4307,34 @@
     <t xml:space="preserve">5.20661687850952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22661924362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1640043258667</t>
+    <t xml:space="preserve">5.22661876678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16400384902954</t>
   </si>
   <si>
     <t xml:space="preserve">5.16226434707642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32489013671875</t>
+    <t xml:space="preserve">5.32488965988159</t>
   </si>
   <si>
     <t xml:space="preserve">5.3335862159729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3327169418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37793827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37967777252197</t>
+    <t xml:space="preserve">5.33271646499634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37793874740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37967729568481</t>
   </si>
   <si>
     <t xml:space="preserve">5.35880613327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25618696212769</t>
+    <t xml:space="preserve">5.25618743896484</t>
   </si>
   <si>
     <t xml:space="preserve">5.15182828903198</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">5.13530492782593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24314212799072</t>
+    <t xml:space="preserve">5.24314165115356</t>
   </si>
   <si>
     <t xml:space="preserve">5.20748662948608</t>
@@ -4355,16 +4355,16 @@
     <t xml:space="preserve">5.0839958190918</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98224592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76657152175903</t>
+    <t xml:space="preserve">4.98224639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76657199859619</t>
   </si>
   <si>
     <t xml:space="preserve">4.68569421768188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63786363601685</t>
+    <t xml:space="preserve">4.63786315917969</t>
   </si>
   <si>
     <t xml:space="preserve">4.83179664611816</t>
@@ -4373,13 +4373,13 @@
     <t xml:space="preserve">4.69613027572632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73265504837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77352905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75265741348267</t>
+    <t xml:space="preserve">4.73265552520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77352857589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75265789031982</t>
   </si>
   <si>
     <t xml:space="preserve">4.65351676940918</t>
@@ -4406,34 +4406,34 @@
     <t xml:space="preserve">4.62047052383423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59264087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41523218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5013279914856</t>
+    <t xml:space="preserve">4.59264135360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41523170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50132751464844</t>
   </si>
   <si>
     <t xml:space="preserve">4.57698774337769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56742095947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55872535705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5030665397644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45871496200562</t>
+    <t xml:space="preserve">4.56742143630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55872488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50306701660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4587140083313</t>
   </si>
   <si>
     <t xml:space="preserve">4.2047758102417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34826803207397</t>
+    <t xml:space="preserve">4.34826850891113</t>
   </si>
   <si>
     <t xml:space="preserve">4.43776512145996</t>
@@ -5802,6 +5802,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.67899990081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64099979400635</t>
   </si>
 </sst>
 </file>
@@ -61965,7 +61968,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6495138889</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>17332817</v>
@@ -61986,6 +61989,32 @@
         <v>1929</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.650775463</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>18850628</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>6.69600009918213</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>6.57399988174438</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>6.60900020599365</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>6.64099979400635</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1932">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46143746376038</t>
+    <t xml:space="preserve">2.46143698692322</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50832200050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44580936431885</t>
+    <t xml:space="preserve">2.50832176208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44580912590027</t>
   </si>
   <si>
     <t xml:space="preserve">2.45622825622559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43669319152832</t>
+    <t xml:space="preserve">2.43669295310974</t>
   </si>
   <si>
     <t xml:space="preserve">2.43929767608643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42236638069153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883297920227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43408846855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.389808177948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34683108329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37418031692505</t>
+    <t xml:space="preserve">2.42236685752869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883274078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43408799171448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38980865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34683084487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37418055534363</t>
   </si>
   <si>
     <t xml:space="preserve">2.30255103111267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37678480148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42757654190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41455292701721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44841432571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47836780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39111065864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45362329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44711136817932</t>
+    <t xml:space="preserve">2.37678503990173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42757630348206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41455316543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44841384887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47836804389954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39111042022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4536235332489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4471116065979</t>
   </si>
   <si>
     <t xml:space="preserve">2.41064596176147</t>
@@ -110,121 +110,121 @@
     <t xml:space="preserve">2.36245894432068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30906271934509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27780652046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27520179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29603958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21268892288208</t>
+    <t xml:space="preserve">2.30906248092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27780628204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27520155906677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29603886604309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21268916130066</t>
   </si>
   <si>
     <t xml:space="preserve">2.30385327339172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38199424743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36636567115784</t>
+    <t xml:space="preserve">2.3819944858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36636590957642</t>
   </si>
   <si>
     <t xml:space="preserve">2.37287783622742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35724925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36897087097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30515575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39892435073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41194796562195</t>
+    <t xml:space="preserve">2.35724997520447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3689706325531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30515599250793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39892482757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41194820404053</t>
   </si>
   <si>
     <t xml:space="preserve">2.43539023399353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41845989227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38459897041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39371585845947</t>
+    <t xml:space="preserve">2.41846013069153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38459849357605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39371538162231</t>
   </si>
   <si>
     <t xml:space="preserve">2.46664690971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47967052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54739189147949</t>
+    <t xml:space="preserve">2.47967028617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54739260673523</t>
   </si>
   <si>
     <t xml:space="preserve">2.53957843780518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53306651115417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53697323799133</t>
+    <t xml:space="preserve">2.53306698799133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53697347640991</t>
   </si>
   <si>
     <t xml:space="preserve">2.55911350250244</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54999709129333</t>
+    <t xml:space="preserve">2.54999756813049</t>
   </si>
   <si>
     <t xml:space="preserve">2.55260181427002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54348564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53176403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5460901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58646297454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60469603538513</t>
+    <t xml:space="preserve">2.54348516464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53176474571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54609036445618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58646273612976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60469555854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.53827571868896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52525234222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50181031227112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887854576111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38329672813416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44971656799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4601354598999</t>
+    <t xml:space="preserve">2.52525281906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50181007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38329648971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44971680641174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46013498306274</t>
   </si>
   <si>
     <t xml:space="preserve">2.44190216064453</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">2.48878693580627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49920558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55650877952576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52655434608459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427690505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63985919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57734608650208</t>
+    <t xml:space="preserve">2.49920582771301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55650925636292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52655482292175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427738189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63985896110535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57734632492065</t>
   </si>
   <si>
     <t xml:space="preserve">2.5760440826416</t>
@@ -257,91 +257,91 @@
     <t xml:space="preserve">2.56302070617676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54088091850281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516097068787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860300064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61511445045471</t>
+    <t xml:space="preserve">2.54088068008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516049385071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860323905945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61511468887329</t>
   </si>
   <si>
     <t xml:space="preserve">2.57213735580444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58906698226929</t>
+    <t xml:space="preserve">2.58906769752502</t>
   </si>
   <si>
     <t xml:space="preserve">2.56562566757202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59818410873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57474207878113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64506793022156</t>
+    <t xml:space="preserve">2.59818387031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57474231719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64506816864014</t>
   </si>
   <si>
     <t xml:space="preserve">2.65288233757019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67371988296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66851091384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6815345287323</t>
+    <t xml:space="preserve">2.67372012138367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66851043701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68153429031372</t>
   </si>
   <si>
     <t xml:space="preserve">2.62944054603577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63855648040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641764640808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67892956733704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68674349784851</t>
+    <t xml:space="preserve">2.63855695724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641716957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67892932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68674302101135</t>
   </si>
   <si>
     <t xml:space="preserve">2.68413901329041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59297466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55129957199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50701928138733</t>
+    <t xml:space="preserve">2.59297442436218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55129933357239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50701999664307</t>
   </si>
   <si>
     <t xml:space="preserve">2.6177191734314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68282341957092</t>
+    <t xml:space="preserve">2.68282318115234</t>
   </si>
   <si>
     <t xml:space="preserve">2.68960499763489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64891505241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401858329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44139623641968</t>
+    <t xml:space="preserve">2.64891457557678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401834487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4413959980011</t>
   </si>
   <si>
     <t xml:space="preserve">2.43190169334412</t>
@@ -353,19 +353,19 @@
     <t xml:space="preserve">2.64484596252441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69909858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69638586044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70045566558838</t>
+    <t xml:space="preserve">2.69909906387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69638657569885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70045518875122</t>
   </si>
   <si>
     <t xml:space="preserve">2.63263869285583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61500644683838</t>
+    <t xml:space="preserve">2.6150062084198</t>
   </si>
   <si>
     <t xml:space="preserve">2.66519069671631</t>
@@ -377,61 +377,61 @@
     <t xml:space="preserve">2.70588064193726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70723700523376</t>
+    <t xml:space="preserve">2.70723724365234</t>
   </si>
   <si>
     <t xml:space="preserve">2.70994973182678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69231772422791</t>
+    <t xml:space="preserve">2.69231748580933</t>
   </si>
   <si>
     <t xml:space="preserve">2.72893857955933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73165106773376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7248694896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72080063819885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79268646240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77912259101868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74250173568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73029470443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74114537239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7764093875885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76284670829773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75470876693726</t>
+    <t xml:space="preserve">2.73165154457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72486972808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72080039978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79268598556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7791223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74250197410583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7302942276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74114561080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77640986442566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76284646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7547082901001</t>
   </si>
   <si>
     <t xml:space="preserve">2.74928307533264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78726053237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7831916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71808743476868</t>
+    <t xml:space="preserve">2.78726100921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78319144248962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71808767318726</t>
   </si>
   <si>
     <t xml:space="preserve">2.66790318489075</t>
@@ -440,160 +440,160 @@
     <t xml:space="preserve">2.67061591148376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63806414604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64348983764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197251319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67332911491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68011069297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69774270057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65569615364075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67604184150696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73707604408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978900909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72622632980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80082416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78454804420471</t>
+    <t xml:space="preserve">2.63806462287903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64348912239075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197275161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67332816123962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68011045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69774222373962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65569686889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6760413646698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73707628250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978877067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72622561454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80082368850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78454780578613</t>
   </si>
   <si>
     <t xml:space="preserve">2.74657082557678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69096112251282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65298366546631</t>
+    <t xml:space="preserve">2.69096088409424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65298414230347</t>
   </si>
   <si>
     <t xml:space="preserve">2.65705275535583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63128232955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66247773170471</t>
+    <t xml:space="preserve">2.63128256797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66247868537903</t>
   </si>
   <si>
     <t xml:space="preserve">2.65162777900696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69367337226868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65976524353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6638343334198</t>
+    <t xml:space="preserve">2.69367361068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65976548194885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66383481025696</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503021240234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6543402671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61093759536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59601807594299</t>
+    <t xml:space="preserve">2.65434002876282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61093783378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59601783752441</t>
   </si>
   <si>
     <t xml:space="preserve">2.55804085731506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59737491607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5729603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261492729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144352912903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59059238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68146657943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65027141571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67468547821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65840888023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60822510719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60008692741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58923602104187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60415577888489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62314414978027</t>
+    <t xml:space="preserve">2.5973744392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57295989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144305229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59059262275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68146729469299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65027093887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67468500137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65840911865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60822486877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60008716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58923578262329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60415554046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62314462661743</t>
   </si>
   <si>
     <t xml:space="preserve">2.5607533454895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47259163856506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852231025696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44682168960571</t>
+    <t xml:space="preserve">2.47259211540222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852254867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44682145118713</t>
   </si>
   <si>
     <t xml:space="preserve">2.47530460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47666049003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5119252204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45224690437317</t>
+    <t xml:space="preserve">2.47666072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51192545890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45224666595459</t>
   </si>
   <si>
     <t xml:space="preserve">2.47394800186157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55125904083252</t>
+    <t xml:space="preserve">2.55125951766968</t>
   </si>
   <si>
     <t xml:space="preserve">2.53905177116394</t>
@@ -605,43 +605,43 @@
     <t xml:space="preserve">2.53362703323364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57024765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58652329444885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56753492355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77234101295471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76555967330933</t>
+    <t xml:space="preserve">2.57024741172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58652377128601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56753516197205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77234053611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76555943489075</t>
   </si>
   <si>
     <t xml:space="preserve">2.72758173942566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75063967704773</t>
+    <t xml:space="preserve">2.75063991546631</t>
   </si>
   <si>
     <t xml:space="preserve">2.79404234886169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82252526283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80489325523376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81981229782104</t>
+    <t xml:space="preserve">2.82252550125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80489301681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81981253623962</t>
   </si>
   <si>
     <t xml:space="preserve">2.84015727043152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86321520805359</t>
+    <t xml:space="preserve">2.86321544647217</t>
   </si>
   <si>
     <t xml:space="preserve">2.82659435272217</t>
@@ -650,61 +650,61 @@
     <t xml:space="preserve">2.83066320419312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83473205566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8157434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79539918899536</t>
+    <t xml:space="preserve">2.83473181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81574368476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7953987121582</t>
   </si>
   <si>
     <t xml:space="preserve">2.80218005180359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82388186454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81031799316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81303071975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80760598182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83117580413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82563018798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78126263618469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76046562194824</t>
+    <t xml:space="preserve">2.82388114929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81031847000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81303119659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8076057434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8311755657196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82562971115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78126239776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76046538352966</t>
   </si>
   <si>
     <t xml:space="preserve">2.72718977928162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66895866394043</t>
+    <t xml:space="preserve">2.66895842552185</t>
   </si>
   <si>
     <t xml:space="preserve">2.67866373062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68005037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69391489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71471166610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66202616691589</t>
+    <t xml:space="preserve">2.68004965782166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69391465187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71471190452576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66202592849731</t>
   </si>
   <si>
     <t xml:space="preserve">2.68559598922729</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">2.80621886253357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79512739181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78680872917175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74382781982422</t>
+    <t xml:space="preserve">2.79512691497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78680849075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74382758140564</t>
   </si>
   <si>
     <t xml:space="preserve">2.78542184829712</t>
@@ -734,34 +734,34 @@
     <t xml:space="preserve">2.77432990074158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77987623214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75491952896118</t>
+    <t xml:space="preserve">2.7798764705658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75491976737976</t>
   </si>
   <si>
     <t xml:space="preserve">2.77294373512268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81453776359558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8089919090271</t>
+    <t xml:space="preserve">2.81453800201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80899214744568</t>
   </si>
   <si>
     <t xml:space="preserve">2.83672165870667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86029148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86445069313049</t>
+    <t xml:space="preserve">2.86029124259949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86445045471191</t>
   </si>
   <si>
     <t xml:space="preserve">2.86999678611755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89079356193542</t>
+    <t xml:space="preserve">2.89079403877258</t>
   </si>
   <si>
     <t xml:space="preserve">2.90327191352844</t>
@@ -770,46 +770,46 @@
     <t xml:space="preserve">2.89772629737854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89911293983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88247489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94625282287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91852331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90465879440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92545533180237</t>
+    <t xml:space="preserve">2.89911270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88247513771057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94625306129456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91852307319641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90465927124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92545557022095</t>
   </si>
   <si>
     <t xml:space="preserve">2.98230123519897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97259569168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98784756660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00864386558533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01696348190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02805471420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994367599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05855703353882</t>
+    <t xml:space="preserve">2.97259593009949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98784637451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00864410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0169632434845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02805519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994319915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0585572719574</t>
   </si>
   <si>
     <t xml:space="preserve">3.05301094055176</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">3.05023789405823</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01834917068481</t>
+    <t xml:space="preserve">3.01834940910339</t>
   </si>
   <si>
     <t xml:space="preserve">3.03637361526489</t>
@@ -833,136 +833,136 @@
     <t xml:space="preserve">3.00032520294189</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94070672988892</t>
+    <t xml:space="preserve">2.9407069683075</t>
   </si>
   <si>
     <t xml:space="preserve">2.98091459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08628606796265</t>
+    <t xml:space="preserve">3.0862865447998</t>
   </si>
   <si>
     <t xml:space="preserve">3.07103490829468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05578422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04885149002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02528214454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06687569618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380867004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14313173294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363476753235</t>
+    <t xml:space="preserve">3.05578374862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04885125160217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02528166770935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06687593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380795478821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14313197135925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363381385803</t>
   </si>
   <si>
     <t xml:space="preserve">3.16670179367065</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15422368049622</t>
+    <t xml:space="preserve">3.15422320365906</t>
   </si>
   <si>
     <t xml:space="preserve">3.16808867454529</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16254258155823</t>
+    <t xml:space="preserve">3.16254162788391</t>
   </si>
   <si>
     <t xml:space="preserve">3.16531562805176</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16947460174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24573016166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829606056213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522855758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711656570435</t>
+    <t xml:space="preserve">3.16947436332703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24573063850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2082953453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522784233093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24711728096008</t>
   </si>
   <si>
     <t xml:space="preserve">3.27900624275208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31782650947571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593778610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30673551559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307862281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25820899009705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27761936187744</t>
+    <t xml:space="preserve">3.3178277015686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593850135803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30673503875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25820875167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27761960029602</t>
   </si>
   <si>
     <t xml:space="preserve">3.29841637611389</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31505441665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26791405677795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3136682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32475972175598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4259717464447</t>
+    <t xml:space="preserve">3.31505393981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26791501045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31366801261902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3247594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42597222328186</t>
   </si>
   <si>
     <t xml:space="preserve">3.39546918869019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35803461074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36219429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496758460999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37189936637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072106361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41904067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39131045341492</t>
+    <t xml:space="preserve">3.35803532600403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36219453811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496782302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37189960479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41903972625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39131021499634</t>
   </si>
   <si>
     <t xml:space="preserve">3.45231509208679</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41488027572632</t>
+    <t xml:space="preserve">3.41488003730774</t>
   </si>
   <si>
     <t xml:space="preserve">3.43151783943176</t>
@@ -971,13 +971,13 @@
     <t xml:space="preserve">3.32753229141235</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35526275634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28732466697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404930114746</t>
+    <t xml:space="preserve">3.35526180267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28732514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404953956604</t>
   </si>
   <si>
     <t xml:space="preserve">3.29980301856995</t>
@@ -986,100 +986,100 @@
     <t xml:space="preserve">3.28871154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25127649307251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27207350730896</t>
+    <t xml:space="preserve">3.25127625465393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27207398414612</t>
   </si>
   <si>
     <t xml:space="preserve">3.32614588737488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32060027122498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.377445936203</t>
+    <t xml:space="preserve">3.32059979438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37744617462158</t>
   </si>
   <si>
     <t xml:space="preserve">3.44676923751831</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44538164138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41210722923279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43845057487488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4426097869873</t>
+    <t xml:space="preserve">3.44538259506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41210794448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43845105171204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260931015015</t>
   </si>
   <si>
     <t xml:space="preserve">3.4037880897522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43203616142273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3882520198822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43062257766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45322108268738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40661239624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45180869102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44615912437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48853015899658</t>
+    <t xml:space="preserve">3.43203544616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38825249671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43062305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4532208442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40661358833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45180892944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44615888595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.488529920578</t>
   </si>
   <si>
     <t xml:space="preserve">3.51960206031799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51819014549255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796315193176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51254034042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4772310256958</t>
+    <t xml:space="preserve">3.51818943023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5379626750946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51253986358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47723054885864</t>
   </si>
   <si>
     <t xml:space="preserve">3.55208659172058</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5768027305603</t>
+    <t xml:space="preserve">3.57680249214172</t>
   </si>
   <si>
     <t xml:space="preserve">3.58033347129822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55914807319641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51677703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58739566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798812866211</t>
+    <t xml:space="preserve">3.55914855003357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5167772769928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58739447593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798741340637</t>
   </si>
   <si>
     <t xml:space="preserve">3.5909264087677</t>
@@ -1091,76 +1091,76 @@
     <t xml:space="preserve">3.60858058929443</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61211180686951</t>
+    <t xml:space="preserve">3.61211156845093</t>
   </si>
   <si>
     <t xml:space="preserve">3.63329720497131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66507506370544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65448212623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391464233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860604286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388966560364</t>
+    <t xml:space="preserve">3.66507577896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65448260307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391488075256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66860675811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388990402222</t>
   </si>
   <si>
     <t xml:space="preserve">3.60504961013794</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63682746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61564159393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6191737651825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60151886940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56621026992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50689101219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56267905235291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58386421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64742064476013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154384613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6403591632843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801286697388</t>
+    <t xml:space="preserve">3.63682818412781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61564302444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61917328834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60151863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56620979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50689053535461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56267929077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58386373519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64742040634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154432296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64035892486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6580126285553</t>
   </si>
   <si>
     <t xml:space="preserve">3.68626046180725</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73569202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7321617603302</t>
+    <t xml:space="preserve">3.73569273948669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73216152191162</t>
   </si>
   <si>
     <t xml:space="preserve">3.75687885284424</t>
@@ -1169,136 +1169,136 @@
     <t xml:space="preserve">3.76040935516357</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80278062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78865623474121</t>
+    <t xml:space="preserve">3.80278086662292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78865671157837</t>
   </si>
   <si>
     <t xml:space="preserve">3.79571843147278</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80631113052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8098418712616</t>
+    <t xml:space="preserve">3.8063108921051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80984163284302</t>
   </si>
   <si>
     <t xml:space="preserve">3.78512597084045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76747155189514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72510004043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71097683906555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71803832054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73922348022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272972106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979120254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981641769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78159546852112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690335273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633634567261</t>
+    <t xml:space="preserve">3.76747107505798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72510051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71097707748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803855895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73922395706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68273019790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68979144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981665611267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7815945148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633658409119</t>
   </si>
   <si>
     <t xml:space="preserve">3.85221242904663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79218816757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86280560493469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90164494514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91929960250854</t>
+    <t xml:space="preserve">3.79218745231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86280512809753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90164518356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91930055618286</t>
   </si>
   <si>
     <t xml:space="preserve">3.94048500061035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89105319976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83102774620056</t>
+    <t xml:space="preserve">3.89105296134949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8310272693634</t>
   </si>
   <si>
     <t xml:space="preserve">3.85574388504028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75334763526917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70038366317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62270426750183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77100253105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275517463684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79190707206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390146255493</t>
+    <t xml:space="preserve">3.75334811210632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70038342475891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62270474433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77100205421448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275493621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79190683364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390098571777</t>
   </si>
   <si>
     <t xml:space="preserve">3.73068857192993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71628499031067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69035768508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6500256061554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027400970459</t>
+    <t xml:space="preserve">3.71628522872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69035744667053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65002489089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027448654175</t>
   </si>
   <si>
     <t xml:space="preserve">3.64858531951904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57944536209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53551197052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43468284606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030492782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40083289146423</t>
+    <t xml:space="preserve">3.57944512367249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53551244735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468260765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030468940735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40083241462708</t>
   </si>
   <si>
     <t xml:space="preserve">3.33745431900024</t>
@@ -1307,43 +1307,43 @@
     <t xml:space="preserve">3.37634587287903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35185813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44260549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45124697685242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022172927856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116497039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43540287017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38498830795288</t>
+    <t xml:space="preserve">3.35185837745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260454177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45124769210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022149085999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116425514221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43540263175964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38498854637146</t>
   </si>
   <si>
     <t xml:space="preserve">3.48221707344055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47573494911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365664482117</t>
+    <t xml:space="preserve">3.47573471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365712165833</t>
   </si>
   <si>
     <t xml:space="preserve">3.44188475608826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42964100837708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401940345764</t>
+    <t xml:space="preserve">3.42964124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401892662048</t>
   </si>
   <si>
     <t xml:space="preserve">3.38570833206177</t>
@@ -1352,25 +1352,25 @@
     <t xml:space="preserve">3.40587425231934</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44044375419617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581790924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48293662071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077630996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742316246033</t>
+    <t xml:space="preserve">3.44044423103333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581743240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48293733596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077607154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5074245929718</t>
   </si>
   <si>
     <t xml:space="preserve">3.49301958084106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51750636100769</t>
+    <t xml:space="preserve">3.51750659942627</t>
   </si>
   <si>
     <t xml:space="preserve">3.55063652992249</t>
@@ -1379,238 +1379,238 @@
     <t xml:space="preserve">3.51174545288086</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4541277885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49373960494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44692659378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45484805107117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5830454826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5686411857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57440280914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63706183433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418078422546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154909133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65578722953796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64570498466492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68171501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315482139587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221205711365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933076858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348761558533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74653363227844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73357081413269</t>
+    <t xml:space="preserve">3.45412826538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49373936653137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44692611694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45484852790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58304667472839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56864166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440328598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63706135749817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154861450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65578746795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6457040309906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6817147731781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315434455872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221181869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933124542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74653387069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73357057571411</t>
   </si>
   <si>
     <t xml:space="preserve">3.78830647468567</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78110337257385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7940673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592318534851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151960372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905311584473</t>
+    <t xml:space="preserve">3.78110313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406809806824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592270851135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151888847351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905287742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.8804931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78398466110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65434670448303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65146660804749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67883396148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70044040679932</t>
+    <t xml:space="preserve">3.78398442268372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65434646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65146589279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67883443832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70043992996216</t>
   </si>
   <si>
     <t xml:space="preserve">3.56288003921509</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58880758285522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52758979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52830958366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5160665512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51246500015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4995014667511</t>
+    <t xml:space="preserve">3.58880710601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52758955955505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52831053733826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51606583595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51246523857117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49950170516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.41955828666687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39363098144531</t>
+    <t xml:space="preserve">3.39363026618958</t>
   </si>
   <si>
     <t xml:space="preserve">3.31080651283264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42243838310242</t>
+    <t xml:space="preserve">3.42243909835815</t>
   </si>
   <si>
     <t xml:space="preserve">3.3871488571167</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40947556495667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4476466178894</t>
+    <t xml:space="preserve">3.40947604179382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44764685630798</t>
   </si>
   <si>
     <t xml:space="preserve">3.38426804542542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37130403518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30864596366882</t>
+    <t xml:space="preserve">3.37130427360535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30864572525024</t>
   </si>
   <si>
     <t xml:space="preserve">3.42820072174072</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44332504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50958490371704</t>
+    <t xml:space="preserve">3.44332551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50958466529846</t>
   </si>
   <si>
     <t xml:space="preserve">3.50886368751526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48149657249451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47933554649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47429418563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3943510055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41811776161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37202429771423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39795136451721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43684315681458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41451692581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42603945732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41667771339417</t>
+    <t xml:space="preserve">3.48149681091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47933602333069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47429442405701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39435124397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41811752319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37202405929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39795207977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43684363365173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41451668739319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4260401725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41667699813843</t>
   </si>
   <si>
     <t xml:space="preserve">3.47213339805603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45989012718201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590134620667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51822781562805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4951798915863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49013876914978</t>
+    <t xml:space="preserve">3.45988941192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590063095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51822733879089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49518036842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49013900756836</t>
   </si>
   <si>
     <t xml:space="preserve">3.46493101119995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50310254096985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4908595085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51462602615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53263139724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53119087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53335165977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49856543540955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47192096710205</t>
+    <t xml:space="preserve">3.50310301780701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49085927009583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51462578773499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53263115882874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5311906337738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5333514213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49856567382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47192120552063</t>
   </si>
   <si>
     <t xml:space="preserve">3.45119786262512</t>
@@ -1622,94 +1622,94 @@
     <t xml:space="preserve">3.49042439460754</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48080253601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53039073944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32685685157776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34980082511902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35054087638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420819282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39272785186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37718558311462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761361122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29059100151062</t>
+    <t xml:space="preserve">3.4808030128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5303909778595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346814155579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32685661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3498010635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35054063796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3942084312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39272809028625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37718534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761337280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29059076309204</t>
   </si>
   <si>
     <t xml:space="preserve">3.31427478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27948880195618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27504873275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26394653320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29873204231262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28466963768005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24692392349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24766373634338</t>
+    <t xml:space="preserve">3.27948927879333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27504849433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26394605636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29873180389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28467011451721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24692344665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024556159973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24766397476196</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397971153259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23508143424988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18919348716736</t>
+    <t xml:space="preserve">3.23508191108704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1891942024231</t>
   </si>
   <si>
     <t xml:space="preserve">3.15292811393738</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14034581184387</t>
+    <t xml:space="preserve">3.14034533500671</t>
   </si>
   <si>
     <t xml:space="preserve">3.1758713722229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17513155937195</t>
+    <t xml:space="preserve">3.17513179779053</t>
   </si>
   <si>
     <t xml:space="preserve">3.24026250839233</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25802540779114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37496471405029</t>
+    <t xml:space="preserve">3.25802564620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37496519088745</t>
   </si>
   <si>
     <t xml:space="preserve">3.37348508834839</t>
@@ -1718,55 +1718,55 @@
     <t xml:space="preserve">3.34387969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37422466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682367324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34091925621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36608362197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42899370193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38236618041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40382981300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41271162033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38976693153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542687416077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24322295188904</t>
+    <t xml:space="preserve">3.37422442436218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682343482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34091949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608338356018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42899417877197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38236594200134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40382957458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41271114349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38976716995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24322319030762</t>
   </si>
   <si>
     <t xml:space="preserve">3.26320624351501</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34609937667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30095267295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27356791496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952198028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878169059753</t>
+    <t xml:space="preserve">3.3461000919342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30095243453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27356767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952174186707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878240585327</t>
   </si>
   <si>
     <t xml:space="preserve">3.21657848358154</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">3.26690697669983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22916102409363</t>
+    <t xml:space="preserve">3.22916030883789</t>
   </si>
   <si>
     <t xml:space="preserve">3.27874898910522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28392934799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26468634605408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24174332618713</t>
+    <t xml:space="preserve">3.28392910957336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26468586921692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24174308776855</t>
   </si>
   <si>
     <t xml:space="preserve">3.2565450668335</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">3.20769715309143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24100279808044</t>
+    <t xml:space="preserve">3.24100255966187</t>
   </si>
   <si>
     <t xml:space="preserve">3.26172590255737</t>
@@ -1811,10 +1811,10 @@
     <t xml:space="preserve">3.26986765861511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30835366249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797504425049</t>
+    <t xml:space="preserve">3.308354139328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797552108765</t>
   </si>
   <si>
     <t xml:space="preserve">3.32611680030823</t>
@@ -1823,31 +1823,31 @@
     <t xml:space="preserve">3.29503178596497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33055734634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37644481658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40308952331543</t>
+    <t xml:space="preserve">3.33055806159973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37644529342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40308904647827</t>
   </si>
   <si>
     <t xml:space="preserve">3.44823718070984</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44675707817078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48228287696838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51928901672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52595043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53779244422913</t>
+    <t xml:space="preserve">3.4467568397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48228311538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51928973197937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52595019340515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53779220581055</t>
   </si>
   <si>
     <t xml:space="preserve">3.52150917053223</t>
@@ -1856,61 +1856,61 @@
     <t xml:space="preserve">3.5451934337616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56295609474182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.551114320755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5747983455658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5133683681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410818099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966787338257</t>
+    <t xml:space="preserve">3.5629563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55111408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57479810714722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51336860656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410841941833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966763496399</t>
   </si>
   <si>
     <t xml:space="preserve">3.55777549743652</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64955067634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542239189148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71394181251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71098160743713</t>
+    <t xml:space="preserve">3.6495509147644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71542263031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394157409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71098136901855</t>
   </si>
   <si>
     <t xml:space="preserve">3.70950055122375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79239511489868</t>
+    <t xml:space="preserve">3.79239439964294</t>
   </si>
   <si>
     <t xml:space="preserve">3.81015753746033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83828282356262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73614501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73318529129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7627899646759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76427054405212</t>
+    <t xml:space="preserve">3.83828234672546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73614525794983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7331850528717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76278877258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76426959037781</t>
   </si>
   <si>
     <t xml:space="preserve">3.81607961654663</t>
@@ -1919,133 +1919,133 @@
     <t xml:space="preserve">3.81459832191467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83088135719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8219997882843</t>
+    <t xml:space="preserve">3.83088111877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82200026512146</t>
   </si>
   <si>
     <t xml:space="preserve">3.88565063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84864377975464</t>
+    <t xml:space="preserve">3.8486442565918</t>
   </si>
   <si>
     <t xml:space="preserve">3.85604548454285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8634467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86196613311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87824964523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9285786151886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94226098060608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93313884735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90273141860962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93769931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94682216644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.925537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9848301410675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97874903678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00307416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93009781837463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94074058532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121102333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87840604782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90729308128357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9513828754425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9650661945343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96202516555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98026895523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635125160217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9726676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722887992859</t>
+    <t xml:space="preserve">3.86344575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86196708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87824892997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92857789993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9422607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93313908576965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9027316570282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93769955635071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92553734779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483109474182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9787495136261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00307464599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93009805679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94074106216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121150016785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8784065246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90729284286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95138335227966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96506595611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96202635765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98027014732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635029792786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266793251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722864151001</t>
   </si>
   <si>
     <t xml:space="preserve">3.98787117004395</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01219749450684</t>
+    <t xml:space="preserve">4.01219606399536</t>
   </si>
   <si>
     <t xml:space="preserve">4.0380425453186</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02892112731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04412412643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03956413269043</t>
+    <t xml:space="preserve">4.02892065048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04412508010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03956317901611</t>
   </si>
   <si>
     <t xml:space="preserve">4.03196144104004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05020523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10341787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18247604370117</t>
+    <t xml:space="preserve">4.05020570755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10341739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18247556686401</t>
   </si>
   <si>
     <t xml:space="preserve">4.16879272460938</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15054798126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17943525314331</t>
+    <t xml:space="preserve">4.15054750442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17943429946899</t>
   </si>
   <si>
     <t xml:space="preserve">4.17031335830688</t>
@@ -2057,49 +2057,49 @@
     <t xml:space="preserve">4.15815019607544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19615888595581</t>
+    <t xml:space="preserve">4.19615936279297</t>
   </si>
   <si>
     <t xml:space="preserve">4.21440315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2417688369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28281879425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27217626571655</t>
+    <t xml:space="preserve">4.24176931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28281831741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27217578887939</t>
   </si>
   <si>
     <t xml:space="preserve">4.33451080322266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34363222122192</t>
+    <t xml:space="preserve">4.34363269805908</t>
   </si>
   <si>
     <t xml:space="preserve">4.32234716415405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33603096008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3010630607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30334281921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33907175064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32918882369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32842874526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31474590301514</t>
+    <t xml:space="preserve">4.33603048324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30106258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30334329605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33907127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32918930053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32842922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31474637985229</t>
   </si>
   <si>
     <t xml:space="preserve">4.30258321762085</t>
@@ -2108,22 +2108,22 @@
     <t xml:space="preserve">4.28966045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26457500457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24252986907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16347169876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19691848754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19995975494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19539880752563</t>
+    <t xml:space="preserve">4.26457405090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24252939224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16347122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19691896438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19995927810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19539928436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.18399667739868</t>
@@ -2132,58 +2132,58 @@
     <t xml:space="preserve">4.20984220504761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22124433517456</t>
+    <t xml:space="preserve">4.24556922912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2212438583374</t>
   </si>
   <si>
     <t xml:space="preserve">4.28662014007568</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23948955535889</t>
+    <t xml:space="preserve">4.23948812484741</t>
   </si>
   <si>
     <t xml:space="preserve">4.25317144393921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22732496261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25849437713623</t>
+    <t xml:space="preserve">4.22732543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25849342346191</t>
   </si>
   <si>
     <t xml:space="preserve">4.23872900009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21972417831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18627691268921</t>
+    <t xml:space="preserve">4.21972465515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18627595901489</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23720788955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24937105178833</t>
+    <t xml:space="preserve">4.23720836639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24937152862549</t>
   </si>
   <si>
     <t xml:space="preserve">4.27901840209961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32538795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.386962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3801212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31778621673584</t>
+    <t xml:space="preserve">4.32538843154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38696193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38012170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31778573989868</t>
   </si>
   <si>
     <t xml:space="preserve">4.40064573287964</t>
@@ -2192,16 +2192,16 @@
     <t xml:space="preserve">4.22428560256958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23416709899902</t>
+    <t xml:space="preserve">4.23416757583618</t>
   </si>
   <si>
     <t xml:space="preserve">4.26761484146118</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33983135223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35275506973267</t>
+    <t xml:space="preserve">4.33983182907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35275411605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.4135684967041</t>
@@ -2210,52 +2210,52 @@
     <t xml:space="preserve">4.47818326950073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43029260635376</t>
+    <t xml:space="preserve">4.4302921295166</t>
   </si>
   <si>
     <t xml:space="preserve">4.44549608230591</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47742319107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55420064926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61425399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62185573577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74120283126831</t>
+    <t xml:space="preserve">4.4774227142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55420112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61425447463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62185621261597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74120330810547</t>
   </si>
   <si>
     <t xml:space="preserve">4.69027185440063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70547533035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73740196228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71383762359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61805486679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62489700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66746616363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65682363510132</t>
+    <t xml:space="preserve">4.70547580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73740291595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208093643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71383810043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61805534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62489652633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66746664047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65682458877563</t>
   </si>
   <si>
     <t xml:space="preserve">4.75868797302246</t>
@@ -2264,46 +2264,46 @@
     <t xml:space="preserve">4.87119340896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90084028244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8651123046875</t>
+    <t xml:space="preserve">4.90083980560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86511087417603</t>
   </si>
   <si>
     <t xml:space="preserve">4.87271308898926</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87195348739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88487577438354</t>
+    <t xml:space="preserve">4.87195301055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8848762512207</t>
   </si>
   <si>
     <t xml:space="preserve">4.94873142242432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90388059616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93504762649536</t>
+    <t xml:space="preserve">4.90388011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93504810333252</t>
   </si>
   <si>
     <t xml:space="preserve">4.95101070404053</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98597955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77997207641602</t>
+    <t xml:space="preserve">4.9859790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77997255325317</t>
   </si>
   <si>
     <t xml:space="preserve">4.87715721130371</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87793588638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92147397994995</t>
+    <t xml:space="preserve">4.87793493270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92147493362427</t>
   </si>
   <si>
     <t xml:space="preserve">4.85694313049316</t>
@@ -2315,34 +2315,34 @@
     <t xml:space="preserve">4.85616588592529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79629945755005</t>
+    <t xml:space="preserve">4.79629993438721</t>
   </si>
   <si>
     <t xml:space="preserve">4.81962394714355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85150051116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81884622573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76131248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908731460571</t>
+    <t xml:space="preserve">4.85150098800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81884670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76131343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908779144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.77375221252441</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69289398193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7146635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7255482673645</t>
+    <t xml:space="preserve">4.69289445877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71466398239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72554874420166</t>
   </si>
   <si>
     <t xml:space="preserve">4.67190217971802</t>
@@ -2354,10 +2354,10 @@
     <t xml:space="preserve">4.94402122497559</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84839105606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91214466094971</t>
+    <t xml:space="preserve">4.84839057922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91214513778687</t>
   </si>
   <si>
     <t xml:space="preserve">4.8857102394104</t>
@@ -2369,37 +2369,37 @@
     <t xml:space="preserve">5.05286931991577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05442380905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15627431869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12672996520996</t>
+    <t xml:space="preserve">5.05442428588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15627479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12673044204712</t>
   </si>
   <si>
     <t xml:space="preserve">5.19359350204468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19437122344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23868799209595</t>
+    <t xml:space="preserve">5.19437170028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23868751525879</t>
   </si>
   <si>
     <t xml:space="preserve">5.1819314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14694499969482</t>
+    <t xml:space="preserve">5.14694452285767</t>
   </si>
   <si>
     <t xml:space="preserve">5.08863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0458722114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00855207443237</t>
+    <t xml:space="preserve">5.04587125778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00855255126953</t>
   </si>
   <si>
     <t xml:space="preserve">5.14150238037109</t>
@@ -2408,10 +2408,10 @@
     <t xml:space="preserve">5.12517595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03965139389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06686353683472</t>
+    <t xml:space="preserve">5.0396523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06686401367188</t>
   </si>
   <si>
     <t xml:space="preserve">5.17026948928833</t>
@@ -2420,31 +2420,31 @@
     <t xml:space="preserve">5.14305782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11273574829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18659591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26201200485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23246765136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31177186965942</t>
+    <t xml:space="preserve">5.1127347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18659687042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26201248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23246812820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31177139282227</t>
   </si>
   <si>
     <t xml:space="preserve">5.27600717544556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3265438079834</t>
+    <t xml:space="preserve">5.32654333114624</t>
   </si>
   <si>
     <t xml:space="preserve">5.30010938644409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18504190444946</t>
+    <t xml:space="preserve">5.18504238128662</t>
   </si>
   <si>
     <t xml:space="preserve">5.16171741485596</t>
@@ -2453,34 +2453,34 @@
     <t xml:space="preserve">5.25112819671631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32187843322754</t>
+    <t xml:space="preserve">5.3218789100647</t>
   </si>
   <si>
     <t xml:space="preserve">5.2651219367981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29855394363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26123428344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28689241409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27056550979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31643629074097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29077863693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26356792449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30866193771362</t>
+    <t xml:space="preserve">5.29855442047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26123571395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28689193725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27056503295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31643581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29077959060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356744766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30866146087646</t>
   </si>
   <si>
     <t xml:space="preserve">5.24413013458252</t>
@@ -2492,19 +2492,19 @@
     <t xml:space="preserve">5.34909105300903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33665132522583</t>
+    <t xml:space="preserve">5.33665084838867</t>
   </si>
   <si>
     <t xml:space="preserve">5.34287118911743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36697292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39574003219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874244689941</t>
+    <t xml:space="preserve">5.36697244644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39573955535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874292373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750955581665</t>
@@ -2513,31 +2513,31 @@
     <t xml:space="preserve">5.37241506576538</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36386299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24957227706909</t>
+    <t xml:space="preserve">5.36386251449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24957180023193</t>
   </si>
   <si>
     <t xml:space="preserve">5.33820581436157</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33354139328003</t>
+    <t xml:space="preserve">5.33354043960571</t>
   </si>
   <si>
     <t xml:space="preserve">5.42917108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38796424865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34520292282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33509635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36308574676514</t>
+    <t xml:space="preserve">5.38796472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3452033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33509540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36308479309082</t>
   </si>
   <si>
     <t xml:space="preserve">5.31021595001221</t>
@@ -2546,16 +2546,16 @@
     <t xml:space="preserve">5.29000234603882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26745414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24801778793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31799125671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34209299087524</t>
+    <t xml:space="preserve">5.26745510101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24801731109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31799173355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3420934677124</t>
   </si>
   <si>
     <t xml:space="preserve">5.33043098449707</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">5.19126176834106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22702598571777</t>
+    <t xml:space="preserve">5.2270245552063</t>
   </si>
   <si>
     <t xml:space="preserve">5.23324584960938</t>
@@ -2576,16 +2576,16 @@
     <t xml:space="preserve">5.32265663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38407754898071</t>
+    <t xml:space="preserve">5.38407802581787</t>
   </si>
   <si>
     <t xml:space="preserve">5.45016384124756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42839431762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316625595093</t>
+    <t xml:space="preserve">5.42839384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44316577911377</t>
   </si>
   <si>
     <t xml:space="preserve">5.6025505065918</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">5.57844829559326</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54968166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49836874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60721588134766</t>
+    <t xml:space="preserve">5.54968118667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49836826324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6072154045105</t>
   </si>
   <si>
     <t xml:space="preserve">5.60643815994263</t>
@@ -2612,19 +2612,19 @@
     <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65230989456177</t>
+    <t xml:space="preserve">5.65230941772461</t>
   </si>
   <si>
     <t xml:space="preserve">5.67952156066895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76659917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75338220596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76971006393433</t>
+    <t xml:space="preserve">5.76660013198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75338268280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76970958709717</t>
   </si>
   <si>
     <t xml:space="preserve">5.91743183135986</t>
@@ -2633,28 +2633,28 @@
     <t xml:space="preserve">6.00606489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05687713623047</t>
+    <t xml:space="preserve">6.05687618255615</t>
   </si>
   <si>
     <t xml:space="preserve">6.0417914390564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99097967147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04973125457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20772266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09260225296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27123737335205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35856866836548</t>
+    <t xml:space="preserve">5.99098014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04973077774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20772218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09260272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27123689651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35856819152832</t>
   </si>
   <si>
     <t xml:space="preserve">6.42128944396973</t>
@@ -2663,10 +2663,10 @@
     <t xml:space="preserve">6.23630380630493</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32443046569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35142421722412</t>
+    <t xml:space="preserve">6.32442998886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35142374038696</t>
   </si>
   <si>
     <t xml:space="preserve">6.40699815750122</t>
@@ -2675,10 +2675,10 @@
     <t xml:space="preserve">6.45463418960571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49194812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51020860671997</t>
+    <t xml:space="preserve">6.49194860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51020956039429</t>
   </si>
   <si>
     <t xml:space="preserve">6.50465154647827</t>
@@ -2687,40 +2687,40 @@
     <t xml:space="preserve">6.45622205734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51576519012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134103775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.664231300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72218799591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80078601837158</t>
+    <t xml:space="preserve">6.51576614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5713415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66423034667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72218751907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80078649520874</t>
   </si>
   <si>
     <t xml:space="preserve">6.69519424438477</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70392751693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37524127960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19660711288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31569671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28473329544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01479816436768</t>
+    <t xml:space="preserve">6.70392799377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37524175643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19660758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31569719314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28473377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01479864120483</t>
   </si>
   <si>
     <t xml:space="preserve">6.06560897827148</t>
@@ -2729,31 +2729,31 @@
     <t xml:space="preserve">6.18708086013794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54196548461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46654272079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26488590240479</t>
+    <t xml:space="preserve">6.5419659614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46654367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26488494873047</t>
   </si>
   <si>
     <t xml:space="preserve">5.64165163040161</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32249212265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14906692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46108102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35548830032349</t>
+    <t xml:space="preserve">5.32249307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17640972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14906740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46108150482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3554892539978</t>
   </si>
   <si>
     <t xml:space="preserve">4.54126739501953</t>
@@ -2771,28 +2771,28 @@
     <t xml:space="preserve">4.74133777618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01047849655151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00174570083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98507261276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88662672042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002401351929</t>
+    <t xml:space="preserve">5.01047897338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00174617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98507356643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88662624359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002353668213</t>
   </si>
   <si>
     <t xml:space="preserve">5.0327091217041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81755447387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87868738174438</t>
+    <t xml:space="preserve">4.81755495071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87868690490723</t>
   </si>
   <si>
     <t xml:space="preserve">4.81834840774536</t>
@@ -2801,31 +2801,31 @@
     <t xml:space="preserve">4.87471723556519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06129121780396</t>
+    <t xml:space="preserve">5.0612907409668</t>
   </si>
   <si>
     <t xml:space="preserve">4.98983716964722</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12321662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11845397949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92790985107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96125555038452</t>
+    <t xml:space="preserve">5.12321710586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11845302581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92791080474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96125507354736</t>
   </si>
   <si>
     <t xml:space="preserve">4.92949819564819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91600179672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76753711700439</t>
+    <t xml:space="preserve">4.91600227355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76753759384155</t>
   </si>
   <si>
     <t xml:space="preserve">4.75165891647339</t>
@@ -2840,70 +2840,70 @@
     <t xml:space="preserve">4.81914281845093</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88265752792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97792720794678</t>
+    <t xml:space="preserve">4.88265705108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97792816162109</t>
   </si>
   <si>
     <t xml:space="preserve">4.95093441009521</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76912498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83343362808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81676054000854</t>
+    <t xml:space="preserve">4.76912546157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83343315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8167610168457</t>
   </si>
   <si>
     <t xml:space="preserve">4.91282606124878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92235231399536</t>
+    <t xml:space="preserve">4.92235279083252</t>
   </si>
   <si>
     <t xml:space="preserve">4.82708168029785</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78738594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67147207260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57381868362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73498630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7929425239563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96363735198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02556371688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08907747268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16847085952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323446273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22880983352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39235925674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4788966178894</t>
+    <t xml:space="preserve">4.7873854637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67147159576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57381916046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73498582839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79294300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9636378288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02556419372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08907794952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1684718132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1732349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22880935668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39235782623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47889709472656</t>
   </si>
   <si>
     <t xml:space="preserve">5.55590772628784</t>
@@ -2915,64 +2915,64 @@
     <t xml:space="preserve">5.95763492584229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94255065917969</t>
+    <t xml:space="preserve">5.94255113601685</t>
   </si>
   <si>
     <t xml:space="preserve">6.01638555526733</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01559209823608</t>
+    <t xml:space="preserve">6.01559257507324</t>
   </si>
   <si>
     <t xml:space="preserve">5.98780393600464</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96398639678955</t>
+    <t xml:space="preserve">5.96398687362671</t>
   </si>
   <si>
     <t xml:space="preserve">5.81711006164551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8314003944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84489774703979</t>
+    <t xml:space="preserve">5.83139991760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84489727020264</t>
   </si>
   <si>
     <t xml:space="preserve">6.00685834884644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95842885971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93302297592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03385162353516</t>
+    <t xml:space="preserve">5.95842933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93302392959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.033851146698</t>
   </si>
   <si>
     <t xml:space="preserve">6.20137071609497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05290746688843</t>
+    <t xml:space="preserve">6.05290603637695</t>
   </si>
   <si>
     <t xml:space="preserve">6.08386993408203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06481456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13229990005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09577894210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11483287811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30934524536133</t>
+    <t xml:space="preserve">6.06481552124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13229942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09577798843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11483240127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30934476852417</t>
   </si>
   <si>
     <t xml:space="preserve">6.25138807296753</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">6.28314542770386</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3315749168396</t>
+    <t xml:space="preserve">6.33157539367676</t>
   </si>
   <si>
     <t xml:space="preserve">6.41970205307007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30061149597168</t>
+    <t xml:space="preserve">6.30061197280884</t>
   </si>
   <si>
     <t xml:space="preserve">6.44828271865845</t>
@@ -2999,10 +2999,10 @@
     <t xml:space="preserve">6.48559713363647</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55228710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69043111801147</t>
+    <t xml:space="preserve">6.55228757858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69043064117432</t>
   </si>
   <si>
     <t xml:space="preserve">6.74146509170532</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">6.63777589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58916997909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4352560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662406921387</t>
+    <t xml:space="preserve">6.58917045593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43525648117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41662454605103</t>
   </si>
   <si>
     <t xml:space="preserve">6.39961338043213</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">6.26757001876831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26108932495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36396932601929</t>
+    <t xml:space="preserve">6.26108980178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36396884918213</t>
   </si>
   <si>
     <t xml:space="preserve">6.3745002746582</t>
@@ -3044,19 +3044,19 @@
     <t xml:space="preserve">6.34533739089966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26189947128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33075618743896</t>
+    <t xml:space="preserve">6.26189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33075666427612</t>
   </si>
   <si>
     <t xml:space="preserve">6.37125968933105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45145750045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56972885131836</t>
+    <t xml:space="preserve">6.45145797729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5697283744812</t>
   </si>
   <si>
     <t xml:space="preserve">6.48710155487061</t>
@@ -3065,22 +3065,22 @@
     <t xml:space="preserve">6.38746166229248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32508563995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30888319015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28215169906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26270961761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37207078933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32184505462646</t>
+    <t xml:space="preserve">6.32508611679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30888366699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.282151222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26270914077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32184457778931</t>
   </si>
   <si>
     <t xml:space="preserve">6.3169846534729</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">6.18899250030518</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14767837524414</t>
+    <t xml:space="preserve">6.14767932891846</t>
   </si>
   <si>
     <t xml:space="preserve">6.07882213592529</t>
@@ -3107,10 +3107,10 @@
     <t xml:space="preserve">6.00429487228394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15091848373413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05370950698853</t>
+    <t xml:space="preserve">6.15091896057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05370998382568</t>
   </si>
   <si>
     <t xml:space="preserve">6.19790315628052</t>
@@ -3128,19 +3128,19 @@
     <t xml:space="preserve">6.18008184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97837209701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01077604293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93057823181152</t>
+    <t xml:space="preserve">6.1363377571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97837257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01077556610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035249710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93057775497437</t>
   </si>
   <si>
     <t xml:space="preserve">6.04317855834961</t>
@@ -3149,28 +3149,28 @@
     <t xml:space="preserve">5.97027111053467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94191932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0755820274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00915575027466</t>
+    <t xml:space="preserve">5.94191884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07558155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0091552734375</t>
   </si>
   <si>
     <t xml:space="preserve">6.04965925216675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98971319198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9654107093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15334939956665</t>
+    <t xml:space="preserve">5.98971366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96541118621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15334892272949</t>
   </si>
   <si>
     <t xml:space="preserve">6.11365556716919</t>
@@ -3182,16 +3182,16 @@
     <t xml:space="preserve">6.22706604003906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24731874465942</t>
+    <t xml:space="preserve">6.24731826782227</t>
   </si>
   <si>
     <t xml:space="preserve">6.04560852050781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09745311737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05046892166138</t>
+    <t xml:space="preserve">6.09745407104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05046939849854</t>
   </si>
   <si>
     <t xml:space="preserve">6.14200782775879</t>
@@ -3200,16 +3200,16 @@
     <t xml:space="preserve">6.08773279190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03507852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13147640228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99052286148071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63003873825073</t>
+    <t xml:space="preserve">6.03507804870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13147735595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99052333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63003826141357</t>
   </si>
   <si>
     <t xml:space="preserve">5.61950731277466</t>
@@ -3218,37 +3218,37 @@
     <t xml:space="preserve">5.53607034683228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65920257568359</t>
+    <t xml:space="preserve">5.65920209884644</t>
   </si>
   <si>
     <t xml:space="preserve">5.84632921218872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96865129470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16550016403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52193355560303</t>
+    <t xml:space="preserve">5.96865177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16550064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52193403244019</t>
   </si>
   <si>
     <t xml:space="preserve">6.51869440078735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65235710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54542636871338</t>
+    <t xml:space="preserve">6.65235662460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54542684555054</t>
   </si>
   <si>
     <t xml:space="preserve">6.49682235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5527172088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57135009765625</t>
+    <t xml:space="preserve">6.55271673202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134962081909</t>
   </si>
   <si>
     <t xml:space="preserve">6.57944965362549</t>
@@ -3257,40 +3257,40 @@
     <t xml:space="preserve">6.61347246170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66936922073364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923389434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87512826919556</t>
+    <t xml:space="preserve">6.66936874389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87512874603271</t>
   </si>
   <si>
     <t xml:space="preserve">6.86135768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88727951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78034830093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984479904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70906162261963</t>
+    <t xml:space="preserve">6.88727903366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78034925460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984527587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70906209945679</t>
   </si>
   <si>
     <t xml:space="preserve">6.64992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64749622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62724447250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61023235321045</t>
+    <t xml:space="preserve">6.64749717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6272439956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61023283004761</t>
   </si>
   <si>
     <t xml:space="preserve">6.57782983779907</t>
@@ -3302,49 +3302,49 @@
     <t xml:space="preserve">6.52031373977661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51707363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61185359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62076425552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53813648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7001519203186</t>
+    <t xml:space="preserve">6.51707410812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61185264587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62076377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53813600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70015048980713</t>
   </si>
   <si>
     <t xml:space="preserve">6.76009702682495</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70420169830322</t>
+    <t xml:space="preserve">6.70420217514038</t>
   </si>
   <si>
     <t xml:space="preserve">6.85082626342773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8006010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23318195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005020141602</t>
+    <t xml:space="preserve">6.80060148239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23318147659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005115509033</t>
   </si>
   <si>
     <t xml:space="preserve">7.24047231674194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2485728263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111209869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994232177734</t>
+    <t xml:space="preserve">7.24857425689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111305236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2299427986145</t>
   </si>
   <si>
     <t xml:space="preserve">7.15541553497314</t>
@@ -3353,25 +3353,25 @@
     <t xml:space="preserve">7.17647695541382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09466314315796</t>
+    <t xml:space="preserve">7.09466409683228</t>
   </si>
   <si>
     <t xml:space="preserve">7.08557319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08887815475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99053621292114</t>
+    <t xml:space="preserve">7.08887910842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9905366897583</t>
   </si>
   <si>
     <t xml:space="preserve">6.89632654190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88806343078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94177865982056</t>
+    <t xml:space="preserve">6.88806295394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">6.81038093566895</t>
@@ -3380,58 +3380,58 @@
     <t xml:space="preserve">6.94260501861572</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79385280609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77649831771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06739187240601</t>
+    <t xml:space="preserve">6.76906061172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79385232925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77649879455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06739234924316</t>
   </si>
   <si>
     <t xml:space="preserve">7.07069778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98061895370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02441883087158</t>
+    <t xml:space="preserve">6.98061990737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02441930770874</t>
   </si>
   <si>
     <t xml:space="preserve">6.84591674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87401437759399</t>
+    <t xml:space="preserve">6.87401342391968</t>
   </si>
   <si>
     <t xml:space="preserve">6.9930157661438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99797487258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9954948425293</t>
+    <t xml:space="preserve">6.99797439575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99549579620361</t>
   </si>
   <si>
     <t xml:space="preserve">6.86161804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77319288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67485046386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59221076965332</t>
+    <t xml:space="preserve">6.773193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67485094070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59221124649048</t>
   </si>
   <si>
     <t xml:space="preserve">6.54510545730591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47899389266968</t>
+    <t xml:space="preserve">6.47899341583252</t>
   </si>
   <si>
     <t xml:space="preserve">6.48229885101318</t>
@@ -3440,10 +3440,10 @@
     <t xml:space="preserve">6.56741857528687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44759082794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30214309692383</t>
+    <t xml:space="preserve">6.44759035110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30214357376099</t>
   </si>
   <si>
     <t xml:space="preserve">6.48147249221802</t>
@@ -3452,31 +3452,31 @@
     <t xml:space="preserve">6.50626516342163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68063497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69633722305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78889417648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88062572479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82195138931274</t>
+    <t xml:space="preserve">6.68063592910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69633674621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78889465332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88062477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82195091247559</t>
   </si>
   <si>
     <t xml:space="preserve">6.76079654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80790138244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74509525299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410827636719</t>
+    <t xml:space="preserve">6.80790233612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74509477615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410779953003</t>
   </si>
   <si>
     <t xml:space="preserve">6.86409711837769</t>
@@ -3488,55 +3488,55 @@
     <t xml:space="preserve">6.96326494216919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97648859024048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96409225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03020334243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96905040740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01863431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97070360183716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06904458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09548997879028</t>
+    <t xml:space="preserve">6.97648763656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96409177780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0302038192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96904993057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01863479614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0690450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09549045562744</t>
   </si>
   <si>
     <t xml:space="preserve">7.14920520782471</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10210037231445</t>
+    <t xml:space="preserve">7.10210084915161</t>
   </si>
   <si>
     <t xml:space="preserve">7.09053182601929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12441396713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03185606002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135818481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15581703186035</t>
+    <t xml:space="preserve">7.12441444396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03185653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135770797729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15581655502319</t>
   </si>
   <si>
     <t xml:space="preserve">7.15829610824585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0698709487915</t>
+    <t xml:space="preserve">7.06987142562866</t>
   </si>
   <si>
     <t xml:space="preserve">7.01367664337158</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">7.1401162147522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9814453125</t>
+    <t xml:space="preserve">6.98144578933716</t>
   </si>
   <si>
     <t xml:space="preserve">6.89054203033447</t>
@@ -3560,25 +3560,25 @@
     <t xml:space="preserve">6.83186769485474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90541744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7814564704895</t>
+    <t xml:space="preserve">6.90541696548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78145742416382</t>
   </si>
   <si>
     <t xml:space="preserve">6.85004758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83269309997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8376522064209</t>
+    <t xml:space="preserve">6.83269357681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83765268325806</t>
   </si>
   <si>
     <t xml:space="preserve">6.60460710525513</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68724679946899</t>
+    <t xml:space="preserve">6.68724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">6.77980470657349</t>
@@ -3587,31 +3587,31 @@
     <t xml:space="preserve">6.74096250534058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71699714660645</t>
+    <t xml:space="preserve">6.7169976234436</t>
   </si>
   <si>
     <t xml:space="preserve">6.58312034606934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67237138748169</t>
+    <t xml:space="preserve">6.67237234115601</t>
   </si>
   <si>
     <t xml:space="preserve">6.76658153533936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74922704696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73269987106323</t>
+    <t xml:space="preserve">6.74261617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74922657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73269939422607</t>
   </si>
   <si>
     <t xml:space="preserve">6.72939300537109</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65749597549438</t>
+    <t xml:space="preserve">6.65749645233154</t>
   </si>
   <si>
     <t xml:space="preserve">6.59551572799683</t>
@@ -3620,82 +3620,82 @@
     <t xml:space="preserve">6.52196645736694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55419683456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61369752883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62113475799561</t>
+    <t xml:space="preserve">6.55419635772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61369705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62113523483276</t>
   </si>
   <si>
     <t xml:space="preserve">6.62196111679077</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57898855209351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62939882278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69551086425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67733001708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78724193572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67650365829468</t>
+    <t xml:space="preserve">6.57898902893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62939929962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69551181793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.677330493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78724145889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67650413513184</t>
   </si>
   <si>
     <t xml:space="preserve">6.65584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71038675308228</t>
+    <t xml:space="preserve">6.71038627624512</t>
   </si>
   <si>
     <t xml:space="preserve">6.70046997070312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58725261688232</t>
+    <t xml:space="preserve">6.58725214004517</t>
   </si>
   <si>
     <t xml:space="preserve">6.63931608200073</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61865568161011</t>
+    <t xml:space="preserve">6.61865520477295</t>
   </si>
   <si>
     <t xml:space="preserve">6.58973121643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64262104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47238254547119</t>
+    <t xml:space="preserve">6.6426215171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47238206863403</t>
   </si>
   <si>
     <t xml:space="preserve">6.48643112182617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4880838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53353595733643</t>
+    <t xml:space="preserve">6.48808431625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53353643417358</t>
   </si>
   <si>
     <t xml:space="preserve">6.56245994567871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51452875137329</t>
+    <t xml:space="preserve">6.51452922821045</t>
   </si>
   <si>
     <t xml:space="preserve">6.54841136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6624550819397</t>
+    <t xml:space="preserve">6.66245555877686</t>
   </si>
   <si>
     <t xml:space="preserve">6.65914869308472</t>
@@ -3716,25 +3716,25 @@
     <t xml:space="preserve">6.4384970664978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60510492324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942638397217</t>
+    <t xml:space="preserve">6.60510444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83429622650146</t>
+    <t xml:space="preserve">6.83429670333862</t>
   </si>
   <si>
     <t xml:space="preserve">6.73365497589111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81230783462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77847862243652</t>
+    <t xml:space="preserve">6.81230735778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77847814559937</t>
   </si>
   <si>
     <t xml:space="preserve">6.57973289489746</t>
@@ -3743,16 +3743,16 @@
     <t xml:space="preserve">6.54505825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50700044631958</t>
+    <t xml:space="preserve">6.50699996948242</t>
   </si>
   <si>
     <t xml:space="preserve">6.51461219787598</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55605268478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56197214126587</t>
+    <t xml:space="preserve">6.55605220794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56197309494019</t>
   </si>
   <si>
     <t xml:space="preserve">6.5949559211731</t>
@@ -3767,70 +3767,70 @@
     <t xml:space="preserve">6.63385915756226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67191648483276</t>
+    <t xml:space="preserve">6.67191696166992</t>
   </si>
   <si>
     <t xml:space="preserve">6.63639688491821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57719612121582</t>
+    <t xml:space="preserve">6.57719564437866</t>
   </si>
   <si>
     <t xml:space="preserve">6.6431622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69982576370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76663875579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62371063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56366491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49346923828125</t>
+    <t xml:space="preserve">6.69982624053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76663827896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62371110916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56366443634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49346876144409</t>
   </si>
   <si>
     <t xml:space="preserve">6.4943151473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55266952514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52645254135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.55267000198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52645301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002946853638</t>
   </si>
   <si>
     <t xml:space="preserve">6.53068113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52476072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41904592514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35815382003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36830234527588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23721504211426</t>
+    <t xml:space="preserve">6.52476119995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41904544830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35815334320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36830186843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2372145652771</t>
   </si>
   <si>
     <t xml:space="preserve">6.34208488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2879581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94121170043945</t>
+    <t xml:space="preserve">6.28795766830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94121122360229</t>
   </si>
   <si>
     <t xml:space="preserve">5.92091417312622</t>
@@ -3839,16 +3839,16 @@
     <t xml:space="preserve">5.88539361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78475284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83465051651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86932516098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688125610352</t>
+    <t xml:space="preserve">5.784752368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83465003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86932420730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9868803024292</t>
   </si>
   <si>
     <t xml:space="preserve">5.93529176712036</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">5.87524509429932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7822151184082</t>
+    <t xml:space="preserve">5.78221559524536</t>
   </si>
   <si>
     <t xml:space="preserve">5.74500370025635</t>
@@ -3866,10 +3866,10 @@
     <t xml:space="preserve">5.62491035461426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69087648391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69848871231079</t>
+    <t xml:space="preserve">5.69087696075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69848823547363</t>
   </si>
   <si>
     <t xml:space="preserve">5.6900315284729</t>
@@ -3884,37 +3884,37 @@
     <t xml:space="preserve">5.70694589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72132301330566</t>
+    <t xml:space="preserve">5.72132349014282</t>
   </si>
   <si>
     <t xml:space="preserve">5.77629470825195</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8405704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98857164382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09767007827759</t>
+    <t xml:space="preserve">5.84056997299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9885721206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09767055511475</t>
   </si>
   <si>
     <t xml:space="preserve">6.06637859344482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02747535705566</t>
+    <t xml:space="preserve">6.02747488021851</t>
   </si>
   <si>
     <t xml:space="preserve">5.97165727615356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04269790649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10274457931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14841365814209</t>
+    <t xml:space="preserve">6.0426983833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10274505615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14841413497925</t>
   </si>
   <si>
     <t xml:space="preserve">6.11965942382812</t>
@@ -3923,7 +3923,7 @@
     <t xml:space="preserve">6.16109943389893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11543035507202</t>
+    <t xml:space="preserve">6.11543083190918</t>
   </si>
   <si>
     <t xml:space="preserve">6.13657331466675</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">6.16871118545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08498525619507</t>
+    <t xml:space="preserve">6.08498477935791</t>
   </si>
   <si>
     <t xml:space="preserve">5.99956655502319</t>
@@ -3947,28 +3947,28 @@
     <t xml:space="preserve">6.00379467010498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04692697525024</t>
+    <t xml:space="preserve">6.0469274520874</t>
   </si>
   <si>
     <t xml:space="preserve">5.99364614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97757720947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95558834075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87778186798096</t>
+    <t xml:space="preserve">5.97757816314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95558881759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8777813911438</t>
   </si>
   <si>
     <t xml:space="preserve">5.87947368621826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84141540527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95812606811523</t>
+    <t xml:space="preserve">5.84141635894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95812559127808</t>
   </si>
   <si>
     <t xml:space="preserve">6.04608154296875</t>
@@ -3977,37 +3977,37 @@
     <t xml:space="preserve">5.76445531845093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7416205406189</t>
+    <t xml:space="preserve">5.74162101745605</t>
   </si>
   <si>
     <t xml:space="preserve">5.67227125167847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71286582946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57332181930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51919460296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68580293655396</t>
+    <t xml:space="preserve">5.71286630630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57332134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51919507980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6858024597168</t>
   </si>
   <si>
     <t xml:space="preserve">5.76022624969482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66719675064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66804313659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65789365768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5851616859436</t>
+    <t xml:space="preserve">5.66719722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66804265975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65789413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58516120910645</t>
   </si>
   <si>
     <t xml:space="preserve">5.60376787185669</t>
@@ -4028,13 +4028,13 @@
     <t xml:space="preserve">5.78052377700806</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81519889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84902763366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85917568206787</t>
+    <t xml:space="preserve">5.81519842147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84902715682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85917615890503</t>
   </si>
   <si>
     <t xml:space="preserve">5.95051383972168</t>
@@ -4043,7 +4043,7 @@
     <t xml:space="preserve">5.92852592468262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95897197723389</t>
+    <t xml:space="preserve">5.95897150039673</t>
   </si>
   <si>
     <t xml:space="preserve">6.06553268432617</t>
@@ -4055,13 +4055,13 @@
     <t xml:space="preserve">5.87693643569946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8431077003479</t>
+    <t xml:space="preserve">5.84310722351074</t>
   </si>
   <si>
     <t xml:space="preserve">5.86086702346802</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86171340942383</t>
+    <t xml:space="preserve">5.86171388626099</t>
   </si>
   <si>
     <t xml:space="preserve">5.85410165786743</t>
@@ -4070,13 +4070,13 @@
     <t xml:space="preserve">5.8870849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75684356689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80420398712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92260551452637</t>
+    <t xml:space="preserve">5.75684404373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80420446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92260503768921</t>
   </si>
   <si>
     <t xml:space="preserve">5.83972501754761</t>
@@ -4085,7 +4085,7 @@
     <t xml:space="preserve">5.79624176025391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79711103439331</t>
+    <t xml:space="preserve">5.79711151123047</t>
   </si>
   <si>
     <t xml:space="preserve">5.95886707305908</t>
@@ -4094,52 +4094,52 @@
     <t xml:space="preserve">5.871901512146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89712190628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96060705184937</t>
+    <t xml:space="preserve">5.89712142944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96060657501221</t>
   </si>
   <si>
     <t xml:space="preserve">5.95625829696655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89538240432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77363109588623</t>
+    <t xml:space="preserve">5.89538288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77363061904907</t>
   </si>
   <si>
     <t xml:space="preserve">5.59274291992188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50577735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63274717330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59361267089844</t>
+    <t xml:space="preserve">5.50577783584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63274765014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5936131477356</t>
   </si>
   <si>
     <t xml:space="preserve">5.56056594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49621200561523</t>
+    <t xml:space="preserve">5.49621152877808</t>
   </si>
   <si>
     <t xml:space="preserve">5.59100389480591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66144561767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63709449768066</t>
+    <t xml:space="preserve">5.66144609451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63709497451782</t>
   </si>
   <si>
     <t xml:space="preserve">5.59622144699097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47533941268921</t>
+    <t xml:space="preserve">5.47533988952637</t>
   </si>
   <si>
     <t xml:space="preserve">5.51708316802979</t>
@@ -4151,10 +4151,10 @@
     <t xml:space="preserve">5.38489580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69536209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.738844871521</t>
+    <t xml:space="preserve">5.69536256790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73884439468384</t>
   </si>
   <si>
     <t xml:space="preserve">5.36924171447754</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">5.17878770828247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93093681335449</t>
+    <t xml:space="preserve">4.93093633651733</t>
   </si>
   <si>
     <t xml:space="preserve">4.8361439704895</t>
@@ -4175,13 +4175,13 @@
     <t xml:space="preserve">4.976158618927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25183868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99094200134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98137664794922</t>
+    <t xml:space="preserve">5.25183916091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99094295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98137712478638</t>
   </si>
   <si>
     <t xml:space="preserve">5.0605149269104</t>
@@ -4205,16 +4205,16 @@
     <t xml:space="preserve">4.96485328674316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01790142059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11182403564453</t>
+    <t xml:space="preserve">5.01790189743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11182451248169</t>
   </si>
   <si>
     <t xml:space="preserve">5.2848858833313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30227899551392</t>
+    <t xml:space="preserve">5.30227851867676</t>
   </si>
   <si>
     <t xml:space="preserve">5.27705860137939</t>
@@ -4223,43 +4223,43 @@
     <t xml:space="preserve">5.3083667755127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31358432769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41968154907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39881038665771</t>
+    <t xml:space="preserve">5.3135838508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41968202590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39881086349487</t>
   </si>
   <si>
     <t xml:space="preserve">5.36402416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48751497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46751260757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43359613418579</t>
+    <t xml:space="preserve">5.48751449584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46751308441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43359661102295</t>
   </si>
   <si>
     <t xml:space="preserve">5.39011383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39359188079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37532997131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36141538619995</t>
+    <t xml:space="preserve">5.3935923576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37532949447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36141490936279</t>
   </si>
   <si>
     <t xml:space="preserve">5.22922801971436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30749702453613</t>
+    <t xml:space="preserve">5.30749654769897</t>
   </si>
   <si>
     <t xml:space="preserve">5.29879999160767</t>
@@ -4268,13 +4268,13 @@
     <t xml:space="preserve">5.28140687942505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40924596786499</t>
+    <t xml:space="preserve">5.40924549102783</t>
   </si>
   <si>
     <t xml:space="preserve">5.40750646591187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36837244033813</t>
+    <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
     <t xml:space="preserve">5.43446588516235</t>
@@ -4289,25 +4289,25 @@
     <t xml:space="preserve">5.22487926483154</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10747671127319</t>
+    <t xml:space="preserve">5.10747623443604</t>
   </si>
   <si>
     <t xml:space="preserve">5.08051681518555</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2005295753479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0770378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16313409805298</t>
+    <t xml:space="preserve">5.20052862167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07703876495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16313362121582</t>
   </si>
   <si>
     <t xml:space="preserve">5.20661687850952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22661876678467</t>
+    <t xml:space="preserve">5.22661924362183</t>
   </si>
   <si>
     <t xml:space="preserve">5.16400384902954</t>
@@ -4325,31 +4325,31 @@
     <t xml:space="preserve">5.33271646499634</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37793874740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37967729568481</t>
+    <t xml:space="preserve">5.37793827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37967777252197</t>
   </si>
   <si>
     <t xml:space="preserve">5.35880613327026</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25618743896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15182828903198</t>
+    <t xml:space="preserve">5.25618696212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15182781219482</t>
   </si>
   <si>
     <t xml:space="preserve">5.17791795730591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13530492782593</t>
+    <t xml:space="preserve">5.13530540466309</t>
   </si>
   <si>
     <t xml:space="preserve">5.24314165115356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20748662948608</t>
+    <t xml:space="preserve">5.20748615264893</t>
   </si>
   <si>
     <t xml:space="preserve">5.0839958190918</t>
@@ -4358,16 +4358,16 @@
     <t xml:space="preserve">4.98224639892578</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76657199859619</t>
+    <t xml:space="preserve">4.76657247543335</t>
   </si>
   <si>
     <t xml:space="preserve">4.68569421768188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63786315917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83179664611816</t>
+    <t xml:space="preserve">4.63786363601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83179616928101</t>
   </si>
   <si>
     <t xml:space="preserve">4.69613027572632</t>
@@ -4376,7 +4376,7 @@
     <t xml:space="preserve">4.73265552520752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77352857589722</t>
+    <t xml:space="preserve">4.77352905273438</t>
   </si>
   <si>
     <t xml:space="preserve">4.75265789031982</t>
@@ -4391,7 +4391,7 @@
     <t xml:space="preserve">4.79440069198608</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70395708084106</t>
+    <t xml:space="preserve">4.70395660400391</t>
   </si>
   <si>
     <t xml:space="preserve">4.76222372055054</t>
@@ -4412,19 +4412,19 @@
     <t xml:space="preserve">4.41523170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50132751464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57698774337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56742143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55872488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50306701660156</t>
+    <t xml:space="preserve">4.5013279914856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57698726654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56742095947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55872440338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5030665397644</t>
   </si>
   <si>
     <t xml:space="preserve">4.4587140083313</t>
@@ -4439,40 +4439,40 @@
     <t xml:space="preserve">4.43776512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49607372283936</t>
+    <t xml:space="preserve">4.4960732460022</t>
   </si>
   <si>
     <t xml:space="preserve">4.35550022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29222059249878</t>
+    <t xml:space="preserve">4.29222011566162</t>
   </si>
   <si>
     <t xml:space="preserve">4.27052354812622</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29402780532837</t>
+    <t xml:space="preserve">4.29402828216553</t>
   </si>
   <si>
     <t xml:space="preserve">4.28092002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27685165405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33335208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47754192352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39708518981934</t>
+    <t xml:space="preserve">4.27685213088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33335256576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47754144668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39708471298218</t>
   </si>
   <si>
     <t xml:space="preserve">4.40702867507935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44138145446777</t>
+    <t xml:space="preserve">4.44138097763062</t>
   </si>
   <si>
     <t xml:space="preserve">4.47573328018188</t>
@@ -4487,19 +4487,19 @@
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002906799316</t>
+    <t xml:space="preserve">4.52002954483032</t>
   </si>
   <si>
     <t xml:space="preserve">4.55166959762573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61223793029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6077184677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60319852828979</t>
+    <t xml:space="preserve">4.61223840713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60771799087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60319805145264</t>
   </si>
   <si>
     <t xml:space="preserve">4.52274131774902</t>
@@ -4508,28 +4508,28 @@
     <t xml:space="preserve">4.46126937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46578979492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47030878067017</t>
+    <t xml:space="preserve">4.46578931808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47030973434448</t>
   </si>
   <si>
     <t xml:space="preserve">4.47121334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36860847473145</t>
+    <t xml:space="preserve">4.3686089515686</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35143184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24475955963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19684791564941</t>
+    <t xml:space="preserve">4.35143232345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24476003646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19684743881226</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4547,16 +4547,16 @@
     <t xml:space="preserve">4.34465265274048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38894891738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51234579086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47392559051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44770908355713</t>
+    <t xml:space="preserve">4.38894844055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51234531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47392511367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44770956039429</t>
   </si>
   <si>
     <t xml:space="preserve">4.42691707611084</t>
@@ -4568,13 +4568,13 @@
     <t xml:space="preserve">4.45720100402832</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37584018707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38397693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37041616439819</t>
+    <t xml:space="preserve">4.37584066390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38397645950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37041664123535</t>
   </si>
   <si>
     <t xml:space="preserve">4.19820356369019</t>
@@ -4583,37 +4583,37 @@
     <t xml:space="preserve">4.11096715927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8890335559845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90440154075623</t>
+    <t xml:space="preserve">3.88903307914734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90440130233765</t>
   </si>
   <si>
     <t xml:space="preserve">3.84021735191345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81852078437805</t>
+    <t xml:space="preserve">3.81852126121521</t>
   </si>
   <si>
     <t xml:space="preserve">3.93875360488892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03503084182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90666127204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76970481872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72586059570312</t>
+    <t xml:space="preserve">4.03503036499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90666174888611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76970458030701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72586035728455</t>
   </si>
   <si>
     <t xml:space="preserve">3.78688073158264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68472814559937</t>
+    <t xml:space="preserve">3.68472838401794</t>
   </si>
   <si>
     <t xml:space="preserve">3.61873555183411</t>
@@ -4622,55 +4622,55 @@
     <t xml:space="preserve">3.68111205101013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71817636489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81038498878479</t>
+    <t xml:space="preserve">3.7181761264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81038522720337</t>
   </si>
   <si>
     <t xml:space="preserve">3.84925699234009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87230920791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83388900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79185271263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88134956359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95864200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406602859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08791446685791</t>
+    <t xml:space="preserve">3.87230968475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83388924598694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7918529510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88134932518005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95864224433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406626701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08791494369507</t>
   </si>
   <si>
     <t xml:space="preserve">4.04271459579468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08520317077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10373544692993</t>
+    <t xml:space="preserve">4.08520269393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10373497009277</t>
   </si>
   <si>
     <t xml:space="preserve">4.15164709091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13492345809937</t>
+    <t xml:space="preserve">4.13492250442505</t>
   </si>
   <si>
     <t xml:space="preserve">4.23029565811157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28272771835327</t>
+    <t xml:space="preserve">4.28272819519043</t>
   </si>
   <si>
     <t xml:space="preserve">4.32476425170898</t>
@@ -4682,25 +4682,25 @@
     <t xml:space="preserve">4.5290699005127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56342124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59144592285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61947011947632</t>
+    <t xml:space="preserve">4.56342172622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59144639968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61947059631348</t>
   </si>
   <si>
     <t xml:space="preserve">4.64568662643433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66195869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59686994552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57698249816895</t>
+    <t xml:space="preserve">4.66195917129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59687042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57698202133179</t>
   </si>
   <si>
     <t xml:space="preserve">4.6583423614502</t>
@@ -4709,16 +4709,16 @@
     <t xml:space="preserve">4.6601505279541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5833101272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61585426330566</t>
+    <t xml:space="preserve">4.58331060409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61585378646851</t>
   </si>
   <si>
     <t xml:space="preserve">4.64116621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74603128433228</t>
+    <t xml:space="preserve">4.74603080749512</t>
   </si>
   <si>
     <t xml:space="preserve">4.761399269104</t>
@@ -4730,10 +4730,10 @@
     <t xml:space="preserve">4.70625448226929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72252702713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67732667922974</t>
+    <t xml:space="preserve">4.72252655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67732620239258</t>
   </si>
   <si>
     <t xml:space="preserve">4.72071886062622</t>
@@ -4751,13 +4751,13 @@
     <t xml:space="preserve">4.56974983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56523036956787</t>
+    <t xml:space="preserve">4.56522989273071</t>
   </si>
   <si>
     <t xml:space="preserve">4.56161403656006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56251764297485</t>
+    <t xml:space="preserve">4.56251811981201</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
@@ -4769,10 +4769,10 @@
     <t xml:space="preserve">4.61133432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59054231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56432580947876</t>
+    <t xml:space="preserve">4.59054183959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5643253326416</t>
   </si>
   <si>
     <t xml:space="preserve">4.54714965820312</t>
@@ -4781,7 +4781,7 @@
     <t xml:space="preserve">4.67461442947388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79123163223267</t>
+    <t xml:space="preserve">4.79123115539551</t>
   </si>
   <si>
     <t xml:space="preserve">4.960280418396</t>
@@ -4796,7 +4796,7 @@
     <t xml:space="preserve">5.0615291595459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00457620620728</t>
+    <t xml:space="preserve">5.00457668304443</t>
   </si>
   <si>
     <t xml:space="preserve">5.08955335617065</t>
@@ -4808,13 +4808,13 @@
     <t xml:space="preserve">5.17814588546753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25046634674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2070746421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21069002151489</t>
+    <t xml:space="preserve">5.25046682357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20707416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21069049835205</t>
   </si>
   <si>
     <t xml:space="preserve">5.11396169662476</t>
@@ -4823,10 +4823,10 @@
     <t xml:space="preserve">5.10763359069824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12262868881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074396133423</t>
+    <t xml:space="preserve">5.1226282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074348449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.13387441635132</t>
@@ -4841,7 +4841,7 @@
     <t xml:space="preserve">5.09170150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05234003067017</t>
+    <t xml:space="preserve">5.05233955383301</t>
   </si>
   <si>
     <t xml:space="preserve">4.94175243377686</t>
@@ -4850,16 +4850,16 @@
     <t xml:space="preserve">5.04390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0251612663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04109382629395</t>
+    <t xml:space="preserve">5.02516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0410943031311</t>
   </si>
   <si>
     <t xml:space="preserve">5.0223503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01016664505005</t>
+    <t xml:space="preserve">5.01016712188721</t>
   </si>
   <si>
     <t xml:space="preserve">5.00454378128052</t>
@@ -4871,7 +4871,7 @@
     <t xml:space="preserve">5.06358575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04203128814697</t>
+    <t xml:space="preserve">5.04203081130981</t>
   </si>
   <si>
     <t xml:space="preserve">5.04859113693237</t>
@@ -4883,10 +4883,10 @@
     <t xml:space="preserve">5.01672697067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01391553878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111438751221</t>
+    <t xml:space="preserve">5.01391506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.90988826751709</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">4.92956972122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90520286560059</t>
+    <t xml:space="preserve">4.90520238876343</t>
   </si>
   <si>
     <t xml:space="preserve">4.97267961502075</t>
@@ -4913,7 +4913,7 @@
     <t xml:space="preserve">4.96799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99892091751099</t>
+    <t xml:space="preserve">4.99892044067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.96237087249756</t>
@@ -4922,10 +4922,10 @@
     <t xml:space="preserve">4.98580026626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98486280441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9914231300354</t>
+    <t xml:space="preserve">4.98486232757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99142360687256</t>
   </si>
   <si>
     <t xml:space="preserve">4.89864253997803</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">4.91644859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96330738067627</t>
+    <t xml:space="preserve">4.96330785751343</t>
   </si>
   <si>
     <t xml:space="preserve">4.95487308502197</t>
@@ -4949,19 +4949,22 @@
     <t xml:space="preserve">5.13574886322021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15824127197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327701568604</t>
+    <t xml:space="preserve">5.15824174880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327749252319</t>
   </si>
   <si>
     <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198968887329</t>
+    <t xml:space="preserve">5.10763311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16199016571045</t>
   </si>
   <si>
     <t xml:space="preserve">5.25758218765259</t>
@@ -4979,22 +4982,22 @@
     <t xml:space="preserve">5.30631589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48156833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53311347961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6155858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.395348072052</t>
+    <t xml:space="preserve">5.48156881332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5331130027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61558532714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39534759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.34942626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36067199707031</t>
+    <t xml:space="preserve">5.36067247390747</t>
   </si>
   <si>
     <t xml:space="preserve">5.39722204208374</t>
@@ -5009,13 +5012,13 @@
     <t xml:space="preserve">5.55841779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64932346343994</t>
+    <t xml:space="preserve">5.6493239402771</t>
   </si>
   <si>
     <t xml:space="preserve">5.67556524276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70742893218994</t>
+    <t xml:space="preserve">5.7074294090271</t>
   </si>
   <si>
     <t xml:space="preserve">5.77771759033203</t>
@@ -5024,10 +5027,10 @@
     <t xml:space="preserve">5.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71492671966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71586322784424</t>
+    <t xml:space="preserve">5.71492624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7158637046814</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461750030518</t>
@@ -5045,25 +5048,25 @@
     <t xml:space="preserve">5.71024084091187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66431856155396</t>
+    <t xml:space="preserve">5.66431903839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.67743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995170593262</t>
+    <t xml:space="preserve">5.63995218276978</t>
   </si>
   <si>
     <t xml:space="preserve">5.64182615280151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60246467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53030204772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63151693344116</t>
+    <t xml:space="preserve">5.60246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53030157089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63151741027832</t>
   </si>
   <si>
     <t xml:space="preserve">5.65963268280029</t>
@@ -5081,7 +5084,7 @@
     <t xml:space="preserve">5.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5827841758728</t>
+    <t xml:space="preserve">5.58278369903564</t>
   </si>
   <si>
     <t xml:space="preserve">5.63432931900024</t>
@@ -5090,25 +5093,25 @@
     <t xml:space="preserve">5.49000310897827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58372116088867</t>
+    <t xml:space="preserve">5.58372163772583</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619300842285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62027168273926</t>
+    <t xml:space="preserve">5.6202712059021</t>
   </si>
   <si>
     <t xml:space="preserve">5.66994190216064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69243383407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69149732589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72710990905762</t>
+    <t xml:space="preserve">5.69243431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69149684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72710943222046</t>
   </si>
   <si>
     <t xml:space="preserve">5.68868541717529</t>
@@ -5129,7 +5132,7 @@
     <t xml:space="preserve">5.75147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76178550720215</t>
+    <t xml:space="preserve">5.76178503036499</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052949905396</t>
@@ -5138,7 +5141,7 @@
     <t xml:space="preserve">5.84800577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94078731536865</t>
+    <t xml:space="preserve">5.94078683853149</t>
   </si>
   <si>
     <t xml:space="preserve">5.81989049911499</t>
@@ -5159,7 +5162,7 @@
     <t xml:space="preserve">5.83863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9323525428772</t>
+    <t xml:space="preserve">5.93235206604004</t>
   </si>
   <si>
     <t xml:space="preserve">5.84613180160522</t>
@@ -5168,13 +5171,13 @@
     <t xml:space="preserve">5.88268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88080787658691</t>
+    <t xml:space="preserve">5.88080739974976</t>
   </si>
   <si>
     <t xml:space="preserve">5.89861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93797492980957</t>
+    <t xml:space="preserve">5.93797540664673</t>
   </si>
   <si>
     <t xml:space="preserve">5.99507141113281</t>
@@ -54082,7 +54085,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>1602</v>
+        <v>1649</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -54108,7 +54111,7 @@
         <v>5.50799989700317</v>
       </c>
       <c r="G1845" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -54134,7 +54137,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G1846" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -54160,7 +54163,7 @@
         <v>5.6269998550415</v>
       </c>
       <c r="G1847" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -54186,7 +54189,7 @@
         <v>5.60200023651123</v>
       </c>
       <c r="G1848" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -54212,7 +54215,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -54238,7 +54241,7 @@
         <v>5.66200017929077</v>
       </c>
       <c r="G1850" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -54264,7 +54267,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G1851" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -54290,7 +54293,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G1852" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -54316,7 +54319,7 @@
         <v>5.99200010299683</v>
       </c>
       <c r="G1853" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -54342,7 +54345,7 @@
         <v>5.75699996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -54368,7 +54371,7 @@
         <v>5.70800018310547</v>
       </c>
       <c r="G1855" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -54394,7 +54397,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1856" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -54420,7 +54423,7 @@
         <v>5.75899982452393</v>
       </c>
       <c r="G1857" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -54446,7 +54449,7 @@
         <v>5.80900001525879</v>
       </c>
       <c r="G1858" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -54472,7 +54475,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1859" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54498,7 +54501,7 @@
         <v>5.93100023269653</v>
       </c>
       <c r="G1860" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54524,7 +54527,7 @@
         <v>6.02799987792969</v>
       </c>
       <c r="G1861" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54550,7 +54553,7 @@
         <v>6.05600023269653</v>
       </c>
       <c r="G1862" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54576,7 +54579,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G1863" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54602,7 +54605,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G1864" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54628,7 +54631,7 @@
         <v>6.19899988174438</v>
       </c>
       <c r="G1865" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54654,7 +54657,7 @@
         <v>6.09800004959106</v>
       </c>
       <c r="G1866" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54680,7 +54683,7 @@
         <v>6.09899997711182</v>
       </c>
       <c r="G1867" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54706,7 +54709,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G1868" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54732,7 +54735,7 @@
         <v>6.16200017929077</v>
       </c>
       <c r="G1869" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54758,7 +54761,7 @@
         <v>6.11899995803833</v>
       </c>
       <c r="G1870" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54784,7 +54787,7 @@
         <v>6.11199998855591</v>
       </c>
       <c r="G1871" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54810,7 +54813,7 @@
         <v>6.09299993515015</v>
       </c>
       <c r="G1872" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54836,7 +54839,7 @@
         <v>6.04400014877319</v>
       </c>
       <c r="G1873" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54862,7 +54865,7 @@
         <v>6.05800008773804</v>
       </c>
       <c r="G1874" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54888,7 +54891,7 @@
         <v>6.01800012588501</v>
       </c>
       <c r="G1875" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54914,7 +54917,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54940,7 +54943,7 @@
         <v>5.97800016403198</v>
       </c>
       <c r="G1877" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54966,7 +54969,7 @@
         <v>5.90100002288818</v>
       </c>
       <c r="G1878" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54992,7 +54995,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G1879" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -55018,7 +55021,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G1880" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -55044,7 +55047,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G1881" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -55070,7 +55073,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G1882" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -55096,7 +55099,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1883" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -55122,7 +55125,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G1884" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -55148,7 +55151,7 @@
         <v>5.95699977874756</v>
       </c>
       <c r="G1885" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -55174,7 +55177,7 @@
         <v>6.01200008392334</v>
       </c>
       <c r="G1886" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -55200,7 +55203,7 @@
         <v>5.85799980163574</v>
       </c>
       <c r="G1887" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -55226,7 +55229,7 @@
         <v>5.95800018310547</v>
       </c>
       <c r="G1888" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -55252,7 +55255,7 @@
         <v>6.0460000038147</v>
       </c>
       <c r="G1889" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -55278,7 +55281,7 @@
         <v>5.99700021743774</v>
       </c>
       <c r="G1890" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -55304,7 +55307,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1891" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -55330,7 +55333,7 @@
         <v>6.01200008392334</v>
       </c>
       <c r="G1892" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -55356,7 +55359,7 @@
         <v>6.07399988174438</v>
       </c>
       <c r="G1893" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -55382,7 +55385,7 @@
         <v>6.07299995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -55408,7 +55411,7 @@
         <v>6.11100006103516</v>
       </c>
       <c r="G1895" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -55434,7 +55437,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1896" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -55460,7 +55463,7 @@
         <v>6.10799980163574</v>
       </c>
       <c r="G1897" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -55486,7 +55489,7 @@
         <v>6.09800004959106</v>
       </c>
       <c r="G1898" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55512,7 +55515,7 @@
         <v>6.11100006103516</v>
       </c>
       <c r="G1899" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55538,7 +55541,7 @@
         <v>6.09800004959106</v>
       </c>
       <c r="G1900" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55564,7 +55567,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G1901" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55590,7 +55593,7 @@
         <v>6.04400014877319</v>
       </c>
       <c r="G1902" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55616,7 +55619,7 @@
         <v>6.04400014877319</v>
       </c>
       <c r="G1903" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55642,7 +55645,7 @@
         <v>6.05700016021729</v>
       </c>
       <c r="G1904" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55668,7 +55671,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1905" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55694,7 +55697,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G1906" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55720,7 +55723,7 @@
         <v>6.14799976348877</v>
       </c>
       <c r="G1907" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55746,7 +55749,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G1908" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55772,7 +55775,7 @@
         <v>6.16800022125244</v>
       </c>
       <c r="G1909" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55798,7 +55801,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1910" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55824,7 +55827,7 @@
         <v>6.33900022506714</v>
       </c>
       <c r="G1911" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55850,7 +55853,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55876,7 +55879,7 @@
         <v>6.03800010681152</v>
       </c>
       <c r="G1913" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55902,7 +55905,7 @@
         <v>6.09700012207031</v>
       </c>
       <c r="G1914" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55928,7 +55931,7 @@
         <v>6.07600021362305</v>
       </c>
       <c r="G1915" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55954,7 +55957,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1916" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55980,7 +55983,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1917" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -56006,7 +56009,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1918" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -56032,7 +56035,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G1919" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -56058,7 +56061,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1920" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -56084,7 +56087,7 @@
         <v>6.27699995040894</v>
       </c>
       <c r="G1921" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -56110,7 +56113,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G1922" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -56136,7 +56139,7 @@
         <v>6.29400014877319</v>
       </c>
       <c r="G1923" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -56162,7 +56165,7 @@
         <v>6.33599996566772</v>
       </c>
       <c r="G1924" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -56188,7 +56191,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G1925" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -56214,7 +56217,7 @@
         <v>6.19700002670288</v>
       </c>
       <c r="G1926" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -56240,7 +56243,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1927" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56266,7 +56269,7 @@
         <v>6.31099987030029</v>
       </c>
       <c r="G1928" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56292,7 +56295,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G1929" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56318,7 +56321,7 @@
         <v>6.27199983596802</v>
       </c>
       <c r="G1930" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56344,7 +56347,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1931" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56370,7 +56373,7 @@
         <v>6.07600021362305</v>
       </c>
       <c r="G1932" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56396,7 +56399,7 @@
         <v>6.00600004196167</v>
       </c>
       <c r="G1933" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56422,7 +56425,7 @@
         <v>5.94299983978271</v>
       </c>
       <c r="G1934" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56448,7 +56451,7 @@
         <v>5.93200016021729</v>
       </c>
       <c r="G1935" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56474,7 +56477,7 @@
         <v>5.9229998588562</v>
       </c>
       <c r="G1936" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56500,7 +56503,7 @@
         <v>6.00699996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56526,7 +56529,7 @@
         <v>6.09600019454956</v>
       </c>
       <c r="G1938" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56552,7 +56555,7 @@
         <v>6.00600004196167</v>
       </c>
       <c r="G1939" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56578,7 +56581,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G1940" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56604,7 +56607,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G1941" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56630,7 +56633,7 @@
         <v>5.88399982452393</v>
       </c>
       <c r="G1942" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56656,7 +56659,7 @@
         <v>5.92399978637695</v>
       </c>
       <c r="G1943" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56682,7 +56685,7 @@
         <v>5.92399978637695</v>
       </c>
       <c r="G1944" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56708,7 +56711,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G1945" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56734,7 +56737,7 @@
         <v>6.06300020217896</v>
       </c>
       <c r="G1946" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56760,7 +56763,7 @@
         <v>6.07399988174438</v>
       </c>
       <c r="G1947" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56786,7 +56789,7 @@
         <v>6.10900020599365</v>
       </c>
       <c r="G1948" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56812,7 +56815,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1949" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56838,7 +56841,7 @@
         <v>6.20699977874756</v>
       </c>
       <c r="G1950" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56864,7 +56867,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56890,7 +56893,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56916,7 +56919,7 @@
         <v>6.1560001373291</v>
       </c>
       <c r="G1953" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56942,7 +56945,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G1954" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56968,7 +56971,7 @@
         <v>6.13299989700317</v>
       </c>
       <c r="G1955" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56994,7 +56997,7 @@
         <v>6.10300016403198</v>
       </c>
       <c r="G1956" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -57020,7 +57023,7 @@
         <v>6.20900011062622</v>
       </c>
       <c r="G1957" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -57046,7 +57049,7 @@
         <v>6.19099998474121</v>
       </c>
       <c r="G1958" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -57072,7 +57075,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1959" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -57098,7 +57101,7 @@
         <v>6.19899988174438</v>
       </c>
       <c r="G1960" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -57124,7 +57127,7 @@
         <v>6.12599992752075</v>
       </c>
       <c r="G1961" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -57150,7 +57153,7 @@
         <v>6.32200002670288</v>
       </c>
       <c r="G1962" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -57176,7 +57179,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G1963" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -57202,7 +57205,7 @@
         <v>6.23600006103516</v>
       </c>
       <c r="G1964" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -57228,7 +57231,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G1965" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57254,7 +57257,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G1966" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57280,7 +57283,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G1967" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57306,7 +57309,7 @@
         <v>6.04500007629395</v>
       </c>
       <c r="G1968" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57332,7 +57335,7 @@
         <v>5.97499990463257</v>
       </c>
       <c r="G1969" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57358,7 +57361,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G1970" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57384,7 +57387,7 @@
         <v>5.85099983215332</v>
       </c>
       <c r="G1971" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57410,7 +57413,7 @@
         <v>5.78800010681152</v>
       </c>
       <c r="G1972" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57436,7 +57439,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1973" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57462,7 +57465,7 @@
         <v>5.66099977493286</v>
       </c>
       <c r="G1974" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57488,7 +57491,7 @@
         <v>5.51700019836426</v>
       </c>
       <c r="G1975" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57514,7 +57517,7 @@
         <v>5.55700016021729</v>
       </c>
       <c r="G1976" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57540,7 +57543,7 @@
         <v>5.55399990081787</v>
       </c>
       <c r="G1977" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57566,7 +57569,7 @@
         <v>5.60099983215332</v>
       </c>
       <c r="G1978" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57592,7 +57595,7 @@
         <v>5.60400009155273</v>
       </c>
       <c r="G1979" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57618,7 +57621,7 @@
         <v>5.71099996566772</v>
       </c>
       <c r="G1980" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57644,7 +57647,7 @@
         <v>5.7810001373291</v>
       </c>
       <c r="G1981" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57670,7 +57673,7 @@
         <v>5.75400018692017</v>
       </c>
       <c r="G1982" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57696,7 +57699,7 @@
         <v>5.72300004959106</v>
       </c>
       <c r="G1983" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57722,7 +57725,7 @@
         <v>5.74399995803833</v>
       </c>
       <c r="G1984" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57748,7 +57751,7 @@
         <v>5.74200010299683</v>
       </c>
       <c r="G1985" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57774,7 +57777,7 @@
         <v>5.70100021362305</v>
       </c>
       <c r="G1986" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57800,7 +57803,7 @@
         <v>5.68200016021729</v>
       </c>
       <c r="G1987" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57826,7 +57829,7 @@
         <v>5.64699983596802</v>
       </c>
       <c r="G1988" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57852,7 +57855,7 @@
         <v>5.69099998474121</v>
       </c>
       <c r="G1989" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57878,7 +57881,7 @@
         <v>5.77299976348877</v>
       </c>
       <c r="G1990" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57904,7 +57907,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G1991" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57930,7 +57933,7 @@
         <v>5.77899980545044</v>
       </c>
       <c r="G1992" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57956,7 +57959,7 @@
         <v>5.75500011444092</v>
       </c>
       <c r="G1993" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57982,7 +57985,7 @@
         <v>5.88600015640259</v>
       </c>
       <c r="G1994" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -58008,7 +58011,7 @@
         <v>5.98799991607666</v>
       </c>
       <c r="G1995" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -58034,7 +58037,7 @@
         <v>6.03299999237061</v>
       </c>
       <c r="G1996" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -58060,7 +58063,7 @@
         <v>6.11399984359741</v>
       </c>
       <c r="G1997" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -58086,7 +58089,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G1998" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -58112,7 +58115,7 @@
         <v>6.14599990844727</v>
       </c>
       <c r="G1999" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -58138,7 +58141,7 @@
         <v>6.11899995803833</v>
       </c>
       <c r="G2000" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -58164,7 +58167,7 @@
         <v>6.08799982070923</v>
       </c>
       <c r="G2001" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -58190,7 +58193,7 @@
         <v>6.1560001373291</v>
       </c>
       <c r="G2002" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -58216,7 +58219,7 @@
         <v>6.12900018692017</v>
       </c>
       <c r="G2003" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -58242,7 +58245,7 @@
         <v>6.18400001525879</v>
       </c>
       <c r="G2004" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58268,7 +58271,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58294,7 +58297,7 @@
         <v>6.24900007247925</v>
       </c>
       <c r="G2006" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -58320,7 +58323,7 @@
         <v>6.30200004577637</v>
       </c>
       <c r="G2007" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58346,7 +58349,7 @@
         <v>6.40500020980835</v>
       </c>
       <c r="G2008" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58372,7 +58375,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G2009" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58398,7 +58401,7 @@
         <v>6.41599988937378</v>
       </c>
       <c r="G2010" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58424,7 +58427,7 @@
         <v>6.39099979400635</v>
       </c>
       <c r="G2011" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58450,7 +58453,7 @@
         <v>6.38199996948242</v>
       </c>
       <c r="G2012" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58476,7 +58479,7 @@
         <v>6.41400003433228</v>
       </c>
       <c r="G2013" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58502,7 +58505,7 @@
         <v>6.43200016021729</v>
       </c>
       <c r="G2014" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58528,7 +58531,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G2015" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58554,7 +58557,7 @@
         <v>6.43300008773804</v>
       </c>
       <c r="G2016" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58580,7 +58583,7 @@
         <v>6.48600006103516</v>
       </c>
       <c r="G2017" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58606,7 +58609,7 @@
         <v>6.50699996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58632,7 +58635,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G2019" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58658,7 +58661,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G2020" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58684,7 +58687,7 @@
         <v>6.5479998588562</v>
       </c>
       <c r="G2021" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58710,7 +58713,7 @@
         <v>6.54199981689453</v>
       </c>
       <c r="G2022" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58736,7 +58739,7 @@
         <v>6.56599998474121</v>
       </c>
       <c r="G2023" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58762,7 +58765,7 @@
         <v>6.51700019836426</v>
       </c>
       <c r="G2024" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58788,7 +58791,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G2025" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58814,7 +58817,7 @@
         <v>6.61199998855591</v>
       </c>
       <c r="G2026" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58840,7 +58843,7 @@
         <v>6.72200012207031</v>
       </c>
       <c r="G2027" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58866,7 +58869,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58892,7 +58895,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G2029" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58918,7 +58921,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2030" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58944,7 +58947,7 @@
         <v>6.66800022125244</v>
       </c>
       <c r="G2031" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58970,7 +58973,7 @@
         <v>6.67399978637695</v>
       </c>
       <c r="G2032" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58996,7 +58999,7 @@
         <v>6.7189998626709</v>
       </c>
       <c r="G2033" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -59022,7 +59025,7 @@
         <v>6.72100019454956</v>
       </c>
       <c r="G2034" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -59048,7 +59051,7 @@
         <v>6.70900011062622</v>
       </c>
       <c r="G2035" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -59074,7 +59077,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -59100,7 +59103,7 @@
         <v>6.70900011062622</v>
       </c>
       <c r="G2037" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -59126,7 +59129,7 @@
         <v>6.62599992752075</v>
       </c>
       <c r="G2038" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -59152,7 +59155,7 @@
         <v>6.72399997711182</v>
       </c>
       <c r="G2039" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -59178,7 +59181,7 @@
         <v>6.69099998474121</v>
       </c>
       <c r="G2040" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -59204,7 +59207,7 @@
         <v>6.70900011062622</v>
       </c>
       <c r="G2041" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -59230,7 +59233,7 @@
         <v>6.69899988174438</v>
       </c>
       <c r="G2042" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -59256,7 +59259,7 @@
         <v>6.73699998855591</v>
       </c>
       <c r="G2043" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59282,7 +59285,7 @@
         <v>6.67199993133545</v>
       </c>
       <c r="G2044" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59308,7 +59311,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G2045" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59334,7 +59337,7 @@
         <v>6.80700016021729</v>
       </c>
       <c r="G2046" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59360,7 +59363,7 @@
         <v>6.75</v>
       </c>
       <c r="G2047" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59386,7 +59389,7 @@
         <v>6.63600015640259</v>
       </c>
       <c r="G2048" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59412,7 +59415,7 @@
         <v>6.62200021743774</v>
       </c>
       <c r="G2049" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59438,7 +59441,7 @@
         <v>6.66200017929077</v>
       </c>
       <c r="G2050" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59464,7 +59467,7 @@
         <v>6.38299989700317</v>
       </c>
       <c r="G2051" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59490,7 +59493,7 @@
         <v>6.33400011062622</v>
       </c>
       <c r="G2052" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59516,7 +59519,7 @@
         <v>6.31599998474121</v>
       </c>
       <c r="G2053" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59542,7 +59545,7 @@
         <v>6.2960000038147</v>
       </c>
       <c r="G2054" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59568,7 +59571,7 @@
         <v>6.27099990844727</v>
       </c>
       <c r="G2055" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59594,7 +59597,7 @@
         <v>6.22300004959106</v>
       </c>
       <c r="G2056" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59620,7 +59623,7 @@
         <v>6.25600004196167</v>
       </c>
       <c r="G2057" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59646,7 +59649,7 @@
         <v>6.34100008010864</v>
       </c>
       <c r="G2058" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59672,7 +59675,7 @@
         <v>6.2039999961853</v>
       </c>
       <c r="G2059" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59698,7 +59701,7 @@
         <v>6.18200016021729</v>
       </c>
       <c r="G2060" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59724,7 +59727,7 @@
         <v>6.1269998550415</v>
       </c>
       <c r="G2061" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59750,7 +59753,7 @@
         <v>6.07600021362305</v>
       </c>
       <c r="G2062" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59776,7 +59779,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G2063" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59802,7 +59805,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G2064" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59828,7 +59831,7 @@
         <v>5.87400007247925</v>
       </c>
       <c r="G2065" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59854,7 +59857,7 @@
         <v>5.91699981689453</v>
       </c>
       <c r="G2066" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59880,7 +59883,7 @@
         <v>5.88299989700317</v>
       </c>
       <c r="G2067" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59906,7 +59909,7 @@
         <v>5.91400003433228</v>
       </c>
       <c r="G2068" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59932,7 +59935,7 @@
         <v>5.92500019073486</v>
       </c>
       <c r="G2069" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59958,7 +59961,7 @@
         <v>5.87400007247925</v>
       </c>
       <c r="G2070" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59984,7 +59987,7 @@
         <v>5.86100006103516</v>
       </c>
       <c r="G2071" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -60010,7 +60013,7 @@
         <v>5.90299987792969</v>
       </c>
       <c r="G2072" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -60036,7 +60039,7 @@
         <v>5.95699977874756</v>
       </c>
       <c r="G2073" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -60062,7 +60065,7 @@
         <v>5.93300008773804</v>
       </c>
       <c r="G2074" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -60088,7 +60091,7 @@
         <v>5.95800018310547</v>
       </c>
       <c r="G2075" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -60114,7 +60117,7 @@
         <v>5.87599992752075</v>
       </c>
       <c r="G2076" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -60140,7 +60143,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G2077" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -60166,7 +60169,7 @@
         <v>5.85300016403198</v>
       </c>
       <c r="G2078" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -60192,7 +60195,7 @@
         <v>5.88299989700317</v>
       </c>
       <c r="G2079" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -60218,7 +60221,7 @@
         <v>5.89200019836426</v>
       </c>
       <c r="G2080" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -60244,7 +60247,7 @@
         <v>5.90299987792969</v>
       </c>
       <c r="G2081" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60270,7 +60273,7 @@
         <v>6.03800010681152</v>
       </c>
       <c r="G2082" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60296,7 +60299,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G2083" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60322,7 +60325,7 @@
         <v>6.13899993896484</v>
       </c>
       <c r="G2084" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60348,7 +60351,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G2085" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60374,7 +60377,7 @@
         <v>6.1560001373291</v>
       </c>
       <c r="G2086" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60400,7 +60403,7 @@
         <v>6.15100002288818</v>
       </c>
       <c r="G2087" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60426,7 +60429,7 @@
         <v>6.20900011062622</v>
       </c>
       <c r="G2088" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60452,7 +60455,7 @@
         <v>6.12900018692017</v>
       </c>
       <c r="G2089" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60478,7 +60481,7 @@
         <v>6.13100004196167</v>
       </c>
       <c r="G2090" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60504,7 +60507,7 @@
         <v>6.07399988174438</v>
       </c>
       <c r="G2091" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60530,7 +60533,7 @@
         <v>6.07600021362305</v>
       </c>
       <c r="G2092" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60556,7 +60559,7 @@
         <v>6.10300016403198</v>
       </c>
       <c r="G2093" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60582,7 +60585,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G2094" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60608,7 +60611,7 @@
         <v>6.08099985122681</v>
       </c>
       <c r="G2095" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60634,7 +60637,7 @@
         <v>6.06699991226196</v>
       </c>
       <c r="G2096" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60660,7 +60663,7 @@
         <v>6.08400011062622</v>
       </c>
       <c r="G2097" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60686,7 +60689,7 @@
         <v>6.16800022125244</v>
       </c>
       <c r="G2098" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60712,7 +60715,7 @@
         <v>6.11899995803833</v>
       </c>
       <c r="G2099" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60738,7 +60741,7 @@
         <v>5.98799991607666</v>
       </c>
       <c r="G2100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60764,7 +60767,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2101" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60790,7 +60793,7 @@
         <v>6.0460000038147</v>
       </c>
       <c r="G2102" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60816,7 +60819,7 @@
         <v>5.90700006484985</v>
       </c>
       <c r="G2103" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60842,7 +60845,7 @@
         <v>5.89900016784668</v>
       </c>
       <c r="G2104" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60868,7 +60871,7 @@
         <v>5.82499980926514</v>
       </c>
       <c r="G2105" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60894,7 +60897,7 @@
         <v>5.69899988174438</v>
       </c>
       <c r="G2106" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60920,7 +60923,7 @@
         <v>5.70699977874756</v>
       </c>
       <c r="G2107" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60946,7 +60949,7 @@
         <v>5.8730001449585</v>
       </c>
       <c r="G2108" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60972,7 +60975,7 @@
         <v>5.84800004959106</v>
       </c>
       <c r="G2109" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60998,7 +61001,7 @@
         <v>5.79400014877319</v>
       </c>
       <c r="G2110" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -61024,7 +61027,7 @@
         <v>5.78599977493286</v>
       </c>
       <c r="G2111" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -61050,7 +61053,7 @@
         <v>5.87200021743774</v>
       </c>
       <c r="G2112" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -61076,7 +61079,7 @@
         <v>5.95499992370605</v>
       </c>
       <c r="G2113" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -61102,7 +61105,7 @@
         <v>6.04899978637695</v>
       </c>
       <c r="G2114" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -61128,7 +61131,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G2115" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -61154,7 +61157,7 @@
         <v>6.08799982070923</v>
       </c>
       <c r="G2116" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -61180,7 +61183,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G2117" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -61206,7 +61209,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G2118" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -61232,7 +61235,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G2119" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -61258,7 +61261,7 @@
         <v>6.18100023269653</v>
       </c>
       <c r="G2120" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61284,7 +61287,7 @@
         <v>6.24200010299683</v>
       </c>
       <c r="G2121" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61310,7 +61313,7 @@
         <v>6.25</v>
       </c>
       <c r="G2122" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61336,7 +61339,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G2123" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61362,7 +61365,7 @@
         <v>6.38399982452393</v>
       </c>
       <c r="G2124" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61388,7 +61391,7 @@
         <v>6.44600009918213</v>
       </c>
       <c r="G2125" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61414,7 +61417,7 @@
         <v>6.50799989700317</v>
       </c>
       <c r="G2126" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61440,7 +61443,7 @@
         <v>6.75500011444092</v>
       </c>
       <c r="G2127" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61466,7 +61469,7 @@
         <v>6.7519998550415</v>
       </c>
       <c r="G2128" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61492,7 +61495,7 @@
         <v>6.71400022506714</v>
       </c>
       <c r="G2129" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61518,7 +61521,7 @@
         <v>6.84200000762939</v>
       </c>
       <c r="G2130" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61544,7 +61547,7 @@
         <v>6.81899976730347</v>
       </c>
       <c r="G2131" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61570,7 +61573,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G2132" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61596,7 +61599,7 @@
         <v>6.76100015640259</v>
       </c>
       <c r="G2133" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61622,7 +61625,7 @@
         <v>6.7350001335144</v>
       </c>
       <c r="G2134" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61648,7 +61651,7 @@
         <v>6.67399978637695</v>
       </c>
       <c r="G2135" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61674,7 +61677,7 @@
         <v>6.60599994659424</v>
       </c>
       <c r="G2136" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61700,7 +61703,7 @@
         <v>6.55600023269653</v>
       </c>
       <c r="G2137" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61726,7 +61729,7 @@
         <v>6.66099977493286</v>
       </c>
       <c r="G2138" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61752,7 +61755,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61778,7 +61781,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G2140" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61804,7 +61807,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G2141" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61830,7 +61833,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G2142" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61856,7 +61859,7 @@
         <v>6.75</v>
       </c>
       <c r="G2143" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61882,7 +61885,7 @@
         <v>6.73600006103516</v>
       </c>
       <c r="G2144" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61908,7 +61911,7 @@
         <v>6.81300020217896</v>
       </c>
       <c r="G2145" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61934,7 +61937,7 @@
         <v>6.7979998588562</v>
       </c>
       <c r="G2146" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61960,7 +61963,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G2147" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61986,7 +61989,7 @@
         <v>6.67899990081787</v>
       </c>
       <c r="G2148" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -62012,7 +62015,7 @@
         <v>6.64099979400635</v>
       </c>
       <c r="G2149" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1936">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46143746376038</t>
+    <t xml:space="preserve">2.46143770217896</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">2.43929767608643</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42236685752869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883250236511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43408823013306</t>
+    <t xml:space="preserve">2.42236733436584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883297920227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43408799171448</t>
   </si>
   <si>
     <t xml:space="preserve">2.38980841636658</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34683084487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37418031692505</t>
+    <t xml:space="preserve">2.34683108329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37418007850647</t>
   </si>
   <si>
     <t xml:space="preserve">2.30255103111267</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">2.37678503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42757630348206</t>
+    <t xml:space="preserve">2.42757654190063</t>
   </si>
   <si>
     <t xml:space="preserve">2.41455292701721</t>
@@ -92,28 +92,28 @@
     <t xml:space="preserve">2.44841384887695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47836804389954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39111018180847</t>
+    <t xml:space="preserve">2.47836780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39111042022705</t>
   </si>
   <si>
     <t xml:space="preserve">2.45362305641174</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44711208343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41064620018005</t>
+    <t xml:space="preserve">2.44711184501648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41064596176147</t>
   </si>
   <si>
     <t xml:space="preserve">2.36245894432068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30906319618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27780628204346</t>
+    <t xml:space="preserve">2.30906271934509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27780675888062</t>
   </si>
   <si>
     <t xml:space="preserve">2.27520155906677</t>
@@ -122,40 +122,40 @@
     <t xml:space="preserve">2.29603934288025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21268892288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30385303497314</t>
+    <t xml:space="preserve">2.21268916130066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30385375022888</t>
   </si>
   <si>
     <t xml:space="preserve">2.38199424743652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36636590957642</t>
+    <t xml:space="preserve">2.36636638641357</t>
   </si>
   <si>
     <t xml:space="preserve">2.37287783622742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35724973678589</t>
+    <t xml:space="preserve">2.35724925994873</t>
   </si>
   <si>
     <t xml:space="preserve">2.36897087097168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30515575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39892482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41194796562195</t>
+    <t xml:space="preserve">2.30515551567078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3989245891571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41194820404053</t>
   </si>
   <si>
     <t xml:space="preserve">2.43539047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41845989227295</t>
+    <t xml:space="preserve">2.41845965385437</t>
   </si>
   <si>
     <t xml:space="preserve">2.38459897041321</t>
@@ -179,88 +179,88 @@
     <t xml:space="preserve">2.53306674957275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53697395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55911302566528</t>
+    <t xml:space="preserve">2.53697347640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55911421775818</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999685287476</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55260157585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348540306091</t>
+    <t xml:space="preserve">2.55260181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348564147949</t>
   </si>
   <si>
     <t xml:space="preserve">2.53176426887512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5460901260376</t>
+    <t xml:space="preserve">2.54609036445618</t>
   </si>
   <si>
     <t xml:space="preserve">2.58646249771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60469579696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53827619552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52525234222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50180983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887902259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38329696655273</t>
+    <t xml:space="preserve">2.60469555854797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53827571868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5252525806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50181031227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887830734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38329601287842</t>
   </si>
   <si>
     <t xml:space="preserve">2.44971632957458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46013522148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44190216064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48878645896912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49920558929443</t>
+    <t xml:space="preserve">2.46013498306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44190239906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48878693580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49920511245728</t>
   </si>
   <si>
     <t xml:space="preserve">2.55650901794434</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52655482292175</t>
+    <t xml:space="preserve">2.52655458450317</t>
   </si>
   <si>
     <t xml:space="preserve">2.59427690505981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63985872268677</t>
+    <t xml:space="preserve">2.63985848426819</t>
   </si>
   <si>
     <t xml:space="preserve">2.57734608650208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5760440826416</t>
+    <t xml:space="preserve">2.57604432106018</t>
   </si>
   <si>
     <t xml:space="preserve">2.56302070617676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54088068008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516049385071</t>
+    <t xml:space="preserve">2.54088115692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516073226929</t>
   </si>
   <si>
     <t xml:space="preserve">2.60860276222229</t>
@@ -269,43 +269,43 @@
     <t xml:space="preserve">2.61511468887329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57213735580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58906769752502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56562542915344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59818434715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57474207878113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64506816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65288233757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67372035980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66851115226746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68153405189514</t>
+    <t xml:space="preserve">2.57213687896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58906722068787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56562519073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59818387031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57474184036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64506840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65288209915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67371988296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66851091384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68153429031372</t>
   </si>
   <si>
     <t xml:space="preserve">2.62944030761719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63855695724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641669273376</t>
+    <t xml:space="preserve">2.63855671882629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641693115234</t>
   </si>
   <si>
     <t xml:space="preserve">2.67892956733704</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">2.68674349784851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68413925170898</t>
+    <t xml:space="preserve">2.68413972854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.59297466278076</t>
@@ -326,40 +326,40 @@
     <t xml:space="preserve">2.50701975822449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6177191734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68282318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68960499763489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64891481399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401858329773</t>
+    <t xml:space="preserve">2.61771941184998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68282341957092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68960475921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64891529083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401882171631</t>
   </si>
   <si>
     <t xml:space="preserve">2.4413959980011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43190169334412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53769564628601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64484620094299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69909930229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69638633728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70045518875122</t>
+    <t xml:space="preserve">2.43190217018127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53769540786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64484596252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69909906387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69638609886169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7004554271698</t>
   </si>
   <si>
     <t xml:space="preserve">2.63263869285583</t>
@@ -368,28 +368,28 @@
     <t xml:space="preserve">2.61500668525696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66519117355347</t>
+    <t xml:space="preserve">2.66519141197205</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417930603027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70588111877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70723700523376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70994925498962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69231724739075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72893857955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73165106773376</t>
+    <t xml:space="preserve">2.70588064193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70723748207092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7099494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69231772422791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72893834114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73165082931519</t>
   </si>
   <si>
     <t xml:space="preserve">2.7248694896698</t>
@@ -398,46 +398,46 @@
     <t xml:space="preserve">2.72080087661743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79268622398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77912282943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74250173568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73029470443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74114489555359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77641010284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76284670829773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75470876693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74928307533264</t>
+    <t xml:space="preserve">2.79268598556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77912306785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74250197410583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73029494285583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74114513397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77640962600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76284646987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75470852851868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74928283691406</t>
   </si>
   <si>
     <t xml:space="preserve">2.78726077079773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7831916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71808791160583</t>
+    <t xml:space="preserve">2.78319191932678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71808767318726</t>
   </si>
   <si>
     <t xml:space="preserve">2.66790342330933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67061614990234</t>
+    <t xml:space="preserve">2.67061591148376</t>
   </si>
   <si>
     <t xml:space="preserve">2.63806438446045</t>
@@ -446,40 +446,40 @@
     <t xml:space="preserve">2.64348936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67197203636169</t>
+    <t xml:space="preserve">2.67197251319885</t>
   </si>
   <si>
     <t xml:space="preserve">2.67332863807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68011045455933</t>
+    <t xml:space="preserve">2.68011021614075</t>
   </si>
   <si>
     <t xml:space="preserve">2.69774270057678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65569591522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67604160308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73707628250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978877067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72622561454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80082368850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78454804420471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74657106399536</t>
+    <t xml:space="preserve">2.65569615364075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67604112625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7370765209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978924751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72622609138489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80082392692566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78454780578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74657082557678</t>
   </si>
   <si>
     <t xml:space="preserve">2.69096088409424</t>
@@ -488,61 +488,61 @@
     <t xml:space="preserve">2.65298366546631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65705275535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63128280639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66247797012329</t>
+    <t xml:space="preserve">2.65705299377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63128232955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66247820854187</t>
   </si>
   <si>
     <t xml:space="preserve">2.65162754058838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69367384910583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65976572036743</t>
+    <t xml:space="preserve">2.69367337226868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65976524353027</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383457183838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69502997398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6543402671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61093735694885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59601807594299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55804085731506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59737420082092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57296013832092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144281387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59059238433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68146657943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65027117729187</t>
+    <t xml:space="preserve">2.69503021240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65434050559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61093759536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59601783752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55804061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5973744392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57295989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59059262275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68146681785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65027141571045</t>
   </si>
   <si>
     <t xml:space="preserve">2.67468523979187</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">2.65840911865234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60822486877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60008668899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58923649787903</t>
+    <t xml:space="preserve">2.60822463035583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60008716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58923625946045</t>
   </si>
   <si>
     <t xml:space="preserve">2.60415577888489</t>
@@ -566,100 +566,100 @@
     <t xml:space="preserve">2.62314462661743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5607533454895</t>
+    <t xml:space="preserve">2.56075358390808</t>
   </si>
   <si>
     <t xml:space="preserve">2.47259187698364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4685230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44682168960571</t>
+    <t xml:space="preserve">2.46852278709412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44682121276855</t>
   </si>
   <si>
     <t xml:space="preserve">2.47530460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47666120529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5119252204895</t>
+    <t xml:space="preserve">2.47666072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51192545890808</t>
   </si>
   <si>
     <t xml:space="preserve">2.45224666595459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47394776344299</t>
+    <t xml:space="preserve">2.47394824028015</t>
   </si>
   <si>
     <t xml:space="preserve">2.55125880241394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53905177116394</t>
+    <t xml:space="preserve">2.53905200958252</t>
   </si>
   <si>
     <t xml:space="preserve">2.52820134162903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53362679481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57024765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58652353286743</t>
+    <t xml:space="preserve">2.53362655639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57024741172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58652377128601</t>
   </si>
   <si>
     <t xml:space="preserve">2.56753516197205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77234077453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76555967330933</t>
+    <t xml:space="preserve">2.77234125137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76555943489075</t>
   </si>
   <si>
     <t xml:space="preserve">2.72758197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75064015388489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404258728027</t>
+    <t xml:space="preserve">2.75063967704773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404234886169</t>
   </si>
   <si>
     <t xml:space="preserve">2.82252502441406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80489325523376</t>
+    <t xml:space="preserve">2.80489301681519</t>
   </si>
   <si>
     <t xml:space="preserve">2.81981229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84015727043152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86321520805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659435272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066320419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83473229408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81574320793152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79539895057678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80218076705933</t>
+    <t xml:space="preserve">2.8401575088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86321496963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659482955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066248893738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81574368476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79539918899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80218029022217</t>
   </si>
   <si>
     <t xml:space="preserve">2.82388138771057</t>
@@ -668,49 +668,49 @@
     <t xml:space="preserve">2.81031823158264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81303095817566</t>
+    <t xml:space="preserve">2.81303071975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.80760526657104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8311755657196</t>
+    <t xml:space="preserve">2.83117532730103</t>
   </si>
   <si>
     <t xml:space="preserve">2.82562971115112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78126311302185</t>
+    <t xml:space="preserve">2.78126263618469</t>
   </si>
   <si>
     <t xml:space="preserve">2.76046538352966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72719025611877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66895818710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67866349220276</t>
+    <t xml:space="preserve">2.7271900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66895794868469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67866396903992</t>
   </si>
   <si>
     <t xml:space="preserve">2.68005037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69391489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7147114276886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66202592849731</t>
+    <t xml:space="preserve">2.69391441345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71471166610718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66202569007874</t>
   </si>
   <si>
     <t xml:space="preserve">2.68559598922729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79928708076477</t>
+    <t xml:space="preserve">2.79928684234619</t>
   </si>
   <si>
     <t xml:space="preserve">2.80621910095215</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">2.7854220867157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80067300796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77433013916016</t>
+    <t xml:space="preserve">2.80067324638367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77433037757874</t>
   </si>
   <si>
     <t xml:space="preserve">2.77987623214722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75491952896118</t>
+    <t xml:space="preserve">2.75491976737976</t>
   </si>
   <si>
     <t xml:space="preserve">2.77294373512268</t>
@@ -746,25 +746,25 @@
     <t xml:space="preserve">2.81453776359558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80899214744568</t>
+    <t xml:space="preserve">2.8089919090271</t>
   </si>
   <si>
     <t xml:space="preserve">2.83672165870667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86029124259949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86445140838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86999654769897</t>
+    <t xml:space="preserve">2.86029171943665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86445116996765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8699963092804</t>
   </si>
   <si>
     <t xml:space="preserve">2.890793800354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90327191352844</t>
+    <t xml:space="preserve">2.90327215194702</t>
   </si>
   <si>
     <t xml:space="preserve">2.89772629737854</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">2.89911293983459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88247489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94625282287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91852331161499</t>
+    <t xml:space="preserve">2.88247513771057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9462525844574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91852355003357</t>
   </si>
   <si>
     <t xml:space="preserve">2.90465903282166</t>
@@ -788,73 +788,73 @@
     <t xml:space="preserve">2.92545580863953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98230123519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97259569168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98784685134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00864410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01696348190308</t>
+    <t xml:space="preserve">2.98230075836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97259593009949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98784708976746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00864434242249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01696300506592</t>
   </si>
   <si>
     <t xml:space="preserve">3.02805471420288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05994343757629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05855703353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0530104637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03914642333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05023837089539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01834964752197</t>
+    <t xml:space="preserve">3.05994391441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05855679512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05301094055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03914666175842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05023813247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01834917068481</t>
   </si>
   <si>
     <t xml:space="preserve">3.03637337684631</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03498697280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032496452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94070672988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091459274292</t>
+    <t xml:space="preserve">3.03498673439026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032472610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94070744514465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98091506958008</t>
   </si>
   <si>
     <t xml:space="preserve">3.08628678321838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07103538513184</t>
+    <t xml:space="preserve">3.07103490829468</t>
   </si>
   <si>
     <t xml:space="preserve">3.05578422546387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04885196685791</t>
+    <t xml:space="preserve">3.04885125160217</t>
   </si>
   <si>
     <t xml:space="preserve">3.02528142929077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06687617301941</t>
+    <t xml:space="preserve">3.06687521934509</t>
   </si>
   <si>
     <t xml:space="preserve">3.07380843162537</t>
@@ -863,79 +863,79 @@
     <t xml:space="preserve">3.14313149452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17363405227661</t>
+    <t xml:space="preserve">3.17363429069519</t>
   </si>
   <si>
     <t xml:space="preserve">3.16670203208923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15422368049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16808915138245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16254210472107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16531586647034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16947436332703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24573087692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829629898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522784233093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711728096008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2790060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593778610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3067352771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307790756226</t>
+    <t xml:space="preserve">3.15422344207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16808843612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16254186630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16531562805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16947460174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24573111534119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2082953453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522831916809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2471170425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900624275208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782698631287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593850135803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30673456192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307886123657</t>
   </si>
   <si>
     <t xml:space="preserve">3.25820851325989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27761960029602</t>
+    <t xml:space="preserve">3.2776198387146</t>
   </si>
   <si>
     <t xml:space="preserve">3.29841613769531</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31505417823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3136682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32475972175598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42597150802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39546918869019</t>
+    <t xml:space="preserve">3.31505393981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26791477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31366777420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3247594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42597222328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39546990394592</t>
   </si>
   <si>
     <t xml:space="preserve">3.35803461074829</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">3.36496758460999</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37189984321594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41904044151306</t>
+    <t xml:space="preserve">3.37189960479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072058677673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41903972625732</t>
   </si>
   <si>
     <t xml:space="preserve">3.39130997657776</t>
@@ -962,58 +962,58 @@
     <t xml:space="preserve">3.45231533050537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41488003730774</t>
+    <t xml:space="preserve">3.41488027572632</t>
   </si>
   <si>
     <t xml:space="preserve">3.43151807785034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32753276824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35526180267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28732442855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404977798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29980373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28871178627014</t>
+    <t xml:space="preserve">3.32753300666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35526204109192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28732514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2540500164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29980325698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2887110710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.25127649307251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27207374572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32614588737488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3206000328064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37744617462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44676899909973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44538235664368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41210722923279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43845009803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4426097869873</t>
+    <t xml:space="preserve">3.27207398414612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32614612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32060050964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37744522094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44676947593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44538283348083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4121081829071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4384503364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44261026382446</t>
   </si>
   <si>
     <t xml:space="preserve">3.4037880897522</t>
@@ -1022,205 +1022,205 @@
     <t xml:space="preserve">3.43203568458557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38825249671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43062329292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45322108268738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955115318298</t>
+    <t xml:space="preserve">3.38825273513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43062305450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45322060585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955139160156</t>
   </si>
   <si>
     <t xml:space="preserve">3.40661311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45180869102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44615912437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48852944374084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960206031799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51818895339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.512540102005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4772310256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55208611488342</t>
+    <t xml:space="preserve">3.45180916786194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44615888595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.488529920578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960182189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51818990707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53796315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51254034042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47723078727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55208683013916</t>
   </si>
   <si>
     <t xml:space="preserve">3.5768027305603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58033394813538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55914855003357</t>
+    <t xml:space="preserve">3.58033418655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55914807319641</t>
   </si>
   <si>
     <t xml:space="preserve">3.51677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58739495277405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798836708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092617034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62976598739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60858011245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211133003235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63329648971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66507506370544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65448331832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860604286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388942718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60504961013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63682866096497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61564254760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61917400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60151839256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56621026992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50689101219177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56267857551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58386421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64742064476013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095090866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154432296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64035892486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801310539246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68626022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73569393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73216223716736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7568793296814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76040935516357</t>
+    <t xml:space="preserve">3.58739519119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798741340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59092664718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62976574897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60858058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211156845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63329672813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66507601737976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65448236465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6686065196991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388966560364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6050500869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63682818412781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61564207077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61917304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60151886940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56621074676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50689125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56267905235291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58386325836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64742088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154408454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6403591632843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626093864441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73569297790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73216247558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75687837600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76040840148926</t>
   </si>
   <si>
     <t xml:space="preserve">3.80278015136719</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78865623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79571771621704</t>
+    <t xml:space="preserve">3.78865671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79571866989136</t>
   </si>
   <si>
     <t xml:space="preserve">3.80631160736084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80984210968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7851254940033</t>
+    <t xml:space="preserve">3.80984234809875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512525558472</t>
   </si>
   <si>
     <t xml:space="preserve">3.76747131347656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72510051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71097731590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7180392742157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73922419548035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272948265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979120254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78159427642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633539199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221195220947</t>
+    <t xml:space="preserve">3.72510004043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71097707748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803855895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73922395706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68273043632507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6897919178009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981641769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78159523010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690382957458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221338272095</t>
   </si>
   <si>
     <t xml:space="preserve">3.79218769073486</t>
@@ -1229,94 +1229,94 @@
     <t xml:space="preserve">3.86280560493469</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90164542198181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91929984092712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94048523902893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89105272293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83102750778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85574412345886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334763526917</t>
+    <t xml:space="preserve">3.90164518356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91930079460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94048619270325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89105200767517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8310272693634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574460029602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7533483505249</t>
   </si>
   <si>
     <t xml:space="preserve">3.70038414001465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62270426750183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77100253105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7427544593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79190731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390193939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068952560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71628427505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69035673141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65002465248108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027353286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64858484268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57944488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53551244735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4346821308136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030397415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4008321762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33745384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37634587287903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3518590927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4426052570343</t>
+    <t xml:space="preserve">3.62270379066467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7710018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79190683364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390170097351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71628475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69035720825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65002536773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027424812317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64858508110046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57944512367249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53551197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468236923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40083289146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33745431900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37634563446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185837745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260501861572</t>
   </si>
   <si>
     <t xml:space="preserve">3.45124745368958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50022196769714</t>
+    <t xml:space="preserve">3.50022172927856</t>
   </si>
   <si>
     <t xml:space="preserve">3.44116449356079</t>
@@ -1325,160 +1325,160 @@
     <t xml:space="preserve">3.43540239334106</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38498783111572</t>
+    <t xml:space="preserve">3.3849880695343</t>
   </si>
   <si>
     <t xml:space="preserve">3.48221659660339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4757342338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365664482117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188451766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964148521423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3540186882019</t>
+    <t xml:space="preserve">3.47573494911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365712165833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4418842792511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964124679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401916503906</t>
   </si>
   <si>
     <t xml:space="preserve">3.38570833206177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40587449073792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44044423103333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581767082214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48293662071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077654838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742363929749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49301934242249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51750612258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55063605308533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51174569129944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45412850379944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49373960494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44692635536194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45484828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58304595947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56864213943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5744035243988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63706183433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418197631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154980659485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65578675270081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64570331573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68171429634094</t>
+    <t xml:space="preserve">3.40587425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4404444694519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581719398499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48293685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4807767868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742340087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49301981925964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51750659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55063581466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5117449760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45412802696228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49373984336853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44692611694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4548487663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58304619789124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56864237785339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440304756165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63706254959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418102264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154885292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6557879447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6457040309906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6817147731781</t>
   </si>
   <si>
     <t xml:space="preserve">3.68315505981445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74221277236938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7393319606781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348642349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74653363227844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73356986045837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830575942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79406690597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592318534851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151888847351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049292564392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78398513793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65434622764587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65146589279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67883443832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70044088363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56287980079651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58880710601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5275890827179</t>
+    <t xml:space="preserve">3.74221324920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933124542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348690032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74653387069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73357033729553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830552101135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110384941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406785964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151817321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905240058899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88049244880676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78398537635803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65434694290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65146660804749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67883372306824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7004406452179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56288003921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58880758285522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52759003639221</t>
   </si>
   <si>
     <t xml:space="preserve">3.52831053733826</t>
@@ -1496,58 +1496,58 @@
     <t xml:space="preserve">3.41955828666687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39363026618958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31080651283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42243885993958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38714909553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40947556495667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4476466178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38426756858826</t>
+    <t xml:space="preserve">3.39363050460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3108069896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42243909835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3871488571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40947532653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44764590263367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38426828384399</t>
   </si>
   <si>
     <t xml:space="preserve">3.37130451202393</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3086462020874</t>
+    <t xml:space="preserve">3.30864596366882</t>
   </si>
   <si>
     <t xml:space="preserve">3.4282009601593</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44332528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50958466529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50886487960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48149657249451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47933578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47429442405701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39435076713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41811728477478</t>
+    <t xml:space="preserve">3.44332480430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5095841884613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50886392593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48149633407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47933602333069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47429394721985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39435005187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41811776161194</t>
   </si>
   <si>
     <t xml:space="preserve">3.37202477455139</t>
@@ -1556,139 +1556,139 @@
     <t xml:space="preserve">3.39795184135437</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43684339523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41451716423035</t>
+    <t xml:space="preserve">3.43684363365173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41451644897461</t>
   </si>
   <si>
     <t xml:space="preserve">3.42604041099548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41667795181274</t>
+    <t xml:space="preserve">3.41667699813843</t>
   </si>
   <si>
     <t xml:space="preserve">3.47213387489319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45988988876343</t>
+    <t xml:space="preserve">3.45988965034485</t>
   </si>
   <si>
     <t xml:space="preserve">3.49590086936951</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51822662353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49518036842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49013876914978</t>
+    <t xml:space="preserve">3.51822710037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49518084526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49013924598694</t>
   </si>
   <si>
     <t xml:space="preserve">3.46493148803711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49085927009583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51462650299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53263115882874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5311906337738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5333514213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49856615066528</t>
+    <t xml:space="preserve">3.50310254096985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49085879325867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51462554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53263187408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53119087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53335094451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4985659122467</t>
   </si>
   <si>
     <t xml:space="preserve">3.47192096710205</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4511981010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46229934692383</t>
+    <t xml:space="preserve">3.45119762420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46229910850525</t>
   </si>
   <si>
     <t xml:space="preserve">3.49042463302612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48080348968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53039121627808</t>
+    <t xml:space="preserve">3.48080277442932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53039050102234</t>
   </si>
   <si>
     <t xml:space="preserve">3.39346790313721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32685661315918</t>
+    <t xml:space="preserve">3.32685708999634</t>
   </si>
   <si>
     <t xml:space="preserve">3.34980058670044</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35054111480713</t>
+    <t xml:space="preserve">3.35054087638855</t>
   </si>
   <si>
     <t xml:space="preserve">3.39420819282532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39272809028625</t>
+    <t xml:space="preserve">3.3927276134491</t>
   </si>
   <si>
     <t xml:space="preserve">3.37718534469604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30761361122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29059052467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31427526473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27948975563049</t>
+    <t xml:space="preserve">3.30761337280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29059076309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31427478790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27948951721191</t>
   </si>
   <si>
     <t xml:space="preserve">3.27504801750183</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26394557952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29873180389404</t>
+    <t xml:space="preserve">3.26394653320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29873204231262</t>
   </si>
   <si>
     <t xml:space="preserve">3.28466987609863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24692344665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024603843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24766373634338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22397971153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23508071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18919348716736</t>
+    <t xml:space="preserve">3.24692368507385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024580001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2476634979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22397923469543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23508143424988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18919396400452</t>
   </si>
   <si>
     <t xml:space="preserve">3.15292811393738</t>
@@ -1697,34 +1697,34 @@
     <t xml:space="preserve">3.14034581184387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17587113380432</t>
+    <t xml:space="preserve">3.1758713722229</t>
   </si>
   <si>
     <t xml:space="preserve">3.17513155937195</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24026226997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25802540779114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37496471405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37348461151123</t>
+    <t xml:space="preserve">3.24026203155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25802493095398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37496495246887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37348484992981</t>
   </si>
   <si>
     <t xml:space="preserve">3.34388017654419</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37422466278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34091949462891</t>
+    <t xml:space="preserve">3.37422442436218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682343482971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34091925621033</t>
   </si>
   <si>
     <t xml:space="preserve">3.36608338356018</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">3.42899394035339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38236594200134</t>
+    <t xml:space="preserve">3.3823664188385</t>
   </si>
   <si>
     <t xml:space="preserve">3.40382957458496</t>
@@ -1742,61 +1742,61 @@
     <t xml:space="preserve">3.41271114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38976740837097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542663574219</t>
+    <t xml:space="preserve">3.38976764678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542639732361</t>
   </si>
   <si>
     <t xml:space="preserve">3.24322271347046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26320672035217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34610056877136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30095314979553</t>
+    <t xml:space="preserve">3.26320600509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3461000919342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30095219612122</t>
   </si>
   <si>
     <t xml:space="preserve">3.27356791496277</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23952221870422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878216743469</t>
+    <t xml:space="preserve">3.2395224571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878192901611</t>
   </si>
   <si>
     <t xml:space="preserve">3.21657848358154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17365121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29651165008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26690697669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22916030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27874875068665</t>
+    <t xml:space="preserve">3.17365145683289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29651188850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26690721511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22916054725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27874851226807</t>
   </si>
   <si>
     <t xml:space="preserve">3.28392958641052</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26468658447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24174308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25654482841492</t>
+    <t xml:space="preserve">3.26468634605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24174237251282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2565450668335</t>
   </si>
   <si>
     <t xml:space="preserve">3.20769715309143</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">3.24100255966187</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26172614097595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986789703369</t>
+    <t xml:space="preserve">3.26172590255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986765861511</t>
   </si>
   <si>
     <t xml:space="preserve">3.30835390090942</t>
@@ -1817,34 +1817,34 @@
     <t xml:space="preserve">3.31797504425049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32611656188965</t>
+    <t xml:space="preserve">3.32611680030823</t>
   </si>
   <si>
     <t xml:space="preserve">3.29503178596497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33055734634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37644505500793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40308976173401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.448237657547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44675660133362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48228287696838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51928877830505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52595043182373</t>
+    <t xml:space="preserve">3.33055782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37644481658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40308928489685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823718070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44675731658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48228335380554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51928925514221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52594971656799</t>
   </si>
   <si>
     <t xml:space="preserve">3.53779220581055</t>
@@ -1853,25 +1853,25 @@
     <t xml:space="preserve">3.52150917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5451934337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56295680999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.551114320755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57479858398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5133683681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410818099976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966715812683</t>
+    <t xml:space="preserve">3.54519367218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5629563331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55111479759216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5747983455658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51336789131165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410841941833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966763496399</t>
   </si>
   <si>
     <t xml:space="preserve">3.55777597427368</t>
@@ -1880,163 +1880,163 @@
     <t xml:space="preserve">3.6495509147644</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71542143821716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71394181251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71098113059998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70950126647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239463806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81015753746033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83828186988831</t>
+    <t xml:space="preserve">3.71542191505432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394205093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7109808921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70950102806091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7923948764801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81015777587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83828258514404</t>
   </si>
   <si>
     <t xml:space="preserve">3.73614573478699</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73318552970886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76279020309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76427006721497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81607937812805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459784507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83088135719299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8219997882843</t>
+    <t xml:space="preserve">3.7331850528717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7627899646759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76426935195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81607913970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459856033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83088183403015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82200050354004</t>
   </si>
   <si>
     <t xml:space="preserve">3.88565063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8486442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85604572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8634467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86196637153625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87824892997742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92857718467712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9422607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9331386089325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90273213386536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93769907951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94682168960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92553687095642</t>
+    <t xml:space="preserve">3.84864401817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85604643821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86344695091248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86196660995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.878249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9285774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94226098060608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93313884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90273141860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93770003318787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94682145118713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92553758621216</t>
   </si>
   <si>
     <t xml:space="preserve">3.98483085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9787495136261</t>
+    <t xml:space="preserve">3.97874927520752</t>
   </si>
   <si>
     <t xml:space="preserve">4.00307416915894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93009781837463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94074034690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121054649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87840700149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90729284286499</t>
+    <t xml:space="preserve">3.93009805679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94074082374573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87840604782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90729236602783</t>
   </si>
   <si>
     <t xml:space="preserve">3.95138359069824</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96506595611572</t>
+    <t xml:space="preserve">3.9650661945343</t>
   </si>
   <si>
     <t xml:space="preserve">3.9620246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98026919364929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635077476501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266745567322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98787093162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01219701766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03804349899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02892065048218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04412460327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03956317901611</t>
+    <t xml:space="preserve">3.98026943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635149002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722887992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98787069320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01219749450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03804302215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02892112731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04412364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03956270217896</t>
   </si>
   <si>
     <t xml:space="preserve">4.03196144104004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05020570755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10341691970825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18247604370117</t>
+    <t xml:space="preserve">4.05020523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10341739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18247509002686</t>
   </si>
   <si>
     <t xml:space="preserve">4.16879272460938</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">4.15054893493652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17943525314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17031383514404</t>
+    <t xml:space="preserve">4.17943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17031288146973</t>
   </si>
   <si>
     <t xml:space="preserve">4.17183303833008</t>
@@ -2057,37 +2057,37 @@
     <t xml:space="preserve">4.15815019607544</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19615888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21440315246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24176931381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28281784057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27217626571655</t>
+    <t xml:space="preserve">4.19615936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21440267562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24176979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28281927108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27217578887939</t>
   </si>
   <si>
     <t xml:space="preserve">4.3345103263855</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34363317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32234764099121</t>
+    <t xml:space="preserve">4.34363222122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32234811782837</t>
   </si>
   <si>
     <t xml:space="preserve">4.33603096008301</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3010630607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30334329605103</t>
+    <t xml:space="preserve">4.30106258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30334281921387</t>
   </si>
   <si>
     <t xml:space="preserve">4.33907175064087</t>
@@ -2096,22 +2096,22 @@
     <t xml:space="preserve">4.32918930053711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32842874526978</t>
+    <t xml:space="preserve">4.32842826843262</t>
   </si>
   <si>
     <t xml:space="preserve">4.31474590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30258274078369</t>
+    <t xml:space="preserve">4.30258321762085</t>
   </si>
   <si>
     <t xml:space="preserve">4.28966045379639</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26457500457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24252843856812</t>
+    <t xml:space="preserve">4.26457452774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24252891540527</t>
   </si>
   <si>
     <t xml:space="preserve">4.16347122192383</t>
@@ -2123,55 +2123,55 @@
     <t xml:space="preserve">4.19995927810669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19539785385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18399667739868</t>
+    <t xml:space="preserve">4.19539880752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18399620056152</t>
   </si>
   <si>
     <t xml:space="preserve">4.20984220504761</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557065963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22124433517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28661966323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23948907852173</t>
+    <t xml:space="preserve">4.24556970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22124528884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28661918640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23948812484741</t>
   </si>
   <si>
     <t xml:space="preserve">4.25317239761353</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22732543945312</t>
+    <t xml:space="preserve">4.2273268699646</t>
   </si>
   <si>
     <t xml:space="preserve">4.25849342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23872900009155</t>
+    <t xml:space="preserve">4.23872947692871</t>
   </si>
   <si>
     <t xml:space="preserve">4.21972417831421</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18627691268921</t>
+    <t xml:space="preserve">4.18627595901489</t>
   </si>
   <si>
     <t xml:space="preserve">4.23796844482422</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23720741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24937105178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27901792526245</t>
+    <t xml:space="preserve">4.23720836639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24937152862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27901840209961</t>
   </si>
   <si>
     <t xml:space="preserve">4.32538795471191</t>
@@ -2180,49 +2180,49 @@
     <t xml:space="preserve">4.386962890625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38012027740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31778621673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40064525604248</t>
+    <t xml:space="preserve">4.38012075424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.317786693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40064573287964</t>
   </si>
   <si>
     <t xml:space="preserve">4.22428560256958</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23416757583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3398323059082</t>
+    <t xml:space="preserve">4.23416709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2676157951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33983182907104</t>
   </si>
   <si>
     <t xml:space="preserve">4.35275411605835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41356801986694</t>
+    <t xml:space="preserve">4.41356897354126</t>
   </si>
   <si>
     <t xml:space="preserve">4.47818279266357</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43029308319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44549608230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4774227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55420064926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61425399780273</t>
+    <t xml:space="preserve">4.43029260635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44549655914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47742223739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55420112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61425447463989</t>
   </si>
   <si>
     <t xml:space="preserve">4.62185573577881</t>
@@ -2231,43 +2231,43 @@
     <t xml:space="preserve">4.74120330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69027137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70547533035278</t>
+    <t xml:space="preserve">4.69027185440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7054762840271</t>
   </si>
   <si>
     <t xml:space="preserve">4.73740243911743</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73208093643188</t>
+    <t xml:space="preserve">4.73208141326904</t>
   </si>
   <si>
     <t xml:space="preserve">4.71383714675903</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61805534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62489652633667</t>
+    <t xml:space="preserve">4.61805582046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62489700317383</t>
   </si>
   <si>
     <t xml:space="preserve">4.6674656867981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65682411193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7586874961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87119340896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90083932876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86511135101318</t>
+    <t xml:space="preserve">4.65682363510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75868797302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87119245529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90083980560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8651123046875</t>
   </si>
   <si>
     <t xml:space="preserve">4.87271356582642</t>
@@ -2276,10 +2276,10 @@
     <t xml:space="preserve">4.87195348739624</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8848762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94873142242432</t>
+    <t xml:space="preserve">4.88487672805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94873094558716</t>
   </si>
   <si>
     <t xml:space="preserve">4.90388011932373</t>
@@ -2288,82 +2288,82 @@
     <t xml:space="preserve">4.93504762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95101165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9859790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77997159957886</t>
+    <t xml:space="preserve">4.95101118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77997207641602</t>
   </si>
   <si>
     <t xml:space="preserve">4.87715768814087</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87793493270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92147397994995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85694360733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82817649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85616540908813</t>
+    <t xml:space="preserve">4.8779354095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92147445678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85694313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82817697525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85616588592529</t>
   </si>
   <si>
     <t xml:space="preserve">4.79629945755005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8196234703064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85150098800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81884574890137</t>
+    <t xml:space="preserve">4.81962394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85150051116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81884622573853</t>
   </si>
   <si>
     <t xml:space="preserve">4.76131296157837</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76908779144287</t>
+    <t xml:space="preserve">4.76908731460571</t>
   </si>
   <si>
     <t xml:space="preserve">4.77375173568726</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69289350509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71466398239136</t>
+    <t xml:space="preserve">4.69289398193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71466445922852</t>
   </si>
   <si>
     <t xml:space="preserve">4.72554874420166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67190217971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88648796081543</t>
+    <t xml:space="preserve">4.6719012260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88648748397827</t>
   </si>
   <si>
     <t xml:space="preserve">4.94402170181274</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84839200973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91214466094971</t>
+    <t xml:space="preserve">4.84839105606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91214513778687</t>
   </si>
   <si>
     <t xml:space="preserve">4.8857102394104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83828449249268</t>
+    <t xml:space="preserve">4.83828401565552</t>
   </si>
   <si>
     <t xml:space="preserve">5.05286979675293</t>
@@ -2372,13 +2372,13 @@
     <t xml:space="preserve">5.05442428588867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15627431869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12672996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19359445571899</t>
+    <t xml:space="preserve">5.15627479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12673091888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19359397888184</t>
   </si>
   <si>
     <t xml:space="preserve">5.19437170028687</t>
@@ -2387,25 +2387,25 @@
     <t xml:space="preserve">5.23868799209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18193101882935</t>
+    <t xml:space="preserve">5.1819314956665</t>
   </si>
   <si>
     <t xml:space="preserve">5.14694499969482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08863353729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04587173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00855302810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14150190353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12517499923706</t>
+    <t xml:space="preserve">5.08863306045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0458722114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00855255126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14150238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12517547607422</t>
   </si>
   <si>
     <t xml:space="preserve">5.03965139389038</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">5.06686401367188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17026948928833</t>
+    <t xml:space="preserve">5.17026996612549</t>
   </si>
   <si>
     <t xml:space="preserve">5.14305734634399</t>
@@ -2423,52 +2423,52 @@
     <t xml:space="preserve">5.11273527145386</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18659639358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26201248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23246812820435</t>
+    <t xml:space="preserve">5.18659687042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26201295852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23246765136719</t>
   </si>
   <si>
     <t xml:space="preserve">5.31177139282227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2760066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32654285430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30010890960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1850414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1617169380188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25112819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32187938690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26512289047241</t>
+    <t xml:space="preserve">5.27600717544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32654333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30010938644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18504190444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16171646118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25112724304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32187843322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26512241363525</t>
   </si>
   <si>
     <t xml:space="preserve">5.29855394363403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26123523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28689241409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27056455612183</t>
+    <t xml:space="preserve">5.26123476028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28689289093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27056503295898</t>
   </si>
   <si>
     <t xml:space="preserve">5.31643581390381</t>
@@ -2477,13 +2477,13 @@
     <t xml:space="preserve">5.29077911376953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2635669708252</t>
+    <t xml:space="preserve">5.26356744766235</t>
   </si>
   <si>
     <t xml:space="preserve">5.30866098403931</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24413013458252</t>
+    <t xml:space="preserve">5.24413061141968</t>
   </si>
   <si>
     <t xml:space="preserve">5.3280987739563</t>
@@ -2492,37 +2492,37 @@
     <t xml:space="preserve">5.34909057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33665084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34287071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36697340011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39573907852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874197006226</t>
+    <t xml:space="preserve">5.33665132522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34287118911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36697244644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39574003219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874244689941</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750955581665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37241554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36386299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24957275390625</t>
+    <t xml:space="preserve">5.37241506576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36386346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24957227706909</t>
   </si>
   <si>
     <t xml:space="preserve">5.33820629119873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33354139328003</t>
+    <t xml:space="preserve">5.33354091644287</t>
   </si>
   <si>
     <t xml:space="preserve">5.42917156219482</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">5.3452033996582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33509635925293</t>
+    <t xml:space="preserve">5.33509588241577</t>
   </si>
   <si>
     <t xml:space="preserve">5.36308526992798</t>
@@ -2543,34 +2543,34 @@
     <t xml:space="preserve">5.31021642684937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26745510101318</t>
+    <t xml:space="preserve">5.2900013923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26745462417603</t>
   </si>
   <si>
     <t xml:space="preserve">5.24801778793335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31799173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3420934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33043193817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19126176834106</t>
+    <t xml:space="preserve">5.31799077987671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34209299087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33043146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528203964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19126129150391</t>
   </si>
   <si>
     <t xml:space="preserve">5.22702550888062</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23324584960938</t>
+    <t xml:space="preserve">5.23324632644653</t>
   </si>
   <si>
     <t xml:space="preserve">5.32265663146973</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">5.42839384078979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44316625595093</t>
+    <t xml:space="preserve">5.44316673278809</t>
   </si>
   <si>
     <t xml:space="preserve">5.6025505065918</t>
@@ -2594,10 +2594,10 @@
     <t xml:space="preserve">5.57844877243042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54968166351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49836778640747</t>
+    <t xml:space="preserve">5.54968118667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49836826324463</t>
   </si>
   <si>
     <t xml:space="preserve">5.60721492767334</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">5.6181001663208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62120962142944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65230894088745</t>
+    <t xml:space="preserve">5.62121105194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65230941772461</t>
   </si>
   <si>
     <t xml:space="preserve">5.67952108383179</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">5.76659965515137</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75338315963745</t>
+    <t xml:space="preserve">5.75338220596313</t>
   </si>
   <si>
     <t xml:space="preserve">5.76970958709717</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">5.91743183135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00606489181519</t>
+    <t xml:space="preserve">6.00606536865234</t>
   </si>
   <si>
     <t xml:space="preserve">6.05687618255615</t>
@@ -2639,10 +2639,10 @@
     <t xml:space="preserve">6.04179191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99097967147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04973030090332</t>
+    <t xml:space="preserve">5.99098014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04973125457764</t>
   </si>
   <si>
     <t xml:space="preserve">6.20772218704224</t>
@@ -2666,37 +2666,37 @@
     <t xml:space="preserve">6.32442951202393</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3514232635498</t>
+    <t xml:space="preserve">6.35142278671265</t>
   </si>
   <si>
     <t xml:space="preserve">6.40699768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45463371276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49194812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51020860671997</t>
+    <t xml:space="preserve">6.45463418960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49194860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51020908355713</t>
   </si>
   <si>
     <t xml:space="preserve">6.50465106964111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45622205734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51576614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134199142456</t>
+    <t xml:space="preserve">6.45622253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51576566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5713415145874</t>
   </si>
   <si>
     <t xml:space="preserve">6.66423082351685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72218751907349</t>
+    <t xml:space="preserve">6.72218704223633</t>
   </si>
   <si>
     <t xml:space="preserve">6.8007869720459</t>
@@ -2711,25 +2711,25 @@
     <t xml:space="preserve">6.37524080276489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19660758972168</t>
+    <t xml:space="preserve">6.19660711288452</t>
   </si>
   <si>
     <t xml:space="preserve">6.31569671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28473377227783</t>
+    <t xml:space="preserve">6.28473329544067</t>
   </si>
   <si>
     <t xml:space="preserve">6.01479816436768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06560897827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18708086013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5419659614563</t>
+    <t xml:space="preserve">6.06560945510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18708038330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54196643829346</t>
   </si>
   <si>
     <t xml:space="preserve">6.46654367446899</t>
@@ -2741,25 +2741,25 @@
     <t xml:space="preserve">5.64165163040161</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3224925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17641067504883</t>
+    <t xml:space="preserve">5.32249307632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">4.14906740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46108102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3554892539978</t>
+    <t xml:space="preserve">4.46108198165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35548830032349</t>
   </si>
   <si>
     <t xml:space="preserve">4.54126739501953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67623567581177</t>
+    <t xml:space="preserve">4.67623472213745</t>
   </si>
   <si>
     <t xml:space="preserve">4.62859964370728</t>
@@ -2768,43 +2768,43 @@
     <t xml:space="preserve">4.6754412651062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74133825302124</t>
+    <t xml:space="preserve">4.74133777618408</t>
   </si>
   <si>
     <t xml:space="preserve">5.01047897338867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00174570083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98507308959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88662624359131</t>
+    <t xml:space="preserve">5.00174522399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98507261276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88662672042847</t>
   </si>
   <si>
     <t xml:space="preserve">5.07002401351929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03271007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81755495071411</t>
+    <t xml:space="preserve">5.03270959854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81755447387695</t>
   </si>
   <si>
     <t xml:space="preserve">4.87868738174438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8183479309082</t>
+    <t xml:space="preserve">4.81834888458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.87471723556519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0612907409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98983716964722</t>
+    <t xml:space="preserve">5.06129026412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98983669281006</t>
   </si>
   <si>
     <t xml:space="preserve">5.12321710586548</t>
@@ -2813,22 +2813,22 @@
     <t xml:space="preserve">5.11845350265503</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92791080474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96125602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92949819564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91600179672241</t>
+    <t xml:space="preserve">4.92791032791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96125555038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92949867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91600227355957</t>
   </si>
   <si>
     <t xml:space="preserve">4.76753711700439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75165939331055</t>
+    <t xml:space="preserve">4.75165891647339</t>
   </si>
   <si>
     <t xml:space="preserve">4.70481729507446</t>
@@ -2837,34 +2837,34 @@
     <t xml:space="preserve">4.68417501449585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81914281845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88265705108643</t>
+    <t xml:space="preserve">4.81914234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88265657424927</t>
   </si>
   <si>
     <t xml:space="preserve">4.97792816162109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95093488693237</t>
+    <t xml:space="preserve">4.95093441009521</t>
   </si>
   <si>
     <t xml:space="preserve">4.76912498474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83343410491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8167610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91282510757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92235279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82708168029785</t>
+    <t xml:space="preserve">4.83343315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81676054000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92235326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82708120346069</t>
   </si>
   <si>
     <t xml:space="preserve">4.78738594055176</t>
@@ -2879,16 +2879,16 @@
     <t xml:space="preserve">4.73498630523682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79294300079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96363687515259</t>
+    <t xml:space="preserve">4.7929425239563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96363735198975</t>
   </si>
   <si>
     <t xml:space="preserve">5.02556371688843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08907794952393</t>
+    <t xml:space="preserve">5.08907842636108</t>
   </si>
   <si>
     <t xml:space="preserve">5.16847133636475</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">5.22880935668945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39235782623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4788966178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55590724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70754766464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95763540267944</t>
+    <t xml:space="preserve">5.39235830307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47889614105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55590772628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70754814147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9576358795166</t>
   </si>
   <si>
     <t xml:space="preserve">5.94255065917969</t>
@@ -2921,19 +2921,19 @@
     <t xml:space="preserve">6.01638603210449</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01559209823608</t>
+    <t xml:space="preserve">6.01559162139893</t>
   </si>
   <si>
     <t xml:space="preserve">5.98780393600464</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96398687362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81710958480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83140087127686</t>
+    <t xml:space="preserve">5.96398591995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81711006164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8314003944397</t>
   </si>
   <si>
     <t xml:space="preserve">5.84489727020264</t>
@@ -2942,31 +2942,31 @@
     <t xml:space="preserve">6.00685834884644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95842933654785</t>
+    <t xml:space="preserve">5.95842885971069</t>
   </si>
   <si>
     <t xml:space="preserve">5.93302345275879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03385210037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137119293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05290603637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08386993408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06481504440308</t>
+    <t xml:space="preserve">6.03385257720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137071609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05290651321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08387041091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06481552124023</t>
   </si>
   <si>
     <t xml:space="preserve">6.13229894638062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.095778465271</t>
+    <t xml:space="preserve">6.09577894210815</t>
   </si>
   <si>
     <t xml:space="preserve">6.11483287811279</t>
@@ -2975,19 +2975,19 @@
     <t xml:space="preserve">6.30934524536133</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25138854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28314447402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33157539367676</t>
+    <t xml:space="preserve">6.25138807296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28314542770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3315749168396</t>
   </si>
   <si>
     <t xml:space="preserve">6.41970157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30061101913452</t>
+    <t xml:space="preserve">6.30061197280884</t>
   </si>
   <si>
     <t xml:space="preserve">6.44828224182129</t>
@@ -2996,10 +2996,10 @@
     <t xml:space="preserve">6.36253833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48559761047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55228757858276</t>
+    <t xml:space="preserve">6.48559665679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55228805541992</t>
   </si>
   <si>
     <t xml:space="preserve">6.69043064117432</t>
@@ -3011,73 +3011,73 @@
     <t xml:space="preserve">6.74794578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63777542114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58917093276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43525648117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41662454605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39961290359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46036863327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26757001876831</t>
+    <t xml:space="preserve">6.63777589797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58917045593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43525552749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41662406921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39961242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46036815643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26757049560547</t>
   </si>
   <si>
     <t xml:space="preserve">6.26108932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36396932601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3745002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34533786773682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33075618743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3712592124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45145845413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56972885131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48710155487061</t>
+    <t xml:space="preserve">6.36396884918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37450075149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3453369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26189947128296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33075571060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37125968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45145797729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56972932815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48710203170776</t>
   </si>
   <si>
     <t xml:space="preserve">6.38746166229248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32508516311646</t>
+    <t xml:space="preserve">6.32508563995361</t>
   </si>
   <si>
     <t xml:space="preserve">6.30888366699219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.282151222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26270866394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3720703125</t>
+    <t xml:space="preserve">6.28215169906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26270914077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37206983566284</t>
   </si>
   <si>
     <t xml:space="preserve">6.32184553146362</t>
@@ -3089,37 +3089,37 @@
     <t xml:space="preserve">6.17036104202271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18899202346802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14767837524414</t>
+    <t xml:space="preserve">6.18899250030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1476788520813</t>
   </si>
   <si>
     <t xml:space="preserve">6.07882213592529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19547271728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14038801193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00429534912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15091896057129</t>
+    <t xml:space="preserve">6.19547319412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14038753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00429487228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15091848373413</t>
   </si>
   <si>
     <t xml:space="preserve">6.05370950698853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19790315628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15982961654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20519351959229</t>
+    <t xml:space="preserve">6.19790267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15983009338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20519399642944</t>
   </si>
   <si>
     <t xml:space="preserve">6.12499666213989</t>
@@ -3128,16 +3128,16 @@
     <t xml:space="preserve">6.18008184432983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97837209701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01077604293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035249710083</t>
+    <t xml:space="preserve">6.13633680343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9783730506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01077556610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035297393799</t>
   </si>
   <si>
     <t xml:space="preserve">5.93057775497437</t>
@@ -3146,40 +3146,40 @@
     <t xml:space="preserve">6.04317855834961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97027111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94191932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345823287964</t>
+    <t xml:space="preserve">5.97027158737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94191884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345775604248</t>
   </si>
   <si>
     <t xml:space="preserve">6.07558155059814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0091552734375</t>
+    <t xml:space="preserve">6.00915575027466</t>
   </si>
   <si>
     <t xml:space="preserve">6.04965877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98971366882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96541023254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15334987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11365556716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0950231552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22706651687622</t>
+    <t xml:space="preserve">5.98971319198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9654107093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15334939956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11365509033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09502363204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">6.24731826782227</t>
@@ -3188,28 +3188,28 @@
     <t xml:space="preserve">6.04560899734497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09745359420776</t>
+    <t xml:space="preserve">6.09745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">6.05046939849854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14200830459595</t>
+    <t xml:space="preserve">6.14200782775879</t>
   </si>
   <si>
     <t xml:space="preserve">6.08773326873779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03507709503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13147640228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99052333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63003873825073</t>
+    <t xml:space="preserve">6.0350775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13147735595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99052381515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63003921508789</t>
   </si>
   <si>
     <t xml:space="preserve">5.61950778961182</t>
@@ -3218,34 +3218,34 @@
     <t xml:space="preserve">5.53607034683228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65920114517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84632921218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16550064086914</t>
+    <t xml:space="preserve">5.65920162200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84632968902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865129470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16550016403198</t>
   </si>
   <si>
     <t xml:space="preserve">6.52193355560303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51869344711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65235710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54542684555054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49682235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5527172088623</t>
+    <t xml:space="preserve">6.51869487762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65235662460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54542636871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49682188034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55271673202515</t>
   </si>
   <si>
     <t xml:space="preserve">6.57135009765625</t>
@@ -3257,43 +3257,43 @@
     <t xml:space="preserve">6.61347246170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66936874389648</t>
+    <t xml:space="preserve">6.66936826705933</t>
   </si>
   <si>
     <t xml:space="preserve">6.81923294067383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87512874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86135721206665</t>
+    <t xml:space="preserve">6.87512826919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86135768890381</t>
   </si>
   <si>
     <t xml:space="preserve">6.88727951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78034925460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73984527587891</t>
+    <t xml:space="preserve">6.780348777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73984575271606</t>
   </si>
   <si>
     <t xml:space="preserve">6.70906209945679</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64992666244507</t>
+    <t xml:space="preserve">6.64992523193359</t>
   </si>
   <si>
     <t xml:space="preserve">6.64749670028687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6272439956665</t>
+    <t xml:space="preserve">6.62724447250366</t>
   </si>
   <si>
     <t xml:space="preserve">6.61023283004761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57783031463623</t>
+    <t xml:space="preserve">6.57782983779907</t>
   </si>
   <si>
     <t xml:space="preserve">6.6507363319397</t>
@@ -3311,28 +3311,28 @@
     <t xml:space="preserve">6.62076425552368</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53813600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70015144348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76009750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70420169830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85082530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8006010055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23318290710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005115509033</t>
+    <t xml:space="preserve">6.53813552856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7001519203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76009798049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70420122146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85082578659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80060148239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23318243026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005067825317</t>
   </si>
   <si>
     <t xml:space="preserve">7.2404727935791</t>
@@ -3341,16 +3341,16 @@
     <t xml:space="preserve">7.24857330322266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13111257553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15541505813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17647743225098</t>
+    <t xml:space="preserve">7.13111305236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2299427986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17647790908813</t>
   </si>
   <si>
     <t xml:space="preserve">7.09466361999512</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">7.08557319641113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08887815475464</t>
+    <t xml:space="preserve">7.08887767791748</t>
   </si>
   <si>
     <t xml:space="preserve">6.99053621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89632701873779</t>
+    <t xml:space="preserve">6.89632749557495</t>
   </si>
   <si>
     <t xml:space="preserve">6.88806295394897</t>
@@ -3377,19 +3377,19 @@
     <t xml:space="preserve">6.8103814125061</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94260597229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7690601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79385280609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77649831771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06739234924316</t>
+    <t xml:space="preserve">6.94260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76906061172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79385328292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77649784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06739187240601</t>
   </si>
   <si>
     <t xml:space="preserve">7.07069683074951</t>
@@ -3401,19 +3401,19 @@
     <t xml:space="preserve">7.02441930770874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84591627120972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87401342391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99301528930664</t>
+    <t xml:space="preserve">6.84591674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87401390075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9930157661438</t>
   </si>
   <si>
     <t xml:space="preserve">6.99797439575195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99549531936646</t>
+    <t xml:space="preserve">6.9954948425293</t>
   </si>
   <si>
     <t xml:space="preserve">6.86161804199219</t>
@@ -3425,22 +3425,22 @@
     <t xml:space="preserve">6.67485094070435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59221076965332</t>
+    <t xml:space="preserve">6.59221124649048</t>
   </si>
   <si>
     <t xml:space="preserve">6.54510593414307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47899389266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48229837417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56741905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44759035110474</t>
+    <t xml:space="preserve">6.47899341583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48229932785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56741857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44759082794189</t>
   </si>
   <si>
     <t xml:space="preserve">6.30214357376099</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">6.48147249221802</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50626516342163</t>
+    <t xml:space="preserve">6.50626468658447</t>
   </si>
   <si>
     <t xml:space="preserve">6.68063545227051</t>
@@ -3458,61 +3458,61 @@
     <t xml:space="preserve">6.69633722305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78889465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88062524795532</t>
+    <t xml:space="preserve">6.788893699646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88062429428101</t>
   </si>
   <si>
     <t xml:space="preserve">6.82195043563843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76079654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80790090560913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74509429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410779953003</t>
+    <t xml:space="preserve">6.76079702377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80790138244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74509477615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410827636719</t>
   </si>
   <si>
     <t xml:space="preserve">6.86409664154053</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87897205352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96326494216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.976487159729</t>
+    <t xml:space="preserve">6.87897253036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96326541900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97648763656616</t>
   </si>
   <si>
     <t xml:space="preserve">6.96409177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03020429611206</t>
+    <t xml:space="preserve">7.03020334243774</t>
   </si>
   <si>
     <t xml:space="preserve">6.96904993057251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01863431930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97070360183716</t>
+    <t xml:space="preserve">7.01863479614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.970703125</t>
   </si>
   <si>
     <t xml:space="preserve">7.0690450668335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09548997879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14920568466187</t>
+    <t xml:space="preserve">7.09549045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14920520782471</t>
   </si>
   <si>
     <t xml:space="preserve">7.10210084915161</t>
@@ -3521,43 +3521,43 @@
     <t xml:space="preserve">7.09053134918213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12441444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03185606002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135770797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15581703186035</t>
+    <t xml:space="preserve">7.12441396713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03185653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135675430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15581750869751</t>
   </si>
   <si>
     <t xml:space="preserve">7.15829658508301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0698709487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01367616653442</t>
+    <t xml:space="preserve">7.06987047195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01367568969727</t>
   </si>
   <si>
     <t xml:space="preserve">7.20457458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21862411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14011573791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98144578933716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89054250717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83186817169189</t>
+    <t xml:space="preserve">7.21862363815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14011526107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98144626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89054203033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83186721801758</t>
   </si>
   <si>
     <t xml:space="preserve">6.90541744232178</t>
@@ -3566,37 +3566,37 @@
     <t xml:space="preserve">6.78145694732666</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85004806518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83269357681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83765268325806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60460710525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68724679946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77980470657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74096298217773</t>
+    <t xml:space="preserve">6.85004758834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8326940536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8376522064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60460662841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68724727630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77980422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74096250534058</t>
   </si>
   <si>
     <t xml:space="preserve">6.71699714660645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58311986923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67237186431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7665810585022</t>
+    <t xml:space="preserve">6.58312034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67237138748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76658153533936</t>
   </si>
   <si>
     <t xml:space="preserve">6.74261617660522</t>
@@ -3614,16 +3614,16 @@
     <t xml:space="preserve">6.65749645233154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59551572799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52196645736694</t>
+    <t xml:space="preserve">6.59551620483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5219669342041</t>
   </si>
   <si>
     <t xml:space="preserve">6.55419635772705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61369705200195</t>
+    <t xml:space="preserve">6.61369752883911</t>
   </si>
   <si>
     <t xml:space="preserve">6.62113428115845</t>
@@ -3644,46 +3644,46 @@
     <t xml:space="preserve">6.67733001708984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78724098205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67650365829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65584325790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71038675308228</t>
+    <t xml:space="preserve">6.78724145889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67650413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65584373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71038627624512</t>
   </si>
   <si>
     <t xml:space="preserve">6.70046901702881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58725214004517</t>
+    <t xml:space="preserve">6.58725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">6.63931608200073</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61865520477295</t>
+    <t xml:space="preserve">6.61865568161011</t>
   </si>
   <si>
     <t xml:space="preserve">6.58973121643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64262104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47238206863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48643159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48808431625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53353691101074</t>
+    <t xml:space="preserve">6.6426215171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47238254547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48643112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4880838394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53353643417358</t>
   </si>
   <si>
     <t xml:space="preserve">6.56246042251587</t>
@@ -3701,25 +3701,25 @@
     <t xml:space="preserve">6.65914869308472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63105201721191</t>
+    <t xml:space="preserve">6.63105154037476</t>
   </si>
   <si>
     <t xml:space="preserve">6.55502271652222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61948251724243</t>
+    <t xml:space="preserve">6.61948204040527</t>
   </si>
   <si>
     <t xml:space="preserve">6.43088579177856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43849658966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60510444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942590713501</t>
+    <t xml:space="preserve">6.4384970664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60510492324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942638397217</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">6.83429622650146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73365497589111</t>
+    <t xml:space="preserve">6.73365449905396</t>
   </si>
   <si>
     <t xml:space="preserve">6.81230735778809</t>
@@ -3737,10 +3737,10 @@
     <t xml:space="preserve">6.77847814559937</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57973337173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54505825042725</t>
+    <t xml:space="preserve">6.57973289489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54505777359009</t>
   </si>
   <si>
     <t xml:space="preserve">6.50700044631958</t>
@@ -3749,10 +3749,10 @@
     <t xml:space="preserve">6.51461267471313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55605220794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56197309494019</t>
+    <t xml:space="preserve">6.55605268478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56197214126587</t>
   </si>
   <si>
     <t xml:space="preserve">6.59495639801025</t>
@@ -3770,40 +3770,40 @@
     <t xml:space="preserve">6.67191696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63639688491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57719564437866</t>
+    <t xml:space="preserve">6.63639640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57719612121582</t>
   </si>
   <si>
     <t xml:space="preserve">6.6431622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69982576370239</t>
+    <t xml:space="preserve">6.69982624053955</t>
   </si>
   <si>
     <t xml:space="preserve">6.76663827896118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62371110916138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56366443634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49346923828125</t>
+    <t xml:space="preserve">6.62371063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56366395950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49346971511841</t>
   </si>
   <si>
     <t xml:space="preserve">6.4943151473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5526704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52645301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.55267000198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52645254135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60003042221069</t>
   </si>
   <si>
     <t xml:space="preserve">6.53068113327026</t>
@@ -3815,22 +3815,22 @@
     <t xml:space="preserve">6.41904544830322</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35815334320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36830186843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23721504211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3420844078064</t>
+    <t xml:space="preserve">6.35815382003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36830234527588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2372145652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34208488464355</t>
   </si>
   <si>
     <t xml:space="preserve">6.2879581451416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94121122360229</t>
+    <t xml:space="preserve">5.94121170043945</t>
   </si>
   <si>
     <t xml:space="preserve">5.92091417312622</t>
@@ -3839,16 +3839,16 @@
     <t xml:space="preserve">5.88539361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78475284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83465003967285</t>
+    <t xml:space="preserve">5.784752368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83465051651001</t>
   </si>
   <si>
     <t xml:space="preserve">5.86932468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9868803024292</t>
+    <t xml:space="preserve">5.98688077926636</t>
   </si>
   <si>
     <t xml:space="preserve">5.9352912902832</t>
@@ -3857,31 +3857,31 @@
     <t xml:space="preserve">5.87524509429932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78221559524536</t>
+    <t xml:space="preserve">5.7822151184082</t>
   </si>
   <si>
     <t xml:space="preserve">5.74500370025635</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6249098777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69087696075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69848871231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6900315284729</t>
+    <t xml:space="preserve">5.62491035461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69087743759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69848823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69003200531006</t>
   </si>
   <si>
     <t xml:space="preserve">5.83803272247314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85156488418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70694637298584</t>
+    <t xml:space="preserve">5.85156440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70694589614868</t>
   </si>
   <si>
     <t xml:space="preserve">5.72132349014282</t>
@@ -3893,16 +3893,16 @@
     <t xml:space="preserve">5.8405704498291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98857164382935</t>
+    <t xml:space="preserve">5.9885721206665</t>
   </si>
   <si>
     <t xml:space="preserve">6.09767055511475</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06637859344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02747488021851</t>
+    <t xml:space="preserve">6.06637811660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02747535705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.97165727615356</t>
@@ -3911,16 +3911,16 @@
     <t xml:space="preserve">6.0426983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10274505615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14841413497925</t>
+    <t xml:space="preserve">6.10274457931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14841365814209</t>
   </si>
   <si>
     <t xml:space="preserve">6.11965942382812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16109991073608</t>
+    <t xml:space="preserve">6.16109943389893</t>
   </si>
   <si>
     <t xml:space="preserve">6.11543083190918</t>
@@ -3929,19 +3929,19 @@
     <t xml:space="preserve">6.13657331466675</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13319063186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16871118545532</t>
+    <t xml:space="preserve">6.13319110870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16871166229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.08498477935791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99956607818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05538368225098</t>
+    <t xml:space="preserve">5.99956655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05538415908813</t>
   </si>
   <si>
     <t xml:space="preserve">6.00379467010498</t>
@@ -3953,22 +3953,22 @@
     <t xml:space="preserve">5.99364614486694</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97757768630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95558834075928</t>
+    <t xml:space="preserve">5.97757720947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95558881759644</t>
   </si>
   <si>
     <t xml:space="preserve">5.87778186798096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87947368621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84141635894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95812559127808</t>
+    <t xml:space="preserve">5.8794732093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8414158821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95812606811523</t>
   </si>
   <si>
     <t xml:space="preserve">6.04608154296875</t>
@@ -3977,52 +3977,52 @@
     <t xml:space="preserve">5.76445531845093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74162101745605</t>
+    <t xml:space="preserve">5.74162006378174</t>
   </si>
   <si>
     <t xml:space="preserve">5.67227125167847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71286630630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57332134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51919507980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6858024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76022624969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66719675064087</t>
+    <t xml:space="preserve">5.71286582946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57332181930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51919555664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68580293655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76022672653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66719722747803</t>
   </si>
   <si>
     <t xml:space="preserve">5.66804265975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65789365768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58516120910645</t>
+    <t xml:space="preserve">5.65789413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58516216278076</t>
   </si>
   <si>
     <t xml:space="preserve">5.60376787185669</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66381406784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62237310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70525455474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62660217285156</t>
+    <t xml:space="preserve">5.66381454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62237358093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70525407791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6266016960144</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052377700806</t>
@@ -4031,19 +4031,19 @@
     <t xml:space="preserve">5.81519842147827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84902715682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85917663574219</t>
+    <t xml:space="preserve">5.84902763366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85917615890503</t>
   </si>
   <si>
     <t xml:space="preserve">5.95051383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92852592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95897102355957</t>
+    <t xml:space="preserve">5.92852544784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95897197723389</t>
   </si>
   <si>
     <t xml:space="preserve">6.06553268432617</t>
@@ -4052,13 +4052,13 @@
     <t xml:space="preserve">6.02155494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8769359588623</t>
+    <t xml:space="preserve">5.87693691253662</t>
   </si>
   <si>
     <t xml:space="preserve">5.84310722351074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86086702346802</t>
+    <t xml:space="preserve">5.86086750030518</t>
   </si>
   <si>
     <t xml:space="preserve">5.86171388626099</t>
@@ -4070,31 +4070,34 @@
     <t xml:space="preserve">5.8870849609375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75684404373169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80420446395874</t>
+    <t xml:space="preserve">5.75684356689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80420398712158</t>
   </si>
   <si>
     <t xml:space="preserve">5.92260503768921</t>
   </si>
   <si>
+    <t xml:space="preserve">5.83972454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79624128341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79711151123047</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.83972501754761</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79624176025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79711151123047</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.95886707305908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.871901512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89712190628052</t>
+    <t xml:space="preserve">5.87190198898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89712142944336</t>
   </si>
   <si>
     <t xml:space="preserve">5.96060657501221</t>
@@ -4103,22 +4106,22 @@
     <t xml:space="preserve">5.95625829696655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89538240432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77363061904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59274339675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50577783584595</t>
+    <t xml:space="preserve">5.89538288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77363109588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59274291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50577735900879</t>
   </si>
   <si>
     <t xml:space="preserve">5.63274717330933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5936131477356</t>
+    <t xml:space="preserve">5.59361267089844</t>
   </si>
   <si>
     <t xml:space="preserve">5.56056594848633</t>
@@ -4130,19 +4133,19 @@
     <t xml:space="preserve">5.59100341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66144561767578</t>
+    <t xml:space="preserve">5.66144609451294</t>
   </si>
   <si>
     <t xml:space="preserve">5.63709497451782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59622097015381</t>
+    <t xml:space="preserve">5.59622192382812</t>
   </si>
   <si>
     <t xml:space="preserve">5.47533988952637</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51708269119263</t>
+    <t xml:space="preserve">5.51708316802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.49099349975586</t>
@@ -4154,10 +4157,10 @@
     <t xml:space="preserve">5.69536209106445</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73884439468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3692421913147</t>
+    <t xml:space="preserve">5.738844871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36924171447754</t>
   </si>
   <si>
     <t xml:space="preserve">5.36576318740845</t>
@@ -4166,49 +4169,49 @@
     <t xml:space="preserve">5.17878770828247</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93093633651733</t>
+    <t xml:space="preserve">4.93093681335449</t>
   </si>
   <si>
     <t xml:space="preserve">4.8361439704895</t>
   </si>
   <si>
-    <t xml:space="preserve">4.976158618927</t>
+    <t xml:space="preserve">4.97615814208984</t>
   </si>
   <si>
     <t xml:space="preserve">5.25183868408203</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99094295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98137664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06051445007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06660270690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06486320495605</t>
+    <t xml:space="preserve">4.99094247817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98137617111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0605149269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06660223007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0648627281189</t>
   </si>
   <si>
     <t xml:space="preserve">4.97441911697388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00920486450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06399345397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96485328674316</t>
+    <t xml:space="preserve">5.00920581817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06399393081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96485280990601</t>
   </si>
   <si>
     <t xml:space="preserve">5.01790189743042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182451248169</t>
+    <t xml:space="preserve">5.11182403564453</t>
   </si>
   <si>
     <t xml:space="preserve">5.2848858833313</t>
@@ -4220,13 +4223,13 @@
     <t xml:space="preserve">5.27705860137939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30836629867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3135838508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41968202590942</t>
+    <t xml:space="preserve">5.3083667755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31358432769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41968107223511</t>
   </si>
   <si>
     <t xml:space="preserve">5.39881038665771</t>
@@ -4235,16 +4238,16 @@
     <t xml:space="preserve">5.36402416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48751449584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46751308441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43359661102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39011335372925</t>
+    <t xml:space="preserve">5.48751497268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46751260757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43359708786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39011383056641</t>
   </si>
   <si>
     <t xml:space="preserve">5.3935923576355</t>
@@ -4253,31 +4256,31 @@
     <t xml:space="preserve">5.37532997131348</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36141538619995</t>
+    <t xml:space="preserve">5.36141490936279</t>
   </si>
   <si>
     <t xml:space="preserve">5.22922801971436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30749654769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29879999160767</t>
+    <t xml:space="preserve">5.30749702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29879951477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.28140687942505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40924549102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40750694274902</t>
+    <t xml:space="preserve">5.40924596786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40750646591187</t>
   </si>
   <si>
     <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43446636199951</t>
+    <t xml:space="preserve">5.43446588516235</t>
   </si>
   <si>
     <t xml:space="preserve">5.38663482666016</t>
@@ -4286,7 +4289,7 @@
     <t xml:space="preserve">5.26575326919556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2248797416687</t>
+    <t xml:space="preserve">5.22487926483154</t>
   </si>
   <si>
     <t xml:space="preserve">5.10747623443604</t>
@@ -4295,40 +4298,40 @@
     <t xml:space="preserve">5.08051729202271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20052909851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07703828811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16313362121582</t>
+    <t xml:space="preserve">5.2005295753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0770378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16313409805298</t>
   </si>
   <si>
     <t xml:space="preserve">5.20661687850952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22661876678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16400384902954</t>
+    <t xml:space="preserve">5.22661924362183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1640043258667</t>
   </si>
   <si>
     <t xml:space="preserve">5.16226434707642</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32488965988159</t>
+    <t xml:space="preserve">5.32489013671875</t>
   </si>
   <si>
     <t xml:space="preserve">5.3335862159729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33271646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37793874740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37967729568481</t>
+    <t xml:space="preserve">5.3327169418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37793827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37967777252197</t>
   </si>
   <si>
     <t xml:space="preserve">5.35880613327026</t>
@@ -4343,13 +4346,13 @@
     <t xml:space="preserve">5.17791795730591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13530540466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24314165115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20748615264893</t>
+    <t xml:space="preserve">5.13530492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24314212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20748662948608</t>
   </si>
   <si>
     <t xml:space="preserve">5.0839958190918</t>
@@ -4358,28 +4361,28 @@
     <t xml:space="preserve">4.98224592208862</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76657199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68569374084473</t>
+    <t xml:space="preserve">4.76657152175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68569421768188</t>
   </si>
   <si>
     <t xml:space="preserve">4.63786363601685</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83179616928101</t>
+    <t xml:space="preserve">4.83179664611816</t>
   </si>
   <si>
     <t xml:space="preserve">4.69613027572632</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73265552520752</t>
+    <t xml:space="preserve">4.73265504837036</t>
   </si>
   <si>
     <t xml:space="preserve">4.77352905273438</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75265789031982</t>
+    <t xml:space="preserve">4.75265741348267</t>
   </si>
   <si>
     <t xml:space="preserve">4.65351676940918</t>
@@ -4406,10 +4409,10 @@
     <t xml:space="preserve">4.62047052383423</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59264135360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41523170471191</t>
+    <t xml:space="preserve">4.59264087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41523218154907</t>
   </si>
   <si>
     <t xml:space="preserve">4.5013279914856</t>
@@ -4421,58 +4424,58 @@
     <t xml:space="preserve">4.56742095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55872488021851</t>
+    <t xml:space="preserve">4.55872535705566</t>
   </si>
   <si>
     <t xml:space="preserve">4.5030665397644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4587140083313</t>
+    <t xml:space="preserve">4.45871496200562</t>
   </si>
   <si>
     <t xml:space="preserve">4.2047758102417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34826898574829</t>
+    <t xml:space="preserve">4.34826803207397</t>
   </si>
   <si>
     <t xml:space="preserve">4.43776512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4960732460022</t>
+    <t xml:space="preserve">4.49607372283936</t>
   </si>
   <si>
     <t xml:space="preserve">4.35550022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29222011566162</t>
+    <t xml:space="preserve">4.29222059249878</t>
   </si>
   <si>
     <t xml:space="preserve">4.27052354812622</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29402828216553</t>
+    <t xml:space="preserve">4.29402780532837</t>
   </si>
   <si>
     <t xml:space="preserve">4.28092002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27685213088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33335256576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47754144668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39708471298218</t>
+    <t xml:space="preserve">4.27685165405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33335208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47754192352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39708518981934</t>
   </si>
   <si>
     <t xml:space="preserve">4.40702867507935</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44138097763062</t>
+    <t xml:space="preserve">4.44138145446777</t>
   </si>
   <si>
     <t xml:space="preserve">4.47573328018188</t>
@@ -4487,19 +4490,19 @@
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002954483032</t>
+    <t xml:space="preserve">4.52002906799316</t>
   </si>
   <si>
     <t xml:space="preserve">4.55166959762573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61223840713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60771799087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60319805145264</t>
+    <t xml:space="preserve">4.61223793029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6077184677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60319852828979</t>
   </si>
   <si>
     <t xml:space="preserve">4.52274131774902</t>
@@ -4508,28 +4511,28 @@
     <t xml:space="preserve">4.46126937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46578931808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47030973434448</t>
+    <t xml:space="preserve">4.46578979492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47030878067017</t>
   </si>
   <si>
     <t xml:space="preserve">4.47121334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3686089515686</t>
+    <t xml:space="preserve">4.36860847473145</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35143232345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24476003646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19684743881226</t>
+    <t xml:space="preserve">4.35143184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24475955963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19684791564941</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4547,16 +4550,16 @@
     <t xml:space="preserve">4.34465265274048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38894844055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51234531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47392511367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44770956039429</t>
+    <t xml:space="preserve">4.38894891738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51234579086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47392559051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44770908355713</t>
   </si>
   <si>
     <t xml:space="preserve">4.42691707611084</t>
@@ -4568,13 +4571,13 @@
     <t xml:space="preserve">4.45720100402832</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37584066390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38397645950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37041664123535</t>
+    <t xml:space="preserve">4.37584018707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38397693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37041616439819</t>
   </si>
   <si>
     <t xml:space="preserve">4.19820356369019</t>
@@ -4583,37 +4586,37 @@
     <t xml:space="preserve">4.11096715927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88903307914734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90440130233765</t>
+    <t xml:space="preserve">3.8890335559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90440154075623</t>
   </si>
   <si>
     <t xml:space="preserve">3.84021735191345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81852126121521</t>
+    <t xml:space="preserve">3.81852078437805</t>
   </si>
   <si>
     <t xml:space="preserve">3.93875360488892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03503036499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90666174888611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76970458030701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72586035728455</t>
+    <t xml:space="preserve">4.03503084182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90666127204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76970481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72586059570312</t>
   </si>
   <si>
     <t xml:space="preserve">3.78688073158264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68472838401794</t>
+    <t xml:space="preserve">3.68472814559937</t>
   </si>
   <si>
     <t xml:space="preserve">3.61873555183411</t>
@@ -4622,55 +4625,55 @@
     <t xml:space="preserve">3.68111205101013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7181761264801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81038522720337</t>
+    <t xml:space="preserve">3.71817636489868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81038498878479</t>
   </si>
   <si>
     <t xml:space="preserve">3.84925699234009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87230968475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83388924598694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7918529510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88134932518005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95864224433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406626701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08791494369507</t>
+    <t xml:space="preserve">3.87230920791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83388900756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79185271263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88134956359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95864200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406602859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08791446685791</t>
   </si>
   <si>
     <t xml:space="preserve">4.04271459579468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08520269393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10373497009277</t>
+    <t xml:space="preserve">4.08520317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10373544692993</t>
   </si>
   <si>
     <t xml:space="preserve">4.15164709091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13492250442505</t>
+    <t xml:space="preserve">4.13492345809937</t>
   </si>
   <si>
     <t xml:space="preserve">4.23029565811157</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28272819519043</t>
+    <t xml:space="preserve">4.28272771835327</t>
   </si>
   <si>
     <t xml:space="preserve">4.32476425170898</t>
@@ -4682,25 +4685,25 @@
     <t xml:space="preserve">4.5290699005127</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56342172622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59144639968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61947059631348</t>
+    <t xml:space="preserve">4.56342124938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59144592285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61947011947632</t>
   </si>
   <si>
     <t xml:space="preserve">4.64568662643433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66195917129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59687042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57698202133179</t>
+    <t xml:space="preserve">4.66195869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59686994552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57698249816895</t>
   </si>
   <si>
     <t xml:space="preserve">4.6583423614502</t>
@@ -4709,16 +4712,16 @@
     <t xml:space="preserve">4.6601505279541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58331060409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61585378646851</t>
+    <t xml:space="preserve">4.5833101272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61585426330566</t>
   </si>
   <si>
     <t xml:space="preserve">4.64116621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74603080749512</t>
+    <t xml:space="preserve">4.74603128433228</t>
   </si>
   <si>
     <t xml:space="preserve">4.761399269104</t>
@@ -4730,10 +4733,10 @@
     <t xml:space="preserve">4.70625448226929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72252655029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67732620239258</t>
+    <t xml:space="preserve">4.72252702713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67732667922974</t>
   </si>
   <si>
     <t xml:space="preserve">4.72071886062622</t>
@@ -4751,13 +4754,13 @@
     <t xml:space="preserve">4.56974983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56522989273071</t>
+    <t xml:space="preserve">4.56523036956787</t>
   </si>
   <si>
     <t xml:space="preserve">4.56161403656006</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56251811981201</t>
+    <t xml:space="preserve">4.56251764297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
@@ -4769,10 +4772,10 @@
     <t xml:space="preserve">4.61133432388306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59054183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5643253326416</t>
+    <t xml:space="preserve">4.59054231643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56432580947876</t>
   </si>
   <si>
     <t xml:space="preserve">4.54714965820312</t>
@@ -4781,7 +4784,7 @@
     <t xml:space="preserve">4.67461442947388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79123115539551</t>
+    <t xml:space="preserve">4.79123163223267</t>
   </si>
   <si>
     <t xml:space="preserve">4.960280418396</t>
@@ -4796,7 +4799,7 @@
     <t xml:space="preserve">5.0615291595459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00457668304443</t>
+    <t xml:space="preserve">5.00457620620728</t>
   </si>
   <si>
     <t xml:space="preserve">5.08955335617065</t>
@@ -4808,13 +4811,13 @@
     <t xml:space="preserve">5.17814588546753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25046682357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20707416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21069049835205</t>
+    <t xml:space="preserve">5.25046634674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2070746421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21069002151489</t>
   </si>
   <si>
     <t xml:space="preserve">5.11396169662476</t>
@@ -4823,10 +4826,10 @@
     <t xml:space="preserve">5.10763359069824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074348449707</t>
+    <t xml:space="preserve">5.12262868881226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074396133423</t>
   </si>
   <si>
     <t xml:space="preserve">5.13387441635132</t>
@@ -4841,7 +4844,7 @@
     <t xml:space="preserve">5.09170150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05233955383301</t>
+    <t xml:space="preserve">5.05234003067017</t>
   </si>
   <si>
     <t xml:space="preserve">4.94175243377686</t>
@@ -4850,16 +4853,16 @@
     <t xml:space="preserve">5.04390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02516174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0410943031311</t>
+    <t xml:space="preserve">5.0251612663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04109382629395</t>
   </si>
   <si>
     <t xml:space="preserve">5.0223503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01016712188721</t>
+    <t xml:space="preserve">5.01016664505005</t>
   </si>
   <si>
     <t xml:space="preserve">5.00454378128052</t>
@@ -4871,7 +4874,7 @@
     <t xml:space="preserve">5.06358575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04203081130981</t>
+    <t xml:space="preserve">5.04203128814697</t>
   </si>
   <si>
     <t xml:space="preserve">5.04859113693237</t>
@@ -4883,10 +4886,10 @@
     <t xml:space="preserve">5.01672697067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01391506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111391067505</t>
+    <t xml:space="preserve">5.01391553878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111438751221</t>
   </si>
   <si>
     <t xml:space="preserve">4.90988826751709</t>
@@ -4895,7 +4898,7 @@
     <t xml:space="preserve">4.92956972122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90520238876343</t>
+    <t xml:space="preserve">4.90520286560059</t>
   </si>
   <si>
     <t xml:space="preserve">4.97267961502075</t>
@@ -4913,7 +4916,7 @@
     <t xml:space="preserve">4.96799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99892044067383</t>
+    <t xml:space="preserve">4.99892091751099</t>
   </si>
   <si>
     <t xml:space="preserve">4.96237087249756</t>
@@ -4922,10 +4925,10 @@
     <t xml:space="preserve">4.98580026626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98486232757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99142360687256</t>
+    <t xml:space="preserve">4.98486280441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9914231300354</t>
   </si>
   <si>
     <t xml:space="preserve">4.89864253997803</t>
@@ -4937,7 +4940,7 @@
     <t xml:space="preserve">4.91644859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96330785751343</t>
+    <t xml:space="preserve">4.96330738067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.95487308502197</t>
@@ -4949,22 +4952,19 @@
     <t xml:space="preserve">5.13574886322021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15824174880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327749252319</t>
+    <t xml:space="preserve">5.15824127197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327701568604</t>
   </si>
   <si>
     <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10763311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16199016571045</t>
+    <t xml:space="preserve">5.16198968887329</t>
   </si>
   <si>
     <t xml:space="preserve">5.25758218765259</t>
@@ -4982,22 +4982,22 @@
     <t xml:space="preserve">5.30631589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48156881332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5331130027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61558532714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39534759521484</t>
+    <t xml:space="preserve">5.48156833648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53311347961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6155858039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.395348072052</t>
   </si>
   <si>
     <t xml:space="preserve">5.34942626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36067247390747</t>
+    <t xml:space="preserve">5.36067199707031</t>
   </si>
   <si>
     <t xml:space="preserve">5.39722204208374</t>
@@ -5012,13 +5012,13 @@
     <t xml:space="preserve">5.55841779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6493239402771</t>
+    <t xml:space="preserve">5.64932346343994</t>
   </si>
   <si>
     <t xml:space="preserve">5.67556524276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7074294090271</t>
+    <t xml:space="preserve">5.70742893218994</t>
   </si>
   <si>
     <t xml:space="preserve">5.77771759033203</t>
@@ -5027,10 +5027,10 @@
     <t xml:space="preserve">5.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71492624282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7158637046814</t>
+    <t xml:space="preserve">5.71492671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71586322784424</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461750030518</t>
@@ -5048,25 +5048,25 @@
     <t xml:space="preserve">5.71024084091187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66431903839111</t>
+    <t xml:space="preserve">5.66431856155396</t>
   </si>
   <si>
     <t xml:space="preserve">5.67743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995218276978</t>
+    <t xml:space="preserve">5.63995170593262</t>
   </si>
   <si>
     <t xml:space="preserve">5.64182615280151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60246515274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53030157089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63151741027832</t>
+    <t xml:space="preserve">5.60246467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53030204772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63151693344116</t>
   </si>
   <si>
     <t xml:space="preserve">5.65963268280029</t>
@@ -5084,7 +5084,7 @@
     <t xml:space="preserve">5.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58278369903564</t>
+    <t xml:space="preserve">5.5827841758728</t>
   </si>
   <si>
     <t xml:space="preserve">5.63432931900024</t>
@@ -5093,25 +5093,25 @@
     <t xml:space="preserve">5.49000310897827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58372163772583</t>
+    <t xml:space="preserve">5.58372116088867</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619300842285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6202712059021</t>
+    <t xml:space="preserve">5.62027168273926</t>
   </si>
   <si>
     <t xml:space="preserve">5.66994190216064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69243431091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69149684906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72710943222046</t>
+    <t xml:space="preserve">5.69243383407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69149732589722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72710990905762</t>
   </si>
   <si>
     <t xml:space="preserve">5.68868541717529</t>
@@ -5132,7 +5132,7 @@
     <t xml:space="preserve">5.75147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76178503036499</t>
+    <t xml:space="preserve">5.76178550720215</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052949905396</t>
@@ -5141,7 +5141,7 @@
     <t xml:space="preserve">5.84800577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94078683853149</t>
+    <t xml:space="preserve">5.94078731536865</t>
   </si>
   <si>
     <t xml:space="preserve">5.81989049911499</t>
@@ -5162,7 +5162,7 @@
     <t xml:space="preserve">5.83863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93235206604004</t>
+    <t xml:space="preserve">5.9323525428772</t>
   </si>
   <si>
     <t xml:space="preserve">5.84613180160522</t>
@@ -5171,13 +5171,13 @@
     <t xml:space="preserve">5.88268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88080739974976</t>
+    <t xml:space="preserve">5.88080787658691</t>
   </si>
   <si>
     <t xml:space="preserve">5.89861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93797540664673</t>
+    <t xml:space="preserve">5.93797492980957</t>
   </si>
   <si>
     <t xml:space="preserve">5.99507141113281</t>
@@ -5817,6 +5817,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.33699989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31899976730347</t>
   </si>
 </sst>
 </file>
@@ -46294,7 +46297,7 @@
         <v>6.71500015258789</v>
       </c>
       <c r="G1544" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -46320,7 +46323,7 @@
         <v>6.85200023651123</v>
       </c>
       <c r="G1545" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -46346,7 +46349,7 @@
         <v>6.7519998550415</v>
       </c>
       <c r="G1546" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -46372,7 +46375,7 @@
         <v>6.7810001373291</v>
       </c>
       <c r="G1547" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -46398,7 +46401,7 @@
         <v>6.85400009155273</v>
       </c>
       <c r="G1548" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -46424,7 +46427,7 @@
         <v>6.84899997711182</v>
       </c>
       <c r="G1549" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -46450,7 +46453,7 @@
         <v>6.77899980545044</v>
       </c>
       <c r="G1550" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -46476,7 +46479,7 @@
         <v>6.63899993896484</v>
       </c>
       <c r="G1551" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -46502,7 +46505,7 @@
         <v>6.43100023269653</v>
       </c>
       <c r="G1552" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -46528,7 +46531,7 @@
         <v>6.33099985122681</v>
       </c>
       <c r="G1553" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -46554,7 +46557,7 @@
         <v>6.47700023651123</v>
       </c>
       <c r="G1554" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -46580,7 +46583,7 @@
         <v>6.43200016021729</v>
       </c>
       <c r="G1555" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -46606,7 +46609,7 @@
         <v>6.39400005340576</v>
       </c>
       <c r="G1556" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -46632,7 +46635,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G1557" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -46658,7 +46661,7 @@
         <v>6.42899990081787</v>
       </c>
       <c r="G1558" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -46684,7 +46687,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G1559" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -46710,7 +46713,7 @@
         <v>6.48199987411499</v>
       </c>
       <c r="G1560" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -46736,7 +46739,7 @@
         <v>6.43499994277954</v>
       </c>
       <c r="G1561" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46762,7 +46765,7 @@
         <v>6.2960000038147</v>
       </c>
       <c r="G1562" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46788,7 +46791,7 @@
         <v>6.3439998626709</v>
       </c>
       <c r="G1563" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46814,7 +46817,7 @@
         <v>6.31400012969971</v>
       </c>
       <c r="G1564" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46840,7 +46843,7 @@
         <v>6.19199991226196</v>
       </c>
       <c r="G1565" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46866,7 +46869,7 @@
         <v>6.54899978637695</v>
       </c>
       <c r="G1566" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46892,7 +46895,7 @@
         <v>6.59899997711182</v>
       </c>
       <c r="G1567" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46918,7 +46921,7 @@
         <v>6.17399978637695</v>
       </c>
       <c r="G1568" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46944,7 +46947,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1569" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46970,7 +46973,7 @@
         <v>5.95499992370605</v>
       </c>
       <c r="G1570" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -46996,7 +46999,7 @@
         <v>5.67000007629395</v>
       </c>
       <c r="G1571" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -47022,7 +47025,7 @@
         <v>5.56099987030029</v>
       </c>
       <c r="G1572" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -47048,7 +47051,7 @@
         <v>5.72200012207031</v>
       </c>
       <c r="G1573" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -47074,7 +47077,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G1574" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -47100,7 +47103,7 @@
         <v>5.73899984359741</v>
       </c>
       <c r="G1575" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -47126,7 +47129,7 @@
         <v>5.72800016403198</v>
       </c>
       <c r="G1576" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -47152,7 +47155,7 @@
         <v>5.81899976730347</v>
       </c>
       <c r="G1577" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -47178,7 +47181,7 @@
         <v>5.82600021362305</v>
       </c>
       <c r="G1578" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -47204,7 +47207,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1579" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -47230,7 +47233,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1580" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -47256,7 +47259,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1581" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -47282,7 +47285,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1582" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -47308,7 +47311,7 @@
         <v>5.82299995422363</v>
       </c>
       <c r="G1583" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -47334,7 +47337,7 @@
         <v>5.70900011062622</v>
       </c>
       <c r="G1584" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -47360,7 +47363,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G1585" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -47386,7 +47389,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1586" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -47412,7 +47415,7 @@
         <v>5.87799978256226</v>
       </c>
       <c r="G1587" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -47438,7 +47441,7 @@
         <v>6.0770001411438</v>
       </c>
       <c r="G1588" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -47464,7 +47467,7 @@
         <v>6.09700012207031</v>
       </c>
       <c r="G1589" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -47490,7 +47493,7 @@
         <v>6.06799983978271</v>
       </c>
       <c r="G1590" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -47516,7 +47519,7 @@
         <v>6.10400009155273</v>
       </c>
       <c r="G1591" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -47542,7 +47545,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1592" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -47568,7 +47571,7 @@
         <v>6.23199987411499</v>
       </c>
       <c r="G1593" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -47594,7 +47597,7 @@
         <v>6.20800018310547</v>
       </c>
       <c r="G1594" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -47620,7 +47623,7 @@
         <v>6.16800022125244</v>
       </c>
       <c r="G1595" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -47646,7 +47649,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1596" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -47672,7 +47675,7 @@
         <v>6.28700017929077</v>
       </c>
       <c r="G1597" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -47698,7 +47701,7 @@
         <v>6.2480001449585</v>
       </c>
       <c r="G1598" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -47724,7 +47727,7 @@
         <v>6.19799995422363</v>
       </c>
       <c r="G1599" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47750,7 +47753,7 @@
         <v>6.2020001411438</v>
       </c>
       <c r="G1600" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -47776,7 +47779,7 @@
         <v>6.18100023269653</v>
       </c>
       <c r="G1601" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -47802,7 +47805,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G1602" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47828,7 +47831,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1603" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -47854,7 +47857,7 @@
         <v>6.01300001144409</v>
       </c>
       <c r="G1604" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47880,7 +47883,7 @@
         <v>6.10300016403198</v>
       </c>
       <c r="G1605" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47906,7 +47909,7 @@
         <v>6.09299993515015</v>
       </c>
       <c r="G1606" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47932,7 +47935,7 @@
         <v>6.07299995422363</v>
       </c>
       <c r="G1607" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47958,7 +47961,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1608" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47984,7 +47987,7 @@
         <v>6.21799993515015</v>
       </c>
       <c r="G1609" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -48010,7 +48013,7 @@
         <v>6.1729998588562</v>
       </c>
       <c r="G1610" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -48036,7 +48039,7 @@
         <v>6.24900007247925</v>
       </c>
       <c r="G1611" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -48062,7 +48065,7 @@
         <v>6.19399976730347</v>
       </c>
       <c r="G1612" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -48088,7 +48091,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G1613" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -48114,7 +48117,7 @@
         <v>6.00799989700317</v>
       </c>
       <c r="G1614" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -48140,7 +48143,7 @@
         <v>5.8730001449585</v>
       </c>
       <c r="G1615" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -48166,7 +48169,7 @@
         <v>5.84200000762939</v>
       </c>
       <c r="G1616" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -48192,7 +48195,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1617" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -48218,7 +48221,7 @@
         <v>5.83799982070923</v>
       </c>
       <c r="G1618" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -48244,7 +48247,7 @@
         <v>5.93699979782104</v>
       </c>
       <c r="G1619" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -48270,7 +48273,7 @@
         <v>5.98699998855591</v>
       </c>
       <c r="G1620" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -48296,7 +48299,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1621" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -48322,7 +48325,7 @@
         <v>5.93800020217896</v>
       </c>
       <c r="G1622" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -48348,7 +48351,7 @@
         <v>5.93599987030029</v>
       </c>
       <c r="G1623" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -48374,7 +48377,7 @@
         <v>6.1230001449585</v>
       </c>
       <c r="G1624" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -48400,7 +48403,7 @@
         <v>6.13299989700317</v>
       </c>
       <c r="G1625" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -48426,7 +48429,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G1626" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -48452,7 +48455,7 @@
         <v>6.13199996948242</v>
       </c>
       <c r="G1627" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -48478,7 +48481,7 @@
         <v>6.18400001525879</v>
       </c>
       <c r="G1628" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -48504,7 +48507,7 @@
         <v>6.18599987030029</v>
       </c>
       <c r="G1629" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -48530,7 +48533,7 @@
         <v>6.16200017929077</v>
       </c>
       <c r="G1630" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -48556,7 +48559,7 @@
         <v>6.04400014877319</v>
       </c>
       <c r="G1631" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -48582,7 +48585,7 @@
         <v>5.92399978637695</v>
       </c>
       <c r="G1632" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -48608,7 +48611,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G1633" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -48634,7 +48637,7 @@
         <v>5.90500020980835</v>
       </c>
       <c r="G1634" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -48660,7 +48663,7 @@
         <v>6.02899980545044</v>
       </c>
       <c r="G1635" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -48686,7 +48689,7 @@
         <v>5.98799991607666</v>
       </c>
       <c r="G1636" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -48712,7 +48715,7 @@
         <v>5.84600019454956</v>
       </c>
       <c r="G1637" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48738,7 +48741,7 @@
         <v>5.72900009155273</v>
       </c>
       <c r="G1638" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48764,7 +48767,7 @@
         <v>5.48099994659424</v>
       </c>
       <c r="G1639" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48790,7 +48793,7 @@
         <v>5.38800001144409</v>
       </c>
       <c r="G1640" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48816,7 +48819,7 @@
         <v>5.33300018310547</v>
       </c>
       <c r="G1641" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48842,7 +48845,7 @@
         <v>5.55600023269653</v>
       </c>
       <c r="G1642" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48868,7 +48871,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1643" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48894,7 +48897,7 @@
         <v>5.44199991226196</v>
       </c>
       <c r="G1644" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48920,7 +48923,7 @@
         <v>5.48899984359741</v>
       </c>
       <c r="G1645" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48946,7 +48949,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G1646" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48972,7 +48975,7 @@
         <v>5.35099983215332</v>
       </c>
       <c r="G1647" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48998,7 +49001,7 @@
         <v>5.42199993133545</v>
       </c>
       <c r="G1648" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -49024,7 +49027,7 @@
         <v>5.51300001144409</v>
       </c>
       <c r="G1649" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -49050,7 +49053,7 @@
         <v>5.40899991989136</v>
       </c>
       <c r="G1650" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -49076,7 +49079,7 @@
         <v>5.47599983215332</v>
       </c>
       <c r="G1651" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -49102,7 +49105,7 @@
         <v>5.40199995040894</v>
       </c>
       <c r="G1652" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -49128,7 +49131,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G1653" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -49154,7 +49157,7 @@
         <v>5.31300020217896</v>
       </c>
       <c r="G1654" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -49180,7 +49183,7 @@
         <v>5.2810001373291</v>
       </c>
       <c r="G1655" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -49206,7 +49209,7 @@
         <v>5.0770001411438</v>
       </c>
       <c r="G1656" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -49232,7 +49235,7 @@
         <v>5.17600011825562</v>
       </c>
       <c r="G1657" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -49258,7 +49261,7 @@
         <v>5.26300001144409</v>
       </c>
       <c r="G1658" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -49284,7 +49287,7 @@
         <v>5.2519998550415</v>
       </c>
       <c r="G1659" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -49310,7 +49313,7 @@
         <v>5.24200010299683</v>
       </c>
       <c r="G1660" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -49336,7 +49339,7 @@
         <v>5.17799997329712</v>
       </c>
       <c r="G1661" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -49362,7 +49365,7 @@
         <v>5.1269998550415</v>
       </c>
       <c r="G1662" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -49388,7 +49391,7 @@
         <v>4.83500003814697</v>
       </c>
       <c r="G1663" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -49414,7 +49417,7 @@
         <v>5</v>
       </c>
       <c r="G1664" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -49440,7 +49443,7 @@
         <v>4.90899991989136</v>
       </c>
       <c r="G1665" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -49466,7 +49469,7 @@
         <v>4.97349977493286</v>
       </c>
       <c r="G1666" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -49492,7 +49495,7 @@
         <v>4.81799983978271</v>
       </c>
       <c r="G1667" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -49518,7 +49521,7 @@
         <v>4.7480001449585</v>
       </c>
       <c r="G1668" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -49544,7 +49547,7 @@
         <v>4.72399997711182</v>
       </c>
       <c r="G1669" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -49570,7 +49573,7 @@
         <v>4.75</v>
       </c>
       <c r="G1670" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -49596,7 +49599,7 @@
         <v>4.7354998588562</v>
       </c>
       <c r="G1671" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -49622,7 +49625,7 @@
         <v>4.73099994659424</v>
       </c>
       <c r="G1672" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -49648,7 +49651,7 @@
         <v>4.79349994659424</v>
       </c>
       <c r="G1673" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -49674,7 +49677,7 @@
         <v>4.90899991989136</v>
       </c>
       <c r="G1674" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -49700,7 +49703,7 @@
         <v>4.95300006866455</v>
       </c>
       <c r="G1675" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49726,7 +49729,7 @@
         <v>4.86399984359741</v>
       </c>
       <c r="G1676" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49752,7 +49755,7 @@
         <v>4.875</v>
       </c>
       <c r="G1677" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49778,7 +49781,7 @@
         <v>4.91300010681152</v>
       </c>
       <c r="G1678" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49804,7 +49807,7 @@
         <v>4.95100021362305</v>
       </c>
       <c r="G1679" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49830,7 +49833,7 @@
         <v>5.03200006484985</v>
       </c>
       <c r="G1680" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49856,7 +49859,7 @@
         <v>5.00799989700317</v>
       </c>
       <c r="G1681" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49882,7 +49885,7 @@
         <v>4.98750019073486</v>
       </c>
       <c r="G1682" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49908,7 +49911,7 @@
         <v>5</v>
       </c>
       <c r="G1683" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49934,7 +49937,7 @@
         <v>5.03499984741211</v>
       </c>
       <c r="G1684" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49960,7 +49963,7 @@
         <v>5.10200023651123</v>
       </c>
       <c r="G1685" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49986,7 +49989,7 @@
         <v>5.09700012207031</v>
       </c>
       <c r="G1686" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -50012,7 +50015,7 @@
         <v>5.09200000762939</v>
       </c>
       <c r="G1687" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -50038,7 +50041,7 @@
         <v>5.00299978256226</v>
       </c>
       <c r="G1688" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -50064,7 +50067,7 @@
         <v>4.93499994277954</v>
       </c>
       <c r="G1689" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -50090,7 +50093,7 @@
         <v>4.94000005722046</v>
       </c>
       <c r="G1690" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -50116,7 +50119,7 @@
         <v>4.94500017166138</v>
       </c>
       <c r="G1691" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -50142,7 +50145,7 @@
         <v>4.94600009918213</v>
       </c>
       <c r="G1692" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -50168,7 +50171,7 @@
         <v>4.83249998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -50194,7 +50197,7 @@
         <v>4.80350017547607</v>
       </c>
       <c r="G1694" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -50220,7 +50223,7 @@
         <v>4.81349992752075</v>
       </c>
       <c r="G1695" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -50246,7 +50249,7 @@
         <v>4.69549989700317</v>
       </c>
       <c r="G1696" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -50272,7 +50275,7 @@
         <v>4.64249992370605</v>
       </c>
       <c r="G1697" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -50298,7 +50301,7 @@
         <v>4.75449991226196</v>
       </c>
       <c r="G1698" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -50324,7 +50327,7 @@
         <v>4.69999980926514</v>
       </c>
       <c r="G1699" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -50350,7 +50353,7 @@
         <v>4.67749977111816</v>
       </c>
       <c r="G1700" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -50376,7 +50379,7 @@
         <v>4.74900007247925</v>
       </c>
       <c r="G1701" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -50402,7 +50405,7 @@
         <v>4.80600023269653</v>
       </c>
       <c r="G1702" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -50428,7 +50431,7 @@
         <v>4.85500001907349</v>
       </c>
       <c r="G1703" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -50454,7 +50457,7 @@
         <v>4.99149990081787</v>
       </c>
       <c r="G1704" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -50480,7 +50483,7 @@
         <v>4.94899988174438</v>
       </c>
       <c r="G1705" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -50506,7 +50509,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -50532,7 +50535,7 @@
         <v>4.89699983596802</v>
       </c>
       <c r="G1707" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -50558,7 +50561,7 @@
         <v>4.91949987411499</v>
       </c>
       <c r="G1708" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -50584,7 +50587,7 @@
         <v>4.93050003051758</v>
       </c>
       <c r="G1709" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -50610,7 +50613,7 @@
         <v>4.84049987792969</v>
       </c>
       <c r="G1710" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -50636,7 +50639,7 @@
         <v>4.84950017929077</v>
       </c>
       <c r="G1711" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -50662,7 +50665,7 @@
         <v>4.83449983596802</v>
       </c>
       <c r="G1712" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -50688,7 +50691,7 @@
         <v>4.64400005340576</v>
       </c>
       <c r="G1713" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -50714,7 +50717,7 @@
         <v>4.5475001335144</v>
       </c>
       <c r="G1714" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50740,7 +50743,7 @@
         <v>4.30200004577637</v>
       </c>
       <c r="G1715" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50766,7 +50769,7 @@
         <v>4.31899976730347</v>
       </c>
       <c r="G1716" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50792,7 +50795,7 @@
         <v>4.2480001449585</v>
       </c>
       <c r="G1717" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50818,7 +50821,7 @@
         <v>4.22399997711182</v>
       </c>
       <c r="G1718" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50844,7 +50847,7 @@
         <v>4.35699987411499</v>
       </c>
       <c r="G1719" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50870,7 +50873,7 @@
         <v>4.46350002288818</v>
       </c>
       <c r="G1720" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50896,7 +50899,7 @@
         <v>4.32149982452393</v>
       </c>
       <c r="G1721" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50922,7 +50925,7 @@
         <v>4.17000007629395</v>
       </c>
       <c r="G1722" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50948,7 +50951,7 @@
         <v>4.12150001525879</v>
       </c>
       <c r="G1723" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50974,7 +50977,7 @@
         <v>4.18900012969971</v>
       </c>
       <c r="G1724" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -51000,7 +51003,7 @@
         <v>4.07600021362305</v>
       </c>
       <c r="G1725" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -51026,7 +51029,7 @@
         <v>4.00299978256226</v>
       </c>
       <c r="G1726" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -51052,7 +51055,7 @@
         <v>4.07200002670288</v>
       </c>
       <c r="G1727" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -51078,7 +51081,7 @@
         <v>4.11299991607666</v>
       </c>
       <c r="G1728" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -51104,7 +51107,7 @@
         <v>4.21500015258789</v>
       </c>
       <c r="G1729" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -51130,7 +51133,7 @@
         <v>4.25799989700317</v>
       </c>
       <c r="G1730" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -51156,7 +51159,7 @@
         <v>4.28350019454956</v>
       </c>
       <c r="G1731" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -51182,7 +51185,7 @@
         <v>4.24100017547607</v>
       </c>
       <c r="G1732" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -51208,7 +51211,7 @@
         <v>4.19449996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -51234,7 +51237,7 @@
         <v>4.29349994659424</v>
       </c>
       <c r="G1734" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -51260,7 +51263,7 @@
         <v>4.37900018692017</v>
       </c>
       <c r="G1735" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -51286,7 +51289,7 @@
         <v>4.38500022888184</v>
       </c>
       <c r="G1736" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -51312,7 +51315,7 @@
         <v>4.52199983596802</v>
       </c>
       <c r="G1737" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -51338,7 +51341,7 @@
         <v>4.47200012207031</v>
       </c>
       <c r="G1738" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -51364,7 +51367,7 @@
         <v>4.51900005340576</v>
       </c>
       <c r="G1739" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -51390,7 +51393,7 @@
         <v>4.53950023651123</v>
       </c>
       <c r="G1740" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -51416,7 +51419,7 @@
         <v>4.59250020980835</v>
       </c>
       <c r="G1741" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -51442,7 +51445,7 @@
         <v>4.57399988174438</v>
       </c>
       <c r="G1742" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -51468,7 +51471,7 @@
         <v>4.67950010299683</v>
       </c>
       <c r="G1743" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -51494,7 +51497,7 @@
         <v>4.73750019073486</v>
       </c>
       <c r="G1744" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -51520,7 +51523,7 @@
         <v>4.78399991989136</v>
       </c>
       <c r="G1745" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -51546,7 +51549,7 @@
         <v>4.81899976730347</v>
       </c>
       <c r="G1746" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -51572,7 +51575,7 @@
         <v>5.01000022888184</v>
       </c>
       <c r="G1747" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -51598,7 +51601,7 @@
         <v>5.0479998588562</v>
       </c>
       <c r="G1748" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -51624,7 +51627,7 @@
         <v>5.0789999961853</v>
       </c>
       <c r="G1749" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -51650,7 +51653,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G1750" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -51676,7 +51679,7 @@
         <v>5.13899993896484</v>
       </c>
       <c r="G1751" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -51702,7 +51705,7 @@
         <v>5</v>
       </c>
       <c r="G1752" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -51728,7 +51731,7 @@
         <v>5.15700006484985</v>
       </c>
       <c r="G1753" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51754,7 +51757,7 @@
         <v>5.08500003814697</v>
       </c>
       <c r="G1754" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51780,7 +51783,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G1755" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51806,7 +51809,7 @@
         <v>5.06300020217896</v>
       </c>
       <c r="G1756" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51832,7 +51835,7 @@
         <v>5.15299987792969</v>
       </c>
       <c r="G1757" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51858,7 +51861,7 @@
         <v>5.15500020980835</v>
       </c>
       <c r="G1758" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51884,7 +51887,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G1759" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51910,7 +51913,7 @@
         <v>5.10599994659424</v>
       </c>
       <c r="G1760" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51936,7 +51939,7 @@
         <v>5.13399982452393</v>
       </c>
       <c r="G1761" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51962,7 +51965,7 @@
         <v>5.25</v>
       </c>
       <c r="G1762" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51988,7 +51991,7 @@
         <v>5.26700019836426</v>
       </c>
       <c r="G1763" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -52014,7 +52017,7 @@
         <v>5.27799987792969</v>
       </c>
       <c r="G1764" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -52040,7 +52043,7 @@
         <v>5.20599985122681</v>
       </c>
       <c r="G1765" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -52066,7 +52069,7 @@
         <v>5.22399997711182</v>
       </c>
       <c r="G1766" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -52092,7 +52095,7 @@
         <v>5.17399978637695</v>
       </c>
       <c r="G1767" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -52118,7 +52121,7 @@
         <v>5.22200012207031</v>
       </c>
       <c r="G1768" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -52144,7 +52147,7 @@
         <v>5.19799995422363</v>
       </c>
       <c r="G1769" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -52170,7 +52173,7 @@
         <v>5.2480001449585</v>
       </c>
       <c r="G1770" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -52196,7 +52199,7 @@
         <v>5.2519998550415</v>
       </c>
       <c r="G1771" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -52222,7 +52225,7 @@
         <v>5.05499982833862</v>
       </c>
       <c r="G1772" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -52248,7 +52251,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1773" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -52274,7 +52277,7 @@
         <v>5.0460000038147</v>
       </c>
       <c r="G1774" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -52300,7 +52303,7 @@
         <v>5.04699993133545</v>
       </c>
       <c r="G1775" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -52326,7 +52329,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G1776" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -52352,7 +52355,7 @@
         <v>5.07399988174438</v>
       </c>
       <c r="G1777" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -52378,7 +52381,7 @@
         <v>5.10099983215332</v>
       </c>
       <c r="G1778" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -52404,7 +52407,7 @@
         <v>5.07800006866455</v>
       </c>
       <c r="G1779" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -52430,7 +52433,7 @@
         <v>5.04899978637695</v>
       </c>
       <c r="G1780" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -52456,7 +52459,7 @@
         <v>5.10099983215332</v>
       </c>
       <c r="G1781" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -52482,7 +52485,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G1782" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -52508,7 +52511,7 @@
         <v>5.1710000038147</v>
       </c>
       <c r="G1783" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52534,7 +52537,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1784" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52560,7 +52563,7 @@
         <v>5.48699998855591</v>
       </c>
       <c r="G1785" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52586,7 +52589,7 @@
         <v>5.47800016403198</v>
       </c>
       <c r="G1786" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52612,7 +52615,7 @@
         <v>5.60099983215332</v>
       </c>
       <c r="G1787" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52638,7 +52641,7 @@
         <v>5.59899997711182</v>
       </c>
       <c r="G1788" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52664,7 +52667,7 @@
         <v>5.53599977493286</v>
       </c>
       <c r="G1789" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52690,7 +52693,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1790" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52716,7 +52719,7 @@
         <v>5.70699977874756</v>
       </c>
       <c r="G1791" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52742,7 +52745,7 @@
         <v>5.72800016403198</v>
       </c>
       <c r="G1792" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52768,7 +52771,7 @@
         <v>5.80800008773804</v>
       </c>
       <c r="G1793" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52794,7 +52797,7 @@
         <v>5.76000022888184</v>
       </c>
       <c r="G1794" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52820,7 +52823,7 @@
         <v>5.76399993896484</v>
       </c>
       <c r="G1795" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52846,7 +52849,7 @@
         <v>5.65700006484985</v>
       </c>
       <c r="G1796" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52872,7 +52875,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52898,7 +52901,7 @@
         <v>5.46600008010864</v>
       </c>
       <c r="G1798" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52924,7 +52927,7 @@
         <v>5.49599981307983</v>
       </c>
       <c r="G1799" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52950,7 +52953,7 @@
         <v>5.47800016403198</v>
       </c>
       <c r="G1800" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52976,7 +52979,7 @@
         <v>5.48299980163574</v>
       </c>
       <c r="G1801" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -53002,7 +53005,7 @@
         <v>5.4850001335144</v>
       </c>
       <c r="G1802" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -53028,7 +53031,7 @@
         <v>5.43300008773804</v>
       </c>
       <c r="G1803" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -53054,7 +53057,7 @@
         <v>5.39099979400635</v>
       </c>
       <c r="G1804" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -53080,7 +53083,7 @@
         <v>5.27299976348877</v>
       </c>
       <c r="G1805" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -53106,7 +53109,7 @@
         <v>5.38199996948242</v>
       </c>
       <c r="G1806" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -53132,7 +53135,7 @@
         <v>5.36199998855591</v>
       </c>
       <c r="G1807" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -53158,7 +53161,7 @@
         <v>5.37900018692017</v>
       </c>
       <c r="G1808" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -53184,7 +53187,7 @@
         <v>5.35900020599365</v>
       </c>
       <c r="G1809" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -53210,7 +53213,7 @@
         <v>5.34600019454956</v>
       </c>
       <c r="G1810" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -53236,7 +53239,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1811" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -53262,7 +53265,7 @@
         <v>5.41099977493286</v>
       </c>
       <c r="G1812" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -53288,7 +53291,7 @@
         <v>5.40299987792969</v>
       </c>
       <c r="G1813" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -53314,7 +53317,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G1814" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -53340,7 +53343,7 @@
         <v>5.38700008392334</v>
       </c>
       <c r="G1815" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -53366,7 +53369,7 @@
         <v>5.37400007247925</v>
       </c>
       <c r="G1816" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -53392,7 +53395,7 @@
         <v>5.35300016403198</v>
       </c>
       <c r="G1817" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -53418,7 +53421,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1818" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -53444,7 +53447,7 @@
         <v>5.31500005722046</v>
       </c>
       <c r="G1819" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -53470,7 +53473,7 @@
         <v>5.23899984359741</v>
       </c>
       <c r="G1820" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -53496,7 +53499,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1821" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -53522,7 +53525,7 @@
         <v>5.23400020599365</v>
       </c>
       <c r="G1822" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53548,7 +53551,7 @@
         <v>5.30600023269653</v>
       </c>
       <c r="G1823" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53574,7 +53577,7 @@
         <v>5.31699991226196</v>
       </c>
       <c r="G1824" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53600,7 +53603,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1825" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53626,7 +53629,7 @@
         <v>5.2649998664856</v>
       </c>
       <c r="G1826" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53652,7 +53655,7 @@
         <v>5.30100011825562</v>
       </c>
       <c r="G1827" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53678,7 +53681,7 @@
         <v>5.33400011062622</v>
       </c>
       <c r="G1828" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53704,7 +53707,7 @@
         <v>5.29500007629395</v>
       </c>
       <c r="G1829" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53730,7 +53733,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1830" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53756,7 +53759,7 @@
         <v>5.31899976730347</v>
       </c>
       <c r="G1831" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53782,7 +53785,7 @@
         <v>5.32600021362305</v>
       </c>
       <c r="G1832" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53808,7 +53811,7 @@
         <v>5.22700023651123</v>
       </c>
       <c r="G1833" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53834,7 +53837,7 @@
         <v>5.36399984359741</v>
       </c>
       <c r="G1834" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53860,7 +53863,7 @@
         <v>5.24599981307983</v>
       </c>
       <c r="G1835" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53886,7 +53889,7 @@
         <v>5.2960000038147</v>
       </c>
       <c r="G1836" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53912,7 +53915,7 @@
         <v>5.28700017929077</v>
       </c>
       <c r="G1837" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53938,7 +53941,7 @@
         <v>5.38800001144409</v>
       </c>
       <c r="G1838" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53964,7 +53967,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1839" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53990,7 +53993,7 @@
         <v>5.50400018692017</v>
       </c>
       <c r="G1840" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -54016,7 +54019,7 @@
         <v>5.50699996948242</v>
       </c>
       <c r="G1841" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -54042,7 +54045,7 @@
         <v>5.39200019836426</v>
       </c>
       <c r="G1842" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -54068,7 +54071,7 @@
         <v>5.46400022506714</v>
       </c>
       <c r="G1843" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -54094,7 +54097,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>1649</v>
+        <v>1603</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -62084,7 +62087,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6495138889</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>41216144</v>
@@ -62105,6 +62108,32 @@
         <v>1934</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6495486111</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>18346758</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>6.38199996948242</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>6.25400018692017</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>6.38000011444092</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>6.31899976730347</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1937">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4614372253418</t>
+    <t xml:space="preserve">2.46143746376038</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50832176208496</t>
+    <t xml:space="preserve">2.50832223892212</t>
   </si>
   <si>
     <t xml:space="preserve">2.44580936431885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45622849464417</t>
+    <t xml:space="preserve">2.45622825622559</t>
   </si>
   <si>
     <t xml:space="preserve">2.43669271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.439297914505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236733436584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883274078369</t>
+    <t xml:space="preserve">2.43929719924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236709594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883297920227</t>
   </si>
   <si>
     <t xml:space="preserve">2.43408799171448</t>
@@ -71,70 +71,70 @@
     <t xml:space="preserve">2.389808177948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34683060646057</t>
+    <t xml:space="preserve">2.34683084487915</t>
   </si>
   <si>
     <t xml:space="preserve">2.37418007850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30255055427551</t>
+    <t xml:space="preserve">2.30255103111267</t>
   </si>
   <si>
     <t xml:space="preserve">2.37678503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42757606506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41455340385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44841432571411</t>
+    <t xml:space="preserve">2.42757654190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41455245018005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44841361045837</t>
   </si>
   <si>
     <t xml:space="preserve">2.47836780548096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39111042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45362329483032</t>
+    <t xml:space="preserve">2.39111089706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45362377166748</t>
   </si>
   <si>
     <t xml:space="preserve">2.44711184501648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41064620018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36245918273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30906295776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27780675888062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27520203590393</t>
+    <t xml:space="preserve">2.4106457233429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36245894432068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30906271934509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27780628204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27520179748535</t>
   </si>
   <si>
     <t xml:space="preserve">2.29603958129883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21268916130066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30385375022888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38199424743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36636638641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37287735939026</t>
+    <t xml:space="preserve">2.2126886844635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3038535118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38199377059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.366366147995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37287759780884</t>
   </si>
   <si>
     <t xml:space="preserve">2.35724949836731</t>
@@ -143,37 +143,37 @@
     <t xml:space="preserve">2.3689706325531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30515575408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3989245891571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41194820404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43539023399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41845989227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38459897041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39371538162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46664690971375</t>
+    <t xml:space="preserve">2.30515551567078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39892482757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41194772720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43539047241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41845965385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38459873199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39371562004089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46664667129517</t>
   </si>
   <si>
     <t xml:space="preserve">2.47967028617859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54739236831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5395781993866</t>
+    <t xml:space="preserve">2.54739284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53957843780518</t>
   </si>
   <si>
     <t xml:space="preserve">2.53306698799133</t>
@@ -182,100 +182,100 @@
     <t xml:space="preserve">2.53697323799133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55911374092102</t>
+    <t xml:space="preserve">2.55911350250244</t>
   </si>
   <si>
     <t xml:space="preserve">2.54999709129333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55260157585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54348540306091</t>
+    <t xml:space="preserve">2.55260181427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54348516464233</t>
   </si>
   <si>
     <t xml:space="preserve">2.53176426887512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5460901260376</t>
+    <t xml:space="preserve">2.54608988761902</t>
   </si>
   <si>
     <t xml:space="preserve">2.58646273612976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60469579696655</t>
+    <t xml:space="preserve">2.60469555854797</t>
   </si>
   <si>
     <t xml:space="preserve">2.53827571868896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52525234222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50180983543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42887926101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38329648971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44971585273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4601354598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44190239906311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48878693580627</t>
+    <t xml:space="preserve">2.5252525806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50181031227112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42887878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38329720497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44971609115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46013522148132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44190216064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4887866973877</t>
   </si>
   <si>
     <t xml:space="preserve">2.49920558929443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55650925636292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52655506134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427666664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63985919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57734656333923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5760440826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56302046775818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54088091850281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860300064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61511421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57213711738586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5890679359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56562566757202</t>
+    <t xml:space="preserve">2.55650877952576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52655529975891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427714347839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6398594379425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57734680175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57604384422302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5630202293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54088068008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516049385071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860276222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61511445045471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57213687896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58906769752502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56562495231628</t>
   </si>
   <si>
     <t xml:space="preserve">2.59818410873413</t>
@@ -284,61 +284,61 @@
     <t xml:space="preserve">2.57474184036255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64506864547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65288257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67372035980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66851091384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6815345287323</t>
+    <t xml:space="preserve">2.64506816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65288281440735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67371988296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66851043701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68153429031372</t>
   </si>
   <si>
     <t xml:space="preserve">2.62944030761719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63855648040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641693115234</t>
+    <t xml:space="preserve">2.63855671882629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641669273376</t>
   </si>
   <si>
     <t xml:space="preserve">2.67892932891846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68674349784851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68413877487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59297490119934</t>
+    <t xml:space="preserve">2.68674373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68413925170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59297466278076</t>
   </si>
   <si>
     <t xml:space="preserve">2.55129933357239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50701975822449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61771941184998</t>
+    <t xml:space="preserve">2.50701928138733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61771893501282</t>
   </si>
   <si>
     <t xml:space="preserve">2.68282318115234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68960452079773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64891481399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401882171631</t>
+    <t xml:space="preserve">2.68960475921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6489143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401858329773</t>
   </si>
   <si>
     <t xml:space="preserve">2.44139623641968</t>
@@ -350,25 +350,25 @@
     <t xml:space="preserve">2.53769564628601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64484572410583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69909906387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69638681411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70045566558838</t>
+    <t xml:space="preserve">2.64484643936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69909882545471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69638657569885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7004554271698</t>
   </si>
   <si>
     <t xml:space="preserve">2.63263893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61500668525696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66519093513489</t>
+    <t xml:space="preserve">2.61500644683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66519069671631</t>
   </si>
   <si>
     <t xml:space="preserve">2.68417954444885</t>
@@ -380,31 +380,31 @@
     <t xml:space="preserve">2.70723724365234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70994997024536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69231772422791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72893834114075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73165082931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7248694896698</t>
+    <t xml:space="preserve">2.70994973182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69231796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72893857955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73165059089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72486925125122</t>
   </si>
   <si>
     <t xml:space="preserve">2.72080039978027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79268622398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77912282943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74250149726868</t>
+    <t xml:space="preserve">2.79268598556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77912259101868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74250197410583</t>
   </si>
   <si>
     <t xml:space="preserve">2.73029470443726</t>
@@ -413,13 +413,13 @@
     <t xml:space="preserve">2.74114513397217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77640986442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76284670829773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75470876693726</t>
+    <t xml:space="preserve">2.77641010284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76284694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75470900535583</t>
   </si>
   <si>
     <t xml:space="preserve">2.74928331375122</t>
@@ -428,40 +428,40 @@
     <t xml:space="preserve">2.78726077079773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7831916809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71808791160583</t>
+    <t xml:space="preserve">2.78319191932678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71808743476868</t>
   </si>
   <si>
     <t xml:space="preserve">2.66790366172791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67061614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63806462287903</t>
+    <t xml:space="preserve">2.67061638832092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63806414604187</t>
   </si>
   <si>
     <t xml:space="preserve">2.64348936080933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67197275161743</t>
+    <t xml:space="preserve">2.67197251319885</t>
   </si>
   <si>
     <t xml:space="preserve">2.6733283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68011093139648</t>
+    <t xml:space="preserve">2.68011021614075</t>
   </si>
   <si>
     <t xml:space="preserve">2.69774270057678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65569639205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67604160308838</t>
+    <t xml:space="preserve">2.65569615364075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67604112625122</t>
   </si>
   <si>
     <t xml:space="preserve">2.73707628250122</t>
@@ -470,91 +470,91 @@
     <t xml:space="preserve">2.73978877067566</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72622585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80082392692566</t>
+    <t xml:space="preserve">2.72622561454773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80082416534424</t>
   </si>
   <si>
     <t xml:space="preserve">2.78454804420471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74657082557678</t>
+    <t xml:space="preserve">2.7465705871582</t>
   </si>
   <si>
     <t xml:space="preserve">2.69096112251282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65298390388489</t>
+    <t xml:space="preserve">2.65298438072205</t>
   </si>
   <si>
     <t xml:space="preserve">2.65705275535583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63128280639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66247868537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65162754058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69367361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65976524353027</t>
+    <t xml:space="preserve">2.63128256797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66247820854187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6516273021698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69367384910583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65976548194885</t>
   </si>
   <si>
     <t xml:space="preserve">2.66383457183838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69503021240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65434002876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61093759536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59601831436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55804109573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59737420082092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57296013832092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261492729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59059238433838</t>
+    <t xml:space="preserve">2.69502997398376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65434050559998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61093735694885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59601759910583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55804038047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59737467765808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5729603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261540412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144352912903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59059262275696</t>
   </si>
   <si>
     <t xml:space="preserve">2.68146681785583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65027141571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67468476295471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65840888023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60822486877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60008668899536</t>
+    <t xml:space="preserve">2.65027117729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67468523979187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65840935707092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60822463035583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60008692741394</t>
   </si>
   <si>
     <t xml:space="preserve">2.58923625946045</t>
@@ -563,22 +563,22 @@
     <t xml:space="preserve">2.60415601730347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314486503601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5607533454895</t>
+    <t xml:space="preserve">2.62314462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56075310707092</t>
   </si>
   <si>
     <t xml:space="preserve">2.47259163856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46852254867554</t>
+    <t xml:space="preserve">2.4685230255127</t>
   </si>
   <si>
     <t xml:space="preserve">2.44682145118713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47530460357666</t>
+    <t xml:space="preserve">2.47530436515808</t>
   </si>
   <si>
     <t xml:space="preserve">2.47666072845459</t>
@@ -587,16 +587,16 @@
     <t xml:space="preserve">2.51192545890808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45224642753601</t>
+    <t xml:space="preserve">2.45224666595459</t>
   </si>
   <si>
     <t xml:space="preserve">2.47394824028015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55125856399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53905200958252</t>
+    <t xml:space="preserve">2.55125880241394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5390522480011</t>
   </si>
   <si>
     <t xml:space="preserve">2.52820110321045</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">2.57024741172791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58652329444885</t>
+    <t xml:space="preserve">2.58652377128601</t>
   </si>
   <si>
     <t xml:space="preserve">2.56753492355347</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">2.77234077453613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76555919647217</t>
+    <t xml:space="preserve">2.76555895805359</t>
   </si>
   <si>
     <t xml:space="preserve">2.72758197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75063991546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404211044312</t>
+    <t xml:space="preserve">2.75063943862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404187202454</t>
   </si>
   <si>
     <t xml:space="preserve">2.82252526283264</t>
@@ -635,73 +635,73 @@
     <t xml:space="preserve">2.80489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8198127746582</t>
+    <t xml:space="preserve">2.81981253623962</t>
   </si>
   <si>
     <t xml:space="preserve">2.8401575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86321520805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659411430359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066320419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83473205566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81574392318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79539847373962</t>
+    <t xml:space="preserve">2.86321473121643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659435272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066344261169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473229408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81574368476868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79539823532104</t>
   </si>
   <si>
     <t xml:space="preserve">2.80218052864075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82388162612915</t>
+    <t xml:space="preserve">2.82388210296631</t>
   </si>
   <si>
     <t xml:space="preserve">2.81031847000122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8130304813385</t>
+    <t xml:space="preserve">2.81303071975708</t>
   </si>
   <si>
     <t xml:space="preserve">2.80760526657104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83117532730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82563018798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78126239776611</t>
+    <t xml:space="preserve">2.83117604255676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8256299495697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78126311302185</t>
   </si>
   <si>
     <t xml:space="preserve">2.76046562194824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7271900177002</t>
+    <t xml:space="preserve">2.72719025611877</t>
   </si>
   <si>
     <t xml:space="preserve">2.66895818710327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67866396903992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68005013465881</t>
+    <t xml:space="preserve">2.67866373062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68005061149597</t>
   </si>
   <si>
     <t xml:space="preserve">2.69391465187073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71471214294434</t>
+    <t xml:space="preserve">2.71471190452576</t>
   </si>
   <si>
     <t xml:space="preserve">2.66202592849731</t>
@@ -716,19 +716,19 @@
     <t xml:space="preserve">2.80621910095215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79512763023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78680872917175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74382781982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7854220867157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80067348480225</t>
+    <t xml:space="preserve">2.79512715339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78680801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74382758140564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78542184829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80067324638367</t>
   </si>
   <si>
     <t xml:space="preserve">2.77433013916016</t>
@@ -737,298 +737,298 @@
     <t xml:space="preserve">2.77987623214722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75491952896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77294373512268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81453776359558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80899214744568</t>
+    <t xml:space="preserve">2.7549192905426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77294397354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.814537525177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80899167060852</t>
   </si>
   <si>
     <t xml:space="preserve">2.83672142028809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86029124259949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86445116996765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86999654769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89079403877258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9032723903656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89772582054138</t>
+    <t xml:space="preserve">2.86029148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86445069313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86999702453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.890793800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90327215194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89772605895996</t>
   </si>
   <si>
     <t xml:space="preserve">2.89911293983459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88247513771057</t>
+    <t xml:space="preserve">2.88247489929199</t>
   </si>
   <si>
     <t xml:space="preserve">2.9462525844574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91852307319641</t>
+    <t xml:space="preserve">2.91852331161499</t>
   </si>
   <si>
     <t xml:space="preserve">2.90465879440308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92545557022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98230075836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97259593009949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98784685134888</t>
+    <t xml:space="preserve">2.92545533180237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9823009967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97259640693665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9878466129303</t>
   </si>
   <si>
     <t xml:space="preserve">3.00864410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0169632434845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02805471420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994319915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0585572719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05301141738892</t>
+    <t xml:space="preserve">3.01696300506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0280544757843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994367599487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05855655670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05301117897034</t>
   </si>
   <si>
     <t xml:space="preserve">3.03914642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05023813247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01834964752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03637337684631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498673439026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032544136047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94070744514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091506958008</t>
+    <t xml:space="preserve">3.05023789405823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01834917068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03637361526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032496452332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94070720672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98091435432434</t>
   </si>
   <si>
     <t xml:space="preserve">3.0862865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07103490829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05578422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04885125160217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02528166770935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06687521934509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380843162537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14313173294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363429069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16670203208923</t>
+    <t xml:space="preserve">3.07103562355042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05578398704529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04885149002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02528142929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06687617301941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380819320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14313149452209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16670155525208</t>
   </si>
   <si>
     <t xml:space="preserve">3.15422344207764</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16808867454529</t>
+    <t xml:space="preserve">3.16808819770813</t>
   </si>
   <si>
     <t xml:space="preserve">3.16254234313965</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16531538963318</t>
+    <t xml:space="preserve">3.16531562805176</t>
   </si>
   <si>
     <t xml:space="preserve">3.16947484016418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24573111534119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20829582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522855758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24711751937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27900624275208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30673551559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307790756226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25820899009705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2776198387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29841613769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31505465507507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26791453361511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3136682510376</t>
+    <t xml:space="preserve">3.24573087692261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20829558372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522784233093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2471170425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900576591492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782698631287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593802452087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3067352771759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307862281799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2582094669342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27761936187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29841661453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31505346298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26791429519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31366777420044</t>
   </si>
   <si>
     <t xml:space="preserve">3.3247594833374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42597222328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39546990394592</t>
+    <t xml:space="preserve">3.42597126960754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39546942710876</t>
   </si>
   <si>
     <t xml:space="preserve">3.35803508758545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3621940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496663093567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37189936637878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41903972625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3913106918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45231485366821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41488027572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43151760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32753252983093</t>
+    <t xml:space="preserve">3.36219477653503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496710777283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37189865112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072106361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41903948783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3913094997406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45231533050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41488003730774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43151783943176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32753276824951</t>
   </si>
   <si>
     <t xml:space="preserve">3.3552622795105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28732466697693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404953956604</t>
+    <t xml:space="preserve">3.28732514381409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404977798462</t>
   </si>
   <si>
     <t xml:space="preserve">3.2998034954071</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28871130943298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25127696990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27207446098328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3261456489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32060098648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37744545936584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44676923751831</t>
+    <t xml:space="preserve">3.28871154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25127673149109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2720730304718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32614588737488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3206000328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37744522094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44677019119263</t>
   </si>
   <si>
     <t xml:space="preserve">3.44538259506226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41210699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4384503364563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4426097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40378785133362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43203616142273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38825249671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43062305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45322108268738</t>
+    <t xml:space="preserve">3.41210722923279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43845057487488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260954856873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4037880897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43203568458557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38825225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43062329292297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45322155952454</t>
   </si>
   <si>
     <t xml:space="preserve">3.39955115318298</t>
@@ -1037,28 +1037,28 @@
     <t xml:space="preserve">3.40661311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4518084526062</t>
+    <t xml:space="preserve">3.45180821418762</t>
   </si>
   <si>
     <t xml:space="preserve">3.44615888595581</t>
   </si>
   <si>
-    <t xml:space="preserve">3.488529920578</t>
+    <t xml:space="preserve">3.48853087425232</t>
   </si>
   <si>
     <t xml:space="preserve">3.51960229873657</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51818990707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796219825745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.512540102005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47723054885864</t>
+    <t xml:space="preserve">3.51818943023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53796339035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51253986358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47723078727722</t>
   </si>
   <si>
     <t xml:space="preserve">3.55208659172058</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">3.58033323287964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55914783477783</t>
+    <t xml:space="preserve">3.55914759635925</t>
   </si>
   <si>
     <t xml:space="preserve">3.51677751541138</t>
@@ -1079,40 +1079,40 @@
     <t xml:space="preserve">3.58739495277405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59798741340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092617034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62976598739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60858106613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211180686951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63329648971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66507577896118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65448236465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391488075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860604286194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388966560364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60504937171936</t>
+    <t xml:space="preserve">3.59798789024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59092569351196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62976574897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60858035087585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211156845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63329672813416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66507482528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65448260307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66860628128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6438889503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60504984855652</t>
   </si>
   <si>
     <t xml:space="preserve">3.63682794570923</t>
@@ -1121,28 +1121,28 @@
     <t xml:space="preserve">3.61564207077026</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6191737651825</t>
+    <t xml:space="preserve">3.61917304992676</t>
   </si>
   <si>
     <t xml:space="preserve">3.60151839256287</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56620955467224</t>
+    <t xml:space="preserve">3.5662100315094</t>
   </si>
   <si>
     <t xml:space="preserve">3.50689053535461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56267881393433</t>
+    <t xml:space="preserve">3.56267857551575</t>
   </si>
   <si>
     <t xml:space="preserve">3.58386397361755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64742088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095090866089</t>
+    <t xml:space="preserve">3.64742064476013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095138549805</t>
   </si>
   <si>
     <t xml:space="preserve">3.66154408454895</t>
@@ -1151,91 +1151,91 @@
     <t xml:space="preserve">3.6403591632843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65801286697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68626022338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73569321632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73216199874878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7568781375885</t>
+    <t xml:space="preserve">3.65801239013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626046180725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73569369316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73216152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75687861442566</t>
   </si>
   <si>
     <t xml:space="preserve">3.76040959358215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80278062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78865671157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79571771621704</t>
+    <t xml:space="preserve">3.80278086662292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78865694999695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7957181930542</t>
   </si>
   <si>
     <t xml:space="preserve">3.80631136894226</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8098418712616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512620925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747179031372</t>
+    <t xml:space="preserve">3.80984163284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512644767761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747059822083</t>
   </si>
   <si>
     <t xml:space="preserve">3.72510075569153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71097683906555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71803855895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73922443389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272995948792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979167938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981713294983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78159475326538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633634567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221362113953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218673706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86280536651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90164542198181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91929960250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94048523902893</t>
+    <t xml:space="preserve">3.71097731590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803832054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73922395706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68272948265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68979120254517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981737136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7815945148468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690382957458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633586883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221314430237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218792915344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86280512809753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90164566040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91929936408997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94048571586609</t>
   </si>
   <si>
     <t xml:space="preserve">3.89105224609375</t>
@@ -1244,43 +1244,43 @@
     <t xml:space="preserve">3.83102750778198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85574412345886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334787368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70038437843323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62270474433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7710018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275493621826</t>
+    <t xml:space="preserve">3.8557436466217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75334811210632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70038342475891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62270402908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77100253105164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275469779968</t>
   </si>
   <si>
     <t xml:space="preserve">3.79190707206726</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77390217781067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068881034851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71628475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69035720825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6500256061554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027472496033</t>
+    <t xml:space="preserve">3.77390122413635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068809509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71628379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69035744667053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65002512931824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027424812317</t>
   </si>
   <si>
     <t xml:space="preserve">3.64858484268188</t>
@@ -1292,175 +1292,175 @@
     <t xml:space="preserve">3.53551197052002</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43468284606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030468940735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40083312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33745408058167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37634515762329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35185837745667</t>
+    <t xml:space="preserve">3.43468260765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030445098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40083289146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33745455741882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37634587287903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185885429382</t>
   </si>
   <si>
     <t xml:space="preserve">3.44260478019714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45124793052673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022220611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116449356079</t>
+    <t xml:space="preserve">3.451247215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022196769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116473197937</t>
   </si>
   <si>
     <t xml:space="preserve">3.43540287017822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38498830795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48221635818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47573471069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48365688323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188404083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964124679565</t>
+    <t xml:space="preserve">3.38498878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48221731185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47573494911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48365616798401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44188451766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964148521423</t>
   </si>
   <si>
     <t xml:space="preserve">3.35401916503906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3857090473175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40587449073792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44044423103333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581719398499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48293662071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077630996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742411613464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49301934242249</t>
+    <t xml:space="preserve">3.38570857048035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40587425231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44044494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581767082214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48293685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742363929749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49301981925964</t>
   </si>
   <si>
     <t xml:space="preserve">3.51750683784485</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55063652992249</t>
+    <t xml:space="preserve">3.55063605308533</t>
   </si>
   <si>
     <t xml:space="preserve">3.51174545288086</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4541277885437</t>
+    <t xml:space="preserve">3.45412826538086</t>
   </si>
   <si>
     <t xml:space="preserve">3.49374008178711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44692587852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45484828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58304524421692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56864213943481</t>
+    <t xml:space="preserve">3.44692611694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45484852790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58304619789124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56864190101624</t>
   </si>
   <si>
     <t xml:space="preserve">3.57440328598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63706159591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418078422546</t>
+    <t xml:space="preserve">3.63706207275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418054580688</t>
   </si>
   <si>
     <t xml:space="preserve">3.66154885292053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65578746795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6457040309906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68171453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315529823303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221205711365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933100700378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348642349243</t>
+    <t xml:space="preserve">3.65578770637512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64570450782776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68171501159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315505981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221253395081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933124542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348666191101</t>
   </si>
   <si>
     <t xml:space="preserve">3.74653363227844</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73357009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830695152283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110337257385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79406833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592223167419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83151817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87905311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049268722534</t>
+    <t xml:space="preserve">3.73356986045837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830647468567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110408782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406809806824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592294692993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83151888847351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87905216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88049292564392</t>
   </si>
   <si>
     <t xml:space="preserve">3.78398466110229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65434694290161</t>
+    <t xml:space="preserve">3.65434646606445</t>
   </si>
   <si>
     <t xml:space="preserve">3.65146589279175</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">3.67883396148682</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7004406452179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56288051605225</t>
+    <t xml:space="preserve">3.70043969154358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56287956237793</t>
   </si>
   <si>
     <t xml:space="preserve">3.58880710601807</t>
@@ -1481,49 +1481,49 @@
     <t xml:space="preserve">3.52758955955505</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52831029891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51606631278992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51246571540833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49950194358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955876350403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39363074302673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31080675125122</t>
+    <t xml:space="preserve">3.52830982208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51606607437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51246547698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49950170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955804824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39363050460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3108069896698</t>
   </si>
   <si>
     <t xml:space="preserve">3.42243909835815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38714909553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40947556495667</t>
+    <t xml:space="preserve">3.3871488571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40947580337524</t>
   </si>
   <si>
     <t xml:space="preserve">3.44764637947083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38426828384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37130451202393</t>
+    <t xml:space="preserve">3.38426780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37130379676819</t>
   </si>
   <si>
     <t xml:space="preserve">3.30864524841309</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42820119857788</t>
+    <t xml:space="preserve">3.4282009601593</t>
   </si>
   <si>
     <t xml:space="preserve">3.44332528114319</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">3.50886416435242</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48149657249451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47933530807495</t>
+    <t xml:space="preserve">3.48149633407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47933506965637</t>
   </si>
   <si>
     <t xml:space="preserve">3.47429418563843</t>
@@ -1547,79 +1547,79 @@
     <t xml:space="preserve">3.39435076713562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41811776161194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37202501296997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39795207977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43684244155884</t>
+    <t xml:space="preserve">3.4181182384491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37202429771423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39795184135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43684315681458</t>
   </si>
   <si>
     <t xml:space="preserve">3.41451692581177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42604064941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41667699813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47213363647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45988965034485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590015411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51822686195374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49518060684204</t>
+    <t xml:space="preserve">3.4260401725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41667747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47213315963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45989036560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590039253235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51822733879089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49518013000488</t>
   </si>
   <si>
     <t xml:space="preserve">3.49013900756836</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46493172645569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49085879325867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51462554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53263139724731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53119087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5333514213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49856615066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47192168235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45119786262512</t>
+    <t xml:space="preserve">3.46493101119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310158729553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49085927009583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51462578773499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53263163566589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53119039535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53335189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4985659122467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47192120552063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4511981010437</t>
   </si>
   <si>
     <t xml:space="preserve">3.46229934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49042463302612</t>
+    <t xml:space="preserve">3.49042391777039</t>
   </si>
   <si>
     <t xml:space="preserve">3.48080325126648</t>
@@ -1628,28 +1628,28 @@
     <t xml:space="preserve">3.5303909778595</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39346742630005</t>
+    <t xml:space="preserve">3.39346790313721</t>
   </si>
   <si>
     <t xml:space="preserve">3.32685708999634</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34980010986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35054111480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420819282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39272809028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37718558311462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761408805847</t>
+    <t xml:space="preserve">3.34980082511902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35054159164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3942084312439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3927276134491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37718534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761361122131</t>
   </si>
   <si>
     <t xml:space="preserve">3.29059100151062</t>
@@ -1658,25 +1658,25 @@
     <t xml:space="preserve">3.31427502632141</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27948904037476</t>
+    <t xml:space="preserve">3.27948927879333</t>
   </si>
   <si>
     <t xml:space="preserve">3.27504849433899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26394605636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2987322807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28467035293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24692392349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26024580001831</t>
+    <t xml:space="preserve">3.26394629478455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29873251914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28466963768005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24692344665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26024603843689</t>
   </si>
   <si>
     <t xml:space="preserve">3.24766325950623</t>
@@ -1688,109 +1688,109 @@
     <t xml:space="preserve">3.23508143424988</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18919396400452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1529278755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14034557342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17587161064148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17513155937195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24026226997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25802516937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37496542930603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37348484992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34387969970703</t>
+    <t xml:space="preserve">3.18919372558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292811393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14034581184387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1758713722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17513179779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24026250839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25802540779114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37496471405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37348532676697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34387993812561</t>
   </si>
   <si>
     <t xml:space="preserve">3.37422442436218</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36682367324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34091925621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3660831451416</t>
+    <t xml:space="preserve">3.36682319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34091901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608338356018</t>
   </si>
   <si>
     <t xml:space="preserve">3.42899394035339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38236689567566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40382981300354</t>
+    <t xml:space="preserve">3.38236618041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40383005142212</t>
   </si>
   <si>
     <t xml:space="preserve">3.41271114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38976716995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542711257935</t>
+    <t xml:space="preserve">3.38976693153381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542615890503</t>
   </si>
   <si>
     <t xml:space="preserve">3.24322295188904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26320600509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34609961509705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30095314979553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27356743812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952221870422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878192901611</t>
+    <t xml:space="preserve">3.26320624351501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3461000919342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30095267295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27356791496277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952150344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878264427185</t>
   </si>
   <si>
     <t xml:space="preserve">3.21657848358154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17365097999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29651212692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26690673828125</t>
+    <t xml:space="preserve">3.17365169525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29651188850403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26690697669983</t>
   </si>
   <si>
     <t xml:space="preserve">3.22916030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27874851226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28392934799194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26468634605408</t>
+    <t xml:space="preserve">3.27874898910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28392958641052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26468658447266</t>
   </si>
   <si>
     <t xml:space="preserve">3.2417426109314</t>
@@ -1802,22 +1802,22 @@
     <t xml:space="preserve">3.20769715309143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24100303649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172614097595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986765861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30835366249084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797504425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32611680030823</t>
+    <t xml:space="preserve">3.24100279808044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172590255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986742019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30835390090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797480583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32611632347107</t>
   </si>
   <si>
     <t xml:space="preserve">3.29503154754639</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">3.33055734634399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37644481658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40308976173401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44823694229126</t>
+    <t xml:space="preserve">3.37644505500793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40309000015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823789596558</t>
   </si>
   <si>
     <t xml:space="preserve">3.4467568397522</t>
@@ -1841,187 +1841,187 @@
     <t xml:space="preserve">3.48228240013123</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51928973197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52595067024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53779196739197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52150917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54519391059875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56295657157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55111384391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57479882240295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5133683681488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410865783691</t>
+    <t xml:space="preserve">3.51928949356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52595019340515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53779292106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52150940895081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54519367218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56295680999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55111408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57479858398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51336812973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410794258118</t>
   </si>
   <si>
     <t xml:space="preserve">3.50966763496399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55777597427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6495509147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542167663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71394181251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71098136901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70950078964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239511489868</t>
+    <t xml:space="preserve">3.55777549743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64955139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71542191505432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7139413356781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7109808921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70950126647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239463806152</t>
   </si>
   <si>
     <t xml:space="preserve">3.81015777587891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83828330039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73614573478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73318529129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7627899646759</t>
+    <t xml:space="preserve">3.83828234672546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73614525794983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73318481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76279020309448</t>
   </si>
   <si>
     <t xml:space="preserve">3.76427006721497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81607913970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459784507751</t>
+    <t xml:space="preserve">3.81607866287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459879875183</t>
   </si>
   <si>
     <t xml:space="preserve">3.83088135719299</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8219997882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88565039634705</t>
+    <t xml:space="preserve">3.82200026512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88564991950989</t>
   </si>
   <si>
     <t xml:space="preserve">3.84864401817322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85604524612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86344623565674</t>
+    <t xml:space="preserve">3.85604548454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86344718933105</t>
   </si>
   <si>
     <t xml:space="preserve">3.86196637153625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87824940681458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92857694625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94226121902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9331386089325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90273141860962</t>
+    <t xml:space="preserve">3.87824845314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92857766151428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9422607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93313908576965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90273118019104</t>
   </si>
   <si>
     <t xml:space="preserve">3.93769884109497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94682145118713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92553663253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97874879837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00307369232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93009734153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94074082374573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121173858643</t>
+    <t xml:space="preserve">3.94682192802429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92553782463074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98483061790466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9787495136261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00307416915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93009781837463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94074034690857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.901211977005</t>
   </si>
   <si>
     <t xml:space="preserve">3.87840604782104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90729331970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95138311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96506643295288</t>
+    <t xml:space="preserve">3.90729260444641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95138359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96506667137146</t>
   </si>
   <si>
     <t xml:space="preserve">3.9620246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98026967048645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635125160217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266793251038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722840309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98787117004395</t>
+    <t xml:space="preserve">3.98026943206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9726676940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9878716468811</t>
   </si>
   <si>
     <t xml:space="preserve">4.01219701766968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0380425453186</t>
+    <t xml:space="preserve">4.03804206848145</t>
   </si>
   <si>
     <t xml:space="preserve">4.02892065048218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04412412643433</t>
+    <t xml:space="preserve">4.04412460327148</t>
   </si>
   <si>
     <t xml:space="preserve">4.03956365585327</t>
@@ -2030,10 +2030,10 @@
     <t xml:space="preserve">4.03196096420288</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05020475387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10341739654541</t>
+    <t xml:space="preserve">4.05020618438721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10341787338257</t>
   </si>
   <si>
     <t xml:space="preserve">4.18247604370117</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">4.16879320144653</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15054845809937</t>
+    <t xml:space="preserve">4.15054798126221</t>
   </si>
   <si>
     <t xml:space="preserve">4.17943477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17031288146973</t>
+    <t xml:space="preserve">4.17031335830688</t>
   </si>
   <si>
     <t xml:space="preserve">4.17183351516724</t>
@@ -2057,22 +2057,22 @@
     <t xml:space="preserve">4.15814971923828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19615888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21440315246582</t>
+    <t xml:space="preserve">4.19615840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21440362930298</t>
   </si>
   <si>
     <t xml:space="preserve">4.2417688369751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28281879425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27217626571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3345103263855</t>
+    <t xml:space="preserve">4.28281784057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27217578887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33451080322266</t>
   </si>
   <si>
     <t xml:space="preserve">4.34363317489624</t>
@@ -2084,46 +2084,46 @@
     <t xml:space="preserve">4.33603096008301</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30106210708618</t>
+    <t xml:space="preserve">4.30106258392334</t>
   </si>
   <si>
     <t xml:space="preserve">4.30334329605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33907175064087</t>
+    <t xml:space="preserve">4.33907127380371</t>
   </si>
   <si>
     <t xml:space="preserve">4.32918930053711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32842922210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31474542617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30258369445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28965997695923</t>
+    <t xml:space="preserve">4.32842874526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31474637985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30258274078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28966045379639</t>
   </si>
   <si>
     <t xml:space="preserve">4.26457452774048</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24252939224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16347217559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19691944122314</t>
+    <t xml:space="preserve">4.24252843856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16347169876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19691848754883</t>
   </si>
   <si>
     <t xml:space="preserve">4.19996023178101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19539833068848</t>
+    <t xml:space="preserve">4.19539880752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.18399620056152</t>
@@ -2132,76 +2132,76 @@
     <t xml:space="preserve">4.20984172821045</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24557018280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22124433517456</t>
+    <t xml:space="preserve">4.24557065963745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22124528884888</t>
   </si>
   <si>
     <t xml:space="preserve">4.28661918640137</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23948955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25317192077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22732591629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25849294662476</t>
+    <t xml:space="preserve">4.23948860168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25317144393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22732639312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25849342346191</t>
   </si>
   <si>
     <t xml:space="preserve">4.23872900009155</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21972465515137</t>
+    <t xml:space="preserve">4.21972417831421</t>
   </si>
   <si>
     <t xml:space="preserve">4.18627691268921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2379674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23720741271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24937105178833</t>
+    <t xml:space="preserve">4.23796939849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23720836639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24937057495117</t>
   </si>
   <si>
     <t xml:space="preserve">4.27901744842529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32538795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.386962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38012075424194</t>
+    <t xml:space="preserve">4.32538843154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38696193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3801212310791</t>
   </si>
   <si>
     <t xml:space="preserve">4.31778621673584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40064477920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22428512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23416757583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761531829834</t>
+    <t xml:space="preserve">4.40064573287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22428607940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23416709899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26761484146118</t>
   </si>
   <si>
     <t xml:space="preserve">4.3398323059082</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35275506973267</t>
+    <t xml:space="preserve">4.35275411605835</t>
   </si>
   <si>
     <t xml:space="preserve">4.4135684967041</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">4.4302921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44549560546875</t>
+    <t xml:space="preserve">4.44549512863159</t>
   </si>
   <si>
     <t xml:space="preserve">4.4774227142334</t>
@@ -2222,100 +2222,100 @@
     <t xml:space="preserve">4.55420017242432</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61425399780273</t>
+    <t xml:space="preserve">4.61425495147705</t>
   </si>
   <si>
     <t xml:space="preserve">4.62185621261597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74120283126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69027090072632</t>
+    <t xml:space="preserve">4.74120330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69027233123779</t>
   </si>
   <si>
     <t xml:space="preserve">4.70547533035278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73740148544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208141326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71383714675903</t>
+    <t xml:space="preserve">4.73740196228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208093643188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71383810043335</t>
   </si>
   <si>
     <t xml:space="preserve">4.61805438995361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62489700317383</t>
+    <t xml:space="preserve">4.62489748001099</t>
   </si>
   <si>
     <t xml:space="preserve">4.66746616363525</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65682363510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75868797302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87119340896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90083980560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86511135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87271308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87195348739624</t>
+    <t xml:space="preserve">4.65682411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75868701934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87119293212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90083932876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86511278152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87271356582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87195301055908</t>
   </si>
   <si>
     <t xml:space="preserve">4.8848762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90388107299805</t>
+    <t xml:space="preserve">4.94873142242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90388059616089</t>
   </si>
   <si>
     <t xml:space="preserve">4.93504810333252</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95101118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9859790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77997303009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87715768814087</t>
+    <t xml:space="preserve">4.95101165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77997207641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87715816497803</t>
   </si>
   <si>
     <t xml:space="preserve">4.87793588638306</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92147493362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85694360733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82817602157593</t>
+    <t xml:space="preserve">4.92147445678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85694313049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82817554473877</t>
   </si>
   <si>
     <t xml:space="preserve">4.85616540908813</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79629993438721</t>
+    <t xml:space="preserve">4.79629945755005</t>
   </si>
   <si>
     <t xml:space="preserve">4.81962394714355</t>
@@ -2324,19 +2324,19 @@
     <t xml:space="preserve">4.85150098800659</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81884622573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76131343841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77375268936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69289445877075</t>
+    <t xml:space="preserve">4.81884670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76131296157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908683776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77375221252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69289398193359</t>
   </si>
   <si>
     <t xml:space="preserve">4.7146635055542</t>
@@ -2360,25 +2360,25 @@
     <t xml:space="preserve">4.91214466094971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8857102394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83828401565552</t>
+    <t xml:space="preserve">4.88571071624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83828449249268</t>
   </si>
   <si>
     <t xml:space="preserve">5.05286979675293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05442380905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15627479553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1267294883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19359397888184</t>
+    <t xml:space="preserve">5.05442476272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15627431869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12672996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19359350204468</t>
   </si>
   <si>
     <t xml:space="preserve">5.19437170028687</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">5.23868846893311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18193197250366</t>
+    <t xml:space="preserve">5.18193101882935</t>
   </si>
   <si>
     <t xml:space="preserve">5.14694499969482</t>
@@ -2396,25 +2396,25 @@
     <t xml:space="preserve">5.08863353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0458722114563</t>
+    <t xml:space="preserve">5.04587173461914</t>
   </si>
   <si>
     <t xml:space="preserve">5.00855255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14150238037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12517547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03965187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06686449050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17026996612549</t>
+    <t xml:space="preserve">5.14150285720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12517595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0396523475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06686401367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17026948928833</t>
   </si>
   <si>
     <t xml:space="preserve">5.14305686950684</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">5.11273574829102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18659687042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26201295852661</t>
+    <t xml:space="preserve">5.18659639358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26201248168945</t>
   </si>
   <si>
     <t xml:space="preserve">5.23246812820435</t>
@@ -2435,61 +2435,61 @@
     <t xml:space="preserve">5.31177139282227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2760066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3265438079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30010843276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1850414276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16171741485596</t>
+    <t xml:space="preserve">5.27600717544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32654333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30010938644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18504190444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1617169380188</t>
   </si>
   <si>
     <t xml:space="preserve">5.25112771987915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32187843322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2651219367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29855346679688</t>
+    <t xml:space="preserve">5.3218789100647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26512289047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29855489730835</t>
   </si>
   <si>
     <t xml:space="preserve">5.26123523712158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28689193725586</t>
+    <t xml:space="preserve">5.28689241409302</t>
   </si>
   <si>
     <t xml:space="preserve">5.27056455612183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31643581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29077911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2635669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30866241455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24413061141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3280987739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909057617188</t>
+    <t xml:space="preserve">5.31643676757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29077959060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356792449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30866193771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24413013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32809829711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909105300903</t>
   </si>
   <si>
     <t xml:space="preserve">5.33665084838867</t>
@@ -2498,70 +2498,70 @@
     <t xml:space="preserve">5.34287071228027</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36697292327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39573955535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874197006226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41750955581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37241506576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36386299133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24957275390625</t>
+    <t xml:space="preserve">5.36697244644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3957405090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41750907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3724160194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36386394500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24957227706909</t>
   </si>
   <si>
     <t xml:space="preserve">5.33820629119873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33354091644287</t>
+    <t xml:space="preserve">5.33354187011719</t>
   </si>
   <si>
     <t xml:space="preserve">5.42917108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38796472549438</t>
+    <t xml:space="preserve">5.38796520233154</t>
   </si>
   <si>
     <t xml:space="preserve">5.3452033996582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33509588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36308479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31021690368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29000234603882</t>
+    <t xml:space="preserve">5.33509540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36308526992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31021642684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29000186920166</t>
   </si>
   <si>
     <t xml:space="preserve">5.26745462417603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24801778793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31799125671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3420934677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33043098449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528299331665</t>
+    <t xml:space="preserve">5.24801826477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31799173355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34209394454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33043146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528251647949</t>
   </si>
   <si>
     <t xml:space="preserve">5.19126176834106</t>
@@ -2570,16 +2570,16 @@
     <t xml:space="preserve">5.22702503204346</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23324632644653</t>
+    <t xml:space="preserve">5.23324537277222</t>
   </si>
   <si>
     <t xml:space="preserve">5.32265615463257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38407802581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45016431808472</t>
+    <t xml:space="preserve">5.38407754898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45016384124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.42839431762695</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">5.54968166351318</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49836778640747</t>
+    <t xml:space="preserve">5.49836730957031</t>
   </si>
   <si>
     <t xml:space="preserve">5.6072154045105</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">5.60643768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6181001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62121057510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65230894088745</t>
+    <t xml:space="preserve">5.61809968948364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6212100982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65230941772461</t>
   </si>
   <si>
     <t xml:space="preserve">5.67952156066895</t>
@@ -2624,28 +2624,28 @@
     <t xml:space="preserve">5.75338220596313</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76970911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91743135452271</t>
+    <t xml:space="preserve">5.76971006393433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91743183135986</t>
   </si>
   <si>
     <t xml:space="preserve">6.00606489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05687665939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0417914390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99097967147827</t>
+    <t xml:space="preserve">6.05687618255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04179191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99098062515259</t>
   </si>
   <si>
     <t xml:space="preserve">6.04973077774048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20772171020508</t>
+    <t xml:space="preserve">6.20772266387939</t>
   </si>
   <si>
     <t xml:space="preserve">6.09260225296021</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">6.35856819152832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42128992080688</t>
+    <t xml:space="preserve">6.42128896713257</t>
   </si>
   <si>
     <t xml:space="preserve">6.23630380630493</t>
@@ -2666,58 +2666,58 @@
     <t xml:space="preserve">6.32442998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3514232635498</t>
+    <t xml:space="preserve">6.35142374038696</t>
   </si>
   <si>
     <t xml:space="preserve">6.40699815750122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45463418960571</t>
+    <t xml:space="preserve">6.4546332359314</t>
   </si>
   <si>
     <t xml:space="preserve">6.4919490814209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51020908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50465106964111</t>
+    <t xml:space="preserve">6.51020860671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50465154647827</t>
   </si>
   <si>
     <t xml:space="preserve">6.45622205734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51576614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5713415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66423034667969</t>
+    <t xml:space="preserve">6.51576566696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134199142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.664231300354</t>
   </si>
   <si>
     <t xml:space="preserve">6.72218799591064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80078649520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69519329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70392799377441</t>
+    <t xml:space="preserve">6.8007869720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69519376754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70392751693726</t>
   </si>
   <si>
     <t xml:space="preserve">6.37524175643921</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19660711288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31569576263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28473329544067</t>
+    <t xml:space="preserve">6.19660806655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31569671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28473377227783</t>
   </si>
   <si>
     <t xml:space="preserve">6.01479816436768</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">6.18708086013794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54196643829346</t>
+    <t xml:space="preserve">6.54196548461914</t>
   </si>
   <si>
     <t xml:space="preserve">6.46654367446899</t>
@@ -2738,52 +2738,52 @@
     <t xml:space="preserve">6.26488542556763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64165210723877</t>
+    <t xml:space="preserve">5.64165163040161</t>
   </si>
   <si>
     <t xml:space="preserve">5.32249307632446</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14906787872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46108055114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3554892539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54126787185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67623567581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62860012054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6754412651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74133729934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01047897338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0017466545105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98507261276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88662576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002353668213</t>
+    <t xml:space="preserve">5.17640972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14906740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46108102798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35548877716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54126739501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67623519897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62859964370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67544174194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74133825302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01047849655151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00174617767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98507356643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88662624359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002401351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.0327091217041</t>
@@ -2795,16 +2795,16 @@
     <t xml:space="preserve">4.87868690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834888458252</t>
+    <t xml:space="preserve">4.81834840774536</t>
   </si>
   <si>
     <t xml:space="preserve">4.87471723556519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06129026412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98983669281006</t>
+    <t xml:space="preserve">5.0612907409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98983716964722</t>
   </si>
   <si>
     <t xml:space="preserve">5.12321710586548</t>
@@ -2819,28 +2819,28 @@
     <t xml:space="preserve">4.96125555038452</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92949819564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91600179672241</t>
+    <t xml:space="preserve">4.92949867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91600227355957</t>
   </si>
   <si>
     <t xml:space="preserve">4.76753807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75165843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7048168182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68417549133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81914234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88265657424927</t>
+    <t xml:space="preserve">4.75165891647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70481729507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68417501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81914281845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88265705108643</t>
   </si>
   <si>
     <t xml:space="preserve">4.97792816162109</t>
@@ -2858,16 +2858,16 @@
     <t xml:space="preserve">4.81676054000854</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9128270149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92235326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82708168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78738498687744</t>
+    <t xml:space="preserve">4.91282606124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92235231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82708215713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7873854637146</t>
   </si>
   <si>
     <t xml:space="preserve">4.67147207260132</t>
@@ -2876,16 +2876,16 @@
     <t xml:space="preserve">4.57381868362427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73498630523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79294300079346</t>
+    <t xml:space="preserve">4.73498678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79294347763062</t>
   </si>
   <si>
     <t xml:space="preserve">4.96363735198975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02556324005127</t>
+    <t xml:space="preserve">5.02556371688843</t>
   </si>
   <si>
     <t xml:space="preserve">5.08907794952393</t>
@@ -2897,40 +2897,40 @@
     <t xml:space="preserve">5.17323398590088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22880983352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39235830307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4788966178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.555908203125</t>
+    <t xml:space="preserve">5.22880887985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39235782623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47889709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55590772628784</t>
   </si>
   <si>
     <t xml:space="preserve">5.70754814147949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95763540267944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94255113601685</t>
+    <t xml:space="preserve">5.95763492584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94255065917969</t>
   </si>
   <si>
     <t xml:space="preserve">6.01638603210449</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01559209823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9878044128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96398639678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81710958480835</t>
+    <t xml:space="preserve">6.01559257507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98780393600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96398687362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81711006164551</t>
   </si>
   <si>
     <t xml:space="preserve">5.8314003944397</t>
@@ -2939,61 +2939,61 @@
     <t xml:space="preserve">5.84489727020264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00685882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95842885971069</t>
+    <t xml:space="preserve">6.00685834884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95842933654785</t>
   </si>
   <si>
     <t xml:space="preserve">5.93302345275879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03385210037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137166976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05290651321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08386993408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06481552124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13229894638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.095778465271</t>
+    <t xml:space="preserve">6.03385162353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137071609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05290699005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08386945724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06481456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13229942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09577798843384</t>
   </si>
   <si>
     <t xml:space="preserve">6.11483287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30934572219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25138854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28314638137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33157539367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41970157623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30061197280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44828224182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36253786087036</t>
+    <t xml:space="preserve">6.30934524536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25138902664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28314590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33157587051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41970109939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.300612449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44828319549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36253833770752</t>
   </si>
   <si>
     <t xml:space="preserve">6.48559665679932</t>
@@ -3002,52 +3002,52 @@
     <t xml:space="preserve">6.55228710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69043064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74146461486816</t>
+    <t xml:space="preserve">6.69043111801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74146509170532</t>
   </si>
   <si>
     <t xml:space="preserve">6.74794626235962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63777637481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58917093276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43525552749634</t>
+    <t xml:space="preserve">6.63777589797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58917045593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4352560043335</t>
   </si>
   <si>
     <t xml:space="preserve">6.41662406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39961290359497</t>
+    <t xml:space="preserve">6.39961242675781</t>
   </si>
   <si>
     <t xml:space="preserve">6.46036863327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26757049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26108980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36396884918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3745002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34533786773682</t>
+    <t xml:space="preserve">6.26756954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26108932495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36396980285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37449979782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34533739089966</t>
   </si>
   <si>
     <t xml:space="preserve">6.2618989944458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33075571060181</t>
+    <t xml:space="preserve">6.33075666427612</t>
   </si>
   <si>
     <t xml:space="preserve">6.37125968933105</t>
@@ -3056,31 +3056,31 @@
     <t xml:space="preserve">6.45145750045776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5697283744812</t>
+    <t xml:space="preserve">6.56972789764404</t>
   </si>
   <si>
     <t xml:space="preserve">6.48710107803345</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38746166229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32508611679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30888414382935</t>
+    <t xml:space="preserve">6.38746213912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32508563995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30888366699219</t>
   </si>
   <si>
     <t xml:space="preserve">6.282151222229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2627100944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37206983566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32184553146362</t>
+    <t xml:space="preserve">6.26270961761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32184505462646</t>
   </si>
   <si>
     <t xml:space="preserve">6.3169846534729</t>
@@ -3089,37 +3089,37 @@
     <t xml:space="preserve">6.17036104202271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18899250030518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14767837524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07882213592529</t>
+    <t xml:space="preserve">6.18899297714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1476788520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07882165908813</t>
   </si>
   <si>
     <t xml:space="preserve">6.19547271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14038753509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00429487228394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15091896057129</t>
+    <t xml:space="preserve">6.14038801193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00429439544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15091848373413</t>
   </si>
   <si>
     <t xml:space="preserve">6.05370950698853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19790315628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15983009338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20519351959229</t>
+    <t xml:space="preserve">6.19790363311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15982961654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20519399642944</t>
   </si>
   <si>
     <t xml:space="preserve">6.12499618530273</t>
@@ -3134,16 +3134,16 @@
     <t xml:space="preserve">5.97837257385254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01077604293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035249710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93057823181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04317855834961</t>
+    <t xml:space="preserve">6.01077556610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93057775497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04317903518677</t>
   </si>
   <si>
     <t xml:space="preserve">5.97027111053467</t>
@@ -3155,10 +3155,10 @@
     <t xml:space="preserve">6.03345727920532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07558250427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00915575027466</t>
+    <t xml:space="preserve">6.07558155059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0091552734375</t>
   </si>
   <si>
     <t xml:space="preserve">6.04965877532959</t>
@@ -3167,52 +3167,52 @@
     <t xml:space="preserve">5.98971366882324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96541213989258</t>
+    <t xml:space="preserve">5.96541118621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.15334939956665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11365509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09502267837524</t>
+    <t xml:space="preserve">6.11365556716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09502410888672</t>
   </si>
   <si>
     <t xml:space="preserve">6.22706604003906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24731779098511</t>
+    <t xml:space="preserve">6.24731826782227</t>
   </si>
   <si>
     <t xml:space="preserve">6.04560804367065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09745359420776</t>
+    <t xml:space="preserve">6.09745407104492</t>
   </si>
   <si>
     <t xml:space="preserve">6.05046892166138</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14200830459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08773279190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03507804870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13147640228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99052333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63003873825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61950778961182</t>
+    <t xml:space="preserve">6.14200782775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08773326873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0350775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13147687911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99052381515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63003921508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61950731277466</t>
   </si>
   <si>
     <t xml:space="preserve">5.53606986999512</t>
@@ -3221,52 +3221,52 @@
     <t xml:space="preserve">5.65920209884644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84632968902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865177154541</t>
+    <t xml:space="preserve">5.84633016586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865129470825</t>
   </si>
   <si>
     <t xml:space="preserve">6.16550064086914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52193403244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51869440078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65235710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54542636871338</t>
+    <t xml:space="preserve">6.52193450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51869344711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65235662460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54542684555054</t>
   </si>
   <si>
     <t xml:space="preserve">6.49682235717773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55271673202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134914398193</t>
+    <t xml:space="preserve">6.5527172088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134962081909</t>
   </si>
   <si>
     <t xml:space="preserve">6.57944965362549</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61347246170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66936874389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923246383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87512969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86135721206665</t>
+    <t xml:space="preserve">6.61347341537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66936779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923389434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87512874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86135625839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.88727951049805</t>
@@ -3278,82 +3278,82 @@
     <t xml:space="preserve">6.73984479904175</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70906209945679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64992666244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64749670028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6272439956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61023283004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57783031463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6507363319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52031373977661</t>
+    <t xml:space="preserve">6.70906162261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64992618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64749622344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62724447250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61023235321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57782936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65073680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52031421661377</t>
   </si>
   <si>
     <t xml:space="preserve">6.51707410812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61185169219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62076473236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53813552856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70015144348145</t>
+    <t xml:space="preserve">6.61185312271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62076425552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53813600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70015096664429</t>
   </si>
   <si>
     <t xml:space="preserve">6.76009750366211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70420169830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85082530975342</t>
+    <t xml:space="preserve">6.70420217514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85082578659058</t>
   </si>
   <si>
     <t xml:space="preserve">6.80060148239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23318195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2404727935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24857425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111305236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994184494019</t>
+    <t xml:space="preserve">7.23318243026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24047231674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24857330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111352920532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22994232177734</t>
   </si>
   <si>
     <t xml:space="preserve">7.15541505813599</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17647695541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0946626663208</t>
+    <t xml:space="preserve">7.17647743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09466361999512</t>
   </si>
   <si>
     <t xml:space="preserve">7.08557319641113</t>
@@ -3362,46 +3362,46 @@
     <t xml:space="preserve">7.0888786315918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9905366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89632701873779</t>
+    <t xml:space="preserve">6.99053621292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89632654190063</t>
   </si>
   <si>
     <t xml:space="preserve">6.88806295394897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9417781829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81038045883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76906108856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79385280609131</t>
+    <t xml:space="preserve">6.94177865982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81038093566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76906061172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79385232925415</t>
   </si>
   <si>
     <t xml:space="preserve">6.77649784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06739234924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07069778442383</t>
+    <t xml:space="preserve">7.06739091873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07069730758667</t>
   </si>
   <si>
     <t xml:space="preserve">6.98061943054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02441930770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84591674804688</t>
+    <t xml:space="preserve">7.02441835403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84591627120972</t>
   </si>
   <si>
     <t xml:space="preserve">6.87401437759399</t>
@@ -3410,43 +3410,43 @@
     <t xml:space="preserve">6.99301528930664</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99797487258911</t>
+    <t xml:space="preserve">6.99797439575195</t>
   </si>
   <si>
     <t xml:space="preserve">6.99549531936646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86161804199219</t>
+    <t xml:space="preserve">6.86161851882935</t>
   </si>
   <si>
     <t xml:space="preserve">6.77319288253784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67485094070435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59221124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54510641098022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47899389266968</t>
+    <t xml:space="preserve">6.67485046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59221076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54510593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47899341583252</t>
   </si>
   <si>
     <t xml:space="preserve">6.48229932785034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56741905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44759035110474</t>
+    <t xml:space="preserve">6.56741857528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44758987426758</t>
   </si>
   <si>
     <t xml:space="preserve">6.30214357376099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48147296905518</t>
+    <t xml:space="preserve">6.48147249221802</t>
   </si>
   <si>
     <t xml:space="preserve">6.50626468658447</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">6.68063497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69633674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78889465332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88062572479248</t>
+    <t xml:space="preserve">6.69633769989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78889417648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88062524795532</t>
   </si>
   <si>
     <t xml:space="preserve">6.82195043563843</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">6.76079654693604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80790185928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74509477615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410827636719</t>
+    <t xml:space="preserve">6.80790233612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74509525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410779953003</t>
   </si>
   <si>
     <t xml:space="preserve">6.86409759521484</t>
@@ -3488,79 +3488,79 @@
     <t xml:space="preserve">6.96326494216919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97648763656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96409225463867</t>
+    <t xml:space="preserve">6.97648811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96409177780151</t>
   </si>
   <si>
     <t xml:space="preserve">7.0302038192749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96904993057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01863384246826</t>
+    <t xml:space="preserve">6.96904945373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01863431930542</t>
   </si>
   <si>
     <t xml:space="preserve">6.970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06904458999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09548997879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14920616149902</t>
+    <t xml:space="preserve">7.0690450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09549045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14920663833618</t>
   </si>
   <si>
     <t xml:space="preserve">7.10210084915161</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09053134918213</t>
+    <t xml:space="preserve">7.09053182601929</t>
   </si>
   <si>
     <t xml:space="preserve">7.12441444396973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03185653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135723114014</t>
+    <t xml:space="preserve">7.03185701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135770797729</t>
   </si>
   <si>
     <t xml:space="preserve">7.15581798553467</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15829563140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06987142562866</t>
+    <t xml:space="preserve">7.15829467773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06987190246582</t>
   </si>
   <si>
     <t xml:space="preserve">7.01367616653442</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2045750617981</t>
+    <t xml:space="preserve">7.20457553863525</t>
   </si>
   <si>
     <t xml:space="preserve">7.21862316131592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14011669158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98144674301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89054250717163</t>
+    <t xml:space="preserve">7.14011573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98144626617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89054298400879</t>
   </si>
   <si>
     <t xml:space="preserve">6.83186817169189</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90541744232178</t>
+    <t xml:space="preserve">6.90541696548462</t>
   </si>
   <si>
     <t xml:space="preserve">6.78145742416382</t>
@@ -3569,43 +3569,43 @@
     <t xml:space="preserve">6.85004758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83269262313843</t>
+    <t xml:space="preserve">6.83269309997559</t>
   </si>
   <si>
     <t xml:space="preserve">6.8376522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60460662841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68724679946899</t>
+    <t xml:space="preserve">6.60460710525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68724727630615</t>
   </si>
   <si>
     <t xml:space="preserve">6.77980470657349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74096250534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71699714660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58312034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67237138748169</t>
+    <t xml:space="preserve">6.74096298217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71699810028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58312082290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67237186431885</t>
   </si>
   <si>
     <t xml:space="preserve">6.76658153533936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74922752380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73269891738892</t>
+    <t xml:space="preserve">6.74261617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74922704696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73269939422607</t>
   </si>
   <si>
     <t xml:space="preserve">6.72939348220825</t>
@@ -3620,13 +3620,13 @@
     <t xml:space="preserve">6.52196645736694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55419635772705</t>
+    <t xml:space="preserve">6.55419683456421</t>
   </si>
   <si>
     <t xml:space="preserve">6.61369705200195</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62113523483276</t>
+    <t xml:space="preserve">6.62113475799561</t>
   </si>
   <si>
     <t xml:space="preserve">6.62196063995361</t>
@@ -3638,22 +3638,22 @@
     <t xml:space="preserve">6.62939929962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69551134109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67732954025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78724241256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67650413513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65584325790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71038579940796</t>
+    <t xml:space="preserve">6.69551181793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67733001708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78724193572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67650365829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65584373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7103853225708</t>
   </si>
   <si>
     <t xml:space="preserve">6.70046949386597</t>
@@ -3662,22 +3662,22 @@
     <t xml:space="preserve">6.58725261688232</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63931560516357</t>
+    <t xml:space="preserve">6.63931608200073</t>
   </si>
   <si>
     <t xml:space="preserve">6.61865520477295</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58973169326782</t>
+    <t xml:space="preserve">6.58973121643066</t>
   </si>
   <si>
     <t xml:space="preserve">6.64262104034424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47238206863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48643112182617</t>
+    <t xml:space="preserve">6.47238159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48643159866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.48808431625366</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">6.51452922821045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54841136932373</t>
+    <t xml:space="preserve">6.54841089248657</t>
   </si>
   <si>
     <t xml:space="preserve">6.6624550819397</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">6.65914916992188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63105154037476</t>
+    <t xml:space="preserve">6.63105201721191</t>
   </si>
   <si>
     <t xml:space="preserve">6.55502223968506</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">6.43088579177856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4384970664978</t>
+    <t xml:space="preserve">6.43849754333496</t>
   </si>
   <si>
     <t xml:space="preserve">6.60510492324829</t>
@@ -3728,10 +3728,10 @@
     <t xml:space="preserve">6.83429622650146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73365497589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81230783462524</t>
+    <t xml:space="preserve">6.73365545272827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81230735778809</t>
   </si>
   <si>
     <t xml:space="preserve">6.77847862243652</t>
@@ -3767,10 +3767,10 @@
     <t xml:space="preserve">6.63385963439941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67191696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63639736175537</t>
+    <t xml:space="preserve">6.67191648483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63639688491821</t>
   </si>
   <si>
     <t xml:space="preserve">6.57719564437866</t>
@@ -3779,19 +3779,19 @@
     <t xml:space="preserve">6.64316272735596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69982528686523</t>
+    <t xml:space="preserve">6.69982576370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.76663827896118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62371063232422</t>
+    <t xml:space="preserve">6.62371015548706</t>
   </si>
   <si>
     <t xml:space="preserve">6.56366443634033</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49346923828125</t>
+    <t xml:space="preserve">6.49346876144409</t>
   </si>
   <si>
     <t xml:space="preserve">6.4943151473999</t>
@@ -3824,13 +3824,13 @@
     <t xml:space="preserve">6.23721504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3420844078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2879581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94121122360229</t>
+    <t xml:space="preserve">6.34208488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28795766830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94121170043945</t>
   </si>
   <si>
     <t xml:space="preserve">5.92091417312622</t>
@@ -3842,7 +3842,7 @@
     <t xml:space="preserve">5.78475284576416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83465051651001</t>
+    <t xml:space="preserve">5.83465003967285</t>
   </si>
   <si>
     <t xml:space="preserve">5.86932468414307</t>
@@ -3851,13 +3851,13 @@
     <t xml:space="preserve">5.9868803024292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93529176712036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87524461746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7822151184082</t>
+    <t xml:space="preserve">5.9352912902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87524509429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
     <t xml:space="preserve">5.74500370025635</t>
@@ -3899,13 +3899,13 @@
     <t xml:space="preserve">6.09767007827759</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06637907028198</t>
+    <t xml:space="preserve">6.06637859344482</t>
   </si>
   <si>
     <t xml:space="preserve">6.02747535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97165775299072</t>
+    <t xml:space="preserve">5.97165727615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.0426983833313</t>
@@ -3914,19 +3914,19 @@
     <t xml:space="preserve">6.10274457931519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14841413497925</t>
+    <t xml:space="preserve">6.14841365814209</t>
   </si>
   <si>
     <t xml:space="preserve">6.11965942382812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16109991073608</t>
+    <t xml:space="preserve">6.16109943389893</t>
   </si>
   <si>
     <t xml:space="preserve">6.11543035507202</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13657331466675</t>
+    <t xml:space="preserve">6.13657379150391</t>
   </si>
   <si>
     <t xml:space="preserve">6.13319063186646</t>
@@ -3935,16 +3935,16 @@
     <t xml:space="preserve">6.16871166229248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08498430252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99956560134888</t>
+    <t xml:space="preserve">6.08498477935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99956607818604</t>
   </si>
   <si>
     <t xml:space="preserve">6.05538368225098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00379514694214</t>
+    <t xml:space="preserve">6.00379467010498</t>
   </si>
   <si>
     <t xml:space="preserve">6.04692697525024</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">5.95558834075928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87778186798096</t>
+    <t xml:space="preserve">5.8777813911438</t>
   </si>
   <si>
     <t xml:space="preserve">5.8794732093811</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">5.95812606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04608154296875</t>
+    <t xml:space="preserve">6.04608106613159</t>
   </si>
   <si>
     <t xml:space="preserve">5.76445484161377</t>
@@ -3986,7 +3986,7 @@
     <t xml:space="preserve">5.71286582946777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57332181930542</t>
+    <t xml:space="preserve">5.57332134246826</t>
   </si>
   <si>
     <t xml:space="preserve">5.51919507980347</t>
@@ -4025,7 +4025,7 @@
     <t xml:space="preserve">5.6266016960144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78052377700806</t>
+    <t xml:space="preserve">5.78052425384521</t>
   </si>
   <si>
     <t xml:space="preserve">5.81519889831543</t>
@@ -4049,13 +4049,13 @@
     <t xml:space="preserve">6.06553268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02155494689941</t>
+    <t xml:space="preserve">6.02155542373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.87693643569946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84310722351074</t>
+    <t xml:space="preserve">5.8431077003479</t>
   </si>
   <si>
     <t xml:space="preserve">5.86086750030518</t>
@@ -4067,7 +4067,7 @@
     <t xml:space="preserve">5.85410213470459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8870849609375</t>
+    <t xml:space="preserve">5.88708448410034</t>
   </si>
   <si>
     <t xml:space="preserve">5.75684356689453</t>
@@ -5820,6 +5820,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.44999980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40000009536743</t>
   </si>
 </sst>
 </file>
@@ -62139,7 +62142,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.649849537</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>25130225</v>
@@ -62160,6 +62163,32 @@
         <v>1935</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6493518519</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>18578404</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>6.47700023651123</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>6.39599990844727</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>6.46500015258789</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>6.40000009536743</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1938">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46143746376038</t>
+    <t xml:space="preserve">2.46143770217896</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50832223892212</t>
+    <t xml:space="preserve">2.50832176208496</t>
   </si>
   <si>
     <t xml:space="preserve">2.44580936431885</t>
@@ -56,40 +56,40 @@
     <t xml:space="preserve">2.43669271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43929719924927</t>
+    <t xml:space="preserve">2.43929743766785</t>
   </si>
   <si>
     <t xml:space="preserve">2.42236709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45883297920227</t>
+    <t xml:space="preserve">2.45883274078369</t>
   </si>
   <si>
     <t xml:space="preserve">2.43408799171448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.389808177948</t>
+    <t xml:space="preserve">2.38980841636658</t>
   </si>
   <si>
     <t xml:space="preserve">2.34683084487915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37418007850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30255103111267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37678503990173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42757654190063</t>
+    <t xml:space="preserve">2.37417984008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30255126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37678480148315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4275758266449</t>
   </si>
   <si>
     <t xml:space="preserve">2.41455245018005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44841361045837</t>
+    <t xml:space="preserve">2.44841384887695</t>
   </si>
   <si>
     <t xml:space="preserve">2.47836780548096</t>
@@ -98,43 +98,43 @@
     <t xml:space="preserve">2.39111089706421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45362377166748</t>
+    <t xml:space="preserve">2.45362329483032</t>
   </si>
   <si>
     <t xml:space="preserve">2.44711184501648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4106457233429</t>
+    <t xml:space="preserve">2.41064620018005</t>
   </si>
   <si>
     <t xml:space="preserve">2.36245894432068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30906271934509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27780628204346</t>
+    <t xml:space="preserve">2.30906295776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27780675888062</t>
   </si>
   <si>
     <t xml:space="preserve">2.27520179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29603958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2126886844635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3038535118103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38199377059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.366366147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37287759780884</t>
+    <t xml:space="preserve">2.29603981971741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21268939971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30385398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38199400901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36636638641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.372878074646</t>
   </si>
   <si>
     <t xml:space="preserve">2.35724949836731</t>
@@ -143,130 +143,130 @@
     <t xml:space="preserve">2.3689706325531</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30515551567078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39892482757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41194772720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43539047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41845965385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38459873199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39371562004089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46664667129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47967028617859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54739284515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53957843780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53306698799133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53697323799133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55911350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999709129333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55260181427002</t>
+    <t xml:space="preserve">2.30515575408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39892435073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41194820404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43539023399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41845989227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38459897041321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39371538162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46664690971375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47967052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54739260673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53957796096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5330662727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53697347640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55911326408386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999756813049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5526020526886</t>
   </si>
   <si>
     <t xml:space="preserve">2.54348516464233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53176426887512</t>
+    <t xml:space="preserve">2.5317645072937</t>
   </si>
   <si>
     <t xml:space="preserve">2.54608988761902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58646273612976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60469555854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53827571868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5252525806427</t>
+    <t xml:space="preserve">2.58646321296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60469579696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53827595710754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52525234222412</t>
   </si>
   <si>
     <t xml:space="preserve">2.50181031227112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42887878417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38329720497131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44971609115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46013522148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44190216064453</t>
+    <t xml:space="preserve">2.42887902259827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38329696655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44971632957458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46013498306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44190263748169</t>
   </si>
   <si>
     <t xml:space="preserve">2.4887866973877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49920558929443</t>
+    <t xml:space="preserve">2.49920582771301</t>
   </si>
   <si>
     <t xml:space="preserve">2.55650877952576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52655529975891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59427714347839</t>
+    <t xml:space="preserve">2.52655482292175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59427762031555</t>
   </si>
   <si>
     <t xml:space="preserve">2.6398594379425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57734680175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57604384422302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5630202293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54088068008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516049385071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860276222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61511445045471</t>
+    <t xml:space="preserve">2.57734608650208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5760440826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56302046775818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54088020324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516073226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860300064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61511468887329</t>
   </si>
   <si>
     <t xml:space="preserve">2.57213687896729</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">2.58906769752502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56562495231628</t>
+    <t xml:space="preserve">2.56562566757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.59818410873413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57474184036255</t>
+    <t xml:space="preserve">2.57474160194397</t>
   </si>
   <si>
     <t xml:space="preserve">2.64506816864014</t>
@@ -290,70 +290,70 @@
     <t xml:space="preserve">2.65288281440735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67371988296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66851043701172</t>
+    <t xml:space="preserve">2.67372035980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66851091384888</t>
   </si>
   <si>
     <t xml:space="preserve">2.68153429031372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62944030761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63855671882629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61641669273376</t>
+    <t xml:space="preserve">2.62944054603577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63855695724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61641693115234</t>
   </si>
   <si>
     <t xml:space="preserve">2.67892932891846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68674373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68413925170898</t>
+    <t xml:space="preserve">2.68674349784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68413877487183</t>
   </si>
   <si>
     <t xml:space="preserve">2.59297466278076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55129933357239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50701928138733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61771893501282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68282318115234</t>
+    <t xml:space="preserve">2.55129957199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50701951980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6177191734314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68282294273376</t>
   </si>
   <si>
     <t xml:space="preserve">2.68960475921631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6489143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71401858329773</t>
+    <t xml:space="preserve">2.64891481399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71401882171631</t>
   </si>
   <si>
     <t xml:space="preserve">2.44139623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43190145492554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53769564628601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64484643936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69909882545471</t>
+    <t xml:space="preserve">2.43190169334412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53769588470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64484572410583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69909906387329</t>
   </si>
   <si>
     <t xml:space="preserve">2.69638657569885</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">2.66519069671631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68417954444885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70588088035583</t>
+    <t xml:space="preserve">2.68417930603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70588064193726</t>
   </si>
   <si>
     <t xml:space="preserve">2.70723724365234</t>
@@ -383,43 +383,43 @@
     <t xml:space="preserve">2.70994973182678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69231796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72893857955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73165059089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72486925125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72080039978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79268598556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77912259101868</t>
+    <t xml:space="preserve">2.69231748580933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72893834114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73165082931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7248694896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72080087661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79268574714661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77912282943726</t>
   </si>
   <si>
     <t xml:space="preserve">2.74250197410583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73029470443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74114513397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77641010284424</t>
+    <t xml:space="preserve">2.73029446601868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74114489555359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7764093875885</t>
   </si>
   <si>
     <t xml:space="preserve">2.76284694671631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75470900535583</t>
+    <t xml:space="preserve">2.7547082901001</t>
   </si>
   <si>
     <t xml:space="preserve">2.74928331375122</t>
@@ -428,52 +428,52 @@
     <t xml:space="preserve">2.78726077079773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78319191932678</t>
+    <t xml:space="preserve">2.78319144248962</t>
   </si>
   <si>
     <t xml:space="preserve">2.71808743476868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66790366172791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67061638832092</t>
+    <t xml:space="preserve">2.66790342330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67061614990234</t>
   </si>
   <si>
     <t xml:space="preserve">2.63806414604187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64348936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197251319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6733283996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68011021614075</t>
+    <t xml:space="preserve">2.64348912239075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197275161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67332887649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68011045455933</t>
   </si>
   <si>
     <t xml:space="preserve">2.69774270057678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65569615364075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67604112625122</t>
+    <t xml:space="preserve">2.65569663047791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6760413646698</t>
   </si>
   <si>
     <t xml:space="preserve">2.73707628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73978877067566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72622561454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80082416534424</t>
+    <t xml:space="preserve">2.73978924751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72622585296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80082368850708</t>
   </si>
   <si>
     <t xml:space="preserve">2.78454804420471</t>
@@ -482,13 +482,13 @@
     <t xml:space="preserve">2.7465705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69096112251282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65298438072205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65705275535583</t>
+    <t xml:space="preserve">2.6909613609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65298414230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65705299377441</t>
   </si>
   <si>
     <t xml:space="preserve">2.63128256797791</t>
@@ -497,43 +497,43 @@
     <t xml:space="preserve">2.66247820854187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6516273021698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69367384910583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65976548194885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66383457183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69502997398376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65434050559998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61093735694885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59601759910583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55804038047791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59737467765808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5729603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261540412903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144352912903</t>
+    <t xml:space="preserve">2.65162754058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69367361068726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65976524353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66383481025696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69503021240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6543402671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61093783378601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59601783752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55804085731506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5973744392395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57295989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144305229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.59059262275696</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">2.65027117729187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67468523979187</t>
+    <t xml:space="preserve">2.67468547821045</t>
   </si>
   <si>
     <t xml:space="preserve">2.65840935707092</t>
@@ -554,52 +554,52 @@
     <t xml:space="preserve">2.60822463035583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60008692741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58923625946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60415601730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62314462661743</t>
+    <t xml:space="preserve">2.60008716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58923602104187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60415577888489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62314438819885</t>
   </si>
   <si>
     <t xml:space="preserve">2.56075310707092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47259163856506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4685230255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44682145118713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47530436515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47666072845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51192545890808</t>
+    <t xml:space="preserve">2.47259140014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852231025696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44682168960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47530460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47666049003601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5119252204895</t>
   </si>
   <si>
     <t xml:space="preserve">2.45224666595459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47394824028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55125880241394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5390522480011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52820110321045</t>
+    <t xml:space="preserve">2.47394776344299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55125904083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53905200958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52820062637329</t>
   </si>
   <si>
     <t xml:space="preserve">2.53362655639648</t>
@@ -614,73 +614,73 @@
     <t xml:space="preserve">2.56753492355347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77234077453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76555895805359</t>
+    <t xml:space="preserve">2.77234101295471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76555919647217</t>
   </si>
   <si>
     <t xml:space="preserve">2.72758197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75063943862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404187202454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82252526283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80489301681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81981253623962</t>
+    <t xml:space="preserve">2.75064039230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404211044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82252550125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80489277839661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81981205940247</t>
   </si>
   <si>
     <t xml:space="preserve">2.8401575088501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86321473121643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82659435272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83066344261169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83473229408264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81574368476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79539823532104</t>
+    <t xml:space="preserve">2.86321496963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82659459114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83066320419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83473181724548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8157434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79539847373962</t>
   </si>
   <si>
     <t xml:space="preserve">2.80218052864075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82388210296631</t>
+    <t xml:space="preserve">2.82388186454773</t>
   </si>
   <si>
     <t xml:space="preserve">2.81031847000122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81303071975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80760526657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83117604255676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8256299495697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78126311302185</t>
+    <t xml:space="preserve">2.81303024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80760598182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83117532730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82563018798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78126287460327</t>
   </si>
   <si>
     <t xml:space="preserve">2.76046562194824</t>
@@ -689,19 +689,19 @@
     <t xml:space="preserve">2.72719025611877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66895818710327</t>
+    <t xml:space="preserve">2.66895842552185</t>
   </si>
   <si>
     <t xml:space="preserve">2.67866373062134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68005061149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69391465187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71471190452576</t>
+    <t xml:space="preserve">2.68005013465881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69391441345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71471214294434</t>
   </si>
   <si>
     <t xml:space="preserve">2.66202592849731</t>
@@ -710,43 +710,43 @@
     <t xml:space="preserve">2.68559622764587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79928660392761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80621910095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79512715339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78680801391602</t>
+    <t xml:space="preserve">2.79928684234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80621886253357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79512763023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78680849075317</t>
   </si>
   <si>
     <t xml:space="preserve">2.74382758140564</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78542184829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80067324638367</t>
+    <t xml:space="preserve">2.78542232513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80067348480225</t>
   </si>
   <si>
     <t xml:space="preserve">2.77433013916016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77987623214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7549192905426</t>
+    <t xml:space="preserve">2.7798764705658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75491976737976</t>
   </si>
   <si>
     <t xml:space="preserve">2.77294397354126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.814537525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80899167060852</t>
+    <t xml:space="preserve">2.81453776359558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80899214744568</t>
   </si>
   <si>
     <t xml:space="preserve">2.83672142028809</t>
@@ -755,256 +755,256 @@
     <t xml:space="preserve">2.86029148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86445069313049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86999702453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.890793800354</t>
+    <t xml:space="preserve">2.86445093154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86999726295471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89079332351685</t>
   </si>
   <si>
     <t xml:space="preserve">2.90327215194702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89772605895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89911293983459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88247489929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9462525844574</t>
+    <t xml:space="preserve">2.89772582054138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89911270141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88247466087341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94625282287598</t>
   </si>
   <si>
     <t xml:space="preserve">2.91852331161499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90465879440308</t>
+    <t xml:space="preserve">2.90465831756592</t>
   </si>
   <si>
     <t xml:space="preserve">2.92545533180237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9823009967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97259640693665</t>
+    <t xml:space="preserve">2.98230147361755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97259569168091</t>
   </si>
   <si>
     <t xml:space="preserve">2.9878466129303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00864410400391</t>
+    <t xml:space="preserve">3.00864386558533</t>
   </si>
   <si>
     <t xml:space="preserve">3.01696300506592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0280544757843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05994367599487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05855655670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05301117897034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03914642333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05023789405823</t>
+    <t xml:space="preserve">3.02805471420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05994343757629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0585572719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0530104637146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03914618492126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05023860931396</t>
   </si>
   <si>
     <t xml:space="preserve">3.01834917068481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03637361526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498697280884</t>
+    <t xml:space="preserve">3.03637337684631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498721122742</t>
   </si>
   <si>
     <t xml:space="preserve">3.00032496452332</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94070720672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98091435432434</t>
+    <t xml:space="preserve">2.94070672988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9809148311615</t>
   </si>
   <si>
     <t xml:space="preserve">3.0862865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07103562355042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05578398704529</t>
+    <t xml:space="preserve">3.07103538513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05578446388245</t>
   </si>
   <si>
     <t xml:space="preserve">3.04885149002075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02528142929077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06687617301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07380819320679</t>
+    <t xml:space="preserve">3.02528166770935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06687569618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07380795478821</t>
   </si>
   <si>
     <t xml:space="preserve">3.14313149452209</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17363452911377</t>
+    <t xml:space="preserve">3.17363381385803</t>
   </si>
   <si>
     <t xml:space="preserve">3.16670155525208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15422344207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16808819770813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16254234313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16531562805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16947484016418</t>
+    <t xml:space="preserve">3.15422320365906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16808843612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16254210472107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16531538963318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16947460174561</t>
   </si>
   <si>
     <t xml:space="preserve">3.24573087692261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20829558372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21522784233093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2471170425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27900576591492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782698631287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593802452087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3067352771759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33307862281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2582094669342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27761936187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29841661453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31505346298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26791429519653</t>
+    <t xml:space="preserve">3.20829582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21522855758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24711751937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2790060043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593826293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30673551559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33307814598083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25820851325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27761960029602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29841685295105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31505489349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2679135799408</t>
   </si>
   <si>
     <t xml:space="preserve">3.31366777420044</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3247594833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42597126960754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39546942710876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35803508758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36219477653503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496710777283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37189865112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41072106361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41903948783875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3913094997406</t>
+    <t xml:space="preserve">3.32475972175598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42597198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39546966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35803461074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3621940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496782302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37189984321594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41072130203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41904020309448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39131021499634</t>
   </si>
   <si>
     <t xml:space="preserve">3.45231533050537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41488003730774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43151783943176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32753276824951</t>
+    <t xml:space="preserve">3.4148805141449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43151760101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32753229141235</t>
   </si>
   <si>
     <t xml:space="preserve">3.3552622795105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28732514381409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25404977798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2998034954071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28871154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25127673149109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2720730304718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32614588737488</t>
+    <t xml:space="preserve">3.28732490539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25404953956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29980301856995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28871083259583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25127649307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27207350730896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3261456489563</t>
   </si>
   <si>
     <t xml:space="preserve">3.3206000328064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37744522094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44677019119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44538259506226</t>
+    <t xml:space="preserve">3.377445936203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44676923751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44538307189941</t>
   </si>
   <si>
     <t xml:space="preserve">3.41210722923279</t>
@@ -1013,292 +1013,292 @@
     <t xml:space="preserve">3.43845057487488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44260954856873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4037880897522</t>
+    <t xml:space="preserve">3.44260931015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40378880500793</t>
   </si>
   <si>
     <t xml:space="preserve">3.43203568458557</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38825225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43062329292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45322155952454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955115318298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40661311149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45180821418762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44615888595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48853087425232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960229873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51818943023682</t>
+    <t xml:space="preserve">3.3882520198822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43062233924866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45322132110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955186843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40661334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4518084526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44615912437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.488529920578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960206031799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51818895339966</t>
   </si>
   <si>
     <t xml:space="preserve">3.53796339035034</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51253986358643</t>
+    <t xml:space="preserve">3.51253938674927</t>
   </si>
   <si>
     <t xml:space="preserve">3.47723078727722</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55208659172058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5768027305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58033323287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55914759635925</t>
+    <t xml:space="preserve">3.55208587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57680249214172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5803337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55914831161499</t>
   </si>
   <si>
     <t xml:space="preserve">3.51677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58739495277405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798789024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092569351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62976574897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60858035087585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211156845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63329672813416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66507482528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65448260307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70391511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860628128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6438889503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60504984855652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63682794570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61564207077026</t>
+    <t xml:space="preserve">3.58739542961121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798836708069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59092688560486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62976622581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60858058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211133003235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63329696655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66507530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6544828414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70391488075256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66860556602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388990402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60505032539368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63682842254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61564326286316</t>
   </si>
   <si>
     <t xml:space="preserve">3.61917304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60151839256287</t>
+    <t xml:space="preserve">3.60151934623718</t>
   </si>
   <si>
     <t xml:space="preserve">3.5662100315094</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50689053535461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56267857551575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58386397361755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64742064476013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095138549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154408454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6403591632843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801239013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68626046180725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73569369316101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73216152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75687861442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76040959358215</t>
+    <t xml:space="preserve">3.50689029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56267929077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58386421203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64742016792297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095162391663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154456138611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64035892486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801334381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626117706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73569321632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73216128349304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75687909126282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76040887832642</t>
   </si>
   <si>
     <t xml:space="preserve">3.80278086662292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78865694999695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7957181930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80631136894226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80984163284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512644767761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747059822083</t>
+    <t xml:space="preserve">3.78865647315979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79571843147278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8063108921051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80984258651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512597084045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76747107505798</t>
   </si>
   <si>
     <t xml:space="preserve">3.72510075569153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71097731590271</t>
+    <t xml:space="preserve">3.71097660064697</t>
   </si>
   <si>
     <t xml:space="preserve">3.71803832054138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73922395706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272948265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979120254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981737136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7815945148468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81690382957458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633586883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221314430237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218792915344</t>
+    <t xml:space="preserve">3.73922348022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68272972106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68979096412659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981617927551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78159475326538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81690359115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633610725403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221338272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218697547913</t>
   </si>
   <si>
     <t xml:space="preserve">3.86280512809753</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90164566040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91929936408997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94048571586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89105224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83102750778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8557436466217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75334811210632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70038342475891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62270402908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77100253105164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74275469779968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79190707206726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390122413635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068809509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71628379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69035744667053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65002512931824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68027424812317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64858484268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57944512367249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53551197052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43468260765076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030445098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40083289146423</t>
+    <t xml:space="preserve">3.90164518356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91930079460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94048547744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89105319976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83102798461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85574388504028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75334715843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70038390159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62270474433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77100157737732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74275517463684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79190754890442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390170097351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71628499031067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69035720825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65002536773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68027448654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64858508110046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57944440841675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53551173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468236923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030492782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40083312988281</t>
   </si>
   <si>
     <t xml:space="preserve">3.33745455741882</t>
@@ -1310,61 +1310,61 @@
     <t xml:space="preserve">3.35185885429382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44260478019714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.451247215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50022196769714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44116473197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43540287017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38498878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48221731185913</t>
+    <t xml:space="preserve">3.4426052570343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45124745368958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50022172927856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44116401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43540239334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38498735427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48221683502197</t>
   </si>
   <si>
     <t xml:space="preserve">3.47573494911194</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48365616798401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44188451766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964148521423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401916503906</t>
+    <t xml:space="preserve">3.48365664482117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44188499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964196205139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401892662048</t>
   </si>
   <si>
     <t xml:space="preserve">3.38570857048035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40587425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44044494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48581767082214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48293685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742363929749</t>
+    <t xml:space="preserve">3.40587401390076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44044423103333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48581743240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4829363822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077607154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742411613464</t>
   </si>
   <si>
     <t xml:space="preserve">3.49301981925964</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">3.55063605308533</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51174545288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45412826538086</t>
+    <t xml:space="preserve">3.5117449760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45412874221802</t>
   </si>
   <si>
     <t xml:space="preserve">3.49374008178711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44692611694336</t>
+    <t xml:space="preserve">3.44692587852478</t>
   </si>
   <si>
     <t xml:space="preserve">3.45484852790833</t>
@@ -1397,64 +1397,64 @@
     <t xml:space="preserve">3.56864190101624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57440328598022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63706207275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418054580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154885292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65578770637512</t>
+    <t xml:space="preserve">3.57440400123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63706159591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418030738831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154909133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6557879447937</t>
   </si>
   <si>
     <t xml:space="preserve">3.64570450782776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68171501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315505981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221253395081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933124542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72348666191101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74653363227844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73356986045837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830647468567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78110408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79406809806824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84592294692993</t>
+    <t xml:space="preserve">3.68171453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315529823303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933148384094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72348713874817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74653387069702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73357033729553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830599784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78110361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79406762123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84592247009277</t>
   </si>
   <si>
     <t xml:space="preserve">3.83151888847351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87905216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88049292564392</t>
+    <t xml:space="preserve">3.87905263900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88049268722534</t>
   </si>
   <si>
     <t xml:space="preserve">3.78398466110229</t>
@@ -1463,88 +1463,88 @@
     <t xml:space="preserve">3.65434646606445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65146589279175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67883396148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70043969154358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56287956237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58880710601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52758955955505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52830982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51606607437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51246547698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49950170516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955804824829</t>
+    <t xml:space="preserve">3.65146636962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67883348464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70044016838074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56287980079651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58880805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52758979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5283100605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51606631278992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51246476173401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4995014667511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955828666687</t>
   </si>
   <si>
     <t xml:space="preserve">3.39363050460815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3108069896698</t>
+    <t xml:space="preserve">3.31080651283264</t>
   </si>
   <si>
     <t xml:space="preserve">3.42243909835815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3871488571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40947580337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44764637947083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38426780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37130379676819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30864524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4282009601593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44332528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50958442687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50886416435242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48149633407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47933506965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47429418563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39435076713562</t>
+    <t xml:space="preserve">3.38714909553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40947508811951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4476466178894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38426804542542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3713047504425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30864572525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42820048332214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44332504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50958395004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50886464118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48149657249451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47933578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47429442405701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39435052871704</t>
   </si>
   <si>
     <t xml:space="preserve">3.4181182384491</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">3.37202429771423</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39795184135437</t>
+    <t xml:space="preserve">3.39795207977295</t>
   </si>
   <si>
     <t xml:space="preserve">3.43684315681458</t>
@@ -1565,46 +1565,46 @@
     <t xml:space="preserve">3.4260401725769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41667747497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47213315963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45989036560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590039253235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51822733879089</t>
+    <t xml:space="preserve">3.41667699813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47213363647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45988988876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590063095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51822710037231</t>
   </si>
   <si>
     <t xml:space="preserve">3.49518013000488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49013900756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46493101119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310158729553</t>
+    <t xml:space="preserve">3.49013948440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46493124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310254096985</t>
   </si>
   <si>
     <t xml:space="preserve">3.49085927009583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51462578773499</t>
+    <t xml:space="preserve">3.51462626457214</t>
   </si>
   <si>
     <t xml:space="preserve">3.53263163566589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53119039535522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53335189819336</t>
+    <t xml:space="preserve">3.53119111061096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5333514213562</t>
   </si>
   <si>
     <t xml:space="preserve">3.4985659122467</t>
@@ -1613,46 +1613,46 @@
     <t xml:space="preserve">3.47192120552063</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4511981010437</t>
+    <t xml:space="preserve">3.45119762420654</t>
   </si>
   <si>
     <t xml:space="preserve">3.46229934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49042391777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48080325126648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5303909778595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39346790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32685708999634</t>
+    <t xml:space="preserve">3.49042463302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4808030128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53039050102234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39346814155579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32685661315918</t>
   </si>
   <si>
     <t xml:space="preserve">3.34980082511902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35054159164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3942084312439</t>
+    <t xml:space="preserve">3.35054087638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39420819282532</t>
   </si>
   <si>
     <t xml:space="preserve">3.3927276134491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37718534469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761361122131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29059100151062</t>
+    <t xml:space="preserve">3.37718486785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761337280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29059147834778</t>
   </si>
   <si>
     <t xml:space="preserve">3.31427502632141</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">3.27948927879333</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27504849433899</t>
+    <t xml:space="preserve">3.27504825592041</t>
   </si>
   <si>
     <t xml:space="preserve">3.26394629478455</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">3.29873251914978</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28466963768005</t>
+    <t xml:space="preserve">3.28466987609863</t>
   </si>
   <si>
     <t xml:space="preserve">3.24692344665527</t>
@@ -1679,61 +1679,61 @@
     <t xml:space="preserve">3.26024603843689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24766325950623</t>
+    <t xml:space="preserve">3.24766397476196</t>
   </si>
   <si>
     <t xml:space="preserve">3.22397971153259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23508143424988</t>
+    <t xml:space="preserve">3.23508167266846</t>
   </si>
   <si>
     <t xml:space="preserve">3.18919372558594</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15292811393738</t>
+    <t xml:space="preserve">3.1529278755188</t>
   </si>
   <si>
     <t xml:space="preserve">3.14034581184387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1758713722229</t>
+    <t xml:space="preserve">3.17587161064148</t>
   </si>
   <si>
     <t xml:space="preserve">3.17513179779053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24026250839233</t>
+    <t xml:space="preserve">3.24026274681091</t>
   </si>
   <si>
     <t xml:space="preserve">3.25802540779114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37496471405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37348532676697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34387993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37422442436218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36682319641113</t>
+    <t xml:space="preserve">3.37496495246887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37348508834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34387969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37422490119934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36682343482971</t>
   </si>
   <si>
     <t xml:space="preserve">3.34091901779175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36608338356018</t>
+    <t xml:space="preserve">3.3660831451416</t>
   </si>
   <si>
     <t xml:space="preserve">3.42899394035339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38236618041992</t>
+    <t xml:space="preserve">3.3823664188385</t>
   </si>
   <si>
     <t xml:space="preserve">3.40383005142212</t>
@@ -1742,163 +1742,163 @@
     <t xml:space="preserve">3.41271114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38976693153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26542615890503</t>
+    <t xml:space="preserve">3.38976716995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26542687416077</t>
   </si>
   <si>
     <t xml:space="preserve">3.24322295188904</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26320624351501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3461000919342</t>
+    <t xml:space="preserve">3.26320648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34609985351562</t>
   </si>
   <si>
     <t xml:space="preserve">3.30095267295837</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27356791496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952150344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878264427185</t>
+    <t xml:space="preserve">3.27356767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952174186707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878169059753</t>
   </si>
   <si>
     <t xml:space="preserve">3.21657848358154</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17365169525146</t>
+    <t xml:space="preserve">3.17365121841431</t>
   </si>
   <si>
     <t xml:space="preserve">3.29651188850403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26690697669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22916030883789</t>
+    <t xml:space="preserve">3.26690673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22916054725647</t>
   </si>
   <si>
     <t xml:space="preserve">3.27874898910522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28392958641052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26468658447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2417426109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2565450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20769715309143</t>
+    <t xml:space="preserve">3.2839298248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26468634605408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24174237251282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25654554367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20769691467285</t>
   </si>
   <si>
     <t xml:space="preserve">3.24100279808044</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26172590255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986742019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30835390090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797480583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32611632347107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29503154754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33055734634399</t>
+    <t xml:space="preserve">3.26172614097595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986694335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30835342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797528266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32611680030823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29503178596497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33055782318115</t>
   </si>
   <si>
     <t xml:space="preserve">3.37644505500793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40309000015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44823789596558</t>
+    <t xml:space="preserve">3.40308880805969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823741912842</t>
   </si>
   <si>
     <t xml:space="preserve">3.4467568397522</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48228240013123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51928949356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52595019340515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53779292106628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52150940895081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54519367218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56295680999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55111408233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57479858398438</t>
+    <t xml:space="preserve">3.48228287696838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51928925514221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52594923973083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53779244422913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52150964736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54519319534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56295657157898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55111384391785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57479882240295</t>
   </si>
   <si>
     <t xml:space="preserve">3.51336812973022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51410794258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966763496399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55777549743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64955139160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542191505432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7139413356781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7109808921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70950126647949</t>
+    <t xml:space="preserve">3.51410841941833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966787338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5577757358551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64955043792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71542167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394228935242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71098136901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70950102806091</t>
   </si>
   <si>
     <t xml:space="preserve">3.79239463806152</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81015777587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83828234672546</t>
+    <t xml:space="preserve">3.81015729904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83828210830688</t>
   </si>
   <si>
     <t xml:space="preserve">3.73614525794983</t>
@@ -1910,22 +1910,22 @@
     <t xml:space="preserve">3.76279020309448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76427006721497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81607866287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459879875183</t>
+    <t xml:space="preserve">3.76426982879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81607913970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459784507751</t>
   </si>
   <si>
     <t xml:space="preserve">3.83088135719299</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82200026512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88564991950989</t>
+    <t xml:space="preserve">3.82200050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88565039634705</t>
   </si>
   <si>
     <t xml:space="preserve">3.84864401817322</t>
@@ -1934,85 +1934,85 @@
     <t xml:space="preserve">3.85604548454285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86344718933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86196637153625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87824845314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92857766151428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9422607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93313908576965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90273118019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93769884109497</t>
+    <t xml:space="preserve">3.86344695091248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86196660995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.878249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92857813835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94226121902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93313813209534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90273189544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93769979476929</t>
   </si>
   <si>
     <t xml:space="preserve">3.94682192802429</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92553782463074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98483061790466</t>
+    <t xml:space="preserve">3.92553639411926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9848301410675</t>
   </si>
   <si>
     <t xml:space="preserve">3.9787495136261</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00307416915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93009781837463</t>
+    <t xml:space="preserve">4.00307464599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93009877204895</t>
   </si>
   <si>
     <t xml:space="preserve">3.94074034690857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.901211977005</t>
+    <t xml:space="preserve">3.90121126174927</t>
   </si>
   <si>
     <t xml:space="preserve">3.87840604782104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90729260444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95138359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96506667137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9620246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98026943206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98635101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9726676940918</t>
+    <t xml:space="preserve">3.90729308128357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95138311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96506571769714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96202516555786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98026990890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98635053634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266674041748</t>
   </si>
   <si>
     <t xml:space="preserve">3.97722864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9878716468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01219701766968</t>
+    <t xml:space="preserve">3.98787069320679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01219654083252</t>
   </si>
   <si>
     <t xml:space="preserve">4.03804206848145</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">4.04412460327148</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03956365585327</t>
+    <t xml:space="preserve">4.03956317901611</t>
   </si>
   <si>
     <t xml:space="preserve">4.03196096420288</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05020618438721</t>
+    <t xml:space="preserve">4.05020523071289</t>
   </si>
   <si>
     <t xml:space="preserve">4.10341787338257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18247604370117</t>
+    <t xml:space="preserve">4.18247509002686</t>
   </si>
   <si>
     <t xml:space="preserve">4.16879320144653</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">4.15054798126221</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17943477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17031335830688</t>
+    <t xml:space="preserve">4.17943525314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17031288146973</t>
   </si>
   <si>
     <t xml:space="preserve">4.17183351516724</t>
@@ -2060,22 +2060,22 @@
     <t xml:space="preserve">4.19615840911865</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21440362930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2417688369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28281784057617</t>
+    <t xml:space="preserve">4.21440315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24176931381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28281879425049</t>
   </si>
   <si>
     <t xml:space="preserve">4.27217578887939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33451080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34363317489624</t>
+    <t xml:space="preserve">4.33451128005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34363222122192</t>
   </si>
   <si>
     <t xml:space="preserve">4.32234716415405</t>
@@ -2090,31 +2090,31 @@
     <t xml:space="preserve">4.30334329605103</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33907127380371</t>
+    <t xml:space="preserve">4.33907079696655</t>
   </si>
   <si>
     <t xml:space="preserve">4.32918930053711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32842874526978</t>
+    <t xml:space="preserve">4.32842922210693</t>
   </si>
   <si>
     <t xml:space="preserve">4.31474637985229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30258274078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28966045379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26457452774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24252843856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16347169876099</t>
+    <t xml:space="preserve">4.30258369445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28965997695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26457500457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24252986907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16347122192383</t>
   </si>
   <si>
     <t xml:space="preserve">4.19691848754883</t>
@@ -2129,22 +2129,22 @@
     <t xml:space="preserve">4.18399620056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20984172821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24557065963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22124528884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28661918640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23948860168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25317144393921</t>
+    <t xml:space="preserve">4.20984220504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24556970596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22124481201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28661966323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23948907852173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25317192077637</t>
   </si>
   <si>
     <t xml:space="preserve">4.22732639312744</t>
@@ -2153,25 +2153,25 @@
     <t xml:space="preserve">4.25849342346191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23872900009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21972417831421</t>
+    <t xml:space="preserve">4.23872852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21972465515137</t>
   </si>
   <si>
     <t xml:space="preserve">4.18627691268921</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23796939849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23720836639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24937057495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27901744842529</t>
+    <t xml:space="preserve">4.23796796798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23720788955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24937105178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27901792526245</t>
   </si>
   <si>
     <t xml:space="preserve">4.32538843154907</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">4.3801212310791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31778621673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40064573287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22428607940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23416709899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26761484146118</t>
+    <t xml:space="preserve">4.317786693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4006462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22428560256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23416757583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26761531829834</t>
   </si>
   <si>
     <t xml:space="preserve">4.3398323059082</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">4.35275411605835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4135684967041</t>
+    <t xml:space="preserve">4.41356897354126</t>
   </si>
   <si>
     <t xml:space="preserve">4.47818279266357</t>
@@ -2213,43 +2213,43 @@
     <t xml:space="preserve">4.4302921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44549512863159</t>
+    <t xml:space="preserve">4.44549560546875</t>
   </si>
   <si>
     <t xml:space="preserve">4.4774227142334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55420017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61425495147705</t>
+    <t xml:space="preserve">4.55420064926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61425399780273</t>
   </si>
   <si>
     <t xml:space="preserve">4.62185621261597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74120330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69027233123779</t>
+    <t xml:space="preserve">4.74120283126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69027185440063</t>
   </si>
   <si>
     <t xml:space="preserve">4.70547533035278</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73740196228027</t>
+    <t xml:space="preserve">4.73740148544312</t>
   </si>
   <si>
     <t xml:space="preserve">4.73208093643188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71383810043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61805438995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62489748001099</t>
+    <t xml:space="preserve">4.71383714675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61805486679077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62489700317383</t>
   </si>
   <si>
     <t xml:space="preserve">4.66746616363525</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">4.65682411193848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75868701934814</t>
+    <t xml:space="preserve">4.7586874961853</t>
   </si>
   <si>
     <t xml:space="preserve">4.87119293212891</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">4.90083932876587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86511278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87271356582642</t>
+    <t xml:space="preserve">4.86511135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8727126121521</t>
   </si>
   <si>
     <t xml:space="preserve">4.87195301055908</t>
@@ -2279,58 +2279,58 @@
     <t xml:space="preserve">4.8848762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94873142242432</t>
+    <t xml:space="preserve">4.94873094558716</t>
   </si>
   <si>
     <t xml:space="preserve">4.90388059616089</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93504810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95101165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77997207641602</t>
+    <t xml:space="preserve">4.93504762649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95101118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9859790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77997159957886</t>
   </si>
   <si>
     <t xml:space="preserve">4.87715816497803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87793588638306</t>
+    <t xml:space="preserve">4.87793493270874</t>
   </si>
   <si>
     <t xml:space="preserve">4.92147445678711</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85694313049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82817554473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85616540908813</t>
+    <t xml:space="preserve">4.85694265365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82817649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85616588592529</t>
   </si>
   <si>
     <t xml:space="preserve">4.79629945755005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81962394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85150098800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81884670257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76131296157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908683776855</t>
+    <t xml:space="preserve">4.81962442398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85150051116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81884622573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76131200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908731460571</t>
   </si>
   <si>
     <t xml:space="preserve">4.77375221252441</t>
@@ -2339,10 +2339,10 @@
     <t xml:space="preserve">4.69289398193359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7146635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7255482673645</t>
+    <t xml:space="preserve">4.71466398239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72554874420166</t>
   </si>
   <si>
     <t xml:space="preserve">4.67190170288086</t>
@@ -2351,64 +2351,64 @@
     <t xml:space="preserve">4.88648796081543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94402170181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84839105606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91214466094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88571071624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83828449249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05286979675293</t>
+    <t xml:space="preserve">4.9440221786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84839153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91214418411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88570976257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83828353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05286931991577</t>
   </si>
   <si>
     <t xml:space="preserve">5.05442476272583</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15627431869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12672996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19359350204468</t>
+    <t xml:space="preserve">5.15627479553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12673044204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19359397888184</t>
   </si>
   <si>
     <t xml:space="preserve">5.19437170028687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23868846893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18193101882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14694499969482</t>
+    <t xml:space="preserve">5.23868799209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1819314956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14694452285767</t>
   </si>
   <si>
     <t xml:space="preserve">5.08863353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04587173461914</t>
+    <t xml:space="preserve">5.04587125778198</t>
   </si>
   <si>
     <t xml:space="preserve">5.00855255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14150285720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12517595291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0396523475647</t>
+    <t xml:space="preserve">5.14150238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12517499923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03965187072754</t>
   </si>
   <si>
     <t xml:space="preserve">5.06686401367188</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">5.17026948928833</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14305686950684</t>
+    <t xml:space="preserve">5.14305782318115</t>
   </si>
   <si>
     <t xml:space="preserve">5.11273574829102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18659639358521</t>
+    <t xml:space="preserve">5.18659687042236</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201248168945</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">5.23246812820435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31177139282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27600717544556</t>
+    <t xml:space="preserve">5.31177091598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27600765228271</t>
   </si>
   <si>
     <t xml:space="preserve">5.32654333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30010938644409</t>
+    <t xml:space="preserve">5.30010986328125</t>
   </si>
   <si>
     <t xml:space="preserve">5.18504190444946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1617169380188</t>
+    <t xml:space="preserve">5.16171741485596</t>
   </si>
   <si>
     <t xml:space="preserve">5.25112771987915</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">5.3218789100647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26512289047241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29855489730835</t>
+    <t xml:space="preserve">5.26512241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29855442047119</t>
   </si>
   <si>
     <t xml:space="preserve">5.26123523712158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28689241409302</t>
+    <t xml:space="preserve">5.28689193725586</t>
   </si>
   <si>
     <t xml:space="preserve">5.27056455612183</t>
@@ -2474,118 +2474,118 @@
     <t xml:space="preserve">5.31643676757812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29077959060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26356792449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30866193771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24413013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32809829711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34909105300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33665084838867</t>
+    <t xml:space="preserve">5.29078006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356744766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30866098403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24413061141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32809925079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34909057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33665132522583</t>
   </si>
   <si>
     <t xml:space="preserve">5.34287071228027</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36697244644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3957405090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874244689941</t>
+    <t xml:space="preserve">5.36697292327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39574003219604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874292373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3724160194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36386394500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24957227706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33820629119873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33354187011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42917108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38796520233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3452033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33509540557861</t>
+    <t xml:space="preserve">5.37241506576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36386346817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24957275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33820533752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33354139328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42917251586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38796424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34520387649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33509588241577</t>
   </si>
   <si>
     <t xml:space="preserve">5.36308526992798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31021642684937</t>
+    <t xml:space="preserve">5.31021595001221</t>
   </si>
   <si>
     <t xml:space="preserve">5.29000186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26745462417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24801826477051</t>
+    <t xml:space="preserve">5.26745557785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24801731109619</t>
   </si>
   <si>
     <t xml:space="preserve">5.31799173355103</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34209394454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33043146133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528251647949</t>
+    <t xml:space="preserve">5.3420934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33043098449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528299331665</t>
   </si>
   <si>
     <t xml:space="preserve">5.19126176834106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22702503204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23324537277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32265615463257</t>
+    <t xml:space="preserve">5.22702598571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23324584960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32265663146973</t>
   </si>
   <si>
     <t xml:space="preserve">5.38407754898071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45016384124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42839431762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316625595093</t>
+    <t xml:space="preserve">5.4501633644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42839479446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44316577911377</t>
   </si>
   <si>
     <t xml:space="preserve">5.6025505065918</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">5.57844829559326</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54968166351318</t>
+    <t xml:space="preserve">5.54968118667603</t>
   </si>
   <si>
     <t xml:space="preserve">5.49836730957031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6072154045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60643768310547</t>
+    <t xml:space="preserve">5.60721492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60643815994263</t>
   </si>
   <si>
     <t xml:space="preserve">5.61809968948364</t>
@@ -2612,148 +2612,148 @@
     <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65230941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67952156066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76659965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75338220596313</t>
+    <t xml:space="preserve">5.65230894088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67952108383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76660013198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75338268280029</t>
   </si>
   <si>
     <t xml:space="preserve">5.76971006393433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91743183135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00606489181519</t>
+    <t xml:space="preserve">5.91743230819702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00606536865234</t>
   </si>
   <si>
     <t xml:space="preserve">6.05687618255615</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04179191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99098062515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04973077774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20772266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09260225296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27123641967773</t>
+    <t xml:space="preserve">6.0417914390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99098014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04973030090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20772218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09260272979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27123689651489</t>
   </si>
   <si>
     <t xml:space="preserve">6.35856819152832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42128896713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23630380630493</t>
+    <t xml:space="preserve">6.42128944396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23630332946777</t>
   </si>
   <si>
     <t xml:space="preserve">6.32442998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35142374038696</t>
+    <t xml:space="preserve">6.35142278671265</t>
   </si>
   <si>
     <t xml:space="preserve">6.40699815750122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4546332359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4919490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51020860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50465154647827</t>
+    <t xml:space="preserve">6.45463371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49194860458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51020956039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50465059280396</t>
   </si>
   <si>
     <t xml:space="preserve">6.45622205734253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51576566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134199142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.664231300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72218799591064</t>
+    <t xml:space="preserve">6.51576614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5713415145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66423082351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72218751907349</t>
   </si>
   <si>
     <t xml:space="preserve">6.8007869720459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69519376754761</t>
+    <t xml:space="preserve">6.69519281387329</t>
   </si>
   <si>
     <t xml:space="preserve">6.70392751693726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37524175643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19660806655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31569671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28473377227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01479816436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06560897827148</t>
+    <t xml:space="preserve">6.37524080276489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19660711288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31569623947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28473281860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01479768753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06560945510864</t>
   </si>
   <si>
     <t xml:space="preserve">6.18708086013794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54196548461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46654367446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26488542556763</t>
+    <t xml:space="preserve">6.5419659614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46654319763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26488590240479</t>
   </si>
   <si>
     <t xml:space="preserve">5.64165163040161</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32249307632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17640972137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14906740188599</t>
+    <t xml:space="preserve">5.3224925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17641019821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14906692504883</t>
   </si>
   <si>
     <t xml:space="preserve">4.46108102798462</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35548877716064</t>
+    <t xml:space="preserve">4.3554892539978</t>
   </si>
   <si>
     <t xml:space="preserve">4.54126739501953</t>
@@ -2768,10 +2768,10 @@
     <t xml:space="preserve">4.67544174194336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74133825302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01047849655151</t>
+    <t xml:space="preserve">4.74133729934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01047897338867</t>
   </si>
   <si>
     <t xml:space="preserve">5.00174617767334</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">4.88662624359131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07002401351929</t>
+    <t xml:space="preserve">5.07002353668213</t>
   </si>
   <si>
     <t xml:space="preserve">5.0327091217041</t>
@@ -2795,13 +2795,13 @@
     <t xml:space="preserve">4.87868690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834840774536</t>
+    <t xml:space="preserve">4.81834888458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.87471723556519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0612907409668</t>
+    <t xml:space="preserve">5.06129026412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.98983716964722</t>
@@ -2816,85 +2816,85 @@
     <t xml:space="preserve">4.92791032791138</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96125555038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92949867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91600227355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76753807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75165891647339</t>
+    <t xml:space="preserve">4.96125602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92949819564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91600179672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76753759384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75165843963623</t>
   </si>
   <si>
     <t xml:space="preserve">4.70481729507446</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68417501449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81914281845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88265705108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97792816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95093441009521</t>
+    <t xml:space="preserve">4.68417453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81914186477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88265657424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97792863845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95093488693237</t>
   </si>
   <si>
     <t xml:space="preserve">4.76912498474121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83343267440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81676054000854</t>
+    <t xml:space="preserve">4.83343315124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81676006317139</t>
   </si>
   <si>
     <t xml:space="preserve">4.91282606124878</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92235231399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82708215713501</t>
+    <t xml:space="preserve">4.92235326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82708168029785</t>
   </si>
   <si>
     <t xml:space="preserve">4.7873854637146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67147207260132</t>
+    <t xml:space="preserve">4.67147159576416</t>
   </si>
   <si>
     <t xml:space="preserve">4.57381868362427</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73498678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79294347763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96363735198975</t>
+    <t xml:space="preserve">4.73498630523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79294300079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96363687515259</t>
   </si>
   <si>
     <t xml:space="preserve">5.02556371688843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08907794952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16847133636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17323398590088</t>
+    <t xml:space="preserve">5.08907747268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16847085952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17323446273804</t>
   </si>
   <si>
     <t xml:space="preserve">5.22880887985229</t>
@@ -2903,37 +2903,37 @@
     <t xml:space="preserve">5.39235782623291</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47889709472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55590772628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70754814147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95763492584229</t>
+    <t xml:space="preserve">5.4788966178894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.555908203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70754766464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95763540267944</t>
   </si>
   <si>
     <t xml:space="preserve">5.94255065917969</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01638603210449</t>
+    <t xml:space="preserve">6.01638507843018</t>
   </si>
   <si>
     <t xml:space="preserve">6.01559257507324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98780393600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96398687362671</t>
+    <t xml:space="preserve">5.9878044128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96398639678955</t>
   </si>
   <si>
     <t xml:space="preserve">5.81711006164551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8314003944397</t>
+    <t xml:space="preserve">5.83140087127686</t>
   </si>
   <si>
     <t xml:space="preserve">5.84489727020264</t>
@@ -2942,67 +2942,67 @@
     <t xml:space="preserve">6.00685834884644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95842933654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93302345275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03385162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20137071609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05290699005127</t>
+    <t xml:space="preserve">5.95842885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93302392959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03385210037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20137119293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05290651321411</t>
   </si>
   <si>
     <t xml:space="preserve">6.08386945724487</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06481456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13229942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09577798843384</t>
+    <t xml:space="preserve">6.06481599807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13229990005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.095778465271</t>
   </si>
   <si>
     <t xml:space="preserve">6.11483287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30934524536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25138902664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28314590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33157587051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41970109939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.300612449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44828319549561</t>
+    <t xml:space="preserve">6.30934572219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25138854980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28314542770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33157539367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41970157623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30061197280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44828271865845</t>
   </si>
   <si>
     <t xml:space="preserve">6.36253833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48559665679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55228710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69043111801147</t>
+    <t xml:space="preserve">6.48559713363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55228757858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69043016433716</t>
   </si>
   <si>
     <t xml:space="preserve">6.74146509170532</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">6.63777589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58917045593262</t>
+    <t xml:space="preserve">6.58917093276978</t>
   </si>
   <si>
     <t xml:space="preserve">6.4352560043335</t>
@@ -3023,91 +3023,91 @@
     <t xml:space="preserve">6.41662406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39961242675781</t>
+    <t xml:space="preserve">6.39961290359497</t>
   </si>
   <si>
     <t xml:space="preserve">6.46036863327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26756954193115</t>
+    <t xml:space="preserve">6.26757001876831</t>
   </si>
   <si>
     <t xml:space="preserve">6.26108932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36396980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37449979782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34533739089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2618989944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33075666427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37125968933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45145750045776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56972789764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48710107803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38746213912964</t>
+    <t xml:space="preserve">6.36396932601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3745002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34533834457397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26190042495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33075618743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37126016616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45145702362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5697283744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48710155487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38746118545532</t>
   </si>
   <si>
     <t xml:space="preserve">6.32508563995361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30888366699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.282151222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26270961761475</t>
+    <t xml:space="preserve">6.30888414382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28215169906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26270914077759</t>
   </si>
   <si>
     <t xml:space="preserve">6.3720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32184505462646</t>
+    <t xml:space="preserve">6.32184457778931</t>
   </si>
   <si>
     <t xml:space="preserve">6.3169846534729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17036104202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18899297714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1476788520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07882165908813</t>
+    <t xml:space="preserve">6.17036008834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18899250030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14767932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07882213592529</t>
   </si>
   <si>
     <t xml:space="preserve">6.19547271728516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14038801193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00429439544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15091848373413</t>
+    <t xml:space="preserve">6.14038753509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00429487228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15091896057129</t>
   </si>
   <si>
     <t xml:space="preserve">6.05370950698853</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">6.19790363311768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15982961654663</t>
+    <t xml:space="preserve">6.15983009338379</t>
   </si>
   <si>
     <t xml:space="preserve">6.20519399642944</t>
@@ -3125,70 +3125,70 @@
     <t xml:space="preserve">6.12499618530273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18008184432983</t>
+    <t xml:space="preserve">6.18008136749268</t>
   </si>
   <si>
     <t xml:space="preserve">6.13633728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97837257385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01077556610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035297393799</t>
+    <t xml:space="preserve">5.9783730506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01077461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035202026367</t>
   </si>
   <si>
     <t xml:space="preserve">5.93057775497437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04317903518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97027111053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94191884994507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07558155059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0091552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04965877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98971366882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96541118621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15334939956665</t>
+    <t xml:space="preserve">6.04317855834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97027158737183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94191932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0755820274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00915575027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04965925216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98971319198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9654107093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15334892272949</t>
   </si>
   <si>
     <t xml:space="preserve">6.11365556716919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09502410888672</t>
+    <t xml:space="preserve">6.0950231552124</t>
   </si>
   <si>
     <t xml:space="preserve">6.22706604003906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24731826782227</t>
+    <t xml:space="preserve">6.24731779098511</t>
   </si>
   <si>
     <t xml:space="preserve">6.04560804367065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09745407104492</t>
+    <t xml:space="preserve">6.09745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">6.05046892166138</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">6.14200782775879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08773326873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0350775718689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13147687911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99052381515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63003921508789</t>
+    <t xml:space="preserve">6.08773231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03507804870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13147640228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99052333831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63003873825073</t>
   </si>
   <si>
     <t xml:space="preserve">5.61950731277466</t>
@@ -3221,10 +3221,10 @@
     <t xml:space="preserve">5.65920209884644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84633016586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96865129470825</t>
+    <t xml:space="preserve">5.84632968902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96865177154541</t>
   </si>
   <si>
     <t xml:space="preserve">6.16550064086914</t>
@@ -3233,76 +3233,76 @@
     <t xml:space="preserve">6.52193450927734</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51869344711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65235662460327</t>
+    <t xml:space="preserve">6.5186939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65235710144043</t>
   </si>
   <si>
     <t xml:space="preserve">6.54542684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49682235717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5527172088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57134962081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57944965362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61347341537476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66936779022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81923389434814</t>
+    <t xml:space="preserve">6.49682283401489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55271673202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57135009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57945013046265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61347246170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66936874389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81923294067383</t>
   </si>
   <si>
     <t xml:space="preserve">6.87512874603271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86135625839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88727951049805</t>
+    <t xml:space="preserve">6.86135721206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88727903366089</t>
   </si>
   <si>
     <t xml:space="preserve">6.78034925460815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73984479904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70906162261963</t>
+    <t xml:space="preserve">6.73984622955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70906114578247</t>
   </si>
   <si>
     <t xml:space="preserve">6.64992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64749622344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62724447250366</t>
+    <t xml:space="preserve">6.64749717712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6272439956665</t>
   </si>
   <si>
     <t xml:space="preserve">6.61023235321045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57782936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65073680877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52031421661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51707410812378</t>
+    <t xml:space="preserve">6.57782888412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6507363319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52031373977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51707363128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.61185312271118</t>
@@ -3314,43 +3314,43 @@
     <t xml:space="preserve">6.53813600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70015096664429</t>
+    <t xml:space="preserve">6.70015048980713</t>
   </si>
   <si>
     <t xml:space="preserve">6.76009750366211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70420217514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85082578659058</t>
+    <t xml:space="preserve">6.70420169830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85082530975342</t>
   </si>
   <si>
     <t xml:space="preserve">6.80060148239136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23318243026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11005115509033</t>
+    <t xml:space="preserve">7.23318195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11005163192749</t>
   </si>
   <si>
     <t xml:space="preserve">7.24047231674194</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24857330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13111352920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15541505813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17647743225098</t>
+    <t xml:space="preserve">7.24857378005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13111257553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22994327545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15541458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17647695541382</t>
   </si>
   <si>
     <t xml:space="preserve">7.09466361999512</t>
@@ -3371,64 +3371,64 @@
     <t xml:space="preserve">6.88806295394897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94177865982056</t>
+    <t xml:space="preserve">6.9417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">6.81038093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94260549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76906061172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79385232925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77649784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06739091873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07069730758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98061943054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02441835403442</t>
+    <t xml:space="preserve">6.94260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76906108856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79385280609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77649879455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06739234924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07069683074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98061895370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02441930770874</t>
   </si>
   <si>
     <t xml:space="preserve">6.84591627120972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87401437759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99301528930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99797439575195</t>
+    <t xml:space="preserve">6.87401342391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99301481246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99797391891479</t>
   </si>
   <si>
     <t xml:space="preserve">6.99549531936646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86161851882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77319288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67485046386719</t>
+    <t xml:space="preserve">6.86161804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.773193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67485094070435</t>
   </si>
   <si>
     <t xml:space="preserve">6.59221076965332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54510593414307</t>
+    <t xml:space="preserve">6.54510545730591</t>
   </si>
   <si>
     <t xml:space="preserve">6.47899341583252</t>
@@ -3437,85 +3437,85 @@
     <t xml:space="preserve">6.48229932785034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56741857528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44758987426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30214357376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48147249221802</t>
+    <t xml:space="preserve">6.56741905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44759082794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30214405059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48147296905518</t>
   </si>
   <si>
     <t xml:space="preserve">6.50626468658447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68063497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69633769989014</t>
+    <t xml:space="preserve">6.68063545227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69633674621582</t>
   </si>
   <si>
     <t xml:space="preserve">6.78889417648315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88062524795532</t>
+    <t xml:space="preserve">6.88062477111816</t>
   </si>
   <si>
     <t xml:space="preserve">6.82195043563843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76079654693604</t>
+    <t xml:space="preserve">6.76079702377319</t>
   </si>
   <si>
     <t xml:space="preserve">6.80790233612061</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74509525299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410779953003</t>
+    <t xml:space="preserve">6.74509477615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410827636719</t>
   </si>
   <si>
     <t xml:space="preserve">6.86409759521484</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87897253036499</t>
+    <t xml:space="preserve">6.87897205352783</t>
   </si>
   <si>
     <t xml:space="preserve">6.96326494216919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97648811340332</t>
+    <t xml:space="preserve">6.97648763656616</t>
   </si>
   <si>
     <t xml:space="preserve">6.96409177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0302038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96904945373535</t>
+    <t xml:space="preserve">7.03020429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96904993057251</t>
   </si>
   <si>
     <t xml:space="preserve">7.01863431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0690450668335</t>
+    <t xml:space="preserve">6.97070264816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06904458999634</t>
   </si>
   <si>
     <t xml:space="preserve">7.09549045562744</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14920663833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10210084915161</t>
+    <t xml:space="preserve">7.14920520782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10210037231445</t>
   </si>
   <si>
     <t xml:space="preserve">7.09053182601929</t>
@@ -3524,19 +3524,19 @@
     <t xml:space="preserve">7.12441444396973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03185701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09135770797729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15581798553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15829467773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06987190246582</t>
+    <t xml:space="preserve">7.03185606002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09135818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15581750869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15829610824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0698709487915</t>
   </si>
   <si>
     <t xml:space="preserve">7.01367616653442</t>
@@ -3545,25 +3545,25 @@
     <t xml:space="preserve">7.20457553863525</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21862316131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14011573791504</t>
+    <t xml:space="preserve">7.21862363815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1401162147522</t>
   </si>
   <si>
     <t xml:space="preserve">6.98144626617432</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89054298400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83186817169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90541696548462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78145742416382</t>
+    <t xml:space="preserve">6.89054203033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83186769485474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90541744232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78145790100098</t>
   </si>
   <si>
     <t xml:space="preserve">6.85004758834839</t>
@@ -3572,46 +3572,46 @@
     <t xml:space="preserve">6.83269309997559</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8376522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60460710525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68724727630615</t>
+    <t xml:space="preserve">6.83765268325806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60460662841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68724679946899</t>
   </si>
   <si>
     <t xml:space="preserve">6.77980470657349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74096298217773</t>
+    <t xml:space="preserve">6.74096250534058</t>
   </si>
   <si>
     <t xml:space="preserve">6.71699810028076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58312082290649</t>
+    <t xml:space="preserve">6.58312034606934</t>
   </si>
   <si>
     <t xml:space="preserve">6.67237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76658153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74261617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74922704696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73269939422607</t>
+    <t xml:space="preserve">6.7665810585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74261665344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74922657012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73269891738892</t>
   </si>
   <si>
     <t xml:space="preserve">6.72939348220825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6574969291687</t>
+    <t xml:space="preserve">6.65749597549438</t>
   </si>
   <si>
     <t xml:space="preserve">6.59551620483398</t>
@@ -3620,25 +3620,25 @@
     <t xml:space="preserve">6.52196645736694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55419683456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61369705200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62113475799561</t>
+    <t xml:space="preserve">6.55419635772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61369752883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62113523483276</t>
   </si>
   <si>
     <t xml:space="preserve">6.62196063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57898855209351</t>
+    <t xml:space="preserve">6.57898807525635</t>
   </si>
   <si>
     <t xml:space="preserve">6.62939929962158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69551181793213</t>
+    <t xml:space="preserve">6.69551134109497</t>
   </si>
   <si>
     <t xml:space="preserve">6.67733001708984</t>
@@ -3647,40 +3647,40 @@
     <t xml:space="preserve">6.78724193572998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67650365829468</t>
+    <t xml:space="preserve">6.67650461196899</t>
   </si>
   <si>
     <t xml:space="preserve">6.65584373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7103853225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70046949386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58725261688232</t>
+    <t xml:space="preserve">6.71038579940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70046997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58725214004517</t>
   </si>
   <si>
     <t xml:space="preserve">6.63931608200073</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61865520477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58973121643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64262104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47238159179688</t>
+    <t xml:space="preserve">6.61865568161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58973169326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6426215171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47238206863403</t>
   </si>
   <si>
     <t xml:space="preserve">6.48643159866333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48808431625366</t>
+    <t xml:space="preserve">6.4880838394165</t>
   </si>
   <si>
     <t xml:space="preserve">6.53353643417358</t>
@@ -3689,10 +3689,10 @@
     <t xml:space="preserve">6.56246042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51452922821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54841089248657</t>
+    <t xml:space="preserve">6.51452875137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54841136932373</t>
   </si>
   <si>
     <t xml:space="preserve">6.6624550819397</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">6.65914916992188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63105201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55502223968506</t>
+    <t xml:space="preserve">6.63105154037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55502319335938</t>
   </si>
   <si>
     <t xml:space="preserve">6.61948204040527</t>
@@ -3713,61 +3713,61 @@
     <t xml:space="preserve">6.43088579177856</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43849754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60510492324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942590713501</t>
+    <t xml:space="preserve">6.43849658966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60510444641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942543029785</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83429622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73365545272827</t>
+    <t xml:space="preserve">6.83429670333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73365497589111</t>
   </si>
   <si>
     <t xml:space="preserve">6.81230735778809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77847862243652</t>
+    <t xml:space="preserve">6.77847814559937</t>
   </si>
   <si>
     <t xml:space="preserve">6.57973337173462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5450587272644</t>
+    <t xml:space="preserve">6.54505825042725</t>
   </si>
   <si>
     <t xml:space="preserve">6.50700092315674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51461219787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55605316162109</t>
+    <t xml:space="preserve">6.51461267471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55605220794678</t>
   </si>
   <si>
     <t xml:space="preserve">6.56197261810303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59495639801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58649921417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62455654144287</t>
+    <t xml:space="preserve">6.5949559211731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58649873733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62455701828003</t>
   </si>
   <si>
     <t xml:space="preserve">6.63385963439941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67191648483276</t>
+    <t xml:space="preserve">6.67191696166992</t>
   </si>
   <si>
     <t xml:space="preserve">6.63639688491821</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">6.57719564437866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64316272735596</t>
+    <t xml:space="preserve">6.64316177368164</t>
   </si>
   <si>
     <t xml:space="preserve">6.69982576370239</t>
@@ -3785,13 +3785,13 @@
     <t xml:space="preserve">6.76663827896118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62371015548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56366443634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49346876144409</t>
+    <t xml:space="preserve">6.62371063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56366491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49346923828125</t>
   </si>
   <si>
     <t xml:space="preserve">6.4943151473999</t>
@@ -3800,13 +3800,13 @@
     <t xml:space="preserve">6.55267000198364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52645254135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60003042221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53068065643311</t>
+    <t xml:space="preserve">6.52645301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002994537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53068113327026</t>
   </si>
   <si>
     <t xml:space="preserve">6.52476072311401</t>
@@ -3815,28 +3815,28 @@
     <t xml:space="preserve">6.41904592514038</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35815286636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36830186843872</t>
+    <t xml:space="preserve">6.35815334320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36830234527588</t>
   </si>
   <si>
     <t xml:space="preserve">6.23721504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34208488464355</t>
+    <t xml:space="preserve">6.3420844078064</t>
   </si>
   <si>
     <t xml:space="preserve">6.28795766830444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94121170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92091417312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88539361953735</t>
+    <t xml:space="preserve">5.94121074676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92091369628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88539409637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.78475284576416</t>
@@ -3848,16 +3848,16 @@
     <t xml:space="preserve">5.86932468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9868803024292</t>
+    <t xml:space="preserve">5.98688077926636</t>
   </si>
   <si>
     <t xml:space="preserve">5.9352912902832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87524509429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78221464157104</t>
+    <t xml:space="preserve">5.87524557113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78221559524536</t>
   </si>
   <si>
     <t xml:space="preserve">5.74500370025635</t>
@@ -3869,25 +3869,25 @@
     <t xml:space="preserve">5.69087743759155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69848871231079</t>
+    <t xml:space="preserve">5.69848918914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.6900315284729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8380331993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85156488418579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70694589614868</t>
+    <t xml:space="preserve">5.83803272247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85156440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70694637298584</t>
   </si>
   <si>
     <t xml:space="preserve">5.72132301330566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77629566192627</t>
+    <t xml:space="preserve">5.77629518508911</t>
   </si>
   <si>
     <t xml:space="preserve">5.8405704498291</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">5.9885721206665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09767007827759</t>
+    <t xml:space="preserve">6.09767055511475</t>
   </si>
   <si>
     <t xml:space="preserve">6.06637859344482</t>
@@ -3905,25 +3905,25 @@
     <t xml:space="preserve">6.02747535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97165727615356</t>
+    <t xml:space="preserve">5.97165775299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.0426983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10274457931519</t>
+    <t xml:space="preserve">6.10274505615234</t>
   </si>
   <si>
     <t xml:space="preserve">6.14841365814209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11965942382812</t>
+    <t xml:space="preserve">6.11965894699097</t>
   </si>
   <si>
     <t xml:space="preserve">6.16109943389893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11543035507202</t>
+    <t xml:space="preserve">6.11543083190918</t>
   </si>
   <si>
     <t xml:space="preserve">6.13657379150391</t>
@@ -3932,7 +3932,7 @@
     <t xml:space="preserve">6.13319063186646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16871166229248</t>
+    <t xml:space="preserve">6.16871118545532</t>
   </si>
   <si>
     <t xml:space="preserve">6.08498477935791</t>
@@ -3941,49 +3941,49 @@
     <t xml:space="preserve">5.99956607818604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05538368225098</t>
+    <t xml:space="preserve">6.05538415908813</t>
   </si>
   <si>
     <t xml:space="preserve">6.00379467010498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04692697525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9936466217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97757768630981</t>
+    <t xml:space="preserve">6.04692649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99364614486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97757720947266</t>
   </si>
   <si>
     <t xml:space="preserve">5.95558834075928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8777813911438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8794732093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8414158821106</t>
+    <t xml:space="preserve">5.87778186798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87947368621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84141635894775</t>
   </si>
   <si>
     <t xml:space="preserve">5.95812606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04608106613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76445484161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7416205406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67227077484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71286582946777</t>
+    <t xml:space="preserve">6.04608201980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76445531845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74162101745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67227125167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71286630630493</t>
   </si>
   <si>
     <t xml:space="preserve">5.57332134246826</t>
@@ -3995,67 +3995,67 @@
     <t xml:space="preserve">5.68580293655396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76022624969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66719675064087</t>
+    <t xml:space="preserve">5.76022672653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66719722747803</t>
   </si>
   <si>
     <t xml:space="preserve">5.66804265975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65789365768433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58516120910645</t>
+    <t xml:space="preserve">5.65789413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5851616859436</t>
   </si>
   <si>
     <t xml:space="preserve">5.60376739501953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66381406784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62237405776978</t>
+    <t xml:space="preserve">5.66381454467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62237310409546</t>
   </si>
   <si>
     <t xml:space="preserve">5.70525407791138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6266016960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78052425384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81519889831543</t>
+    <t xml:space="preserve">5.62660217285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7805233001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81519794464111</t>
   </si>
   <si>
     <t xml:space="preserve">5.84902763366699</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85917568206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95051431655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92852544784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95897197723389</t>
+    <t xml:space="preserve">5.85917615890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95051383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92852592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95897102355957</t>
   </si>
   <si>
     <t xml:space="preserve">6.06553268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02155542373657</t>
+    <t xml:space="preserve">6.02155494689941</t>
   </si>
   <si>
     <t xml:space="preserve">5.87693643569946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8431077003479</t>
+    <t xml:space="preserve">5.84310722351074</t>
   </si>
   <si>
     <t xml:space="preserve">5.86086750030518</t>
@@ -4064,37 +4064,37 @@
     <t xml:space="preserve">5.86171388626099</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85410213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88708448410034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75684356689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80420398712158</t>
+    <t xml:space="preserve">5.85410165786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8870849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75684404373169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8042049407959</t>
   </si>
   <si>
     <t xml:space="preserve">5.92260551452637</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83972454071045</t>
+    <t xml:space="preserve">5.83972501754761</t>
   </si>
   <si>
     <t xml:space="preserve">5.79624176025391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79711151123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95886754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.871901512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89712142944336</t>
+    <t xml:space="preserve">5.79711103439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95886707305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87190198898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89712190628052</t>
   </si>
   <si>
     <t xml:space="preserve">5.96060657501221</t>
@@ -4109,7 +4109,7 @@
     <t xml:space="preserve">5.77363109588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59274339675903</t>
+    <t xml:space="preserve">5.59274291992188</t>
   </si>
   <si>
     <t xml:space="preserve">5.50577735900879</t>
@@ -4118,22 +4118,22 @@
     <t xml:space="preserve">5.63274765014648</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59361267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56056594848633</t>
+    <t xml:space="preserve">5.5936131477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56056547164917</t>
   </si>
   <si>
     <t xml:space="preserve">5.49621152877808</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59100389480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66144609451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63709545135498</t>
+    <t xml:space="preserve">5.59100341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66144561767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63709449768066</t>
   </si>
   <si>
     <t xml:space="preserve">5.59622144699097</t>
@@ -4151,31 +4151,31 @@
     <t xml:space="preserve">5.38489580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69536161422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73884439468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3692421913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36576318740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17878818511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93093633651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83614444732666</t>
+    <t xml:space="preserve">5.69536209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.738844871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36924171447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36576366424561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17878770828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93093681335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8361439704895</t>
   </si>
   <si>
     <t xml:space="preserve">4.976158618927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25183868408203</t>
+    <t xml:space="preserve">5.25183916091919</t>
   </si>
   <si>
     <t xml:space="preserve">4.99094247817993</t>
@@ -4190,10 +4190,10 @@
     <t xml:space="preserve">5.06660270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0648627281189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97441911697388</t>
+    <t xml:space="preserve">5.06486320495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97441864013672</t>
   </si>
   <si>
     <t xml:space="preserve">5.00920581817627</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">5.01790189743042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11182403564453</t>
+    <t xml:space="preserve">5.11182451248169</t>
   </si>
   <si>
     <t xml:space="preserve">5.2848858833313</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">5.27705860137939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30836629867554</t>
+    <t xml:space="preserve">5.3083667755127</t>
   </si>
   <si>
     <t xml:space="preserve">5.3135838508606</t>
@@ -4235,19 +4235,19 @@
     <t xml:space="preserve">5.36402416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48751497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46751308441162</t>
+    <t xml:space="preserve">5.48751449584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46751260757446</t>
   </si>
   <si>
     <t xml:space="preserve">5.43359661102295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39011383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3935923576355</t>
+    <t xml:space="preserve">5.39011335372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39359188079834</t>
   </si>
   <si>
     <t xml:space="preserve">5.37532997131348</t>
@@ -4256,19 +4256,19 @@
     <t xml:space="preserve">5.36141538619995</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2292275428772</t>
+    <t xml:space="preserve">5.22922801971436</t>
   </si>
   <si>
     <t xml:space="preserve">5.30749654769897</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29880046844482</t>
+    <t xml:space="preserve">5.29879999160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.28140735626221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40924596786499</t>
+    <t xml:space="preserve">5.40924549102783</t>
   </si>
   <si>
     <t xml:space="preserve">5.40750694274902</t>
@@ -4277,34 +4277,34 @@
     <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43446636199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38663530349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2657527923584</t>
+    <t xml:space="preserve">5.43446588516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.386634349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26575326919556</t>
   </si>
   <si>
     <t xml:space="preserve">5.22487926483154</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10747623443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08051681518555</t>
+    <t xml:space="preserve">5.10747671127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08051729202271</t>
   </si>
   <si>
     <t xml:space="preserve">5.20052909851074</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0770378112793</t>
+    <t xml:space="preserve">5.07703828811646</t>
   </si>
   <si>
     <t xml:space="preserve">5.16313409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20661687850952</t>
+    <t xml:space="preserve">5.20661640167236</t>
   </si>
   <si>
     <t xml:space="preserve">5.22661924362183</t>
@@ -4319,37 +4319,37 @@
     <t xml:space="preserve">5.32488965988159</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33358669281006</t>
+    <t xml:space="preserve">5.3335862159729</t>
   </si>
   <si>
     <t xml:space="preserve">5.33271646499634</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37793874740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37967729568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35880661010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25618696212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15182876586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17791795730591</t>
+    <t xml:space="preserve">5.37793827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37967777252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35880613327026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25618743896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15182828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17791843414307</t>
   </si>
   <si>
     <t xml:space="preserve">5.13530540466309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24314212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20748615264893</t>
+    <t xml:space="preserve">5.24314165115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20748662948608</t>
   </si>
   <si>
     <t xml:space="preserve">5.08399534225464</t>
@@ -4361,28 +4361,28 @@
     <t xml:space="preserve">4.76657199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68569374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63786315917969</t>
+    <t xml:space="preserve">4.68569421768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63786363601685</t>
   </si>
   <si>
     <t xml:space="preserve">4.83179616928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69613027572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73265504837036</t>
+    <t xml:space="preserve">4.69612979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73265552520752</t>
   </si>
   <si>
     <t xml:space="preserve">4.77352857589722</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75265741348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65351724624634</t>
+    <t xml:space="preserve">4.75265789031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65351676940918</t>
   </si>
   <si>
     <t xml:space="preserve">4.7152624130249</t>
@@ -4394,13 +4394,13 @@
     <t xml:space="preserve">4.70395708084106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76222372055054</t>
+    <t xml:space="preserve">4.76222324371338</t>
   </si>
   <si>
     <t xml:space="preserve">4.69786930084229</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53959178924561</t>
+    <t xml:space="preserve">4.53959226608276</t>
   </si>
   <si>
     <t xml:space="preserve">4.62047052383423</t>
@@ -4412,25 +4412,25 @@
     <t xml:space="preserve">4.41523170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5013279914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57698726654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56742095947266</t>
+    <t xml:space="preserve">4.50132751464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57698774337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56742143630981</t>
   </si>
   <si>
     <t xml:space="preserve">4.55872488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50306701660156</t>
+    <t xml:space="preserve">4.50306749343872</t>
   </si>
   <si>
     <t xml:space="preserve">4.45871448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2047758102417</t>
+    <t xml:space="preserve">4.20477533340454</t>
   </si>
   <si>
     <t xml:space="preserve">4.34826803207397</t>
@@ -4439,16 +4439,16 @@
     <t xml:space="preserve">4.43776512145996</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49607276916504</t>
+    <t xml:space="preserve">4.4960732460022</t>
   </si>
   <si>
     <t xml:space="preserve">4.35550022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29222059249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27052450180054</t>
+    <t xml:space="preserve">4.29222011566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27052354812622</t>
   </si>
   <si>
     <t xml:space="preserve">4.29402828216553</t>
@@ -4460,10 +4460,10 @@
     <t xml:space="preserve">4.27685213088989</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33335208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47754144668579</t>
+    <t xml:space="preserve">4.33335256576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47754192352295</t>
   </si>
   <si>
     <t xml:space="preserve">4.39708471298218</t>
@@ -4475,25 +4475,25 @@
     <t xml:space="preserve">4.44138097763062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47573375701904</t>
+    <t xml:space="preserve">4.47573328018188</t>
   </si>
   <si>
     <t xml:space="preserve">4.54895782470703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52726125717163</t>
+    <t xml:space="preserve">4.52726173400879</t>
   </si>
   <si>
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002954483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166959762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61223840713501</t>
+    <t xml:space="preserve">4.52002906799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55166912078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61223793029785</t>
   </si>
   <si>
     <t xml:space="preserve">4.6077184677124</t>
@@ -4502,7 +4502,7 @@
     <t xml:space="preserve">4.60319805145264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52274131774902</t>
+    <t xml:space="preserve">4.52274179458618</t>
   </si>
   <si>
     <t xml:space="preserve">4.46126937866211</t>
@@ -4514,10 +4514,10 @@
     <t xml:space="preserve">4.47030925750732</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47121381759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36860847473145</t>
+    <t xml:space="preserve">4.47121334075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3686089515686</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
@@ -4526,10 +4526,10 @@
     <t xml:space="preserve">4.35143232345581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24475955963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19684743881226</t>
+    <t xml:space="preserve">4.24476003646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19684791564941</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4541,7 +4541,7 @@
     <t xml:space="preserve">4.22848749160767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29312419891357</t>
+    <t xml:space="preserve">4.29312467575073</t>
   </si>
   <si>
     <t xml:space="preserve">4.34465265274048</t>
@@ -4550,16 +4550,16 @@
     <t xml:space="preserve">4.38894891738892</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51234579086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47392511367798</t>
+    <t xml:space="preserve">4.51234531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47392559051514</t>
   </si>
   <si>
     <t xml:space="preserve">4.44770908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42691659927368</t>
+    <t xml:space="preserve">4.42691707611084</t>
   </si>
   <si>
     <t xml:space="preserve">4.44725704193115</t>
@@ -4568,37 +4568,37 @@
     <t xml:space="preserve">4.45720148086548</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37584066390991</t>
+    <t xml:space="preserve">4.37584018707275</t>
   </si>
   <si>
     <t xml:space="preserve">4.38397693634033</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37041664123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19820308685303</t>
+    <t xml:space="preserve">4.37041616439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19820356369019</t>
   </si>
   <si>
     <t xml:space="preserve">4.11096715927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88903331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90440154075623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84021735191345</t>
+    <t xml:space="preserve">3.8890335559845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90440130233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84021759033203</t>
   </si>
   <si>
     <t xml:space="preserve">3.81852102279663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93875336647034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03503036499023</t>
+    <t xml:space="preserve">3.93875360488892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03503084182739</t>
   </si>
   <si>
     <t xml:space="preserve">3.90666127204895</t>
@@ -4610,7 +4610,7 @@
     <t xml:space="preserve">3.72586035728455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78688097000122</t>
+    <t xml:space="preserve">3.78688073158264</t>
   </si>
   <si>
     <t xml:space="preserve">3.68472838401794</t>
@@ -4622,7 +4622,7 @@
     <t xml:space="preserve">3.68111205101013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7181761264801</t>
+    <t xml:space="preserve">3.71817636489868</t>
   </si>
   <si>
     <t xml:space="preserve">3.81038498878479</t>
@@ -4631,28 +4631,28 @@
     <t xml:space="preserve">3.84925699234009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87230968475342</t>
+    <t xml:space="preserve">3.87230944633484</t>
   </si>
   <si>
     <t xml:space="preserve">3.83388924598694</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79185247421265</t>
+    <t xml:space="preserve">3.79185271263123</t>
   </si>
   <si>
     <t xml:space="preserve">3.88134932518005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95864200592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406626701355</t>
+    <t xml:space="preserve">3.95864224433899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406579017639</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04271507263184</t>
+    <t xml:space="preserve">4.04271459579468</t>
   </si>
   <si>
     <t xml:space="preserve">4.08520269393921</t>
@@ -4661,10 +4661,10 @@
     <t xml:space="preserve">4.10373497009277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15164756774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13492250442505</t>
+    <t xml:space="preserve">4.15164709091187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13492298126221</t>
   </si>
   <si>
     <t xml:space="preserve">4.23029565811157</t>
@@ -4679,28 +4679,28 @@
     <t xml:space="preserve">4.35640430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5290699005127</t>
+    <t xml:space="preserve">4.52906942367554</t>
   </si>
   <si>
     <t xml:space="preserve">4.56342172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59144592285156</t>
+    <t xml:space="preserve">4.59144639968872</t>
   </si>
   <si>
     <t xml:space="preserve">4.61947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64568614959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66195869445801</t>
+    <t xml:space="preserve">4.64568662643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66195917129517</t>
   </si>
   <si>
     <t xml:space="preserve">4.59686994552612</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57698249816895</t>
+    <t xml:space="preserve">4.57698202133179</t>
   </si>
   <si>
     <t xml:space="preserve">4.6583423614502</t>
@@ -4718,7 +4718,7 @@
     <t xml:space="preserve">4.64116621017456</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74603080749512</t>
+    <t xml:space="preserve">4.74603128433228</t>
   </si>
   <si>
     <t xml:space="preserve">4.761399269104</t>
@@ -4727,16 +4727,16 @@
     <t xml:space="preserve">4.77134323120117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70625448226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72252750396729</t>
+    <t xml:space="preserve">4.70625495910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72252702713013</t>
   </si>
   <si>
     <t xml:space="preserve">4.67732667922974</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72071933746338</t>
+    <t xml:space="preserve">4.72071886062622</t>
   </si>
   <si>
     <t xml:space="preserve">4.69902276992798</t>
@@ -4748,34 +4748,34 @@
     <t xml:space="preserve">4.74783897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56974935531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56522989273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5616135597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56251811981201</t>
+    <t xml:space="preserve">4.56975030899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56523036956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56161403656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56251764297485</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5869255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6113338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59054231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56432580947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54715013504028</t>
+    <t xml:space="preserve">4.58692598342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61133432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59054183959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5643253326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54714965820312</t>
   </si>
   <si>
     <t xml:space="preserve">4.67461442947388</t>
@@ -4784,16 +4784,16 @@
     <t xml:space="preserve">4.79123163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.960280418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95214414596558</t>
+    <t xml:space="preserve">4.96028089523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95214462280273</t>
   </si>
   <si>
     <t xml:space="preserve">5.06333684921265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06152868270874</t>
+    <t xml:space="preserve">5.0615291595459</t>
   </si>
   <si>
     <t xml:space="preserve">5.00457668304443</t>
@@ -4820,13 +4820,13 @@
     <t xml:space="preserve">5.11396169662476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10763359069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12262868881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074396133423</t>
+    <t xml:space="preserve">5.10763311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1226282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074348449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.13387441635132</t>
@@ -4841,7 +4841,7 @@
     <t xml:space="preserve">5.09170150756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05234003067017</t>
+    <t xml:space="preserve">5.05233955383301</t>
   </si>
   <si>
     <t xml:space="preserve">4.94175243377686</t>
@@ -4850,16 +4850,16 @@
     <t xml:space="preserve">5.04390525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0251612663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04109382629395</t>
+    <t xml:space="preserve">5.02516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0410943031311</t>
   </si>
   <si>
     <t xml:space="preserve">5.0223503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01016664505005</t>
+    <t xml:space="preserve">5.01016712188721</t>
   </si>
   <si>
     <t xml:space="preserve">5.00454378128052</t>
@@ -4871,7 +4871,7 @@
     <t xml:space="preserve">5.06358575820923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04203128814697</t>
+    <t xml:space="preserve">5.04203081130981</t>
   </si>
   <si>
     <t xml:space="preserve">5.04859113693237</t>
@@ -4883,10 +4883,10 @@
     <t xml:space="preserve">5.01672697067261</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01391553878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111438751221</t>
+    <t xml:space="preserve">5.01391506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111391067505</t>
   </si>
   <si>
     <t xml:space="preserve">4.90988826751709</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">4.92956972122192</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90520286560059</t>
+    <t xml:space="preserve">4.90520238876343</t>
   </si>
   <si>
     <t xml:space="preserve">4.97267961502075</t>
@@ -4913,7 +4913,7 @@
     <t xml:space="preserve">4.96799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99892091751099</t>
+    <t xml:space="preserve">4.99892044067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.96237087249756</t>
@@ -4922,10 +4922,10 @@
     <t xml:space="preserve">4.98580026626587</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98486280441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9914231300354</t>
+    <t xml:space="preserve">4.98486232757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99142360687256</t>
   </si>
   <si>
     <t xml:space="preserve">4.89864253997803</t>
@@ -4937,7 +4937,7 @@
     <t xml:space="preserve">4.91644859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96330738067627</t>
+    <t xml:space="preserve">4.96330785751343</t>
   </si>
   <si>
     <t xml:space="preserve">4.95487308502197</t>
@@ -4949,19 +4949,19 @@
     <t xml:space="preserve">5.13574886322021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15824127197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327701568604</t>
+    <t xml:space="preserve">5.15824174880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327749252319</t>
   </si>
   <si>
     <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16198968887329</t>
+    <t xml:space="preserve">5.16199016571045</t>
   </si>
   <si>
     <t xml:space="preserve">5.25758218765259</t>
@@ -4979,22 +4979,22 @@
     <t xml:space="preserve">5.30631589889526</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48156833648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53311347961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6155858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.395348072052</t>
+    <t xml:space="preserve">5.48156881332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5331130027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61558532714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39534759521484</t>
   </si>
   <si>
     <t xml:space="preserve">5.34942626953125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36067199707031</t>
+    <t xml:space="preserve">5.36067247390747</t>
   </si>
   <si>
     <t xml:space="preserve">5.39722204208374</t>
@@ -5009,13 +5009,13 @@
     <t xml:space="preserve">5.55841779708862</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64932346343994</t>
+    <t xml:space="preserve">5.6493239402771</t>
   </si>
   <si>
     <t xml:space="preserve">5.67556524276733</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70742893218994</t>
+    <t xml:space="preserve">5.7074294090271</t>
   </si>
   <si>
     <t xml:space="preserve">5.77771759033203</t>
@@ -5024,10 +5024,10 @@
     <t xml:space="preserve">5.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71492671966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71586322784424</t>
+    <t xml:space="preserve">5.71492624282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7158637046814</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461750030518</t>
@@ -5045,25 +5045,25 @@
     <t xml:space="preserve">5.71024084091187</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66431856155396</t>
+    <t xml:space="preserve">5.66431903839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.67743968963623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63995170593262</t>
+    <t xml:space="preserve">5.63995218276978</t>
   </si>
   <si>
     <t xml:space="preserve">5.64182615280151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60246467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53030204772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63151693344116</t>
+    <t xml:space="preserve">5.60246515274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53030157089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63151741027832</t>
   </si>
   <si>
     <t xml:space="preserve">5.65963268280029</t>
@@ -5081,7 +5081,7 @@
     <t xml:space="preserve">5.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5827841758728</t>
+    <t xml:space="preserve">5.58278369903564</t>
   </si>
   <si>
     <t xml:space="preserve">5.63432931900024</t>
@@ -5090,25 +5090,25 @@
     <t xml:space="preserve">5.49000310897827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58372116088867</t>
+    <t xml:space="preserve">5.58372163772583</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619300842285</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62027168273926</t>
+    <t xml:space="preserve">5.6202712059021</t>
   </si>
   <si>
     <t xml:space="preserve">5.66994190216064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69243383407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69149732589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72710990905762</t>
+    <t xml:space="preserve">5.69243431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69149684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72710943222046</t>
   </si>
   <si>
     <t xml:space="preserve">5.68868541717529</t>
@@ -5129,7 +5129,7 @@
     <t xml:space="preserve">5.75147676467896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76178550720215</t>
+    <t xml:space="preserve">5.76178503036499</t>
   </si>
   <si>
     <t xml:space="preserve">5.78052949905396</t>
@@ -5138,7 +5138,7 @@
     <t xml:space="preserve">5.84800577163696</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94078731536865</t>
+    <t xml:space="preserve">5.94078683853149</t>
   </si>
   <si>
     <t xml:space="preserve">5.81989049911499</t>
@@ -5159,7 +5159,7 @@
     <t xml:space="preserve">5.83863401412964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9323525428772</t>
+    <t xml:space="preserve">5.93235206604004</t>
   </si>
   <si>
     <t xml:space="preserve">5.84613180160522</t>
@@ -5168,13 +5168,13 @@
     <t xml:space="preserve">5.88268184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88080787658691</t>
+    <t xml:space="preserve">5.88080739974976</t>
   </si>
   <si>
     <t xml:space="preserve">5.89861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93797492980957</t>
+    <t xml:space="preserve">5.93797540664673</t>
   </si>
   <si>
     <t xml:space="preserve">5.99507141113281</t>
@@ -5823,6 +5823,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.40000009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48899984359741</t>
   </si>
 </sst>
 </file>
@@ -62168,7 +62171,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6493518519</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>18578404</v>
@@ -62189,6 +62192,32 @@
         <v>1936</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6494907407</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>21913335</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>6.52400016784668</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>6.39400005340576</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>6.40100002288818</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>6.48899984359741</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENEL.MI.xlsx
+++ b/data/ENEL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1940">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46143770217896</t>
+    <t xml:space="preserve">2.46143746376038</t>
   </si>
   <si>
     <t xml:space="preserve">ENEL.MI</t>
@@ -53,49 +53,49 @@
     <t xml:space="preserve">2.45622825622559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43669271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43929743766785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42236709594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45883274078369</t>
+    <t xml:space="preserve">2.43669319152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43929767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42236685752869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45883297920227</t>
   </si>
   <si>
     <t xml:space="preserve">2.43408799171448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38980841636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34683084487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37417984008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30255126953125</t>
+    <t xml:space="preserve">2.38980865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34683108329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37418031692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30255103111267</t>
   </si>
   <si>
     <t xml:space="preserve">2.37678480148315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4275758266449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41455245018005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44841384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47836780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39111089706421</t>
+    <t xml:space="preserve">2.42757630348206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41455316543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44841408729553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47836828231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39110994338989</t>
   </si>
   <si>
     <t xml:space="preserve">2.45362329483032</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">2.41064620018005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36245894432068</t>
+    <t xml:space="preserve">2.36245918273926</t>
   </si>
   <si>
     <t xml:space="preserve">2.30906295776367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27780675888062</t>
+    <t xml:space="preserve">2.27780604362488</t>
   </si>
   <si>
     <t xml:space="preserve">2.27520179748535</t>
@@ -122,70 +122,70 @@
     <t xml:space="preserve">2.29603981971741</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21268939971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30385398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38199400901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36636638641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.372878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35724949836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3689706325531</t>
+    <t xml:space="preserve">2.21268916130066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3038535118103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38199424743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.366366147995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37287759780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35724997520447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36897087097168</t>
   </si>
   <si>
     <t xml:space="preserve">2.30515575408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39892435073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41194820404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43539023399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41845989227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38459897041321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39371538162231</t>
+    <t xml:space="preserve">2.39892530441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41194844245911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43539047241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41846013069153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38459873199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39371562004089</t>
   </si>
   <si>
     <t xml:space="preserve">2.46664690971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47967052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54739260673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53957796096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5330662727356</t>
+    <t xml:space="preserve">2.47967028617859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54739189147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53957843780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53306651115417</t>
   </si>
   <si>
     <t xml:space="preserve">2.53697347640991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55911326408386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54999756813049</t>
+    <t xml:space="preserve">2.5591139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54999709129333</t>
   </si>
   <si>
     <t xml:space="preserve">2.5526020526886</t>
@@ -197,43 +197,43 @@
     <t xml:space="preserve">2.5317645072937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54608988761902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58646321296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60469579696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53827595710754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52525234222412</t>
+    <t xml:space="preserve">2.54609036445618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58646297454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60469532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53827619552612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52525281906128</t>
   </si>
   <si>
     <t xml:space="preserve">2.50181031227112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42887902259827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38329696655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44971632957458</t>
+    <t xml:space="preserve">2.42887854576111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38329648971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44971704483032</t>
   </si>
   <si>
     <t xml:space="preserve">2.46013498306274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44190263748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4887866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49920582771301</t>
+    <t xml:space="preserve">2.44190192222595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48878693580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49920558929443</t>
   </si>
   <si>
     <t xml:space="preserve">2.55650877952576</t>
@@ -242,31 +242,31 @@
     <t xml:space="preserve">2.52655482292175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59427762031555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6398594379425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57734608650208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5760440826416</t>
+    <t xml:space="preserve">2.59427666664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63985872268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57734632492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57604384422302</t>
   </si>
   <si>
     <t xml:space="preserve">2.56302046775818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54088020324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58516073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60860300064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61511468887329</t>
+    <t xml:space="preserve">2.54088044166565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58516025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60860276222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61511445045471</t>
   </si>
   <si>
     <t xml:space="preserve">2.57213687896729</t>
@@ -275,25 +275,25 @@
     <t xml:space="preserve">2.58906769752502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56562566757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59818410873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57474160194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64506816864014</t>
+    <t xml:space="preserve">2.56562519073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59818387031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57474184036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64506840705872</t>
   </si>
   <si>
     <t xml:space="preserve">2.65288281440735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67372035980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66851091384888</t>
+    <t xml:space="preserve">2.67372012138367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6685106754303</t>
   </si>
   <si>
     <t xml:space="preserve">2.68153429031372</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">2.62944054603577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63855695724487</t>
+    <t xml:space="preserve">2.63855671882629</t>
   </si>
   <si>
     <t xml:space="preserve">2.61641693115234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67892932891846</t>
+    <t xml:space="preserve">2.67892909049988</t>
   </si>
   <si>
     <t xml:space="preserve">2.68674349784851</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">2.55129957199097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50701951980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6177191734314</t>
+    <t xml:space="preserve">2.50701975822449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61771893501282</t>
   </si>
   <si>
     <t xml:space="preserve">2.68282294273376</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">2.68960475921631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64891481399536</t>
+    <t xml:space="preserve">2.64891457557678</t>
   </si>
   <si>
     <t xml:space="preserve">2.71401882171631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44139623641968</t>
+    <t xml:space="preserve">2.4413959980011</t>
   </si>
   <si>
     <t xml:space="preserve">2.43190169334412</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">2.53769588470459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64484572410583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69909906387329</t>
+    <t xml:space="preserve">2.64484596252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69909930229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.69638657569885</t>
@@ -362,151 +362,151 @@
     <t xml:space="preserve">2.7004554271698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63263893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61500644683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66519069671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68417930603027</t>
+    <t xml:space="preserve">2.63263869285583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61500668525696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66519117355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68417954444885</t>
   </si>
   <si>
     <t xml:space="preserve">2.70588064193726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70723724365234</t>
+    <t xml:space="preserve">2.70723700523376</t>
   </si>
   <si>
     <t xml:space="preserve">2.70994973182678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69231748580933</t>
+    <t xml:space="preserve">2.69231724739075</t>
   </si>
   <si>
     <t xml:space="preserve">2.72893834114075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73165082931519</t>
+    <t xml:space="preserve">2.73165106773376</t>
   </si>
   <si>
     <t xml:space="preserve">2.7248694896698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72080087661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79268574714661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77912282943726</t>
+    <t xml:space="preserve">2.72080016136169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79268598556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77912259101868</t>
   </si>
   <si>
     <t xml:space="preserve">2.74250197410583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73029446601868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74114489555359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7764093875885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76284694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7547082901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74928331375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78726077079773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78319144248962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71808743476868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66790342330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67061614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63806414604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64348912239075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67197275161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67332887649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68011045455933</t>
+    <t xml:space="preserve">2.73029494285583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74114537239075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77640962600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76284670829773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75470852851868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74928307533264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78726100921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7831916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71808767318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66790366172791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67061591148376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63806438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64348959922791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67197251319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67332863807678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68011069297791</t>
   </si>
   <si>
     <t xml:space="preserve">2.69774270057678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65569663047791</t>
+    <t xml:space="preserve">2.65569639205933</t>
   </si>
   <si>
     <t xml:space="preserve">2.6760413646698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73707628250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73978924751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72622585296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80082368850708</t>
+    <t xml:space="preserve">2.73707604408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73978877067566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72622537612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80082392692566</t>
   </si>
   <si>
     <t xml:space="preserve">2.78454804420471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7465705871582</t>
+    <t xml:space="preserve">2.74657082557678</t>
   </si>
   <si>
     <t xml:space="preserve">2.6909613609314</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65298414230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65705299377441</t>
+    <t xml:space="preserve">2.65298318862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65705275535583</t>
   </si>
   <si>
     <t xml:space="preserve">2.63128256797791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66247820854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65162754058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69367361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65976524353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66383481025696</t>
+    <t xml:space="preserve">2.66247797012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65162777900696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69367384910583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65976548194885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66383457183838</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503021240234</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">2.6543402671814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61093783378601</t>
+    <t xml:space="preserve">2.61093759536743</t>
   </si>
   <si>
     <t xml:space="preserve">2.59601783752441</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">2.55804085731506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5973744392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57295989990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55261516571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60144305229187</t>
+    <t xml:space="preserve">2.59737396240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5729603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55261492729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60144329071045</t>
   </si>
   <si>
     <t xml:space="preserve">2.59059262275696</t>
@@ -551,70 +551,70 @@
     <t xml:space="preserve">2.65840935707092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60822463035583</t>
+    <t xml:space="preserve">2.60822486877441</t>
   </si>
   <si>
     <t xml:space="preserve">2.60008716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58923602104187</t>
+    <t xml:space="preserve">2.58923625946045</t>
   </si>
   <si>
     <t xml:space="preserve">2.60415577888489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62314438819885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56075310707092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47259140014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852231025696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44682168960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47530460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47666049003601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5119252204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45224666595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47394776344299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55125904083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53905200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52820062637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53362655639648</t>
+    <t xml:space="preserve">2.62314462661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56075358390808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47259187698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852326393127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44682145118713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47530436515808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47666096687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51192545890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45224618911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47394824028015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55125951766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53905177116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52820134162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53362679481506</t>
   </si>
   <si>
     <t xml:space="preserve">2.57024741172791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58652377128601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56753492355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77234101295471</t>
+    <t xml:space="preserve">2.58652329444885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56753516197205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77234053611755</t>
   </si>
   <si>
     <t xml:space="preserve">2.76555919647217</t>
@@ -623,19 +623,19 @@
     <t xml:space="preserve">2.72758197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75064039230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79404211044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82252550125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80489277839661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81981205940247</t>
+    <t xml:space="preserve">2.75064015388489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79404234886169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82252526283264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80489301681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8198127746582</t>
   </si>
   <si>
     <t xml:space="preserve">2.8401575088501</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">2.86321496963501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82659459114075</t>
+    <t xml:space="preserve">2.82659435272217</t>
   </si>
   <si>
     <t xml:space="preserve">2.83066320419312</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">2.83473181724548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8157434463501</t>
+    <t xml:space="preserve">2.81574320793152</t>
   </si>
   <si>
     <t xml:space="preserve">2.79539847373962</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">2.80218052864075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82388186454773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81031847000122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81303024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80760598182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83117532730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82563018798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78126287460327</t>
+    <t xml:space="preserve">2.82388162612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81031823158264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81303071975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8076057434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8311755657196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82562971115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78126239776611</t>
   </si>
   <si>
     <t xml:space="preserve">2.76046562194824</t>
@@ -689,193 +689,193 @@
     <t xml:space="preserve">2.72719025611877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66895842552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67866373062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68005013465881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69391441345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71471214294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66202592849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68559622764587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79928684234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80621886253357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79512763023376</t>
+    <t xml:space="preserve">2.66895818710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67866396903992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68004989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69391489028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71471238136292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66202616691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68559646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79928660392761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80621862411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79512739181519</t>
   </si>
   <si>
     <t xml:space="preserve">2.78680849075317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74382758140564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78542232513428</t>
+    <t xml:space="preserve">2.74382781982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78542184829712</t>
   </si>
   <si>
     <t xml:space="preserve">2.80067348480225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77433013916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7798764705658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75491976737976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77294397354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81453776359558</t>
+    <t xml:space="preserve">2.77432990074158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77987623214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75491952896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77294373512268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81453824043274</t>
   </si>
   <si>
     <t xml:space="preserve">2.80899214744568</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83672142028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86029148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86445093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86999726295471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89079332351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90327215194702</t>
+    <t xml:space="preserve">2.83672165870667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86029171943665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86445069313049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86999654769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.890793800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9032723903656</t>
   </si>
   <si>
     <t xml:space="preserve">2.89772582054138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89911270141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88247466087341</t>
+    <t xml:space="preserve">2.89911293983459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88247537612915</t>
   </si>
   <si>
     <t xml:space="preserve">2.94625282287598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91852331161499</t>
+    <t xml:space="preserve">2.91852259635925</t>
   </si>
   <si>
     <t xml:space="preserve">2.90465831756592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92545533180237</t>
+    <t xml:space="preserve">2.92545485496521</t>
   </si>
   <si>
     <t xml:space="preserve">2.98230147361755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97259569168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9878466129303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00864386558533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01696300506592</t>
+    <t xml:space="preserve">2.97259545326233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98784732818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00864458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01696276664734</t>
   </si>
   <si>
     <t xml:space="preserve">3.02805471420288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05994343757629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0585572719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0530104637146</t>
+    <t xml:space="preserve">3.05994319915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05855703353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05301117897034</t>
   </si>
   <si>
     <t xml:space="preserve">3.03914618492126</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05023860931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01834917068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03637337684631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03498721122742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00032496452332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94070672988892</t>
+    <t xml:space="preserve">3.05023837089539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01834940910339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03637361526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03498697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00032544136047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9407069683075</t>
   </si>
   <si>
     <t xml:space="preserve">2.9809148311615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0862865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07103538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05578446388245</t>
+    <t xml:space="preserve">3.08628726005554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07103443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05578374862671</t>
   </si>
   <si>
     <t xml:space="preserve">3.04885149002075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02528166770935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06687569618225</t>
+    <t xml:space="preserve">3.02528119087219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06687521934509</t>
   </si>
   <si>
     <t xml:space="preserve">3.07380795478821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14313149452209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17363381385803</t>
+    <t xml:space="preserve">3.14313173294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17363405227661</t>
   </si>
   <si>
     <t xml:space="preserve">3.16670155525208</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15422320365906</t>
+    <t xml:space="preserve">3.15422368049622</t>
   </si>
   <si>
     <t xml:space="preserve">3.16808843612671</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16254210472107</t>
+    <t xml:space="preserve">3.16254234313965</t>
   </si>
   <si>
     <t xml:space="preserve">3.16531538963318</t>
@@ -887,130 +887,130 @@
     <t xml:space="preserve">3.24573087692261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20829582214355</t>
+    <t xml:space="preserve">3.20829510688782</t>
   </si>
   <si>
     <t xml:space="preserve">3.21522855758667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24711751937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2790060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31782722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28593826293945</t>
+    <t xml:space="preserve">3.2471170425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27900648117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31782698631287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28593850135803</t>
   </si>
   <si>
     <t xml:space="preserve">3.30673551559448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33307814598083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25820851325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27761960029602</t>
+    <t xml:space="preserve">3.33307838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2582094669342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27761936187744</t>
   </si>
   <si>
     <t xml:space="preserve">3.29841685295105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31505489349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2679135799408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31366777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32475972175598</t>
+    <t xml:space="preserve">3.31505441665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26791453361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31366801261902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32475924491882</t>
   </si>
   <si>
     <t xml:space="preserve">3.42597198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39546966552734</t>
+    <t xml:space="preserve">3.39546942710876</t>
   </si>
   <si>
     <t xml:space="preserve">3.35803461074829</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3621940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36496782302856</t>
+    <t xml:space="preserve">3.36219429969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36496734619141</t>
   </si>
   <si>
     <t xml:space="preserve">3.37189984321594</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41072130203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41904020309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39131021499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45231533050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4148805141449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43151760101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32753229141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3552622795105</t>
+    <t xml:space="preserve">3.41072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41903948783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39131045341492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45231556892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41487979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43151807785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32753276824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35526204109192</t>
   </si>
   <si>
     <t xml:space="preserve">3.28732490539551</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25404953956604</t>
+    <t xml:space="preserve">3.25404930114746</t>
   </si>
   <si>
     <t xml:space="preserve">3.29980301856995</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28871083259583</t>
+    <t xml:space="preserve">3.2887110710144</t>
   </si>
   <si>
     <t xml:space="preserve">3.25127649307251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27207350730896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3261456489563</t>
+    <t xml:space="preserve">3.27207374572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32614588737488</t>
   </si>
   <si>
     <t xml:space="preserve">3.3206000328064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.377445936203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44676923751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44538307189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41210722923279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43845057487488</t>
+    <t xml:space="preserve">3.37744569778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44676852226257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44538235664368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41210746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4384503364563</t>
   </si>
   <si>
     <t xml:space="preserve">3.44260931015015</t>
@@ -1019,19 +1019,19 @@
     <t xml:space="preserve">3.40378880500793</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43203568458557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3882520198822</t>
+    <t xml:space="preserve">3.43203544616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38825225830078</t>
   </si>
   <si>
     <t xml:space="preserve">3.43062233924866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45322132110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39955186843872</t>
+    <t xml:space="preserve">3.45322060585022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39955163002014</t>
   </si>
   <si>
     <t xml:space="preserve">3.40661334991455</t>
@@ -1043,31 +1043,31 @@
     <t xml:space="preserve">3.44615912437439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.488529920578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51960206031799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51818895339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53796339035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51253938674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47723078727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55208587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57680249214172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5803337097168</t>
+    <t xml:space="preserve">3.48853015899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51960229873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51818943023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53796315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51253986358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47723031044006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55208683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5768027305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58033347129822</t>
   </si>
   <si>
     <t xml:space="preserve">3.55914831161499</t>
@@ -1076,25 +1076,25 @@
     <t xml:space="preserve">3.51677751541138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58739542961121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59798836708069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59092688560486</t>
+    <t xml:space="preserve">3.58739495277405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59798789024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5909264087677</t>
   </si>
   <si>
     <t xml:space="preserve">3.62976622581482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60858058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61211133003235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63329696655273</t>
+    <t xml:space="preserve">3.60858106613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61211156845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63329672813416</t>
   </si>
   <si>
     <t xml:space="preserve">3.66507530212402</t>
@@ -1103,127 +1103,127 @@
     <t xml:space="preserve">3.6544828414917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70391488075256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66860556602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64388990402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60505032539368</t>
+    <t xml:space="preserve">3.70391511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66860580444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64388918876648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60504961013794</t>
   </si>
   <si>
     <t xml:space="preserve">3.63682842254639</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61564326286316</t>
+    <t xml:space="preserve">3.61564230918884</t>
   </si>
   <si>
     <t xml:space="preserve">3.61917304992676</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60151934623718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5662100315094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50689029693604</t>
+    <t xml:space="preserve">3.60151815414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56620979309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50689101219177</t>
   </si>
   <si>
     <t xml:space="preserve">3.56267929077148</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58386421203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64742016792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65095162391663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154456138611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64035892486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65801334381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68626117706299</t>
+    <t xml:space="preserve">3.58386397361755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64742112159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65095138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154408454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64035868644714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65801310539246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68626070022583</t>
   </si>
   <si>
     <t xml:space="preserve">3.73569321632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73216128349304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75687909126282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76040887832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80278086662292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78865647315979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79571843147278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8063108921051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80984258651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78512597084045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76747107505798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72510075569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71097660064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71803832054138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73922348022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68272972106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68979096412659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74981617927551</t>
+    <t xml:space="preserve">3.73216199874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7568781375885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.760409116745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80278038978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78865671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79571890830994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80631017684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8098418712616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78512620925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7674708366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72510099411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71097612380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71803903579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73922371864319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68272948265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68979144096375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74981713294983</t>
   </si>
   <si>
     <t xml:space="preserve">3.78159475326538</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81690359115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86633610725403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85221338272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79218697547913</t>
+    <t xml:space="preserve">3.81690406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86633634567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85221290588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79218769073486</t>
   </si>
   <si>
     <t xml:space="preserve">3.86280512809753</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">3.90164518356323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91930079460144</t>
+    <t xml:space="preserve">3.91930031776428</t>
   </si>
   <si>
     <t xml:space="preserve">3.94048547744751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89105319976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83102798461914</t>
+    <t xml:space="preserve">3.89105248451233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83102750778198</t>
   </si>
   <si>
     <t xml:space="preserve">3.85574388504028</t>
@@ -1250,163 +1250,163 @@
     <t xml:space="preserve">3.75334715843201</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70038390159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62270474433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77100157737732</t>
+    <t xml:space="preserve">3.70038461685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62270426750183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77100276947021</t>
   </si>
   <si>
     <t xml:space="preserve">3.74275517463684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79190754890442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77390170097351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73068904876709</t>
+    <t xml:space="preserve">3.79190731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77390193939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73068881034851</t>
   </si>
   <si>
     <t xml:space="preserve">3.71628499031067</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69035720825195</t>
+    <t xml:space="preserve">3.69035696983337</t>
   </si>
   <si>
     <t xml:space="preserve">3.65002536773682</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68027448654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64858508110046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57944440841675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53551173210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43468236923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51030492782593</t>
+    <t xml:space="preserve">3.68027472496033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64858460426331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57944416999817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53551197052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43468260765076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51030468940735</t>
   </si>
   <si>
     <t xml:space="preserve">3.40083312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33745455741882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37634587287903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35185885429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4426052570343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45124745368958</t>
+    <t xml:space="preserve">3.33745431900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37634611129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35185837745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44260501861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45124697685242</t>
   </si>
   <si>
     <t xml:space="preserve">3.50022172927856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44116401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43540239334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38498735427856</t>
+    <t xml:space="preserve">3.44116449356079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43540287017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3849880695343</t>
   </si>
   <si>
     <t xml:space="preserve">3.48221683502197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47573494911194</t>
+    <t xml:space="preserve">3.47573471069336</t>
   </si>
   <si>
     <t xml:space="preserve">3.48365664482117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44188499450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42964196205139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35401892662048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38570857048035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40587401390076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44044423103333</t>
+    <t xml:space="preserve">3.44188475608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42964053153992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35401844978333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38570880889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40587449073792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44044470787048</t>
   </si>
   <si>
     <t xml:space="preserve">3.48581743240356</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4829363822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48077607154846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50742411613464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49301981925964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51750683784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55063605308533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5117449760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45412874221802</t>
+    <t xml:space="preserve">3.48293662071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48077583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50742387771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49302005767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51750659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55063652992249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51174473762512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45412826538086</t>
   </si>
   <si>
     <t xml:space="preserve">3.49374008178711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44692587852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45484852790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58304619789124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56864190101624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57440400123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63706159591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63418030738831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66154909133911</t>
+    <t xml:space="preserve">3.44692611694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4548487663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58304643630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56864213943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57440376281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63706231117249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63418054580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66154885292053</t>
   </si>
   <si>
     <t xml:space="preserve">3.6557879447937</t>
@@ -1415,28 +1415,28 @@
     <t xml:space="preserve">3.64570450782776</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68171453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68315529823303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74221229553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73933148384094</t>
+    <t xml:space="preserve">3.68171525001526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68315458297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74221277236938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73933172225952</t>
   </si>
   <si>
     <t xml:space="preserve">3.72348713874817</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74653387069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73357033729553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78830599784851</t>
+    <t xml:space="preserve">3.74653363227844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73357009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78830552101135</t>
   </si>
   <si>
     <t xml:space="preserve">3.78110361099243</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">3.79406762123108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84592247009277</t>
+    <t xml:space="preserve">3.84592342376709</t>
   </si>
   <si>
     <t xml:space="preserve">3.83151888847351</t>
@@ -1454,61 +1454,61 @@
     <t xml:space="preserve">3.87905263900757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88049268722534</t>
+    <t xml:space="preserve">3.8804931640625</t>
   </si>
   <si>
     <t xml:space="preserve">3.78398466110229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65434646606445</t>
+    <t xml:space="preserve">3.65434694290161</t>
   </si>
   <si>
     <t xml:space="preserve">3.65146636962891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67883348464966</t>
+    <t xml:space="preserve">3.67883372306824</t>
   </si>
   <si>
     <t xml:space="preserve">3.70044016838074</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56287980079651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58880805969238</t>
+    <t xml:space="preserve">3.56287932395935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58880686759949</t>
   </si>
   <si>
     <t xml:space="preserve">3.52758979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5283100605011</t>
+    <t xml:space="preserve">3.52830982208252</t>
   </si>
   <si>
     <t xml:space="preserve">3.51606631278992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51246476173401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4995014667511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41955828666687</t>
+    <t xml:space="preserve">3.51246571540833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49950170516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41955804824829</t>
   </si>
   <si>
     <t xml:space="preserve">3.39363050460815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31080651283264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42243909835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38714909553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40947508811951</t>
+    <t xml:space="preserve">3.31080627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42243885993958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38714814186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40947556495667</t>
   </si>
   <si>
     <t xml:space="preserve">3.4476466178894</t>
@@ -1520,139 +1520,139 @@
     <t xml:space="preserve">3.3713047504425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30864572525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42820048332214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44332504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50958395004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50886464118958</t>
+    <t xml:space="preserve">3.30864596366882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42820024490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44332528114319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50958490371704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.508864402771</t>
   </si>
   <si>
     <t xml:space="preserve">3.48149657249451</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47933578491211</t>
+    <t xml:space="preserve">3.47933554649353</t>
   </si>
   <si>
     <t xml:space="preserve">3.47429442405701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39435052871704</t>
+    <t xml:space="preserve">3.39435076713562</t>
   </si>
   <si>
     <t xml:space="preserve">3.4181182384491</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37202429771423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39795207977295</t>
+    <t xml:space="preserve">3.37202453613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39795160293579</t>
   </si>
   <si>
     <t xml:space="preserve">3.43684315681458</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41451692581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4260401725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41667699813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47213363647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45988988876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49590063095093</t>
+    <t xml:space="preserve">3.41451668739319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42604064941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41667747497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47213339805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45988965034485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49590086936951</t>
   </si>
   <si>
     <t xml:space="preserve">3.51822710037231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49518013000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49013948440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46493124961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50310254096985</t>
+    <t xml:space="preserve">3.49518036842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49013876914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46493172645569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50310277938843</t>
   </si>
   <si>
     <t xml:space="preserve">3.49085927009583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51462626457214</t>
+    <t xml:space="preserve">3.51462554931641</t>
   </si>
   <si>
     <t xml:space="preserve">3.53263163566589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53119111061096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5333514213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4985659122467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47192120552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45119762420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46229934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49042463302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4808030128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53039050102234</t>
+    <t xml:space="preserve">3.5311906337738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53335118293762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49856543540955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47192096710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45119786262512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46229958534241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49042415618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48080205917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5303909778595</t>
   </si>
   <si>
     <t xml:space="preserve">3.39346814155579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32685661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34980082511902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35054087638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39420819282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3927276134491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37718486785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30761337280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29059147834778</t>
+    <t xml:space="preserve">3.32685685157776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34980058670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35054063796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39420795440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39272785186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37718534469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30761313438416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29059076309204</t>
   </si>
   <si>
     <t xml:space="preserve">3.31427502632141</t>
@@ -1664,16 +1664,16 @@
     <t xml:space="preserve">3.27504825592041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26394629478455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29873251914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28466987609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24692344665527</t>
+    <t xml:space="preserve">3.26394653320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29873204231262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28466963768005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24692368507385</t>
   </si>
   <si>
     <t xml:space="preserve">3.26024603843689</t>
@@ -1682,52 +1682,52 @@
     <t xml:space="preserve">3.24766397476196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22397971153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23508167266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18919372558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1529278755188</t>
+    <t xml:space="preserve">3.22398018836975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2350811958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18919396400452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15292835235596</t>
   </si>
   <si>
     <t xml:space="preserve">3.14034581184387</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17587161064148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17513179779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24026274681091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25802540779114</t>
+    <t xml:space="preserve">3.17587184906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17513132095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24026226997375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25802493095398</t>
   </si>
   <si>
     <t xml:space="preserve">3.37496495246887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37348508834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34387969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37422490119934</t>
+    <t xml:space="preserve">3.37348484992981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34387993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37422513961792</t>
   </si>
   <si>
     <t xml:space="preserve">3.36682343482971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34091901779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3660831451416</t>
+    <t xml:space="preserve">3.34091925621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36608338356018</t>
   </si>
   <si>
     <t xml:space="preserve">3.42899394035339</t>
@@ -1736,64 +1736,64 @@
     <t xml:space="preserve">3.3823664188385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40383005142212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41271114349365</t>
+    <t xml:space="preserve">3.40382981300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41271138191223</t>
   </si>
   <si>
     <t xml:space="preserve">3.38976716995239</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26542687416077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24322295188904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26320648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34609985351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30095267295837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27356767654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23952174186707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23878169059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21657848358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17365121841431</t>
+    <t xml:space="preserve">3.26542663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24322271347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26320600509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3461000919342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30095243453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27356815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23952198028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23878216743469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21657919883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17365145683289</t>
   </si>
   <si>
     <t xml:space="preserve">3.29651188850403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26690673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22916054725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27874898910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2839298248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26468634605408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24174237251282</t>
+    <t xml:space="preserve">3.26690649986267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22916007041931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27874851226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28392910957336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26468586921692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2417426109314</t>
   </si>
   <si>
     <t xml:space="preserve">3.25654554367065</t>
@@ -1802,124 +1802,124 @@
     <t xml:space="preserve">3.20769691467285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24100279808044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26172614097595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26986694335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30835342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31797528266907</t>
+    <t xml:space="preserve">3.24100255966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26172661781311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26986765861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30835390090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31797552108765</t>
   </si>
   <si>
     <t xml:space="preserve">3.32611680030823</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29503178596497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33055782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37644505500793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40308880805969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44823741912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4467568397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48228287696838</t>
+    <t xml:space="preserve">3.29503226280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33055806159973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37644481658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40308976173401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44823718070984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44675636291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48228311538696</t>
   </si>
   <si>
     <t xml:space="preserve">3.51928925514221</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52594923973083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53779244422913</t>
+    <t xml:space="preserve">3.52595019340515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53779220581055</t>
   </si>
   <si>
     <t xml:space="preserve">3.52150964736938</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54519319534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56295657157898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55111384391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57479882240295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51336812973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51410841941833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50966787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5577757358551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64955043792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71542167663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71394228935242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71098136901855</t>
+    <t xml:space="preserve">3.54519391059875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56295680999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55111408233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5747983455658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5133683681488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51410818099976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50966763496399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55777525901794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64955139160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71542143821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71394181251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7109808921814</t>
   </si>
   <si>
     <t xml:space="preserve">3.70950102806091</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79239463806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81015729904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83828210830688</t>
+    <t xml:space="preserve">3.79239439964294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81015753746033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83828234672546</t>
   </si>
   <si>
     <t xml:space="preserve">3.73614525794983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73318481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76279020309448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76426982879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81607913970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81459784507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83088135719299</t>
+    <t xml:space="preserve">3.73318552970886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7627899646759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76427006721497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81607842445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81459879875183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83088159561157</t>
   </si>
   <si>
     <t xml:space="preserve">3.82200050354004</t>
@@ -1928,46 +1928,46 @@
     <t xml:space="preserve">3.88565039634705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84864401817322</t>
+    <t xml:space="preserve">3.84864377975464</t>
   </si>
   <si>
     <t xml:space="preserve">3.85604548454285</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86344695091248</t>
+    <t xml:space="preserve">3.8634467124939</t>
   </si>
   <si>
     <t xml:space="preserve">3.86196660995483</t>
   </si>
   <si>
-    <t xml:space="preserve">3.878249168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92857813835144</t>
+    <t xml:space="preserve">3.87824940681458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92857766151428</t>
   </si>
   <si>
     <t xml:space="preserve">3.94226121902466</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93313813209534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90273189544678</t>
+    <t xml:space="preserve">3.9331386089325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90273213386536</t>
   </si>
   <si>
     <t xml:space="preserve">3.93769979476929</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94682192802429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92553639411926</t>
+    <t xml:space="preserve">3.94682145118713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92553687095642</t>
   </si>
   <si>
     <t xml:space="preserve">3.9848301410675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9787495136261</t>
+    <t xml:space="preserve">3.97874855995178</t>
   </si>
   <si>
     <t xml:space="preserve">4.00307464599609</t>
@@ -1976,22 +1976,22 @@
     <t xml:space="preserve">3.93009877204895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94074034690857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90121126174927</t>
+    <t xml:space="preserve">3.94073987007141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90121173858643</t>
   </si>
   <si>
     <t xml:space="preserve">3.87840604782104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90729308128357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95138311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96506571769714</t>
+    <t xml:space="preserve">3.90729236602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95138263702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9650661945343</t>
   </si>
   <si>
     <t xml:space="preserve">3.96202516555786</t>
@@ -2000,16 +2000,16 @@
     <t xml:space="preserve">3.98026990890503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98635053634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97266674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97722864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98787069320679</t>
+    <t xml:space="preserve">3.98635101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97266721725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97722911834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9878716468811</t>
   </si>
   <si>
     <t xml:space="preserve">4.01219654083252</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">4.05020523071289</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10341787338257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18247509002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16879320144653</t>
+    <t xml:space="preserve">4.10341835021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18247604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16879272460938</t>
   </si>
   <si>
     <t xml:space="preserve">4.15054798126221</t>
@@ -2051,76 +2051,76 @@
     <t xml:space="preserve">4.17031288146973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17183351516724</t>
+    <t xml:space="preserve">4.17183303833008</t>
   </si>
   <si>
     <t xml:space="preserve">4.15814971923828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19615840911865</t>
+    <t xml:space="preserve">4.19615888595581</t>
   </si>
   <si>
     <t xml:space="preserve">4.21440315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24176931381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28281879425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27217578887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33451128005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34363222122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32234716415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33603096008301</t>
+    <t xml:space="preserve">4.2417688369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28281831741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27217626571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33451080322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34363269805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32234764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33603048324585</t>
   </si>
   <si>
     <t xml:space="preserve">4.30106258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30334329605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33907079696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32918930053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32842922210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31474637985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30258369445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28965997695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26457500457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24252986907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16347122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19691848754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19996023178101</t>
+    <t xml:space="preserve">4.30334281921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33907127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32919025421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32842826843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31474542617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30258274078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28966093063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26457452774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24252891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16347074508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19691896438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19996070861816</t>
   </si>
   <si>
     <t xml:space="preserve">4.19539880752563</t>
@@ -2129,25 +2129,25 @@
     <t xml:space="preserve">4.18399620056152</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20984220504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24556970596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22124481201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28661966323853</t>
+    <t xml:space="preserve">4.20984172821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24557018280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22124433517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28662014007568</t>
   </si>
   <si>
     <t xml:space="preserve">4.23948907852173</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25317192077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22732639312744</t>
+    <t xml:space="preserve">4.25317144393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22732591629028</t>
   </si>
   <si>
     <t xml:space="preserve">4.25849342346191</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">4.23872852325439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21972465515137</t>
+    <t xml:space="preserve">4.21972417831421</t>
   </si>
   <si>
     <t xml:space="preserve">4.18627691268921</t>
@@ -2168,88 +2168,88 @@
     <t xml:space="preserve">4.23720788955688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24937105178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27901792526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32538843154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38696193695068</t>
+    <t xml:space="preserve">4.24937152862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27901840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32538795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38696241378784</t>
   </si>
   <si>
     <t xml:space="preserve">4.3801212310791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.317786693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4006462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22428560256958</t>
+    <t xml:space="preserve">4.31778573989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40064573287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22428464889526</t>
   </si>
   <si>
     <t xml:space="preserve">4.23416757583618</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26761531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3398323059082</t>
+    <t xml:space="preserve">4.26761484146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33983182907104</t>
   </si>
   <si>
     <t xml:space="preserve">4.35275411605835</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41356897354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47818279266357</t>
+    <t xml:space="preserve">4.4135684967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47818326950073</t>
   </si>
   <si>
     <t xml:space="preserve">4.4302921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44549560546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4774227142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55420064926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61425399780273</t>
+    <t xml:space="preserve">4.44549608230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47742366790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55420112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61425447463989</t>
   </si>
   <si>
     <t xml:space="preserve">4.62185621261597</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74120283126831</t>
+    <t xml:space="preserve">4.74120378494263</t>
   </si>
   <si>
     <t xml:space="preserve">4.69027185440063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70547533035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73740148544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73208093643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71383714675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61805486679077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62489700317383</t>
+    <t xml:space="preserve">4.70547580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73740243911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73208141326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71383762359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61805534362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62489748001099</t>
   </si>
   <si>
     <t xml:space="preserve">4.66746616363525</t>
@@ -2258,40 +2258,40 @@
     <t xml:space="preserve">4.65682411193848</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7586874961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87119293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90083932876587</t>
+    <t xml:space="preserve">4.75868701934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87119245529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90084028244019</t>
   </si>
   <si>
     <t xml:space="preserve">4.86511135101318</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8727126121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87195301055908</t>
+    <t xml:space="preserve">4.87271356582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87195348739624</t>
   </si>
   <si>
     <t xml:space="preserve">4.8848762512207</t>
   </si>
   <si>
-    <t xml:space="preserve">4.94873094558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90388059616089</t>
+    <t xml:space="preserve">4.94873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90388107299805</t>
   </si>
   <si>
     <t xml:space="preserve">4.93504762649536</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95101118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9859790802002</t>
+    <t xml:space="preserve">4.951012134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98598003387451</t>
   </si>
   <si>
     <t xml:space="preserve">4.77997159957886</t>
@@ -2300,37 +2300,37 @@
     <t xml:space="preserve">4.87715816497803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87793493270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92147445678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85694265365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82817649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85616588592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.79629945755005</t>
+    <t xml:space="preserve">4.87793588638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92147397994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85694360733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82817602157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85616636276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.79629993438721</t>
   </si>
   <si>
     <t xml:space="preserve">4.81962442398071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.85150051116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81884622573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76131200790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76908731460571</t>
+    <t xml:space="preserve">4.85150098800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81884670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76131343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76908779144287</t>
   </si>
   <si>
     <t xml:space="preserve">4.77375221252441</t>
@@ -2339,46 +2339,46 @@
     <t xml:space="preserve">4.69289398193359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71466398239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72554874420166</t>
+    <t xml:space="preserve">4.71466445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7255482673645</t>
   </si>
   <si>
     <t xml:space="preserve">4.67190170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88648796081543</t>
+    <t xml:space="preserve">4.88648748397827</t>
   </si>
   <si>
     <t xml:space="preserve">4.9440221786499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84839153289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91214418411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88570976257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83828353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05286931991577</t>
+    <t xml:space="preserve">4.84839105606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91214513778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88571071624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83828401565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05286979675293</t>
   </si>
   <si>
     <t xml:space="preserve">5.05442476272583</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15627479553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12673044204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19359397888184</t>
+    <t xml:space="preserve">5.15627431869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12672996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19359350204468</t>
   </si>
   <si>
     <t xml:space="preserve">5.19437170028687</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">5.23868799209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1819314956665</t>
+    <t xml:space="preserve">5.18193101882935</t>
   </si>
   <si>
     <t xml:space="preserve">5.14694452285767</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">5.08863353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04587125778198</t>
+    <t xml:space="preserve">5.0458722114563</t>
   </si>
   <si>
     <t xml:space="preserve">5.00855255126953</t>
@@ -2405,112 +2405,112 @@
     <t xml:space="preserve">5.14150238037109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12517499923706</t>
+    <t xml:space="preserve">5.12517547607422</t>
   </si>
   <si>
     <t xml:space="preserve">5.03965187072754</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06686401367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17026948928833</t>
+    <t xml:space="preserve">5.06686449050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17026996612549</t>
   </si>
   <si>
     <t xml:space="preserve">5.14305782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11273574829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18659687042236</t>
+    <t xml:space="preserve">5.11273622512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18659734725952</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201248168945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23246812820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31177091598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27600765228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32654333114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30010986328125</t>
+    <t xml:space="preserve">5.23246765136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31177139282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2760066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3265438079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30010938644409</t>
   </si>
   <si>
     <t xml:space="preserve">5.18504190444946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16171741485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25112771987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3218789100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26512241363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29855442047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26123523712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28689193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27056455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31643676757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29078006744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26356744766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30866098403931</t>
+    <t xml:space="preserve">5.1617169380188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25112724304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32187843322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26512289047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29855394363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26123571395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28689241409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27056407928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31643629074097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29077959060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26356792449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30866146087646</t>
   </si>
   <si>
     <t xml:space="preserve">5.24413061141968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32809925079346</t>
+    <t xml:space="preserve">5.32809782028198</t>
   </si>
   <si>
     <t xml:space="preserve">5.34909057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33665132522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34287071228027</t>
+    <t xml:space="preserve">5.33665037155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34287118911743</t>
   </si>
   <si>
     <t xml:space="preserve">5.36697292327881</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39574003219604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38874292373657</t>
+    <t xml:space="preserve">5.39573955535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38874244689941</t>
   </si>
   <si>
     <t xml:space="preserve">5.41750907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37241506576538</t>
+    <t xml:space="preserve">5.3724160194397</t>
   </si>
   <si>
     <t xml:space="preserve">5.36386346817017</t>
@@ -2519,37 +2519,37 @@
     <t xml:space="preserve">5.24957275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33820533752441</t>
+    <t xml:space="preserve">5.33820676803589</t>
   </si>
   <si>
     <t xml:space="preserve">5.33354139328003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42917251586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38796424865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34520387649536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33509588241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36308526992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31021595001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29000186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26745557785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24801731109619</t>
+    <t xml:space="preserve">5.42917060852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38796472549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3452033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33509540557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36308479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31021642684937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2900013923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26745462417603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24801778793335</t>
   </si>
   <si>
     <t xml:space="preserve">5.31799173355103</t>
@@ -2558,43 +2558,43 @@
     <t xml:space="preserve">5.3420934677124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33043098449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13528299331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19126176834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22702598571777</t>
+    <t xml:space="preserve">5.33043050765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13528251647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19126129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22702550888062</t>
   </si>
   <si>
     <t xml:space="preserve">5.23324584960938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32265663146973</t>
+    <t xml:space="preserve">5.32265615463257</t>
   </si>
   <si>
     <t xml:space="preserve">5.38407754898071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4501633644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42839479446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316577911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6025505065918</t>
+    <t xml:space="preserve">5.45016384124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42839384078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44316625595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60255002975464</t>
   </si>
   <si>
     <t xml:space="preserve">5.57844829559326</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54968118667603</t>
+    <t xml:space="preserve">5.54968214035034</t>
   </si>
   <si>
     <t xml:space="preserve">5.49836730957031</t>
@@ -2603,34 +2603,34 @@
     <t xml:space="preserve">5.60721492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60643815994263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61809968948364</t>
+    <t xml:space="preserve">5.60643768310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6181001663208</t>
   </si>
   <si>
     <t xml:space="preserve">5.6212100982666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65230894088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67952108383179</t>
+    <t xml:space="preserve">5.65230941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67952156066895</t>
   </si>
   <si>
     <t xml:space="preserve">5.76660013198853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75338268280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76971006393433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91743230819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00606536865234</t>
+    <t xml:space="preserve">5.75338172912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76970958709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91743135452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00606489181519</t>
   </si>
   <si>
     <t xml:space="preserve">6.05687618255615</t>
@@ -2639,70 +2639,70 @@
     <t xml:space="preserve">6.0417914390564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99098014831543</t>
+    <t xml:space="preserve">5.99097967147827</t>
   </si>
   <si>
     <t xml:space="preserve">6.04973030090332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20772218704224</t>
+    <t xml:space="preserve">6.20772266387939</t>
   </si>
   <si>
     <t xml:space="preserve">6.09260272979736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27123689651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35856819152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42128944396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23630332946777</t>
+    <t xml:space="preserve">6.27123641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35856866836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42128896713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23630428314209</t>
   </si>
   <si>
     <t xml:space="preserve">6.32442998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35142278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40699815750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45463371276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49194860458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51020956039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50465059280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45622205734253</t>
+    <t xml:space="preserve">6.35142374038696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40699768066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45463418960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4919490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51020860671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50465106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45622158050537</t>
   </si>
   <si>
     <t xml:space="preserve">6.51576614379883</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5713415145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66423082351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72218751907349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8007869720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69519281387329</t>
+    <t xml:space="preserve">6.57134103775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.664231300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72218799591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80078649520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69519424438477</t>
   </si>
   <si>
     <t xml:space="preserve">6.70392751693726</t>
@@ -2711,31 +2711,31 @@
     <t xml:space="preserve">6.37524080276489</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19660711288452</t>
+    <t xml:space="preserve">6.19660806655884</t>
   </si>
   <si>
     <t xml:space="preserve">6.31569623947144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28473281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01479768753052</t>
+    <t xml:space="preserve">6.28473377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01479864120483</t>
   </si>
   <si>
     <t xml:space="preserve">6.06560945510864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18708086013794</t>
+    <t xml:space="preserve">6.1870813369751</t>
   </si>
   <si>
     <t xml:space="preserve">6.5419659614563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46654319763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26488590240479</t>
+    <t xml:space="preserve">6.46654367446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26488494873047</t>
   </si>
   <si>
     <t xml:space="preserve">5.64165163040161</t>
@@ -2744,16 +2744,16 @@
     <t xml:space="preserve">5.3224925994873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14906692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46108102798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3554892539978</t>
+    <t xml:space="preserve">5.17640972137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14906740188599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46108055114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35548830032349</t>
   </si>
   <si>
     <t xml:space="preserve">4.54126739501953</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">5.00174617767334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98507356643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88662624359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07002353668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0327091217041</t>
+    <t xml:space="preserve">4.98507261276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88662672042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07002305984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03270864486694</t>
   </si>
   <si>
     <t xml:space="preserve">4.81755447387695</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">4.87868690490723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81834888458252</t>
+    <t xml:space="preserve">4.8183479309082</t>
   </si>
   <si>
     <t xml:space="preserve">4.87471723556519</t>
@@ -2804,13 +2804,13 @@
     <t xml:space="preserve">5.06129026412964</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98983716964722</t>
+    <t xml:space="preserve">4.98983669281006</t>
   </si>
   <si>
     <t xml:space="preserve">5.12321710586548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11845302581787</t>
+    <t xml:space="preserve">5.11845350265503</t>
   </si>
   <si>
     <t xml:space="preserve">4.92791032791138</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">4.96125602722168</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92949819564819</t>
+    <t xml:space="preserve">4.92949914932251</t>
   </si>
   <si>
     <t xml:space="preserve">4.91600179672241</t>
@@ -2831,31 +2831,31 @@
     <t xml:space="preserve">4.75165843963623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70481729507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68417453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81914186477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88265657424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97792863845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95093488693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76912498474121</t>
+    <t xml:space="preserve">4.7048168182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68417501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81914234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88265705108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97792768478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95093441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76912450790405</t>
   </si>
   <si>
     <t xml:space="preserve">4.83343315124512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81676006317139</t>
+    <t xml:space="preserve">4.81676054000854</t>
   </si>
   <si>
     <t xml:space="preserve">4.91282606124878</t>
@@ -2867,10 +2867,10 @@
     <t xml:space="preserve">4.82708168029785</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7873854637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67147159576416</t>
+    <t xml:space="preserve">4.78738594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67147207260132</t>
   </si>
   <si>
     <t xml:space="preserve">4.57381868362427</t>
@@ -2879,34 +2879,34 @@
     <t xml:space="preserve">4.73498630523682</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79294300079346</t>
+    <t xml:space="preserve">4.7929425239563</t>
   </si>
   <si>
     <t xml:space="preserve">4.96363687515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02556371688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08907747268677</t>
+    <t xml:space="preserve">5.02556324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08907842636108</t>
   </si>
   <si>
     <t xml:space="preserve">5.16847085952759</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17323446273804</t>
+    <t xml:space="preserve">5.17323398590088</t>
   </si>
   <si>
     <t xml:space="preserve">5.22880887985229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39235782623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4788966178894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.555908203125</t>
+    <t xml:space="preserve">5.39235830307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47889709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55590772628784</t>
   </si>
   <si>
     <t xml:space="preserve">5.70754766464233</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">5.95763540267944</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94255065917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01638507843018</t>
+    <t xml:space="preserve">5.94255018234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01638603210449</t>
   </si>
   <si>
     <t xml:space="preserve">6.01559257507324</t>
@@ -2930,40 +2930,40 @@
     <t xml:space="preserve">5.96398639678955</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81711006164551</t>
+    <t xml:space="preserve">5.81710958480835</t>
   </si>
   <si>
     <t xml:space="preserve">5.83140087127686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84489727020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00685834884644</t>
+    <t xml:space="preserve">5.84489679336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00685882568359</t>
   </si>
   <si>
     <t xml:space="preserve">5.95842885971069</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93302392959595</t>
+    <t xml:space="preserve">5.93302345275879</t>
   </si>
   <si>
     <t xml:space="preserve">6.03385210037231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20137119293213</t>
+    <t xml:space="preserve">6.20137071609497</t>
   </si>
   <si>
     <t xml:space="preserve">6.05290651321411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08386945724487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06481599807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13229990005493</t>
+    <t xml:space="preserve">6.08386993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06481504440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13229942321777</t>
   </si>
   <si>
     <t xml:space="preserve">6.095778465271</t>
@@ -2972,13 +2972,13 @@
     <t xml:space="preserve">6.11483287811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30934572219849</t>
+    <t xml:space="preserve">6.30934524536133</t>
   </si>
   <si>
     <t xml:space="preserve">6.25138854980469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28314542770386</t>
+    <t xml:space="preserve">6.28314590454102</t>
   </si>
   <si>
     <t xml:space="preserve">6.33157539367676</t>
@@ -2987,22 +2987,22 @@
     <t xml:space="preserve">6.41970157623291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30061197280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44828271865845</t>
+    <t xml:space="preserve">6.300612449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44828224182129</t>
   </si>
   <si>
     <t xml:space="preserve">6.36253833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48559713363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55228757858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69043016433716</t>
+    <t xml:space="preserve">6.48559665679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55228805541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69043064117432</t>
   </si>
   <si>
     <t xml:space="preserve">6.74146509170532</t>
@@ -3017,22 +3017,22 @@
     <t xml:space="preserve">6.58917093276978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4352560043335</t>
+    <t xml:space="preserve">6.43525552749634</t>
   </si>
   <si>
     <t xml:space="preserve">6.41662406921387</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39961290359497</t>
+    <t xml:space="preserve">6.39961242675781</t>
   </si>
   <si>
     <t xml:space="preserve">6.46036863327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26757001876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26108932495117</t>
+    <t xml:space="preserve">6.26756954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26108884811401</t>
   </si>
   <si>
     <t xml:space="preserve">6.36396932601929</t>
@@ -3041,19 +3041,19 @@
     <t xml:space="preserve">6.3745002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34533834457397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26190042495728</t>
+    <t xml:space="preserve">6.34533739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26189994812012</t>
   </si>
   <si>
     <t xml:space="preserve">6.33075618743896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37126016616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45145702362061</t>
+    <t xml:space="preserve">6.37125968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45145750045776</t>
   </si>
   <si>
     <t xml:space="preserve">6.5697283744812</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">6.48710155487061</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38746118545532</t>
+    <t xml:space="preserve">6.38746213912964</t>
   </si>
   <si>
     <t xml:space="preserve">6.32508563995361</t>
@@ -3074,31 +3074,31 @@
     <t xml:space="preserve">6.28215169906616</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26270914077759</t>
+    <t xml:space="preserve">6.26270961761475</t>
   </si>
   <si>
     <t xml:space="preserve">6.3720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32184457778931</t>
+    <t xml:space="preserve">6.32184505462646</t>
   </si>
   <si>
     <t xml:space="preserve">6.3169846534729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17036008834839</t>
+    <t xml:space="preserve">6.17036151885986</t>
   </si>
   <si>
     <t xml:space="preserve">6.18899250030518</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14767932891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07882213592529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19547271728516</t>
+    <t xml:space="preserve">6.1476788520813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07882165908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19547319412231</t>
   </si>
   <si>
     <t xml:space="preserve">6.14038753509521</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">6.05370950698853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19790363311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15983009338379</t>
+    <t xml:space="preserve">6.19790315628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15982913970947</t>
   </si>
   <si>
     <t xml:space="preserve">6.20519399642944</t>
@@ -3125,70 +3125,70 @@
     <t xml:space="preserve">6.12499618530273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18008136749268</t>
+    <t xml:space="preserve">6.18008184432983</t>
   </si>
   <si>
     <t xml:space="preserve">6.13633728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9783730506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01077461242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88035202026367</t>
+    <t xml:space="preserve">5.97837257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01077508926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88035297393799</t>
   </si>
   <si>
     <t xml:space="preserve">5.93057775497437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04317855834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97027158737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94191932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03345775604248</t>
+    <t xml:space="preserve">6.04317903518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97027111053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94191884994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03345823287964</t>
   </si>
   <si>
     <t xml:space="preserve">6.0755820274353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00915575027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04965925216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98971319198608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9654107093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15334892272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11365556716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0950231552124</t>
+    <t xml:space="preserve">6.0091552734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04965972900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98971366882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96541118621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15334939956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11365509033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09502363204956</t>
   </si>
   <si>
     <t xml:space="preserve">6.22706604003906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24731779098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04560804367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09745311737061</t>
+    <t xml:space="preserve">6.24731731414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04560852050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09745359420776</t>
   </si>
   <si>
     <t xml:space="preserve">6.05046892166138</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">6.14200782775879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08773231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03507804870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13147640228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99052333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63003873825073</t>
+    <t xml:space="preserve">6.08773279190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0350775718689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13147687911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99052381515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63003969192505</t>
   </si>
   <si>
     <t xml:space="preserve">5.61950731277466</t>
@@ -3218,40 +3218,40 @@
     <t xml:space="preserve">5.53606986999512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65920209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84632968902588</t>
+    <t xml:space="preserve">5.65920114517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84633016586304</t>
   </si>
   <si>
     <t xml:space="preserve">5.96865177154541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16550064086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52193450927734</t>
+    <t xml:space="preserve">6.16550016403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5219349861145</t>
   </si>
   <si>
     <t xml:space="preserve">6.5186939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65235710144043</t>
+    <t xml:space="preserve">6.65235614776611</t>
   </si>
   <si>
     <t xml:space="preserve">6.54542684555054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49682283401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55271673202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57135009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57945013046265</t>
+    <t xml:space="preserve">6.49682188034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5527172088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57134962081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57944965362549</t>
   </si>
   <si>
     <t xml:space="preserve">6.61347246170044</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">6.66936874389648</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81923294067383</t>
+    <t xml:space="preserve">6.81923389434814</t>
   </si>
   <si>
     <t xml:space="preserve">6.87512874603271</t>
@@ -3269,37 +3269,37 @@
     <t xml:space="preserve">6.86135721206665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88727903366089</t>
+    <t xml:space="preserve">6.88727951049805</t>
   </si>
   <si>
     <t xml:space="preserve">6.78034925460815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73984622955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70906114578247</t>
+    <t xml:space="preserve">6.73984527587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70906162261963</t>
   </si>
   <si>
     <t xml:space="preserve">6.64992618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64749717712402</t>
+    <t xml:space="preserve">6.64749670028687</t>
   </si>
   <si>
     <t xml:space="preserve">6.6272439956665</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61023235321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57782888412476</t>
+    <t xml:space="preserve">6.61023283004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57782983779907</t>
   </si>
   <si>
     <t xml:space="preserve">6.6507363319397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52031373977661</t>
+    <t xml:space="preserve">6.52031421661377</t>
   </si>
   <si>
     <t xml:space="preserve">6.51707363128662</t>
@@ -3308,16 +3308,16 @@
     <t xml:space="preserve">6.61185312271118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62076425552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53813600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70015048980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76009750366211</t>
+    <t xml:space="preserve">6.62076377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53813648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70015096664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76009702682495</t>
   </si>
   <si>
     <t xml:space="preserve">6.70420169830322</t>
@@ -3326,13 +3326,13 @@
     <t xml:space="preserve">6.85082530975342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80060148239136</t>
+    <t xml:space="preserve">6.8006010055542</t>
   </si>
   <si>
     <t xml:space="preserve">7.23318195343018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11005163192749</t>
+    <t xml:space="preserve">7.11005067825317</t>
   </si>
   <si>
     <t xml:space="preserve">7.24047231674194</t>
@@ -3341,16 +3341,16 @@
     <t xml:space="preserve">7.24857378005981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13111257553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22994327545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15541458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17647695541382</t>
+    <t xml:space="preserve">7.13111305236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22994232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15541505813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17647647857666</t>
   </si>
   <si>
     <t xml:space="preserve">7.09466361999512</t>
@@ -3371,31 +3371,31 @@
     <t xml:space="preserve">6.88806295394897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9417781829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81038093566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94260501861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76906108856201</t>
+    <t xml:space="preserve">6.94177913665771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8103814125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94260549545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76906061172485</t>
   </si>
   <si>
     <t xml:space="preserve">6.79385280609131</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77649879455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06739234924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07069683074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98061895370483</t>
+    <t xml:space="preserve">6.77649831771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06739187240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07069730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98061847686768</t>
   </si>
   <si>
     <t xml:space="preserve">7.02441930770874</t>
@@ -3404,40 +3404,40 @@
     <t xml:space="preserve">6.84591627120972</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87401342391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99301481246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99797391891479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99549531936646</t>
+    <t xml:space="preserve">6.87401437759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99301528930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99797487258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9954948425293</t>
   </si>
   <si>
     <t xml:space="preserve">6.86161804199219</t>
   </si>
   <si>
-    <t xml:space="preserve">6.773193359375</t>
+    <t xml:space="preserve">6.77319288253784</t>
   </si>
   <si>
     <t xml:space="preserve">6.67485094070435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59221076965332</t>
+    <t xml:space="preserve">6.59221124649048</t>
   </si>
   <si>
     <t xml:space="preserve">6.54510545730591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47899341583252</t>
+    <t xml:space="preserve">6.47899389266968</t>
   </si>
   <si>
     <t xml:space="preserve">6.48229932785034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56741905212402</t>
+    <t xml:space="preserve">6.56741809844971</t>
   </si>
   <si>
     <t xml:space="preserve">6.44759082794189</t>
@@ -3449,52 +3449,52 @@
     <t xml:space="preserve">6.48147296905518</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50626468658447</t>
+    <t xml:space="preserve">6.50626516342163</t>
   </si>
   <si>
     <t xml:space="preserve">6.68063545227051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69633674621582</t>
+    <t xml:space="preserve">6.69633769989014</t>
   </si>
   <si>
     <t xml:space="preserve">6.78889417648315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88062477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82195043563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76079702377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80790233612061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74509477615356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66410827636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86409759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87897205352783</t>
+    <t xml:space="preserve">6.88062524795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82194995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76079654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80790185928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74509525299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66410779953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86409711837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87897300720215</t>
   </si>
   <si>
     <t xml:space="preserve">6.96326494216919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97648763656616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96409177780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03020429611206</t>
+    <t xml:space="preserve">6.97648811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96409130096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0302038192749</t>
   </si>
   <si>
     <t xml:space="preserve">6.96904993057251</t>
@@ -3503,25 +3503,25 @@
     <t xml:space="preserve">7.01863431930542</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97070264816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06904458999634</t>
+    <t xml:space="preserve">6.970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0690450668335</t>
   </si>
   <si>
     <t xml:space="preserve">7.09549045562744</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14920520782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10210037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09053182601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12441444396973</t>
+    <t xml:space="preserve">7.14920616149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10210084915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09053134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12441396713257</t>
   </si>
   <si>
     <t xml:space="preserve">7.03185606002808</t>
@@ -3530,46 +3530,46 @@
     <t xml:space="preserve">7.09135818481445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15581750869751</t>
+    <t xml:space="preserve">7.15581655502319</t>
   </si>
   <si>
     <t xml:space="preserve">7.15829610824585</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0698709487915</t>
+    <t xml:space="preserve">7.06987142562866</t>
   </si>
   <si>
     <t xml:space="preserve">7.01367616653442</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20457553863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21862363815308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1401162147522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98144626617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89054203033447</t>
+    <t xml:space="preserve">7.2045750617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21862316131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14011573791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98144674301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89054250717163</t>
   </si>
   <si>
     <t xml:space="preserve">6.83186769485474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90541744232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78145790100098</t>
+    <t xml:space="preserve">6.90541696548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78145742416382</t>
   </si>
   <si>
     <t xml:space="preserve">6.85004758834839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83269309997559</t>
+    <t xml:space="preserve">6.83269357681274</t>
   </si>
   <si>
     <t xml:space="preserve">6.83765268325806</t>
@@ -3581,37 +3581,37 @@
     <t xml:space="preserve">6.68724679946899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77980470657349</t>
+    <t xml:space="preserve">6.77980422973633</t>
   </si>
   <si>
     <t xml:space="preserve">6.74096250534058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71699810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58312034606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67237186431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7665810585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74261665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74922657012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73269891738892</t>
+    <t xml:space="preserve">6.7169976234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58312082290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67237234115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76658153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74261617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74922704696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73269939422607</t>
   </si>
   <si>
     <t xml:space="preserve">6.72939348220825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65749597549438</t>
+    <t xml:space="preserve">6.65749645233154</t>
   </si>
   <si>
     <t xml:space="preserve">6.59551620483398</t>
@@ -3626,16 +3626,16 @@
     <t xml:space="preserve">6.61369752883911</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62113523483276</t>
+    <t xml:space="preserve">6.62113475799561</t>
   </si>
   <si>
     <t xml:space="preserve">6.62196063995361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57898807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62939929962158</t>
+    <t xml:space="preserve">6.57898855209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62939882278442</t>
   </si>
   <si>
     <t xml:space="preserve">6.69551134109497</t>
@@ -3647,19 +3647,19 @@
     <t xml:space="preserve">6.78724193572998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67650461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65584373474121</t>
+    <t xml:space="preserve">6.67650413513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65584325790405</t>
   </si>
   <si>
     <t xml:space="preserve">6.71038579940796</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70046997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58725214004517</t>
+    <t xml:space="preserve">6.70046949386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58725261688232</t>
   </si>
   <si>
     <t xml:space="preserve">6.63931608200073</t>
@@ -3671,28 +3671,28 @@
     <t xml:space="preserve">6.58973169326782</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6426215171814</t>
+    <t xml:space="preserve">6.64262104034424</t>
   </si>
   <si>
     <t xml:space="preserve">6.47238206863403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48643159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4880838394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53353643417358</t>
+    <t xml:space="preserve">6.48643112182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48808336257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53353595733643</t>
   </si>
   <si>
     <t xml:space="preserve">6.56246042251587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51452875137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54841136932373</t>
+    <t xml:space="preserve">6.51452922821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54841089248657</t>
   </si>
   <si>
     <t xml:space="preserve">6.6624550819397</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">6.65914916992188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63105154037476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55502319335938</t>
+    <t xml:space="preserve">6.63105201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55502271652222</t>
   </si>
   <si>
     <t xml:space="preserve">6.61948204040527</t>
@@ -3716,25 +3716,25 @@
     <t xml:space="preserve">6.43849658966064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60510444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72942543029785</t>
+    <t xml:space="preserve">6.60510492324829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72942590713501</t>
   </si>
   <si>
     <t xml:space="preserve">6.80807876586914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83429670333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73365497589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81230735778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77847814559937</t>
+    <t xml:space="preserve">6.83429622650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73365449905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81230783462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77847862243652</t>
   </si>
   <si>
     <t xml:space="preserve">6.57973337173462</t>
@@ -3746,10 +3746,10 @@
     <t xml:space="preserve">6.50700092315674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51461267471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55605220794678</t>
+    <t xml:space="preserve">6.51461172103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55605316162109</t>
   </si>
   <si>
     <t xml:space="preserve">6.56197261810303</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">6.58649873733521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62455701828003</t>
+    <t xml:space="preserve">6.62455654144287</t>
   </si>
   <si>
     <t xml:space="preserve">6.63385963439941</t>
@@ -3770,52 +3770,52 @@
     <t xml:space="preserve">6.67191696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63639688491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57719564437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64316177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69982576370239</t>
+    <t xml:space="preserve">6.63639640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57719659805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64316272735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69982528686523</t>
   </si>
   <si>
     <t xml:space="preserve">6.76663827896118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62371063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56366491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49346923828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4943151473999</t>
+    <t xml:space="preserve">6.62371015548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56366395950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49346876144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49431467056274</t>
   </si>
   <si>
     <t xml:space="preserve">6.55267000198364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52645301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60002994537354</t>
+    <t xml:space="preserve">6.52645254135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60002946853638</t>
   </si>
   <si>
     <t xml:space="preserve">6.53068113327026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52476072311401</t>
+    <t xml:space="preserve">6.52476119995117</t>
   </si>
   <si>
     <t xml:space="preserve">6.41904592514038</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35815334320068</t>
+    <t xml:space="preserve">6.35815382003784</t>
   </si>
   <si>
     <t xml:space="preserve">6.36830234527588</t>
@@ -3824,22 +3824,22 @@
     <t xml:space="preserve">6.23721504211426</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3420844078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28795766830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94121074676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92091369628906</t>
+    <t xml:space="preserve">6.34208488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2879581451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94121122360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92091417312622</t>
   </si>
   <si>
     <t xml:space="preserve">5.88539409637451</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78475284576416</t>
+    <t xml:space="preserve">5.784752368927</t>
   </si>
   <si>
     <t xml:space="preserve">5.83465003967285</t>
@@ -3848,16 +3848,16 @@
     <t xml:space="preserve">5.86932468414307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98688077926636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9352912902832</t>
+    <t xml:space="preserve">5.9868803024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93529176712036</t>
   </si>
   <si>
     <t xml:space="preserve">5.87524557113647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78221559524536</t>
+    <t xml:space="preserve">5.78221464157104</t>
   </si>
   <si>
     <t xml:space="preserve">5.74500370025635</t>
@@ -3869,34 +3869,34 @@
     <t xml:space="preserve">5.69087743759155</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69848918914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6900315284729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83803272247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85156440734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70694637298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72132301330566</t>
+    <t xml:space="preserve">5.69848871231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69003200531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8380331993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85156488418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70694589614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72132253646851</t>
   </si>
   <si>
     <t xml:space="preserve">5.77629518508911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8405704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9885721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09767055511475</t>
+    <t xml:space="preserve">5.84056997299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98857164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0976710319519</t>
   </si>
   <si>
     <t xml:space="preserve">6.06637859344482</t>
@@ -3905,7 +3905,7 @@
     <t xml:space="preserve">6.02747535705566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97165775299072</t>
+    <t xml:space="preserve">5.97165727615356</t>
   </si>
   <si>
     <t xml:space="preserve">6.0426983833313</t>
@@ -3914,22 +3914,22 @@
     <t xml:space="preserve">6.10274505615234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14841365814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11965894699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16109943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11543083190918</t>
+    <t xml:space="preserve">6.14841413497925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11965942382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16109991073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11543035507202</t>
   </si>
   <si>
     <t xml:space="preserve">6.13657379150391</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13319063186646</t>
+    <t xml:space="preserve">6.13319110870361</t>
   </si>
   <si>
     <t xml:space="preserve">6.16871118545532</t>
@@ -3938,16 +3938,16 @@
     <t xml:space="preserve">6.08498477935791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99956607818604</t>
+    <t xml:space="preserve">5.99956655502319</t>
   </si>
   <si>
     <t xml:space="preserve">6.05538415908813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00379467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04692649841309</t>
+    <t xml:space="preserve">6.00379514694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04692697525024</t>
   </si>
   <si>
     <t xml:space="preserve">5.99364614486694</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">5.95558834075928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87778186798096</t>
+    <t xml:space="preserve">5.87778234481812</t>
   </si>
   <si>
     <t xml:space="preserve">5.87947368621826</t>
@@ -3968,22 +3968,22 @@
     <t xml:space="preserve">5.84141635894775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95812606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04608201980591</t>
+    <t xml:space="preserve">5.95812559127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04608154296875</t>
   </si>
   <si>
     <t xml:space="preserve">5.76445531845093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74162101745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67227125167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71286630630493</t>
+    <t xml:space="preserve">5.7416205406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67227077484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71286582946777</t>
   </si>
   <si>
     <t xml:space="preserve">5.57332134246826</t>
@@ -3992,28 +3992,28 @@
     <t xml:space="preserve">5.51919507980347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68580293655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76022672653198</t>
+    <t xml:space="preserve">5.6858024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76022624969482</t>
   </si>
   <si>
     <t xml:space="preserve">5.66719722747803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66804265975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65789413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5851616859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60376739501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66381454467773</t>
+    <t xml:space="preserve">5.66804218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65789365768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58516120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60376787185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66381406784058</t>
   </si>
   <si>
     <t xml:space="preserve">5.62237310409546</t>
@@ -4025,31 +4025,31 @@
     <t xml:space="preserve">5.62660217285156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7805233001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81519794464111</t>
+    <t xml:space="preserve">5.78052425384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81519889831543</t>
   </si>
   <si>
     <t xml:space="preserve">5.84902763366699</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85917615890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95051383972168</t>
+    <t xml:space="preserve">5.85917520523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95051431655884</t>
   </si>
   <si>
     <t xml:space="preserve">5.92852592468262</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95897102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06553268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02155494689941</t>
+    <t xml:space="preserve">5.95897150039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06553220748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02155542373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.87693643569946</t>
@@ -4061,10 +4061,10 @@
     <t xml:space="preserve">5.86086750030518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86171388626099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85410165786743</t>
+    <t xml:space="preserve">5.86171340942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85410213470459</t>
   </si>
   <si>
     <t xml:space="preserve">5.8870849609375</t>
@@ -4073,19 +4073,19 @@
     <t xml:space="preserve">5.75684404373169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8042049407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92260551452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83972501754761</t>
+    <t xml:space="preserve">5.80420398712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92260503768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83972454071045</t>
   </si>
   <si>
     <t xml:space="preserve">5.79624176025391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79711103439331</t>
+    <t xml:space="preserve">5.79711198806763</t>
   </si>
   <si>
     <t xml:space="preserve">5.95886707305908</t>
@@ -4109,16 +4109,16 @@
     <t xml:space="preserve">5.77363109588623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59274291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50577735900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63274765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5936131477356</t>
+    <t xml:space="preserve">5.59274339675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50577783584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63274669647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59361267089844</t>
   </si>
   <si>
     <t xml:space="preserve">5.56056547164917</t>
@@ -4133,13 +4133,13 @@
     <t xml:space="preserve">5.66144561767578</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63709449768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59622144699097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47533941268921</t>
+    <t xml:space="preserve">5.63709545135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59622097015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47533988952637</t>
   </si>
   <si>
     <t xml:space="preserve">5.51708316802979</t>
@@ -4151,31 +4151,31 @@
     <t xml:space="preserve">5.38489580154419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69536209106445</t>
+    <t xml:space="preserve">5.69536161422729</t>
   </si>
   <si>
     <t xml:space="preserve">5.738844871521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36924171447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36576366424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17878770828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93093681335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8361439704895</t>
+    <t xml:space="preserve">5.3692421913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36576318740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17878818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93093633651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83614444732666</t>
   </si>
   <si>
     <t xml:space="preserve">4.976158618927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25183916091919</t>
+    <t xml:space="preserve">5.25183868408203</t>
   </si>
   <si>
     <t xml:space="preserve">4.99094247817993</t>
@@ -4184,7 +4184,7 @@
     <t xml:space="preserve">4.98137664794922</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0605149269104</t>
+    <t xml:space="preserve">5.06051445007324</t>
   </si>
   <si>
     <t xml:space="preserve">5.06660270690918</t>
@@ -4193,22 +4193,22 @@
     <t xml:space="preserve">5.06486320495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97441864013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00920581817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06399345397949</t>
+    <t xml:space="preserve">4.97441911697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00920534133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06399297714233</t>
   </si>
   <si>
     <t xml:space="preserve">4.96485328674316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01790189743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11182451248169</t>
+    <t xml:space="preserve">5.01790237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11182403564453</t>
   </si>
   <si>
     <t xml:space="preserve">5.2848858833313</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">5.27705860137939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3083667755127</t>
+    <t xml:space="preserve">5.30836629867554</t>
   </si>
   <si>
     <t xml:space="preserve">5.3135838508606</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">5.48751449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46751260757446</t>
+    <t xml:space="preserve">5.46751308441162</t>
   </si>
   <si>
     <t xml:space="preserve">5.43359661102295</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">5.39011335372925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39359188079834</t>
+    <t xml:space="preserve">5.39359283447266</t>
   </si>
   <si>
     <t xml:space="preserve">5.37532997131348</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">5.36141538619995</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22922801971436</t>
+    <t xml:space="preserve">5.2292275428772</t>
   </si>
   <si>
     <t xml:space="preserve">5.30749654769897</t>
@@ -4265,40 +4265,40 @@
     <t xml:space="preserve">5.29879999160767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28140735626221</t>
+    <t xml:space="preserve">5.28140687942505</t>
   </si>
   <si>
     <t xml:space="preserve">5.40924549102783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40750694274902</t>
+    <t xml:space="preserve">5.40750741958618</t>
   </si>
   <si>
     <t xml:space="preserve">5.36837196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43446588516235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.386634349823</t>
+    <t xml:space="preserve">5.43446636199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38663482666016</t>
   </si>
   <si>
     <t xml:space="preserve">5.26575326919556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22487926483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10747671127319</t>
+    <t xml:space="preserve">5.2248797416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10747623443604</t>
   </si>
   <si>
     <t xml:space="preserve">5.08051729202271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20052909851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07703828811646</t>
+    <t xml:space="preserve">5.2005295753479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0770378112793</t>
   </si>
   <si>
     <t xml:space="preserve">5.16313409805298</t>
@@ -4307,40 +4307,40 @@
     <t xml:space="preserve">5.20661640167236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22661924362183</t>
+    <t xml:space="preserve">5.22661876678467</t>
   </si>
   <si>
     <t xml:space="preserve">5.16400384902954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16226434707642</t>
+    <t xml:space="preserve">5.16226387023926</t>
   </si>
   <si>
     <t xml:space="preserve">5.32488965988159</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3335862159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33271646499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37793827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37967777252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35880613327026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25618743896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15182828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17791843414307</t>
+    <t xml:space="preserve">5.33358669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3327169418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37793874740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37967729568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35880661010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25618696212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15182876586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17791795730591</t>
   </si>
   <si>
     <t xml:space="preserve">5.13530540466309</t>
@@ -4349,19 +4349,19 @@
     <t xml:space="preserve">5.24314165115356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20748662948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08399534225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98224639892578</t>
+    <t xml:space="preserve">5.20748615264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0839958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98224592208862</t>
   </si>
   <si>
     <t xml:space="preserve">4.76657199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68569421768188</t>
+    <t xml:space="preserve">4.68569374084473</t>
   </si>
   <si>
     <t xml:space="preserve">4.63786363601685</t>
@@ -4370,13 +4370,13 @@
     <t xml:space="preserve">4.83179616928101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69612979888916</t>
+    <t xml:space="preserve">4.69613027572632</t>
   </si>
   <si>
     <t xml:space="preserve">4.73265552520752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77352857589722</t>
+    <t xml:space="preserve">4.77352905273438</t>
   </si>
   <si>
     <t xml:space="preserve">4.75265789031982</t>
@@ -4394,16 +4394,16 @@
     <t xml:space="preserve">4.70395708084106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76222324371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69786930084229</t>
+    <t xml:space="preserve">4.76222372055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69786882400513</t>
   </si>
   <si>
     <t xml:space="preserve">4.53959226608276</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62047052383423</t>
+    <t xml:space="preserve">4.62047004699707</t>
   </si>
   <si>
     <t xml:space="preserve">4.59264135360718</t>
@@ -4418,22 +4418,22 @@
     <t xml:space="preserve">4.57698774337769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56742143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55872488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50306749343872</t>
+    <t xml:space="preserve">4.56742095947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55872535705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5030665397644</t>
   </si>
   <si>
     <t xml:space="preserve">4.45871448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20477533340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34826803207397</t>
+    <t xml:space="preserve">4.2047758102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34826898574829</t>
   </si>
   <si>
     <t xml:space="preserve">4.43776512145996</t>
@@ -4448,7 +4448,7 @@
     <t xml:space="preserve">4.29222011566162</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27052354812622</t>
+    <t xml:space="preserve">4.27052402496338</t>
   </si>
   <si>
     <t xml:space="preserve">4.29402828216553</t>
@@ -4463,46 +4463,46 @@
     <t xml:space="preserve">4.33335256576538</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47754192352295</t>
+    <t xml:space="preserve">4.47754144668579</t>
   </si>
   <si>
     <t xml:space="preserve">4.39708471298218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40702867507935</t>
+    <t xml:space="preserve">4.4070291519165</t>
   </si>
   <si>
     <t xml:space="preserve">4.44138097763062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47573328018188</t>
+    <t xml:space="preserve">4.47573375701904</t>
   </si>
   <si>
     <t xml:space="preserve">4.54895782470703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52726173400879</t>
+    <t xml:space="preserve">4.52726125717163</t>
   </si>
   <si>
     <t xml:space="preserve">4.50872945785522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52002906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55166912078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61223793029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6077184677124</t>
+    <t xml:space="preserve">4.52003002166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55167007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61223840713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60771799087524</t>
   </si>
   <si>
     <t xml:space="preserve">4.60319805145264</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52274179458618</t>
+    <t xml:space="preserve">4.52274131774902</t>
   </si>
   <si>
     <t xml:space="preserve">4.46126937866211</t>
@@ -4517,7 +4517,7 @@
     <t xml:space="preserve">4.47121334075928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3686089515686</t>
+    <t xml:space="preserve">4.36860847473145</t>
   </si>
   <si>
     <t xml:space="preserve">4.34239292144775</t>
@@ -4526,10 +4526,10 @@
     <t xml:space="preserve">4.35143232345581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24476003646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19684791564941</t>
+    <t xml:space="preserve">4.24475955963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19684743881226</t>
   </si>
   <si>
     <t xml:space="preserve">4.29809617996216</t>
@@ -4541,10 +4541,10 @@
     <t xml:space="preserve">4.22848749160767</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29312467575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34465265274048</t>
+    <t xml:space="preserve">4.29312372207642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34465312957764</t>
   </si>
   <si>
     <t xml:space="preserve">4.38894891738892</t>
@@ -4553,7 +4553,7 @@
     <t xml:space="preserve">4.51234531402588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47392559051514</t>
+    <t xml:space="preserve">4.47392511367798</t>
   </si>
   <si>
     <t xml:space="preserve">4.44770908355713</t>
@@ -4565,16 +4565,16 @@
     <t xml:space="preserve">4.44725704193115</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45720148086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37584018707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38397693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37041616439819</t>
+    <t xml:space="preserve">4.45720100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37584066390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38397645950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37041664123535</t>
   </si>
   <si>
     <t xml:space="preserve">4.19820356369019</t>
@@ -4583,25 +4583,25 @@
     <t xml:space="preserve">4.11096715927124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8890335559845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90440130233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84021759033203</t>
+    <t xml:space="preserve">3.88903331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90440154075623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84021711349487</t>
   </si>
   <si>
     <t xml:space="preserve">3.81852102279663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93875360488892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03503084182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90666127204895</t>
+    <t xml:space="preserve">3.9387538433075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03503036499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90666174888611</t>
   </si>
   <si>
     <t xml:space="preserve">3.76970458030701</t>
@@ -4613,7 +4613,7 @@
     <t xml:space="preserve">3.78688073158264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68472838401794</t>
+    <t xml:space="preserve">3.68472862243652</t>
   </si>
   <si>
     <t xml:space="preserve">3.61873555183411</t>
@@ -4622,16 +4622,16 @@
     <t xml:space="preserve">3.68111205101013</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71817636489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81038498878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84925699234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87230944633484</t>
+    <t xml:space="preserve">3.7181761264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81038522720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84925675392151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87230968475342</t>
   </si>
   <si>
     <t xml:space="preserve">3.83388924598694</t>
@@ -4643,10 +4643,10 @@
     <t xml:space="preserve">3.88134932518005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95864224433899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96406579017639</t>
+    <t xml:space="preserve">3.95864200592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96406626701355</t>
   </si>
   <si>
     <t xml:space="preserve">4.08791446685791</t>
@@ -4655,7 +4655,7 @@
     <t xml:space="preserve">4.04271459579468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08520269393921</t>
+    <t xml:space="preserve">4.08520317077637</t>
   </si>
   <si>
     <t xml:space="preserve">4.10373497009277</t>
@@ -4664,55 +4664,55 @@
     <t xml:space="preserve">4.15164709091187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13492298126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23029565811157</t>
+    <t xml:space="preserve">4.13492250442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23029613494873</t>
   </si>
   <si>
     <t xml:space="preserve">4.28272819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32476425170898</t>
+    <t xml:space="preserve">4.32476377487183</t>
   </si>
   <si>
     <t xml:space="preserve">4.35640430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52906942367554</t>
+    <t xml:space="preserve">4.5290699005127</t>
   </si>
   <si>
     <t xml:space="preserve">4.56342172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59144639968872</t>
+    <t xml:space="preserve">4.59144592285156</t>
   </si>
   <si>
     <t xml:space="preserve">4.61947059631348</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64568662643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66195917129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59686994552612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57698202133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6583423614502</t>
+    <t xml:space="preserve">4.64568614959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66195869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59687042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57698249816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65834188461304</t>
   </si>
   <si>
     <t xml:space="preserve">4.6601505279541</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5833101272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61585426330566</t>
+    <t xml:space="preserve">4.58331060409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61585378646851</t>
   </si>
   <si>
     <t xml:space="preserve">4.64116621017456</t>
@@ -4727,13 +4727,13 @@
     <t xml:space="preserve">4.77134323120117</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70625495910645</t>
+    <t xml:space="preserve">4.70625448226929</t>
   </si>
   <si>
     <t xml:space="preserve">4.72252702713013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67732667922974</t>
+    <t xml:space="preserve">4.67732620239258</t>
   </si>
   <si>
     <t xml:space="preserve">4.72071886062622</t>
@@ -4742,28 +4742,28 @@
     <t xml:space="preserve">4.69902276992798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74422311782837</t>
+    <t xml:space="preserve">4.74422359466553</t>
   </si>
   <si>
     <t xml:space="preserve">4.74783897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56975030899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56523036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56161403656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56251764297485</t>
+    <t xml:space="preserve">4.56974983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56522989273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5616135597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56251811981201</t>
   </si>
   <si>
     <t xml:space="preserve">4.63755035400391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58692598342896</t>
+    <t xml:space="preserve">4.5869255065918</t>
   </si>
   <si>
     <t xml:space="preserve">4.61133432388306</t>
@@ -4772,25 +4772,25 @@
     <t xml:space="preserve">4.59054183959961</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5643253326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54714965820312</t>
+    <t xml:space="preserve">4.56432580947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54715013504028</t>
   </si>
   <si>
     <t xml:space="preserve">4.67461442947388</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79123163223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96028089523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95214462280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06333684921265</t>
+    <t xml:space="preserve">4.79123115539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.960280418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95214414596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0633373260498</t>
   </si>
   <si>
     <t xml:space="preserve">5.0615291595459</t>
@@ -4802,7 +4802,7 @@
     <t xml:space="preserve">5.08955335617065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15916156768799</t>
+    <t xml:space="preserve">5.15916109085083</t>
   </si>
   <si>
     <t xml:space="preserve">5.17814588546753</t>
@@ -4811,156 +4811,159 @@
     <t xml:space="preserve">5.25046634674072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2070746421814</t>
+    <t xml:space="preserve">5.20707416534424</t>
   </si>
   <si>
     <t xml:space="preserve">5.21069049835205</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11396169662476</t>
+    <t xml:space="preserve">5.1139612197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10763359069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1226282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15074348449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13387441635132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13856029510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14043474197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09170150756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05233955383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94175243377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04390525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02516174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0410943031311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0223503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01016712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00454378128052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07108354568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06358575820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04203081130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04859113693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03640794754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01672697067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01391506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98111391067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90988826751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92956972122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90520238876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97267961502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98298835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87333822250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93425512313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96799373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99892044067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96237087249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98580026626587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98486232757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99142360687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89864253997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0270357131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91644859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96330785751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95487308502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04952812194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13574886322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15824174880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16105270385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05327749252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12075424194336</t>
   </si>
   <si>
     <t xml:space="preserve">5.10763311386108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15074348449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13387441635132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13856029510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14043474197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09170150756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05233955383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94175243377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04390525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02516174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0410943031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0223503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01016712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00454378128052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07108354568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06358575820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04203081130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04859113693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03640794754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01672697067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01391506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98111391067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90988826751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92956972122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90520238876343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97267961502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98298835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87333822250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93425512313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96799373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99892044067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96237087249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98580026626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98486232757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99142360687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89864253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0270357131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91644859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96330785751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95487308502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04952812194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13574886322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15824174880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16105270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05327749252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12075424194336</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.16199016571045</t>
   </si>
   <si>
@@ -5826,6 +5829,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.48899984359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4689998626709</t>
   </si>
 </sst>
 </file>
@@ -54103,7 +54109,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G1844" t="s">
-        <v>1602</v>
+        <v>1649</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -54129,7 +54135,7 @@
         <v>5.50799989700317</v>
       </c>
       <c r="G1845" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -54155,7 +54161,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G1846" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -54181,7 +54187,7 @@
         <v>5.6269998550415</v>
       </c>
       <c r="G1847" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -54207,7 +54213,7 @@
         <v>5.60200023651123</v>
       </c>
       <c r="G1848" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -54233,7 +54239,7 @@
         <v>5.58500003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -54259,7 +54265,7 @@
         <v>5.66200017929077</v>
       </c>
       <c r="G1850" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -54285,7 +54291,7 @@
         <v>5.84899997711182</v>
       </c>
       <c r="G1851" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -54311,7 +54317,7 @@
         <v>5.90399980545044</v>
       </c>
       <c r="G1852" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -54337,7 +54343,7 @@
         <v>5.99200010299683</v>
       </c>
       <c r="G1853" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -54363,7 +54369,7 @@
         <v>5.75699996948242</v>
       </c>
       <c r="G1854" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -54389,7 +54395,7 @@
         <v>5.70800018310547</v>
       </c>
       <c r="G1855" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -54415,7 +54421,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1856" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -54441,7 +54447,7 @@
         <v>5.75899982452393</v>
       </c>
       <c r="G1857" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -54467,7 +54473,7 @@
         <v>5.80900001525879</v>
       </c>
       <c r="G1858" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -54493,7 +54499,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1859" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54519,7 +54525,7 @@
         <v>5.93100023269653</v>
       </c>
       <c r="G1860" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54545,7 +54551,7 @@
         <v>6.02799987792969</v>
       </c>
       <c r="G1861" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54571,7 +54577,7 @@
         <v>6.05600023269653</v>
       </c>
       <c r="G1862" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54597,7 +54603,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G1863" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54623,7 +54629,7 @@
         <v>6.16499996185303</v>
       </c>
       <c r="G1864" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54649,7 +54655,7 @@
         <v>6.19899988174438</v>
       </c>
       <c r="G1865" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54675,7 +54681,7 @@
         <v>6.09800004959106</v>
       </c>
       <c r="G1866" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54701,7 +54707,7 @@
         <v>6.09899997711182</v>
       </c>
       <c r="G1867" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54727,7 +54733,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G1868" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54753,7 +54759,7 @@
         <v>6.16200017929077</v>
       </c>
       <c r="G1869" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54779,7 +54785,7 @@
         <v>6.11899995803833</v>
       </c>
       <c r="G1870" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54805,7 +54811,7 @@
         <v>6.11199998855591</v>
       </c>
       <c r="G1871" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54831,7 +54837,7 @@
         <v>6.09299993515015</v>
       </c>
       <c r="G1872" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54857,7 +54863,7 @@
         <v>6.04400014877319</v>
       </c>
       <c r="G1873" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54883,7 +54889,7 @@
         <v>6.05800008773804</v>
       </c>
       <c r="G1874" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54909,7 +54915,7 @@
         <v>6.01800012588501</v>
       </c>
       <c r="G1875" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54935,7 +54941,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1876" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54961,7 +54967,7 @@
         <v>5.97800016403198</v>
       </c>
       <c r="G1877" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54987,7 +54993,7 @@
         <v>5.90100002288818</v>
       </c>
       <c r="G1878" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -55013,7 +55019,7 @@
         <v>6.00899982452393</v>
       </c>
       <c r="G1879" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -55039,7 +55045,7 @@
         <v>6.03900003433228</v>
       </c>
       <c r="G1880" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -55065,7 +55071,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G1881" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -55091,7 +55097,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G1882" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -55117,7 +55123,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1883" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -55143,7 +55149,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G1884" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -55169,7 +55175,7 @@
         <v>5.95699977874756</v>
       </c>
       <c r="G1885" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -55195,7 +55201,7 @@
         <v>6.01200008392334</v>
       </c>
       <c r="G1886" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -55221,7 +55227,7 @@
         <v>5.85799980163574</v>
       </c>
       <c r="G1887" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -55247,7 +55253,7 @@
         <v>5.95800018310547</v>
       </c>
       <c r="G1888" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -55273,7 +55279,7 @@
         <v>6.0460000038147</v>
       </c>
       <c r="G1889" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -55299,7 +55305,7 @@
         <v>5.99700021743774</v>
       </c>
       <c r="G1890" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -55325,7 +55331,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1891" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -55351,7 +55357,7 @@
         <v>6.01200008392334</v>
       </c>
       <c r="G1892" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -55377,7 +55383,7 @@
         <v>6.07399988174438</v>
       </c>
       <c r="G1893" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -55403,7 +55409,7 @@
         <v>6.07299995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -55429,7 +55435,7 @@
         <v>6.11100006103516</v>
       </c>
       <c r="G1895" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -55455,7 +55461,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1896" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -55481,7 +55487,7 @@
         <v>6.10799980163574</v>
       </c>
       <c r="G1897" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -55507,7 +55513,7 @@
         <v>6.09800004959106</v>
       </c>
       <c r="G1898" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55533,7 +55539,7 @@
         <v>6.11100006103516</v>
       </c>
       <c r="G1899" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55559,7 +55565,7 @@
         <v>6.09800004959106</v>
       </c>
       <c r="G1900" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55585,7 +55591,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G1901" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55611,7 +55617,7 @@
         <v>6.04400014877319</v>
       </c>
       <c r="G1902" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55637,7 +55643,7 @@
         <v>6.04400014877319</v>
       </c>
       <c r="G1903" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55663,7 +55669,7 @@
         <v>6.05700016021729</v>
       </c>
       <c r="G1904" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55689,7 +55695,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1905" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55715,7 +55721,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G1906" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55741,7 +55747,7 @@
         <v>6.14799976348877</v>
       </c>
       <c r="G1907" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55767,7 +55773,7 @@
         <v>6.13700008392334</v>
       </c>
       <c r="G1908" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55793,7 +55799,7 @@
         <v>6.16800022125244</v>
       </c>
       <c r="G1909" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55819,7 +55825,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1910" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55845,7 +55851,7 @@
         <v>6.33900022506714</v>
       </c>
       <c r="G1911" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55871,7 +55877,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1912" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55897,7 +55903,7 @@
         <v>6.03800010681152</v>
       </c>
       <c r="G1913" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55923,7 +55929,7 @@
         <v>6.09700012207031</v>
       </c>
       <c r="G1914" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55949,7 +55955,7 @@
         <v>6.07600021362305</v>
       </c>
       <c r="G1915" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55975,7 +55981,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1916" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -56001,7 +56007,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1917" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -56027,7 +56033,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1918" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -56053,7 +56059,7 @@
         <v>6.23799991607666</v>
       </c>
       <c r="G1919" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -56079,7 +56085,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1920" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -56105,7 +56111,7 @@
         <v>6.27699995040894</v>
       </c>
       <c r="G1921" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -56131,7 +56137,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G1922" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -56157,7 +56163,7 @@
         <v>6.29400014877319</v>
       </c>
       <c r="G1923" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -56183,7 +56189,7 @@
         <v>6.33599996566772</v>
       </c>
       <c r="G1924" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -56209,7 +56215,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G1925" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -56235,7 +56241,7 @@
         <v>6.19700002670288</v>
       </c>
       <c r="G1926" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -56261,7 +56267,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1927" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56287,7 +56293,7 @@
         <v>6.31099987030029</v>
       </c>
       <c r="G1928" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56313,7 +56319,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G1929" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56339,7 +56345,7 @@
         <v>6.27199983596802</v>
       </c>
       <c r="G1930" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56365,7 +56371,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1931" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56391,7 +56397,7 @@
         <v>6.07600021362305</v>
       </c>
       <c r="G1932" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56417,7 +56423,7 @@
         <v>6.00600004196167</v>
       </c>
       <c r="G1933" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56443,7 +56449,7 @@
         <v>5.94299983978271</v>
       </c>
       <c r="G1934" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56469,7 +56475,7 @@
         <v>5.93200016021729</v>
       </c>
       <c r="G1935" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56495,7 +56501,7 @@
         <v>5.9229998588562</v>
       </c>
       <c r="G1936" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56521,7 +56527,7 @@
         <v>6.00699996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56547,7 +56553,7 @@
         <v>6.09600019454956</v>
       </c>
       <c r="G1938" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56573,7 +56579,7 @@
         <v>6.00600004196167</v>
       </c>
       <c r="G1939" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56599,7 +56605,7 @@
         <v>6.05399990081787</v>
       </c>
       <c r="G1940" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56625,7 +56631,7 @@
         <v>5.95300006866455</v>
       </c>
       <c r="G1941" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56651,7 +56657,7 @@
         <v>5.88399982452393</v>
       </c>
       <c r="G1942" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56677,7 +56683,7 @@
         <v>5.92399978637695</v>
       </c>
       <c r="G1943" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56703,7 +56709,7 @@
         <v>5.92399978637695</v>
       </c>
       <c r="G1944" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56729,7 +56735,7 @@
         <v>5.98899984359741</v>
       </c>
       <c r="G1945" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56755,7 +56761,7 @@
         <v>6.06300020217896</v>
       </c>
       <c r="G1946" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56781,7 +56787,7 @@
         <v>6.07399988174438</v>
       </c>
       <c r="G1947" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56807,7 +56813,7 @@
         <v>6.10900020599365</v>
       </c>
       <c r="G1948" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56833,7 +56839,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1949" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56859,7 +56865,7 @@
         <v>6.20699977874756</v>
       </c>
       <c r="G1950" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56885,7 +56891,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56911,7 +56917,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1952" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56937,7 +56943,7 @@
         <v>6.1560001373291</v>
       </c>
       <c r="G1953" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56963,7 +56969,7 @@
         <v>6.14900016784668</v>
       </c>
       <c r="G1954" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56989,7 +56995,7 @@
         <v>6.13299989700317</v>
       </c>
       <c r="G1955" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -57015,7 +57021,7 @@
         <v>6.10300016403198</v>
       </c>
       <c r="G1956" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -57041,7 +57047,7 @@
         <v>6.20900011062622</v>
       </c>
       <c r="G1957" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -57067,7 +57073,7 @@
         <v>6.19099998474121</v>
       </c>
       <c r="G1958" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -57093,7 +57099,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G1959" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -57119,7 +57125,7 @@
         <v>6.19899988174438</v>
       </c>
       <c r="G1960" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -57145,7 +57151,7 @@
         <v>6.12599992752075</v>
       </c>
       <c r="G1961" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -57171,7 +57177,7 @@
         <v>6.32200002670288</v>
       </c>
       <c r="G1962" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -57197,7 +57203,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G1963" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -57223,7 +57229,7 @@
         <v>6.23600006103516</v>
       </c>
       <c r="G1964" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -57249,7 +57255,7 @@
         <v>6.22499990463257</v>
       </c>
       <c r="G1965" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57275,7 +57281,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G1966" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57301,7 +57307,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G1967" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57327,7 +57333,7 @@
         <v>6.04500007629395</v>
       </c>
       <c r="G1968" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57353,7 +57359,7 @@
         <v>5.97499990463257</v>
       </c>
       <c r="G1969" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57379,7 +57385,7 @@
         <v>5.94799995422363</v>
       </c>
       <c r="G1970" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57405,7 +57411,7 @@
         <v>5.85099983215332</v>
       </c>
       <c r="G1971" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57431,7 +57437,7 @@
         <v>5.78800010681152</v>
       </c>
       <c r="G1972" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57457,7 +57463,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1973" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57483,7 +57489,7 @@
         <v>5.66099977493286</v>
       </c>
       <c r="G1974" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57509,7 +57515,7 @@
         <v>5.51700019836426</v>
       </c>
       <c r="G1975" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57535,7 +57541,7 @@
         <v>5.55700016021729</v>
       </c>
       <c r="G1976" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57561,7 +57567,7 @@
         <v>5.55399990081787</v>
       </c>
       <c r="G1977" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57587,7 +57593,7 @@
         <v>5.60099983215332</v>
       </c>
       <c r="G1978" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57613,7 +57619,7 @@
         <v>5.60400009155273</v>
       </c>
       <c r="G1979" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57639,7 +57645,7 @@
         <v>5.71099996566772</v>
       </c>
       <c r="G1980" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57665,7 +57671,7 @@
         <v>5.7810001373291</v>
       </c>
       <c r="G1981" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57691,7 +57697,7 @@
         <v>5.75400018692017</v>
       </c>
       <c r="G1982" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57717,7 +57723,7 @@
         <v>5.72300004959106</v>
       </c>
       <c r="G1983" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57743,7 +57749,7 @@
         <v>5.74399995803833</v>
       </c>
       <c r="G1984" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57769,7 +57775,7 @@
         <v>5.74200010299683</v>
       </c>
       <c r="G1985" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57795,7 +57801,7 @@
         <v>5.70100021362305</v>
       </c>
       <c r="G1986" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57821,7 +57827,7 @@
         <v>5.68200016021729</v>
       </c>
       <c r="G1987" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57847,7 +57853,7 @@
         <v>5.64699983596802</v>
       </c>
       <c r="G1988" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57873,7 +57879,7 @@
         <v>5.69099998474121</v>
       </c>
       <c r="G1989" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57899,7 +57905,7 @@
         <v>5.77299976348877</v>
       </c>
       <c r="G1990" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57925,7 +57931,7 @@
         <v>5.7519998550415</v>
       </c>
       <c r="G1991" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57951,7 +57957,7 @@
         <v>5.77899980545044</v>
       </c>
       <c r="G1992" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57977,7 +57983,7 @@
         <v>5.75500011444092</v>
       </c>
       <c r="G1993" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -58003,7 +58009,7 @@
         <v>5.88600015640259</v>
       </c>
       <c r="G1994" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -58029,7 +58035,7 @@
         <v>5.98799991607666</v>
       </c>
       <c r="G1995" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -58055,7 +58061,7 @@
         <v>6.03299999237061</v>
       </c>
       <c r="G1996" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -58081,7 +58087,7 @@
         <v>6.11399984359741</v>
       </c>
       <c r="G1997" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -58107,7 +58113,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G1998" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -58133,7 +58139,7 @@
         <v>6.14599990844727</v>
       </c>
       <c r="G1999" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -58159,7 +58165,7 @@
         <v>6.11899995803833</v>
       </c>
       <c r="G2000" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -58185,7 +58191,7 @@
         <v>6.08799982070923</v>
       </c>
       <c r="G2001" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -58211,7 +58217,7 @@
         <v>6.1560001373291</v>
       </c>
       <c r="G2002" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -58237,7 +58243,7 @@
         <v>6.12900018692017</v>
       </c>
       <c r="G2003" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -58263,7 +58269,7 @@
         <v>6.18400001525879</v>
       </c>
       <c r="G2004" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58289,7 +58295,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58315,7 +58321,7 @@
         <v>6.24900007247925</v>
       </c>
       <c r="G2006" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -58341,7 +58347,7 @@
         <v>6.30200004577637</v>
       </c>
       <c r="G2007" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58367,7 +58373,7 @@
         <v>6.40500020980835</v>
       </c>
       <c r="G2008" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58393,7 +58399,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G2009" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58419,7 +58425,7 @@
         <v>6.41599988937378</v>
       </c>
       <c r="G2010" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58445,7 +58451,7 @@
         <v>6.39099979400635</v>
       </c>
       <c r="G2011" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58471,7 +58477,7 @@
         <v>6.38199996948242</v>
       </c>
       <c r="G2012" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58497,7 +58503,7 @@
         <v>6.41400003433228</v>
       </c>
       <c r="G2013" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58523,7 +58529,7 @@
         <v>6.43200016021729</v>
       </c>
       <c r="G2014" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58549,7 +58555,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G2015" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58575,7 +58581,7 @@
         <v>6.43300008773804</v>
       </c>
       <c r="G2016" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58601,7 +58607,7 @@
         <v>6.48600006103516</v>
       </c>
       <c r="G2017" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58627,7 +58633,7 @@
         <v>6.50699996948242</v>
       </c>
       <c r="G2018" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58653,7 +58659,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G2019" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58679,7 +58685,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G2020" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58705,7 +58711,7 @@
         <v>6.5479998588562</v>
       </c>
       <c r="G2021" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58731,7 +58737,7 @@
         <v>6.54199981689453</v>
       </c>
       <c r="G2022" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58757,7 +58763,7 @@
         <v>6.56599998474121</v>
       </c>
       <c r="G2023" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58783,7 +58789,7 @@
         <v>6.51700019836426</v>
       </c>
       <c r="G2024" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58809,7 +58815,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G2025" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58835,7 +58841,7 @@
         <v>6.61199998855591</v>
       </c>
       <c r="G2026" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58861,7 +58867,7 @@
         <v>6.72200012207031</v>
       </c>
       <c r="G2027" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58887,7 +58893,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G2028" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58913,7 +58919,7 @@
         <v>6.66300010681152</v>
       </c>
       <c r="G2029" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58939,7 +58945,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G2030" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58965,7 +58971,7 @@
         <v>6.66800022125244</v>
       </c>
       <c r="G2031" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58991,7 +58997,7 @@
         <v>6.67399978637695</v>
       </c>
       <c r="G2032" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -59017,7 +59023,7 @@
         <v>6.7189998626709</v>
       </c>
       <c r="G2033" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -59043,7 +59049,7 @@
         <v>6.72100019454956</v>
       </c>
       <c r="G2034" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -59069,7 +59075,7 @@
         <v>6.70900011062622</v>
       </c>
       <c r="G2035" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -59095,7 +59101,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G2036" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -59121,7 +59127,7 @@
         <v>6.70900011062622</v>
       </c>
       <c r="G2037" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -59147,7 +59153,7 @@
         <v>6.62599992752075</v>
       </c>
      